--- a/tests/integration/out/ai-and-nanotech-families_not_extended.xlsx
+++ b/tests/integration/out/ai-and-nanotech-families_not_extended.xlsx
@@ -573,7 +573,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>142-026-074-104-094;;051-636-558-895-901</t>
+          <t>051-636-558-895-901;;142-026-074-104-094</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -637,7 +637,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -787,7 +787,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>168-357-791-484-886;;056-380-748-308-005</t>
+          <t>056-380-748-308-005;;168-357-791-484-886</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R4" t="n">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>NIU YUEZHEN;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO</t>
+          <t>NEVEN HARTMUT;;SMELYANSKIY VADIM;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>G06N3/00;;G06N3/08;;G06N3/04;;G06N99/00</t>
+          <t>G06N3/04;;G06N3/08;;G06N99/00;;G06N3/00</t>
         </is>
       </c>
       <c r="X6" t="inlineStr"/>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>KR;;CA</t>
+          <t>CA;;KR</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>KR 20207010647 A;;CA 3075691 A</t>
+          <t>CA 3075691 A;;KR 20207010647 A</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>원자 규정 구조들 내의 단전자들의 진전의 개시 및 감시;;INITIATING AND MONITORING THE EVOLUTION OF SINGLE ELECTRONS WITHIN ATOM-DEFINED STRUCTURES</t>
+          <t>INITIATING AND MONITORING THE EVOLUTION OF SINGLE ELECTRONS WITHIN ATOM-DEFINED STRUCTURES;;원자 규정 구조들 내의 단전자들의 진전의 개시 및 감시</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>RASHIDI MOHAMMAD;;DIENEL THOMAS;;RETALLICK JACOB;;WOLKOW ROBERT;;WALUS KONRAD;;VINE WYATT;;WOLKOW ROBERT A;;WALUS CONRAD;;LIVADARU LUCIAN;;HUFF TALEANA</t>
+          <t>RASHIDI MOHAMMAD;;RETALLICK JACOB;;VINE WYATT;;WALUS KONRAD;;DIENEL THOMAS;;LIVADARU LUCIAN;;WOLKOW ROBERT A;;WOLKOW ROBERT;;HUFF TALEANA;;WALUS CONRAD</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>G06N3/063;;G06N3/08;;B82B3/00;;G01Q60/10;;G01Q60/04;;G01Q80/00;;G01Q60/24</t>
+          <t>G01Q60/10;;G01Q80/00;;G06N3/063;;G01Q60/04;;G06N3/08;;G01Q60/24;;B82B3/00</t>
         </is>
       </c>
       <c r="X7" t="inlineStr"/>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>US 11047877 B2;;US 2020/0249256 A1</t>
+          <t>US 2020/0249256 A1;;US 11047877 B2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Initiating and monitoring the evolution of single electrons within atom-defined structures;;INITIATING AND MONITORING THE EVOLUTION OF SINGLE ELECTRONS WITHIN ATOM-DEFINED STRUCTURES</t>
+          <t>INITIATING AND MONITORING THE EVOLUTION OF SINGLE ELECTRONS WITHIN ATOM-DEFINED STRUCTURES;;Initiating and monitoring the evolution of single electrons within atom-defined structures</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>RASHIDI MOHAMMAD;;DIENEL THOMAS;;RETALLICK JACOB;;WOLKOW ROBERT;;WALUS KONRAD;;VINE WYATT;;LIVADARU LUCIAN;;HUFF TALEANA</t>
+          <t>RASHIDI MOHAMMAD;;RETALLICK JACOB;;VINE WYATT;;WALUS KONRAD;;DIENEL THOMAS;;LIVADARU LUCIAN;;WOLKOW ROBERT;;HUFF TALEANA</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R8" t="n">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>G06N3/08;;G01Q70/14;;G01Q60/10;;G01Q80/00;;G06N3/04;;G01Q30/10;;G01Q60/24</t>
+          <t>G01Q30/10;;G01Q60/10;;G01Q80/00;;G06N3/04;;G01Q70/14;;G06N3/08;;G01Q60/24</t>
         </is>
       </c>
       <c r="X8" t="inlineStr"/>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>NABAVI SEYEDFAKHREDDIN;;ZHANG LIHONG</t>
+          <t>ZHANG LIHONG;;NABAVI SEYEDFAKHREDDIN</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>H02N2/18;;H01L41/047;;H01L41/332;;H01L41/113;;H02N2/00;;H01L41/316;;H01L41/187;;H01L41/29</t>
+          <t>H02N2/18;;H01L41/316;;H01L41/113;;H01L41/047;;H01L41/187;;H02N2/00;;H01L41/29;;H01L41/332</t>
         </is>
       </c>
       <c r="X9" t="inlineStr"/>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>US 15722423;;US 16421009</t>
+          <t>US 16421009;;US 15722423</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>IC unit and method of manufacturing the same, and electronic device including the same;;IC unit and methond of manufacturing the same, and electronic device including the same</t>
+          <t>IC unit and methond of manufacturing the same, and electronic device including the same;;IC unit and method of manufacturing the same, and electronic device including the same</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Zhengyong Zhu;;Huilong Zhu</t>
+          <t>Huilong Zhu;;Zhengyong Zhu</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>H01L29/165;;H01L21/3065;;H01L29/06;;H01L21/225;;H01L21/308;;H01L27/092;;H01L21/02;;H01L29/778;;H01L29/66;;H01L21/8234;;H01L21/822;;H01L29/786;;H01L29/04;;H01L29/205;;H01L21/8238;;H01L29/423;;B82Y10/00;;H01L29/775;;H01L29/78;;H01L29/08;;H01L29/45;;H01L29/267;;H01L29/15;;H01L29/10;;H01L29/417;;H01L21/3105;;H01L21/324</t>
+          <t>H01L29/417;;H01L29/15;;H01L29/66;;B82Y10/00;;H01L29/04;;H01L21/8234;;H01L29/205;;H01L29/423;;H01L21/225;;H01L21/02;;H01L21/3065;;H01L29/267;;H01L21/3105;;H01L21/308;;H01L29/08;;H01L21/822;;H01L29/10;;H01L29/165;;H01L29/775;;H01L29/786;;H01L21/324;;H01L21/8238;;H01L29/778;;H01L29/78;;H01L29/45;;H01L29/06;;H01L27/092</t>
         </is>
       </c>
       <c r="X11" t="inlineStr"/>
@@ -1647,17 +1647,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>B;;A;;A1;;B2</t>
+          <t>A;;B;;B2;;A1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CN 107887387 B;;CN 107887443 B;;CN 107887442 A;;US 10714398 B2;;CN 107887387 A;;CN 106298778 A;;US 10910278 B2;;CN 107887440 A;;CN 107887445 B;;CN 107887441 B;;US 2018/0097065 A1;;CN 107887445 A;;CN 107887274 A;;CN 107887442 B;;CN 107887386 A;;CN 107887441 A;;CN 107887274 B;;CN 107887386 B;;CN 107887440 B;;CN 107887444 B;;CN 107887443 A;;CN 107887385 B;;CN 107887444 A;;CN 107887384 B;;CN 107887384 A;;CN 107887385 A;;US 2018/0097106 A1</t>
+          <t>CN 107887385 B;;CN 107887445 B;;CN 107887443 A;;CN 107887387 A;;CN 106298778 A;;CN 107887384 A;;CN 107887441 A;;CN 107887386 B;;US 10910278 B2;;CN 107887385 A;;CN 107887444 A;;CN 107887445 A;;US 2018/0097106 A1;;CN 107887387 B;;CN 107887384 B;;CN 107887274 A;;US 10714398 B2;;CN 107887442 B;;CN 107887386 A;;CN 107887274 B;;CN 107887440 A;;CN 107887441 B;;US 2018/0097065 A1;;CN 107887442 A;;CN 107887444 B;;CN 107887440 B;;CN 107887443 B</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>125-233-104-570-674;;065-708-103-684-559;;193-646-676-139-072;;026-589-220-428-569;;009-495-174-886-046;;032-379-139-877-924;;092-622-226-264-580;;015-599-688-450-374;;054-789-299-020-903;;017-464-399-500-106;;071-221-630-205-102;;061-058-432-093-39X;;111-553-910-512-297;;138-531-128-803-732;;057-198-028-532-936;;092-822-678-884-760;;016-694-600-365-485;;151-967-050-235-058;;007-137-806-748-344;;042-086-174-033-990;;038-350-964-627-238;;009-060-533-833-438;;163-664-815-813-540;;060-124-894-271-740;;148-957-996-862-565;;031-184-353-637-765;;187-898-763-627-991</t>
+          <t>151-967-050-235-058;;026-589-220-428-569;;061-058-432-093-39X;;092-622-226-264-580;;092-822-678-884-760;;193-646-676-139-072;;187-898-763-627-991;;009-060-533-833-438;;009-495-174-886-046;;032-379-139-877-924;;007-137-806-748-344;;017-464-399-500-106;;138-531-128-803-732;;054-789-299-020-903;;071-221-630-205-102;;148-957-996-862-565;;060-124-894-271-740;;111-553-910-512-297;;065-708-103-684-559;;015-599-688-450-374;;031-184-353-637-765;;125-233-104-570-674;;038-350-964-627-238;;163-664-815-813-540;;057-198-028-532-936;;016-694-600-365-485;;042-086-174-033-990</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>CN 201710530950 A;;CN 201710530685 A;;CN 201710531812 A;;CN 201710530751 A;;US 201715718586 A;;CN 201710530298 A;;CN 201710530194 A;;CN 201710530297 A;;CN 201710531811 A;;CN 201710531762 A;;CN 201610872541 A;;CN 201710530250 A;;CN 201710530684 A;;US 201715720240 A</t>
+          <t>CN 201710530684 A;;CN 201710531812 A;;CN 201710530751 A;;US 201715720240 A;;US 201715718586 A;;CN 201710530950 A;;CN 201710530685 A;;CN 201710530194 A;;CN 201710530298 A;;CN 201710530250 A;;CN 201610872541 A;;CN 201710530297 A;;CN 201710531811 A;;CN 201710531762 A</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>集成电路单元及其制造方法及包括该单元的电子设备;;半导体器件及其制造方法及包括该器件的电子设备;;Semiconductor device and manufacturing method thereof and electronic equipment comprising semiconductor device;;Integrated circuit unit, manufacturing method thereof and electronic device comprising unit;;Semiconductor device using stress memory technology, manufacturing method thereof and electronic device;;Semiconductor device, method of manufacturing the same and electronic device including the same;;Semiconductor device, manufacturing method thereof and electronic device comprising device;;SEMICONDUCTOR DEVICE, METHOD OF MANUFACTURING THE SAME AND ELECTRONIC DEVICE INCLUDING THE DEVICE;;Semiconductor device, method of manufacturing the same and electronic device including the device;;SEMICONDUCTOR DEVICE, METHOD OF MANUFACTURING THE SAME AND ELECTRONIC DEVICE INCLUDING THE SAME;;利用应力记忆技术的半导体器件及其制造方法及电子设备</t>
+          <t>Semiconductor device, manufacturing method thereof and electronic device comprising device;;Integrated circuit unit, manufacturing method thereof and electronic device comprising unit;;SEMICONDUCTOR DEVICE, METHOD OF MANUFACTURING THE SAME AND ELECTRONIC DEVICE INCLUDING THE DEVICE;;利用应力记忆技术的半导体器件及其制造方法及电子设备;;半导体器件及其制造方法及包括该器件的电子设备;;Semiconductor device, method of manufacturing the same and electronic device including the same;;Semiconductor device, method of manufacturing the same and electronic device including the device;;SEMICONDUCTOR DEVICE, METHOD OF MANUFACTURING THE SAME AND ELECTRONIC DEVICE INCLUDING THE SAME;;Semiconductor device and manufacturing method thereof and electronic equipment comprising semiconductor device;;Semiconductor device using stress memory technology, manufacturing method thereof and electronic device;;集成电路单元及其制造方法及包括该单元的电子设备</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1695,12 +1695,12 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>INST MICROELECTRONICS CAS;;中国科学院微电子研究所;;INST OF MICROELECTRONICS CAS</t>
+          <t>INST OF MICROELECTRONICS CAS;;中国科学院微电子研究所;;INST MICROELECTRONICS CAS</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>亨利·H·阿达姆松;;王桂磊;;张严波;;ZHU HUILONG;;HENRY H ADAMSON;;朱慧珑;;ZHU ZHENGYONG;;ZHANG YANBO;;WANG GUILEI;;朱正勇</t>
+          <t>亨利·H·阿达姆松;;HENRY H ADAMSON;;朱慧珑;;WANG GUILEI;;ZHU ZHENGYONG;;ZHU HUILONG;;张严波;;ZHANG YANBO;;朱正勇;;王桂磊</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1710,12 +1710,12 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>https://lens.org/071-221-630-205-102;;https://lens.org/015-599-688-450-374;;https://lens.org/060-124-894-271-740;;https://lens.org/111-553-910-512-297;;https://lens.org/038-350-964-627-238;;https://lens.org/163-664-815-813-540;;https://lens.org/054-789-299-020-903;;https://lens.org/007-137-806-748-344;;https://lens.org/032-379-139-877-924;;https://lens.org/042-086-174-033-990;;https://lens.org/092-622-226-264-580;;https://lens.org/031-184-353-637-765;;https://lens.org/017-464-399-500-106;;https://lens.org/193-646-676-139-072;;https://lens.org/065-708-103-684-559;;https://lens.org/016-694-600-365-485;;https://lens.org/092-822-678-884-760;;https://lens.org/125-233-104-570-674;;https://lens.org/009-060-533-833-438;;https://lens.org/138-531-128-803-732;;https://lens.org/151-967-050-235-058;;https://lens.org/061-058-432-093-39X;;https://lens.org/009-495-174-886-046;;https://lens.org/187-898-763-627-991;;https://lens.org/026-589-220-428-569;;https://lens.org/057-198-028-532-936;;https://lens.org/148-957-996-862-565</t>
+          <t>https://lens.org/015-599-688-450-374;;https://lens.org/092-822-678-884-760;;https://lens.org/071-221-630-205-102;;https://lens.org/032-379-139-877-924;;https://lens.org/026-589-220-428-569;;https://lens.org/017-464-399-500-106;;https://lens.org/031-184-353-637-765;;https://lens.org/061-058-432-093-39X;;https://lens.org/163-664-815-813-540;;https://lens.org/111-553-910-512-297;;https://lens.org/187-898-763-627-991;;https://lens.org/009-495-174-886-046;;https://lens.org/151-967-050-235-058;;https://lens.org/193-646-676-139-072;;https://lens.org/016-694-600-365-485;;https://lens.org/125-233-104-570-674;;https://lens.org/148-957-996-862-565;;https://lens.org/060-124-894-271-740;;https://lens.org/057-198-028-532-936;;https://lens.org/042-086-174-033-990;;https://lens.org/138-531-128-803-732;;https://lens.org/038-350-964-627-238;;https://lens.org/065-708-103-684-559;;https://lens.org/009-060-533-833-438;;https://lens.org/092-622-226-264-580;;https://lens.org/007-137-806-748-344;;https://lens.org/054-789-299-020-903</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R12" t="n">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>H01L29/165;;H04N5/247;;H01L21/3065;;H01L21/28;;H01L29/06;;H01L21/225;;H01L21/308;;G06F3/0481;;G06T19/00;;H01L27/092;;H01L21/02;;H04N13/111;;H01L29/778;;H01L29/66;;H01L21/8234;;H01L21/822;;H04N13/398;;G06K9/00;;H01L29/786;;H04N5/232;;H01L29/36;;H01L29/04;;H04N13/332;;H01L29/205;;H01L21/8238;;H01L29/423;;B82Y10/00;;H01L29/775;;H01L29/78;;H01L29/08;;G06F3/0482;;H01L29/45;;H01L29/15;;H01L29/267;;H04N13/366;;H04N7/18;;G05B23/02;;H01L29/10;;H01L27/088;;B82Y40/00;;H01L21/336;;H01L29/417;;H01L21/3105;;H01L21/324</t>
+          <t>G06T19/00;;H01L21/28;;H01L29/15;;H01L29/417;;H04N5/247;;H01L29/66;;B82Y10/00;;H01L29/04;;G06K9/00;;G06F3/0482;;H01L21/8234;;H01L29/205;;H01L29/423;;H01L21/225;;H01L27/088;;H01L21/02;;H01L21/3065;;H01L29/267;;H01L21/3105;;G06F3/0481;;H04N13/366;;H01L21/308;;H01L29/08;;H01L21/822;;H04N13/111;;H04N13/398;;B82Y40/00;;H04N5/232;;H01L29/10;;H01L29/165;;H01L29/775;;H01L29/36;;H01L29/786;;H01L21/336;;H01L21/324;;H04N13/332;;H01L21/8238;;G05B23/02;;H01L29/778;;H01L29/78;;H04N7/18;;H01L29/45;;H01L29/06;;H01L27/092</t>
         </is>
       </c>
       <c r="X12" t="inlineStr"/>
@@ -1848,7 +1848,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>H01L29/165;;H01L29/06;;H01L27/092;;H01L29/78;;H01L29/66</t>
+          <t>H01L29/66;;H01L29/165;;H01L29/78;;H01L29/06;;H01L27/092</t>
         </is>
       </c>
       <c r="X13" t="inlineStr"/>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>H01L21/8234;;H01L21/8238;;H01L27/092</t>
+          <t>H01L21/8238;;H01L21/8234;;H01L27/092</t>
         </is>
       </c>
       <c r="X14" t="inlineStr"/>
@@ -2029,7 +2029,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>ZHU HUILONG;;ZHU ZHENGYONG;;RADAMSON HENRY H;;ZHANG YANBO;;WANG GUILEI</t>
+          <t>RADAMSON HENRY H;;WANG GUILEI;;ZHU ZHENGYONG;;ZHU HUILONG;;ZHANG YANBO</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>H01L29/10;;H01L29/786;;H01L29/66;;H01L29/06</t>
+          <t>H01L29/66;;H01L29/10;;H01L29/06;;H01L29/786</t>
         </is>
       </c>
       <c r="X15" t="inlineStr"/>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>US;;CN</t>
+          <t>CN;;US</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2199,12 +2199,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>US 2018/0108577 A1;;US 10629498 B2;;CN 111755443 A</t>
+          <t>US 10629498 B2;;US 2018/0108577 A1;;CN 111755443 A</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>091-589-843-044-390;;199-535-148-484-91X;;066-971-174-243-907</t>
+          <t>091-589-843-044-390;;066-971-174-243-907;;199-535-148-484-91X</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>US 201715722423 A;;CN 202010840234 A</t>
+          <t>CN 202010840234 A;;US 201715722423 A</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>IC unit and methond of manufacturing the same, and electronic device including the same;;IC UNIT AND METHOND OF MANUFACTURING THE SAME, AND ELECTRONIC DEVICE INCLUDING THE SAME;;Integrated circuit unit and electronic device including same</t>
+          <t>Integrated circuit unit and electronic device including same;;IC unit and methond of manufacturing the same, and electronic device including the same;;IC UNIT AND METHOND OF MANUFACTURING THE SAME, AND ELECTRONIC DEVICE INCLUDING THE SAME</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -2242,12 +2242,12 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>INST MICROELECTRONICS CAS;;INST OF MICROELECTRONICS CAS</t>
+          <t>INST OF MICROELECTRONICS CAS;;INST MICROELECTRONICS CAS</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>ZHU ZHENGYONG;;ZHU HUILONG</t>
+          <t>ZHU HUILONG;;ZHU ZHENGYONG</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -2257,12 +2257,12 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>https://lens.org/066-971-174-243-907;;https://lens.org/199-535-148-484-91X;;https://lens.org/091-589-843-044-390</t>
+          <t>https://lens.org/199-535-148-484-91X;;https://lens.org/091-589-843-044-390;;https://lens.org/066-971-174-243-907</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R17" t="n">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>H01L29/165;;H01L21/3065;;H01L29/06;;H01L21/225;;H01L21/308;;H01L27/092;;H01L21/02;;H01L29/778;;H01L29/66;;H01L21/8234;;H01L21/822;;H01L29/786;;H01L29/04;;H01L29/205;;H01L21/8238;;H01L29/423;;B82Y10/00;;H01L29/775;;H01L29/78;;H01L29/08;;H01L29/45;;H01L29/15;;H01L29/267;;H01L29/10;;H01L27/088;;H01L29/417;;H01L21/3105;;H01L21/324</t>
+          <t>H01L29/417;;H01L29/15;;B82Y10/00;;H01L29/04;;H01L29/66;;H01L21/8234;;H01L29/205;;H01L29/423;;H01L21/225;;H01L27/088;;H01L21/02;;H01L21/3065;;H01L29/267;;H01L21/3105;;H01L21/822;;H01L29/08;;H01L21/308;;H01L29/10;;H01L29/165;;H01L29/775;;H01L29/786;;H01L21/324;;H01L21/8238;;H01L29/778;;H01L29/78;;H01L29/45;;H01L29/06;;H01L27/092</t>
         </is>
       </c>
       <c r="X17" t="inlineStr"/>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>IC unit and method of manufacturing the same, and electronic device including the same;;IC UNIT AND METHOND OF MANUFACTURING THE SAME, AND ELECTRONIC DEVICE INCLUDING THE SAME</t>
+          <t>IC UNIT AND METHOND OF MANUFACTURING THE SAME, AND ELECTRONIC DEVICE INCLUDING THE SAME;;IC unit and method of manufacturing the same, and electronic device including the same</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -2358,7 +2358,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>ZHU ZHENGYONG;;ZHU HUILONG</t>
+          <t>ZHU HUILONG;;ZHU ZHENGYONG</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -2368,12 +2368,12 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>https://lens.org/004-988-494-197-462;;https://lens.org/151-584-955-768-731</t>
+          <t>https://lens.org/151-584-955-768-731;;https://lens.org/004-988-494-197-462</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R18" t="n">
@@ -2395,7 +2395,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>H01L29/165;;H01L21/3065;;H01L29/06;;H01L21/225;;H01L21/308;;H01L27/092;;H01L21/02;;H01L29/778;;H01L29/66;;H01L21/8234;;H01L21/822;;H01L29/786;;H01L29/04;;H01L29/205;;H01L21/8238;;H01L29/423;;B82Y10/00;;H01L29/775;;H01L29/78;;H01L29/08;;H01L29/45;;H01L29/15;;H01L29/267;;H01L29/10;;H01L29/417;;H01L21/3105;;H01L21/324</t>
+          <t>H01L29/417;;H01L29/15;;B82Y10/00;;H01L29/04;;H01L29/66;;H01L21/8234;;H01L29/205;;H01L21/225;;H01L29/423;;H01L21/02;;H01L21/3065;;H01L29/267;;H01L21/3105;;H01L21/822;;H01L29/08;;H01L21/308;;H01L29/10;;H01L29/165;;H01L29/775;;H01L29/786;;H01L21/324;;H01L21/8238;;H01L29/778;;H01L29/78;;H01L29/45;;H01L29/06;;H01L27/092</t>
         </is>
       </c>
       <c r="X18" t="inlineStr"/>
@@ -2502,7 +2502,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>G05B23/02;;G06T19/00;;H04N5/232;;H04N7/18</t>
+          <t>H04N7/18;;G06T19/00;;H04N5/232;;G05B23/02</t>
         </is>
       </c>
       <c r="X19" t="inlineStr"/>
@@ -2523,12 +2523,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>B;;A</t>
+          <t>A;;B</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>CN 106495089 A;;CN 106495089 B</t>
+          <t>CN 106495089 B;;CN 106495089 A</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2571,23 +2571,23 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>UNIV SOUTHEAST;;东南大学</t>
+          <t>东南大学;;UNIV SOUTHEAST</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>张辉;;LI YUAN;;幸研;;李源;;XING YAN;;张晋;;ZHANG JIN;;ZHANG HUI</t>
+          <t>XING YAN;;张辉;;幸研;;LI YUAN;;李源;;ZHANG HUI;;张晋;;ZHANG JIN</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>https://lens.org/139-953-016-089-681;;https://lens.org/022-371-039-747-189</t>
+          <t>https://lens.org/022-371-039-747-189;;https://lens.org/139-953-016-089-681</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R20" t="n">
@@ -2732,17 +2732,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>US;;CN</t>
+          <t>CN;;US</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>B;;A;;A1;;B2</t>
+          <t>B;;B2;;A;;A1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>CN 108110137 B;;US 10475996 B2;;US 2018/0277756 A1;;CN 108110137 A</t>
+          <t>CN 108110137 A;;US 10475996 B2;;CN 108110137 B;;US 2018/0277756 A1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>SiOxNy-based synapse optically reading device and preparation method thereof;;Optical-readout synaptic device based on SiOxNy and preparation method thereof;;基于SiON的光读取神经突触器件及其制备方法</t>
+          <t>Optical-readout synaptic device based on SiOxNy and preparation method thereof;;基于SiON的光读取神经突触器件及其制备方法;;SiOxNy-based synapse optically reading device and preparation method thereof</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2785,23 +2785,23 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>UNIV ELECTRONIC SCI &amp; TECH CHINA;;电子科技大学</t>
+          <t>电子科技大学;;UNIV ELECTRONIC SCI &amp; TECH CHINA</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>GU DEEN;;GU DE'EN;;LI DONGYANG;;李东阳;;JIANG YADONG;;顾德恩;;CHEN YICHENG;;陈奕丞;;蒋亚东;;ZHONG HAO;;李伟;;LI WEI;;钟豪</t>
+          <t>LI DONGYANG;;陈奕丞;;JIANG YADONG;;李伟;;蒋亚东;;CHEN YICHENG;;GU DE'EN;;GU DEEN;;李东阳;;LI WEI;;顾德恩;;钟豪;;ZHONG HAO</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>https://lens.org/141-171-860-159-994;;https://lens.org/148-931-852-354-400;;https://lens.org/010-188-554-840-088;;https://lens.org/193-740-224-195-322</t>
+          <t>https://lens.org/193-740-224-195-322;;https://lens.org/148-931-852-354-400;;https://lens.org/141-171-860-159-994;;https://lens.org/010-188-554-840-088</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R22" t="n">
@@ -2823,7 +2823,7 @@
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>G06N3/063;;G02B6/12;;G02B6/122;;G02B6/132;;B82Y20/00;;H01L45/00;;B82Y30/00</t>
+          <t>B82Y20/00;;H01L45/00;;G06N3/063;;G02B6/122;;G02B6/12;;G02B6/132;;B82Y30/00</t>
         </is>
       </c>
       <c r="X22" t="inlineStr"/>
@@ -2839,7 +2839,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>US;;CN</t>
+          <t>CN;;US</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>US 201916396703 A;;CN 201811367908 A</t>
+          <t>CN 201811367908 A;;US 201916396703 A</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2882,7 +2882,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Neuro-biomimetic device based on two-dimensional Ti3C2 material and preparation method thereof;;Neuro-Bionic Device Based on Two-dimensional Ti3C2 Material and Preparation Method Thereof</t>
+          <t>Neuro-Bionic Device Based on Two-dimensional Ti3C2 Material and Preparation Method Thereof;;Neuro-biomimetic device based on two-dimensional Ti3C2 material and preparation method thereof</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2897,13 +2897,13 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>WANG KAIYANG;;YAN XIAOBING;;REN DELIANG</t>
+          <t>REN DELIANG;;WANG KAIYANG;;YAN XIAOBING</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>https://lens.org/125-447-081-634-252;;https://lens.org/166-421-246-410-161</t>
+          <t>https://lens.org/166-421-246-410-161;;https://lens.org/125-447-081-634-252</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -2930,7 +2930,7 @@
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>G11C11/54;;H01L45/00;;G06N3/06</t>
+          <t>H01L45/00;;G06N3/06;;G11C11/54</t>
         </is>
       </c>
       <c r="X23" t="inlineStr"/>
@@ -3004,7 +3004,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>XU JUN;;LIANG RENRONG;;ZHAO LINYUAN;;LIU YU</t>
+          <t>ZHAO LINYUAN;;LIU YU;;XU JUN;;LIANG RENRONG</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>B82Y40/00;;H01L29/06;;H01L29/78;;H01L21/336</t>
+          <t>B82Y40/00;;H01L21/336;;H01L29/06;;H01L29/78</t>
         </is>
       </c>
       <c r="X24" t="inlineStr"/>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>GAO JUNXIONG;;ZHU YU;;WU SHUO;;CHENG RUNHONG;;WANG YUNBO;;ZHOU WENLI;;CHEN CHANGSHENG</t>
+          <t>ZHU YU;;GAO JUNXIONG;;CHENG RUNHONG;;WU SHUO;;CHEN CHANGSHENG;;WANG YUNBO;;ZHOU WENLI</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -3144,7 +3144,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>B82Y15/00;;G06N3/00;;B82Y30/00;;G06N3/06</t>
+          <t>B82Y30/00;;G06N3/06;;B82Y15/00;;G06N3/00</t>
         </is>
       </c>
       <c r="X25" t="inlineStr"/>
@@ -3213,12 +3213,12 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG;;ICLEAGUE TECH CO LTD</t>
+          <t>ICLEAGUE TECH CO LTD;;YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>JIANG WEINAN;;YU XING</t>
+          <t>YU XING;;JIANG WEINAN</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>B81B7/00;;B81C1/00;;H01L27/146;;B81B7/02</t>
+          <t>B81B7/00;;B81B7/02;;H01L27/146;;B81C1/00</t>
         </is>
       </c>
       <c r="X26" t="inlineStr"/>
@@ -3325,7 +3325,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>YU DAN;;WANG WEI;;WANG ZEHONG;;CHEN YIXIANG</t>
+          <t>CHEN YIXIANG;;WANG ZEHONG;;YU DAN;;WANG WEI</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
@@ -3358,7 +3358,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>G01L9/12;;D01D5/00;;B82Y40/00;;G01L1/14;;C23C18/44;;B82Y15/00;;B82Y30/00</t>
+          <t>D01D5/00;;B82Y15/00;;G01L1/14;;C23C18/44;;B82Y40/00;;G01L9/12;;B82Y30/00</t>
         </is>
       </c>
       <c r="X27" t="inlineStr"/>
@@ -3432,7 +3432,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>KORTEN TILL;;DIEZ STEFAN;;MANSSON ALF;;REUTHER CORDULA;;TAKATSUKI HIDEYO</t>
+          <t>DIEZ STEFAN;;KORTEN TILL;;MANSSON ALF;;REUTHER CORDULA;;TAKATSUKI HIDEYO</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>US;;EP;;KR</t>
+          <t>EP;;US;;KR</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3491,12 +3491,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>US 2019/0205768 A1;;EP 3506135 A1;;KR 20190082143 A</t>
+          <t>KR 20190082143 A;;US 2019/0205768 A1;;EP 3506135 A1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>099-541-914-036-776;;018-363-716-273-917;;107-704-552-379-860</t>
+          <t>099-541-914-036-776;;107-704-552-379-860;;018-363-716-273-917</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -3509,7 +3509,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>US 201816224496 A;;EP 17211093 A;;KR 20180172813 A</t>
+          <t>US 201816224496 A;;KR 20180172813 A;;EP 17211093 A</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -3539,7 +3539,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>COVENS KRIS;;FAUVART MAARTEN;;CAI QING;;CHEN CHANG;;STAKENBORG TIM</t>
+          <t>FAUVART MAARTEN;;CHEN CHANG;;STAKENBORG TIM;;COVENS KRIS;;CAI QING</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -3549,7 +3549,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>https://lens.org/107-704-552-379-860;;https://lens.org/099-541-914-036-776;;https://lens.org/018-363-716-273-917</t>
+          <t>https://lens.org/107-704-552-379-860;;https://lens.org/018-363-716-273-917;;https://lens.org/099-541-914-036-776</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>G11C11/00;;G06N3/12;;C12M3/06;;C12P19/34;;G11C13/00;;B82Y10/00;;G11C11/54</t>
+          <t>G11C13/00;;G11C11/00;;C12P19/34;;C12M3/06;;G11C11/54;;B82Y10/00;;G06N3/12</t>
         </is>
       </c>
       <c r="X29" t="inlineStr"/>
@@ -3607,7 +3607,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>152-689-049-154-09X;;062-711-544-788-511</t>
+          <t>062-711-544-788-511;;152-689-049-154-09X</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -3645,12 +3645,12 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT;;IMEC VZW;;UNIV LEUVEN KATH</t>
+          <t>KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT;;UNIV LEUVEN KATH;;IMEC VZW</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>ADELMANN HANNS CHRISTOPH;;CIUBOTARU FLORIN;;COSTA JOSE DIOGO</t>
+          <t>COSTA JOSE DIOGO;;ADELMANN HANNS CHRISTOPH;;CIUBOTARU FLORIN</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -3687,7 +3687,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>G06N3/08;;G06E1/04;;G02F1/01;;B82Y10/00;;H01L29/66</t>
+          <t>G02F1/01;;B82Y10/00;;H01L29/66;;G06E1/04;;G06N3/08</t>
         </is>
       </c>
       <c r="X30" t="inlineStr"/>
@@ -3757,7 +3757,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>LANDIS STÉPHAN;;CONSTANCIAS CHRISTOPHE</t>
+          <t>CONSTANCIAS CHRISTOPHE;;LANDIS STÉPHAN</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -3790,7 +3790,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>G03F7/00;;B82Y10/00;;B82Y40/00</t>
+          <t>B82Y40/00;;B82Y10/00;;G03F7/00</t>
         </is>
       </c>
       <c r="X31" t="inlineStr"/>
@@ -3806,22 +3806,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FR;;WO</t>
+          <t>WO;;FR</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>A1;;B1</t>
+          <t>B1;;A1</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>FR 3041118 A1;;FR 3041118 B1;;WO 2017/046287 A1</t>
+          <t>FR 3041118 B1;;WO 2017/046287 A1;;FR 3041118 A1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>042-652-460-098-334;;047-351-574-945-08X;;152-095-732-259-63X</t>
+          <t>042-652-460-098-334;;152-095-732-259-63X;;047-351-574-945-08X</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -3849,7 +3849,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>LITHOGRAPHY MOULD FOR NANOMETRIC IMPRESSION AND METHODS FOR MANUFACTURING AND USING SUCH A MOULD;;MOULE DE LITHOGRAPHIE POUR IMPRESSION NANOMETRIQUE ET PROCEDES DE FABRICATION ET D'UTILISATION D'UN TEL MOULE</t>
+          <t>MOULE DE LITHOGRAPHIE POUR IMPRESSION NANOMETRIQUE ET PROCEDES DE FABRICATION ET D'UTILISATION D'UN TEL MOULE;;LITHOGRAPHY MOULD FOR NANOMETRIC IMPRESSION AND METHODS FOR MANUFACTURING AND USING SUCH A MOULD</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -3864,18 +3864,18 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>LANDIS STEPHAN;;LANDIS STÉPHAN;;CONSTANCIAS CHRISTOPHE</t>
+          <t>CONSTANCIAS CHRISTOPHE;;LANDIS STEPHAN;;LANDIS STÉPHAN</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>https://lens.org/152-095-732-259-63X;;https://lens.org/042-652-460-098-334;;https://lens.org/047-351-574-945-08X</t>
+          <t>https://lens.org/047-351-574-945-08X;;https://lens.org/152-095-732-259-63X;;https://lens.org/042-652-460-098-334</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R32" t="n">
@@ -3897,7 +3897,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>G03F7/00;;B82Y40/00;;G03F1/00;;B82Y10/00;;H01L21/02</t>
+          <t>G03F7/00;;B82Y40/00;;H01L21/02;;B82Y10/00;;G03F1/00</t>
         </is>
       </c>
       <c r="X32" t="inlineStr"/>
@@ -3918,17 +3918,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>B;;A1;;A;;D0</t>
+          <t>A;;B;;D0;;A1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>WO 2020/021221 A1;;GB 2576304 B;;TW 202008381 A;;GB 201812169 D0;;GB 2576304 A</t>
+          <t>TW 202008381 A;;GB 2576304 A;;GB 2576304 B;;GB 201812169 D0;;WO 2020/021221 A1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>195-278-498-675-732;;072-287-191-089-928;;184-931-411-813-726;;107-040-164-637-857;;192-339-171-675-025</t>
+          <t>184-931-411-813-726;;107-040-164-637-857;;072-287-191-089-928;;192-339-171-675-025;;195-278-498-675-732</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -3941,7 +3941,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>GB 2019051462 W;;GB 201812169 A;;TW 108119665 A</t>
+          <t>GB 201812169 A;;TW 108119665 A;;GB 2019051462 W</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -3956,7 +3956,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Accessing data storage provided using double-stranded nucleic acid molecules;;ACCESSING DATA STORAGE PROVIDED USING DOUBLE-STRANDED NUCLEIC ACID MOLECULES</t>
+          <t>ACCESSING DATA STORAGE PROVIDED USING DOUBLE-STRANDED NUCLEIC ACID MOLECULES;;Accessing data storage provided using double-stranded nucleic acid molecules</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -3971,18 +3971,18 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>SANCHES-KUIPER RAQUEL MARIA;;HAYES MATTHEW JAMES;;MATTHEW JAMES HAYES;;RAQUEL MARIA SANCHES-KUIPER</t>
+          <t>RAQUEL MARIA SANCHES-KUIPER;;HAYES MATTHEW JAMES;;MATTHEW JAMES HAYES;;SANCHES-KUIPER RAQUEL MARIA</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>https://lens.org/192-339-171-675-025;;https://lens.org/195-278-498-675-732;;https://lens.org/184-931-411-813-726;;https://lens.org/072-287-191-089-928;;https://lens.org/107-040-164-637-857</t>
+          <t>https://lens.org/107-040-164-637-857;;https://lens.org/072-287-191-089-928;;https://lens.org/184-931-411-813-726;;https://lens.org/195-278-498-675-732;;https://lens.org/192-339-171-675-025</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>Patent Application;;Patent of Addition;;Granted Patent</t>
+          <t>Granted Patent;;Patent of Addition;;Patent Application</t>
         </is>
       </c>
       <c r="R33" t="n">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>G11C13/00;;G16B50/20;;C12Q1/68;;G06F9/312;;G16H10/40;;B82Y10/00;;G11C11/54;;B01L7/00;;G06N3/12</t>
+          <t>B01L7/00;;G11C13/00;;G06F9/312;;G16B50/20;;B82Y10/00;;G11C11/54;;C12Q1/68;;G16H10/40;;G06N3/12</t>
         </is>
       </c>
       <c r="X33" t="inlineStr"/>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>EP;;SG;;CA</t>
+          <t>SG;;CA;;EP</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4030,7 +4030,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>EP 3827435 A1;;CA 3105954 A1;;SG 11202100073U A</t>
+          <t>SG 11202100073U A;;CA 3105954 A1;;EP 3827435 A1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -4048,7 +4048,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>SG 11202100073U A;;CA 3105954 A;;EP 19730444 A</t>
+          <t>EP 19730444 A;;SG 11202100073U A;;CA 3105954 A</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -4078,18 +4078,18 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>SANCHES-KUIPER RAQUEL MARIA;;HAYES MATTHEW JAMES</t>
+          <t>HAYES MATTHEW JAMES;;SANCHES-KUIPER RAQUEL MARIA</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>https://lens.org/181-987-753-698-602;;https://lens.org/151-320-079-612-50X;;https://lens.org/086-134-305-093-935</t>
+          <t>https://lens.org/181-987-753-698-602;;https://lens.org/086-134-305-093-935;;https://lens.org/151-320-079-612-50X</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>Patent Application;;Unknown</t>
+          <t>Unknown;;Patent Application</t>
         </is>
       </c>
       <c r="R34" t="n">
@@ -4127,22 +4127,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>JP;;DE;;GB;;CN</t>
+          <t>GB;;DE;;CN;;JP</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>B;;D0;;B2;;T5;;A</t>
+          <t>A;;D0;;T5;;B;;B2</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>GB 2556251 A;;GB 2556251 B;;JP 6644091 B2;;CN 107851876 B;;DE 112016001721 T5;;JP 2018530931 A;;CN 107851876 A;;GB 201800479 D0</t>
+          <t>JP 2018530931 A;;GB 201800479 D0;;CN 107851876 A;;DE 112016001721 T5;;CN 107851876 B;;GB 2556251 A;;GB 2556251 B;;JP 6644091 B2</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>126-537-800-488-374;;170-207-950-505-313;;138-303-545-095-517;;032-908-699-779-813;;177-579-347-292-60X;;118-050-348-728-882;;092-900-202-784-87X;;140-881-661-083-974</t>
+          <t>092-900-202-784-87X;;126-537-800-488-374;;170-207-950-505-313;;138-303-545-095-517;;140-881-661-083-974;;177-579-347-292-60X;;032-908-699-779-813;;118-050-348-728-882</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -4155,7 +4155,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>CN 201680031319 A;;JP 2017561380 A;;GB 201800479 A;;DE 112016001721 T</t>
+          <t>DE 112016001721 T;;GB 201800479 A;;JP 2017561380 A;;CN 201680031319 A</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -4170,7 +4170,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Architecture for coupling quantum bits using localized resonators;;Architecture for coupling quantum bits using localised resonators;;用于使用局部谐振器来耦合量子位的架构;;量子ビットを結合するアーキテクチャのための超伝導マイクロ波共振器空胴及びそれを構成する方法;;Architektur für ein Koppeln von Quantenbits unter Verwendung von lokalisierten Resonatoren</t>
+          <t>量子ビットを結合するアーキテクチャのための超伝導マイクロ波共振器空胴及びそれを構成する方法;;Architektur für ein Koppeln von Quantenbits unter Verwendung von lokalisierten Resonatoren;;Architecture for coupling quantum bits using localised resonators;;用于使用局部谐振器来耦合量子位的架构;;Architecture for coupling quantum bits using localized resonators</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -4180,23 +4180,23 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>国际商业机器公司;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM</t>
+          <t>インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM;;国际商业机器公司</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>マクルーア ザ サード、ダグラス、テンプルトン;;DIAL OLIVER;;JAY GAMBETTA;;D·T·麦克鲁尔三世;;DOUGLAS TEMPLETON MCCLURE III;;O·蒂亚尔;;M·斯蒂芬;;STEFFEN MATTHIAS;;ダイアル、オリバー;;GAMBETTA JAY;;ステファン、マティアス;;ガンベッタ、ジェイ;;MATTHIAS STEFFEN;;OLIVER DIAL;;MCCLURE III DOUGLAS TEMPLETON;;J·加姆贝塔</t>
+          <t>STEFFEN MATTHIAS;;ガンベッタ、ジェイ;;DOUGLAS TEMPLETON MCCLURE III;;GAMBETTA JAY;;M·斯蒂芬;;JAY GAMBETTA;;DIAL OLIVER;;ダイアル、オリバー;;ステファン、マティアス;;OLIVER DIAL;;O·蒂亚尔;;D·T·麦克鲁尔三世;;MATTHIAS STEFFEN;;J·加姆贝塔;;マクルーア ザ サード、ダグラス、テンプルトン;;MCCLURE III DOUGLAS TEMPLETON</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>https://lens.org/140-881-661-083-974;;https://lens.org/177-579-347-292-60X;;https://lens.org/170-207-950-505-313;;https://lens.org/126-537-800-488-374;;https://lens.org/138-303-545-095-517;;https://lens.org/118-050-348-728-882;;https://lens.org/092-900-202-784-87X;;https://lens.org/032-908-699-779-813</t>
+          <t>https://lens.org/092-900-202-784-87X;;https://lens.org/140-881-661-083-974;;https://lens.org/032-908-699-779-813;;https://lens.org/170-207-950-505-313;;https://lens.org/138-303-545-095-517;;https://lens.org/118-050-348-728-882;;https://lens.org/177-579-347-292-60X;;https://lens.org/126-537-800-488-374</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R35" t="n">
@@ -4218,7 +4218,7 @@
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>H01L39/24;;H01L39/02;;H03K19/195;;H01L39/00;;G06N10/00;;H01L39/14;;B82Y10/00;;G06N20/00;;H01P1/205;;H01P7/00;;G06N99/00</t>
+          <t>G06N10/00;;H01P1/205;;G06N99/00;;H01L39/24;;B82Y10/00;;G06N20/00;;H01L39/00;;H03K19/195;;H01P7/00;;H01L39/02;;H01L39/14</t>
         </is>
       </c>
       <c r="X35" t="inlineStr"/>
@@ -4234,7 +4234,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>EP;;CA</t>
+          <t>CA;;EP</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4244,12 +4244,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>CA 3089818 A1;;EP 3746800 A1</t>
+          <t>EP 3746800 A1;;CA 3089818 A1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>059-870-669-564-271;;071-230-352-271-170</t>
+          <t>071-230-352-271-170;;059-870-669-564-271</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -4292,7 +4292,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>MASILAMANI ASHOK PRABHU;;GOULD MATTHEW V;;KHOMAMI ABADI MOJTABA;;GAHROOSI AMIR BAHADOR</t>
+          <t>GOULD MATTHEW V;;KHOMAMI ABADI MOJTABA;;GAHROOSI AMIR BAHADOR;;MASILAMANI ASHOK PRABHU</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -4325,7 +4325,7 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>G06N3/08;;G01N37/00;;G06N3/02</t>
+          <t>G01N37/00;;G06N3/02;;G06N3/08</t>
         </is>
       </c>
       <c r="X36" t="inlineStr"/>
@@ -4399,7 +4399,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>WOLF LIOR;;ARIELI URI;;NAGLER ACHIYA;;MREJEN MICHAEL;;MALKIEL ITZIK;;SUCHOWSKI HAIM</t>
+          <t>SUCHOWSKI HAIM;;MALKIEL ITZIK;;ARIELI URI;;MREJEN MICHAEL;;WOLF LIOR;;NAGLER ACHIYA</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>G06N3/04;;G01N21/25;;B82Y40/00;;G01N21/21</t>
+          <t>B82Y40/00;;G06N3/04;;G01N21/25;;G01N21/21</t>
         </is>
       </c>
       <c r="X37" t="inlineStr"/>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>JP;;US;;CN</t>
+          <t>US;;CN;;JP</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -4462,12 +4462,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>JP 2020061469 A;;CN 111029243 A;;US 2020/0116480 A1</t>
+          <t>US 2020/0116480 A1;;JP 2020061469 A;;CN 111029243 A</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>073-802-025-703-259;;185-408-668-875-404;;032-075-199-033-544</t>
+          <t>032-075-199-033-544;;073-802-025-703-259;;185-408-668-875-404</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -4480,7 +4480,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>CN 201910953017 A;;US 201916596051 A;;JP 2018191930 A</t>
+          <t>JP 2018191930 A;;CN 201910953017 A;;US 201916596051 A</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -4495,7 +4495,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>SUBSTRATE CLEANING METHOD, SUBSTRATE CLEANING APPARATUS, SUBSTRATE PROCESSING APPARATUS, SUBSTRATE PROCESSING SYSTEM, AND MACHINE LEARNING DEVICE;;Substrate cleaning method, substrate cleaning apparatus, substrate processing apparatus, substrate processing system, and machine learning device;;SUBSTRATE CLEANING METHOD, SUBSTRATE CLEANING APPARATUS, SUBSTRATE PROCESSING APPARATUS, SUBSTRATE PROCESSING SYSTEM, MACHINE LEARNING DEVICE, AND PREDICTION DEVICE</t>
+          <t>Substrate cleaning method, substrate cleaning apparatus, substrate processing apparatus, substrate processing system, and machine learning device;;SUBSTRATE CLEANING METHOD, SUBSTRATE CLEANING APPARATUS, SUBSTRATE PROCESSING APPARATUS, SUBSTRATE PROCESSING SYSTEM, AND MACHINE LEARNING DEVICE;;SUBSTRATE CLEANING METHOD, SUBSTRATE CLEANING APPARATUS, SUBSTRATE PROCESSING APPARATUS, SUBSTRATE PROCESSING SYSTEM, MACHINE LEARNING DEVICE, AND PREDICTION DEVICE</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -4547,7 +4547,7 @@
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>H01L21/304;;H01L21/67;;G01B21/30;;G01Q60/38;;H01L21/02;;G01Q10/06;;B82Y35/00</t>
+          <t>G01Q60/38;;B82Y35/00;;H01L21/304;;H01L21/02;;H01L21/67;;G01Q10/06;;G01B21/30</t>
         </is>
       </c>
       <c r="X38" t="inlineStr"/>
@@ -4563,7 +4563,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>JP;;US</t>
+          <t>US;;JP</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4573,12 +4573,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>US 2021/0158159 A1;;JP 2021082130 A</t>
+          <t>JP 2021082130 A;;US 2021/0158159 A1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>098-611-216-404-476;;138-820-309-105-328</t>
+          <t>138-820-309-105-328;;098-611-216-404-476</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -4606,7 +4606,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>電子回路、ニューラルネットワーク及びニューラルネットワークの学習方法;;ELECTRONIC CIRCUIT, NEURAL NETWORK, AND NEURAL NETWORK LEARNING METHOD</t>
+          <t>ELECTRONIC CIRCUIT, NEURAL NETWORK, AND NEURAL NETWORK LEARNING METHOD;;電子回路、ニューラルネットワーク及びニューラルネットワークの学習方法</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>G06N3/063;;G06N3/08;;G06G7/60;;H01L29/06;;G06N10/00;;B82Y10/00;;H01L29/66;;G06N99/00</t>
+          <t>G06N10/00;;G06N3/063;;G06N99/00;;G06G7/60;;B82Y10/00;;H01L29/66;;G06N3/08;;H01L29/06</t>
         </is>
       </c>
       <c r="X39" t="inlineStr"/>
@@ -4689,7 +4689,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>188-090-679-785-086;;081-884-875-823-11X</t>
+          <t>081-884-875-823-11X;;188-090-679-785-086</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -4717,7 +4717,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>#NAME?;;BIO-LOGIC DEVICE</t>
+          <t>BIO-LOGIC DEVICE;;#NAME?</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -4727,23 +4727,23 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>UNIV SOGANG RES FOUNDATION;;서강대학교산학협력단</t>
+          <t>서강대학교산학협력단;;UNIV SOGANG RES FOUNDATION</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>최정우;;정용호;;CHOI JEONG WOO;;CHUNG YONG HO</t>
+          <t>최정우;;CHOI JEONG WOO;;CHUNG YONG HO;;정용호</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>https://lens.org/188-090-679-785-086;;https://lens.org/081-884-875-823-11X</t>
+          <t>https://lens.org/081-884-875-823-11X;;https://lens.org/188-090-679-785-086</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R40" t="n">
@@ -4765,7 +4765,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H01L51/00;;H01L27/28</t>
+          <t>H01L27/28;;B82Y10/00;;H01L51/00</t>
         </is>
       </c>
       <c r="X40" t="inlineStr"/>
@@ -4786,12 +4786,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>US 10911067 B2;;US 2019/0199373 A1</t>
+          <t>US 2019/0199373 A1;;US 10911067 B2</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -4824,7 +4824,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Method and apparatus for generating quantum error correction code using graph state;;METHOD AND APPARATUS FOR GENERATING QUANTUM ERROR CORRECTION CODE USING GRAPH STATE</t>
+          <t>METHOD AND APPARATUS FOR GENERATING QUANTUM ERROR CORRECTION CODE USING GRAPH STATE;;Method and apparatus for generating quantum error correction code using graph state</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -4849,12 +4849,12 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>https://lens.org/190-350-980-582-755;;https://lens.org/035-794-622-904-360</t>
+          <t>https://lens.org/035-794-622-904-360;;https://lens.org/190-350-980-582-755</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R41" t="n">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>G06F16/901;;H03M13/00;;G06F17/16;;H03M13/29;;G06N10/00;;G06F17/10;;H04L9/08;;B82Y10/00;;G06N5/00;;H03M13/11</t>
+          <t>G06N10/00;;G06F17/10;;G06F17/16;;H03M13/00;;H04L9/08;;B82Y10/00;;H03M13/29;;G06F16/901;;G06N5/00;;H03M13/11</t>
         </is>
       </c>
       <c r="X41" t="inlineStr"/>
@@ -4897,17 +4897,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>A1;;B1</t>
+          <t>B1;;A1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>WO 2017/217577 A1;;KR 101768066 B1</t>
+          <t>KR 101768066 B1;;WO 2017/217577 A1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>050-577-423-414-724;;124-032-226-677-448</t>
+          <t>124-032-226-677-448;;050-577-423-414-724</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>METHOD AND APPARATUS FOR GENERATING QUANTUM ERROR CORRECTING CODE USING GRAPH STATES;;METHOD AND APPARATUS FOR GENERATING QUANTUM ERROR CORRECTION CODE USING GRAPH STATE</t>
+          <t>METHOD AND APPARATUS FOR GENERATING QUANTUM ERROR CORRECTION CODE USING GRAPH STATE;;METHOD AND APPARATUS FOR GENERATING QUANTUM ERROR CORRECTING CODE USING GRAPH STATES</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -4956,12 +4956,12 @@
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>https://lens.org/050-577-423-414-724;;https://lens.org/124-032-226-677-448</t>
+          <t>https://lens.org/124-032-226-677-448;;https://lens.org/050-577-423-414-724</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R42" t="n">
@@ -4983,7 +4983,7 @@
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>H03M13/00;;H04B10/70;;H03M13/29;;G06F11/10;;H03M13/11;;H03M13/39;;G06N99/00</t>
+          <t>H04B10/70;;G06N99/00;;H03M13/00;;H03M13/29;;G06F11/10;;H03M13/11;;H03M13/39</t>
         </is>
       </c>
       <c r="X42" t="inlineStr"/>
@@ -5009,12 +5009,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>KR 101979983 B1;;KR 20180046122 A</t>
+          <t>KR 20180046122 A;;KR 101979983 B1</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>105-431-024-371-108;;168-901-778-708-781</t>
+          <t>168-901-778-708-781;;105-431-024-371-108</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -5052,23 +5052,23 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>IUCF HYU;;한양대학교 산학협력단</t>
+          <t>한양대학교 산학협력단;;IUCF HYU</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>KIM JIN BAE;;HA KIEU MY;;하키우;;김진배;;트린수안텅;;윤태현;;YOON TAE HYUN;;TRINH XUAN TUNG</t>
+          <t>TRINH XUAN TUNG;;하키우;;KIM JIN BAE;;HA KIEU MY;;김진배;;트린수안텅;;YOON TAE HYUN;;윤태현</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>https://lens.org/168-901-778-708-781;;https://lens.org/105-431-024-371-108</t>
+          <t>https://lens.org/105-431-024-371-108;;https://lens.org/168-901-778-708-781</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R43" t="n">
@@ -5090,7 +5090,7 @@
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>G16C10/00;;G06F19/00;;B82Y35/00</t>
+          <t>B82Y35/00;;G06F19/00;;G16C10/00</t>
         </is>
       </c>
       <c r="X43" t="inlineStr"/>
@@ -5106,22 +5106,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>US;;KR</t>
+          <t>KR;;US</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>A;;A1;;B2;;B1</t>
+          <t>A;;A1;;B1;;B2</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>US 2018/0165594 A1;;KR 20180067006 A;;US 10489718 B2;;KR 101945599 B1</t>
+          <t>KR 101945599 B1;;US 10489718 B2;;US 2018/0165594 A1;;KR 20180067006 A</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>108-664-458-321-884;;007-424-307-118-008;;138-446-145-078-230;;052-356-970-848-744</t>
+          <t>108-664-458-321-884;;138-446-145-078-230;;007-424-307-118-008;;052-356-970-848-744</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -5149,7 +5149,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Quantum mechanical machine vision system and arithmetic operation method based on quantum dot;;QUANTUM MECHANICAL MACHINE VISION SYSTEM AND ARITHMETIC OPERATION METHOD BASED ON QUANTUM DOT;;QUANTUM MECHANICAL MACHINE VISION SYSTEM BASED ON QUANTUM DOT AND ARITHMETIC OPERATION METHOD</t>
+          <t>Quantum mechanical machine vision system and arithmetic operation method based on quantum dot;;QUANTUM MECHANICAL MACHINE VISION SYSTEM BASED ON QUANTUM DOT AND ARITHMETIC OPERATION METHOD;;QUANTUM MECHANICAL MACHINE VISION SYSTEM AND ARITHMETIC OPERATION METHOD BASED ON QUANTUM DOT</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -5159,12 +5159,12 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>서울시립대학교 산학협력단;;UNIV SEOUL IND COOP FOUND</t>
+          <t>UNIV SEOUL IND COOP FOUND;;서울시립대학교 산학협력단</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>AHN DO YEOL;;안도열</t>
+          <t>안도열;;AHN DO YEOL</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -5174,12 +5174,12 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>https://lens.org/007-424-307-118-008;;https://lens.org/138-446-145-078-230;;https://lens.org/052-356-970-848-744;;https://lens.org/108-664-458-321-884</t>
+          <t>https://lens.org/138-446-145-078-230;;https://lens.org/052-356-970-848-744;;https://lens.org/007-424-307-118-008;;https://lens.org/108-664-458-321-884</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R44" t="n">
@@ -5201,7 +5201,7 @@
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>G06N10/00;;B82Y10/00;;G06K9/62;;G06N20/00;;G06K9/66;;G06N99/00</t>
+          <t>G06N10/00;;G06K9/66;;G06K9/62;;G06N99/00;;B82Y10/00;;G06N20/00</t>
         </is>
       </c>
       <c r="X44" t="inlineStr"/>
@@ -5217,22 +5217,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>US;;KR</t>
+          <t>KR;;US</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>A;;A1;;B2;;B1</t>
+          <t>A;;B2;;B1;;A1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>US 10482387 B2;;US 2018/0165595 A1;;KR 101951524 B1;;KR 20180067007 A</t>
+          <t>KR 101951524 B1;;KR 20180067007 A;;US 2018/0165595 A1;;US 10482387 B2</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>139-280-703-791-17X;;023-101-928-686-458;;104-421-695-854-199;;130-916-866-115-532</t>
+          <t>104-421-695-854-199;;139-280-703-791-17X;;023-101-928-686-458;;130-916-866-115-532</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -5260,7 +5260,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>QUANTUM MECHANICAL MACHINE VISION SYSTEM AND ARITHMETIC OPERATION METHOD BASED ON ORBITAL QUBIT;;QUANTUM MECHANICAL ARTIFICIAL VISION SYSTEM BASED ON ORBITAL QUBIT AND ARITHMETIC OPERATION METHOD;;Quantum mechanical machine vision system and arithmetic operation method based on orbital qubit</t>
+          <t>QUANTUM MECHANICAL ARTIFICIAL VISION SYSTEM BASED ON ORBITAL QUBIT AND ARITHMETIC OPERATION METHOD;;Quantum mechanical machine vision system and arithmetic operation method based on orbital qubit;;QUANTUM MECHANICAL MACHINE VISION SYSTEM AND ARITHMETIC OPERATION METHOD BASED ON ORBITAL QUBIT</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -5270,12 +5270,12 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>서울시립대학교 산학협력단;;UNIV SEOUL IND COOP FOUND</t>
+          <t>UNIV SEOUL IND COOP FOUND;;서울시립대학교 산학협력단</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>AHN DO YEOL;;안도열</t>
+          <t>안도열;;AHN DO YEOL</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -5285,12 +5285,12 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>https://lens.org/104-421-695-854-199;;https://lens.org/139-280-703-791-17X;;https://lens.org/023-101-928-686-458;;https://lens.org/130-916-866-115-532</t>
+          <t>https://lens.org/130-916-866-115-532;;https://lens.org/023-101-928-686-458;;https://lens.org/104-421-695-854-199;;https://lens.org/139-280-703-791-17X</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R45" t="n">
@@ -5312,7 +5312,7 @@
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>G06F17/11;;G06N10/00;;B82Y10/00;;G06K9/62;;G06N20/00;;G06K9/66;;G06N99/00</t>
+          <t>G06N10/00;;G06K9/66;;G06K9/62;;G06N99/00;;B82Y10/00;;G06N20/00;;G06F17/11</t>
         </is>
       </c>
       <c r="X45" t="inlineStr"/>
@@ -5328,22 +5328,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>US;;KR</t>
+          <t>KR;;US</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>A;;A1;;B2</t>
+          <t>A;;B2;;A1</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>KR 20180095977 A;;US 2018/0240846 A1;;US 10559626 B2</t>
+          <t>US 2018/0240846 A1;;US 10559626 B2;;KR 20180095977 A</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>036-490-481-425-561;;073-636-151-135-298;;003-096-429-312-17X</t>
+          <t>036-490-481-425-561;;003-096-429-312-17X;;073-636-151-135-298</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>KR 20170022014 A;;US 201715648342 A</t>
+          <t>US 201715648342 A;;KR 20170022014 A</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -5386,7 +5386,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>CHOI YONG-SOO;;HEO KEUN;;LEE HYUNG DONG;;CHOI YONG SOO;;LEE HYUNG-DONG</t>
+          <t>HEO KEUN;;CHOI YONG SOO;;CHOI YONG-SOO;;LEE HYUNG-DONG;;LEE HYUNG DONG</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -5396,12 +5396,12 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>https://lens.org/003-096-429-312-17X;;https://lens.org/073-636-151-135-298;;https://lens.org/036-490-481-425-561</t>
+          <t>https://lens.org/003-096-429-312-17X;;https://lens.org/036-490-481-425-561;;https://lens.org/073-636-151-135-298</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R46" t="n">
@@ -5423,7 +5423,7 @@
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>G06N3/063;;H01L51/05;;H01L51/00;;H03K19/177;;C01B32/158;;B82Y10/00;;H01L27/28</t>
+          <t>H01L51/05;;H01L51/00;;G06N3/063;;C01B32/158;;H03K19/177;;B82Y10/00;;H01L27/28</t>
         </is>
       </c>
       <c r="X46" t="inlineStr"/>
@@ -5492,23 +5492,23 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>경희대학교 산학협력단;;UNIV INDUSTRY COOPERATION GROUP KYUNG HEE UNIV</t>
+          <t>UNIV INDUSTRY COOPERATION GROUP KYUNG HEE UNIV;;경희대학교 산학협력단</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>JEONG YOUNG MIN;;정영민;;파쿼 아마드;;FAROOQ AHMAD;;SHIN HYUN DONG;;신현동</t>
+          <t>FAROOQ AHMAD;;파쿼 아마드;;SHIN HYUN DONG;;JEONG YOUNG MIN;;신현동;;정영민</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>https://lens.org/183-251-705-523-85X;;https://lens.org/175-211-607-286-348</t>
+          <t>https://lens.org/175-211-607-286-348;;https://lens.org/183-251-705-523-85X</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R47" t="n">
@@ -5546,7 +5546,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>KR;;US;;CN</t>
+          <t>US;;KR;;CN</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -5556,12 +5556,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>US 2021/0056398 A1;;CN 112418414 A;;KR 20210023277 A</t>
+          <t>CN 112418414 A;;KR 20210023277 A;;US 2021/0056398 A1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>023-219-706-755-351;;044-863-244-807-936;;182-619-245-762-417</t>
+          <t>182-619-245-762-417;;044-863-244-807-936;;023-219-706-755-351</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -5574,7 +5574,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>US 201916686406 A;;CN 201911132679 A;;KR 20190103264 A</t>
+          <t>CN 201911132679 A;;KR 20190103264 A;;US 201916686406 A</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -5589,7 +5589,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>INTEGRATE-AND-FIRE NEURON CIRCUIT USING SINGLE-GATED FEEDBACK FIELD-EFFECT TRANSISTOR;;Integrate-and-fire neuron circuit using single-gated feedback field-effect transistor</t>
+          <t>Integrate-and-fire neuron circuit using single-gated feedback field-effect transistor;;INTEGRATE-AND-FIRE NEURON CIRCUIT USING SINGLE-GATED FEEDBACK FIELD-EFFECT TRANSISTOR</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>LIM DOO HYEOK;;PARK YOUNG SOO;;CHO JIN-SUN;;WOO SOL A;;KIM SANG-SIK;;LIM DOO-HYEOK;;KIM SANG SIG;;CHO KYOUNG-AH;;WOO SOL-A;;CHO KYOUNG AH;;PARK YOUNG-SOO;;CHO JIN SUN</t>
+          <t>CHO JIN SUN;;CHO KYOUNG-AH;;LIM DOO HYEOK;;WOO SOL-A;;LIM DOO-HYEOK;;PARK YOUNG SOO;;CHO KYOUNG AH;;WOO SOL A;;CHO JIN-SUN;;KIM SANG-SIK;;PARK YOUNG-SOO;;KIM SANG SIG</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -5614,7 +5614,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>https://lens.org/044-863-244-807-936;;https://lens.org/023-219-706-755-351;;https://lens.org/182-619-245-762-417</t>
+          <t>https://lens.org/182-619-245-762-417;;https://lens.org/044-863-244-807-936;;https://lens.org/023-219-706-755-351</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>G06N3/063;;H01L29/739;;H01L29/10;;H01L29/06;;H01L29/423;;H01L29/08;;H03K17/687</t>
+          <t>H01L29/423;;H03K17/687;;H01L29/739;;H01L29/08;;G06N3/063;;H01L29/10;;H01L29/06</t>
         </is>
       </c>
       <c r="X48" t="inlineStr"/>
@@ -5657,22 +5657,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>US;;CN;;EP;;KR;;JP</t>
+          <t>KR;;US;;EP;;CN;;JP</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>A1;;A;;A4</t>
+          <t>A;;A1;;A4</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>EP 3317224 A4;;KR 20180051487 A;;EP 3317224 A1;;US 2018/0197077 A1;;CN 108137312 A;;JP 2018530145 A</t>
+          <t>US 2018/0197077 A1;;EP 3317224 A4;;CN 108137312 A;;EP 3317224 A1;;KR 20180051487 A;;JP 2018530145 A</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>023-676-481-169-696;;191-752-177-258-33X;;143-789-421-997-213;;000-924-163-689-210;;042-088-088-360-484;;166-436-753-396-925</t>
+          <t>166-436-753-396-925;;042-088-088-360-484;;000-924-163-689-210;;023-676-481-169-696;;191-752-177-258-33X;;143-789-421-997-213</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -5685,7 +5685,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>KR 20187003064 A;;JP 2017568334 A;;EP 16818317 A;;US 201615740791 A;;CN 201680039398 A</t>
+          <t>KR 20187003064 A;;CN 201680039398 A;;JP 2017568334 A;;US 201615740791 A;;EP 16818317 A</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>ニューロモルフィックネットワーク;;NEUROMORPHIC NETWORK;;신경형태 망</t>
+          <t>NEUROMORPHIC NETWORK;;신경형태 망;;ニューロモルフィックネットワーク</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -5715,7 +5715,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>フォスナー ショーン;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;ボーズ サウラブ クマー;;ブラウン シモン アンソニー;;FOSTNER SHAWN</t>
+          <t>ボーズ サウラブ クマー;;BOSE SAURABH KUMAR;;ブラウン シモン アンソニー;;FOSTNER SHAWN;;フォスナー ショーン;;BROWN SIMON ANTHONY</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -5725,12 +5725,12 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>https://lens.org/042-088-088-360-484;;https://lens.org/000-924-163-689-210;;https://lens.org/166-436-753-396-925;;https://lens.org/143-789-421-997-213;;https://lens.org/023-676-481-169-696;;https://lens.org/191-752-177-258-33X</t>
+          <t>https://lens.org/000-924-163-689-210;;https://lens.org/023-676-481-169-696;;https://lens.org/166-436-753-396-925;;https://lens.org/143-789-421-997-213;;https://lens.org/191-752-177-258-33X;;https://lens.org/042-088-088-360-484</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>Patent Application;;Search Report</t>
+          <t>Search Report;;Patent Application</t>
         </is>
       </c>
       <c r="R49" t="n">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>G06N3/063;;B82B3/00;;B82Y40/00;;H01L49/00;;B82Y10/00;;B82Y30/00;;G06N3/04</t>
+          <t>H01L49/00;;G06N3/063;;G06N3/04;;B82Y40/00;;B82Y10/00;;B82Y30/00;;B82B3/00</t>
         </is>
       </c>
       <c r="X49" t="inlineStr"/>
@@ -5821,12 +5821,12 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>FOSTNER SHAWN;;BROWN SIMON ANTHONY;;THE UNIV OF CANTERBURY;;BOSE SAURABH KUMAR</t>
+          <t>THE UNIV OF CANTERBURY;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;FOSTNER SHAWN</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>FOSTNER SHAWN;;BROWN SIMON ANTHONY;;BOSE SAURABH KUMAR</t>
+          <t>BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;FOSTNER SHAWN</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -5859,7 +5859,7 @@
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>B82Y10/00;;B82Y30/00;;B82B3/00</t>
+          <t>B82Y30/00;;B82Y10/00;;B82B3/00</t>
         </is>
       </c>
       <c r="X50" t="inlineStr"/>
@@ -5875,22 +5875,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>US;;AU;;CN;;IL;;EP;;RU;;KR;;JP;;ZA;;TW;;CA;;WO</t>
+          <t>TW;;KR;;WO;;RU;;US;;IL;;CA;;EP;;ZA;;CN;;JP;;AU</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>B;;C1;;D0;;B2;;A1;;A</t>
+          <t>A;;D0;;C1;;A1;;B;;B2</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>ZA 201803894 B;;CA 3008070 A1;;WO 2018/231100 A1;;TW I673604 B;;AU 2018/204252 B2;;JP 2019009776 A;;AU 2018/204252 A1;;US 2018/0365276 A1;;TW 201905691 A;;KR 20180136407 A;;IL 259907 D0;;RU 2659025 C1;;CN 109086890 A;;EP 3416076 A1</t>
+          <t>CN 109086890 A;;JP 2019009776 A;;KR 20180136407 A;;WO 2018/231100 A1;;ZA 201803894 B;;TW 201905691 A;;CA 3008070 A1;;IL 259907 D0;;AU 2018/204252 B2;;TW I673604 B;;EP 3416076 A1;;AU 2018/204252 A1;;US 2018/0365276 A1;;RU 2659025 C1</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>062-442-047-736-531;;001-079-502-253-130;;163-192-380-009-138;;180-073-430-817-518;;038-126-807-734-99X;;000-934-395-077-394;;035-130-560-396-513;;077-346-225-203-979;;102-668-769-413-639;;114-160-458-226-391;;108-663-655-304-325;;044-300-098-394-889;;075-782-007-590-446;;166-964-008-678-577</t>
+          <t>000-934-395-077-394;;163-192-380-009-138;;102-668-769-413-639;;035-130-560-396-513;;180-073-430-817-518;;114-160-458-226-391;;077-346-225-203-979;;166-964-008-678-577;;001-079-502-253-130;;044-300-098-394-889;;108-663-655-304-325;;062-442-047-736-531;;075-782-007-590-446;;038-126-807-734-99X</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -5903,7 +5903,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>CN 201810615395 A;;RU 2018000384 W;;ZA 201803894 A;;IL 25990718 A;;EP 18177823 A;;RU 2017120555 A;;TW 107120605 A;;KR 20180068262 A;;JP 2018113817 A;;US 201816008958 A;;AU 2018/204252 A;;CA 3008070 A</t>
+          <t>ZA 201803894 A;;RU 2017120555 A;;JP 2018113817 A;;RU 2018000384 W;;TW 107120605 A;;IL 25990718 A;;CN 201810615395 A;;EP 18177823 A;;KR 20180068262 A;;US 201816008958 A;;CA 3008070 A;;AU 2018/204252 A</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -5918,7 +5918,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>METHODS OF CODING AND DECODING INFORMATION;;Methods of coding an decoding information;;Methods of encoding and decoding information;;METHODS FOR CODING AND DECODING INFORMATION;;METHODS OF ENCODING AND DECODING INFORMATION;;Methods of coding and decoding information</t>
+          <t>METHODS FOR CODING AND DECODING INFORMATION;;Methods of encoding and decoding information;;Methods of coding and decoding information;;METHODS OF ENCODING AND DECODING INFORMATION;;METHODS OF CODING AND DECODING INFORMATION;;Methods of coding an decoding information</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -5928,27 +5928,27 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY;;LANDIGRAD LIMITED LIABILITY COMPANY;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LLC</t>
+          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH</t>
+          <t>SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH (2017-06-14);;LANDIGRAD LIMITED LIABILITY COMPANY (2017-06-14)</t>
+          <t>LANDIGRAD LIMITED LIABILITY COMPANY (2017-06-14);;SMIRNOV SERGEY NIKOLAYEVICH (2017-06-14)</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>https://lens.org/108-663-655-304-325;;https://lens.org/044-300-098-394-889;;https://lens.org/035-130-560-396-513;;https://lens.org/077-346-225-203-979;;https://lens.org/180-073-430-817-518;;https://lens.org/001-079-502-253-130;;https://lens.org/000-934-395-077-394;;https://lens.org/166-964-008-678-577;;https://lens.org/114-160-458-226-391;;https://lens.org/102-668-769-413-639;;https://lens.org/038-126-807-734-99X;;https://lens.org/163-192-380-009-138;;https://lens.org/062-442-047-736-531;;https://lens.org/075-782-007-590-446</t>
+          <t>https://lens.org/062-442-047-736-531;;https://lens.org/108-663-655-304-325;;https://lens.org/166-964-008-678-577;;https://lens.org/102-668-769-413-639;;https://lens.org/035-130-560-396-513;;https://lens.org/000-934-395-077-394;;https://lens.org/001-079-502-253-130;;https://lens.org/163-192-380-009-138;;https://lens.org/044-300-098-394-889;;https://lens.org/114-160-458-226-391;;https://lens.org/077-346-225-203-979;;https://lens.org/075-782-007-590-446;;https://lens.org/180-073-430-817-518;;https://lens.org/038-126-807-734-99X</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>Patent Application;;Patent of Addition;;Granted Patent</t>
+          <t>Granted Patent;;Patent of Addition;;Patent Application</t>
         </is>
       </c>
       <c r="R51" t="n">
@@ -5970,7 +5970,7 @@
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>H03M7/14;;H03M13/00;;H03M13/47;;H03M7/30;;H03M7/28;;C12Q1/68;;C12N15/09;;G06F17/30;;G06F11/08;;G06F19/10;;B82Y10/00;;G06F19/22;;H03M7/06;;H04N/;;G06K19/06;;G06N3/12</t>
+          <t>G06F19/10;;G06F11/08;;H03M7/14;;H03M7/06;;H04N/;;G06F19/22;;H03M13/47;;C12N15/09;;H03M7/30;;H03M13/00;;G06K19/06;;B82Y10/00;;G06F17/30;;C12Q1/68;;H03M7/28;;G06N3/12</t>
         </is>
       </c>
       <c r="X51" t="inlineStr"/>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>002-059-867-037-850;;002-603-512-307-539</t>
+          <t>002-603-512-307-539;;002-059-867-037-850</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -6039,7 +6039,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;스미르노브, 세르게이 니콜라예비치;;LANDIGRAD LLC</t>
+          <t>LANDIGRAD LLC;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -6050,12 +6050,12 @@
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>https://lens.org/002-059-867-037-850;;https://lens.org/002-603-512-307-539</t>
+          <t>https://lens.org/002-603-512-307-539;;https://lens.org/002-059-867-037-850</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R52" t="n">
@@ -6077,7 +6077,7 @@
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>G06F16/22;;H03M13/01;;H03M13/29;;G06F11/10;;G16B30/00;;G06N3/12</t>
+          <t>G06F16/22;;H03M13/01;;G16B30/00;;H03M13/29;;G06F11/10;;G06N3/12</t>
         </is>
       </c>
       <c r="X52" t="inlineStr"/>
@@ -6184,7 +6184,7 @@
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>G01N33/00;;G01N27/414;;G06N20/00;;B82Y15/00;;G16C60/00;;G01R23/177</t>
+          <t>G16C60/00;;B82Y15/00;;G01R23/177;;G01N27/414;;G06N20/00;;G01N33/00</t>
         </is>
       </c>
       <c r="X53" t="inlineStr"/>
@@ -6200,22 +6200,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>US;;AU;;CN;;EP;;SG;;JP;;KR;;CA;;WO</t>
+          <t>WO;;KR;;US;;CA;;EP;;CN;;JP;;SG;;AU</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>C;;B1;;B2;;A1;;A</t>
+          <t>A;;C;;A1;;B2;;B1</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>JP 6573727 B2;;AU 2015/412742 B2;;US 2018/0314967 A1;;WO 2017/074379 A1;;US 10217057 B2;;KR 102161140 B1;;CA 3003695 A1;;CA 3003695 C;;CN 108701261 A;;JP 2018534638 A;;EP 3369047 A1;;SG 11201803545Q A;;KR 20180103833 A;;AU 2015/412742 A1</t>
+          <t>CA 3003695 C;;AU 2015/412742 A1;;AU 2015/412742 B2;;EP 3369047 A1;;KR 102161140 B1;;JP 2018534638 A;;KR 20180103833 A;;CA 3003695 A1;;JP 6573727 B2;;SG 11201803545Q A;;WO 2017/074379 A1;;US 10217057 B2;;US 2018/0314967 A1;;CN 108701261 A</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>054-690-301-667-678;;033-494-926-604-108;;004-336-178-048-63X;;119-509-407-241-779;;144-606-189-820-123;;145-042-401-678-239;;076-028-241-945-059;;086-439-121-098-851;;027-716-622-208-177;;109-116-047-040-788;;136-452-791-198-630;;160-664-290-293-52X;;127-396-891-419-410;;181-571-309-454-653</t>
+          <t>109-116-047-040-788;;127-396-891-419-410;;004-336-178-048-63X;;086-439-121-098-851;;027-716-622-208-177;;119-509-407-241-779;;181-571-309-454-653;;076-028-241-945-059;;145-042-401-678-239;;054-690-301-667-678;;136-452-791-198-630;;144-606-189-820-123;;160-664-290-293-52X;;033-494-926-604-108</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>AU 2015/412742 A;;CA 3003695 A;;CN 201580085007 A;;US 2015/0057984 W;;KR 20187014604 A;;EP 15794414 A;;JP 2018542110 A;;SG 11201803545Q A;;US 201515771106 A</t>
+          <t>US 201515771106 A;;CN 201580085007 A;;US 2015/0057984 W;;SG 11201803545Q A;;JP 2018542110 A;;EP 15794414 A;;KR 20187014604 A;;CA 3003695 A;;AU 2015/412742 A</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -6243,7 +6243,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>양자 비트에서 누설 제거;;REMOVING LEAKAGE IN A QUANTUM BIT;;Removing leakage in a quantum bit;;量子ビットにおける漏れの除去</t>
+          <t>量子ビットにおける漏れの除去;;양자 비트에서 누설 제거;;Removing leakage in a quantum bit;;REMOVING LEAKAGE IN A QUANTUM BIT</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -6253,27 +6253,27 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>BARENDS RAMI;;グーグル エルエルシー;;GOOGLE INC;;구글 엘엘씨;;ラミ・バレントス;;GOOGLE LLC</t>
+          <t>ラミ・バレントス;;BARENDS RAMI;;구글 엘엘씨;;GOOGLE INC;;GOOGLE LLC;;グーグル エルエルシー</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>BARENDS RAMI;;ラミ・バレントス;;바엔즈 라미</t>
+          <t>바엔즈 라미;;BARENDS RAMI;;ラミ・バレントス</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>GOOGLE LLC (2016-02-01);;GOOGLE LLC (2019-07-10);;GOOGLE LLC (2018-07-12)</t>
+          <t>GOOGLE LLC (2016-02-01);;GOOGLE LLC (2018-07-12);;GOOGLE LLC (2019-07-10)</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>https://lens.org/027-716-622-208-177;;https://lens.org/119-509-407-241-779;;https://lens.org/145-042-401-678-239;;https://lens.org/109-116-047-040-788;;https://lens.org/086-439-121-098-851;;https://lens.org/127-396-891-419-410;;https://lens.org/004-336-178-048-63X;;https://lens.org/144-606-189-820-123;;https://lens.org/033-494-926-604-108;;https://lens.org/054-690-301-667-678;;https://lens.org/076-028-241-945-059;;https://lens.org/160-664-290-293-52X;;https://lens.org/181-571-309-454-653;;https://lens.org/136-452-791-198-630</t>
+          <t>https://lens.org/119-509-407-241-779;;https://lens.org/033-494-926-604-108;;https://lens.org/054-690-301-667-678;;https://lens.org/127-396-891-419-410;;https://lens.org/145-042-401-678-239;;https://lens.org/004-336-178-048-63X;;https://lens.org/160-664-290-293-52X;;https://lens.org/109-116-047-040-788;;https://lens.org/181-571-309-454-653;;https://lens.org/144-606-189-820-123;;https://lens.org/076-028-241-945-059;;https://lens.org/086-439-121-098-851;;https://lens.org/136-452-791-198-630;;https://lens.org/027-716-622-208-177</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent;;Unknown</t>
+          <t>Granted Patent;;Unknown;;Patent Application</t>
         </is>
       </c>
       <c r="R54" t="n">
@@ -6295,7 +6295,7 @@
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>H01L27/18;;H03K3/38;;G06N10/00;;B82Y10/00;;G02F3/00;;G06N99/00</t>
+          <t>G06N10/00;;H01L27/18;;G02F3/00;;G06N99/00;;H03K3/38;;B82Y10/00</t>
         </is>
       </c>
       <c r="X54" t="inlineStr"/>
@@ -6354,7 +6354,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>REMOVING LEAKAGE IN A QUANTUM BIT;;Removing leakage in a quantum bit</t>
+          <t>Removing leakage in a quantum bit;;REMOVING LEAKAGE IN A QUANTUM BIT</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -6384,7 +6384,7 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R55" t="n">
@@ -6406,7 +6406,7 @@
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>F41J5/18;;F41J1/10;;H01L27/18;;H03K3/38;;F41J9/02;;G06N10/00;;A63F9/02;;F41J7/04;;G06N20/00</t>
+          <t>G06N10/00;;H01L27/18;;F41J9/02;;F41J5/18;;F41J7/04;;H03K3/38;;F41J1/10;;A63F9/02;;G06N20/00</t>
         </is>
       </c>
       <c r="X55" t="inlineStr"/>
@@ -6517,7 +6517,7 @@
       </c>
       <c r="W56" t="inlineStr">
         <is>
-          <t>F41J5/18;;F41J1/10;;H01L27/18;;H03K3/38;;F41J9/02;;G06N10/00;;F41J7/04;;G06N20/00</t>
+          <t>G06N10/00;;H01L27/18;;F41J9/02;;F41J5/18;;F41J7/04;;H03K3/38;;F41J1/10;;G06N20/00</t>
         </is>
       </c>
       <c r="X56" t="inlineStr"/>
@@ -6538,12 +6538,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>US 10422607 B2;;US 2019/0186877 A1</t>
+          <t>US 2019/0186877 A1;;US 10422607 B2</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -6576,7 +6576,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>REMOVING LEAKAGE IN A QUANTUM BIT;;Removing leakage in a quantum bit</t>
+          <t>Removing leakage in a quantum bit;;REMOVING LEAKAGE IN A QUANTUM BIT</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -6601,12 +6601,12 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>https://lens.org/008-969-973-657-149;;https://lens.org/001-753-592-797-300</t>
+          <t>https://lens.org/001-753-592-797-300;;https://lens.org/008-969-973-657-149</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R57" t="n">
@@ -6628,7 +6628,7 @@
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>F41J5/18;;F41J1/10;;F41J9/02;;G06N10/00;;A63F9/02;;F41J7/04</t>
+          <t>G06N10/00;;F41J9/02;;F41J5/18;;F41J7/04;;F41J1/10;;A63F9/02</t>
         </is>
       </c>
       <c r="X57" t="inlineStr"/>
@@ -6649,17 +6649,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>A1;;B2;;B1</t>
+          <t>B2;;B1;;A1</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>EP 3106427 A1;;EP 3106427 B1;;US 2016/0372314 A1;;US 9548191 B2</t>
+          <t>EP 3106427 A1;;US 9548191 B2;;EP 3106427 B1;;US 2016/0372314 A1</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>047-713-326-117-82X;;012-779-809-146-993;;170-523-664-499-340;;197-942-427-280-157</t>
+          <t>012-779-809-146-993;;047-713-326-117-82X;;197-942-427-280-157;;170-523-664-499-340</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -6672,7 +6672,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>US 201514742346 A;;EP 16164338 A</t>
+          <t>EP 16164338 A;;US 201514742346 A</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -6687,7 +6687,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>ION TRAPPING WITH INTEGRATED ELECTROMAGNETS;;Ion trapping with integrated electromagnets</t>
+          <t>Ion trapping with integrated electromagnets;;ION TRAPPING WITH INTEGRATED ELECTROMAGNETS</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -6712,12 +6712,12 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>https://lens.org/170-523-664-499-340;;https://lens.org/197-942-427-280-157;;https://lens.org/047-713-326-117-82X;;https://lens.org/012-779-809-146-993</t>
+          <t>https://lens.org/197-942-427-280-157;;https://lens.org/047-713-326-117-82X;;https://lens.org/170-523-664-499-340;;https://lens.org/012-779-809-146-993</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R58" t="n">
@@ -6739,7 +6739,7 @@
       </c>
       <c r="W58" t="inlineStr">
         <is>
-          <t>H01L29/94;;H01J49/06;;H01J49/00;;B82Y10/00;;H01J49/46;;G21K1/00;;G04F5/14;;G06N99/00</t>
+          <t>H01J49/06;;G06N99/00;;G21K1/00;;B82Y10/00;;H01L29/94;;G04F5/14;;H01J49/46;;H01J49/00</t>
         </is>
       </c>
       <c r="X58" t="inlineStr"/>
@@ -6770,7 +6770,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>095-562-255-399-764;;163-360-212-151-338</t>
+          <t>163-360-212-151-338;;095-562-255-399-764</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -6798,7 +6798,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>ION TRAPPING WITH INTEGRATED ELECTROMAGNETS;;Ion trapping with integrated electromagnets</t>
+          <t>Ion trapping with integrated electromagnets;;ION TRAPPING WITH INTEGRATED ELECTROMAGNETS</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -6824,7 +6824,7 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R59" t="n">
@@ -6846,7 +6846,7 @@
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>H01L29/94;;H01J49/06;;B82Y10/00;;H01J49/46;;G21K1/00;;G06N99/00</t>
+          <t>H01J49/06;;G06N99/00;;G21K1/00;;B82Y10/00;;H01L29/94;;H01J49/46</t>
         </is>
       </c>
       <c r="X59" t="inlineStr"/>
@@ -6872,7 +6872,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>US 9985193 B2;;US 2017/0005255 A1</t>
+          <t>US 2017/0005255 A1;;US 9985193 B2</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -6920,7 +6920,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>GAMBETTA JAY M;;DIAL OLIVER;;MCCLURE III DOUGLAS T;;STEFFEN MATTHIAS</t>
+          <t>STEFFEN MATTHIAS;;MCCLURE III DOUGLAS T;;GAMBETTA JAY M;;DIAL OLIVER</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -6935,7 +6935,7 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R60" t="n">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="W60" t="inlineStr">
         <is>
-          <t>G06F17/00;;H01L39/24;;H01L39/02;;H01L39/14;;B82Y10/00;;G06N99/00</t>
+          <t>G06N99/00;;H01L39/24;;G06F17/00;;B82Y10/00;;H01L39/02;;H01L39/14</t>
         </is>
       </c>
       <c r="X60" t="inlineStr"/>
@@ -6973,12 +6973,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>US;;WO</t>
+          <t>WO;;US</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -6988,7 +6988,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>151-924-329-105-277;;185-410-845-133-114;;055-623-784-141-019</t>
+          <t>055-623-784-141-019;;151-924-329-105-277;;185-410-845-133-114</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -7001,7 +7001,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>US 201514949248 A;;IB 2016053010 W</t>
+          <t>IB 2016053010 W;;US 201514949248 A</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -7026,12 +7026,12 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>IBM (CHINA) INVEST COMPANY LTD;;IBM UK;;IBM</t>
+          <t>IBM;;IBM UK;;IBM (CHINA) INVEST COMPANY LTD</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>DIAL OLIVER;;GAMBETTA JAY M;;STEFFEN MATTHIAS;;GAMBETTA JAY;;MCCLURE III DOUGLAS T;;MCCLURE III DOUGLAS TEMPLETON</t>
+          <t>STEFFEN MATTHIAS;;GAMBETTA JAY;;GAMBETTA JAY M;;DIAL OLIVER;;MCCLURE III DOUGLAS T;;MCCLURE III DOUGLAS TEMPLETON</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -7046,7 +7046,7 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R61" t="n">
@@ -7068,7 +7068,7 @@
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>G06F17/00;;H01L39/24;;H01L39/02;;H01L39/14;;H01P1/205;;H01P7/00;;G06N99/00</t>
+          <t>H01P1/205;;G06N99/00;;H01L39/24;;G06F17/00;;H01P7/00;;H01L39/02;;H01L39/14</t>
         </is>
       </c>
       <c r="X61" t="inlineStr"/>
@@ -7089,12 +7089,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>A1;;B1</t>
+          <t>B1;;A1</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>US 10546994 B1;;US 2020/0028065 A1</t>
+          <t>US 2020/0028065 A1;;US 10546994 B1</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -7142,7 +7142,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>GAMBETTA JAY M;;DIAL OLIVER;;MCCLURE III DOUGLAS T;;STEFFEN MATTHIAS</t>
+          <t>STEFFEN MATTHIAS;;MCCLURE III DOUGLAS T;;GAMBETTA JAY M;;DIAL OLIVER</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -7152,12 +7152,12 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>https://lens.org/008-906-245-482-821;;https://lens.org/082-686-752-226-904</t>
+          <t>https://lens.org/082-686-752-226-904;;https://lens.org/008-906-245-482-821</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R62" t="n">
@@ -7179,7 +7179,7 @@
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>H01L39/24;;H01L39/02;;G06N10/00;;H01L39/14;;B82Y10/00;;G06N20/00;;H01P1/205;;H01P7/00</t>
+          <t>G06N10/00;;H01P1/205;;H01L39/24;;B82Y10/00;;G06N20/00;;H01P7/00;;H01L39/02;;H01L39/14</t>
         </is>
       </c>
       <c r="X62" t="inlineStr"/>
@@ -7200,12 +7200,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>US 2018/0287039 A1;;US 10529909 B2</t>
+          <t>US 10529909 B2;;US 2018/0287039 A1</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -7253,7 +7253,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>GAMBETTA JAY M;;DIAL OLIVER;;MCCLURE III DOUGLAS T;;STEFFEN MATTHIAS</t>
+          <t>STEFFEN MATTHIAS;;MCCLURE III DOUGLAS T;;GAMBETTA JAY M;;DIAL OLIVER</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -7263,12 +7263,12 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>https://lens.org/101-995-532-888-750;;https://lens.org/167-322-761-422-768</t>
+          <t>https://lens.org/167-322-761-422-768;;https://lens.org/101-995-532-888-750</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R63" t="n">
@@ -7290,7 +7290,7 @@
       </c>
       <c r="W63" t="inlineStr">
         <is>
-          <t>H01L39/24;;G06N10/00;;H01L39/14;;B82Y10/00;;G06N20/00;;G06N99/00</t>
+          <t>G06N10/00;;G06N99/00;;H01L39/24;;B82Y10/00;;G06N20/00;;H01L39/14</t>
         </is>
       </c>
       <c r="X63" t="inlineStr"/>
@@ -7311,7 +7311,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>064-885-509-498-458;;015-914-741-952-531</t>
+          <t>015-914-741-952-531;;064-885-509-498-458</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -7364,7 +7364,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>GAMBETTA JAY M;;DIAL OLIVER;;MCCLURE III DOUGLAS T;;STEFFEN MATTHIAS</t>
+          <t>STEFFEN MATTHIAS;;MCCLURE III DOUGLAS T;;GAMBETTA JAY M;;DIAL OLIVER</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -7379,7 +7379,7 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R64" t="n">
@@ -7401,7 +7401,7 @@
       </c>
       <c r="W64" t="inlineStr">
         <is>
-          <t>G06N99/00;;B82Y10/00;;H01L39/14;;H01L39/24</t>
+          <t>H01L39/14;;B82Y10/00;;G06N99/00;;H01L39/24</t>
         </is>
       </c>
       <c r="X64" t="inlineStr"/>
@@ -7475,7 +7475,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J</t>
+          <t>BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -7571,7 +7571,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Microelectromechanical accelerometer based sensor system;;MICROELECTROMECHANICAL ACCELEROMETER BASED SENSOR SYSTEM</t>
+          <t>MICROELECTROMECHANICAL ACCELEROMETER BASED SENSOR SYSTEM;;Microelectromechanical accelerometer based sensor system</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -7581,12 +7581,12 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J</t>
+          <t>BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J</t>
+          <t>BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -7596,12 +7596,12 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>https://lens.org/178-274-931-648-096;;https://lens.org/189-635-522-775-510</t>
+          <t>https://lens.org/189-635-522-775-510;;https://lens.org/178-274-931-648-096</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R66" t="n">
@@ -7644,7 +7644,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -7654,7 +7654,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>123-869-793-750-750;;188-510-083-688-347</t>
+          <t>188-510-083-688-347;;123-869-793-750-750</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -7682,7 +7682,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Microelectromechanical accelerometer based sensor system;;MICROELECTROMECHANICAL ACCELEROMETER BASED SENSOR SYSTEM</t>
+          <t>MICROELECTROMECHANICAL ACCELEROMETER BASED SENSOR SYSTEM;;Microelectromechanical accelerometer based sensor system</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -7697,18 +7697,18 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J</t>
+          <t>BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>https://lens.org/188-510-083-688-347;;https://lens.org/123-869-793-750-750</t>
+          <t>https://lens.org/123-869-793-750-750;;https://lens.org/188-510-083-688-347</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R67" t="n">
@@ -7751,7 +7751,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -7761,7 +7761,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>091-928-229-377-519;;189-518-628-052-967</t>
+          <t>189-518-628-052-967;;091-928-229-377-519</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -7789,7 +7789,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Microelectromechanical accelerometer based sensor system;;MICROELECTROMECHANICAL ACCELEROMETER BASED SENSOR SYSTEM</t>
+          <t>MICROELECTROMECHANICAL ACCELEROMETER BASED SENSOR SYSTEM;;Microelectromechanical accelerometer based sensor system</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -7804,18 +7804,18 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J</t>
+          <t>BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>https://lens.org/091-928-229-377-519;;https://lens.org/189-518-628-052-967</t>
+          <t>https://lens.org/189-518-628-052-967;;https://lens.org/091-928-229-377-519</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R68" t="n">
@@ -7837,7 +7837,7 @@
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>B81B7/00;;A61B5/11;;G16H10/60;;G08C19/22;;A61B5/00</t>
+          <t>G08C19/22;;A61B5/11;;A61B5/00;;B81B7/00;;G16H10/60</t>
         </is>
       </c>
       <c r="X68" t="inlineStr"/>
@@ -7960,22 +7960,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>AU;;CN;;EP;;KR;;JP;;CA</t>
+          <t>KR;;CA;;EP;;CN;;JP;;AU</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>A1;;A;;A4;;B1</t>
+          <t>A;;A1;;B1;;A4</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>EP 3292466 A1;;KR 102141274 B1;;JP 2018521382 A;;CA 2983880 A1;;CN 107683460 A;;KR 20180004226 A;;EP 3292466 A4;;AU 2016/258029 A1</t>
+          <t>EP 3292466 A4;;KR 20180004226 A;;JP 2018521382 A;;KR 102141274 B1;;CA 2983880 A1;;AU 2016/258029 A1;;EP 3292466 A1;;CN 107683460 A</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>061-619-330-497-243;;094-655-367-009-253;;127-853-431-567-747;;165-599-734-061-37X;;086-576-713-592-977;;127-103-433-799-24X;;043-608-201-196-560;;053-474-667-599-726</t>
+          <t>127-103-433-799-24X;;061-619-330-497-243;;053-474-667-599-726;;127-853-431-567-747;;043-608-201-196-560;;094-655-367-009-253;;086-576-713-592-977;;165-599-734-061-37X</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -7988,7 +7988,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>CA 2983880 A;;EP 16790101 A;;AU 2016/258029 A;;JP 2017557330 A;;KR 20177035068 A;;CN 201680034976 A</t>
+          <t>JP 2017557330 A;;CN 201680034976 A;;EP 16790101 A;;CA 2983880 A;;KR 20177035068 A;;AU 2016/258029 A</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -8003,7 +8003,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Quanton Representation For Emulating Quantum-Like Computation On Classical Processors;;古典的なプロセッサで量子類似計算をエミュレートするためのＱＵＡＮＴＯＮ表現;;Quanton representation for emulating quantum-like computation on classical processors;;QUANTON REPRESENTATION FOR EMULATING QUANTUM-LIKE COMPUTATION ON CLASSICAL PROCESSORS;;고전적 프로세서 상에서 양자-유사 계산을 에뮬레이트하기 위한 퀀톤 표현</t>
+          <t>고전적 프로세서 상에서 양자-유사 계산을 에뮬레이트하기 위한 퀀톤 표현;;QUANTON REPRESENTATION FOR EMULATING QUANTUM-LIKE COMPUTATION ON CLASSICAL PROCESSORS;;Quanton representation for emulating quantum-like computation on classical processors;;Quanton Representation For Emulating Quantum-Like Computation On Classical Processors;;古典的なプロセッサで量子類似計算をエミュレートするためのＱＵＡＮＴＯＮ表現</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -8013,23 +8013,23 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;킨디 인코포레이티드;;KYNDI INC</t>
+          <t>KYNDI INC;;킨디 인코포레이티드;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>MAJUMDAR ARUN;;마줌다 아룬;;アルン、マジュムダール</t>
+          <t>MAJUMDAR ARUN;;アルン、マジュムダール;;마줌다 아룬</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>https://lens.org/043-608-201-196-560;;https://lens.org/094-655-367-009-253;;https://lens.org/061-619-330-497-243;;https://lens.org/053-474-667-599-726;;https://lens.org/127-853-431-567-747;;https://lens.org/127-103-433-799-24X;;https://lens.org/086-576-713-592-977;;https://lens.org/165-599-734-061-37X</t>
+          <t>https://lens.org/127-853-431-567-747;;https://lens.org/053-474-667-599-726;;https://lens.org/086-576-713-592-977;;https://lens.org/043-608-201-196-560;;https://lens.org/127-103-433-799-24X;;https://lens.org/061-619-330-497-243;;https://lens.org/165-599-734-061-37X;;https://lens.org/094-655-367-009-253</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent;;Search Report</t>
+          <t>Granted Patent;;Search Report;;Patent Application</t>
         </is>
       </c>
       <c r="R70" t="n">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="W70" t="inlineStr">
         <is>
-          <t>G06N7/00;;G06F9/455;;B82Y10/00;;G06F7/60;;G06N3/12;;G06N99/00</t>
+          <t>G06N7/00;;G06N99/00;;G06F7/60;;B82Y10/00;;G06F9/455;;G06N3/12</t>
         </is>
       </c>
       <c r="X70" t="inlineStr"/>
@@ -8082,7 +8082,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>088-132-024-309-326;;144-582-622-252-937</t>
+          <t>144-582-622-252-937;;088-132-024-309-326</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -8135,12 +8135,12 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>https://lens.org/144-582-622-252-937;;https://lens.org/088-132-024-309-326</t>
+          <t>https://lens.org/088-132-024-309-326;;https://lens.org/144-582-622-252-937</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R71" t="n">
@@ -8162,7 +8162,7 @@
       </c>
       <c r="W71" t="inlineStr">
         <is>
-          <t>G06N7/00;;G06F17/18;;G06F9/455;;G06N10/00;;G06N3/12;;G06N99/00</t>
+          <t>G06N10/00;;G06N7/00;;G06N99/00;;G06F17/18;;G06F9/455;;G06N3/12</t>
         </is>
       </c>
       <c r="X71" t="inlineStr"/>
@@ -8269,7 +8269,7 @@
       </c>
       <c r="W72" t="inlineStr">
         <is>
-          <t>G06N3/12;;G06F9/455;;G06N10/00</t>
+          <t>G06F9/455;;G06N10/00;;G06N3/12</t>
         </is>
       </c>
       <c r="X72" t="inlineStr"/>
@@ -8343,7 +8343,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>ANDRIYASH EVGENY;;ROLFE JASON;;AMIN MOHAMMAD H S</t>
+          <t>AMIN MOHAMMAD H S;;ANDRIYASH EVGENY;;ROLFE JASON</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
@@ -8397,7 +8397,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>A;;A1;;A4</t>
+          <t>A;;A4;;A1</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -8407,7 +8407,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>069-459-329-577-52X;;169-871-701-653-729;;080-625-574-321-236</t>
+          <t>080-625-574-321-236;;069-459-329-577-52X;;169-871-701-653-729</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -8450,18 +8450,18 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>ANDRIYASH EVGENY;;ROLFE JASON;;AMIN MOHAMMAD H S</t>
+          <t>AMIN MOHAMMAD H S;;ANDRIYASH EVGENY;;ROLFE JASON</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>https://lens.org/069-459-329-577-52X;;https://lens.org/169-871-701-653-729;;https://lens.org/080-625-574-321-236</t>
+          <t>https://lens.org/080-625-574-321-236;;https://lens.org/169-871-701-653-729;;https://lens.org/069-459-329-577-52X</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>Patent Application;;Search Report</t>
+          <t>Search Report;;Patent Application</t>
         </is>
       </c>
       <c r="R74" t="n">
@@ -8483,7 +8483,7 @@
       </c>
       <c r="W74" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N3/04;;G06N99/00</t>
+          <t>B82Y10/00;;G06N99/00;;G06N3/04</t>
         </is>
       </c>
       <c r="X74" t="inlineStr"/>
@@ -8557,7 +8557,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>ANDRIYASH EVGENY;;ROLFE JASON;;AMIN MOHAMMAD H S</t>
+          <t>AMIN MOHAMMAD H S;;ANDRIYASH EVGENY;;ROLFE JASON</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -8610,22 +8610,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>AU;;CN;;EP;;JP;;CA</t>
+          <t>CA;;EP;;CN;;JP;;AU</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>A;;A1;;B2</t>
+          <t>A;;B2;;A1</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>JP 2019520645 A;;CN 109478258 A;;AU 2016/408764 B2;;JP 6755337 B2;;EP 3465555 A1;;CA 3026443 A1;;AU 2016/408764 A1</t>
+          <t>CA 3026443 A1;;EP 3465555 A1;;CN 109478258 A;;JP 2019520645 A;;AU 2016/408764 B2;;AU 2016/408764 A1;;JP 6755337 B2</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>133-953-218-172-493;;198-318-690-704-612;;165-707-705-470-436;;110-865-928-572-286;;191-543-293-857-398;;074-976-860-213-786;;023-877-193-105-410</t>
+          <t>110-865-928-572-286;;023-877-193-105-410;;198-318-690-704-612;;074-976-860-213-786;;165-707-705-470-436;;133-953-218-172-493;;191-543-293-857-398</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -8638,7 +8638,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>JP 2018562952 A;;EP 16825955 A;;CA 3026443 A;;AU 2016/408764 A;;CN 201680087746 A</t>
+          <t>CN 201680087746 A;;AU 2016/408764 A;;EP 16825955 A;;JP 2018562952 A;;CA 3026443 A</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -8653,7 +8653,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>サブ論理制御を使用する量子進化のトレーニング;;Training quantum evolutions using sublogical controls;;TRAINING QUANTUM EVOLUTIONS USING SUBLOGICAL CONTROLS</t>
+          <t>Training quantum evolutions using sublogical controls;;サブ論理制御を使用する量子進化のトレーニング;;TRAINING QUANTUM EVOLUTIONS USING SUBLOGICAL CONTROLS</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -8663,23 +8663,23 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>グーグル エルエルシー;;GOOGLE LLC</t>
+          <t>GOOGLE LLC;;グーグル エルエルシー</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>ライアン・バブシュ;;ハルトムート・ネーヴェン;;NEVEN HARTMUT;;BABBUSH RYAN</t>
+          <t>ハルトムート・ネーヴェン;;NEVEN HARTMUT;;ライアン・バブシュ;;BABBUSH RYAN</t>
         </is>
       </c>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
-          <t>https://lens.org/133-953-218-172-493;;https://lens.org/198-318-690-704-612;;https://lens.org/191-543-293-857-398;;https://lens.org/074-976-860-213-786;;https://lens.org/023-877-193-105-410;;https://lens.org/110-865-928-572-286;;https://lens.org/165-707-705-470-436</t>
+          <t>https://lens.org/110-865-928-572-286;;https://lens.org/074-976-860-213-786;;https://lens.org/198-318-690-704-612;;https://lens.org/191-543-293-857-398;;https://lens.org/133-953-218-172-493;;https://lens.org/023-877-193-105-410;;https://lens.org/165-707-705-470-436</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R76" t="n">
@@ -8701,7 +8701,7 @@
       </c>
       <c r="W76" t="inlineStr">
         <is>
-          <t>G06N20/00;;B82Y10/00;;G06N10/00;;G06N99/00</t>
+          <t>G06N10/00;;B82Y10/00;;G06N20/00;;G06N99/00</t>
         </is>
       </c>
       <c r="X76" t="inlineStr"/>
@@ -8717,7 +8717,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>US;;WO</t>
+          <t>WO;;US</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -8727,12 +8727,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>US 10275717 B2;;US 2017/0351967 A1;;WO 2017/209791 A1</t>
+          <t>WO 2017/209791 A1;;US 2017/0351967 A1;;US 10275717 B2</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>151-132-986-237-59X;;144-144-283-847-927;;175-413-197-129-096</t>
+          <t>151-132-986-237-59X;;175-413-197-129-096;;144-144-283-847-927</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -8770,7 +8770,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>GOOGLE LLC;;GOOGLE INC</t>
+          <t>GOOGLE INC;;GOOGLE LLC</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -8785,12 +8785,12 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>https://lens.org/151-132-986-237-59X;;https://lens.org/144-144-283-847-927;;https://lens.org/175-413-197-129-096</t>
+          <t>https://lens.org/144-144-283-847-927;;https://lens.org/175-413-197-129-096;;https://lens.org/151-132-986-237-59X</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R77" t="n">
@@ -8812,7 +8812,7 @@
       </c>
       <c r="W77" t="inlineStr">
         <is>
-          <t>G06N20/00;;B82Y10/00;;G06N10/00;;G06N99/00</t>
+          <t>G06N10/00;;B82Y10/00;;G06N20/00;;G06N99/00</t>
         </is>
       </c>
       <c r="X77" t="inlineStr"/>
@@ -8838,7 +8838,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>US 2019/0213495 A1;;US 11055626 B2</t>
+          <t>US 11055626 B2;;US 2019/0213495 A1</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -8901,7 +8901,7 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R78" t="n">
@@ -8923,7 +8923,7 @@
       </c>
       <c r="W78" t="inlineStr">
         <is>
-          <t>G06N20/00;;B82Y10/00;;G06N10/00</t>
+          <t>G06N10/00;;B82Y10/00;;G06N20/00</t>
         </is>
       </c>
       <c r="X78" t="inlineStr"/>
@@ -8939,22 +8939,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>US;;TW;;WO</t>
+          <t>TW;;WO;;US</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>A;;A1;;B2</t>
+          <t>A;;B2;;A1</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>US 2018/0082826 A1;;US 9972478 B2;;WO 2018/052698 A1;;TW 201826318 A</t>
+          <t>US 9972478 B2;;TW 201826318 A;;US 2018/0082826 A1;;WO 2018/052698 A1</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>162-900-997-782-030;;090-372-502-956-689;;010-852-607-896-927;;193-203-788-489-584</t>
+          <t>162-900-997-782-030;;010-852-607-896-927;;193-203-788-489-584;;090-372-502-956-689</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>US 201615268472 A;;US 2017/0048965 W;;TW 106131104 A</t>
+          <t>US 2017/0048965 W;;US 201615268472 A;;TW 106131104 A</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -8982,7 +8982,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Method and Process of Implementing Machine Learning in Complex Multivariate Wafer Processing Equipment;;Method and process of implementing machine learning in complex multivariate wafer processing equipment;;METHOD AND PROCESS OF IMPLEMENTING MACHINE LEARNING IN COMPLEX MULTIVARIATE WAFER PROCESSING EQUIPMENT</t>
+          <t>Method and Process of Implementing Machine Learning in Complex Multivariate Wafer Processing Equipment;;METHOD AND PROCESS OF IMPLEMENTING MACHINE LEARNING IN COMPLEX MULTIVARIATE WAFER PROCESSING EQUIPMENT;;Method and process of implementing machine learning in complex multivariate wafer processing equipment</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -8997,7 +8997,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>VAHEDI VAHID;;DAUGHERTY JOHN;;GOTTSCHO RICHARD ALAN;;GUHA JOYDEEP</t>
+          <t>DAUGHERTY JOHN;;GUHA JOYDEEP;;GOTTSCHO RICHARD ALAN;;VAHEDI VAHID</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -9007,12 +9007,12 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>https://lens.org/010-852-607-896-927;;https://lens.org/162-900-997-782-030;;https://lens.org/193-203-788-489-584;;https://lens.org/090-372-502-956-689</t>
+          <t>https://lens.org/162-900-997-782-030;;https://lens.org/090-372-502-956-689;;https://lens.org/010-852-607-896-927;;https://lens.org/193-203-788-489-584</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>Patent Application;;Patent of Addition;;Granted Patent</t>
+          <t>Granted Patent;;Patent of Addition;;Patent Application</t>
         </is>
       </c>
       <c r="R79" t="n">
@@ -9034,7 +9034,7 @@
       </c>
       <c r="W79" t="inlineStr">
         <is>
-          <t>H05H1/46;;H01L21/67;;H01J37/32;;H01L21/3065;;C23C14/34;;H01L21/205;;G01L21/30</t>
+          <t>G01L21/30;;C23C14/34;;H05H1/46;;H01J37/32;;H01L21/205;;H01L21/3065;;H01L21/67</t>
         </is>
       </c>
       <c r="X79" t="inlineStr"/>
@@ -9050,22 +9050,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>JP;;KR;;EP;;CN</t>
+          <t>EP;;KR;;CN;;JP</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>A1;;A;;A4</t>
+          <t>A;;A1;;A4</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>CN 109715848 A;;EP 3512977 A4;;JP 2019537240 A;;EP 3512977 A1;;KR 20190049796 A</t>
+          <t>JP 2019537240 A;;EP 3512977 A4;;KR 20190049796 A;;EP 3512977 A1;;CN 109715848 A</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>038-281-359-281-818;;091-701-308-686-233;;105-241-204-517-170;;124-585-563-874-282;;063-672-641-489-457</t>
+          <t>038-281-359-281-818;;091-701-308-686-233;;063-672-641-489-457;;105-241-204-517-170;;124-585-563-874-282</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -9078,7 +9078,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>CN 201780056833 A;;JP 2019513313 A;;EP 17851300 A;;KR 20197009604 A</t>
+          <t>JP 2019513313 A;;CN 201780056833 A;;EP 17851300 A;;KR 20197009604 A</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -9093,7 +9093,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>METHOD AND PROCESS OF IMPLEMENTING MACHINE LEARNING IN COMPLEX MULTIVARIATE WAFER PROCESSING EQUIPMENT;;複雑な多変量ウエハ処理機器における機械学習を実行する方法及びプロセス;;복잡한 다변수 웨이퍼 프로세싱 장비에서 머신 러닝을 구현하는 방법 및 프로세스</t>
+          <t>복잡한 다변수 웨이퍼 프로세싱 장비에서 머신 러닝을 구현하는 방법 및 프로세스;;METHOD AND PROCESS OF IMPLEMENTING MACHINE LEARNING IN COMPLEX MULTIVARIATE WAFER PROCESSING EQUIPMENT;;複雑な多変量ウエハ処理機器における機械学習を実行する方法及びプロセス</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -9108,18 +9108,18 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>DAUGHERTY JOHN;;ダウガティ・ジョン;;バヘディ・バヘド;;GUHA JOYDEEP;;グーハ・ジョイディープ;;ゴットショ・リチャード・アラン;;VAHEDI VAHID;;GOTTSCHO RICHARD ALAN</t>
+          <t>GUHA JOYDEEP;;ダウガティ・ジョン;;DAUGHERTY JOHN;;グーハ・ジョイディープ;;ゴットショ・リチャード・アラン;;バヘディ・バヘド;;VAHEDI VAHID;;GOTTSCHO RICHARD ALAN</t>
         </is>
       </c>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
-          <t>https://lens.org/038-281-359-281-818;;https://lens.org/105-241-204-517-170;;https://lens.org/124-585-563-874-282;;https://lens.org/091-701-308-686-233;;https://lens.org/063-672-641-489-457</t>
+          <t>https://lens.org/091-701-308-686-233;;https://lens.org/038-281-359-281-818;;https://lens.org/063-672-641-489-457;;https://lens.org/105-241-204-517-170;;https://lens.org/124-585-563-874-282</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>Patent Application;;Search Report</t>
+          <t>Search Report;;Patent Application</t>
         </is>
       </c>
       <c r="R80" t="n">
@@ -9141,7 +9141,7 @@
       </c>
       <c r="W80" t="inlineStr">
         <is>
-          <t>H05H1/46;;H01L21/67;;H01L21/3065;;H01L21/31;;H01J37/32;;C23C14/34;;C23C16/52;;H05H1/00;;H01L21/205</t>
+          <t>C23C16/52;;C23C14/34;;H05H1/46;;H01J37/32;;H01L21/205;;H05H1/00;;H01L21/3065;;H01L21/31;;H01L21/67</t>
         </is>
       </c>
       <c r="X80" t="inlineStr"/>
@@ -9162,7 +9162,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -9172,7 +9172,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>114-895-694-698-531;;105-441-254-491-980</t>
+          <t>105-441-254-491-980;;114-895-694-698-531</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -9200,7 +9200,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>System Implementing Machine Learning in Complex Multivariate Wafer Processing Equipment;;System implementing machine learning in complex multivariate wafer processing equipment</t>
+          <t>System implementing machine learning in complex multivariate wafer processing equipment;;System Implementing Machine Learning in Complex Multivariate Wafer Processing Equipment</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -9215,7 +9215,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>VAHEDI VAHID;;DAUGHERTY JOHN;;GOTTSCHO RICHARD ALAN;;GUHA JOYDEEP</t>
+          <t>DAUGHERTY JOHN;;GUHA JOYDEEP;;GOTTSCHO RICHARD ALAN;;VAHEDI VAHID</t>
         </is>
       </c>
       <c r="O81" t="inlineStr"/>
@@ -9226,7 +9226,7 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R81" t="n">
@@ -9248,7 +9248,7 @@
       </c>
       <c r="W81" t="inlineStr">
         <is>
-          <t>H01J37/32;;H01L21/3065;;H01L21/67</t>
+          <t>H01L21/3065;;H01L21/67;;H01J37/32</t>
         </is>
       </c>
       <c r="X81" t="inlineStr"/>
@@ -9264,22 +9264,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>US;;WO</t>
+          <t>WO;;US</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>US 2018/0232652 A1;;WO 2018/089792 A1;;US 10255555 B2</t>
+          <t>US 10255555 B2;;US 2018/0232652 A1;;WO 2018/089792 A1</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>132-268-047-578-71X;;041-847-960-047-967;;023-991-694-862-996</t>
+          <t>041-847-960-047-967;;023-991-694-862-996;;132-268-047-578-71X</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -9307,7 +9307,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Generating Quantum Logic Control Sequences for Quantum Information Processing Hardware;;GENERATING QUANTUM LOGIC CONTROL SEQUENCES FOR QUANTUM INFORMATION PROCESSING HARDWARE;;Generating quantum logic control sequences for quantum information processing hardware</t>
+          <t>Generating quantum logic control sequences for quantum information processing hardware;;Generating Quantum Logic Control Sequences for Quantum Information Processing Hardware;;GENERATING QUANTUM LOGIC CONTROL SEQUENCES FOR QUANTUM INFORMATION PROCESSING HARDWARE</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -9322,7 +9322,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>SETE EYOB A;;ZENG WILLIAM;;ZENG WILLIAM J;;CURTIS MICHAEL J;;SETE EYOB;;CURTIS MICHAEL</t>
+          <t>SETE EYOB;;CURTIS MICHAEL;;ZENG WILLIAM J;;ZENG WILLIAM;;CURTIS MICHAEL J;;SETE EYOB A</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -9332,12 +9332,12 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>https://lens.org/132-268-047-578-71X;;https://lens.org/023-991-694-862-996;;https://lens.org/041-847-960-047-967</t>
+          <t>https://lens.org/023-991-694-862-996;;https://lens.org/132-268-047-578-71X;;https://lens.org/041-847-960-047-967</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R82" t="n">
@@ -9359,7 +9359,7 @@
       </c>
       <c r="W82" t="inlineStr">
         <is>
-          <t>G06F16/901;;G06N5/02;;G06N10/00;;G06F17/30;;B82Y10/00;;G06N99/00</t>
+          <t>G06N10/00;;G06N5/02;;G06N99/00;;G06F17/30;;B82Y10/00;;G06F16/901</t>
         </is>
       </c>
       <c r="X82" t="inlineStr"/>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>US 10733522 B2;;US 2019/0370679 A1</t>
+          <t>US 2019/0370679 A1;;US 10733522 B2</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -9418,7 +9418,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Generating Quantum Logic Control Sequences for Quantum Information Processing Hardware;;Generating quantum logic control sequences for quantum information processing hardware</t>
+          <t>Generating quantum logic control sequences for quantum information processing hardware;;Generating Quantum Logic Control Sequences for Quantum Information Processing Hardware</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -9433,7 +9433,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>CURTIS MICHAEL J;;SETE EYOB A;;ZENG WILLIAM J</t>
+          <t>SETE EYOB A;;CURTIS MICHAEL J;;ZENG WILLIAM J</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R83" t="n">
@@ -9470,7 +9470,7 @@
       </c>
       <c r="W83" t="inlineStr">
         <is>
-          <t>G06F16/901;;B82Y10/00;;G06N10/00;;G06N5/02</t>
+          <t>G06N10/00;;B82Y10/00;;G06F16/901;;G06N5/02</t>
         </is>
       </c>
       <c r="X83" t="inlineStr"/>
@@ -9501,7 +9501,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>029-162-352-336-080;;039-906-098-361-02X</t>
+          <t>039-906-098-361-02X;;029-162-352-336-080</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -9539,7 +9539,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>DODO OMNIDATA INC;;IRIDIA INC</t>
+          <t>IRIDIA INC;;DODO OMNIDATA INC</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -9559,7 +9559,7 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R84" t="n">
@@ -9581,7 +9581,7 @@
       </c>
       <c r="W84" t="inlineStr">
         <is>
-          <t>G11C13/02;;C12Q1/68;;B82Y10/00;;C12Q1/6869;;G16B30/00;;G06N3/12</t>
+          <t>G16B30/00;;B82Y10/00;;C12Q1/68;;C12Q1/6869;;G11C13/02;;G06N3/12</t>
         </is>
       </c>
       <c r="X84" t="inlineStr"/>
@@ -9602,17 +9602,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>US 10714178 B2;;US 2019/0341108 A1</t>
+          <t>US 2019/0341108 A1;;US 10714178 B2</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>016-230-475-526-618;;033-319-578-578-485</t>
+          <t>033-319-578-578-485;;016-230-475-526-618</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -9670,7 +9670,7 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R85" t="n">
@@ -9692,7 +9692,7 @@
       </c>
       <c r="W85" t="inlineStr">
         <is>
-          <t>G11C13/02;;C12Q1/68;;B82Y10/00;;C12Q1/6869;;G16B30/00;;G06N3/12</t>
+          <t>G16B30/00;;B82Y10/00;;C12Q1/68;;C12Q1/6869;;G11C13/02;;G06N3/12</t>
         </is>
       </c>
       <c r="X85" t="inlineStr"/>
@@ -9799,7 +9799,7 @@
       </c>
       <c r="W86" t="inlineStr">
         <is>
-          <t>G06N3/063;;A61N1/378;;A61N1/372;;A61N1/36;;A61N5/06;;A61N1/05;;G16H20/30</t>
+          <t>G16H20/30;;A61N1/372;;A61N5/06;;G06N3/063;;A61N1/36;;A61N1/378;;A61N1/05</t>
         </is>
       </c>
       <c r="X86" t="inlineStr"/>
@@ -9906,7 +9906,7 @@
       </c>
       <c r="W87" t="inlineStr">
         <is>
-          <t>A61N1/372;;A61N1/36;;G16H20/30;;A61N5/06</t>
+          <t>A61N5/06;;A61N1/36;;G16H20/30;;A61N1/372</t>
         </is>
       </c>
       <c r="X87" t="inlineStr"/>
@@ -10013,7 +10013,7 @@
       </c>
       <c r="W88" t="inlineStr">
         <is>
-          <t>A61B5/145;;A61B5/00;;B82Y15/00</t>
+          <t>A61B5/145;;B82Y15/00;;A61B5/00</t>
         </is>
       </c>
       <c r="X88" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>BOOTHBY THOMAS J;;ANDRIYASH EVGENY A;;YARKONI SHEIR;;KING ANDREW DOUGLAS;;AMIN MOHAMMAD H;;LANTING TREVOR MICHAEL</t>
+          <t>KING ANDREW DOUGLAS;;ANDRIYASH EVGENY A;;AMIN MOHAMMAD H;;YARKONI SHEIR;;LANTING TREVOR MICHAEL;;BOOTHBY THOMAS J</t>
         </is>
       </c>
       <c r="O89" t="inlineStr"/>
@@ -10194,7 +10194,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>BOOTHBY THOMAS J;;ANDRIYASH EVGENY A;;YARKONI SHEIR;;KING ANDREW DOUGLAS;;AMIN MOHAMMAD H;;LANTING TREVOR MICHAEL</t>
+          <t>KING ANDREW DOUGLAS;;ANDRIYASH EVGENY A;;AMIN MOHAMMAD H;;YARKONI SHEIR;;LANTING TREVOR MICHAEL;;BOOTHBY THOMAS J</t>
         </is>
       </c>
       <c r="O90" t="inlineStr"/>
@@ -10253,12 +10253,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>US 10671937 B2;;US 2019/0266510 A1</t>
+          <t>US 2019/0266510 A1;;US 10671937 B2</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>180-555-399-659-364;;094-936-019-284-567</t>
+          <t>094-936-019-284-567;;180-555-399-659-364</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -10301,7 +10301,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>ANDRIYASH EVGENY A;;YARKONI SHEIR;;BOOTHBY KELLY T R;;KING ANDREW DOUGLAS;;AMIN MOHAMMAD H;;LANTING TREVOR MICHAEL</t>
+          <t>KING ANDREW DOUGLAS;;ANDRIYASH EVGENY A;;AMIN MOHAMMAD H;;YARKONI SHEIR;;LANTING TREVOR MICHAEL;;BOOTHBY KELLY T R</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -10311,12 +10311,12 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>https://lens.org/180-555-399-659-364;;https://lens.org/094-936-019-284-567</t>
+          <t>https://lens.org/094-936-019-284-567;;https://lens.org/180-555-399-659-364</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R91" t="n">
@@ -10338,7 +10338,7 @@
       </c>
       <c r="W91" t="inlineStr">
         <is>
-          <t>G06N7/08;;B82Y10/00;;G06N10/00;;G06N3/04</t>
+          <t>G06N7/08;;G06N10/00;;B82Y10/00;;G06N3/04</t>
         </is>
       </c>
       <c r="X91" t="inlineStr"/>
@@ -10412,7 +10412,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>ANDRIYASH EVGENY A;;YARKONI SHEIR;;BOOTHBY KELLY T R;;KING ANDREW DOUGLAS;;AMIN MOHAMMAD H;;LANTING TREVOR MICHAEL</t>
+          <t>KING ANDREW DOUGLAS;;ANDRIYASH EVGENY A;;AMIN MOHAMMAD H;;YARKONI SHEIR;;LANTING TREVOR MICHAEL;;BOOTHBY KELLY T R</t>
         </is>
       </c>
       <c r="O92" t="inlineStr"/>
@@ -10445,7 +10445,7 @@
       </c>
       <c r="W92" t="inlineStr">
         <is>
-          <t>G06N7/08;;B82Y10/00;;G06N10/00;;G06N3/04</t>
+          <t>G06N7/08;;G06N10/00;;B82Y10/00;;G06N3/04</t>
         </is>
       </c>
       <c r="X92" t="inlineStr"/>
@@ -10519,7 +10519,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>MILENKOVIC OLGICA;;YAZDI S M HOSSEIN TABATABAEI;;GABRYS RYAN</t>
+          <t>GABRYS RYAN;;YAZDI S M HOSSEIN TABATABAEI;;MILENKOVIC OLGICA</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -10556,7 +10556,7 @@
       </c>
       <c r="W93" t="inlineStr">
         <is>
-          <t>G11C13/02;;C12Q1/68;;B82Y10/00;;C12Q1/6806;;G06N3/12</t>
+          <t>C12Q1/6806;;B82Y10/00;;C12Q1/68;;G11C13/02;;G06N3/12</t>
         </is>
       </c>
       <c r="X93" t="inlineStr"/>
@@ -10572,22 +10572,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>CN;;EP;;KR;;JP;;CA</t>
+          <t>KR;;CA;;EP;;CN;;JP</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>A1;;A;;A4</t>
+          <t>A;;A1;;A4</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>JP 2020502494 A;;CA 3079046 A1;;EP 3532639 A4;;KR 20190111897 A;;CN 110325653 A;;EP 3532639 A1</t>
+          <t>CA 3079046 A1;;EP 3532639 A4;;EP 3532639 A1;;CN 110325653 A;;JP 2020502494 A;;KR 20190111897 A</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>187-797-836-525-53X;;135-940-995-038-782;;000-855-771-025-710;;150-446-297-196-345;;047-505-978-833-155;;048-938-486-237-816</t>
+          <t>048-938-486-237-816;;000-855-771-025-710;;150-446-297-196-345;;187-797-836-525-53X;;135-940-995-038-782;;047-505-978-833-155</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>KR 20197015597 A;;JP 2019523791 A;;CN 201780080140 A;;CA 3079046 A;;EP 17865168 A</t>
+          <t>CN 201780080140 A;;JP 2019523791 A;;CA 3079046 A;;EP 17865168 A;;KR 20197015597 A</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -10615,7 +10615,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>정보 저장을 위한 방법, 조성물, 및 장치;;情報の記憶のための方法、組成物、およびデバイス;;METHODS, COMPOSITIONS, AND DEVICES FOR INFORMATION STORAGE</t>
+          <t>情報の記憶のための方法、組成物、およびデバイス;;정보 저장을 위한 방법, 조성물, 및 장치;;METHODS, COMPOSITIONS, AND DEVICES FOR INFORMATION STORAGE</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -10630,18 +10630,18 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>PREDKI PAUL F;;ポール・エフ・プレドキ;;CASSIDY MAJA;;マジャ・キャシディ</t>
+          <t>ポール・エフ・プレドキ;;PREDKI PAUL F;;マジャ・キャシディ;;CASSIDY MAJA</t>
         </is>
       </c>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
-          <t>https://lens.org/048-938-486-237-816;;https://lens.org/150-446-297-196-345;;https://lens.org/000-855-771-025-710;;https://lens.org/187-797-836-525-53X;;https://lens.org/135-940-995-038-782;;https://lens.org/047-505-978-833-155</t>
+          <t>https://lens.org/150-446-297-196-345;;https://lens.org/048-938-486-237-816;;https://lens.org/135-940-995-038-782;;https://lens.org/187-797-836-525-53X;;https://lens.org/000-855-771-025-710;;https://lens.org/047-505-978-833-155</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>Patent Application;;Search Report</t>
+          <t>Search Report;;Patent Application</t>
         </is>
       </c>
       <c r="R94" t="n">
@@ -10663,7 +10663,7 @@
       </c>
       <c r="W94" t="inlineStr">
         <is>
-          <t>C12P19/34;;G01N27/22;;G01N33/50;;B82Y5/00;;G11C13/00;;C07H21/04;;B82Y40/00;;G01N27/00;;C12Q1/68;;G01N33/487;;G01N33/48;;C12Q1/6869;;G16B30/00;;G06N3/12</t>
+          <t>G01N33/487;;C07H21/04;;G11C13/00;;B82Y5/00;;G01N27/00;;C12P19/34;;G01N27/22;;G16B30/00;;G01N33/50;;B82Y40/00;;G01N33/48;;C12Q1/68;;C12Q1/6869;;G06N3/12</t>
         </is>
       </c>
       <c r="X94" t="inlineStr"/>
@@ -10770,7 +10770,7 @@
       </c>
       <c r="W95" t="inlineStr">
         <is>
-          <t>G01N27/22;;G01N33/50;;C12Q1/68;;G01N33/48;;G06F19/00</t>
+          <t>G01N27/22;;G01N33/50;;G01N33/48;;C12Q1/68;;G06F19/00</t>
         </is>
       </c>
       <c r="X95" t="inlineStr"/>
@@ -10881,7 +10881,7 @@
       </c>
       <c r="W96" t="inlineStr">
         <is>
-          <t>G06K9/00;;C01G49/02;;G06K9/62;;G01N33/68;;G06N20/20</t>
+          <t>G06N20/20;;G06K9/62;;G06K9/00;;G01N33/68;;C01G49/02</t>
         </is>
       </c>
       <c r="X96" t="inlineStr"/>
@@ -10955,7 +10955,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>NIKONOV DMITRI E;;MANIPATRUNI SASIKANTH;;YOUNG IAN A</t>
+          <t>MANIPATRUNI SASIKANTH;;NIKONOV DMITRI E;;YOUNG IAN A</t>
         </is>
       </c>
       <c r="O97" t="inlineStr"/>
@@ -11014,12 +11014,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>WO 2018/144454 A1;;TW 201836178 A</t>
+          <t>TW 201836178 A;;WO 2018/144454 A1</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>008-994-057-244-271;;050-105-019-902-296</t>
+          <t>050-105-019-902-296;;008-994-057-244-271</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>TW 107103471 A;;US 2018/0015953 W</t>
+          <t>US 2018/0015953 W;;TW 107103471 A</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -11062,18 +11062,18 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>YAROSLAVSKY IGOR YEHUDA;;SIGNAEVSKY MAXIM;;SIGNAEVSKI MAXIM M;;YAROSLAVSKY IGOR</t>
+          <t>YAROSLAVSKY IGOR;;SIGNAEVSKI MAXIM M;;SIGNAEVSKY MAXIM;;YAROSLAVSKY IGOR YEHUDA</t>
         </is>
       </c>
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
-          <t>https://lens.org/050-105-019-902-296;;https://lens.org/008-994-057-244-271</t>
+          <t>https://lens.org/008-994-057-244-271;;https://lens.org/050-105-019-902-296</t>
         </is>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>Patent Application;;Patent of Addition</t>
+          <t>Patent of Addition;;Patent Application</t>
         </is>
       </c>
       <c r="R98" t="n">
@@ -11095,7 +11095,7 @@
       </c>
       <c r="W98" t="inlineStr">
         <is>
-          <t>B82Y5/00;;H01L41/16;;A61B5/0492</t>
+          <t>H01L41/16;;B82Y5/00;;A61B5/0492</t>
         </is>
       </c>
       <c r="X98" t="inlineStr"/>
@@ -11116,12 +11116,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>A1;;A4</t>
+          <t>A4;;A1</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>EP 3576620 A4;;EP 3576620 A1</t>
+          <t>EP 3576620 A1;;EP 3576620 A4</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -11171,12 +11171,12 @@
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
-          <t>https://lens.org/055-322-631-913-242;;https://lens.org/099-584-260-676-79X</t>
+          <t>https://lens.org/099-584-260-676-79X;;https://lens.org/055-322-631-913-242</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>Patent Application;;Search Report</t>
+          <t>Search Report;;Patent Application</t>
         </is>
       </c>
       <c r="R99" t="n">
@@ -11198,7 +11198,7 @@
       </c>
       <c r="W99" t="inlineStr">
         <is>
-          <t>G06N3/06;;A61B5/04;;A61N1/05;;B82Y5/00;;B82Y30/00;;A61B5/0492</t>
+          <t>A61B5/0492;;G06N3/06;;B82Y5/00;;A61B5/04;;A61N1/05;;B82Y30/00</t>
         </is>
       </c>
       <c r="X99" t="inlineStr"/>
@@ -11224,7 +11224,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>US 2018/0214042 A1;;US 10602939 B2</t>
+          <t>US 10602939 B2;;US 2018/0214042 A1</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -11282,12 +11282,12 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>https://lens.org/149-547-617-610-224;;https://lens.org/031-532-035-261-932</t>
+          <t>https://lens.org/031-532-035-261-932;;https://lens.org/149-547-617-610-224</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R100" t="n">
@@ -11309,7 +11309,7 @@
       </c>
       <c r="W100" t="inlineStr">
         <is>
-          <t>G06N3/067;;G06N3/06;;A61B5/04;;A61N1/05;;A61B5/00;;B82Y30/00</t>
+          <t>G06N3/06;;A61B5/04;;A61N1/05;;A61B5/00;;G06N3/067;;B82Y30/00</t>
         </is>
       </c>
       <c r="X100" t="inlineStr"/>
@@ -11420,7 +11420,7 @@
       </c>
       <c r="W101" t="inlineStr">
         <is>
-          <t>A61N1/05;;A61B5/00;;G06N3/067;;A61B5/04</t>
+          <t>G06N3/067;;A61N1/05;;A61B5/04;;A61B5/00</t>
         </is>
       </c>
       <c r="X101" t="inlineStr"/>
@@ -11494,7 +11494,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>WOLF LIOR;;ARIELI URI;;NAGLER ACHIYA;;MREJEN MICHAEL;;MALKIEL ITZIK;;SUCHOWSKI HAIM</t>
+          <t>SUCHOWSKI HAIM;;MALKIEL ITZIK;;ARIELI URI;;MREJEN MICHAEL;;WOLF LIOR;;NAGLER ACHIYA</t>
         </is>
       </c>
       <c r="O102" t="inlineStr"/>
@@ -11601,7 +11601,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>FARHI EDWARD HENRY;;NEVEN HARTMUT</t>
+          <t>NEVEN HARTMUT;;FARHI EDWARD HENRY</t>
         </is>
       </c>
       <c r="O103" t="inlineStr"/>
@@ -11650,22 +11650,22 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>AU;;CN;;EP;;JP;;CA</t>
+          <t>CA;;EP;;CN;;JP;;AU</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>A;;A1;;B2</t>
+          <t>A;;B2;;A1</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>EP 3619655 A1;;JP 2020522805 A;;JP 6882533 B2;;AU 2018/278348 B2;;CN 110692067 A;;AU 2018/278348 A1;;CA 3065859 A1</t>
+          <t>CN 110692067 A;;AU 2018/278348 B2;;EP 3619655 A1;;JP 2020522805 A;;AU 2018/278348 A1;;JP 6882533 B2;;CA 3065859 A1</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>098-699-064-344-687;;104-916-437-556-927;;190-018-764-824-196;;126-194-360-671-56X;;086-142-481-875-549;;004-080-118-128-877;;122-674-749-552-013</t>
+          <t>126-194-360-671-56X;;190-018-764-824-196;;004-080-118-128-877;;086-142-481-875-549;;104-916-437-556-927;;122-674-749-552-013;;098-699-064-344-687</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -11678,7 +11678,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>JP 2019566260 A;;CA 3065859 A;;EP 18733461 A;;AU 2018/278348 A;;CN 201880036533 A</t>
+          <t>JP 2019566260 A;;EP 18733461 A;;AU 2018/278348 A;;CA 3065859 A;;CN 201880036533 A</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -11693,7 +11693,7 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Quantum neural network;;量子ニューラルネットワーク;;QUANTUM NEURAL NETWORK</t>
+          <t>量子ニューラルネットワーク;;Quantum neural network;;QUANTUM NEURAL NETWORK</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
@@ -11703,23 +11703,23 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>グーグル エルエルシー;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;GOOGLE LLC</t>
+          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;GOOGLE LLC;;グーグル エルエルシー</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>ハルトムート・ネーヴェン;;FARHI EDWARD HENRY;;NEVEN HARTMUT;;エドワード・ヘンリー・ファーリ</t>
+          <t>ハルトムート・ネーヴェン;;NEVEN HARTMUT;;エドワード・ヘンリー・ファーリ;;FARHI EDWARD HENRY</t>
         </is>
       </c>
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
-          <t>https://lens.org/104-916-437-556-927;;https://lens.org/098-699-064-344-687;;https://lens.org/086-142-481-875-549;;https://lens.org/004-080-118-128-877;;https://lens.org/190-018-764-824-196;;https://lens.org/126-194-360-671-56X;;https://lens.org/122-674-749-552-013</t>
+          <t>https://lens.org/122-674-749-552-013;;https://lens.org/104-916-437-556-927;;https://lens.org/004-080-118-128-877;;https://lens.org/190-018-764-824-196;;https://lens.org/098-699-064-344-687;;https://lens.org/126-194-360-671-56X;;https://lens.org/086-142-481-875-549</t>
         </is>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R104" t="n">
@@ -11815,7 +11815,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>FARHI EDWARD HENRY;;NEVEN HARTMUT</t>
+          <t>NEVEN HARTMUT;;FARHI EDWARD HENRY</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -11852,7 +11852,7 @@
       </c>
       <c r="W105" t="inlineStr">
         <is>
-          <t>G06N3/063;;G06N3/08;;G06N10/00;;H04L9/08;;B82Y10/00;;G06N20/00</t>
+          <t>G06N10/00;;G06N3/063;;H04L9/08;;B82Y10/00;;G06N20/00;;G06N3/08</t>
         </is>
       </c>
       <c r="X105" t="inlineStr"/>
@@ -11959,7 +11959,7 @@
       </c>
       <c r="W106" t="inlineStr">
         <is>
-          <t>H03H9/15;;H01L41/08;;H01L41/18;;H03H9/42;;H03H9/02</t>
+          <t>H01L41/18;;H03H9/42;;H03H9/15;;H03H9/02;;H01L41/08</t>
         </is>
       </c>
       <c r="X106" t="inlineStr"/>
@@ -12070,7 +12070,7 @@
       </c>
       <c r="W107" t="inlineStr">
         <is>
-          <t>B81B3/00;;H01L27/20;;H01L41/09;;G06N3/04</t>
+          <t>H01L27/20;;H01L41/09;;B81B3/00;;G06N3/04</t>
         </is>
       </c>
       <c r="X107" t="inlineStr"/>
@@ -12144,7 +12144,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>NGUYEN CHRISTIAN;;SUKACHEV DENIS;;SIPAHIGIL ALP;;BHASKAR MIHIR;;EVANS RUFFIN;;LUNKIN MIKHAIL</t>
+          <t>LUNKIN MIKHAIL;;NGUYEN CHRISTIAN;;SUKACHEV DENIS;;SIPAHIGIL ALP;;EVANS RUFFIN;;BHASKAR MIHIR</t>
         </is>
       </c>
       <c r="O108" t="inlineStr"/>
@@ -12251,7 +12251,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>NGUYEN CHRISTIAN THIEU;;EVANS RUFFIN E;;LUKIN MIKHAIL D;;SIPAHIGIL ALP;;SUKACHEV DENIS D;;BHASKAR MIHIR KESHAV</t>
+          <t>LUKIN MIKHAIL D;;SIPAHIGIL ALP;;EVANS RUFFIN E;;NGUYEN CHRISTIAN THIEU;;BHASKAR MIHIR KESHAV;;SUKACHEV DENIS D</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -12362,7 +12362,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>RASHIDI MOHAMMAD;;DIENEL THOMAS;;RETALLICK JACOB;;WOLKOW ROBERT;;WALUS KONRAD;;VINE WYATT;;LIVADARU LUCIAN;;HUFF TALEANA</t>
+          <t>RASHIDI MOHAMMAD;;RETALLICK JACOB;;VINE WYATT;;WALUS KONRAD;;DIENEL THOMAS;;LIVADARU LUCIAN;;WOLKOW ROBERT;;HUFF TALEANA</t>
         </is>
       </c>
       <c r="O110" t="inlineStr"/>
@@ -12395,7 +12395,7 @@
       </c>
       <c r="W110" t="inlineStr">
         <is>
-          <t>G06N3/08;;G01Q60/04;;G01Q60/24;;B82B3/00</t>
+          <t>G01Q60/24;;G01Q60/04;;G06N3/08;;B82B3/00</t>
         </is>
       </c>
       <c r="X110" t="inlineStr"/>
@@ -12469,7 +12469,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>PANKONIEN ALEXANDER M;;DICKINSON BENJAMIN T;;KONDASH COREY R;;BAUR JEFFREY W;;REICH GREGORY W;;SLINKER KEITH;;MAGAR KAMAN THAPA</t>
+          <t>SLINKER KEITH;;KONDASH COREY R;;MAGAR KAMAN THAPA;;DICKINSON BENJAMIN T;;REICH GREGORY W;;PANKONIEN ALEXANDER M;;BAUR JEFFREY W</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -12634,12 +12634,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>A1;;C</t>
+          <t>C;;A1</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>CA 3080318 C;;CA 3080318 A1</t>
+          <t>CA 3080318 A1;;CA 3080318 C</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -12698,7 +12698,7 @@
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R113" t="n">
@@ -12720,7 +12720,7 @@
       </c>
       <c r="W113" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00</t>
+          <t>G06N10/00;;B82Y10/00</t>
         </is>
       </c>
       <c r="X113" t="inlineStr"/>
@@ -12827,7 +12827,7 @@
       </c>
       <c r="W114" t="inlineStr">
         <is>
-          <t>G06N10/00;;G06N5/00</t>
+          <t>G06N5/00;;G06N10/00</t>
         </is>
       </c>
       <c r="X114" t="inlineStr"/>
@@ -12934,7 +12934,7 @@
       </c>
       <c r="W115" t="inlineStr">
         <is>
-          <t>B81B7/02;;G06N3/08;;G06N3/04;;G06N7/00</t>
+          <t>B81B7/02;;G06N7/00;;G06N3/08;;G06N3/04</t>
         </is>
       </c>
       <c r="X115" t="inlineStr"/>
@@ -12950,22 +12950,22 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>US;;AU;;CN;;EP;;KR;;JP;;CA;;WO</t>
+          <t>KR;;WO;;US;;CA;;EP;;CN;;JP;;AU</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>A;;A1;;B2</t>
+          <t>A;;B2;;A1</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>CA 3088135 A1;;US 2020/0410343 A1;;CN 111868756 A;;WO 2019/152020 A1;;EP 3746953 A1;;AU 2018/406532 A1;;AU 2018/406532 B2;;JP 2021512395 A;;KR 20200097787 A</t>
+          <t>CN 111868756 A;;EP 3746953 A1;;CA 3088135 A1;;AU 2018/406532 B2;;KR 20200097787 A;;JP 2021512395 A;;WO 2019/152020 A1;;US 2020/0410343 A1;;AU 2018/406532 A1</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>120-626-180-387-172;;056-410-719-774-001;;143-577-806-116-427;;048-666-894-031-255;;040-685-913-457-183;;040-976-568-506-57X;;122-575-242-766-692;;107-706-698-330-591;;149-148-197-227-369</t>
+          <t>107-706-698-330-591;;143-577-806-116-427;;149-148-197-227-369;;048-666-894-031-255;;040-685-913-457-183;;120-626-180-387-172;;040-976-568-506-57X;;056-410-719-774-001;;122-575-242-766-692</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -12978,7 +12978,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>JP 2020539032 A;;KR 20207020582 A;;CA 3088135 A;;EP 18704796 A;;US 201816962059 A;;AU 2018/406532 A;;CN 201880086701 A;;US 2018/0016238 W</t>
+          <t>AU 2018/406532 A;;CN 201880086701 A;;KR 20207020582 A;;CA 3088135 A;;US 2018/0016238 W;;US 201816962059 A;;EP 18704796 A;;JP 2020539032 A</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -12993,7 +12993,7 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>QUANTUM COMPUTATION THROUGH REINFORCEMENT LEARNING;;強化学習を通した量子計算;;강화된 학습을 통한 양자 계산;;Quantum computation through reinforcement learning</t>
+          <t>강화된 학습을 통한 양자 계산;;QUANTUM COMPUTATION THROUGH REINFORCEMENT LEARNING;;Quantum computation through reinforcement learning;;強化学習を通した量子計算</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -13003,12 +13003,12 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>NEVEN HARTMUT;;NIU YUEZHEN;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;GOOGLE INC;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM;;GOOGLE LLC</t>
+          <t>NEVEN HARTMUT;;NIU YUEZHEN;;SMELYANSKIY VADIM;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;GOOGLE INC;;CASTRILLO SERGIO BOIXO;;GOOGLE LLC</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>NEVEN HARTMUT;;ヴァディム・スメリャンスキー;;BOIXO CASTRILLO SERGIO;;ユエゼン・ニウ;;NIU YUEZHEN;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM;;ハルトムート・ネーフェン;;セルジオ・バイショ・カストリージョ</t>
+          <t>ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;NEVEN HARTMUT;;NIU YUEZHEN;;SMELYANSKIY VADIM;;ユエゼン・ニウ;;ハルトムート・ネーフェン;;BOIXO CASTRILLO SERGIO;;CASTRILLO SERGIO BOIXO</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -13018,12 +13018,12 @@
       </c>
       <c r="P116" t="inlineStr">
         <is>
-          <t>https://lens.org/120-626-180-387-172;;https://lens.org/122-575-242-766-692;;https://lens.org/056-410-719-774-001;;https://lens.org/040-685-913-457-183;;https://lens.org/048-666-894-031-255;;https://lens.org/040-976-568-506-57X;;https://lens.org/149-148-197-227-369;;https://lens.org/143-577-806-116-427;;https://lens.org/107-706-698-330-591</t>
+          <t>https://lens.org/040-685-913-457-183;;https://lens.org/048-666-894-031-255;;https://lens.org/056-410-719-774-001;;https://lens.org/107-706-698-330-591;;https://lens.org/143-577-806-116-427;;https://lens.org/120-626-180-387-172;;https://lens.org/040-976-568-506-57X;;https://lens.org/122-575-242-766-692;;https://lens.org/149-148-197-227-369</t>
         </is>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R116" t="n">
@@ -13045,7 +13045,7 @@
       </c>
       <c r="W116" t="inlineStr">
         <is>
-          <t>G06N3/08;;G06N3/02;;G06N10/00;;B82Y10/00;;G06N3/00;;G06N3/04;;G06N99/00</t>
+          <t>G06N10/00;;G06N3/00;;G06N99/00;;G06N3/04;;G06N3/02;;B82Y10/00;;G06N3/08</t>
         </is>
       </c>
       <c r="X116" t="inlineStr"/>
@@ -13071,7 +13071,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>WO 2019/222718 A3;;WO 2019/222718 A2</t>
+          <t>WO 2019/222718 A2;;WO 2019/222718 A3</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -13125,12 +13125,12 @@
       <c r="O117" t="inlineStr"/>
       <c r="P117" t="inlineStr">
         <is>
-          <t>https://lens.org/118-982-397-892-435;;https://lens.org/183-638-313-596-810</t>
+          <t>https://lens.org/183-638-313-596-810;;https://lens.org/118-982-397-892-435</t>
         </is>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>Patent Application;;Search Report</t>
+          <t>Search Report;;Patent Application</t>
         </is>
       </c>
       <c r="R117" t="n">
@@ -13152,7 +13152,7 @@
       </c>
       <c r="W117" t="inlineStr">
         <is>
-          <t>H05H7/22;;H05H7/04;;H99Z99/00;;H05H15/00;;G06N20/00</t>
+          <t>H05H7/22;;H05H7/04;;G06N20/00;;H05H15/00;;H99Z99/00</t>
         </is>
       </c>
       <c r="X117" t="inlineStr"/>
@@ -13168,7 +13168,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>US;;WO</t>
+          <t>WO;;US</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -13183,7 +13183,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>027-251-849-984-210;;105-728-765-264-26X</t>
+          <t>105-728-765-264-26X;;027-251-849-984-210</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -13226,17 +13226,17 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>STRAUSS KARIN;;CHEN WEIDA;;NGUYEN BICHLIEN HOANG;;GRASS ROBERT;;KOHLL ALEXANDER XAVIER CHRISTOF</t>
+          <t>KOHLL ALEXANDER XAVIER CHRISTOF;;STRAUSS KARIN;;CHEN WEIDA;;NGUYEN BICHLIEN HOANG;;GRASS ROBERT</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>MICROSOFT CORPORATION (2018-10-05);;ETH ZURICH (2018-10-25);;MICROSOFT TECHNOLOGY LICENSING LLC (2014-10-14)</t>
+          <t>ETH ZURICH (2018-10-25);;MICROSOFT CORPORATION (2018-10-05);;MICROSOFT TECHNOLOGY LICENSING LLC (2014-10-14)</t>
         </is>
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>https://lens.org/105-728-765-264-26X;;https://lens.org/027-251-849-984-210</t>
+          <t>https://lens.org/027-251-849-984-210;;https://lens.org/105-728-765-264-26X</t>
         </is>
       </c>
       <c r="Q118" t="inlineStr">
@@ -13263,7 +13263,7 @@
       </c>
       <c r="W118" t="inlineStr">
         <is>
-          <t>G06N3/00;;C12N15/10;;C07H21/04;;B22F1/02;;H01F1/00;;C12Q1/6806;;B01J13/22</t>
+          <t>C07H21/04;;B01J13/22;;G06N3/00;;H01F1/00;;B22F1/02;;C12Q1/6806;;C12N15/10</t>
         </is>
       </c>
       <c r="X118" t="inlineStr"/>
@@ -13289,12 +13289,12 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>CN 112823207 A;;EP 3810773 A1</t>
+          <t>EP 3810773 A1;;CN 112823207 A</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>152-851-054-328-827;;100-930-317-889-693</t>
+          <t>100-930-317-889-693;;152-851-054-328-827</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -13307,7 +13307,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>CN 201980041050 A;;EP 19748985 A</t>
+          <t>EP 19748985 A;;CN 201980041050 A</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -13332,18 +13332,18 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>MICROSOFT TECHNOLOGY LICENSING LLC;;微软技术许可有限责任公司</t>
+          <t>微软技术许可有限责任公司;;MICROSOFT TECHNOLOGY LICENSING LLC</t>
         </is>
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>R·格拉斯;;A·X·C·科尔;;STRAUSS KARIN;;CHEN WEIDA;;B·H·阮;;K·施特劳斯;;NGUYEN BICHLIEN HOANG;;GRASS ROBERT;;KOHLL ALEXANDER XAVIER CHRISTOF;;W·陈</t>
+          <t>KOHLL ALEXANDER XAVIER CHRISTOF;;B·H·阮;;A·X·C·科尔;;STRAUSS KARIN;;K·施特劳斯;;CHEN WEIDA;;NGUYEN BICHLIEN HOANG;;GRASS ROBERT;;R·格拉斯;;W·陈</t>
         </is>
       </c>
       <c r="O119" t="inlineStr"/>
       <c r="P119" t="inlineStr">
         <is>
-          <t>https://lens.org/152-851-054-328-827;;https://lens.org/100-930-317-889-693</t>
+          <t>https://lens.org/100-930-317-889-693;;https://lens.org/152-851-054-328-827</t>
         </is>
       </c>
       <c r="Q119" t="inlineStr">
@@ -13370,7 +13370,7 @@
       </c>
       <c r="W119" t="inlineStr">
         <is>
-          <t>G06N3/00;;C12N15/10;;B22F1/02;;H01F1/00;;C12Q1/6806</t>
+          <t>G06N3/00;;H01F1/00;;B22F1/02;;C12Q1/6806;;C12N15/10</t>
         </is>
       </c>
       <c r="X119" t="inlineStr"/>
@@ -13481,7 +13481,7 @@
       </c>
       <c r="W120" t="inlineStr">
         <is>
-          <t>G06F17/18;;G06N5/02;;G06F15/16;;B82Y10/00;;G06F9/50;;G06F9/38;;G06N99/00</t>
+          <t>G06F15/16;;G06N5/02;;G06N99/00;;B82Y10/00;;G06F17/18;;G06F9/50;;G06F9/38</t>
         </is>
       </c>
       <c r="X120" t="inlineStr"/>
@@ -13497,12 +13497,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>US;;WO</t>
+          <t>WO;;US</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>A1;;B1</t>
+          <t>B1;;A1</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -13512,7 +13512,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>014-608-546-632-936;;086-922-027-475-411</t>
+          <t>086-922-027-475-411;;014-608-546-632-936</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -13525,7 +13525,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>US 201816154552 A;;US 2019/0052539 W</t>
+          <t>US 2019/0052539 W;;US 201816154552 A</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -13540,7 +13540,7 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Bayesian tuning for quantum logic gates;;BAYESIAN TUNING FOR QUANTUM LOGIC GATES</t>
+          <t>BAYESIAN TUNING FOR QUANTUM LOGIC GATES;;Bayesian tuning for quantum logic gates</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
@@ -13555,7 +13555,7 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>GRANADE CHRISTOPHER EVAN;;GAMBLE JOHN KING;;GAMBLE IV JOHN KING;;WIEBE NATHAN O</t>
+          <t>GAMBLE JOHN KING;;GAMBLE IV JOHN KING;;GRANADE CHRISTOPHER EVAN;;WIEBE NATHAN O</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
@@ -13565,12 +13565,12 @@
       </c>
       <c r="P121" t="inlineStr">
         <is>
-          <t>https://lens.org/014-608-546-632-936;;https://lens.org/086-922-027-475-411</t>
+          <t>https://lens.org/086-922-027-475-411;;https://lens.org/014-608-546-632-936</t>
         </is>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R121" t="n">
@@ -13592,7 +13592,7 @@
       </c>
       <c r="W121" t="inlineStr">
         <is>
-          <t>H03K19/195;;B82Y10/00;;G06N7/00;;G06N10/00</t>
+          <t>G06N10/00;;H03K19/195;;B82Y10/00;;G06N7/00</t>
         </is>
       </c>
       <c r="X121" t="inlineStr"/>
@@ -13608,12 +13608,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>US;;WO</t>
+          <t>WO;;US</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>A1;;B1</t>
+          <t>B1;;A1</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -13661,12 +13661,12 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>IBM UK;;IBM</t>
+          <t>IBM;;IBM UK</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>BISHOP LEV SAMUEL;;CORCOLES-GONZALEZ ANTONIO;;TEMME PAUL KRISTAN;;GAMBETTA JAY M;;OLIVADESE SALVATORE;;GAMBETTA JAY;;TEMME PAUL;;BISHOP LEV;;OLIVADESE SALVATORE BERNARDO</t>
+          <t>GAMBETTA JAY;;TEMME PAUL;;BISHOP LEV;;OLIVADESE SALVATORE BERNARDO;;GAMBETTA JAY M;;CORCOLES-GONZALEZ ANTONIO;;BISHOP LEV SAMUEL;;TEMME PAUL KRISTAN;;OLIVADESE SALVATORE</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -13681,7 +13681,7 @@
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R122" t="n">
@@ -13703,7 +13703,7 @@
       </c>
       <c r="W122" t="inlineStr">
         <is>
-          <t>H03H3/007;;G06F13/40;;G06N20/10;;G06N10/00;;B82Y10/00;;G06F9/38;;G06N99/00</t>
+          <t>G06N10/00;;H03H3/007;;G06N20/10;;G06N99/00;;G06F13/40;;B82Y10/00;;G06F9/38</t>
         </is>
       </c>
       <c r="X122" t="inlineStr"/>
@@ -13724,17 +13724,17 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>US 2020/0210879 A1;;US 10810507 B2</t>
+          <t>US 10810507 B2;;US 2020/0210879 A1</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>130-864-873-155-442;;132-673-414-038-918</t>
+          <t>132-673-414-038-918;;130-864-873-155-442</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -13777,7 +13777,7 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>BISHOP LEV SAMUEL;;CORCOLES-GONZALEZ ANTONIO;;TEMME PAUL KRISTAN;;GAMBETTA JAY M;;OLIVADESE SALVATORE BERNARDO</t>
+          <t>BISHOP LEV SAMUEL;;OLIVADESE SALVATORE BERNARDO;;GAMBETTA JAY M;;CORCOLES-GONZALEZ ANTONIO;;TEMME PAUL KRISTAN</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
@@ -13787,12 +13787,12 @@
       </c>
       <c r="P123" t="inlineStr">
         <is>
-          <t>https://lens.org/130-864-873-155-442;;https://lens.org/132-673-414-038-918</t>
+          <t>https://lens.org/132-673-414-038-918;;https://lens.org/130-864-873-155-442</t>
         </is>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R123" t="n">
@@ -13814,7 +13814,7 @@
       </c>
       <c r="W123" t="inlineStr">
         <is>
-          <t>H03H3/007;;G06F13/40;;G06N10/00;;B82Y10/00;;G06F9/38;;G06N99/00</t>
+          <t>G06N10/00;;H03H3/007;;G06N99/00;;G06F13/40;;B82Y10/00;;G06F9/38</t>
         </is>
       </c>
       <c r="X123" t="inlineStr"/>
@@ -13840,12 +13840,12 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>US 10820852 B2;;US 2020/0187846 A1</t>
+          <t>US 2020/0187846 A1;;US 10820852 B2</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>097-696-469-823-539;;192-647-536-389-238</t>
+          <t>192-647-536-389-238;;097-696-469-823-539</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -13888,7 +13888,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>KUCZYNSKI JOSEPH;;MISGEN MARVIN M;;NEUMAN-HORN DEBRA A;;PRZYBYLSKI KEVIN J;;PRISCO JOSEPH F</t>
+          <t>KUCZYNSKI JOSEPH;;MISGEN MARVIN M;;PRZYBYLSKI KEVIN J;;NEUMAN-HORN DEBRA A;;PRISCO JOSEPH F</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -13903,7 +13903,7 @@
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R124" t="n">
@@ -13925,7 +13925,7 @@
       </c>
       <c r="W124" t="inlineStr">
         <is>
-          <t>G06T7/00;;A61B5/00;;B82B3/00</t>
+          <t>G06T7/00;;B82B3/00;;A61B5/00</t>
         </is>
       </c>
       <c r="X124" t="inlineStr"/>
@@ -13999,7 +13999,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>MASILAMANI ASHOK;;GOULD MATTHEW;;GAHROOSI AMIR;;KHOMAMI ABADI MOJTABA</t>
+          <t>GOULD MATTHEW;;GAHROOSI AMIR;;KHOMAMI ABADI MOJTABA;;MASILAMANI ASHOK</t>
         </is>
       </c>
       <c r="O125" t="inlineStr"/>
@@ -14032,7 +14032,7 @@
       </c>
       <c r="W125" t="inlineStr">
         <is>
-          <t>G06N3/08;;G01N37/00;;G06N3/02</t>
+          <t>G01N37/00;;G06N3/02;;G06N3/08</t>
         </is>
       </c>
       <c r="X125" t="inlineStr"/>
@@ -14053,7 +14053,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>A1;;B1</t>
+          <t>B1;;A1</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -14063,7 +14063,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>088-697-896-595-479;;033-905-450-751-578</t>
+          <t>033-905-450-751-578;;088-697-896-595-479</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -14106,7 +14106,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>MASILAMANI ASHOK PRABHU;;GOULD MATTHEW V;;KHOMAMI ABADI MOJTABA;;GAHROOSI AMIR BAHADOR</t>
+          <t>GOULD MATTHEW V;;KHOMAMI ABADI MOJTABA;;GAHROOSI AMIR BAHADOR;;MASILAMANI ASHOK PRABHU</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -14116,12 +14116,12 @@
       </c>
       <c r="P126" t="inlineStr">
         <is>
-          <t>https://lens.org/033-905-450-751-578;;https://lens.org/088-697-896-595-479</t>
+          <t>https://lens.org/088-697-896-595-479;;https://lens.org/033-905-450-751-578</t>
         </is>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R126" t="n">
@@ -14217,7 +14217,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>MASILAMANI ASHOK PRABHU;;GOULD MATTHEW V;;KHOMAMI ABADI MOJTABA;;GAHROOSI AMIR BAHADOR</t>
+          <t>GOULD MATTHEW V;;KHOMAMI ABADI MOJTABA;;GAHROOSI AMIR BAHADOR;;MASILAMANI ASHOK PRABHU</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -14328,7 +14328,7 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>MCLEAN MARK;;YANG JIANHUA;;XIA QIANGFEI;;WU QING</t>
+          <t>YANG JIANHUA;;WU QING;;MCLEAN MARK;;XIA QIANGFEI</t>
         </is>
       </c>
       <c r="O128" t="inlineStr"/>
@@ -14361,7 +14361,7 @@
       </c>
       <c r="W128" t="inlineStr">
         <is>
-          <t>G06N3/063;;G06N3/08;;G06N3/04;;G06N3/06</t>
+          <t>G06N3/063;;G06N3/08;;G06N3/06;;G06N3/04</t>
         </is>
       </c>
       <c r="X128" t="inlineStr"/>
@@ -14435,7 +14435,7 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>NABAVI SEYEDFAKHREDDIN;;ZHANG LIHONG</t>
+          <t>ZHANG LIHONG;;NABAVI SEYEDFAKHREDDIN</t>
         </is>
       </c>
       <c r="O129" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>LEAKE DEVIN;;PARK HYUNJUN;;ROQUET NATHANIEL;;BHATIA SWAPNIL</t>
+          <t>ROQUET NATHANIEL;;LEAKE DEVIN;;BHATIA SWAPNIL;;PARK HYUNJUN</t>
         </is>
       </c>
       <c r="O130" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
       </c>
       <c r="W130" t="inlineStr">
         <is>
-          <t>G16B50/20;;G16B30/00;;C12Q1/68;;H03M13/37;;H03M13/15</t>
+          <t>H03M13/15;;G16B30/00;;G16B50/20;;H03M13/37;;C12Q1/68</t>
         </is>
       </c>
       <c r="X130" t="inlineStr"/>
@@ -14591,7 +14591,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>EP;;AU;;CA;;KR</t>
+          <t>CA;;EP;;AU;;KR</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -14601,12 +14601,12 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>KR 20210029147 A;;EP 3794598 A1;;CA 3100529 A1;;AU 2019/270159 A1</t>
+          <t>EP 3794598 A1;;KR 20210029147 A;;AU 2019/270159 A1;;CA 3100529 A1</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>117-020-155-203-357;;077-447-134-917-741;;148-258-953-210-353;;067-489-341-104-332</t>
+          <t>067-489-341-104-332;;077-447-134-917-741;;117-020-155-203-357;;148-258-953-210-353</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -14619,7 +14619,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>CA 3100529 A;;EP 19728816 A;;KR 20207036043 A;;AU 2019/270159 A</t>
+          <t>CA 3100529 A;;KR 20207036043 A;;AU 2019/270159 A;;EP 19728816 A</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -14634,7 +14634,7 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Compositions and methods for nucleic acid-based data storage;;COMPOSITIONS AND METHODS FOR NUCLEIC ACID-BASED DATA STORAGE;;핵산-기반 데이터를 저장하기 위한 조성물 및 방법</t>
+          <t>COMPOSITIONS AND METHODS FOR NUCLEIC ACID-BASED DATA STORAGE;;Compositions and methods for nucleic acid-based data storage;;핵산-기반 데이터를 저장하기 위한 조성물 및 방법</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
@@ -14649,13 +14649,13 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>LEAKE DEVIN;;PARK HYUNJUN;;ROQUET NATHANIEL;;BHATIA SWAPNIL P</t>
+          <t>ROQUET NATHANIEL;;LEAKE DEVIN;;BHATIA SWAPNIL P;;PARK HYUNJUN</t>
         </is>
       </c>
       <c r="O131" t="inlineStr"/>
       <c r="P131" t="inlineStr">
         <is>
-          <t>https://lens.org/117-020-155-203-357;;https://lens.org/148-258-953-210-353;;https://lens.org/067-489-341-104-332;;https://lens.org/077-447-134-917-741</t>
+          <t>https://lens.org/077-447-134-917-741;;https://lens.org/148-258-953-210-353;;https://lens.org/117-020-155-203-357;;https://lens.org/067-489-341-104-332</t>
         </is>
       </c>
       <c r="Q131" t="inlineStr">
@@ -14682,7 +14682,7 @@
       </c>
       <c r="W131" t="inlineStr">
         <is>
-          <t>G16B50/20;;G16B30/00;;C12Q1/68;;H03M13/37;;B82Y10/00;;G16B50/30;;H03M13/05;;H03M13/15;;G06N3/12</t>
+          <t>H03M13/05;;H03M13/15;;G16B30/00;;G16B50/20;;G16B50/30;;B82Y10/00;;H03M13/37;;C12Q1/68;;G06N3/12</t>
         </is>
       </c>
       <c r="X131" t="inlineStr"/>
@@ -14756,7 +14756,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>LEAKE DEVIN;;PARK HYUNJUN;;ROQUET NATHANIEL;;BHATIA SWAPNIL P</t>
+          <t>ROQUET NATHANIEL;;LEAKE DEVIN;;BHATIA SWAPNIL P;;PARK HYUNJUN</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
@@ -14793,7 +14793,7 @@
       </c>
       <c r="W132" t="inlineStr">
         <is>
-          <t>G16B50/30;;G16B30/00;;G06N3/12</t>
+          <t>G16B30/00;;G16B50/30;;G06N3/12</t>
         </is>
       </c>
       <c r="X132" t="inlineStr"/>
@@ -14867,7 +14867,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>LEAKE DEVIN;;PARK HYUNJUN;;ROQUET NATHANIEL;;BHATIA SWAPNIL P</t>
+          <t>ROQUET NATHANIEL;;LEAKE DEVIN;;BHATIA SWAPNIL P;;PARK HYUNJUN</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
@@ -14904,7 +14904,7 @@
       </c>
       <c r="W133" t="inlineStr">
         <is>
-          <t>G16B50/30;;G16B30/00;;G06N3/12</t>
+          <t>G16B30/00;;G16B50/30;;G06N3/12</t>
         </is>
       </c>
       <c r="X133" t="inlineStr"/>
@@ -14978,7 +14978,7 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>BYRNES STEVEN;;DUBAY RYAN;;SPRACHMAN MELISSA;;MARKOVIC STACEY;;MCFARLAND KIRSTY;;FAVALORA GREGG;;FRANK IAN;;MAGYAR ANDREW;;VARGO EMMA;;CAVANAGH PETER;;HUANG HAIYAO;;ROSENBERGER ERIN;;KOTZ KENNETH</t>
+          <t>MCFARLAND KIRSTY;;KOTZ KENNETH;;HUANG HAIYAO;;DUBAY RYAN;;SPRACHMAN MELISSA;;FRANK IAN;;MARKOVIC STACEY;;BYRNES STEVEN;;FAVALORA GREGG;;MAGYAR ANDREW;;VARGO EMMA;;ROSENBERGER ERIN;;CAVANAGH PETER</t>
         </is>
       </c>
       <c r="O134" t="inlineStr"/>
@@ -15085,7 +15085,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>MARKOVIC STACEY;;CAVANAGH PETER;;BYRNES STEVEN J;;VARGO EMMA;;FRANK IAN WARD;;MCFARLAND KIRSTY A;;HUANG HAIYAO;;ROSENBERGER ERIN;;DUBAY RYAN A;;FAVALORA GREGG E;;SPRACHMAN MELISSA M;;MAGYAR ANDREW P;;KOTZ KENNETH T</t>
+          <t>KOTZ KENNETH T;;HUANG HAIYAO;;MAGYAR ANDREW P;;MARKOVIC STACEY;;FAVALORA GREGG E;;VARGO EMMA;;SPRACHMAN MELISSA M;;FRANK IAN WARD;;DUBAY RYAN A;;MCFARLAND KIRSTY A;;BYRNES STEVEN J;;ROSENBERGER ERIN;;CAVANAGH PETER</t>
         </is>
       </c>
       <c r="O135" t="inlineStr"/>
@@ -15118,7 +15118,7 @@
       </c>
       <c r="W135" t="inlineStr">
         <is>
-          <t>C12P19/34;;C12N15/10;;B01L3/00;;C12N9/12;;G06N3/12;;B81B1/00</t>
+          <t>B01L3/00;;C12P19/34;;B81B1/00;;C12N9/12;;G06N3/12;;C12N15/10</t>
         </is>
       </c>
       <c r="X135" t="inlineStr"/>
@@ -15192,7 +15192,7 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>RIGETTI CHAD TYLER;;TEZAK NIKOLAS ANTON;;JOHNSON BLAKE ROBERT;;ZENG WILLIAM J</t>
+          <t>RIGETTI CHAD TYLER;;TEZAK NIKOLAS ANTON;;ZENG WILLIAM J;;JOHNSON BLAKE ROBERT</t>
         </is>
       </c>
       <c r="O136" t="inlineStr"/>
@@ -15225,7 +15225,7 @@
       </c>
       <c r="W136" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00</t>
+          <t>G06N10/00;;B82Y10/00</t>
         </is>
       </c>
       <c r="X136" t="inlineStr"/>
@@ -15295,7 +15295,7 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>RIGETTI CHAD TYLER;;TEZAK NIKOLAS ANTON;;JOHNSON BLAKE ROBERT;;ZENG WILLIAM J</t>
+          <t>RIGETTI CHAD TYLER;;TEZAK NIKOLAS ANTON;;ZENG WILLIAM J;;JOHNSON BLAKE ROBERT</t>
         </is>
       </c>
       <c r="O137" t="inlineStr"/>
@@ -15328,7 +15328,7 @@
       </c>
       <c r="W137" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00</t>
+          <t>G06N10/00;;B82Y10/00</t>
         </is>
       </c>
       <c r="X137" t="inlineStr"/>
@@ -15402,7 +15402,7 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>JIANG ZHUOLIN;;SIU MAN-HUNG;;FONG KIN CHUNG</t>
+          <t>JIANG ZHUOLIN;;FONG KIN CHUNG;;SIU MAN-HUNG</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -15439,7 +15439,7 @@
       </c>
       <c r="W138" t="inlineStr">
         <is>
-          <t>C01B32/19;;B82Y10/00;;G06K9/62;;B82Y30/00;;G06N3/04</t>
+          <t>G06K9/62;;C01B32/19;;G06N3/04;;B82Y10/00;;B82Y30/00</t>
         </is>
       </c>
       <c r="X138" t="inlineStr"/>
@@ -15513,7 +15513,7 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>LEIPOLD DIRK ROBERT WALTER;;ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -15550,7 +15550,7 @@
       </c>
       <c r="W139" t="inlineStr">
         <is>
-          <t>H01L29/15;;H01L27/18;;H01L29/12;;G06N10/00;;B82Y10/00;;H01L39/22;;B82Y15/00;;H01L29/66</t>
+          <t>G06N10/00;;H01L27/18;;H01L39/22;;H01L29/15;;B82Y15/00;;H01L29/12;;B82Y10/00;;H01L29/66</t>
         </is>
       </c>
       <c r="X139" t="inlineStr"/>
@@ -15581,7 +15581,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>004-912-591-884-968;;039-325-419-329-181</t>
+          <t>039-325-419-329-181;;004-912-591-884-968</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -15624,7 +15624,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>LEIPOLD DIRK ROBERT WALTER;;ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -15639,7 +15639,7 @@
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R140" t="n">
@@ -15661,7 +15661,7 @@
       </c>
       <c r="W140" t="inlineStr">
         <is>
-          <t>H01L39/02;;H01L21/02;;H01L29/66;;H03K3/38;;H03M1/34;;H03K19/195;;G06F15/16;;G02F1/017;;G06N10/00;;H01L29/12;;B82Y10/00;;H01L39/22;;G11C19/32;;H03M1/66;;G06F11/07;;G06N99/00;;H01L29/15;;H01L27/18;;H01L33/04;;H01L27/088;;H01L29/417;;B82Y15/00;;G06F1/20</t>
+          <t>H01L29/417;;H01L29/15;;B82Y15/00;;G06N99/00;;B82Y10/00;;H01L29/66;;H03M1/34;;H01L39/02;;G06N10/00;;G11C19/32;;H01L27/088;;H01L21/02;;H03K3/38;;H03M1/66;;H01L27/18;;H01L29/12;;G02F1/017;;H01L39/22;;G06F15/16;;G06F1/20;;G06F11/07;;H03K19/195;;H01L33/04</t>
         </is>
       </c>
       <c r="X140" t="inlineStr"/>
@@ -15735,7 +15735,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>LEIPOLD DIRK ROBERT WALTER;;ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
@@ -15772,7 +15772,7 @@
       </c>
       <c r="W141" t="inlineStr">
         <is>
-          <t>H01L29/15;;H01L29/12;;G06N10/00;;B82Y10/00;;H01L39/22;;B82Y15/00</t>
+          <t>G06N10/00;;H01L39/22;;H01L29/15;;B82Y15/00;;H01L29/12;;B82Y10/00</t>
         </is>
       </c>
       <c r="X141" t="inlineStr"/>
@@ -15846,7 +15846,7 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>LEIPOLD DIRK ROBERT WALTER;;ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
@@ -15883,7 +15883,7 @@
       </c>
       <c r="W142" t="inlineStr">
         <is>
-          <t>H01L29/12;;H01L29/66;;G06N10/00;;G06N99/00</t>
+          <t>G06N10/00;;H01L29/66;;G06N99/00;;H01L29/12</t>
         </is>
       </c>
       <c r="X142" t="inlineStr"/>
@@ -15957,7 +15957,7 @@
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>LEIPOLD DIRK ROBERT WALTER;;ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
@@ -15994,7 +15994,7 @@
       </c>
       <c r="W143" t="inlineStr">
         <is>
-          <t>H01L29/12;;H01L29/66;;G06N10/00;;G06N99/00</t>
+          <t>G06N10/00;;H01L29/66;;G06N99/00;;H01L29/12</t>
         </is>
       </c>
       <c r="X143" t="inlineStr"/>
@@ -16015,7 +16015,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -16068,7 +16068,7 @@
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>LEIPOLD DIRK ROBERT WALTER;;ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
@@ -16083,7 +16083,7 @@
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R144" t="n">
@@ -16105,7 +16105,7 @@
       </c>
       <c r="W144" t="inlineStr">
         <is>
-          <t>H01L29/775;;H01L29/66;;G06N10/00;;H01L29/12</t>
+          <t>H01L29/775;;G06N10/00;;H01L29/12;;H01L29/66</t>
         </is>
       </c>
       <c r="X144" t="inlineStr"/>
@@ -16126,17 +16126,17 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>US 10865106 B2;;US 2019/0393398 A1</t>
+          <t>US 2019/0393398 A1;;US 10865106 B2</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>080-114-460-350-94X;;076-785-932-751-18X</t>
+          <t>076-785-932-751-18X;;080-114-460-350-94X</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -16179,7 +16179,7 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>LEIPOLD DIRK ROBERT WALTER;;ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -16189,12 +16189,12 @@
       </c>
       <c r="P145" t="inlineStr">
         <is>
-          <t>https://lens.org/076-785-932-751-18X;;https://lens.org/080-114-460-350-94X</t>
+          <t>https://lens.org/080-114-460-350-94X;;https://lens.org/076-785-932-751-18X</t>
         </is>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R145" t="n">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="W145" t="inlineStr">
         <is>
-          <t>H01L39/02;;H01L21/02;;H01L29/66;;H03M1/34;;H03K19/195;;G06F15/16;;G02F1/017;;G06N10/00;;H01L29/12;;B82Y10/00;;H01L39/22;;G11C19/32;;H03M1/66;;G06F11/07;;G06N99/00;;H01L29/15;;H01L27/18;;H01L39/24;;H01L33/04;;H01L27/088;;H01L29/417;;B82Y15/00;;G06F1/20</t>
+          <t>H01L29/417;;H01L29/15;;B82Y15/00;;G06N99/00;;H01L39/24;;B82Y10/00;;H01L29/66;;H03M1/34;;H01L39/02;;G06N10/00;;G11C19/32;;H01L27/088;;H01L21/02;;H03M1/66;;H01L27/18;;H01L29/12;;G02F1/017;;H01L39/22;;G06F15/16;;G06F1/20;;G06F11/07;;H03K19/195;;H01L33/04</t>
         </is>
       </c>
       <c r="X145" t="inlineStr"/>
@@ -16237,7 +16237,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -16247,7 +16247,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>058-546-302-456-492;;176-554-120-843-908</t>
+          <t>176-554-120-843-908;;058-546-302-456-492</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -16275,7 +16275,7 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Semiconductor process for quantum structures with staircase active well incorporating shared gate control;;Semiconductor Process For Quantum Structures With Staircase Active Well Incorporating Shared Gate Control</t>
+          <t>Semiconductor Process For Quantum Structures With Staircase Active Well Incorporating Shared Gate Control;;Semiconductor process for quantum structures with staircase active well incorporating shared gate control</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
@@ -16290,7 +16290,7 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>LEIPOLD DIRK ROBERT WALTER;;ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -16300,12 +16300,12 @@
       </c>
       <c r="P146" t="inlineStr">
         <is>
-          <t>https://lens.org/176-554-120-843-908;;https://lens.org/058-546-302-456-492</t>
+          <t>https://lens.org/058-546-302-456-492;;https://lens.org/176-554-120-843-908</t>
         </is>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R146" t="n">
@@ -16327,7 +16327,7 @@
       </c>
       <c r="W146" t="inlineStr">
         <is>
-          <t>G02F1/017;;H01L29/775;;G06N10/00;;H01L29/12</t>
+          <t>G02F1/017;;G06N10/00;;H01L29/12;;H01L29/775</t>
         </is>
       </c>
       <c r="X146" t="inlineStr"/>
@@ -16348,7 +16348,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -16386,7 +16386,7 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Semiconductor controlled quantum annealing interaction gate;;SEMICONDUCTOR CONTROLLED QUANTUM ANNEALING INTERACTION GATE</t>
+          <t>SEMICONDUCTOR CONTROLLED QUANTUM ANNEALING INTERACTION GATE;;Semiconductor controlled quantum annealing interaction gate</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
@@ -16401,7 +16401,7 @@
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>LEIPOLD DIRK ROBERT WALTER;;ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -16411,12 +16411,12 @@
       </c>
       <c r="P147" t="inlineStr">
         <is>
-          <t>https://lens.org/126-784-143-304-325;;https://lens.org/056-475-461-942-123</t>
+          <t>https://lens.org/056-475-461-942-123;;https://lens.org/126-784-143-304-325</t>
         </is>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R147" t="n">
@@ -16438,7 +16438,7 @@
       </c>
       <c r="W147" t="inlineStr">
         <is>
-          <t>H01L33/04;;H03K19/195;;G06N10/00;;H01L29/12;;G02F1/017;;B82Y10/00;;H01L21/02;;H01L29/66;;G06N99/00</t>
+          <t>G02F1/017;;G06N10/00;;H01L29/12;;G06N99/00;;H01L21/02;;B82Y10/00;;H01L29/66;;H03K19/195;;H01L33/04</t>
         </is>
       </c>
       <c r="X147" t="inlineStr"/>
@@ -16459,7 +16459,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -16469,7 +16469,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>163-554-660-882-527;;103-370-753-926-944</t>
+          <t>103-370-753-926-944;;163-554-660-882-527</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -16497,7 +16497,7 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Semiconductor controlled quantum swap interaction gate;;SEMICONDUCTOR CONTROLLED QUANTUM SWAP INTERACTION GATE</t>
+          <t>SEMICONDUCTOR CONTROLLED QUANTUM SWAP INTERACTION GATE;;Semiconductor controlled quantum swap interaction gate</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
@@ -16512,7 +16512,7 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>LEIPOLD DIRK ROBERT WALTER;;ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -16522,12 +16522,12 @@
       </c>
       <c r="P148" t="inlineStr">
         <is>
-          <t>https://lens.org/163-554-660-882-527;;https://lens.org/103-370-753-926-944</t>
+          <t>https://lens.org/103-370-753-926-944;;https://lens.org/163-554-660-882-527</t>
         </is>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R148" t="n">
@@ -16549,7 +16549,7 @@
       </c>
       <c r="W148" t="inlineStr">
         <is>
-          <t>H01L39/02;;H01L21/02;;H01L29/66;;H03M1/34;;H03K19/195;;G06F15/16;;G02F1/017;;G06N10/00;;H01L29/12;;B82Y10/00;;H01L39/22;;G11C19/32;;H03M1/66;;G06F11/07;;G06N99/00;;H01L29/15;;H01L27/18;;H01L39/24;;H01L33/04;;H01L27/088;;H01L29/417;;B82Y15/00;;G06F1/20</t>
+          <t>H01L29/417;;H01L29/15;;B82Y15/00;;G06N99/00;;H01L39/24;;B82Y10/00;;H01L29/66;;H03M1/34;;H01L39/02;;G06N10/00;;G11C19/32;;H01L27/088;;H01L21/02;;H03M1/66;;H01L27/18;;H01L29/12;;G02F1/017;;H01L39/22;;G06F15/16;;G06F1/20;;G06F11/07;;H03K19/195;;H01L33/04</t>
         </is>
       </c>
       <c r="X148" t="inlineStr"/>
@@ -16623,7 +16623,7 @@
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>LEIPOLD DIRK ROBERT WALTER;;ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -16660,7 +16660,7 @@
       </c>
       <c r="W149" t="inlineStr">
         <is>
-          <t>H01L29/12;;H01L29/66;;G06N10/00;;G06N99/00</t>
+          <t>G06N10/00;;H01L29/66;;G06N99/00;;H01L29/12</t>
         </is>
       </c>
       <c r="X149" t="inlineStr"/>
@@ -16686,7 +16686,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>US 10822231 B2;;US 2019/0393400 A1</t>
+          <t>US 2019/0393400 A1;;US 10822231 B2</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -16734,7 +16734,7 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>LEIPOLD DIRK ROBERT WALTER;;ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -16744,12 +16744,12 @@
       </c>
       <c r="P150" t="inlineStr">
         <is>
-          <t>https://lens.org/025-836-508-170-818;;https://lens.org/088-249-189-439-03X</t>
+          <t>https://lens.org/088-249-189-439-03X;;https://lens.org/025-836-508-170-818</t>
         </is>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R150" t="n">
@@ -16771,7 +16771,7 @@
       </c>
       <c r="W150" t="inlineStr">
         <is>
-          <t>H01L39/24;;H01L39/02;;H03K19/195;;H01L29/12;;G06N10/00;;G02F1/017;;B82Y10/00;;H01L39/22;;H01L29/66</t>
+          <t>G02F1/017;;G06N10/00;;H01L39/22;;H01L29/12;;H01L39/24;;B82Y10/00;;H01L29/66;;H03K19/195;;H01L39/02</t>
         </is>
       </c>
       <c r="X150" t="inlineStr"/>
@@ -16845,7 +16845,7 @@
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>LEIPOLD DIRK ROBERT WALTER;;ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -16882,7 +16882,7 @@
       </c>
       <c r="W151" t="inlineStr">
         <is>
-          <t>H01L27/18;;H01L27/088;;G06N10/00;;B82Y10/00;;H01L39/22;;H03M1/66;;B82Y15/00</t>
+          <t>G06N10/00;;H01L27/18;;H01L39/22;;B82Y15/00;;H01L27/088;;B82Y10/00;;H03M1/66</t>
         </is>
       </c>
       <c r="X151" t="inlineStr"/>
@@ -16956,7 +16956,7 @@
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>LEIPOLD DIRK ROBERT WALTER;;ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -16993,7 +16993,7 @@
       </c>
       <c r="W152" t="inlineStr">
         <is>
-          <t>H01L29/12;;G06N10/00;;B82Y10/00;;H01L29/417;;H01L39/22;;H01L29/66</t>
+          <t>G06N10/00;;H01L39/22;;H01L29/417;;H01L29/12;;H01L29/66;;B82Y10/00</t>
         </is>
       </c>
       <c r="X152" t="inlineStr"/>
@@ -17067,7 +17067,7 @@
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>LEIPOLD DIRK ROBERT WALTER;;ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
@@ -17104,7 +17104,7 @@
       </c>
       <c r="W153" t="inlineStr">
         <is>
-          <t>H03M1/34;;H01L29/12;;G06N10/00;;B82Y10/00;;H01L29/417;;H01L39/22;;B82Y15/00;;H01L29/66</t>
+          <t>G06N10/00;;H01L39/22;;H01L29/417;;B82Y15/00;;H01L29/12;;B82Y10/00;;H01L29/66;;H03M1/34</t>
         </is>
       </c>
       <c r="X153" t="inlineStr"/>
@@ -17178,7 +17178,7 @@
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>LEIPOLD DIRK ROBERT WALTER;;ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
@@ -17215,7 +17215,7 @@
       </c>
       <c r="W154" t="inlineStr">
         <is>
-          <t>G06F1/20;;G06N10/00;;G06F11/07</t>
+          <t>G06N10/00;;G06F11/07;;G06F1/20</t>
         </is>
       </c>
       <c r="X154" t="inlineStr"/>
@@ -17289,7 +17289,7 @@
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>LEIPOLD DIRK ROBERT WALTER;;ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
@@ -17400,7 +17400,7 @@
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>LEIPOLD DIRK ROBERT WALTER;;ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
@@ -17437,7 +17437,7 @@
       </c>
       <c r="W156" t="inlineStr">
         <is>
-          <t>H03M13/15;;G06N10/00</t>
+          <t>G06N10/00;;H03M13/15</t>
         </is>
       </c>
       <c r="X156" t="inlineStr"/>
@@ -17458,17 +17458,17 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>US 2019/0392917 A1;;US 10850978 B2</t>
+          <t>US 10850978 B2;;US 2019/0392917 A1</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>040-562-681-418-942;;108-855-629-246-746</t>
+          <t>108-855-629-246-746;;040-562-681-418-942</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -17511,7 +17511,7 @@
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>LEIPOLD DIRK ROBERT WALTER;;ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
@@ -17521,12 +17521,12 @@
       </c>
       <c r="P157" t="inlineStr">
         <is>
-          <t>https://lens.org/040-562-681-418-942;;https://lens.org/108-855-629-246-746</t>
+          <t>https://lens.org/108-855-629-246-746;;https://lens.org/040-562-681-418-942</t>
         </is>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R157" t="n">
@@ -17548,7 +17548,7 @@
       </c>
       <c r="W157" t="inlineStr">
         <is>
-          <t>H03K19/195;;G06N10/00;;H01L29/12;;G02F1/017;;B82Y10/00;;G11C19/32;;H01L29/66</t>
+          <t>G02F1/017;;G06N10/00;;G11C19/32;;H01L29/12;;B82Y10/00;;H01L29/66;;H03K19/195</t>
         </is>
       </c>
       <c r="X157" t="inlineStr"/>
@@ -17569,7 +17569,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>A1;;B1</t>
+          <t>B1;;A1</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -17579,7 +17579,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>007-410-414-786-063;;115-082-311-778-939</t>
+          <t>115-082-311-778-939;;007-410-414-786-063</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -17622,7 +17622,7 @@
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>LEIPOLD DIRK ROBERT WALTER;;ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
@@ -17632,12 +17632,12 @@
       </c>
       <c r="P158" t="inlineStr">
         <is>
-          <t>https://lens.org/007-410-414-786-063;;https://lens.org/115-082-311-778-939</t>
+          <t>https://lens.org/115-082-311-778-939;;https://lens.org/007-410-414-786-063</t>
         </is>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R158" t="n">
@@ -17659,7 +17659,7 @@
       </c>
       <c r="W158" t="inlineStr">
         <is>
-          <t>H03K19/195;;H01L29/12;;G06N10/00;;G02F1/017;;B82Y10/00;;H01L29/66</t>
+          <t>G02F1/017;;G06N10/00;;H01L29/12;;B82Y10/00;;H01L29/66;;H03K19/195</t>
         </is>
       </c>
       <c r="X158" t="inlineStr"/>
@@ -17685,12 +17685,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>US 2019/0392912 A1;;US 10562764 B2</t>
+          <t>US 10562764 B2;;US 2019/0392912 A1</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>182-693-748-192-677;;020-566-032-583-940</t>
+          <t>020-566-032-583-940;;182-693-748-192-677</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -17733,7 +17733,7 @@
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>LEIPOLD DIRK ROBERT WALTER;;ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
@@ -17748,7 +17748,7 @@
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R159" t="n">
@@ -17770,7 +17770,7 @@
       </c>
       <c r="W159" t="inlineStr">
         <is>
-          <t>G06N10/00;;G11C19/12;;G02F1/017;;B82Y10/00;;G06N99/00</t>
+          <t>G02F1/017;;G06N10/00;;G11C19/12;;G06N99/00;;B82Y10/00</t>
         </is>
       </c>
       <c r="X159" t="inlineStr"/>
@@ -17801,7 +17801,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>155-365-488-382-607;;079-188-284-728-507</t>
+          <t>079-188-284-728-507;;155-365-488-382-607</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -17844,7 +17844,7 @@
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>LEIPOLD DIRK ROBERT WALTER;;ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
@@ -17859,7 +17859,7 @@
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R160" t="n">
@@ -17881,7 +17881,7 @@
       </c>
       <c r="W160" t="inlineStr">
         <is>
-          <t>G06N10/00;;G11C19/12;;G02F1/017;;B82Y10/00;;G06N99/00</t>
+          <t>G02F1/017;;G06N10/00;;G11C19/12;;G06N99/00;;B82Y10/00</t>
         </is>
       </c>
       <c r="X160" t="inlineStr"/>
@@ -17925,7 +17925,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>IB 2019055171 W;;IB 2019055174 W</t>
+          <t>IB 2019055174 W;;IB 2019055171 W</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -17955,13 +17955,13 @@
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
+          <t>LEIPOLD DIRK ROBERT WALTER;;ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN</t>
         </is>
       </c>
       <c r="O161" t="inlineStr"/>
       <c r="P161" t="inlineStr">
         <is>
-          <t>https://lens.org/034-522-777-279-242;;https://lens.org/151-489-485-071-773</t>
+          <t>https://lens.org/151-489-485-071-773;;https://lens.org/034-522-777-279-242</t>
         </is>
       </c>
       <c r="Q161" t="inlineStr">
@@ -17988,7 +17988,7 @@
       </c>
       <c r="W161" t="inlineStr">
         <is>
-          <t>H01L29/12;;B82Y10/00;;G06N10/00</t>
+          <t>G06N10/00;;B82Y10/00;;H01L29/12</t>
         </is>
       </c>
       <c r="X161" t="inlineStr"/>
@@ -18099,7 +18099,7 @@
       </c>
       <c r="W162" t="inlineStr">
         <is>
-          <t>G06N20/00;;B82Y10/00;;G06N7/00;;G06N10/00</t>
+          <t>G06N10/00;;B82Y10/00;;G06N20/00;;G06N7/00</t>
         </is>
       </c>
       <c r="X162" t="inlineStr"/>
@@ -18173,7 +18173,7 @@
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>TEZAK NIKOLAS ANTON;;DA SILVA MARCUS PALMER;;SMITH ROBERT STANLEY;;WILSON CHRISTOPHER MOGAN</t>
+          <t>DA SILVA MARCUS PALMER;;SMITH ROBERT STANLEY;;TEZAK NIKOLAS ANTON;;WILSON CHRISTOPHER MOGAN</t>
         </is>
       </c>
       <c r="O163" t="inlineStr"/>
@@ -18206,7 +18206,7 @@
       </c>
       <c r="W163" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00</t>
+          <t>G06N10/00;;B82Y10/00</t>
         </is>
       </c>
       <c r="X163" t="inlineStr"/>
@@ -18280,7 +18280,7 @@
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>PETERSON ERIC CHRISTOPHER;;OSBORN CHRISTOPHER BUTLER;;SMITH ROBERT STANLEY;;LYNCH ADAM DAVID;;KARALEKAS PETER JONATHAN;;TEZAK NIKOLAS ANTON;;HEIDEL STEVEN</t>
+          <t>LYNCH ADAM DAVID;;TEZAK NIKOLAS ANTON;;KARALEKAS PETER JONATHAN;;OSBORN CHRISTOPHER BUTLER;;HEIDEL STEVEN;;SMITH ROBERT STANLEY;;PETERSON ERIC CHRISTOPHER</t>
         </is>
       </c>
       <c r="O164" t="inlineStr"/>
@@ -18313,7 +18313,7 @@
       </c>
       <c r="W164" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00</t>
+          <t>G06N10/00;;B82Y10/00</t>
         </is>
       </c>
       <c r="X164" t="inlineStr"/>
@@ -18383,7 +18383,7 @@
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>PETERSON ERIC CHRISTOPHER;;OSBORN CHRISTOPHER BUTLER;;SMITH ROBERT STANLEY;;LYNCH ADAM DAVID;;KARALEKAS PETER JONATHAN;;TEZAK NIKOLAS ANTON;;HEIDEL STEVEN</t>
+          <t>LYNCH ADAM DAVID;;TEZAK NIKOLAS ANTON;;KARALEKAS PETER JONATHAN;;OSBORN CHRISTOPHER BUTLER;;HEIDEL STEVEN;;SMITH ROBERT STANLEY;;PETERSON ERIC CHRISTOPHER</t>
         </is>
       </c>
       <c r="O165" t="inlineStr"/>
@@ -18416,7 +18416,7 @@
       </c>
       <c r="W165" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00</t>
+          <t>G06N10/00;;B82Y10/00</t>
         </is>
       </c>
       <c r="X165" t="inlineStr"/>
@@ -18490,7 +18490,7 @@
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>PICHLER HANNES;;WANG SHENGTAO;;CHOI SOONWON;;ZHOU LEO;;LUKIN MIKHAIL</t>
+          <t>PICHLER HANNES;;LUKIN MIKHAIL;;CHOI SOONWON;;WANG SHENGTAO;;ZHOU LEO</t>
         </is>
       </c>
       <c r="O166" t="inlineStr"/>
@@ -18523,7 +18523,7 @@
       </c>
       <c r="W166" t="inlineStr">
         <is>
-          <t>G06F15/78;;H01L21/00;;H01L29/06;;G06N99/00</t>
+          <t>H01L21/00;;H01L29/06;;G06N99/00;;G06F15/78</t>
         </is>
       </c>
       <c r="X166" t="inlineStr"/>
@@ -18539,7 +18539,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>EP;;CA</t>
+          <t>CA;;EP</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -18554,7 +18554,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>109-030-363-938-699;;004-166-881-687-223</t>
+          <t>004-166-881-687-223;;109-030-363-938-699</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -18567,7 +18567,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>CA 3108560 A;;EP 19854402 A</t>
+          <t>EP 19854402 A;;CA 3108560 A</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -18597,7 +18597,7 @@
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>PICHLER HANNES;;LUKIN MIKHAIL D;;WANG SHENGTAO;;ZHOU LEO XIANGYU;;CHOI SOONWON</t>
+          <t>PICHLER HANNES;;CHOI SOONWON;;LUKIN MIKHAIL D;;ZHOU LEO XIANGYU;;WANG SHENGTAO</t>
         </is>
       </c>
       <c r="O167" t="inlineStr"/>
@@ -18630,7 +18630,7 @@
       </c>
       <c r="W167" t="inlineStr">
         <is>
-          <t>G06F15/78;;H01L21/00;;H01L29/06;;G06N99/00</t>
+          <t>H01L21/00;;H01L29/06;;G06N99/00;;G06F15/78</t>
         </is>
       </c>
       <c r="X167" t="inlineStr"/>
@@ -18704,7 +18704,7 @@
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>REAGOR MATTHEW J;;PETERSON ERIC CHRISTOPHER;;SMITH ROBERT STANLEY;;JONES GLENN;;RIGETTI CHAD TYLER;;RUST MICHAEL;;DESAI ANAND;;TEZAK NIKOLAS ANTON</t>
+          <t>REAGOR MATTHEW J;;JONES GLENN;;TEZAK NIKOLAS ANTON;;DESAI ANAND;;RIGETTI CHAD TYLER;;RUST MICHAEL;;SMITH ROBERT STANLEY;;PETERSON ERIC CHRISTOPHER</t>
         </is>
       </c>
       <c r="O168" t="inlineStr"/>
@@ -18737,7 +18737,7 @@
       </c>
       <c r="W168" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00</t>
+          <t>G06N10/00;;B82Y10/00</t>
         </is>
       </c>
       <c r="X168" t="inlineStr"/>
@@ -18753,7 +18753,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>WO;;CA</t>
+          <t>CA;;WO</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -18763,12 +18763,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>CA 3060849 A1;;WO 2020/087187 A1</t>
+          <t>WO 2020/087187 A1;;CA 3060849 A1</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>181-007-346-539-851;;092-853-485-533-675</t>
+          <t>092-853-485-533-675;;181-007-346-539-851</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -18811,7 +18811,7 @@
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>WANG GANG (A K A JOSEPH);;VASTAREY NIKHIL SURESH;;BHAT SUMRITA;;SALAHANDISH RAZIEH;;KAPOOR ANMOL SINGH;;KOUL RAMAN;;WANG GANG</t>
+          <t>KAPOOR ANMOL SINGH;;WANG GANG (A K A JOSEPH);;VASTAREY NIKHIL SURESH;;WANG GANG;;SALAHANDISH RAZIEH;;BHAT SUMRITA;;KOUL RAMAN</t>
         </is>
       </c>
       <c r="O169" t="inlineStr"/>
@@ -18844,7 +18844,7 @@
       </c>
       <c r="W169" t="inlineStr">
         <is>
-          <t>G16H50/20;;G16H40/67;;H04W4/38;;G16H70/20;;G01N27/30;;G06K7/10;;G01N27/416;;H04W4/90;;G01N27/403;;G06K19/07;;H04W4/80;;B82Y15/00;;G06K9/18</t>
+          <t>G06K19/07;;H04W4/38;;G06K7/10;;B82Y15/00;;G16H40/67;;G06K9/18;;G16H50/20;;G16H70/20;;H04W4/80;;G01N27/30;;G01N27/416;;H04W4/90;;G01N27/403</t>
         </is>
       </c>
       <c r="X169" t="inlineStr"/>
@@ -18955,7 +18955,7 @@
       </c>
       <c r="W170" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G11C13/02;;G06N3/06</t>
+          <t>G06N3/06;;B82Y10/00;;G11C13/02</t>
         </is>
       </c>
       <c r="X170" t="inlineStr"/>
@@ -18971,7 +18971,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>US;;TW;;CN</t>
+          <t>TW;;CN;;US</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -18981,12 +18981,12 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>US 2020/0311524 A1;;CN 111799294 A;;TW 202109532 A</t>
+          <t>TW 202109532 A;;CN 111799294 A;;US 2020/0311524 A1</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>076-221-075-828-336;;080-794-601-505-258;;095-868-444-209-722</t>
+          <t>095-868-444-209-722;;080-794-601-505-258;;076-221-075-828-336</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -18999,7 +18999,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>CN 202010248805 A;;US 201916371382 A;;TW 109111117 A</t>
+          <t>US 201916371382 A;;TW 109111117 A;;CN 202010248805 A</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -19014,7 +19014,7 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>SYNAPSE-INSPIRED MEMORY ELEMENT FOR NEUROMORPHIC COMPUTING;;Memory device</t>
+          <t>Memory device;;SYNAPSE-INSPIRED MEMORY ELEMENT FOR NEUROMORPHIC COMPUTING</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
@@ -19029,7 +19029,7 @@
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>MARCUS JOHANNES HENRICUS VAN DAL;;DOORNBOS GERBEN;;VAN DAL MARCUS JOHANNES HENRICUS;;GERBEN DOORNBOS;;MAURICIO MANFRINI;;MANFRINI MAURICIO</t>
+          <t>GERBEN DOORNBOS;;VAN DAL MARCUS JOHANNES HENRICUS;;DOORNBOS GERBEN;;MANFRINI MAURICIO;;MARCUS JOHANNES HENRICUS VAN DAL;;MAURICIO MANFRINI</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
@@ -19039,12 +19039,12 @@
       </c>
       <c r="P171" t="inlineStr">
         <is>
-          <t>https://lens.org/095-868-444-209-722;;https://lens.org/076-221-075-828-336;;https://lens.org/080-794-601-505-258</t>
+          <t>https://lens.org/080-794-601-505-258;;https://lens.org/095-868-444-209-722;;https://lens.org/076-221-075-828-336</t>
         </is>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>Patent Application;;Patent of Addition</t>
+          <t>Patent of Addition;;Patent Application</t>
         </is>
       </c>
       <c r="R171" t="n">
@@ -19066,7 +19066,7 @@
       </c>
       <c r="W171" t="inlineStr">
         <is>
-          <t>G06N3/063;;G11C13/00;;H01L27/22;;G11C11/16;;G11C11/56;;G11C11/54;;G06N3/04</t>
+          <t>G11C11/56;;G11C13/00;;H01L27/22;;G06N3/063;;G06N3/04;;G11C11/54;;G11C11/16</t>
         </is>
       </c>
       <c r="X171" t="inlineStr"/>
@@ -19140,7 +19140,7 @@
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>JAVADIABHARI ALI;;PISTOIA MARCO;;GAMBETTA JAY M;;MARTIN FERNANDEZ FRANCISCO JOSE;;LIU PENG;;FARO SERTAGE ISMAEL</t>
+          <t>LIU PENG;;GAMBETTA JAY M;;FARO SERTAGE ISMAEL;;JAVADIABHARI ALI;;PISTOIA MARCO;;MARTIN FERNANDEZ FRANCISCO JOSE</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
@@ -19177,7 +19177,7 @@
       </c>
       <c r="W172" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00</t>
+          <t>G06N10/00;;B82Y10/00</t>
         </is>
       </c>
       <c r="X172" t="inlineStr"/>
@@ -19193,7 +19193,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>US;;WO</t>
+          <t>WO;;US</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -19203,7 +19203,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>US 2020/0327439 A1;;WO 2020/207956 A1</t>
+          <t>WO 2020/207956 A1;;US 2020/0327439 A1</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -19221,7 +19221,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>EP 2020059733 W;;US 201916427080 A</t>
+          <t>US 201916427080 A;;EP 2020059733 W</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -19246,12 +19246,12 @@
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>IBM UK;;IBM</t>
+          <t>IBM;;IBM UK</t>
         </is>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>NANNICINI GIACOMO;;GREENBERG DON;;CHEN RICHARD;;PISTOIA MARCO</t>
+          <t>GREENBERG DON;;NANNICINI GIACOMO;;PISTOIA MARCO;;CHEN RICHARD</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
@@ -19288,7 +19288,7 @@
       </c>
       <c r="W173" t="inlineStr">
         <is>
-          <t>G06N10/00;;G06N5/00;;G06N5/02</t>
+          <t>G06N5/00;;G06N10/00;;G06N5/02</t>
         </is>
       </c>
       <c r="X173" t="inlineStr"/>
@@ -19362,7 +19362,7 @@
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>NANNICINI GIACOMO;;GREENBERG DON;;CHEN RICHARD;;PISTOIA MARCO</t>
+          <t>GREENBERG DON;;NANNICINI GIACOMO;;PISTOIA MARCO;;CHEN RICHARD</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
@@ -19399,7 +19399,7 @@
       </c>
       <c r="W174" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00</t>
+          <t>G06N10/00;;B82Y10/00</t>
         </is>
       </c>
       <c r="X174" t="inlineStr"/>
@@ -19420,7 +19420,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -19430,7 +19430,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>092-930-928-172-386;;032-550-822-978-700</t>
+          <t>032-550-822-978-700;;092-930-928-172-386</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -19473,7 +19473,7 @@
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>HASHEMI POUYA;;ZHANG JINGYUN;;LEE CHOONGHYUN;;ANDO TAKASHI;;REZNICEK ALEXANDER</t>
+          <t>HASHEMI POUYA;;ZHANG JINGYUN;;REZNICEK ALEXANDER;;ANDO TAKASHI;;LEE CHOONGHYUN</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
@@ -19483,12 +19483,12 @@
       </c>
       <c r="P175" t="inlineStr">
         <is>
-          <t>https://lens.org/092-930-928-172-386;;https://lens.org/032-550-822-978-700</t>
+          <t>https://lens.org/032-550-822-978-700;;https://lens.org/092-930-928-172-386</t>
         </is>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="R175" t="n">
@@ -19510,7 +19510,7 @@
       </c>
       <c r="W175" t="inlineStr">
         <is>
-          <t>G06N3/063;;H01L29/06;;H01L29/423;;H01L29/786;;H01L45/00;;H01L27/24;;H01L29/66</t>
+          <t>H01L29/423;;H01L45/00;;G06N3/063;;H01L27/24;;H01L29/66;;H01L29/06;;H01L29/786</t>
         </is>
       </c>
       <c r="X175" t="inlineStr"/>
@@ -19526,7 +19526,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>US;;WO</t>
+          <t>WO;;US</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -19536,7 +19536,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>WO 2020/260476 A1;;US 2020/0410380 A1</t>
+          <t>US 2020/0410380 A1;;WO 2020/260476 A1</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -19554,7 +19554,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>US 201916456421 A;;EP 2020067867 W</t>
+          <t>EP 2020067867 W;;US 201916456421 A</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -19579,12 +19579,12 @@
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>IBM UK;;IBM</t>
+          <t>IBM;;IBM UK</t>
         </is>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>PHAN ANNA;;PHAN ANNA T;;GREENBERG DON</t>
+          <t>GREENBERG DON;;PHAN ANNA T;;PHAN ANNA</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
@@ -19594,7 +19594,7 @@
       </c>
       <c r="P176" t="inlineStr">
         <is>
-          <t>https://lens.org/107-070-220-865-019;;https://lens.org/139-250-894-234-554</t>
+          <t>https://lens.org/139-250-894-234-554;;https://lens.org/107-070-220-865-019</t>
         </is>
       </c>
       <c r="Q176" t="inlineStr">
@@ -19621,7 +19621,7 @@
       </c>
       <c r="W176" t="inlineStr">
         <is>
-          <t>G06N10/00;;B82Y10/00;;G06F15/80;;G06K9/62;;G06N20/00</t>
+          <t>G06N10/00;;G06K9/62;;G06F15/80;;B82Y10/00;;G06N20/00</t>
         </is>
       </c>
       <c r="X176" t="inlineStr"/>
@@ -19695,7 +19695,7 @@
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>ANDO TAKASHI;;REZNICEK ALEXANDER;;HEKMATSHOARTABARI BAHMAN</t>
+          <t>REZNICEK ALEXANDER;;HEKMATSHOARTABARI BAHMAN;;ANDO TAKASHI</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
@@ -19732,7 +19732,7 @@
       </c>
       <c r="W177" t="inlineStr">
         <is>
-          <t>G06N3/063;;G06N3/06;;G11C13/00;;H01L21/28;;H01L29/10;;H01L29/06;;H01L29/423;;H01L29/08;;H01L29/78;;H01L45/00;;H01L21/02;;H01L27/24;;H01L29/66</t>
+          <t>H01L29/423;;G06N3/06;;G11C13/00;;H01L21/28;;H01L45/00;;G06N3/063;;H01L29/08;;H01L27/24;;H01L21/02;;H01L29/10;;H01L29/66;;H01L29/78;;H01L29/06</t>
         </is>
       </c>
       <c r="X177" t="inlineStr"/>
@@ -19806,7 +19806,7 @@
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>MAKSYMOVYCH PETRO;;LAWRIE BENJAMIN J;;POOSER RAPHAEL C</t>
+          <t>LAWRIE BENJAMIN J;;MAKSYMOVYCH PETRO;;POOSER RAPHAEL C</t>
         </is>
       </c>
       <c r="O178" t="inlineStr"/>
@@ -19913,7 +19913,7 @@
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>SMITH ROBERT STANLEY;;MCKIERNAN KERI ANN;;RIGETTI CHAD TYLER;;ALAM MUHAMMAD SOHAIB;;DAVIS ERIK JOSEPH</t>
+          <t>ALAM MUHAMMAD SOHAIB;;DAVIS ERIK JOSEPH;;RIGETTI CHAD TYLER;;MCKIERNAN KERI ANN;;SMITH ROBERT STANLEY</t>
         </is>
       </c>
       <c r="O179" t="inlineStr"/>
@@ -19946,7 +19946,7 @@
       </c>
       <c r="W179" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N3/08;;G06N10/00;;G06N3/04</t>
+          <t>G06N10/00;;G06N3/08;;B82Y10/00;;G06N3/04</t>
         </is>
       </c>
       <c r="X179" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>CROSHAW JEREMIAH;;RASHIDI MOHAMMAD;;WOLKOW ROBERT</t>
+          <t>RASHIDI MOHAMMAD;;WOLKOW ROBERT;;CROSHAW JEREMIAH</t>
         </is>
       </c>
       <c r="O180" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
       </c>
       <c r="W180" t="inlineStr">
         <is>
-          <t>H01L29/02;;G06N3/08;;B82B3/00;;G06N3/02;;G01Q30/04</t>
+          <t>H01L29/02;;G06N3/02;;G06N3/08;;G01Q30/04;;B82B3/00</t>
         </is>
       </c>
       <c r="X180" t="inlineStr"/>
@@ -20127,7 +20127,7 @@
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>CHANDRASEKARAN ANAND;;KIM CHIHO;;RAMPRASAD RAMPI</t>
+          <t>RAMPRASAD RAMPI;;CHANDRASEKARAN ANAND;;KIM CHIHO</t>
         </is>
       </c>
       <c r="O181" t="inlineStr"/>
@@ -20160,7 +20160,7 @@
       </c>
       <c r="W181" t="inlineStr">
         <is>
-          <t>B82Y15/00;;C12Q1/6858;;C12Q1/6869</t>
+          <t>C12Q1/6869;;C12Q1/6858;;B82Y15/00</t>
         </is>
       </c>
       <c r="X181" t="inlineStr"/>
@@ -20267,7 +20267,7 @@
       </c>
       <c r="W182" t="inlineStr">
         <is>
-          <t>G06N3/00;;B82Y10/00</t>
+          <t>B82Y10/00;;G06N3/00</t>
         </is>
       </c>
       <c r="X182" t="inlineStr"/>
@@ -20374,7 +20374,7 @@
       </c>
       <c r="W183" t="inlineStr">
         <is>
-          <t>C12Q1/6813;;G01N27/447;;G01N33/487;;C12Q1/6869;;B82Y15/00</t>
+          <t>G01N33/487;;B82Y15/00;;C12Q1/6869;;C12Q1/6813;;G01N27/447</t>
         </is>
       </c>
       <c r="X183" t="inlineStr"/>
@@ -20448,7 +20448,7 @@
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>ANSCHUETZ ERIC R;;CAO YUDONG</t>
+          <t>CAO YUDONG;;ANSCHUETZ ERIC R</t>
         </is>
       </c>
       <c r="O184" t="inlineStr"/>
@@ -20481,7 +20481,7 @@
       </c>
       <c r="W184" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00</t>
+          <t>G06N10/00;;B82Y10/00</t>
         </is>
       </c>
       <c r="X184" t="inlineStr"/>
@@ -20555,7 +20555,7 @@
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>KATABARWA AMARA;;JOHNSON PETER D;;GONTHIER JEROME FLORIAN;;CAO YUDONG;;DALLAIRE-DEMERS PIERRE-LUC</t>
+          <t>GONTHIER JEROME FLORIAN;;JOHNSON PETER D;;DALLAIRE-DEMERS PIERRE-LUC;;CAO YUDONG;;KATABARWA AMARA</t>
         </is>
       </c>
       <c r="O185" t="inlineStr"/>
@@ -20588,7 +20588,7 @@
       </c>
       <c r="W185" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00</t>
+          <t>G06N10/00;;B82Y10/00</t>
         </is>
       </c>
       <c r="X185" t="inlineStr"/>
@@ -20662,7 +20662,7 @@
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>HERSAM MARK C;;SANGWAN VINOD K;;LEE HONG-SUB</t>
+          <t>HERSAM MARK C;;LEE HONG-SUB;;SANGWAN VINOD K</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
@@ -20699,7 +20699,7 @@
       </c>
       <c r="W186" t="inlineStr">
         <is>
-          <t>G06N3/08;;H01L29/739;;H01L29/24;;H01L27/12;;H01L29/68;;H01L29/66;;G06N3/04</t>
+          <t>H01L29/739;;G06N3/04;;H01L29/66;;H01L29/24;;H01L29/68;;G06N3/08;;H01L27/12</t>
         </is>
       </c>
       <c r="X186" t="inlineStr"/>

--- a/tests/integration/out/ai-and-nanotech-families_not_extended.xlsx
+++ b/tests/integration/out/ai-and-nanotech-families_not_extended.xlsx
@@ -568,12 +568,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>051-636-558-895-901;;142-026-074-104-094</t>
+          <t>142-026-074-104-094;;051-636-558-895-901</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://lens.org/142-026-074-104-094;;https://lens.org/051-636-558-895-901</t>
+          <t>https://lens.org/051-636-558-895-901;;https://lens.org/142-026-074-104-094</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>B82Y10/00;;F41J1/10;;F41J9/02;;H03K3/38;;F41J5/18;;G06N10/00;;F41J7/04;;H01L27/18;;A63F9/0204;;G06N20/00</t>
+          <t>F41J7/04;;F41J1/10;;H03K3/38;;B82Y10/00;;G06N10/00;;F41J9/02;;G06N20/00;;A63F9/0204;;F41J5/18;;H01L27/18</t>
         </is>
       </c>
       <c r="R2" t="inlineStr"/>
@@ -658,7 +658,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>AU 2019/203983 B2;;AU 2019/203983 A1</t>
+          <t>AU 2019/203983 A1;;AU 2019/203983 B2</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -738,7 +738,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;G06F9/45504;;G06N99/00;;G06N7/005;;G06N3/126</t>
+          <t>G06N99/00;;G06F9/45504;;B82Y10/00;;G06N10/00;;G06N7/005;;G06N3/126</t>
         </is>
       </c>
       <c r="R3" t="inlineStr"/>
@@ -807,7 +807,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>NEVEN HARTMUT;;BABBUSH RYAN</t>
+          <t>BABBUSH RYAN;;NEVEN HARTMUT</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -845,7 +845,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G16C10/00;;G06N10/00;;G06N20/00;;G06N5/003</t>
+          <t>G16C10/00;;B82Y10/00;;G06N10/00;;G06N5/003;;G06N20/00</t>
         </is>
       </c>
       <c r="R4" t="inlineStr"/>
@@ -872,7 +872,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>AU 2019/283845 B2;;AU 2019/283845 A1</t>
+          <t>AU 2019/283845 A1;;AU 2019/283845 B2</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -914,7 +914,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>NEVEN HELMUT;;FARHI EDWARD HENRY</t>
+          <t>FARHI EDWARD HENRY;;NEVEN HELMUT</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -947,12 +947,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>G06N99/00;;G06N3/063</t>
+          <t>G06N3/063;;G06N99/00</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H04L2209/34;;H04L9/0852;;G06N10/00;;G06N3/063;;G06N3/08;;G06N20/00</t>
+          <t>G06N3/063;;G06N3/08;;H04L9/0852;;B82Y10/00;;G06N10/00;;G06N20/00;;H04L2209/34</t>
         </is>
       </c>
       <c r="R5" t="inlineStr"/>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CASTRILLO SERGIO BOIXO;;NEVEN HARTMUT;;SMELYANSKIY VADIM;;NIU YUEZHEN</t>
+          <t>NIU YUEZHEN;;CASTRILLO SERGIO BOIXO;;NEVEN HARTMUT;;SMELYANSKIY VADIM</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -1054,12 +1054,12 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>G06N3/00;;G06N3/08;;G06N3/04;;G06N99/00</t>
+          <t>G06N3/04;;G06N3/00;;G06N99/00;;G06N3/08</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N3/006;;G06N3/084;;G06N3/0454;;G06N10/00;;G06N3/08</t>
+          <t>G06N3/006;;G06N3/08;;B82Y10/00;;G06N10/00;;G06N3/084;;G06N3/0454</t>
         </is>
       </c>
       <c r="R6" t="inlineStr"/>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>022-214-280-216-203;;077-548-609-096-178</t>
+          <t>077-548-609-096-178;;022-214-280-216-203</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>VINE WYATT;;DIENEL THOMAS;;WOLKOW ROBERT A;;WOLKOW ROBERT;;WALUS KONRAD;;LIVADARU LUCIAN;;HUFF TALEANA;;WALUS CONRAD;;RETALLICK JACOB;;RASHIDI MOHAMMAD</t>
+          <t>WOLKOW ROBERT A;;RETALLICK JACOB;;WALUS CONRAD;;WOLKOW ROBERT;;HUFF TALEANA;;WALUS KONRAD;;DIENEL THOMAS;;VINE WYATT;;RASHIDI MOHAMMAD;;LIVADARU LUCIAN</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -1161,12 +1161,12 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>G01Q60/24;;G01Q60/10;;G06N3/063;;G01Q80/00;;G06N3/08;;B82B3/00;;G01Q60/04</t>
+          <t>G01Q60/04;;G06N3/063;;G06N3/08;;G01Q80/00;;G01Q60/24;;G01Q60/10;;B82B3/00</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G01Q60/24;;H01L29/66984;;G06N3/04;;G01Q60/10;;H01L29/66977;;H01L29/7613;;G01Q30/10;;G06N20/10;;G01Q80/00;;G06N3/0472;;G06N3/08;;G06N7/005;;G01Q70/14;;G06N3/0445;;G06N3/0635</t>
+          <t>G06N20/10;;H01L29/66977;;H01L29/66984;;G06N3/08;;H01L29/7613;;G06N3/04;;G01Q60/24;;G06N3/0445;;B82Y10/00;;G01Q80/00;;G06N3/0472;;G06N3/0635;;G01Q60/10;;G01Q70/14;;G06N7/005;;G01Q30/10</t>
         </is>
       </c>
       <c r="R7" t="inlineStr"/>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>CA 3075691 A;;KR 20207010647 A</t>
+          <t>KR 20207010647 A;;CA 3075691 A</t>
         </is>
       </c>
     </row>
@@ -1210,17 +1210,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>076-520-744-809-205;;078-545-719-089-078</t>
+          <t>078-545-719-089-078;;076-520-744-809-205</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://lens.org/076-520-744-809-205;;https://lens.org/078-545-719-089-078</t>
+          <t>https://lens.org/078-545-719-089-078;;https://lens.org/076-520-744-809-205</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>INITIATING AND MONITORING THE EVOLUTION OF SINGLE ELECTRONS WITHIN ATOM-DEFINED STRUCTURES;;Initiating and monitoring the evolution of single electrons within atom-defined structures</t>
+          <t>Initiating and monitoring the evolution of single electrons within atom-defined structures;;INITIATING AND MONITORING THE EVOLUTION OF SINGLE ELECTRONS WITHIN ATOM-DEFINED STRUCTURES</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>VINE WYATT;;DIENEL THOMAS;;WOLKOW ROBERT;;WALUS KONRAD;;LIVADARU LUCIAN;;HUFF TALEANA;;RETALLICK JACOB;;RASHIDI MOHAMMAD</t>
+          <t>RETALLICK JACOB;;WOLKOW ROBERT;;HUFF TALEANA;;WALUS KONRAD;;DIENEL THOMAS;;VINE WYATT;;RASHIDI MOHAMMAD;;LIVADARU LUCIAN</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1253,12 +1253,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>B2;;A1</t>
+          <t>A1;;B2</t>
         </is>
       </c>
       <c r="M8" t="n">
@@ -1272,12 +1272,12 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>G01Q60/24;;G06N3/04;;G01Q60/10;;G01Q80/00;;G06N3/08;;G01Q30/10;;G01Q70/14</t>
+          <t>G06N3/08;;G01Q30/10;;G01Q80/00;;G01Q60/24;;G06N3/04;;G01Q60/10;;G01Q70/14</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G01Q60/24;;H01L29/66984;;G06N3/04;;G01Q60/10;;H01L29/66977;;H01L29/7613;;G01Q30/10;;G06N20/10;;G01Q80/00;;G06N3/0472;;G06N3/08;;G06N7/005;;G01Q70/14;;G06N3/0445;;G06N3/0635</t>
+          <t>G06N20/10;;H01L29/66977;;H01L29/66984;;G06N3/08;;H01L29/7613;;G06N3/04;;G01Q60/24;;G06N3/0445;;B82Y10/00;;G01Q80/00;;G06N3/0472;;G06N3/0635;;G01Q60/10;;G01Q70/14;;G06N7/005;;G01Q30/10</t>
         </is>
       </c>
       <c r="R8" t="inlineStr"/>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>NABAVI SEYEDFAKHREDDIN;;ZHANG LIHONG</t>
+          <t>ZHANG LIHONG;;NABAVI SEYEDFAKHREDDIN</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1383,12 +1383,12 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>H01L41/113;;H01L41/047;;H02N2/00;;H01L41/316;;H02N2/18;;H01L41/187;;H01L41/332;;H01L41/29</t>
+          <t>H01L41/29;;H01L41/113;;H01L41/187;;H02N2/00;;H01L41/316;;H02N2/18;;H01L41/332;;H01L41/047</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>B81B2201/032;;H02N2/22;;H01L41/316;;H01L41/1136;;B81B3/0021;;B81B2203/0172;;H01L41/29;;B81B2203/058;;B81B2203/0307;;H02N2/18;;H02N2/188;;H01L41/0477;;H01L41/187;;B81B3/0045;;H01L41/332;;B81B2207/053</t>
+          <t>B81B2203/0307;;H01L41/29;;H02N2/22;;H02N2/188;;H01L41/187;;H01L41/316;;B81B2203/0172;;B81B2207/053;;H02N2/18;;H01L41/332;;B81B3/0045;;B81B2201/032;;B81B3/0021;;H01L41/1136;;H01L41/0477;;B81B2203/058</t>
         </is>
       </c>
       <c r="R9" t="inlineStr"/>
@@ -1487,7 +1487,7 @@
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G16C10/00;;G06N10/00;;G06N20/00;;G06N5/003</t>
+          <t>G16C10/00;;B82Y10/00;;G06N10/00;;G06N5/003;;G06N20/00</t>
         </is>
       </c>
       <c r="R10" t="inlineStr"/>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>IC unit and methond of manufacturing the same, and electronic device including the same;;IC unit and method of manufacturing the same, and electronic device including the same</t>
+          <t>IC unit and method of manufacturing the same, and electronic device including the same;;IC unit and methond of manufacturing the same, and electronic device including the same</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1593,12 +1593,12 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H01L29/205;;H01L27/092;;H01L29/45;;H01L29/417;;H01L29/15;;H01L29/08;;H01L29/10;;H01L29/786;;H01L21/324;;H01L29/78;;H01L21/308;;H01L29/66;;H01L21/3105;;H01L29/04;;H01L29/165;;H01L21/8238;;H01L29/778;;H01L21/02;;H01L29/06;;H01L29/423;;H01L21/225;;H01L21/3065;;H01L21/8234;;H01L21/822;;H01L29/775;;H01L29/267</t>
+          <t>H01L21/02;;H01L29/10;;H01L21/3105;;H01L21/225;;H01L21/3065;;H01L21/324;;H01L29/66;;H01L29/04;;H01L29/15;;H01L29/78;;H01L29/205;;H01L29/06;;H01L29/165;;H01L29/267;;H01L29/45;;H01L21/822;;H01L29/775;;H01L29/778;;H01L21/8238;;H01L29/786;;B82Y10/00;;H01L21/308;;H01L29/423;;H01L27/092;;H01L21/8234;;H01L29/417;;H01L29/08</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H01L29/205;;H01L27/092;;H01L29/45;;H01L29/66742;;H01L21/823814;;H01L29/6656;;H01L21/823487;;H01L29/7827;;H01L21/823412;;H01L29/1037;;H01L21/823475;;H01L29/66666;;H01L21/324;;H01L21/2258;;H01L21/3083;;H01L29/0847;;H01L29/42392;;H01L29/7788;;H01L21/823842;;H01L29/1054;;H01L29/66431;;H01L21/823864;;H01L21/82345;;H01L29/04;;H01L21/823885;;H01L29/66469;;H01L21/02532;;H01L29/42376;;H01L29/0649;;H01L29/66522;;H01L29/152;;H01L21/8221;;H01L21/02636;;H01L29/165;;H01L29/41741;;H01L29/1095;;H01L29/0676;;H01L21/2252;;H01L29/78642;;H01L21/823418;;H01L29/66439;;H01L21/823871;;H01L21/823807;;H01L29/66462;;H01L21/3065;;H01L21/31053;;H01L29/775;;H01L29/267</t>
+          <t>H01L21/823418;;H01L21/823842;;H01L29/42376;;H01L29/66666;;H01L29/0649;;H01L21/02636;;H01L21/823475;;H01L21/823807;;H01L21/2258;;H01L21/3065;;H01L29/152;;H01L21/324;;H01L29/66522;;H01L29/1054;;H01L29/66462;;H01L21/8221;;H01L29/04;;H01L29/0847;;H01L29/205;;H01L21/823412;;H01L29/165;;H01L29/267;;H01L21/3083;;H01L21/823871;;H01L29/1095;;H01L29/45;;H01L29/66742;;H01L21/31053;;H01L29/775;;H01L29/7827;;H01L21/823814;;H01L21/823864;;H01L29/41741;;H01L21/823487;;H01L29/66439;;H01L21/82345;;B82Y10/00;;H01L29/1037;;H01L29/42392;;H01L29/78642;;H01L29/66469;;H01L21/2252;;H01L21/02532;;H01L21/823885;;H01L27/092;;H01L29/7788;;H01L29/66431;;H01L29/0676;;H01L29/6656</t>
         </is>
       </c>
       <c r="R11" t="inlineStr"/>
@@ -1630,7 +1630,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>US 15722423;;US 16421009</t>
+          <t>US 16421009;;US 15722423</t>
         </is>
       </c>
     </row>
@@ -1642,17 +1642,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>071-221-630-205-102;;009-495-174-886-046;;057-198-028-532-936;;065-708-103-684-559;;092-622-226-264-580;;187-898-763-627-991;;060-124-894-271-740;;016-694-600-365-485;;148-957-996-862-565;;061-058-432-093-39X;;017-464-399-500-106;;163-664-815-813-540;;111-553-910-512-297;;015-599-688-450-374;;032-379-139-877-924;;038-350-964-627-238;;151-967-050-235-058;;138-531-128-803-732;;193-646-676-139-072;;125-233-104-570-674;;031-184-353-637-765;;009-060-533-833-438;;092-822-678-884-760;;026-589-220-428-569;;042-086-174-033-990;;054-789-299-020-903;;007-137-806-748-344</t>
+          <t>138-531-128-803-732;;007-137-806-748-344;;092-622-226-264-580;;016-694-600-365-485;;009-495-174-886-046;;148-957-996-862-565;;193-646-676-139-072;;057-198-028-532-936;;065-708-103-684-559;;111-553-910-512-297;;060-124-894-271-740;;038-350-964-627-238;;026-589-220-428-569;;042-086-174-033-990;;092-822-678-884-760;;015-599-688-450-374;;071-221-630-205-102;;054-789-299-020-903;;125-233-104-570-674;;163-664-815-813-540;;151-967-050-235-058;;187-898-763-627-991;;032-379-139-877-924;;017-464-399-500-106;;031-184-353-637-765;;061-058-432-093-39X;;009-060-533-833-438</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://lens.org/163-664-815-813-540;;https://lens.org/092-622-226-264-580;;https://lens.org/061-058-432-093-39X;;https://lens.org/060-124-894-271-740;;https://lens.org/057-198-028-532-936;;https://lens.org/031-184-353-637-765;;https://lens.org/042-086-174-033-990;;https://lens.org/193-646-676-139-072;;https://lens.org/016-694-600-365-485;;https://lens.org/009-060-533-833-438;;https://lens.org/092-822-678-884-760;;https://lens.org/125-233-104-570-674;;https://lens.org/187-898-763-627-991;;https://lens.org/026-589-220-428-569;;https://lens.org/065-708-103-684-559;;https://lens.org/015-599-688-450-374;;https://lens.org/017-464-399-500-106;;https://lens.org/111-553-910-512-297;;https://lens.org/054-789-299-020-903;;https://lens.org/038-350-964-627-238;;https://lens.org/071-221-630-205-102;;https://lens.org/138-531-128-803-732;;https://lens.org/032-379-139-877-924;;https://lens.org/009-495-174-886-046;;https://lens.org/148-957-996-862-565;;https://lens.org/151-967-050-235-058;;https://lens.org/007-137-806-748-344</t>
+          <t>https://lens.org/163-664-815-813-540;;https://lens.org/125-233-104-570-674;;https://lens.org/017-464-399-500-106;;https://lens.org/031-184-353-637-765;;https://lens.org/038-350-964-627-238;;https://lens.org/016-694-600-365-485;;https://lens.org/032-379-139-877-924;;https://lens.org/026-589-220-428-569;;https://lens.org/061-058-432-093-39X;;https://lens.org/009-495-174-886-046;;https://lens.org/092-822-678-884-760;;https://lens.org/007-137-806-748-344;;https://lens.org/092-622-226-264-580;;https://lens.org/042-086-174-033-990;;https://lens.org/054-789-299-020-903;;https://lens.org/193-646-676-139-072;;https://lens.org/065-708-103-684-559;;https://lens.org/009-060-533-833-438;;https://lens.org/111-553-910-512-297;;https://lens.org/151-967-050-235-058;;https://lens.org/060-124-894-271-740;;https://lens.org/071-221-630-205-102;;https://lens.org/015-599-688-450-374;;https://lens.org/148-957-996-862-565;;https://lens.org/138-531-128-803-732;;https://lens.org/187-898-763-627-991;;https://lens.org/057-198-028-532-936</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Integrated circuit unit, manufacturing method thereof and electronic device comprising unit;;SEMICONDUCTOR DEVICE, METHOD OF MANUFACTURING THE SAME AND ELECTRONIC DEVICE INCLUDING THE DEVICE;;SEMICONDUCTOR DEVICE, METHOD OF MANUFACTURING THE SAME AND ELECTRONIC DEVICE INCLUDING THE SAME;;Semiconductor device, manufacturing method thereof and electronic device comprising device;;半导体器件及其制造方法及包括该器件的电子设备;;Semiconductor device, method of manufacturing the same and electronic device including the device;;Semiconductor device, method of manufacturing the same and electronic device including the same;;集成电路单元及其制造方法及包括该单元的电子设备;;Semiconductor device using stress memory technology, manufacturing method thereof and electronic device;;Semiconductor device and manufacturing method thereof and electronic equipment comprising semiconductor device;;利用应力记忆技术的半导体器件及其制造方法及电子设备</t>
+          <t>Semiconductor device and manufacturing method thereof and electronic equipment comprising semiconductor device;;Semiconductor device, method of manufacturing the same and electronic device including the device;;Semiconductor device, method of manufacturing the same and electronic device including the same;;集成电路单元及其制造方法及包括该单元的电子设备;;半导体器件及其制造方法及包括该器件的电子设备;;利用应力记忆技术的半导体器件及其制造方法及电子设备;;SEMICONDUCTOR DEVICE, METHOD OF MANUFACTURING THE SAME AND ELECTRONIC DEVICE INCLUDING THE SAME;;Integrated circuit unit, manufacturing method thereof and electronic device comprising unit;;Semiconductor device using stress memory technology, manufacturing method thereof and electronic device;;SEMICONDUCTOR DEVICE, METHOD OF MANUFACTURING THE SAME AND ELECTRONIC DEVICE INCLUDING THE DEVICE;;Semiconductor device, manufacturing method thereof and electronic device comprising device</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1662,12 +1662,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>中国科学院微电子研究所;;INST OF MICROELECTRONICS CAS;;INST MICROELECTRONICS CAS</t>
+          <t>INST OF MICROELECTRONICS CAS;;中国科学院微电子研究所;;INST MICROELECTRONICS CAS</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>朱慧珑;;WANG GUILEI;;HENRY H ADAMSON;;ZHANG YANBO;;朱正勇;;王桂磊;;亨利·H·阿达姆松;;ZHU ZHENGYONG;;ZHU HUILONG;;张严波</t>
+          <t>HENRY H ADAMSON;;ZHU HUILONG;;朱正勇;;张严波;;亨利·H·阿达姆松;;朱慧珑;;ZHANG YANBO;;王桂磊;;ZHU ZHENGYONG;;WANG GUILEI</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>CN;;US</t>
+          <t>US;;CN</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>B;;A1;;B2;;A</t>
+          <t>B;;A1;;A;;B2</t>
         </is>
       </c>
       <c r="M12" t="n">
@@ -1704,12 +1704,12 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H01L29/205;;H04N5/232;;H04N13/332;;H04N13/111;;H01L27/092;;H01L21/336;;H01L29/45;;H01L29/417;;H01L29/15;;H01L21/28;;H01L29/08;;H01L29/10;;H01L29/786;;H01L21/324;;G06F3/0482;;H01L29/78;;H01L21/308;;H01L29/66;;H01L21/3105;;H01L29/04;;H04N7/18;;G05B23/02;;H01L29/165;;H04N13/398;;G06K9/00;;G06T19/00;;H01L21/8238;;H01L29/778;;H01L21/02;;H01L29/06;;H01L29/423;;H01L21/225;;H01L29/36;;H01L27/088;;B82Y40/00;;H04N13/366;;H01L21/3065;;H01L21/8234;;H04N5/247;;H01L21/822;;H01L29/775;;G06F3/0481;;H01L29/267</t>
+          <t>H01L21/02;;H01L29/10;;H01L21/3105;;H01L21/225;;H01L21/3065;;G06F3/0482;;H01L21/28;;H01L21/324;;H04N5/232;;H04N13/332;;H01L29/66;;H01L29/04;;H01L27/088;;H01L29/15;;H01L29/78;;H01L29/205;;H01L29/06;;H01L29/165;;H01L29/267;;H04N13/398;;H04N7/18;;H01L29/45;;H01L21/822;;H01L29/775;;H01L29/778;;H01L21/8238;;H01L29/786;;H01L29/36;;B82Y40/00;;B82Y10/00;;G05B23/02;;G06K9/00;;H04N5/247;;H01L21/308;;H04N13/111;;H01L29/423;;G06T19/00;;H01L21/336;;H01L27/092;;H01L21/8234;;G06F3/0481;;H01L29/417;;H01L29/08;;H04N13/366</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H01L29/205;;H04N13/332;;H04N13/111;;H01L29/66742;;G06K2009/00738;;H01L27/092;;H01L29/45;;H01L21/823814;;H01L29/6656;;H01L21/823487;;H01L29/7813;;H01L29/7827;;H01L21/823412;;G06K9/00711;;H01L29/1037;;H01L21/823475;;H01L29/66666;;H01L29/66712;;H01L21/324;;G06F3/0482;;H01L29/42392;;H01L21/2258;;H01L29/0847;;H01L21/3083;;H01L29/7788;;H01L21/823842;;H01L29/1054;;H01L29/66431;;H01L29/0638;;G05B2219/32014;;H01L21/823864;;G06K2209/19;;H04N5/23238;;H01L21/82345;;H01L29/04;;H01L29/66469;;H01L21/823437;;H01L21/02532;;H01L21/823885;;H01L29/42376;;H01L29/0649;;H01L29/66522;;H01L29/152;;H01L21/8221;;H01L21/02636;;H01L29/41741;;H01L29/165;;G05B23/0216;;H04N7/181;;H04N13/398;;H01L29/1095;;H01L29/0676;;H01L29/78642;;H01L21/2252;;G06T19/006;;H01L21/823418;;H01L29/66439;;H01L29/0653;;H01L21/823871;;H01L21/823807;;H01L29/66462;;H01L27/088;;G06F3/04817;;H01L29/1083;;H01L29/7848;;H01L21/3065;;H01L21/8234;;H04N13/366;;H01L21/31053;;H04N5/247;;H01L29/775;;H01L29/267</t>
+          <t>H01L21/823418;;H01L21/823842;;H01L29/42376;;H04N5/23238;;H01L29/66666;;H01L29/0649;;H01L21/02636;;H01L21/823475;;H01L21/823807;;H01L21/2258;;H04N7/181;;H01L21/3065;;G06F3/0482;;H01L29/1083;;H01L29/152;;H01L21/324;;H01L29/66522;;G05B2219/32014;;H01L29/1054;;H01L29/66712;;H04N13/332;;H01L29/66462;;H01L21/8221;;H01L29/0653;;H01L29/04;;H01L21/823437;;H01L27/088;;H01L29/0847;;H01L21/823412;;H01L29/205;;H01L29/165;;H01L29/267;;H01L21/3083;;H04N13/398;;H01L21/823871;;G05B23/0216;;G06F3/04817;;H01L29/66742;;H01L21/31053;;H01L29/1095;;H01L29/45;;H01L29/775;;G06K9/00711;;H01L29/7827;;H01L21/823814;;H01L21/823864;;G06K2009/00738;;H01L29/41741;;H01L29/7848;;H01L21/823487;;H01L29/66439;;H01L21/82345;;B82Y10/00;;H01L29/1037;;H04N5/247;;H01L29/42392;;H04N13/111;;H01L29/78642;;H01L29/66469;;H01L21/2252;;G06K2209/19;;H01L21/02532;;G06T19/006;;H01L21/823885;;H01L27/092;;H01L21/8234;;H01L29/7788;;H01L29/66431;;H01L29/7813;;H01L29/0638;;H01L29/0676;;H01L29/6656;;H04N13/366</t>
         </is>
       </c>
       <c r="R12" t="inlineStr"/>
@@ -1736,12 +1736,12 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>CN 107887441 A;;CN 107887274 A;;US 10910278 B2;;US 10714398 B2;;CN 107887441 B;;CN 107887387 B;;CN 107887385 A;;US 2018/0097106 A1;;CN 107887384 A;;CN 107887442 B;;CN 106298778 A;;CN 107887386 A;;CN 107887445 B;;CN 107887440 B;;CN 107887384 B;;CN 107887387 A;;CN 107887444 A;;CN 107887443 B;;CN 107887274 B;;US 2018/0097065 A1;;CN 107887444 B;;CN 107887385 B;;CN 107887442 A;;CN 107887445 A;;CN 107887443 A;;CN 107887386 B;;CN 107887440 A</t>
+          <t>US 2018/0097065 A1;;CN 107887442 B;;CN 107887440 A;;CN 107887441 B;;CN 107887384 B;;CN 107887384 A;;CN 107887441 A;;US 2018/0097106 A1;;CN 107887387 B;;CN 107887443 B;;US 10910278 B2;;CN 107887440 B;;US 10714398 B2;;CN 107887386 B;;CN 107887445 B;;CN 107887442 A;;CN 107887385 B;;CN 107887444 B;;CN 107887387 A;;CN 107887274 B;;CN 107887385 A;;CN 106298778 A;;CN 107887443 A;;CN 107887444 A;;CN 107887445 A;;CN 107887386 A;;CN 107887274 A</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>CN 201710530685 A;;CN 201710531812 A;;CN 201710530298 A;;CN 201710531811 A;;US 201715720240 A;;CN 201710530751 A;;CN 201610872541 A;;CN 201710530297 A;;CN 201710531762 A;;CN 201710530250 A;;US 201715718586 A;;CN 201710530684 A;;CN 201710530950 A;;CN 201710530194 A</t>
+          <t>CN 201710530950 A;;US 201715718586 A;;CN 201710531812 A;;CN 201710530194 A;;CN 201710530684 A;;CN 201710530297 A;;CN 201710530685 A;;US 201715720240 A;;CN 201710530298 A;;CN 201710530751 A;;CN 201710531811 A;;CN 201610872541 A;;CN 201710530250 A;;CN 201710531762 A</t>
         </is>
       </c>
     </row>
@@ -1815,12 +1815,12 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>H01L27/092;;H01L29/165;;H01L29/78;;H01L29/66;;H01L29/06</t>
+          <t>H01L29/78;;H01L29/06;;H01L27/092;;H01L29/165;;H01L29/66</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H01L29/205;;H04N13/332;;H04N13/111;;H01L29/66742;;G06K2009/00738;;H01L27/092;;H01L29/45;;H01L21/823814;;H01L29/6656;;H01L21/823487;;H01L29/7813;;H01L29/7827;;H01L21/823412;;G06K9/00711;;H01L29/1037;;H01L21/823475;;H01L29/66666;;H01L29/66712;;H01L21/324;;G06F3/0482;;H01L29/42392;;H01L21/2258;;H01L29/0847;;H01L21/3083;;H01L29/7788;;H01L21/823842;;H01L29/1054;;H01L29/66431;;H01L29/0638;;G05B2219/32014;;H01L21/823864;;G06K2209/19;;H04N5/23238;;H01L21/82345;;H01L29/04;;H01L29/66469;;H01L21/823437;;H01L21/02532;;H01L21/823885;;H01L29/42376;;H01L29/0649;;H01L29/66522;;H01L29/152;;H01L21/8221;;H01L21/02636;;H01L29/41741;;H01L29/165;;G05B23/0216;;H04N7/181;;H04N13/398;;H01L29/1095;;H01L29/0676;;H01L29/78642;;H01L21/2252;;G06T19/006;;H01L21/823418;;H01L29/66439;;H01L29/0653;;H01L21/823871;;H01L21/823807;;H01L29/66462;;H01L27/088;;G06F3/04817;;H01L29/1083;;H01L29/7848;;H01L21/3065;;H01L21/8234;;H04N13/366;;H01L21/31053;;H04N5/247;;H01L29/775;;H01L29/267</t>
+          <t>H01L21/823418;;H01L21/823842;;H01L29/42376;;H04N5/23238;;H01L29/66666;;H01L29/0649;;H01L21/02636;;H01L21/823475;;H01L21/823807;;H01L21/2258;;H04N7/181;;H01L21/3065;;G06F3/0482;;H01L29/1083;;H01L29/152;;H01L21/324;;H01L29/66522;;G05B2219/32014;;H01L29/1054;;H01L29/66712;;H04N13/332;;H01L29/66462;;H01L21/8221;;H01L29/0653;;H01L29/04;;H01L21/823437;;H01L27/088;;H01L29/0847;;H01L21/823412;;H01L29/205;;H01L29/165;;H01L29/267;;H01L21/3083;;H04N13/398;;H01L21/823871;;G05B23/0216;;G06F3/04817;;H01L29/66742;;H01L21/31053;;H01L29/1095;;H01L29/45;;H01L29/775;;G06K9/00711;;H01L29/7827;;H01L21/823814;;H01L21/823864;;G06K2009/00738;;H01L29/41741;;H01L29/7848;;H01L21/823487;;H01L29/66439;;H01L21/82345;;B82Y10/00;;H01L29/1037;;H04N5/247;;H01L29/42392;;H04N13/111;;H01L29/78642;;H01L29/66469;;H01L21/2252;;G06K2209/19;;H01L21/02532;;G06T19/006;;H01L21/823885;;H01L27/092;;H01L21/8234;;H01L29/7788;;H01L29/66431;;H01L29/7813;;H01L29/0638;;H01L29/0676;;H01L29/6656;;H04N13/366</t>
         </is>
       </c>
       <c r="R13" t="inlineStr"/>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H01L29/205;;H04N13/332;;H04N13/111;;H01L29/66742;;G06K2009/00738;;H01L27/092;;H01L29/45;;H01L21/823814;;H01L29/6656;;H01L21/823487;;H01L29/7813;;H01L29/7827;;H01L21/823412;;G06K9/00711;;H01L29/1037;;H01L21/823475;;H01L29/66666;;H01L29/66712;;H01L21/324;;G06F3/0482;;H01L29/42392;;H01L21/2258;;H01L29/0847;;H01L21/3083;;H01L29/7788;;H01L21/823842;;H01L29/1054;;H01L29/66431;;H01L29/0638;;G05B2219/32014;;H01L21/823864;;G06K2209/19;;H04N5/23238;;H01L21/82345;;H01L29/04;;H01L29/66469;;H01L21/823437;;H01L21/02532;;H01L21/823885;;H01L29/42376;;H01L29/0649;;H01L29/66522;;H01L29/152;;H01L21/8221;;H01L21/02636;;H01L29/41741;;H01L29/165;;G05B23/0216;;H04N7/181;;H04N13/398;;H01L29/1095;;H01L29/0676;;H01L29/78642;;H01L21/2252;;G06T19/006;;H01L21/823418;;H01L29/66439;;H01L29/0653;;H01L21/823871;;H01L21/823807;;H01L29/66462;;H01L27/088;;G06F3/04817;;H01L29/1083;;H01L29/7848;;H01L21/3065;;H01L21/8234;;H04N13/366;;H01L21/31053;;H04N5/247;;H01L29/775;;H01L29/267</t>
+          <t>H01L21/823418;;H01L21/823842;;H01L29/42376;;H04N5/23238;;H01L29/66666;;H01L29/0649;;H01L21/02636;;H01L21/823475;;H01L21/823807;;H01L21/2258;;H04N7/181;;H01L21/3065;;G06F3/0482;;H01L29/1083;;H01L29/152;;H01L21/324;;H01L29/66522;;G05B2219/32014;;H01L29/1054;;H01L29/66712;;H04N13/332;;H01L29/66462;;H01L21/8221;;H01L29/0653;;H01L29/04;;H01L21/823437;;H01L27/088;;H01L29/0847;;H01L21/823412;;H01L29/205;;H01L29/165;;H01L29/267;;H01L21/3083;;H04N13/398;;H01L21/823871;;G05B23/0216;;G06F3/04817;;H01L29/66742;;H01L21/31053;;H01L29/1095;;H01L29/45;;H01L29/775;;G06K9/00711;;H01L29/7827;;H01L21/823814;;H01L21/823864;;G06K2009/00738;;H01L29/41741;;H01L29/7848;;H01L21/823487;;H01L29/66439;;H01L21/82345;;B82Y10/00;;H01L29/1037;;H04N5/247;;H01L29/42392;;H04N13/111;;H01L29/78642;;H01L29/66469;;H01L21/2252;;G06K2209/19;;H01L21/02532;;G06T19/006;;H01L21/823885;;H01L27/092;;H01L21/8234;;H01L29/7788;;H01L29/66431;;H01L29/7813;;H01L29/0638;;H01L29/0676;;H01L29/6656;;H04N13/366</t>
         </is>
       </c>
       <c r="R14" t="inlineStr"/>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>WANG GUILEI;;ZHANG YANBO;;RADAMSON HENRY H;;ZHU ZHENGYONG;;ZHU HUILONG</t>
+          <t>ZHU HUILONG;;ZHANG YANBO;;ZHU ZHENGYONG;;WANG GUILEI;;RADAMSON HENRY H</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2033,12 +2033,12 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>H01L29/66;;H01L29/786;;H01L29/10;;H01L29/06</t>
+          <t>H01L29/786;;H01L29/06;;H01L29/10;;H01L29/66</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H01L29/205;;H04N13/332;;H04N13/111;;H01L29/66742;;G06K2009/00738;;H01L27/092;;H01L29/45;;H01L21/823814;;H01L29/6656;;H01L21/823487;;H01L29/7813;;H01L29/7827;;H01L21/823412;;G06K9/00711;;H01L29/1037;;H01L21/823475;;H01L29/66666;;H01L29/66712;;H01L21/324;;G06F3/0482;;H01L29/42392;;H01L21/2258;;H01L29/0847;;H01L21/3083;;H01L29/7788;;H01L21/823842;;H01L29/1054;;H01L29/66431;;H01L29/0638;;G05B2219/32014;;H01L21/823864;;G06K2209/19;;H04N5/23238;;H01L21/82345;;H01L29/04;;H01L29/66469;;H01L21/823437;;H01L21/02532;;H01L21/823885;;H01L29/42376;;H01L29/0649;;H01L29/66522;;H01L29/152;;H01L21/8221;;H01L21/02636;;H01L29/41741;;H01L29/165;;G05B23/0216;;H04N7/181;;H04N13/398;;H01L29/1095;;H01L29/0676;;H01L29/78642;;H01L21/2252;;G06T19/006;;H01L21/823418;;H01L29/66439;;H01L29/0653;;H01L21/823871;;H01L21/823807;;H01L29/66462;;H01L27/088;;G06F3/04817;;H01L29/1083;;H01L29/7848;;H01L21/3065;;H01L21/8234;;H04N13/366;;H01L21/31053;;H04N5/247;;H01L29/775;;H01L29/267</t>
+          <t>H01L21/823418;;H01L21/823842;;H01L29/42376;;H04N5/23238;;H01L29/66666;;H01L29/0649;;H01L21/02636;;H01L21/823475;;H01L21/823807;;H01L21/2258;;H04N7/181;;H01L21/3065;;G06F3/0482;;H01L29/1083;;H01L29/152;;H01L21/324;;H01L29/66522;;G05B2219/32014;;H01L29/1054;;H01L29/66712;;H04N13/332;;H01L29/66462;;H01L21/8221;;H01L29/0653;;H01L29/04;;H01L21/823437;;H01L27/088;;H01L29/0847;;H01L21/823412;;H01L29/205;;H01L29/165;;H01L29/267;;H01L21/3083;;H04N13/398;;H01L21/823871;;G05B23/0216;;G06F3/04817;;H01L29/66742;;H01L21/31053;;H01L29/1095;;H01L29/45;;H01L29/775;;G06K9/00711;;H01L29/7827;;H01L21/823814;;H01L21/823864;;G06K2009/00738;;H01L29/41741;;H01L29/7848;;H01L21/823487;;H01L29/66439;;H01L21/82345;;B82Y10/00;;H01L29/1037;;H04N5/247;;H01L29/42392;;H04N13/111;;H01L29/78642;;H01L29/66469;;H01L21/2252;;G06K2209/19;;H01L21/02532;;G06T19/006;;H01L21/823885;;H01L27/092;;H01L21/8234;;H01L29/7788;;H01L29/66431;;H01L29/7813;;H01L29/0638;;H01L29/0676;;H01L29/6656;;H04N13/366</t>
         </is>
       </c>
       <c r="R15" t="inlineStr"/>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H01L29/205;;H04N13/332;;H04N13/111;;H01L29/66742;;G06K2009/00738;;H01L27/092;;H01L29/45;;H01L21/823814;;H01L29/6656;;H01L21/823487;;H01L29/7813;;H01L29/7827;;H01L21/823412;;G06K9/00711;;H01L29/1037;;H01L21/823475;;H01L29/66666;;H01L29/66712;;H01L21/324;;G06F3/0482;;H01L29/42392;;H01L21/2258;;H01L29/0847;;H01L21/3083;;H01L29/7788;;H01L21/823842;;H01L29/1054;;H01L29/66431;;H01L29/0638;;G05B2219/32014;;H01L21/823864;;G06K2209/19;;H04N5/23238;;H01L21/82345;;H01L29/04;;H01L29/66469;;H01L21/823437;;H01L21/02532;;H01L21/823885;;H01L29/42376;;H01L29/0649;;H01L29/66522;;H01L29/152;;H01L21/8221;;H01L21/02636;;H01L29/41741;;H01L29/165;;G05B23/0216;;H04N7/181;;H04N13/398;;H01L29/1095;;H01L29/0676;;H01L29/78642;;H01L21/2252;;G06T19/006;;H01L21/823418;;H01L29/66439;;H01L29/0653;;H01L21/823871;;H01L21/823807;;H01L29/66462;;H01L27/088;;G06F3/04817;;H01L29/1083;;H01L29/7848;;H01L21/3065;;H01L21/8234;;H04N13/366;;H01L21/31053;;H04N5/247;;H01L29/775;;H01L29/267</t>
+          <t>H01L21/823418;;H01L21/823842;;H01L29/42376;;H04N5/23238;;H01L29/66666;;H01L29/0649;;H01L21/02636;;H01L21/823475;;H01L21/823807;;H01L21/2258;;H04N7/181;;H01L21/3065;;G06F3/0482;;H01L29/1083;;H01L29/152;;H01L21/324;;H01L29/66522;;G05B2219/32014;;H01L29/1054;;H01L29/66712;;H04N13/332;;H01L29/66462;;H01L21/8221;;H01L29/0653;;H01L29/04;;H01L21/823437;;H01L27/088;;H01L29/0847;;H01L21/823412;;H01L29/205;;H01L29/165;;H01L29/267;;H01L21/3083;;H04N13/398;;H01L21/823871;;G05B23/0216;;G06F3/04817;;H01L29/66742;;H01L21/31053;;H01L29/1095;;H01L29/45;;H01L29/775;;G06K9/00711;;H01L29/7827;;H01L21/823814;;H01L21/823864;;G06K2009/00738;;H01L29/41741;;H01L29/7848;;H01L21/823487;;H01L29/66439;;H01L21/82345;;B82Y10/00;;H01L29/1037;;H04N5/247;;H01L29/42392;;H04N13/111;;H01L29/78642;;H01L29/66469;;H01L21/2252;;G06K2209/19;;H01L21/02532;;G06T19/006;;H01L21/823885;;H01L27/092;;H01L21/8234;;H01L29/7788;;H01L29/66431;;H01L29/7813;;H01L29/0638;;H01L29/0676;;H01L29/6656;;H04N13/366</t>
         </is>
       </c>
       <c r="R16" t="inlineStr"/>
@@ -2189,17 +2189,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>199-535-148-484-91X;;091-589-843-044-390;;066-971-174-243-907</t>
+          <t>091-589-843-044-390;;199-535-148-484-91X;;066-971-174-243-907</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://lens.org/199-535-148-484-91X;;https://lens.org/091-589-843-044-390;;https://lens.org/066-971-174-243-907</t>
+          <t>https://lens.org/091-589-843-044-390;;https://lens.org/199-535-148-484-91X;;https://lens.org/066-971-174-243-907</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>IC unit and methond of manufacturing the same, and electronic device including the same;;IC UNIT AND METHOND OF MANUFACTURING THE SAME, AND ELECTRONIC DEVICE INCLUDING THE SAME;;Integrated circuit unit and electronic device including same</t>
+          <t>IC UNIT AND METHOND OF MANUFACTURING THE SAME, AND ELECTRONIC DEVICE INCLUDING THE SAME;;IC unit and methond of manufacturing the same, and electronic device including the same;;Integrated circuit unit and electronic device including same</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2227,17 +2227,17 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>CN;;US</t>
+          <t>US;;CN</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>B2;;A1;;A</t>
+          <t>A1;;A;;B2</t>
         </is>
       </c>
       <c r="M17" t="n">
@@ -2251,12 +2251,12 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H01L29/205;;H01L27/092;;H01L29/45;;H01L29/417;;H01L29/15;;H01L29/08;;H01L29/10;;H01L29/786;;H01L21/324;;H01L29/78;;H01L21/308;;H01L21/3105;;H01L29/66;;H01L29/04;;H01L29/165;;H01L21/8238;;H01L29/778;;H01L21/02;;H01L29/06;;H01L29/423;;H01L21/225;;H01L27/088;;H01L21/3065;;H01L21/8234;;H01L21/822;;H01L29/775;;H01L29/267</t>
+          <t>H01L21/02;;H01L29/10;;H01L21/3105;;H01L21/225;;H01L21/3065;;H01L21/324;;H01L29/66;;H01L29/04;;H01L27/088;;H01L29/15;;H01L29/205;;H01L29/78;;H01L29/06;;H01L29/165;;H01L29/267;;H01L29/45;;H01L21/822;;H01L29/775;;H01L29/778;;H01L21/8238;;H01L29/786;;B82Y10/00;;H01L21/308;;H01L29/423;;H01L27/092;;H01L21/8234;;H01L29/417;;H01L29/08</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H01L29/205;;H04N13/332;;H04N13/111;;H01L29/66742;;G06K2009/00738;;H01L27/092;;H01L29/45;;H01L21/823814;;H01L29/6656;;H01L21/823487;;H01L29/7813;;H01L29/7827;;H01L21/823412;;G06K9/00711;;H01L29/1037;;H01L21/823475;;H01L29/66666;;H01L29/66712;;H01L21/324;;G06F3/0482;;H01L29/42392;;H01L21/2258;;H01L29/0847;;H01L21/3083;;H01L29/7788;;H01L21/823842;;H01L29/1054;;H01L29/66431;;H01L29/0638;;G05B2219/32014;;H01L21/823864;;G06K2209/19;;H04N5/23238;;H01L21/82345;;H01L29/04;;H01L29/66469;;H01L21/823437;;H01L21/02532;;H01L21/823885;;H01L29/42376;;H01L29/0649;;H01L29/66522;;H01L29/152;;H01L21/8221;;H01L21/02636;;H01L29/41741;;H01L29/165;;G05B23/0216;;H04N7/181;;H04N13/398;;H01L29/1095;;H01L29/0676;;H01L29/78642;;H01L21/2252;;G06T19/006;;H01L21/823418;;H01L29/66439;;H01L29/0653;;H01L21/823871;;H01L21/823807;;H01L29/66462;;H01L27/088;;G06F3/04817;;H01L29/1083;;H01L29/7848;;H01L21/3065;;H01L21/8234;;H04N13/366;;H01L21/31053;;H04N5/247;;H01L29/775;;H01L29/267</t>
+          <t>H01L21/823418;;H01L21/823842;;H01L29/42376;;H04N5/23238;;H01L29/66666;;H01L29/0649;;H01L21/02636;;H01L21/823475;;H01L21/823807;;H01L21/2258;;H04N7/181;;H01L21/3065;;G06F3/0482;;H01L29/1083;;H01L29/152;;H01L21/324;;H01L29/66522;;G05B2219/32014;;H01L29/1054;;H01L29/66712;;H04N13/332;;H01L29/66462;;H01L21/8221;;H01L29/0653;;H01L29/04;;H01L21/823437;;H01L27/088;;H01L29/0847;;H01L21/823412;;H01L29/205;;H01L29/165;;H01L29/267;;H01L21/3083;;H04N13/398;;H01L21/823871;;G05B23/0216;;G06F3/04817;;H01L29/66742;;H01L21/31053;;H01L29/1095;;H01L29/45;;H01L29/775;;G06K9/00711;;H01L29/7827;;H01L21/823814;;H01L21/823864;;G06K2009/00738;;H01L29/41741;;H01L29/7848;;H01L21/823487;;H01L29/66439;;H01L21/82345;;B82Y10/00;;H01L29/1037;;H04N5/247;;H01L29/42392;;H04N13/111;;H01L29/78642;;H01L29/66469;;H01L21/2252;;G06K2209/19;;H01L21/02532;;G06T19/006;;H01L21/823885;;H01L27/092;;H01L21/8234;;H01L29/7788;;H01L29/66431;;H01L29/7813;;H01L29/0638;;H01L29/0676;;H01L29/6656;;H04N13/366</t>
         </is>
       </c>
       <c r="R17" t="inlineStr"/>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>US 10629498 B2;;CN 111755443 A;;US 2018/0108577 A1</t>
+          <t>CN 111755443 A;;US 2018/0108577 A1;;US 10629498 B2</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>151-584-955-768-731;;004-988-494-197-462</t>
+          <t>004-988-494-197-462;;151-584-955-768-731</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>IC UNIT AND METHOND OF MANUFACTURING THE SAME, AND ELECTRONIC DEVICE INCLUDING THE SAME;;IC unit and method of manufacturing the same, and electronic device including the same</t>
+          <t>IC unit and method of manufacturing the same, and electronic device including the same;;IC UNIT AND METHOND OF MANUFACTURING THE SAME, AND ELECTRONIC DEVICE INCLUDING THE SAME</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2343,12 +2343,12 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>B2;;A1</t>
+          <t>A1;;B2</t>
         </is>
       </c>
       <c r="M18" t="n">
@@ -2362,12 +2362,12 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H01L29/205;;H01L27/092;;H01L29/45;;H01L29/417;;H01L29/15;;H01L29/08;;H01L29/10;;H01L29/786;;H01L21/324;;H01L29/78;;H01L21/308;;H01L21/3105;;H01L29/66;;H01L29/04;;H01L29/165;;H01L21/8238;;H01L29/778;;H01L21/02;;H01L29/06;;H01L29/423;;H01L21/225;;H01L21/3065;;H01L21/8234;;H01L21/822;;H01L29/775;;H01L29/267</t>
+          <t>H01L21/02;;H01L29/10;;H01L21/3105;;H01L21/225;;H01L21/3065;;H01L21/324;;H01L29/66;;H01L29/04;;H01L29/15;;H01L29/205;;H01L29/78;;H01L29/06;;H01L29/165;;H01L29/267;;H01L29/45;;H01L21/822;;H01L29/775;;H01L29/778;;H01L21/8238;;H01L29/786;;B82Y10/00;;H01L21/308;;H01L29/423;;H01L27/092;;H01L21/8234;;H01L29/417;;H01L29/08</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H01L29/205;;H04N13/332;;H04N13/111;;H01L29/66742;;G06K2009/00738;;H01L27/092;;H01L29/45;;H01L21/823814;;H01L29/6656;;H01L21/823487;;H01L29/7813;;H01L29/7827;;H01L21/823412;;G06K9/00711;;H01L29/1037;;H01L21/823475;;H01L29/66666;;H01L29/66712;;H01L21/324;;G06F3/0482;;H01L29/42392;;H01L21/2258;;H01L29/0847;;H01L21/3083;;H01L29/7788;;H01L21/823842;;H01L29/1054;;H01L29/66431;;H01L29/0638;;G05B2219/32014;;H01L21/823864;;G06K2209/19;;H04N5/23238;;H01L21/82345;;H01L29/04;;H01L29/66469;;H01L21/823437;;H01L21/02532;;H01L21/823885;;H01L29/42376;;H01L29/0649;;H01L29/66522;;H01L29/152;;H01L21/8221;;H01L21/02636;;H01L29/41741;;H01L29/165;;G05B23/0216;;H04N7/181;;H04N13/398;;H01L29/1095;;H01L29/0676;;H01L29/78642;;H01L21/2252;;G06T19/006;;H01L21/823418;;H01L29/66439;;H01L29/0653;;H01L21/823871;;H01L21/823807;;H01L29/66462;;H01L27/088;;G06F3/04817;;H01L29/1083;;H01L29/7848;;H01L21/3065;;H01L21/8234;;H04N13/366;;H01L21/31053;;H04N5/247;;H01L29/775;;H01L29/267</t>
+          <t>H01L21/823418;;H01L21/823842;;H01L29/42376;;H04N5/23238;;H01L29/66666;;H01L29/0649;;H01L21/02636;;H01L21/823475;;H01L21/823807;;H01L21/2258;;H04N7/181;;H01L21/3065;;G06F3/0482;;H01L29/1083;;H01L29/152;;H01L21/324;;H01L29/66522;;G05B2219/32014;;H01L29/1054;;H01L29/66712;;H04N13/332;;H01L29/66462;;H01L21/8221;;H01L29/0653;;H01L29/04;;H01L21/823437;;H01L27/088;;H01L29/0847;;H01L21/823412;;H01L29/205;;H01L29/165;;H01L29/267;;H01L21/3083;;H04N13/398;;H01L21/823871;;G05B23/0216;;G06F3/04817;;H01L29/66742;;H01L21/31053;;H01L29/1095;;H01L29/45;;H01L29/775;;G06K9/00711;;H01L29/7827;;H01L21/823814;;H01L21/823864;;G06K2009/00738;;H01L29/41741;;H01L29/7848;;H01L21/823487;;H01L29/66439;;H01L21/82345;;B82Y10/00;;H01L29/1037;;H04N5/247;;H01L29/42392;;H04N13/111;;H01L29/78642;;H01L29/66469;;H01L21/2252;;G06K2209/19;;H01L21/02532;;G06T19/006;;H01L21/823885;;H01L27/092;;H01L21/8234;;H01L29/7788;;H01L29/66431;;H01L29/7813;;H01L29/0638;;H01L29/0676;;H01L29/6656;;H04N13/366</t>
         </is>
       </c>
       <c r="R18" t="inlineStr"/>
@@ -2469,12 +2469,12 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>G05B23/02;;H04N5/232;;G06T19/00;;H04N7/18</t>
+          <t>H04N5/232;;H04N7/18;;G06T19/00;;G05B23/02</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H01L29/205;;H04N13/332;;H04N13/111;;H01L29/66742;;G06K2009/00738;;H01L27/092;;H01L29/45;;H01L21/823814;;H01L29/6656;;H01L21/823487;;H01L29/7813;;H01L29/7827;;H01L21/823412;;G06K9/00711;;H01L29/1037;;H01L21/823475;;H01L29/66666;;H01L29/66712;;H01L21/324;;G06F3/0482;;H01L29/42392;;H01L21/2258;;H01L29/0847;;H01L21/3083;;H01L29/7788;;H01L21/823842;;H01L29/1054;;H01L29/66431;;H01L29/0638;;G05B2219/32014;;H01L21/823864;;G06K2209/19;;H04N5/23238;;H01L21/82345;;H01L29/04;;H01L29/66469;;H01L21/823437;;H01L21/02532;;H01L21/823885;;H01L29/42376;;H01L29/0649;;H01L29/66522;;H01L29/152;;H01L21/8221;;H01L21/02636;;H01L29/41741;;H01L29/165;;G05B23/0216;;H04N7/181;;H04N13/398;;H01L29/1095;;H01L29/0676;;H01L29/78642;;H01L21/2252;;G06T19/006;;H01L21/823418;;H01L29/66439;;H01L29/0653;;H01L21/823871;;H01L21/823807;;H01L29/66462;;H01L27/088;;G06F3/04817;;H01L29/1083;;H01L29/7848;;H01L21/3065;;H01L21/8234;;H04N13/366;;H01L21/31053;;H04N5/247;;H01L29/775;;H01L29/267</t>
+          <t>H01L21/823418;;H01L21/823842;;H01L29/42376;;H04N5/23238;;H01L29/66666;;H01L29/0649;;H01L21/02636;;H01L21/823475;;H01L21/823807;;H01L21/2258;;H04N7/181;;H01L21/3065;;G06F3/0482;;H01L29/1083;;H01L29/152;;H01L21/324;;H01L29/66522;;G05B2219/32014;;H01L29/1054;;H01L29/66712;;H04N13/332;;H01L29/66462;;H01L21/8221;;H01L29/0653;;H01L29/04;;H01L21/823437;;H01L27/088;;H01L29/0847;;H01L21/823412;;H01L29/205;;H01L29/165;;H01L29/267;;H01L21/3083;;H04N13/398;;H01L21/823871;;G05B23/0216;;G06F3/04817;;H01L29/66742;;H01L21/31053;;H01L29/1095;;H01L29/45;;H01L29/775;;G06K9/00711;;H01L29/7827;;H01L21/823814;;H01L21/823864;;G06K2009/00738;;H01L29/41741;;H01L29/7848;;H01L21/823487;;H01L29/66439;;H01L21/82345;;B82Y10/00;;H01L29/1037;;H04N5/247;;H01L29/42392;;H04N13/111;;H01L29/78642;;H01L29/66469;;H01L21/2252;;G06K2209/19;;H01L21/02532;;G06T19/006;;H01L21/823885;;H01L27/092;;H01L21/8234;;H01L29/7788;;H01L29/66431;;H01L29/7813;;H01L29/0638;;H01L29/0676;;H01L29/6656;;H04N13/366</t>
         </is>
       </c>
       <c r="R19" t="inlineStr"/>
@@ -2538,12 +2538,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>UNIV SOUTHEAST;;东南大学</t>
+          <t>东南大学;;UNIV SOUTHEAST</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>幸研;;ZHANG JIN;;张晋;;LI YUAN;;ZHANG HUI;;XING YAN;;李源;;张辉</t>
+          <t>ZHANG HUI;;XING YAN;;张辉;;李源;;ZHANG JIN;;LI YUAN;;张晋;;幸研</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -2557,7 +2557,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -2576,7 +2576,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>B81C1/00;;G06F17/50</t>
+          <t>G06F17/50;;B81C1/00</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -2650,7 +2650,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>ZHANG XIANGCHENG;;WU JIAN</t>
+          <t>WU JIAN;;ZHANG XIANGCHENG</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -2683,12 +2683,12 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>B81C1/00;;A61B5/00</t>
+          <t>A61B5/00;;B81C1/00</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>A61B2562/12;;A61B5/6843;;A61B5/6813;;B81C1/00349;;B81C1/00261</t>
+          <t>A61B5/6843;;A61B5/6813;;A61B2562/12;;B81C1/00261;;B81C1/00349</t>
         </is>
       </c>
       <c r="R21" t="inlineStr"/>
@@ -2732,12 +2732,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>141-171-860-159-994;;193-740-224-195-322;;010-188-554-840-088;;148-931-852-354-400</t>
+          <t>193-740-224-195-322;;010-188-554-840-088;;141-171-860-159-994;;148-931-852-354-400</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://lens.org/148-931-852-354-400;;https://lens.org/010-188-554-840-088;;https://lens.org/141-171-860-159-994;;https://lens.org/193-740-224-195-322</t>
+          <t>https://lens.org/193-740-224-195-322;;https://lens.org/141-171-860-159-994;;https://lens.org/148-931-852-354-400;;https://lens.org/010-188-554-840-088</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2757,7 +2757,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>ZHONG HAO;;李伟;;GU DE'EN;;LI DONGYANG;;李东阳;;陈奕丞;;钟豪;;LI WEI;;顾德恩;;蒋亚东;;JIANG YADONG;;CHEN YICHENG;;GU DEEN</t>
+          <t>LI DONGYANG;;李伟;;钟豪;;JIANG YADONG;;李东阳;;顾德恩;;蒋亚东;;GU DEEN;;GU DE'EN;;CHEN YICHENG;;陈奕丞;;LI WEI;;ZHONG HAO</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>CN;;US</t>
+          <t>US;;CN</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>B;;A1;;B2;;A</t>
+          <t>A1;;A;;B;;B2</t>
         </is>
       </c>
       <c r="M22" t="n">
@@ -2790,12 +2790,12 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>B82Y30/00;;G06N3/063;;G02B6/122;;G02B6/132;;B82Y20/00;;H01L45/00;;G02B6/12</t>
+          <t>G02B6/12;;G02B6/132;;B82Y20/00;;G02B6/122;;B82Y30/00;;G06N3/063;;H01L45/00</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>H01L45/145;;H01L45/16;;H01L45/1253;;H01L45/1675;;B82Y30/00;;G02B6/132;;H01L45/1213;;G02B2006/12035;;H01L45/08;;B82Y20/00;;G02B6/1226;;H01L45/1625;;H01L45/1233;;G06N3/0635</t>
+          <t>H01L45/1213;;H01L45/1675;;G02B6/132;;H01L45/1253;;H01L45/1625;;B82Y20/00;;H01L45/08;;G06N3/0635;;G02B2006/12035;;B82Y30/00;;H01L45/1233;;H01L45/16;;G02B6/1226;;H01L45/145</t>
         </is>
       </c>
       <c r="R22" t="inlineStr"/>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>CN 108110137 B;;US 10475996 B2;;CN 108110137 A;;US 2018/0277756 A1</t>
+          <t>US 10475996 B2;;CN 108110137 A;;CN 108110137 B;;US 2018/0277756 A1</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>125-447-081-634-252;;166-421-246-410-161</t>
+          <t>166-421-246-410-161;;125-447-081-634-252</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>CN;;US</t>
+          <t>US;;CN</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2897,12 +2897,12 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>G11C11/54;;H01L45/00;;G06N3/06</t>
+          <t>G11C11/54;;G06N3/06;;H01L45/00</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G11C11/54;;H01L45/16;;G06N3/049;;G11C13/0019;;G11C2213/15;;H01L45/1253;;C04B35/5611;;G06N3/061;;C04B2235/79;;H01L45/149;;G11C2213/35;;H01L45/04;;G06N3/0635</t>
+          <t>C04B2235/79;;C04B35/5611;;G11C11/54;;H01L45/04;;G11C13/0019;;G06N3/061;;H01L45/1253;;G06N3/0635;;B82Y10/00;;H01L45/149;;G11C2213/15;;G06N3/049;;H01L45/16;;G11C2213/35</t>
         </is>
       </c>
       <c r="R23" t="inlineStr"/>
@@ -2929,12 +2929,12 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>US 2020/0160155 A1;;CN 109524545 A</t>
+          <t>CN 109524545 A;;US 2020/0160155 A1</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>US 201916396703 A;;CN 201811367908 A</t>
+          <t>CN 201811367908 A;;US 201916396703 A</t>
         </is>
       </c>
     </row>
@@ -2971,7 +2971,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>ZHAO LINYUAN;;XU JUN;;LIU YU;;LIANG RENRONG</t>
+          <t>ZHAO LINYUAN;;LIU YU;;XU JUN;;LIANG RENRONG</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -3004,12 +3004,12 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>H01L29/78;;B82Y40/00;;H01L21/336;;H01L29/06</t>
+          <t>H01L29/06;;H01L29/78;;B82Y40/00;;H01L21/336</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>H01L29/66484;;H01L29/7831;;B82Y40/00;;H01L29/0669</t>
+          <t>H01L29/7831;;B82Y40/00;;H01L29/0669;;H01L29/66484</t>
         </is>
       </c>
       <c r="R24" t="inlineStr"/>
@@ -3078,7 +3078,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>WU SHUO;;GAO JUNXIONG;;CHENG RUNHONG;;CHEN CHANGSHENG;;WANG YUNBO;;ZHU YU;;ZHOU WENLI</t>
+          <t>WU SHUO;;CHENG RUNHONG;;WANG YUNBO;;ZHU YU;;GAO JUNXIONG;;ZHOU WENLI;;CHEN CHANGSHENG</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -3111,12 +3111,12 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>G06N3/00;;B82Y15/00;;B82Y30/00;;G06N3/06</t>
+          <t>B82Y30/00;;B82Y15/00;;G06N3/06;;G06N3/00</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>B82Y15/00;;B82Y30/00;;G06N3/06;;G06N3/002</t>
+          <t>B82Y30/00;;G06N3/002;;B82Y15/00;;G06N3/06</t>
         </is>
       </c>
       <c r="R25" t="inlineStr"/>
@@ -3185,7 +3185,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>YU XING;;JIANG WEINAN</t>
+          <t>JIANG WEINAN;;YU XING</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -3218,12 +3218,12 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>B81B7/02;;B81B7/00;;B81C1/00;;H01L27/146</t>
+          <t>B81B7/00;;H01L27/146;;B81C1/00;;B81B7/02</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>H01L27/14634;;B81B7/02;;H01L27/1469;;B81B7/0032;;B81C1/00222;;B81C1/00261</t>
+          <t>H01L27/1469;;H01L27/14634;;B81B7/0032;;B81C1/00222;;B81B7/02;;B81C1/00261</t>
         </is>
       </c>
       <c r="R26" t="inlineStr"/>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>WANG WEI;;YU DAN;;WANG ZEHONG;;CHEN YIXIANG</t>
+          <t>CHEN YIXIANG;;WANG WEI;;YU DAN;;WANG ZEHONG</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -3325,12 +3325,12 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>D01D5/00;;C23C18/44;;B82Y30/00;;B82Y40/00;;B82Y15/00;;G01L9/12;;G01L1/14</t>
+          <t>D01D5/00;;C23C18/44;;G01L9/12;;G01L1/14;;B82Y15/00;;B82Y40/00;;B82Y30/00</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>G01L1/142;;D01D5/0069;;C23C18/44;;B82Y30/00;;B82Y40/00;;B82Y15/00;;D01D5/003;;G01L9/12</t>
+          <t>D01D5/0069;;C23C18/44;;D01D5/003;;G01L9/12;;G01L1/142;;B82Y15/00;;B82Y40/00;;B82Y30/00</t>
         </is>
       </c>
       <c r="R27" t="inlineStr"/>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>KORTEN TILL;;MANSSON ALF;;REUTHER CORDULA;;DIEZ STEFAN;;TAKATSUKI HIDEYO</t>
+          <t>DIEZ STEFAN;;REUTHER CORDULA;;MANSSON ALF;;TAKATSUKI HIDEYO;;KORTEN TILL</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -3432,12 +3432,12 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N3/00</t>
+          <t>G06N3/00;;B82Y10/00</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>B82Y10/00;;B82Y40/00</t>
+          <t>B82Y40/00;;B82Y10/00</t>
         </is>
       </c>
       <c r="R28" t="inlineStr"/>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>CHEN CHANG;;FAUVART MAARTEN;;COVENS KRIS;;CAI QING;;STAKENBORG TIM</t>
+          <t>FAUVART MAARTEN;;STAKENBORG TIM;;CAI QING;;COVENS KRIS;;CHEN CHANG</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>US;;KR;;EP</t>
+          <t>KR;;EP;;US</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -3543,12 +3543,12 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G11C11/54;;C12P19/34;;G06N3/12;;G11C13/00;;C12M3/06;;G11C11/00</t>
+          <t>G11C11/54;;G06N3/12;;G11C13/00;;C12M3/06;;G11C11/00;;B82Y10/00;;C12P19/34</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G11C11/54;;C12N15/10;;G11C13/0016;;G11C13/0019;;G16B30/00;;G06N3/123;;G11C11/00</t>
+          <t>G11C11/54;;G06N3/123;;G11C13/0019;;G11C13/0016;;G11C11/00;;B82Y10/00;;G16B30/00;;C12N15/10</t>
         </is>
       </c>
       <c r="R29" t="inlineStr"/>
@@ -3575,12 +3575,12 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>US 2019/0205768 A1;;KR 20190082143 A;;EP 3506135 A1</t>
+          <t>KR 20190082143 A;;US 2019/0205768 A1;;EP 3506135 A1</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>EP 17211093 A;;US 201816224496 A;;KR 20180172813 A</t>
+          <t>KR 20180172813 A;;US 201816224496 A;;EP 17211093 A</t>
         </is>
       </c>
     </row>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://lens.org/152-689-049-154-09X;;https://lens.org/062-711-544-788-511</t>
+          <t>https://lens.org/062-711-544-788-511;;https://lens.org/152-689-049-154-09X</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -3612,12 +3612,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT;;UNIV LEUVEN KATH;;IMEC VZW</t>
+          <t>KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT;;IMEC VZW;;UNIV LEUVEN KATH</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>COSTA JOSE DIOGO;;ADELMANN HANNS CHRISTOPH;;CIUBOTARU FLORIN</t>
+          <t>CIUBOTARU FLORIN;;ADELMANN HANNS CHRISTOPH;;COSTA JOSE DIOGO</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -3654,12 +3654,12 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06E1/04;;H01L29/66;;G06N3/08;;G02F1/01</t>
+          <t>G02F1/01;;G06N3/08;;B82Y10/00;;G06E1/04;;H01L29/66</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>G06N3/084;;G06E1/045;;H01L41/00;;B82Y20/00;;G06N3/0635</t>
+          <t>H01L41/00;;B82Y20/00;;G06E1/045;;G06N3/0635;;G06N3/084</t>
         </is>
       </c>
       <c r="R30" t="inlineStr"/>
@@ -3724,7 +3724,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>CONSTANCIAS CHRISTOPHE;;LANDIS STÉPHAN</t>
+          <t>LANDIS STÉPHAN;;CONSTANCIAS CHRISTOPHE</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -3762,7 +3762,7 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N5/003;;G03F7/0002;;B82Y40/00</t>
+          <t>G06N5/003;;B82Y10/00;;G03F7/0002;;B82Y40/00</t>
         </is>
       </c>
       <c r="R31" t="inlineStr"/>
@@ -3806,17 +3806,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>047-351-574-945-08X;;152-095-732-259-63X;;042-652-460-098-334</t>
+          <t>042-652-460-098-334;;152-095-732-259-63X;;047-351-574-945-08X</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://lens.org/152-095-732-259-63X;;https://lens.org/047-351-574-945-08X;;https://lens.org/042-652-460-098-334</t>
+          <t>https://lens.org/152-095-732-259-63X;;https://lens.org/042-652-460-098-334;;https://lens.org/047-351-574-945-08X</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LITHOGRAPHY MOULD FOR NANOMETRIC IMPRESSION AND METHODS FOR MANUFACTURING AND USING SUCH A MOULD;;MOULE DE LITHOGRAPHIE POUR IMPRESSION NANOMETRIQUE ET PROCEDES DE FABRICATION ET D'UTILISATION D'UN TEL MOULE</t>
+          <t>MOULE DE LITHOGRAPHIE POUR IMPRESSION NANOMETRIQUE ET PROCEDES DE FABRICATION ET D'UTILISATION D'UN TEL MOULE;;LITHOGRAPHY MOULD FOR NANOMETRIC IMPRESSION AND METHODS FOR MANUFACTURING AND USING SUCH A MOULD</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -3831,7 +3831,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>LANDIS STEPHAN;;CONSTANCIAS CHRISTOPHE;;LANDIS STÉPHAN</t>
+          <t>LANDIS STEPHAN;;LANDIS STÉPHAN;;CONSTANCIAS CHRISTOPHE</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -3840,7 +3840,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>WO;;FR</t>
+          <t>FR;;WO</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3864,12 +3864,12 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>B82Y10/00;;B82Y40/00;;G03F7/00;;H01L21/02;;G03F1/00</t>
+          <t>H01L21/02;;G03F7/00;;G03F1/00;;B82Y10/00;;B82Y40/00</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N5/003;;G03F7/0002;;B82Y40/00</t>
+          <t>G06N5/003;;B82Y10/00;;G03F7/0002;;B82Y40/00</t>
         </is>
       </c>
       <c r="R32" t="inlineStr"/>
@@ -3896,12 +3896,12 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>WO 2017/046287 A1;;FR 3041118 A1;;FR 3041118 B1</t>
+          <t>FR 3041118 B1;;FR 3041118 A1;;WO 2017/046287 A1</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>EP 2016071907 W;;FR 1558623 A</t>
+          <t>FR 1558623 A;;EP 2016071907 W</t>
         </is>
       </c>
     </row>
@@ -3913,17 +3913,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>184-931-411-813-726;;107-040-164-637-857;;195-278-498-675-732;;192-339-171-675-025;;072-287-191-089-928</t>
+          <t>072-287-191-089-928;;107-040-164-637-857;;195-278-498-675-732;;192-339-171-675-025;;184-931-411-813-726</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://lens.org/107-040-164-637-857;;https://lens.org/195-278-498-675-732;;https://lens.org/192-339-171-675-025;;https://lens.org/072-287-191-089-928;;https://lens.org/184-931-411-813-726</t>
+          <t>https://lens.org/107-040-164-637-857;;https://lens.org/072-287-191-089-928;;https://lens.org/184-931-411-813-726;;https://lens.org/192-339-171-675-025;;https://lens.org/195-278-498-675-732</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>ACCESSING DATA STORAGE PROVIDED USING DOUBLE-STRANDED NUCLEIC ACID MOLECULES;;Accessing data storage provided using double-stranded nucleic acid molecules</t>
+          <t>Accessing data storage provided using double-stranded nucleic acid molecules;;ACCESSING DATA STORAGE PROVIDED USING DOUBLE-STRANDED NUCLEIC ACID MOLECULES</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -3938,7 +3938,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>HAYES MATTHEW JAMES;;SANCHES-KUIPER RAQUEL MARIA;;MATTHEW JAMES HAYES;;RAQUEL MARIA SANCHES-KUIPER</t>
+          <t>RAQUEL MARIA SANCHES-KUIPER;;SANCHES-KUIPER RAQUEL MARIA;;MATTHEW JAMES HAYES;;HAYES MATTHEW JAMES</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -3947,17 +3947,17 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>WO;;TW;;GB</t>
+          <t>GB;;WO;;TW</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Patent Application;;Patent of Addition;;Granted Patent</t>
+          <t>Patent of Addition;;Patent Application;;Granted Patent</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>B;;D0;;A1;;A</t>
+          <t>B;;A1;;A;;D0</t>
         </is>
       </c>
       <c r="M33" t="n">
@@ -3971,12 +3971,12 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06F9/312;;G11C11/54;;G16H10/40;;B01L7/00;;C12Q1/68;;G16B50/20;;G11C13/00;;G06N3/12</t>
+          <t>G16B50/20;;G11C11/54;;G06N3/12;;G11C13/00;;G06F9/312;;B01L7/00;;G16H10/40;;C12Q1/68;;B82Y10/00</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G11C11/54;;G11C13/0019;;C12Q1/68;;G06N3/002;;B01L7/52;;G16B50/20;;G06N3/123;;G06N3/126</t>
+          <t>G16B50/20;;G11C11/54;;G06N3/123;;G11C13/0019;;B01L7/52;;C12Q1/68;;B82Y10/00;;G06N3/002;;G06N3/126</t>
         </is>
       </c>
       <c r="R33" t="inlineStr"/>
@@ -4003,12 +4003,12 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>WO 2020/021221 A1;;GB 2576304 B;;GB 2576304 A;;TW 202008381 A;;GB 201812169 D0</t>
+          <t>GB 201812169 D0;;GB 2576304 B;;TW 202008381 A;;WO 2020/021221 A1;;GB 2576304 A</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>TW 108119665 A;;GB 201812169 A;;GB 2019051462 W</t>
+          <t>GB 201812169 A;;TW 108119665 A;;GB 2019051462 W</t>
         </is>
       </c>
     </row>
@@ -4025,7 +4025,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://lens.org/181-987-753-698-602;;https://lens.org/086-134-305-093-935;;https://lens.org/151-320-079-612-50X</t>
+          <t>https://lens.org/086-134-305-093-935;;https://lens.org/181-987-753-698-602;;https://lens.org/151-320-079-612-50X</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -4045,7 +4045,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>HAYES MATTHEW JAMES;;SANCHES-KUIPER RAQUEL MARIA</t>
+          <t>SANCHES-KUIPER RAQUEL MARIA;;HAYES MATTHEW JAMES</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
@@ -4054,12 +4054,12 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>EP;;CA;;SG</t>
+          <t>EP;;SG;;CA</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Patent Application;;Unknown</t>
+          <t>Unknown;;Patent Application</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G11C11/54;;G11C13/0019;;C12Q1/68;;G06N3/002;;B01L7/52;;G16B50/20;;G06N3/123;;G06N3/126</t>
+          <t>G16B50/20;;G11C11/54;;G06N3/123;;G11C13/0019;;B01L7/52;;C12Q1/68;;B82Y10/00;;G06N3/002;;G06N3/126</t>
         </is>
       </c>
       <c r="R34" t="inlineStr"/>
@@ -4110,12 +4110,12 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>EP 3827435 A1;;CA 3105954 A1;;SG 11202100073U A</t>
+          <t>SG 11202100073U A;;CA 3105954 A1;;EP 3827435 A1</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>EP 19730444 A;;SG 11202100073U A;;CA 3105954 A</t>
+          <t>SG 11202100073U A;;CA 3105954 A;;EP 19730444 A</t>
         </is>
       </c>
     </row>
@@ -4127,17 +4127,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>118-050-348-728-882;;170-207-950-505-313;;140-881-661-083-974;;126-537-800-488-374;;032-908-699-779-813;;138-303-545-095-517;;177-579-347-292-60X;;092-900-202-784-87X</t>
+          <t>170-207-950-505-313;;118-050-348-728-882;;177-579-347-292-60X;;126-537-800-488-374;;138-303-545-095-517;;032-908-699-779-813;;140-881-661-083-974;;092-900-202-784-87X</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://lens.org/138-303-545-095-517;;https://lens.org/032-908-699-779-813;;https://lens.org/140-881-661-083-974;;https://lens.org/177-579-347-292-60X;;https://lens.org/092-900-202-784-87X;;https://lens.org/118-050-348-728-882;;https://lens.org/170-207-950-505-313;;https://lens.org/126-537-800-488-374</t>
+          <t>https://lens.org/126-537-800-488-374;;https://lens.org/032-908-699-779-813;;https://lens.org/140-881-661-083-974;;https://lens.org/170-207-950-505-313;;https://lens.org/118-050-348-728-882;;https://lens.org/138-303-545-095-517;;https://lens.org/092-900-202-784-87X;;https://lens.org/177-579-347-292-60X</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Architecture for coupling quantum bits using localised resonators;;Architecture for coupling quantum bits using localized resonators;;Architektur für ein Koppeln von Quantenbits unter Verwendung von lokalisierten Resonatoren;;量子ビットを結合するアーキテクチャのための超伝導マイクロ波共振器空胴及びそれを構成する方法;;用于使用局部谐振器来耦合量子位的架构</t>
+          <t>用于使用局部谐振器来耦合量子位的架构;;Architecture for coupling quantum bits using localised resonators;;Architektur für ein Koppeln von Quantenbits unter Verwendung von lokalisierten Resonatoren;;量子ビットを結合するアーキテクチャのための超伝導マイクロ波共振器空胴及びそれを構成する方法;;Architecture for coupling quantum bits using localized resonators</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -4147,12 +4147,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>IBM;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;国际商业机器公司</t>
+          <t>インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM;;国际商业机器公司</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>JAY GAMBETTA;;ステファン、マティアス;;DOUGLAS TEMPLETON MCCLURE III;;M·斯蒂芬;;ダイアル、オリバー;;D·T·麦克鲁尔三世;;ガンベッタ、ジェイ;;GAMBETTA JAY;;STEFFEN MATTHIAS;;MCCLURE III DOUGLAS TEMPLETON;;マクルーア ザ サード、ダグラス、テンプルトン;;O·蒂亚尔;;MATTHIAS STEFFEN;;J·加姆贝塔;;OLIVER DIAL;;DIAL OLIVER</t>
+          <t>DIAL OLIVER;;GAMBETTA JAY;;O·蒂亚尔;;D·T·麦克鲁尔三世;;M·斯蒂芬;;OLIVER DIAL;;ステファン、マティアス;;MATTHIAS STEFFEN;;DOUGLAS TEMPLETON MCCLURE III;;JAY GAMBETTA;;ダイアル、オリバー;;ガンベッタ、ジェイ;;STEFFEN MATTHIAS;;J·加姆贝塔;;MCCLURE III DOUGLAS TEMPLETON;;マクルーア ザ サード、ダグラス、テンプルトン</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>DE;;CN;;JP;;GB</t>
+          <t>GB;;JP;;DE;;CN</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -4171,7 +4171,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>T5;;B2;;A;;B;;D0</t>
+          <t>T5;;D0;;A;;B2;;B</t>
         </is>
       </c>
       <c r="M35" t="n">
@@ -4185,12 +4185,12 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H01P1/205;;G06N10/00;;H03K19/195;;H01L39/24;;G06N99/00;;H01L39/02;;H01L39/14;;G06N20/00;;H01L39/00;;H01P7/00</t>
+          <t>H01P7/00;;H01L39/02;;H01L39/24;;G06N99/00;;H01L39/00;;H01L39/14;;B82Y10/00;;G06N10/00;;H01P1/205;;G06N20/00;;H03K19/195</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H01L39/025;;H01L39/2493;;H01P1/205;;G06N10/00;;H01L39/24;;H05K999/99;;H01L39/14;;G06N20/00;;H01P7/00</t>
+          <t>H01P7/00;;H01L39/2493;;H01L39/24;;B82Y10/00;;G06N10/00;;H01P1/205;;H01L39/025;;H01L39/14;;G06N20/00;;H05K999/99</t>
         </is>
       </c>
       <c r="R35" t="inlineStr"/>
@@ -4217,12 +4217,12 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>GB 2556251 A;;JP 6644091 B2;;CN 107851876 B;;DE 112016001721 T5;;JP 2018530931 A;;GB 2556251 B;;GB 201800479 D0;;CN 107851876 A</t>
+          <t>CN 107851876 A;;DE 112016001721 T5;;CN 107851876 B;;GB 201800479 D0;;JP 2018530931 A;;GB 2556251 A;;JP 6644091 B2;;GB 2556251 B</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>GB 201800479 A;;CN 201680031319 A;;DE 112016001721 T;;JP 2017561380 A</t>
+          <t>DE 112016001721 T;;GB 201800479 A;;JP 2017561380 A;;CN 201680031319 A</t>
         </is>
       </c>
     </row>
@@ -4234,7 +4234,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>071-230-352-271-170;;059-870-669-564-271</t>
+          <t>059-870-669-564-271;;071-230-352-271-170</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4259,7 +4259,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>KHOMAMI ABADI MOJTABA;;GAHROOSI AMIR BAHADOR;;MASILAMANI ASHOK PRABHU;;GOULD MATTHEW V</t>
+          <t>KHOMAMI ABADI MOJTABA;;GOULD MATTHEW V;;MASILAMANI ASHOK PRABHU;;GAHROOSI AMIR BAHADOR</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -4297,7 +4297,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>G01N35/00722;;B82Y15/00;;G01N33/0031;;G01N2035/00891;;G01N33/0034</t>
+          <t>G01N35/00722;;G01N2035/00891;;B82Y15/00;;G01N33/0031;;G01N33/0034</t>
         </is>
       </c>
       <c r="R36" t="inlineStr"/>
@@ -4324,12 +4324,12 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>CA 3089818 A1;;EP 3746800 A1</t>
+          <t>EP 3746800 A1;;CA 3089818 A1</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>CA 3089818 A;;EP 19743153 A</t>
+          <t>EP 19743153 A;;CA 3089818 A</t>
         </is>
       </c>
     </row>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>SUCHOWSKI HAIM;;MREJEN MICHAEL;;WOLF LIOR;;NAGLER ACHIYA;;MALKIEL ITZIK;;ARIELI URI</t>
+          <t>SUCHOWSKI HAIM;;MALKIEL ITZIK;;MREJEN MICHAEL;;ARIELI URI;;NAGLER ACHIYA;;WOLF LIOR</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -4403,12 +4403,12 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>G01N21/21;;G01N21/25;;G06N3/04;;B82Y40/00</t>
+          <t>G06N3/04;;B82Y40/00;;G01N21/25;;G01N21/21</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>G06N3/0481;;G01N2021/258;;G06N3/04;;B82Y40/00;;G01N21/21;;G01B2210/56;;G06N3/08;;G01N21/25;;G06N3/126</t>
+          <t>G01N2021/258;;G06N3/08;;G01B2210/56;;G06N3/04;;G06N3/0481;;B82Y40/00;;G01N21/25;;G06N3/126;;G01N21/21</t>
         </is>
       </c>
       <c r="R37" t="inlineStr"/>
@@ -4457,7 +4457,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://lens.org/032-075-199-033-544;;https://lens.org/185-408-668-875-404;;https://lens.org/073-802-025-703-259</t>
+          <t>https://lens.org/185-408-668-875-404;;https://lens.org/073-802-025-703-259;;https://lens.org/032-075-199-033-544</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -4490,7 +4490,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>CN;;US;;JP</t>
+          <t>US;;JP;;CN</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -4514,12 +4514,12 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>H01L21/304;;H01L21/67;;G01B21/30;;G01Q10/06;;G01Q60/38;;H01L21/02;;B82Y35/00</t>
+          <t>H01L21/02;;B82Y35/00;;G01B21/30;;H01L21/67;;G01Q10/06;;H01L21/304;;G01Q60/38</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>H01L21/67046;;H01L21/67017;;G01B21/30;;G01Q60/38;;H01L21/67051;;G01Q30/04;;H01L21/02041;;H01L21/67253;;G01Q10/065;;B82Y35/00</t>
+          <t>B82Y35/00;;H01L21/67051;;H01L21/02041;;G01B21/30;;H01L21/67017;;H01L21/67046;;G01Q30/04;;G01Q60/38;;H01L21/67253;;G01Q10/065</t>
         </is>
       </c>
       <c r="R38" t="inlineStr"/>
@@ -4546,12 +4546,12 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>CN 111029243 A;;US 2020/0116480 A1;;JP 2020061469 A</t>
+          <t>JP 2020061469 A;;US 2020/0116480 A1;;CN 111029243 A</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>CN 201910953017 A;;JP 2018191930 A;;US 201916596051 A</t>
+          <t>CN 201910953017 A;;US 201916596051 A;;JP 2018191930 A</t>
         </is>
       </c>
     </row>
@@ -4573,7 +4573,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>電子回路、ニューラルネットワーク及びニューラルネットワークの学習方法;;ELECTRONIC CIRCUIT, NEURAL NETWORK, AND NEURAL NETWORK LEARNING METHOD</t>
+          <t>ELECTRONIC CIRCUIT, NEURAL NETWORK, AND NEURAL NETWORK LEARNING METHOD;;電子回路、ニューラルネットワーク及びニューラルネットワークの学習方法</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -4583,7 +4583,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>株式会社日立製作所;;HITACHI LTD</t>
+          <t>HITACHI LTD;;株式会社日立製作所</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -4601,7 +4601,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>JP;;US</t>
+          <t>US;;JP</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -4625,12 +4625,12 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;G06N3/063;;H01L29/66;;G06G7/60;;G06N3/08;;G06N99/00;;H01L29/06</t>
+          <t>H01L29/06;;G06N99/00;;G06N3/08;;G06G7/60;;B82Y10/00;;G06N10/00;;G06N3/063;;H01L29/66</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H01L29/205;;H01L29/0665;;H01L29/66977;;G06N10/00;;G06N3/08</t>
+          <t>H01L29/205;;H01L29/66977;;G06N3/08;;H01L29/0665;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="R39" t="inlineStr"/>
@@ -4694,12 +4694,12 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>UNIV SOGANG RES FOUNDATION;;서강대학교산학협력단</t>
+          <t>서강대학교산학협력단;;UNIV SOGANG RES FOUNDATION</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>최정우;;정용호;;CHUNG YONG HO;;CHOI JEONG WOO</t>
+          <t>CHOI JEONG WOO;;CHUNG YONG HO;;최정우;;정용호</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -4718,7 +4718,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>B1;;A</t>
+          <t>A;;B1</t>
         </is>
       </c>
       <c r="M40" t="n">
@@ -4732,12 +4732,12 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H01L27/28;;H01L51/00</t>
+          <t>H01L51/00;;B82Y10/00;;H01L27/28</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H01L27/28;;H01L51/0093;;G11C13/0019</t>
+          <t>H01L51/0093;;G11C13/0019;;B82Y10/00;;H01L27/28</t>
         </is>
       </c>
       <c r="R40" t="inlineStr"/>
@@ -4806,7 +4806,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>SOHN IL KWON;;HEO JUN</t>
+          <t>HEO JUN;;SOHN IL KWON</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -4843,12 +4843,12 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N5/00;;H03M13/11;;G06F17/10;;G06N10/00;;H03M13/29;;H03M13/00;;G06F17/16;;G06F16/901;;H04L9/08</t>
+          <t>G06F16/901;;H04L9/08;;G06N5/00;;H03M13/00;;H03M13/11;;B82Y10/00;;G06N10/00;;G06F17/16;;H03M13/29;;G06F17/10</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06F16/9024;;H03M13/1108;;H04L9/0852;;H03M13/11;;G06F17/10;;G06N10/00;;H03M13/29;;H03M13/615;;H03M13/00;;H03M13/1191;;H04B10/70;;H03M13/3933;;G06F17/16;;H03M13/616;;G06N5/003;;G06F11/10</t>
+          <t>G06F16/9024;;G06F11/10;;H03M13/616;;H03M13/1191;;H03M13/1108;;H03M13/00;;H03M13/11;;H04L9/0852;;H03M13/615;;B82Y10/00;;G06N10/00;;H04B10/70;;G06N5/003;;G06F17/16;;H03M13/29;;H03M13/3933;;G06F17/10</t>
         </is>
       </c>
       <c r="R41" t="inlineStr"/>
@@ -4875,7 +4875,7 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>US 2019/0199373 A1;;US 10911067 B2</t>
+          <t>US 10911067 B2;;US 2019/0199373 A1</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
@@ -4892,12 +4892,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>050-577-423-414-724;;124-032-226-677-448</t>
+          <t>124-032-226-677-448;;050-577-423-414-724</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://lens.org/050-577-423-414-724;;https://lens.org/124-032-226-677-448</t>
+          <t>https://lens.org/124-032-226-677-448;;https://lens.org/050-577-423-414-724</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -4917,7 +4917,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>SOHN IL KWON;;HEO JUN</t>
+          <t>HEO JUN;;SOHN IL KWON</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -4926,7 +4926,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>WO;;KR</t>
+          <t>KR;;WO</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -4950,12 +4950,12 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>H03M13/39;;H03M13/29;;H03M13/11;;H03M13/00;;H04B10/70;;G06N99/00;;G06F11/10</t>
+          <t>G06F11/10;;H03M13/00;;H03M13/11;;G06N99/00;;H03M13/39;;H03M13/29;;H04B10/70</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06F16/9024;;H03M13/1108;;H04L9/0852;;H03M13/11;;G06F17/10;;G06N10/00;;H03M13/29;;H03M13/615;;H03M13/00;;H03M13/1191;;H04B10/70;;H03M13/3933;;G06F17/16;;H03M13/616;;G06N5/003;;G06F11/10</t>
+          <t>G06F16/9024;;G06F11/10;;H03M13/616;;H03M13/1191;;H03M13/1108;;H03M13/00;;H03M13/11;;H04L9/0852;;H03M13/615;;B82Y10/00;;G06N10/00;;H04B10/70;;G06N5/003;;G06F17/16;;H03M13/29;;H03M13/3933;;G06F17/10</t>
         </is>
       </c>
       <c r="R42" t="inlineStr"/>
@@ -4982,7 +4982,7 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>WO 2017/217577 A1;;KR 101768066 B1</t>
+          <t>KR 101768066 B1;;WO 2017/217577 A1</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
@@ -5004,7 +5004,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://lens.org/105-431-024-371-108;;https://lens.org/168-901-778-708-781</t>
+          <t>https://lens.org/168-901-778-708-781;;https://lens.org/105-431-024-371-108</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -5024,7 +5024,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>윤태현;;HA KIEU MY;;KIM JIN BAE;;TRINH XUAN TUNG;;YOON TAE HYUN;;트린수안텅;;하키우;;김진배</t>
+          <t>HA KIEU MY;;윤태현;;TRINH XUAN TUNG;;트린수안텅;;YOON TAE HYUN;;하키우;;김진배;;KIM JIN BAE</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -5043,7 +5043,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>B1;;A</t>
+          <t>A;;B1</t>
         </is>
       </c>
       <c r="M43" t="n">
@@ -5106,17 +5106,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>007-424-307-118-008;;138-446-145-078-230;;108-664-458-321-884;;052-356-970-848-744</t>
+          <t>007-424-307-118-008;;052-356-970-848-744;;138-446-145-078-230;;108-664-458-321-884</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://lens.org/052-356-970-848-744;;https://lens.org/007-424-307-118-008;;https://lens.org/108-664-458-321-884;;https://lens.org/138-446-145-078-230</t>
+          <t>https://lens.org/138-446-145-078-230;;https://lens.org/007-424-307-118-008;;https://lens.org/052-356-970-848-744;;https://lens.org/108-664-458-321-884</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>QUANTUM MECHANICAL MACHINE VISION SYSTEM AND ARITHMETIC OPERATION METHOD BASED ON QUANTUM DOT;;Quantum mechanical machine vision system and arithmetic operation method based on quantum dot;;QUANTUM MECHANICAL MACHINE VISION SYSTEM BASED ON QUANTUM DOT AND ARITHMETIC OPERATION METHOD</t>
+          <t>QUANTUM MECHANICAL MACHINE VISION SYSTEM AND ARITHMETIC OPERATION METHOD BASED ON QUANTUM DOT;;QUANTUM MECHANICAL MACHINE VISION SYSTEM BASED ON QUANTUM DOT AND ARITHMETIC OPERATION METHOD;;Quantum mechanical machine vision system and arithmetic operation method based on quantum dot</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -5126,7 +5126,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>서울시립대학교 산학협력단;;UNIV SEOUL IND COOP FOUND</t>
+          <t>UNIV SEOUL IND COOP FOUND;;서울시립대학교 산학협력단</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -5144,17 +5144,17 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>US;;KR</t>
+          <t>KR;;US</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>A;;B2;;A1;;B1</t>
+          <t>A1;;B2;;A;;B1</t>
         </is>
       </c>
       <c r="M44" t="n">
@@ -5168,12 +5168,12 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;G06K9/62;;G06K9/66;;G06N99/00;;G06N20/00</t>
+          <t>G06K9/62;;G06N99/00;;B82Y10/00;;G06N10/00;;G06N20/00;;G06K9/66</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06K9/6262;;G06N10/00;;G06K9/6202;;G06K9/56;;G06K9/66;;G06N20/00</t>
+          <t>G06K9/6202;;G06K9/6262;;B82Y10/00;;G06N10/00;;G06K9/56;;G06N20/00;;G06K9/66</t>
         </is>
       </c>
       <c r="R44" t="inlineStr"/>
@@ -5200,7 +5200,7 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>KR 101945599 B1;;KR 20180067006 A;;US 10489718 B2;;US 2018/0165594 A1</t>
+          <t>KR 101945599 B1;;US 2018/0165594 A1;;KR 20180067006 A;;US 10489718 B2</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
@@ -5217,17 +5217,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>104-421-695-854-199;;023-101-928-686-458;;139-280-703-791-17X;;130-916-866-115-532</t>
+          <t>139-280-703-791-17X;;104-421-695-854-199;;130-916-866-115-532;;023-101-928-686-458</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://lens.org/139-280-703-791-17X;;https://lens.org/023-101-928-686-458;;https://lens.org/130-916-866-115-532;;https://lens.org/104-421-695-854-199</t>
+          <t>https://lens.org/104-421-695-854-199;;https://lens.org/130-916-866-115-532;;https://lens.org/139-280-703-791-17X;;https://lens.org/023-101-928-686-458</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Quantum mechanical machine vision system and arithmetic operation method based on orbital qubit;;QUANTUM MECHANICAL MACHINE VISION SYSTEM AND ARITHMETIC OPERATION METHOD BASED ON ORBITAL QUBIT;;QUANTUM MECHANICAL ARTIFICIAL VISION SYSTEM BASED ON ORBITAL QUBIT AND ARITHMETIC OPERATION METHOD</t>
+          <t>QUANTUM MECHANICAL MACHINE VISION SYSTEM AND ARITHMETIC OPERATION METHOD BASED ON ORBITAL QUBIT;;QUANTUM MECHANICAL ARTIFICIAL VISION SYSTEM BASED ON ORBITAL QUBIT AND ARITHMETIC OPERATION METHOD;;Quantum mechanical machine vision system and arithmetic operation method based on orbital qubit</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -5237,7 +5237,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>서울시립대학교 산학협력단;;UNIV SEOUL IND COOP FOUND</t>
+          <t>UNIV SEOUL IND COOP FOUND;;서울시립대학교 산학협력단</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -5255,17 +5255,17 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>US;;KR</t>
+          <t>KR;;US</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>A;;A1;;B2;;B1</t>
+          <t>A1;;B2;;A;;B1</t>
         </is>
       </c>
       <c r="M45" t="n">
@@ -5279,12 +5279,12 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06F17/11;;G06N10/00;;G06K9/62;;G06K9/66;;G06N99/00;;G06N20/00</t>
+          <t>G06K9/62;;G06N99/00;;G06F17/11;;B82Y10/00;;G06N10/00;;G06N20/00;;G06K9/66</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06F17/11;;H01L29/66977;;G06N10/00;;G06K9/6202;;G06K9/62;;G06K9/66;;G06N20/00</t>
+          <t>G06K9/6202;;H01L29/66977;;G06K9/62;;G06F17/11;;B82Y10/00;;G06N10/00;;G06N20/00;;G06K9/66</t>
         </is>
       </c>
       <c r="R45" t="inlineStr"/>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>KR 20180067007 A;;US 2018/0165595 A1;;KR 101951524 B1;;US 10482387 B2</t>
+          <t>US 10482387 B2;;KR 101951524 B1;;KR 20180067007 A;;US 2018/0165595 A1</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
@@ -5328,12 +5328,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>073-636-151-135-298;;003-096-429-312-17X;;036-490-481-425-561</t>
+          <t>003-096-429-312-17X;;036-490-481-425-561;;073-636-151-135-298</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://lens.org/003-096-429-312-17X;;https://lens.org/036-490-481-425-561;;https://lens.org/073-636-151-135-298</t>
+          <t>https://lens.org/036-490-481-425-561;;https://lens.org/003-096-429-312-17X;;https://lens.org/073-636-151-135-298</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>HEO KEUN;;CHOI YONG SOO;;LEE HYUNG-DONG;;CHOI YONG-SOO;;LEE HYUNG DONG</t>
+          <t>LEE HYUNG DONG;;CHOI YONG SOO;;CHOI YONG-SOO;;LEE HYUNG-DONG;;HEO KEUN</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -5366,7 +5366,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>US;;KR</t>
+          <t>KR;;US</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -5376,7 +5376,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>A1;;B2;;A</t>
+          <t>A1;;A;;B2</t>
         </is>
       </c>
       <c r="M46" t="n">
@@ -5390,12 +5390,12 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H03K19/177;;H01L51/05;;H01L51/00;;G06N3/063;;H01L27/28;;C01B32/158</t>
+          <t>H01L51/05;;C01B32/158;;H03K19/177;;B82Y10/00;;H01L27/28;;G06N3/063;;H01L51/00</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>B82Y10/00;;C01B2202/06;;H01L51/0048;;H01L51/0583;;C01B2202/02;;H03K19/17736;;G06N3/049;;Y10S977/742;;B82Y40/00;;G06N3/063;;H01L27/285;;C01B32/158;;G06N3/0635;;C01B2202/04</t>
+          <t>C01B2202/02;;C01B2202/06;;Y10S977/742;;C01B32/158;;G06N3/049;;H03K19/17736;;H01L51/0583;;G06N3/0635;;B82Y10/00;;B82Y40/00;;H01L27/285;;H01L51/0048;;C01B2202/04;;G06N3/063</t>
         </is>
       </c>
       <c r="R46" t="inlineStr"/>
@@ -5422,12 +5422,12 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>US 2018/0240846 A1;;US 10559626 B2;;KR 20180095977 A</t>
+          <t>KR 20180095977 A;;US 10559626 B2;;US 2018/0240846 A1</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>US 201715648342 A;;KR 20170022014 A</t>
+          <t>KR 20170022014 A;;US 201715648342 A</t>
         </is>
       </c>
     </row>
@@ -5464,7 +5464,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>SHIN HYUN DONG;;신현동;;파쿼 아마드;;FAROOQ AHMAD;;정영민;;JEONG YOUNG MIN</t>
+          <t>SHIN HYUN DONG;;FAROOQ AHMAD;;JEONG YOUNG MIN;;정영민;;파쿼 아마드;;신현동</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -5478,7 +5478,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -5502,7 +5502,7 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N20/00;;G06N10/00</t>
+          <t>G06N20/00;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="R47" t="inlineStr"/>
@@ -5551,7 +5551,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://lens.org/182-619-245-762-417;;https://lens.org/044-863-244-807-936;;https://lens.org/023-219-706-755-351</t>
+          <t>https://lens.org/044-863-244-807-936;;https://lens.org/182-619-245-762-417;;https://lens.org/023-219-706-755-351</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -5571,7 +5571,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>WOO SOL-A;;PARK YOUNG-SOO;;LIM DOO-HYEOK;;CHO JIN-SUN;;CHO JIN SUN;;PARK YOUNG SOO;;KIM SANG-SIK;;CHO KYOUNG-AH;;CHO KYOUNG AH;;LIM DOO HYEOK;;KIM SANG SIG;;WOO SOL A</t>
+          <t>CHO JIN-SUN;;CHO KYOUNG-AH;;PARK YOUNG SOO;;CHO KYOUNG AH;;KIM SANG SIG;;WOO SOL A;;PARK YOUNG-SOO;;LIM DOO HYEOK;;LIM DOO-HYEOK;;WOO SOL-A;;CHO JIN SUN;;KIM SANG-SIK</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -5584,7 +5584,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>CN;;US;;KR</t>
+          <t>KR;;US;;CN</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -5608,12 +5608,12 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>H01L29/423;;G06N3/063;;H01L29/739;;H01L29/08;;H01L29/10;;H01L29/06;;H03K17/687</t>
+          <t>H01L29/423;;H01L29/10;;H01L29/06;;H03K17/687;;H01L29/08;;H01L29/739;;G06N3/063</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N3/0481;;H01L29/42392;;H01L29/0847;;G06N3/049;;H01L29/1033;;H03K17/6871;;G06N3/063;;H01L29/7391;;H01L29/0676;;H03K17/165;;H01L29/0657;;H01L45/1206;;G06N3/0635</t>
+          <t>H01L29/0847;;H03K17/6871;;H01L45/1206;;H03K17/165;;G06N3/0481;;H01L29/7391;;G06N3/0635;;H01L29/0657;;B82Y10/00;;H01L29/42392;;H01L29/0676;;G06N3/049;;G06N3/063;;H01L29/1033</t>
         </is>
       </c>
       <c r="R48" t="inlineStr"/>
@@ -5640,12 +5640,12 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>CN 112418414 A;;KR 20210023277 A;;US 2021/0056398 A1</t>
+          <t>KR 20210023277 A;;CN 112418414 A;;US 2021/0056398 A1</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>KR 20190103264 A;;CN 201911132679 A;;US 201916686406 A</t>
+          <t>CN 201911132679 A;;US 201916686406 A;;KR 20190103264 A</t>
         </is>
       </c>
     </row>
@@ -5657,17 +5657,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>166-436-753-396-925;;023-676-481-169-696;;042-088-088-360-484;;143-789-421-997-213;;000-924-163-689-210;;191-752-177-258-33X</t>
+          <t>000-924-163-689-210;;143-789-421-997-213;;042-088-088-360-484;;191-752-177-258-33X;;166-436-753-396-925;;023-676-481-169-696</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://lens.org/000-924-163-689-210;;https://lens.org/023-676-481-169-696;;https://lens.org/191-752-177-258-33X;;https://lens.org/042-088-088-360-484;;https://lens.org/143-789-421-997-213;;https://lens.org/166-436-753-396-925</t>
+          <t>https://lens.org/166-436-753-396-925;;https://lens.org/000-924-163-689-210;;https://lens.org/023-676-481-169-696;;https://lens.org/191-752-177-258-33X;;https://lens.org/143-789-421-997-213;;https://lens.org/042-088-088-360-484</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>신경형태 망;;ニューロモルフィックネットワーク;;NEUROMORPHIC NETWORK</t>
+          <t>ニューロモルフィックネットワーク;;신경형태 망;;NEUROMORPHIC NETWORK</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -5682,7 +5682,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>ブラウン シモン アンソニー;;FOSTNER SHAWN;;ボーズ サウラブ クマー;;BOSE SAURABH KUMAR;;フォスナー ショーン;;BROWN SIMON ANTHONY</t>
+          <t>FOSTNER SHAWN;;ブラウン シモン アンソニー;;ボーズ サウラブ クマー;;BROWN SIMON ANTHONY;;フォスナー ショーン;;BOSE SAURABH KUMAR</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -5695,17 +5695,17 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>KR;;JP;;CN;;EP;;US</t>
+          <t>US;;EP;;CN;;KR;;JP</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Patent Application;;Search Report</t>
+          <t>Search Report;;Patent Application</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>A4;;A1;;A</t>
+          <t>A1;;A4;;A</t>
         </is>
       </c>
       <c r="M49" t="n">
@@ -5719,12 +5719,12 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N3/04;;B82Y30/00;;B82Y40/00;;G06N3/063;;H01L49/00;;B82B3/00</t>
+          <t>H01L49/00;;G06N3/063;;G06N3/04;;B82Y10/00;;B82Y40/00;;B82Y30/00;;B82B3/00</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N3/0445;;G06N3/0635</t>
+          <t>G06N3/0635;;B82Y10/00;;G06N3/0445</t>
         </is>
       </c>
       <c r="R49" t="inlineStr"/>
@@ -5751,12 +5751,12 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>JP 2018530145 A;;KR 20180051487 A;;EP 3317224 A4;;US 2018/0197077 A1;;EP 3317224 A1;;CN 108137312 A</t>
+          <t>CN 108137312 A;;JP 2018530145 A;;EP 3317224 A4;;KR 20180051487 A;;US 2018/0197077 A1;;EP 3317224 A1</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>KR 20187003064 A;;JP 2017568334 A;;EP 16818317 A;;CN 201680039398 A;;US 201615740791 A</t>
+          <t>US 201615740791 A;;CN 201680039398 A;;EP 16818317 A;;KR 20187003064 A;;JP 2017568334 A</t>
         </is>
       </c>
     </row>
@@ -5788,12 +5788,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>THE UNIV OF CANTERBURY;;BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY</t>
+          <t>BROWN SIMON ANTHONY;;THE UNIV OF CANTERBURY;;BOSE SAURABH KUMAR;;FOSTNER SHAWN</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY</t>
+          <t>BROWN SIMON ANTHONY;;BOSE SAURABH KUMAR;;FOSTNER SHAWN</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -5826,12 +5826,12 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>B82Y10/00;;B82Y30/00;;B82B3/00</t>
+          <t>B82Y30/00;;B82B3/00;;B82Y10/00</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N3/0445;;G06N3/0635</t>
+          <t>G06N3/0635;;B82Y10/00;;G06N3/0445</t>
         </is>
       </c>
       <c r="R50" t="inlineStr"/>
@@ -5875,17 +5875,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>062-442-047-736-531;;044-300-098-394-889;;108-663-655-304-325;;102-668-769-413-639;;166-964-008-678-577;;077-346-225-203-979;;163-192-380-009-138;;114-160-458-226-391;;075-782-007-590-446;;001-079-502-253-130;;180-073-430-817-518;;000-934-395-077-394;;035-130-560-396-513;;038-126-807-734-99X</t>
+          <t>035-130-560-396-513;;001-079-502-253-130;;114-160-458-226-391;;166-964-008-678-577;;163-192-380-009-138;;044-300-098-394-889;;000-934-395-077-394;;077-346-225-203-979;;038-126-807-734-99X;;180-073-430-817-518;;062-442-047-736-531;;102-668-769-413-639;;075-782-007-590-446;;108-663-655-304-325</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://lens.org/108-663-655-304-325;;https://lens.org/044-300-098-394-889;;https://lens.org/062-442-047-736-531;;https://lens.org/075-782-007-590-446;;https://lens.org/102-668-769-413-639;;https://lens.org/038-126-807-734-99X;;https://lens.org/163-192-380-009-138;;https://lens.org/001-079-502-253-130;;https://lens.org/077-346-225-203-979;;https://lens.org/166-964-008-678-577;;https://lens.org/114-160-458-226-391;;https://lens.org/180-073-430-817-518;;https://lens.org/000-934-395-077-394;;https://lens.org/035-130-560-396-513</t>
+          <t>https://lens.org/114-160-458-226-391;;https://lens.org/102-668-769-413-639;;https://lens.org/163-192-380-009-138;;https://lens.org/077-346-225-203-979;;https://lens.org/038-126-807-734-99X;;https://lens.org/001-079-502-253-130;;https://lens.org/035-130-560-396-513;;https://lens.org/062-442-047-736-531;;https://lens.org/075-782-007-590-446;;https://lens.org/044-300-098-394-889;;https://lens.org/000-934-395-077-394;;https://lens.org/166-964-008-678-577;;https://lens.org/180-073-430-817-518;;https://lens.org/108-663-655-304-325</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>METHODS OF ENCODING AND DECODING INFORMATION;;Methods of coding an decoding information;;METHODS OF CODING AND DECODING INFORMATION;;Methods of coding and decoding information;;METHODS FOR CODING AND DECODING INFORMATION;;Methods of encoding and decoding information</t>
+          <t>Methods of coding an decoding information;;METHODS OF CODING AND DECODING INFORMATION;;METHODS FOR CODING AND DECODING INFORMATION;;METHODS OF ENCODING AND DECODING INFORMATION;;Methods of coding and decoding information;;Methods of encoding and decoding information</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -5895,12 +5895,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY;;LANDIGRAD LLC;;SMIRNOV SERGEY NIIKOLAYEVICH;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LIMITED LIABILITY COMPANY</t>
+          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH</t>
+          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIKOLAYEVICH</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -5913,17 +5913,17 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>KR;;CA;;WO;;JP;;RU;;IL;;CN;;TW;;EP;;AU;;ZA;;US</t>
+          <t>WO;;ZA;;IL;;CA;;US;;JP;;EP;;TW;;RU;;CN;;KR;;AU</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Patent Application;;Patent of Addition;;Granted Patent</t>
+          <t>Patent of Addition;;Patent Application;;Granted Patent</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>B2;;A;;B;;D0;;A1;;C1</t>
+          <t>D0;;A;;B2;;B;;A1;;C1</t>
         </is>
       </c>
       <c r="M51" t="n">
@@ -5937,12 +5937,12 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>B82Y10/00;;C12N15/09;;G06K19/06;;H03M7/30;;G06F19/10;;H03M7/06;;C12Q1/68;;G06F19/22;;H03M13/00;;H03M7/28;;G06N3/12;;H04N/;;G06F17/30;;G06F11/08;;H03M13/47;;H03M7/14</t>
+          <t>G06N3/12;;H03M7/06;;H03M13/00;;H03M13/47;;H03M7/14;;H04N/;;G06F11/08;;C12Q1/68;;G06K19/06;;B82Y10/00;;H03M7/28;;C12N15/09;;G06F19/22;;H03M7/30;;G06F17/30;;G06F19/10</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H03M13/29;;G16B99/00;;C12Q1/68;;G06F16/2228;;H03M13/00;;G16B30/00;;H03M13/01;;G06F11/08;;G06N3/123;;G06F11/10</t>
+          <t>G06F11/10;;G06N3/123;;H03M13/01;;G16B99/00;;H03M13/00;;G06F11/08;;C12Q1/68;;G06F16/2228;;B82Y10/00;;G16B30/00;;H03M13/29</t>
         </is>
       </c>
       <c r="R51" t="inlineStr"/>
@@ -5969,12 +5969,12 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>KR 20180136407 A;;ZA 201803894 B;;CA 3008070 A1;;AU 2018/204252 B2;;RU 2659025 C1;;AU 2018/204252 A1;;JP 2019009776 A;;IL 259907 D0;;TW 201905691 A;;US 2018/0365276 A1;;EP 3416076 A1;;CN 109086890 A;;TW I673604 B;;WO 2018/231100 A1</t>
+          <t>EP 3416076 A1;;AU 2018/204252 B2;;CA 3008070 A1;;RU 2659025 C1;;TW I673604 B;;JP 2019009776 A;;US 2018/0365276 A1;;TW 201905691 A;;CN 109086890 A;;ZA 201803894 B;;IL 259907 D0;;AU 2018/204252 A1;;KR 20180136407 A;;WO 2018/231100 A1</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>RU 2018000384 W;;EP 18177823 A;;IL 25990718 A;;AU 2018/204252 A;;KR 20180068262 A;;ZA 201803894 A;;TW 107120605 A;;CN 201810615395 A;;US 201816008958 A;;CA 3008070 A;;RU 2017120555 A;;JP 2018113817 A</t>
+          <t>CN 201810615395 A;;EP 18177823 A;;ZA 201803894 A;;US 201816008958 A;;RU 2018000384 W;;RU 2017120555 A;;IL 25990718 A;;JP 2018113817 A;;CA 3008070 A;;TW 107120605 A;;AU 2018/204252 A;;KR 20180068262 A</t>
         </is>
       </c>
     </row>
@@ -6006,7 +6006,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>란디그레드, 리미티드 라이어빌리티 컴퍼니;;LANDIGRAD LLC;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+          <t>LANDIGRAD LLC;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -6030,7 +6030,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>B1;;A</t>
+          <t>A;;B1</t>
         </is>
       </c>
       <c r="M52" t="n">
@@ -6044,12 +6044,12 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>H03M13/29;;G06F16/22;;G06F11/10;;G16B30/00;;H03M13/01;;G06N3/12</t>
+          <t>G06F16/22;;G06F11/10;;G06N3/12;;H03M13/01;;G16B30/00;;H03M13/29</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H03M13/29;;G16B99/00;;C12Q1/68;;G06F16/2228;;H03M13/00;;G16B30/00;;H03M13/01;;G06F11/08;;G06N3/123;;G06F11/10</t>
+          <t>G06F11/10;;G06N3/123;;H03M13/01;;G16B99/00;;H03M13/00;;G06F11/08;;C12Q1/68;;G06F16/2228;;B82Y10/00;;G16B30/00;;H03M13/29</t>
         </is>
       </c>
       <c r="R52" t="inlineStr"/>
@@ -6076,7 +6076,7 @@
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>KR 102269463 B1;;KR 20200014926 A</t>
+          <t>KR 20200014926 A;;KR 102269463 B1</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
@@ -6151,12 +6151,12 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>G16C60/00;;G01N27/414;;B82Y15/00;;G06N20/00;;G01R23/177;;G01N33/00</t>
+          <t>G01N33/00;;G01N27/414;;B82Y15/00;;G06N20/00;;G01R23/177;;G16C60/00</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>G16C60/00;;G01N27/414;;G16C20/70;;G16C20/30;;B82Y30/00;;G06N20/00;;G01R23/177;;G01N33/00</t>
+          <t>G01N27/414;;G01N33/00;;G16C20/70;;G16C20/30;;B82Y30/00;;G06N20/00;;G01R23/177;;G16C60/00</t>
         </is>
       </c>
       <c r="R53" t="inlineStr"/>
@@ -6200,17 +6200,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>004-336-178-048-63X;;119-509-407-241-779;;145-042-401-678-239;;181-571-309-454-653;;027-716-622-208-177;;109-116-047-040-788;;136-452-791-198-630;;054-690-301-667-678;;086-439-121-098-851;;160-664-290-293-52X;;033-494-926-604-108;;076-028-241-945-059;;127-396-891-419-410;;144-606-189-820-123</t>
+          <t>145-042-401-678-239;;027-716-622-208-177;;119-509-407-241-779;;181-571-309-454-653;;086-439-121-098-851;;136-452-791-198-630;;076-028-241-945-059;;144-606-189-820-123;;033-494-926-604-108;;160-664-290-293-52X;;004-336-178-048-63X;;127-396-891-419-410;;054-690-301-667-678;;109-116-047-040-788</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://lens.org/054-690-301-667-678;;https://lens.org/160-664-290-293-52X;;https://lens.org/127-396-891-419-410;;https://lens.org/076-028-241-945-059;;https://lens.org/181-571-309-454-653;;https://lens.org/086-439-121-098-851;;https://lens.org/136-452-791-198-630;;https://lens.org/144-606-189-820-123;;https://lens.org/004-336-178-048-63X;;https://lens.org/119-509-407-241-779;;https://lens.org/033-494-926-604-108;;https://lens.org/027-716-622-208-177;;https://lens.org/145-042-401-678-239;;https://lens.org/109-116-047-040-788</t>
+          <t>https://lens.org/119-509-407-241-779;;https://lens.org/136-452-791-198-630;;https://lens.org/109-116-047-040-788;;https://lens.org/144-606-189-820-123;;https://lens.org/004-336-178-048-63X;;https://lens.org/145-042-401-678-239;;https://lens.org/160-664-290-293-52X;;https://lens.org/027-716-622-208-177;;https://lens.org/033-494-926-604-108;;https://lens.org/076-028-241-945-059;;https://lens.org/181-571-309-454-653;;https://lens.org/127-396-891-419-410;;https://lens.org/054-690-301-667-678;;https://lens.org/086-439-121-098-851</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>REMOVING LEAKAGE IN A QUANTUM BIT;;양자 비트에서 누설 제거;;Removing leakage in a quantum bit;;量子ビットにおける漏れの除去</t>
+          <t>양자 비트에서 누설 제거;;量子ビットにおける漏れの除去;;Removing leakage in a quantum bit;;REMOVING LEAKAGE IN A QUANTUM BIT</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -6220,17 +6220,17 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>GOOGLE LLC;;BARENDS RAMI;;ラミ・バレントス;;GOOGLE INC;;구글 엘엘씨;;グーグル エルエルシー</t>
+          <t>グーグル エルエルシー;;ラミ・バレントス;;GOOGLE LLC;;구글 엘엘씨;;GOOGLE INC;;BARENDS RAMI</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>바엔즈 라미;;BARENDS RAMI;;ラミ・バレントス</t>
+          <t>ラミ・バレントス;;바엔즈 라미;;BARENDS RAMI</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>GOOGLE LLC (2018-07-12);;GOOGLE LLC (2019-07-10);;GOOGLE LLC (2016-02-01)</t>
+          <t>GOOGLE LLC (2016-02-01);;GOOGLE LLC (2019-07-10);;GOOGLE LLC (2018-07-12)</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -6238,17 +6238,17 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>CA;;KR;;WO;;SG;;JP;;CN;;EP;;AU;;US</t>
+          <t>KR;;SG;;US;;AU;;JP;;EP;;CN;;WO;;CA</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Patent Application;;Unknown;;Granted Patent</t>
+          <t>Unknown;;Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>B2;;A;;B1;;A1;;C</t>
+          <t>C;;B1;;A;;B2;;A1</t>
         </is>
       </c>
       <c r="M54" t="n">
@@ -6262,12 +6262,12 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H03K3/38;;G06N10/00;;H01L27/18;;G06N99/00;;G02F3/00</t>
+          <t>G02F3/00;;H03K3/38;;G06N99/00;;B82Y10/00;;G06N10/00;;H01L27/18</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>B82Y10/00;;F41J1/10;;F41J9/02;;H03K3/38;;F41J5/18;;G06N10/00;;F41J7/04;;H01L27/18;;A63F9/0204;;G06N20/00</t>
+          <t>F41J7/04;;F41J1/10;;H03K3/38;;B82Y10/00;;G06N10/00;;F41J9/02;;G06N20/00;;A63F9/0204;;F41J5/18;;H01L27/18</t>
         </is>
       </c>
       <c r="R54" t="inlineStr"/>
@@ -6294,12 +6294,12 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>US 2018/0314967 A1;;KR 102161140 B1;;JP 6573727 B2;;AU 2015/412742 A1;;WO 2017/074379 A1;;JP 2018534638 A;;CA 3003695 A1;;CA 3003695 C;;CN 108701261 A;;EP 3369047 A1;;KR 20180103833 A;;SG 11201803545Q A;;US 10217057 B2;;AU 2015/412742 B2</t>
+          <t>SG 11201803545Q A;;US 10217057 B2;;AU 2015/412742 A1;;CA 3003695 A1;;JP 2018534638 A;;AU 2015/412742 B2;;CN 108701261 A;;CA 3003695 C;;EP 3369047 A1;;JP 6573727 B2;;WO 2017/074379 A1;;KR 102161140 B1;;KR 20180103833 A;;US 2018/0314967 A1</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>CA 3003695 A;;US 2015/0057984 W;;EP 15794414 A;;JP 2018542110 A;;CN 201580085007 A;;AU 2015/412742 A;;SG 11201803545Q A;;US 201515771106 A;;KR 20187014604 A</t>
+          <t>SG 11201803545Q A;;US 201515771106 A;;US 2015/0057984 W;;KR 20187014604 A;;AU 2015/412742 A;;JP 2018542110 A;;EP 15794414 A;;CN 201580085007 A;;CA 3003695 A</t>
         </is>
       </c>
     </row>
@@ -6321,7 +6321,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>REMOVING LEAKAGE IN A QUANTUM BIT;;Removing leakage in a quantum bit</t>
+          <t>Removing leakage in a quantum bit;;REMOVING LEAKAGE IN A QUANTUM BIT</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -6354,12 +6354,12 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>B2;;A1</t>
+          <t>A1;;B2</t>
         </is>
       </c>
       <c r="M55" t="n">
@@ -6373,12 +6373,12 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>F41J1/10;;F41J9/02;;H03K3/38;;F41J5/18;;G06N10/00;;F41J7/04;;H01L27/18;;A63F9/02;;G06N20/00</t>
+          <t>F41J7/04;;F41J1/10;;H03K3/38;;G06N10/00;;F41J9/02;;A63F9/02;;G06N20/00;;F41J5/18;;H01L27/18</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>B82Y10/00;;F41J1/10;;F41J9/02;;H03K3/38;;F41J5/18;;G06N10/00;;F41J7/04;;H01L27/18;;A63F9/0204;;G06N20/00</t>
+          <t>F41J7/04;;F41J1/10;;H03K3/38;;B82Y10/00;;G06N10/00;;F41J9/02;;G06N20/00;;A63F9/0204;;F41J5/18;;H01L27/18</t>
         </is>
       </c>
       <c r="R55" t="inlineStr"/>
@@ -6484,12 +6484,12 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>F41J1/10;;F41J9/02;;H03K3/38;;F41J5/18;;G06N10/00;;F41J7/04;;H01L27/18;;G06N20/00</t>
+          <t>F41J7/04;;F41J1/10;;H03K3/38;;G06N10/00;;F41J9/02;;G06N20/00;;F41J5/18;;H01L27/18</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>B82Y10/00;;F41J1/10;;F41J9/02;;H03K3/38;;F41J5/18;;G06N10/00;;F41J7/04;;H01L27/18;;A63F9/0204;;G06N20/00</t>
+          <t>F41J7/04;;F41J1/10;;H03K3/38;;B82Y10/00;;G06N10/00;;F41J9/02;;G06N20/00;;A63F9/0204;;F41J5/18;;H01L27/18</t>
         </is>
       </c>
       <c r="R56" t="inlineStr"/>
@@ -6538,12 +6538,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://lens.org/008-969-973-657-149;;https://lens.org/001-753-592-797-300</t>
+          <t>https://lens.org/001-753-592-797-300;;https://lens.org/008-969-973-657-149</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>REMOVING LEAKAGE IN A QUANTUM BIT;;Removing leakage in a quantum bit</t>
+          <t>Removing leakage in a quantum bit;;REMOVING LEAKAGE IN A QUANTUM BIT</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -6563,7 +6563,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>GOOGLE INC (2016-02-01);;GOOGLE LLC (2017-09-29)</t>
+          <t>GOOGLE LLC (2017-09-29);;GOOGLE INC (2016-02-01)</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -6595,12 +6595,12 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>F41J1/10;;F41J9/02;;F41J5/18;;G06N10/00;;F41J7/04;;A63F9/02</t>
+          <t>F41J7/04;;F41J1/10;;G06N10/00;;F41J9/02;;A63F9/02;;F41J5/18</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>B82Y10/00;;F41J1/10;;F41J9/02;;H03K3/38;;F41J5/18;;G06N10/00;;F41J7/04;;H01L27/18;;A63F9/0204;;G06N20/00</t>
+          <t>F41J7/04;;F41J1/10;;H03K3/38;;B82Y10/00;;G06N10/00;;F41J9/02;;G06N20/00;;A63F9/0204;;F41J5/18;;H01L27/18</t>
         </is>
       </c>
       <c r="R57" t="inlineStr"/>
@@ -6644,12 +6644,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>047-713-326-117-82X;;012-779-809-146-993;;170-523-664-499-340;;197-942-427-280-157</t>
+          <t>170-523-664-499-340;;047-713-326-117-82X;;197-942-427-280-157;;012-779-809-146-993</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://lens.org/047-713-326-117-82X;;https://lens.org/012-779-809-146-993;;https://lens.org/170-523-664-499-340;;https://lens.org/197-942-427-280-157</t>
+          <t>https://lens.org/012-779-809-146-993;;https://lens.org/170-523-664-499-340;;https://lens.org/197-942-427-280-157;;https://lens.org/047-713-326-117-82X</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -6674,7 +6674,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>HONEYWELL INTERNATIONAL INC. (2018-04-04);;HONEYWELL INTERNATIONAL INC (2015-06-17)</t>
+          <t>HONEYWELL INTERNATIONAL INC (2015-06-17);;HONEYWELL INTERNATIONAL INC. (2018-04-04)</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -6687,7 +6687,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -6706,12 +6706,12 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H01L29/94;;G21K1/00;;H01J49/00;;G06N99/00;;G04F5/14;;H01J49/46;;H01J49/06</t>
+          <t>G06N99/00;;H01J49/00;;H01J49/46;;H01J49/06;;B82Y10/00;;G21K1/00;;H01L29/94;;G04F5/14</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H01L29/94;;G21K1/00;;G06N10/00;;H01J49/463;;G06N20/00;;H01J49/06</t>
+          <t>H01J49/463;;H01L29/94;;B82Y10/00;;G21K1/00;;G06N10/00;;H01J49/06;;G06N20/00</t>
         </is>
       </c>
       <c r="R58" t="inlineStr"/>
@@ -6738,12 +6738,12 @@
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>US 2016/0372314 A1;;EP 3106427 A1;;US 9548191 B2;;EP 3106427 B1</t>
+          <t>US 2016/0372314 A1;;EP 3106427 A1;;EP 3106427 B1;;US 9548191 B2</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>EP 16164338 A;;US 201514742346 A</t>
+          <t>US 201514742346 A;;EP 16164338 A</t>
         </is>
       </c>
     </row>
@@ -6755,7 +6755,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>163-360-212-151-338;;095-562-255-399-764</t>
+          <t>095-562-255-399-764;;163-360-212-151-338</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -6794,12 +6794,12 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>B2;;A1</t>
+          <t>A1;;B2</t>
         </is>
       </c>
       <c r="M59" t="n">
@@ -6813,12 +6813,12 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H01L29/94;;G21K1/00;;G06N99/00;;H01J49/46;;H01J49/06</t>
+          <t>G06N99/00;;H01L29/94;;H01J49/06;;G21K1/00;;B82Y10/00;;H01J49/46</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H01L29/94;;G21K1/00;;G06N10/00;;H01J49/463;;G06N20/00;;H01J49/06</t>
+          <t>H01J49/463;;H01L29/94;;B82Y10/00;;G21K1/00;;G06N10/00;;H01J49/06;;G06N20/00</t>
         </is>
       </c>
       <c r="R59" t="inlineStr"/>
@@ -6845,7 +6845,7 @@
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>US 2018/0114683 A1;;US 10186409 B2</t>
+          <t>US 10186409 B2;;US 2018/0114683 A1</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
@@ -6867,12 +6867,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://lens.org/024-412-645-047-335;;https://lens.org/102-410-941-303-557</t>
+          <t>https://lens.org/102-410-941-303-557;;https://lens.org/024-412-645-047-335</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>ARCHITECTURE FOR COUPLING QUANTUM BITS USING LOCALIZED RESONATORS;;Architecture for coupling quantum bits using localized resonators</t>
+          <t>Architecture for coupling quantum bits using localized resonators;;ARCHITECTURE FOR COUPLING QUANTUM BITS USING LOCALIZED RESONATORS</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -6887,7 +6887,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>MCCLURE III DOUGLAS T;;STEFFEN MATTHIAS;;GAMBETTA JAY M;;DIAL OLIVER</t>
+          <t>DIAL OLIVER;;STEFFEN MATTHIAS;;GAMBETTA JAY M;;MCCLURE III DOUGLAS T</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -6905,12 +6905,12 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>B2;;A1</t>
+          <t>A1;;B2</t>
         </is>
       </c>
       <c r="M60" t="n">
@@ -6924,12 +6924,12 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06F17/00;;H01L39/24;;G06N99/00;;H01L39/02;;H01L39/14</t>
+          <t>H01L39/02;;H01L39/24;;G06F17/00;;G06N99/00;;B82Y10/00;;H01L39/14</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;H01L39/24;;H05K999/99;;H01L39/14;;G06N20/00</t>
+          <t>H01L39/24;;B82Y10/00;;G06N10/00;;H01L39/14;;H05K999/99;;G06N20/00</t>
         </is>
       </c>
       <c r="R60" t="inlineStr"/>
@@ -6973,17 +6973,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>055-623-784-141-019;;185-410-845-133-114;;151-924-329-105-277</t>
+          <t>185-410-845-133-114;;151-924-329-105-277;;055-623-784-141-019</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://lens.org/151-924-329-105-277;;https://lens.org/055-623-784-141-019;;https://lens.org/185-410-845-133-114</t>
+          <t>https://lens.org/055-623-784-141-019;;https://lens.org/151-924-329-105-277;;https://lens.org/185-410-845-133-114</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>ARCHITECTURE FOR COUPLING QUANTUM BITS USING LOCALIZED RESONATORS;;Architecture for coupling quantum bits using localized resonators</t>
+          <t>Architecture for coupling quantum bits using localized resonators;;ARCHITECTURE FOR COUPLING QUANTUM BITS USING LOCALIZED RESONATORS</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -6993,12 +6993,12 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>IBM;;IBM UK;;IBM (CHINA) INVEST COMPANY LTD</t>
+          <t>IBM (CHINA) INVEST COMPANY LTD;;IBM;;IBM UK</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>GAMBETTA JAY;;MCCLURE III DOUGLAS T;;STEFFEN MATTHIAS;;MCCLURE III DOUGLAS TEMPLETON;;GAMBETTA JAY M;;DIAL OLIVER</t>
+          <t>DIAL OLIVER;;GAMBETTA JAY;;GAMBETTA JAY M;;MCCLURE III DOUGLAS T;;STEFFEN MATTHIAS;;MCCLURE III DOUGLAS TEMPLETON</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -7011,7 +7011,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>WO;;US</t>
+          <t>US;;WO</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -7035,12 +7035,12 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>H01P1/205;;G06F17/00;;H01L39/24;;G06N99/00;;H01L39/02;;H01L39/14;;H01P7/00</t>
+          <t>H01P7/00;;H01L39/02;;G06F17/00;;H01L39/24;;G06N99/00;;H01L39/14;;H01P1/205</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H01L39/025;;H01L39/2493;;H01P1/205;;G06N10/00;;H01L39/24;;H05K999/99;;H01L39/14;;G06N20/00;;H01P7/00</t>
+          <t>H01P7/00;;H01L39/2493;;H01L39/24;;B82Y10/00;;G06N10/00;;H01P1/205;;H01L39/025;;H01L39/14;;G06N20/00;;H05K999/99</t>
         </is>
       </c>
       <c r="R61" t="inlineStr"/>
@@ -7072,7 +7072,7 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>IB 2016053010 W;;US 201514949248 A</t>
+          <t>US 201514949248 A;;IB 2016053010 W</t>
         </is>
       </c>
     </row>
@@ -7089,12 +7089,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://lens.org/008-906-245-482-821;;https://lens.org/082-686-752-226-904</t>
+          <t>https://lens.org/082-686-752-226-904;;https://lens.org/008-906-245-482-821</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>ARCHITECTURE FOR COUPLING QUANTUM BITS USING LOCALIZED RESONATORS;;Architecture for coupling quantum bits using localized resonators</t>
+          <t>Architecture for coupling quantum bits using localized resonators;;ARCHITECTURE FOR COUPLING QUANTUM BITS USING LOCALIZED RESONATORS</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -7109,7 +7109,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>MCCLURE III DOUGLAS T;;STEFFEN MATTHIAS;;GAMBETTA JAY M;;DIAL OLIVER</t>
+          <t>DIAL OLIVER;;STEFFEN MATTHIAS;;GAMBETTA JAY M;;MCCLURE III DOUGLAS T</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -7127,7 +7127,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -7146,12 +7146,12 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H01P1/205;;G06N10/00;;H01L39/24;;H01L39/02;;H01L39/14;;G06N20/00;;H01P7/00</t>
+          <t>H01P7/00;;H01L39/02;;H01L39/24;;B82Y10/00;;G06N10/00;;H01L39/14;;H01P1/205;;G06N20/00</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H01L39/025;;H01L39/2493;;H01P1/205;;G06N10/00;;H01L39/24;;H05K999/99;;H01L39/14;;G06N20/00;;H01P7/00</t>
+          <t>H01P7/00;;H01L39/2493;;H01L39/24;;B82Y10/00;;G06N10/00;;H01P1/205;;H01L39/025;;H01L39/14;;G06N20/00;;H05K999/99</t>
         </is>
       </c>
       <c r="R62" t="inlineStr"/>
@@ -7200,12 +7200,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://lens.org/101-995-532-888-750;;https://lens.org/167-322-761-422-768</t>
+          <t>https://lens.org/167-322-761-422-768;;https://lens.org/101-995-532-888-750</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>ARCHITECTURE FOR COUPLING QUANTUM BITS USING LOCALIZED RESONATORS;;Architecture for coupling quantum bits using localized resonators</t>
+          <t>Architecture for coupling quantum bits using localized resonators;;ARCHITECTURE FOR COUPLING QUANTUM BITS USING LOCALIZED RESONATORS</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -7220,7 +7220,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>MCCLURE III DOUGLAS T;;STEFFEN MATTHIAS;;GAMBETTA JAY M;;DIAL OLIVER</t>
+          <t>DIAL OLIVER;;STEFFEN MATTHIAS;;GAMBETTA JAY M;;MCCLURE III DOUGLAS T</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -7257,12 +7257,12 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;H01L39/24;;G06N99/00;;H01L39/14;;G06N20/00</t>
+          <t>H01L39/24;;G06N99/00;;B82Y10/00;;G06N10/00;;H01L39/14;;G06N20/00</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;H01L39/24;;H05K999/99;;H01L39/14;;G06N20/00</t>
+          <t>H01L39/24;;B82Y10/00;;G06N10/00;;H01L39/14;;H05K999/99;;G06N20/00</t>
         </is>
       </c>
       <c r="R63" t="inlineStr"/>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>US 10529909 B2;;US 2018/0287039 A1</t>
+          <t>US 2018/0287039 A1;;US 10529909 B2</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
@@ -7311,12 +7311,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://lens.org/015-914-741-952-531;;https://lens.org/064-885-509-498-458</t>
+          <t>https://lens.org/064-885-509-498-458;;https://lens.org/015-914-741-952-531</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>ARCHITECTURE FOR COUPLING QUANTUM BITS USING LOCALIZED RESONATORS;;Architecture for coupling quantum bits using localized resonators</t>
+          <t>Architecture for coupling quantum bits using localized resonators;;ARCHITECTURE FOR COUPLING QUANTUM BITS USING LOCALIZED RESONATORS</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -7331,7 +7331,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>MCCLURE III DOUGLAS T;;STEFFEN MATTHIAS;;GAMBETTA JAY M;;DIAL OLIVER</t>
+          <t>DIAL OLIVER;;STEFFEN MATTHIAS;;GAMBETTA JAY M;;MCCLURE III DOUGLAS T</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -7368,12 +7368,12 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H01L39/24;;H01L39/14;;G06N99/00</t>
+          <t>B82Y10/00;;H01L39/14;;G06N99/00;;H01L39/24</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;H01L39/24;;H05K999/99;;H01L39/14;;G06N20/00</t>
+          <t>H01L39/24;;B82Y10/00;;G06N10/00;;H01L39/14;;H05K999/99;;G06N20/00</t>
         </is>
       </c>
       <c r="R64" t="inlineStr"/>
@@ -7400,7 +7400,7 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>US 2018/0287040 A1;;US 10211386 B2</t>
+          <t>US 10211386 B2;;US 2018/0287040 A1</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
@@ -7442,7 +7442,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW;;BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;DUNST MICHAEL J</t>
+          <t>DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -7484,7 +7484,7 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>A61B5/7282;;G06Q40/08;;A61B5/1118;;B81B7/0087;;G16H40/67;;A61B5/7246;;G16H10/60;;A61B5/7264;;A61B5/0024;;A61B5/0022;;A61B5/681;;A61B2560/0475;;B81B7/007;;A61B2562/028;;A61B5/1123;;A61B2562/0219</t>
+          <t>A61B2562/0219;;A61B5/7246;;G16H10/60;;B81B7/007;;A61B5/1123;;A61B2560/0475;;A61B5/0022;;A61B5/7282;;A61B5/1118;;A61B2562/028;;B81B7/0087;;G06Q40/08;;G16H40/67;;A61B5/681;;A61B5/7264;;A61B5/0024</t>
         </is>
       </c>
       <c r="R65" t="inlineStr"/>
@@ -7533,12 +7533,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://lens.org/189-635-522-775-510;;https://lens.org/178-274-931-648-096</t>
+          <t>https://lens.org/178-274-931-648-096;;https://lens.org/189-635-522-775-510</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Microelectromechanical accelerometer based sensor system;;MICROELECTROMECHANICAL ACCELEROMETER BASED SENSOR SYSTEM</t>
+          <t>MICROELECTROMECHANICAL ACCELEROMETER BASED SENSOR SYSTEM;;Microelectromechanical accelerometer based sensor system</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -7548,12 +7548,12 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW;;BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;DUNST MICHAEL J;;HARTFORD FIRE INSURANCE COMP</t>
+          <t>DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW;;HARTFORD FIRE INSURANCE COMP</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW;;BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;DUNST MICHAEL J</t>
+          <t>DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -7571,12 +7571,12 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>B2;;A1</t>
+          <t>A1;;B2</t>
         </is>
       </c>
       <c r="M66" t="n">
@@ -7590,12 +7590,12 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>B81B7/00;;A61B5/00;;A61B5/11</t>
+          <t>A61B5/00;;B81B7/00;;A61B5/11</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>A61B5/7282;;G06Q40/08;;A61B5/1118;;B81B7/0087;;G16H40/67;;A61B5/7246;;G16H10/60;;A61B5/7264;;A61B5/0024;;A61B5/0022;;A61B5/681;;A61B2560/0475;;B81B7/007;;A61B2562/028;;A61B5/1123;;A61B2562/0219</t>
+          <t>A61B2562/0219;;A61B5/7246;;G16H10/60;;B81B7/007;;A61B5/1123;;A61B2560/0475;;A61B5/0022;;A61B5/7282;;A61B5/1118;;A61B2562/028;;B81B7/0087;;G06Q40/08;;G16H40/67;;A61B5/681;;A61B5/7264;;A61B5/0024</t>
         </is>
       </c>
       <c r="R66" t="inlineStr"/>
@@ -7622,7 +7622,7 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>US 9969612 B2;;US 2017/0240419 A1</t>
+          <t>US 2017/0240419 A1;;US 9969612 B2</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
@@ -7639,7 +7639,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>188-510-083-688-347;;123-869-793-750-750</t>
+          <t>123-869-793-750-750;;188-510-083-688-347</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -7649,7 +7649,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Microelectromechanical accelerometer based sensor system;;MICROELECTROMECHANICAL ACCELEROMETER BASED SENSOR SYSTEM</t>
+          <t>MICROELECTROMECHANICAL ACCELEROMETER BASED SENSOR SYSTEM;;Microelectromechanical accelerometer based sensor system</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -7664,7 +7664,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW;;BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;DUNST MICHAEL J</t>
+          <t>DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
@@ -7697,12 +7697,12 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>B81B7/00;;A61B5/00;;A61B5/11</t>
+          <t>A61B5/00;;B81B7/00;;A61B5/11</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>A61B5/7282;;G06Q40/08;;A61B5/1118;;B81B7/0087;;G16H40/67;;A61B5/7246;;G16H10/60;;A61B5/7264;;A61B5/0024;;A61B5/0022;;A61B5/681;;A61B2560/0475;;B81B7/007;;A61B2562/028;;A61B5/1123;;A61B2562/0219</t>
+          <t>A61B2562/0219;;A61B5/7246;;G16H10/60;;B81B7/007;;A61B5/1123;;A61B2560/0475;;A61B5/0022;;A61B5/7282;;A61B5/1118;;A61B2562/028;;B81B7/0087;;G06Q40/08;;G16H40/67;;A61B5/681;;A61B5/7264;;A61B5/0024</t>
         </is>
       </c>
       <c r="R67" t="inlineStr"/>
@@ -7751,12 +7751,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://lens.org/189-518-628-052-967;;https://lens.org/091-928-229-377-519</t>
+          <t>https://lens.org/091-928-229-377-519;;https://lens.org/189-518-628-052-967</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Microelectromechanical accelerometer based sensor system;;MICROELECTROMECHANICAL ACCELEROMETER BASED SENSOR SYSTEM</t>
+          <t>MICROELECTROMECHANICAL ACCELEROMETER BASED SENSOR SYSTEM;;Microelectromechanical accelerometer based sensor system</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -7771,7 +7771,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW;;BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;DUNST MICHAEL J</t>
+          <t>DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -7804,12 +7804,12 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>B81B7/00;;G08C19/22;;G16H10/60;;A61B5/11;;A61B5/00</t>
+          <t>G08C19/22;;G16H10/60;;B81B7/00;;A61B5/00;;A61B5/11</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>A61B5/7282;;G06Q40/08;;A61B5/1118;;B81B7/0087;;A61B5/7246;;G16H10/60;;A61B5/7264;;A61B5/0024;;A61B5/0022;;A61B5/681;;A61B2562/028;;G16H40/67;;A61B2560/0475;;A61B5/1123;;A61B2562/0219;;B81B7/007</t>
+          <t>A61B2562/0219;;A61B5/7246;;G16H10/60;;B81B7/007;;A61B5/1123;;A61B2560/0475;;A61B5/0022;;A61B2562/028;;A61B5/1118;;A61B5/7282;;G06Q40/08;;B81B7/0087;;G16H40/67;;A61B5/681;;A61B5/7264;;A61B5/0024</t>
         </is>
       </c>
       <c r="R68" t="inlineStr"/>
@@ -7836,7 +7836,7 @@
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>US 2019/0292044 A1;;US 10793423 B2</t>
+          <t>US 10793423 B2;;US 2019/0292044 A1</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
@@ -7916,7 +7916,7 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;G06F9/45504;;G06N99/00;;G06N7/005;;G06N3/126</t>
+          <t>G06N99/00;;G06F9/45504;;B82Y10/00;;G06N10/00;;G06N7/005;;G06N3/126</t>
         </is>
       </c>
       <c r="R69" t="inlineStr"/>
@@ -7960,17 +7960,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>165-599-734-061-37X;;086-576-713-592-977;;127-103-433-799-24X;;127-853-431-567-747;;053-474-667-599-726;;043-608-201-196-560;;094-655-367-009-253;;061-619-330-497-243</t>
+          <t>061-619-330-497-243;;165-599-734-061-37X;;094-655-367-009-253;;053-474-667-599-726;;086-576-713-592-977;;127-103-433-799-24X;;043-608-201-196-560;;127-853-431-567-747</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://lens.org/165-599-734-061-37X;;https://lens.org/127-853-431-567-747;;https://lens.org/043-608-201-196-560;;https://lens.org/086-576-713-592-977;;https://lens.org/094-655-367-009-253;;https://lens.org/061-619-330-497-243;;https://lens.org/127-103-433-799-24X;;https://lens.org/053-474-667-599-726</t>
+          <t>https://lens.org/127-853-431-567-747;;https://lens.org/043-608-201-196-560;;https://lens.org/053-474-667-599-726;;https://lens.org/086-576-713-592-977;;https://lens.org/094-655-367-009-253;;https://lens.org/127-103-433-799-24X;;https://lens.org/165-599-734-061-37X;;https://lens.org/061-619-330-497-243</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>古典的なプロセッサで量子類似計算をエミュレートするためのＱＵＡＮＴＯＮ表現;;Quanton representation for emulating quantum-like computation on classical processors;;QUANTON REPRESENTATION FOR EMULATING QUANTUM-LIKE COMPUTATION ON CLASSICAL PROCESSORS;;Quanton Representation For Emulating Quantum-Like Computation On Classical Processors;;고전적 프로세서 상에서 양자-유사 계산을 에뮬레이트하기 위한 퀀톤 표현</t>
+          <t>Quanton Representation For Emulating Quantum-Like Computation On Classical Processors;;古典的なプロセッサで量子類似計算をエミュレートするためのＱＵＡＮＴＯＮ表現;;고전적 프로세서 상에서 양자-유사 계산을 에뮬레이트하기 위한 퀀톤 표현;;QUANTON REPRESENTATION FOR EMULATING QUANTUM-LIKE COMPUTATION ON CLASSICAL PROCESSORS;;Quanton representation for emulating quantum-like computation on classical processors</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -7980,12 +7980,12 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;KYNDI INC;;킨디 인코포레이티드</t>
+          <t>KYNDI INC;;킨디 인코포레이티드;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>アルン、マジュムダール;;마줌다 아룬;;MAJUMDAR ARUN</t>
+          <t>마줌다 아룬;;MAJUMDAR ARUN;;アルン、マジュムダール</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
@@ -7994,17 +7994,17 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>KR;;CA;;JP;;CN;;EP;;AU</t>
+          <t>AU;;JP;;EP;;CN;;KR;;CA</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent;;Search Report</t>
+          <t>Search Report;;Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>A4;;A;;A1;;B1</t>
+          <t>A1;;A4;;A;;B1</t>
         </is>
       </c>
       <c r="M70" t="n">
@@ -8018,12 +8018,12 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06F7/60;;G06N7/00;;G06F9/455;;G06N99/00;;G06N3/12</t>
+          <t>G06N3/12;;G06N7/00;;G06F9/455;;G06N99/00;;B82Y10/00;;G06F7/60</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;G06F9/45504;;G06N99/00;;G06N7/005;;G06N3/126</t>
+          <t>G06N99/00;;G06F9/45504;;B82Y10/00;;G06N10/00;;G06N7/005;;G06N3/126</t>
         </is>
       </c>
       <c r="R70" t="inlineStr"/>
@@ -8050,12 +8050,12 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>CN 107683460 A;;KR 20180004226 A;;CA 2983880 A1;;EP 3292466 A4;;AU 2016/258029 A1;;JP 2018521382 A;;EP 3292466 A1;;KR 102141274 B1</t>
+          <t>AU 2016/258029 A1;;JP 2018521382 A;;EP 3292466 A4;;CN 107683460 A;;CA 2983880 A1;;EP 3292466 A1;;KR 102141274 B1;;KR 20180004226 A</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>CA 2983880 A;;AU 2016/258029 A;;CN 201680034976 A;;JP 2017557330 A;;EP 16790101 A;;KR 20177035068 A</t>
+          <t>CA 2983880 A;;JP 2017557330 A;;EP 16790101 A;;AU 2016/258029 A;;KR 20177035068 A;;CN 201680034976 A</t>
         </is>
       </c>
     </row>
@@ -8072,7 +8072,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://lens.org/144-582-622-252-937;;https://lens.org/088-132-024-309-326</t>
+          <t>https://lens.org/088-132-024-309-326;;https://lens.org/144-582-622-252-937</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -8110,12 +8110,12 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>B2;;A1</t>
+          <t>A1;;B2</t>
         </is>
       </c>
       <c r="M71" t="n">
@@ -8129,12 +8129,12 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>G06N7/00;;G06N10/00;;G06F17/18;;G06F9/455;;G06N99/00;;G06N3/12</t>
+          <t>G06N3/12;;G06N7/00;;G06F9/455;;G06N99/00;;G06F17/18;;G06N10/00</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;G06F9/45504;;G06N99/00;;G06N7/005;;G06N3/126</t>
+          <t>G06N99/00;;G06F9/45504;;B82Y10/00;;G06N10/00;;G06N7/005;;G06N3/126</t>
         </is>
       </c>
       <c r="R71" t="inlineStr"/>
@@ -8161,7 +8161,7 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>US 2016/0328253 A1;;US 10452989 B2</t>
+          <t>US 10452989 B2;;US 2016/0328253 A1</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
@@ -8236,12 +8236,12 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>G06F9/455;;G06N10/00;;G06N3/12</t>
+          <t>G06N3/12;;G06F9/455;;G06N10/00</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;G06F9/45504;;G06N99/00;;G06N7/005;;G06N3/126</t>
+          <t>G06N99/00;;G06F9/45504;;B82Y10/00;;G06N10/00;;G06N7/005;;G06N3/126</t>
         </is>
       </c>
       <c r="R72" t="inlineStr"/>
@@ -8348,7 +8348,7 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;G06N3/088;;G06N3/0472;;G06N3/0445;;G06N20/00</t>
+          <t>G06N3/0445;;G06N3/0472;;B82Y10/00;;G06N10/00;;G06N3/088;;G06N20/00</t>
         </is>
       </c>
       <c r="R73" t="inlineStr"/>
@@ -8392,12 +8392,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>169-871-701-653-729;;069-459-329-577-52X;;080-625-574-321-236</t>
+          <t>169-871-701-653-729;;080-625-574-321-236;;069-459-329-577-52X</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://lens.org/080-625-574-321-236;;https://lens.org/069-459-329-577-52X;;https://lens.org/169-871-701-653-729</t>
+          <t>https://lens.org/169-871-701-653-729;;https://lens.org/069-459-329-577-52X;;https://lens.org/080-625-574-321-236</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -8426,17 +8426,17 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>CN;;EP</t>
+          <t>EP;;CN</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Patent Application;;Search Report</t>
+          <t>Search Report;;Patent Application</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>A4;;A1;;A</t>
+          <t>A1;;A4;;A</t>
         </is>
       </c>
       <c r="M74" t="n">
@@ -8450,12 +8450,12 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N3/04;;G06N99/00</t>
+          <t>G06N3/04;;B82Y10/00;;G06N99/00</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;G06N3/088;;G06N3/0472;;G06N3/0445;;G06N20/00</t>
+          <t>G06N3/0445;;G06N3/0472;;B82Y10/00;;G06N10/00;;G06N3/088;;G06N20/00</t>
         </is>
       </c>
       <c r="R74" t="inlineStr"/>
@@ -8482,7 +8482,7 @@
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>EP 3362952 A1;;EP 3362952 A4;;CN 108369668 A</t>
+          <t>CN 108369668 A;;EP 3362952 A4;;EP 3362952 A1</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
@@ -8566,7 +8566,7 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;G06N3/088;;G06N3/0472;;G06N3/0445;;G06N20/00</t>
+          <t>G06N3/0445;;G06N3/0472;;B82Y10/00;;G06N10/00;;G06N3/088;;G06N20/00</t>
         </is>
       </c>
       <c r="R75" t="inlineStr"/>
@@ -8610,17 +8610,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>074-976-860-213-786;;191-543-293-857-398;;165-707-705-470-436;;133-953-218-172-493;;110-865-928-572-286;;023-877-193-105-410;;198-318-690-704-612</t>
+          <t>074-976-860-213-786;;198-318-690-704-612;;133-953-218-172-493;;110-865-928-572-286;;023-877-193-105-410;;165-707-705-470-436;;191-543-293-857-398</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://lens.org/198-318-690-704-612;;https://lens.org/133-953-218-172-493;;https://lens.org/165-707-705-470-436;;https://lens.org/191-543-293-857-398;;https://lens.org/110-865-928-572-286;;https://lens.org/023-877-193-105-410;;https://lens.org/074-976-860-213-786</t>
+          <t>https://lens.org/023-877-193-105-410;;https://lens.org/191-543-293-857-398;;https://lens.org/165-707-705-470-436;;https://lens.org/074-976-860-213-786;;https://lens.org/133-953-218-172-493;;https://lens.org/198-318-690-704-612;;https://lens.org/110-865-928-572-286</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>サブ論理制御を使用する量子進化のトレーニング;;Training quantum evolutions using sublogical controls;;TRAINING QUANTUM EVOLUTIONS USING SUBLOGICAL CONTROLS</t>
+          <t>TRAINING QUANTUM EVOLUTIONS USING SUBLOGICAL CONTROLS;;サブ論理制御を使用する量子進化のトレーニング;;Training quantum evolutions using sublogical controls</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -8630,12 +8630,12 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>GOOGLE LLC;;グーグル エルエルシー</t>
+          <t>グーグル エルエルシー;;GOOGLE LLC</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>BABBUSH RYAN;;ライアン・バブシュ;;ハルトムート・ネーヴェン;;NEVEN HARTMUT</t>
+          <t>ハルトムート・ネーヴェン;;ライアン・バブシュ;;BABBUSH RYAN;;NEVEN HARTMUT</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
@@ -8644,7 +8644,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>CA;;JP;;CN;;EP;;AU</t>
+          <t>CA;;AU;;EP;;CN;;JP</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -8654,7 +8654,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>A1;;B2;;A</t>
+          <t>A1;;A;;B2</t>
         </is>
       </c>
       <c r="M76" t="n">
@@ -8668,12 +8668,12 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N20/00;;G06N10/00;;G06N99/00</t>
+          <t>G06N20/00;;B82Y10/00;;G06N10/00;;G06N99/00</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G16C10/00;;G06N10/00;;G06N20/00;;G06N5/003</t>
+          <t>G16C10/00;;B82Y10/00;;G06N10/00;;G06N5/003;;G06N20/00</t>
         </is>
       </c>
       <c r="R76" t="inlineStr"/>
@@ -8700,12 +8700,12 @@
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>JP 2019520645 A;;CA 3026443 A1;;JP 6755337 B2;;AU 2016/408764 B2;;AU 2016/408764 A1;;CN 109478258 A;;EP 3465555 A1</t>
+          <t>AU 2016/408764 B2;;JP 6755337 B2;;CA 3026443 A1;;EP 3465555 A1;;CN 109478258 A;;AU 2016/408764 A1;;JP 2019520645 A</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>AU 2016/408764 A;;CA 3026443 A;;JP 2018562952 A;;EP 16825955 A;;CN 201680087746 A</t>
+          <t>CN 201680087746 A;;EP 16825955 A;;CA 3026443 A;;JP 2018562952 A;;AU 2016/408764 A</t>
         </is>
       </c>
     </row>
@@ -8717,17 +8717,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>144-144-283-847-927;;151-132-986-237-59X;;175-413-197-129-096</t>
+          <t>175-413-197-129-096;;144-144-283-847-927;;151-132-986-237-59X</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://lens.org/175-413-197-129-096;;https://lens.org/151-132-986-237-59X;;https://lens.org/144-144-283-847-927</t>
+          <t>https://lens.org/175-413-197-129-096;;https://lens.org/144-144-283-847-927;;https://lens.org/151-132-986-237-59X</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Training quantum evolutions using sublogical controls;;TRAINING QUANTUM EVOLUTIONS USING SUBLOGICAL CONTROLS</t>
+          <t>TRAINING QUANTUM EVOLUTIONS USING SUBLOGICAL CONTROLS;;Training quantum evolutions using sublogical controls</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -8737,7 +8737,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>GOOGLE LLC;;GOOGLE INC</t>
+          <t>GOOGLE INC;;GOOGLE LLC</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -8755,17 +8755,17 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>WO;;US</t>
+          <t>US;;WO</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>B2;;A1</t>
+          <t>A1;;B2</t>
         </is>
       </c>
       <c r="M77" t="n">
@@ -8779,12 +8779,12 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N20/00;;G06N10/00;;G06N99/00</t>
+          <t>G06N20/00;;B82Y10/00;;G06N10/00;;G06N99/00</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G16C10/00;;G06N10/00;;G06N20/00;;G06N5/003</t>
+          <t>G16C10/00;;B82Y10/00;;G06N10/00;;G06N5/003;;G06N20/00</t>
         </is>
       </c>
       <c r="R77" t="inlineStr"/>
@@ -8811,12 +8811,12 @@
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>WO 2017/209791 A1;;US 10275717 B2;;US 2017/0351967 A1</t>
+          <t>US 2017/0351967 A1;;US 10275717 B2;;WO 2017/209791 A1</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>US 201615171778 A;;US 2016/0067471 W</t>
+          <t>US 2016/0067471 W;;US 201615171778 A</t>
         </is>
       </c>
     </row>
@@ -8838,7 +8838,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Training quantum evolutions using sublogical controls;;TRAINING QUANTUM EVOLUTIONS USING SUBLOGICAL CONTROLS</t>
+          <t>TRAINING QUANTUM EVOLUTIONS USING SUBLOGICAL CONTROLS;;Training quantum evolutions using sublogical controls</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -8871,12 +8871,12 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>B2;;A1</t>
+          <t>A1;;B2</t>
         </is>
       </c>
       <c r="M78" t="n">
@@ -8890,12 +8890,12 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N20/00;;G06N10/00</t>
+          <t>G06N20/00;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G16C10/00;;G06N10/00;;G06N20/00;;G06N5/003</t>
+          <t>G16C10/00;;B82Y10/00;;G06N10/00;;G06N5/003;;G06N20/00</t>
         </is>
       </c>
       <c r="R78" t="inlineStr"/>
@@ -8939,17 +8939,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>010-852-607-896-927;;162-900-997-782-030;;090-372-502-956-689;;193-203-788-489-584</t>
+          <t>193-203-788-489-584;;162-900-997-782-030;;010-852-607-896-927;;090-372-502-956-689</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://lens.org/162-900-997-782-030;;https://lens.org/193-203-788-489-584;;https://lens.org/010-852-607-896-927;;https://lens.org/090-372-502-956-689</t>
+          <t>https://lens.org/090-372-502-956-689;;https://lens.org/193-203-788-489-584;;https://lens.org/010-852-607-896-927;;https://lens.org/162-900-997-782-030</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Method and Process of Implementing Machine Learning in Complex Multivariate Wafer Processing Equipment;;Method and process of implementing machine learning in complex multivariate wafer processing equipment;;METHOD AND PROCESS OF IMPLEMENTING MACHINE LEARNING IN COMPLEX MULTIVARIATE WAFER PROCESSING EQUIPMENT</t>
+          <t>Method and process of implementing machine learning in complex multivariate wafer processing equipment;;METHOD AND PROCESS OF IMPLEMENTING MACHINE LEARNING IN COMPLEX MULTIVARIATE WAFER PROCESSING EQUIPMENT;;Method and Process of Implementing Machine Learning in Complex Multivariate Wafer Processing Equipment</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -8977,17 +8977,17 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>WO;;TW;;US</t>
+          <t>US;;TW;;WO</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Patent Application;;Patent of Addition;;Granted Patent</t>
+          <t>Patent of Addition;;Patent Application;;Granted Patent</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>A1;;B2;;A</t>
+          <t>A1;;A;;B2</t>
         </is>
       </c>
       <c r="M79" t="n">
@@ -9001,12 +9001,12 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>C23C14/34;;G01L21/30;;H01L21/67;;H05H1/46;;H01L21/205;;H01L21/3065;;H01J37/32</t>
+          <t>C23C14/34;;G01L21/30;;H05H1/46;;H01J37/32;;H01L21/67;;H01L21/3065;;H01L21/205</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>H01J37/32082;;H01J37/32926;;B81C2201/0138;;H01L21/67069;;H01L21/67242;;H01J2237/334;;H01J37/32935;;H01L21/67248;;H01J37/3299;;H01L21/3065;;H01L21/67253;;H01J37/32972</t>
+          <t>H01L21/67253;;H01J37/32082;;H01J37/32972;;H01J37/32935;;H01J37/3299;;H01L21/3065;;H01J37/32926;;H01L21/67242;;H01L21/67248;;B81C2201/0138;;H01L21/67069;;H01J2237/334</t>
         </is>
       </c>
       <c r="R79" t="inlineStr"/>
@@ -9033,7 +9033,7 @@
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>TW 201826318 A;;US 2018/0082826 A1;;WO 2018/052698 A1;;US 9972478 B2</t>
+          <t>TW 201826318 A;;WO 2018/052698 A1;;US 2018/0082826 A1;;US 9972478 B2</t>
         </is>
       </c>
       <c r="Y79" t="inlineStr">
@@ -9050,17 +9050,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>105-241-204-517-170;;124-585-563-874-282;;038-281-359-281-818;;063-672-641-489-457;;091-701-308-686-233</t>
+          <t>063-672-641-489-457;;091-701-308-686-233;;124-585-563-874-282;;105-241-204-517-170;;038-281-359-281-818</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://lens.org/105-241-204-517-170;;https://lens.org/038-281-359-281-818;;https://lens.org/091-701-308-686-233;;https://lens.org/124-585-563-874-282;;https://lens.org/063-672-641-489-457</t>
+          <t>https://lens.org/038-281-359-281-818;;https://lens.org/105-241-204-517-170;;https://lens.org/124-585-563-874-282;;https://lens.org/091-701-308-686-233;;https://lens.org/063-672-641-489-457</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>복잡한 다변수 웨이퍼 프로세싱 장비에서 머신 러닝을 구현하는 방법 및 프로세스;;複雑な多変量ウエハ処理機器における機械学習を実行する方法及びプロセス;;METHOD AND PROCESS OF IMPLEMENTING MACHINE LEARNING IN COMPLEX MULTIVARIATE WAFER PROCESSING EQUIPMENT</t>
+          <t>METHOD AND PROCESS OF IMPLEMENTING MACHINE LEARNING IN COMPLEX MULTIVARIATE WAFER PROCESSING EQUIPMENT;;複雑な多変量ウエハ処理機器における機械学習を実行する方法及びプロセス;;복잡한 다변수 웨이퍼 프로세싱 장비에서 머신 러닝을 구현하는 방법 및 프로세스</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -9075,7 +9075,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>ゴットショ・リチャード・アラン;;バヘディ・バヘド;;ダウガティ・ジョン;;GUHA JOYDEEP;;DAUGHERTY JOHN;;GOTTSCHO RICHARD ALAN;;VAHEDI VAHID;;グーハ・ジョイディープ</t>
+          <t>GOTTSCHO RICHARD ALAN;;DAUGHERTY JOHN;;ゴットショ・リチャード・アラン;;ダウガティ・ジョン;;GUHA JOYDEEP;;VAHEDI VAHID;;バヘディ・バヘド;;グーハ・ジョイディープ</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
@@ -9084,17 +9084,17 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>CN;;JP;;KR;;EP</t>
+          <t>EP;;KR;;JP;;CN</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Patent Application;;Search Report</t>
+          <t>Search Report;;Patent Application</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>A4;;A1;;A</t>
+          <t>A1;;A4;;A</t>
         </is>
       </c>
       <c r="M80" t="n">
@@ -9108,12 +9108,12 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>C23C16/52;;C23C14/34;;H01L21/67;;H05H1/46;;H01L21/205;;H01L21/3065;;H01J37/32;;H05H1/00;;H01L21/31</t>
+          <t>C23C14/34;;H05H1/46;;C23C16/52;;H01L21/31;;H01L21/3065;;H01J37/32;;H01L21/67;;H01L21/205;;H05H1/00</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>H01J37/32082;;H01J37/32926;;B81C2201/0138;;H01L21/67069;;H01L21/67242;;H01J2237/334;;H01J37/32935;;H01L21/67248;;H01J37/3299;;H01L21/3065;;H01L21/67253;;H01J37/32972</t>
+          <t>H01L21/67253;;H01J37/32082;;H01J37/32972;;H01J37/32935;;H01J37/3299;;H01L21/3065;;H01J37/32926;;H01L21/67242;;H01L21/67248;;B81C2201/0138;;H01L21/67069;;H01J2237/334</t>
         </is>
       </c>
       <c r="R80" t="inlineStr"/>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>CN 109715848 A;;KR 20190049796 A;;EP 3512977 A1;;EP 3512977 A4;;JP 2019537240 A</t>
+          <t>CN 109715848 A;;EP 3512977 A1;;JP 2019537240 A;;KR 20190049796 A;;EP 3512977 A4</t>
         </is>
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>EP 17851300 A;;CN 201780056833 A;;KR 20197009604 A;;JP 2019513313 A</t>
+          <t>EP 17851300 A;;KR 20197009604 A;;CN 201780056833 A;;JP 2019513313 A</t>
         </is>
       </c>
     </row>
@@ -9157,17 +9157,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>114-895-694-698-531;;105-441-254-491-980</t>
+          <t>105-441-254-491-980;;114-895-694-698-531</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://lens.org/105-441-254-491-980;;https://lens.org/114-895-694-698-531</t>
+          <t>https://lens.org/114-895-694-698-531;;https://lens.org/105-441-254-491-980</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>System implementing machine learning in complex multivariate wafer processing equipment;;System Implementing Machine Learning in Complex Multivariate Wafer Processing Equipment</t>
+          <t>System Implementing Machine Learning in Complex Multivariate Wafer Processing Equipment;;System implementing machine learning in complex multivariate wafer processing equipment</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -9215,12 +9215,12 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>H01J37/32;;H01L21/3065;;H01L21/67</t>
+          <t>H01J37/32;;H01L21/67;;H01L21/3065</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>H01J37/32082;;H01J37/32926;;B81C2201/0138;;H01L21/67069;;H01L21/67242;;H01J2237/334;;H01J37/32935;;H01L21/67248;;H01J37/3299;;H01L21/3065;;H01L21/67253;;H01J37/32972</t>
+          <t>H01L21/67253;;H01J37/32082;;H01J37/32972;;H01J37/32935;;H01J37/3299;;H01L21/3065;;H01J37/32926;;H01L21/67242;;H01L21/67248;;B81C2201/0138;;H01L21/67069;;H01J2237/334</t>
         </is>
       </c>
       <c r="R81" t="inlineStr"/>
@@ -9264,17 +9264,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>041-847-960-047-967;;023-991-694-862-996;;132-268-047-578-71X</t>
+          <t>023-991-694-862-996;;041-847-960-047-967;;132-268-047-578-71X</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://lens.org/023-991-694-862-996;;https://lens.org/041-847-960-047-967;;https://lens.org/132-268-047-578-71X</t>
+          <t>https://lens.org/132-268-047-578-71X;;https://lens.org/023-991-694-862-996;;https://lens.org/041-847-960-047-967</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Generating Quantum Logic Control Sequences for Quantum Information Processing Hardware;;Generating quantum logic control sequences for quantum information processing hardware;;GENERATING QUANTUM LOGIC CONTROL SEQUENCES FOR QUANTUM INFORMATION PROCESSING HARDWARE</t>
+          <t>Generating quantum logic control sequences for quantum information processing hardware;;Generating Quantum Logic Control Sequences for Quantum Information Processing Hardware;;GENERATING QUANTUM LOGIC CONTROL SEQUENCES FOR QUANTUM INFORMATION PROCESSING HARDWARE</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -9289,7 +9289,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>SETE EYOB;;ZENG WILLIAM J;;CURTIS MICHAEL;;SETE EYOB A;;CURTIS MICHAEL J;;ZENG WILLIAM</t>
+          <t>SETE EYOB A;;ZENG WILLIAM J;;CURTIS MICHAEL J;;ZENG WILLIAM;;CURTIS MICHAEL;;SETE EYOB</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -9302,7 +9302,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>WO;;US</t>
+          <t>US;;WO</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -9326,12 +9326,12 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;G06F17/30;;G06N99/00;;G06F16/901;;G06N5/02</t>
+          <t>G06F16/901;;G06N5/02;;G06N99/00;;B82Y10/00;;G06N10/00;;G06F17/30</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;G06N5/022;;G06F16/9024</t>
+          <t>G06N5/022;;G06F16/9024;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="R82" t="inlineStr"/>
@@ -9358,7 +9358,7 @@
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>WO 2018/089792 A1;;US 10255555 B2;;US 2018/0232652 A1</t>
+          <t>US 2018/0232652 A1;;US 10255555 B2;;WO 2018/089792 A1</t>
         </is>
       </c>
       <c r="Y82" t="inlineStr">
@@ -9375,17 +9375,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>137-779-011-538-122;;031-156-790-577-782</t>
+          <t>031-156-790-577-782;;137-779-011-538-122</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://lens.org/137-779-011-538-122;;https://lens.org/031-156-790-577-782</t>
+          <t>https://lens.org/031-156-790-577-782;;https://lens.org/137-779-011-538-122</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Generating Quantum Logic Control Sequences for Quantum Information Processing Hardware;;Generating quantum logic control sequences for quantum information processing hardware</t>
+          <t>Generating quantum logic control sequences for quantum information processing hardware;;Generating Quantum Logic Control Sequences for Quantum Information Processing Hardware</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -9437,12 +9437,12 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;G06N5/02;;G06F16/901</t>
+          <t>G06F16/901;;G06N5/02;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;G06N5/022;;G06F16/9024</t>
+          <t>G06N5/022;;G06F16/9024;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="R83" t="inlineStr"/>
@@ -9491,7 +9491,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://lens.org/039-906-098-361-02X;;https://lens.org/029-162-352-336-080</t>
+          <t>https://lens.org/029-162-352-336-080;;https://lens.org/039-906-098-361-02X</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -9511,7 +9511,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>CASSIDY MAJA;;PREDKI PAUL F</t>
+          <t>PREDKI PAUL F;;CASSIDY MAJA</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -9529,12 +9529,12 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>B2;;A1</t>
+          <t>A1;;B2</t>
         </is>
       </c>
       <c r="M84" t="n">
@@ -9548,12 +9548,12 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>B82Y10/00;;C12Q1/68;;G11C13/02;;C12Q1/6869;;G16B30/00;;G06N3/12</t>
+          <t>G11C13/02;;G06N3/12;;C12Q1/68;;B82Y10/00;;G16B30/00;;C12Q1/6869</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>G01N33/48721;;C12Q2565/631;;B82Y10/00;;C12Q2563/116;;C12Q1/68;;G11C13/02;;C12Q1/6869;;G16B30/00;;C12Q2521/131;;C12P19/34;;G06N3/123</t>
+          <t>G11C13/02;;C12Q2563/116;;G06N3/123;;C12Q2521/131;;G01N33/48721;;C12Q2565/631;;C12Q1/68;;B82Y10/00;;C12P19/34;;G16B30/00;;C12Q1/6869</t>
         </is>
       </c>
       <c r="R84" t="inlineStr"/>
@@ -9580,7 +9580,7 @@
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>US 10438662 B2;;US 2019/0080760 A1</t>
+          <t>US 2019/0080760 A1;;US 10438662 B2</t>
         </is>
       </c>
       <c r="Y84" t="inlineStr">
@@ -9597,7 +9597,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>033-319-578-578-485;;016-230-475-526-618</t>
+          <t>016-230-475-526-618;;033-319-578-578-485</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -9622,7 +9622,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>CASSIDY MAJA;;PREDKI PAUL F</t>
+          <t>PREDKI PAUL F;;CASSIDY MAJA</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -9659,12 +9659,12 @@
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>B82Y10/00;;C12Q1/68;;G11C13/02;;C12Q1/6869;;G16B30/00;;G06N3/12</t>
+          <t>G11C13/02;;G06N3/12;;C12Q1/68;;G16B30/00;;B82Y10/00;;C12Q1/6869</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>G01N33/48721;;C12Q2565/631;;B82Y10/00;;C12Q2563/116;;C12Q1/68;;G11C13/02;;C12Q1/6869;;G16B30/00;;C12Q2521/131;;C12P19/34;;G06N3/123</t>
+          <t>G11C13/02;;C12Q2563/116;;G06N3/123;;C12Q2521/131;;G01N33/48721;;C12Q2565/631;;C12Q1/68;;B82Y10/00;;C12P19/34;;G16B30/00;;C12Q1/6869</t>
         </is>
       </c>
       <c r="R85" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>US 2019/0341108 A1;;US 10714178 B2</t>
+          <t>US 10714178 B2;;US 2019/0341108 A1</t>
         </is>
       </c>
       <c r="Y85" t="inlineStr">
@@ -9766,12 +9766,12 @@
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>A61N1/05;;A61N1/36;;G06N3/063;;A61N1/372;;G16H20/30;;A61N1/378;;A61N5/06</t>
+          <t>A61N1/372;;A61N5/06;;G16H20/30;;A61N1/378;;A61N1/36;;G06N3/063;;A61N1/05</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>B82Y10/00;;A61B5/0006;;B82Y5/00;;A61N5/0622;;A61N2005/0612;;A61N1/0534;;A61N1/36067;;G06N3/049;;A61B5/369;;A61N1/36064;;A61N5/0618;;A61N2005/0611;;A61N1/36139;;A61N1/37223;;A61N2005/0652;;A61N2005/067;;A61N2005/0626;;G06N3/063;;A61N1/3787;;A61N1/0531;;A61B5/0022;;G16H20/30;;A61B5/6868;;A61B5/0031;;A61N1/36096;;A61B5/24;;A61N2005/0663;;G16H20/40;;A61N1/37264;;A61N2005/063;;A61N1/36082;;A61N5/0601</t>
+          <t>A61N5/0601;;A61N1/0534;;A61N1/0531;;A61N5/0618;;A61N2005/067;;A61N2005/0626;;A61N2005/0611;;A61N1/36082;;A61N1/36064;;A61N1/36096;;A61B5/0031;;A61N1/36139;;A61N2005/0663;;A61N1/37264;;G16H20/30;;A61B5/369;;A61B5/6868;;A61N1/36067;;G06N3/049;;A61N2005/0612;;A61B5/0006;;A61N1/37223;;A61N5/0622;;A61B5/0022;;A61N2005/063;;B82Y10/00;;G06N3/063;;A61N1/3787;;A61N2005/0652;;B82Y5/00;;A61B5/24;;G16H20/40</t>
         </is>
       </c>
       <c r="R86" t="inlineStr"/>
@@ -9873,12 +9873,12 @@
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>A61N1/372;;A61N1/36;;A61N5/06;;G16H20/30</t>
+          <t>A61N1/36;;A61N1/372;;G16H20/30;;A61N5/06</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>B82Y10/00;;A61B5/0084;;B82Y5/00;;A61B5/4076;;B82Y30/00;;A61B5/076;;G16H40/63;;A61B5/0024;;A61N5/0622;;A61N2005/0612;;G16H40/67;;A61B5/37;;A61N1/36067;;A61N1/36071;;G06N3/049;;A61N5/0618;;A61N1/37252;;A61N5/0601;;A61N1/36139;;A61N2005/0652;;A61N2005/067;;A61N2005/0626;;G16H10/60;;A61B5/6815;;A61N1/0531;;G16H20/30;;G16H30/40;;A61B5/6868;;G16H50/20;;A61B5/0031;;A61B5/375;;G16H20/40;;A61N2005/0663;;A61B5/1473;;A61N2005/063;;G06F3/015;;A61N1/36082;;A61N2005/0611</t>
+          <t>A61N5/0601;;A61N1/36071;;A61N1/0531;;A61N5/0618;;A61B5/1473;;A61N2005/067;;A61N2005/0626;;A61N2005/0611;;A61N1/36082;;A61B5/0024;;A61B5/0031;;A61N1/36139;;A61N2005/0663;;G16H10/60;;G16H20/30;;A61B5/076;;A61B5/6868;;A61B5/6815;;A61N1/36067;;G06N3/049;;A61N2005/0612;;A61B5/4076;;G16H40/63;;G06F3/015;;A61N5/0622;;A61B5/0084;;A61N2005/063;;B82Y10/00;;G16H40/67;;B82Y30/00;;A61N1/37252;;G16H30/40;;A61N2005/0652;;A61B5/375;;G16H50/20;;B82Y5/00;;A61B5/37;;G16H20/40</t>
         </is>
       </c>
       <c r="R87" t="inlineStr"/>
@@ -9980,12 +9980,12 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>B82Y15/00;;A61B5/145;;A61B5/00</t>
+          <t>A61B5/00;;B82Y15/00;;A61B5/145</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>A61B5/7267;;A61B5/4088;;B82Y30/00;;A61B5/72;;A61B2562/0285;;A61B5/167;;A61B5/686;;A61B5/168;;A61B5/14546;;A61B5/14503;;B82Y15/00;;A61B5/6868;;A61B5/4082</t>
+          <t>A61B5/4082;;A61B5/167;;A61B5/72;;A61B5/14503;;A61B5/168;;A61B5/6868;;A61B5/14546;;A61B5/7267;;B82Y15/00;;A61B5/4088;;B82Y30/00;;A61B2562/0285;;A61B5/686</t>
         </is>
       </c>
       <c r="R88" t="inlineStr"/>
@@ -10049,12 +10049,12 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>D-WAVE SYSTEMS INC;;YARKONI SHEIR</t>
+          <t>YARKONI SHEIR;;D-WAVE SYSTEMS INC</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>KING ANDREW DOUGLAS;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY A;;BOOTHBY THOMAS J;;LANTING TREVOR MICHAEL;;YARKONI SHEIR</t>
+          <t>LANTING TREVOR MICHAEL;;BOOTHBY THOMAS J;;YARKONI SHEIR;;ANDRIYASH EVGENY A;;KING ANDREW DOUGLAS;;AMIN MOHAMMAD H</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
@@ -10092,7 +10092,7 @@
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;G06N3/0472;;G06N3/0445;;G06N7/08</t>
+          <t>G06N3/0445;;G06N3/0472;;B82Y10/00;;G06N10/00;;G06N7/08</t>
         </is>
       </c>
       <c r="R89" t="inlineStr"/>
@@ -10161,7 +10161,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>KING ANDREW DOUGLAS;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY A;;BOOTHBY THOMAS J;;LANTING TREVOR MICHAEL;;YARKONI SHEIR</t>
+          <t>LANTING TREVOR MICHAEL;;BOOTHBY THOMAS J;;YARKONI SHEIR;;ANDRIYASH EVGENY A;;KING ANDREW DOUGLAS;;AMIN MOHAMMAD H</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
@@ -10194,12 +10194,12 @@
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>G06N10/00;;G06N3/04</t>
+          <t>G06N3/04;;G06N10/00</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;G06N3/0472;;G06N3/0445;;G06N7/08</t>
+          <t>G06N3/0445;;G06N3/0472;;B82Y10/00;;G06N10/00;;G06N7/08</t>
         </is>
       </c>
       <c r="R90" t="inlineStr"/>
@@ -10248,12 +10248,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://lens.org/180-555-399-659-364;;https://lens.org/094-936-019-284-567</t>
+          <t>https://lens.org/094-936-019-284-567;;https://lens.org/180-555-399-659-364</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Systems and methods for quantum computation;;SYSTEMS AND METHODS FOR QUANTUM COMPUTATION</t>
+          <t>SYSTEMS AND METHODS FOR QUANTUM COMPUTATION;;Systems and methods for quantum computation</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -10263,12 +10263,12 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>D WAVE SYSTEMS INC;;YARKONI SHEIR</t>
+          <t>YARKONI SHEIR;;D WAVE SYSTEMS INC</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>KING ANDREW DOUGLAS;;BOOTHBY KELLY T R;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY A;;LANTING TREVOR MICHAEL;;YARKONI SHEIR</t>
+          <t>LANTING TREVOR MICHAEL;;YARKONI SHEIR;;ANDRIYASH EVGENY A;;KING ANDREW DOUGLAS;;AMIN MOHAMMAD H;;BOOTHBY KELLY T R</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -10286,12 +10286,12 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>B2;;A1</t>
+          <t>A1;;B2</t>
         </is>
       </c>
       <c r="M91" t="n">
@@ -10305,12 +10305,12 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;G06N3/04;;G06N7/08</t>
+          <t>G06N3/04;;G06N7/08;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;G06N3/0472;;G06N3/0445;;G06N7/08</t>
+          <t>G06N3/0445;;G06N3/0472;;B82Y10/00;;G06N10/00;;G06N7/08</t>
         </is>
       </c>
       <c r="R91" t="inlineStr"/>
@@ -10337,7 +10337,7 @@
       </c>
       <c r="X91" t="inlineStr">
         <is>
-          <t>US 2019/0266510 A1;;US 10671937 B2</t>
+          <t>US 10671937 B2;;US 2019/0266510 A1</t>
         </is>
       </c>
       <c r="Y91" t="inlineStr">
@@ -10379,7 +10379,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>KING ANDREW DOUGLAS;;BOOTHBY KELLY T R;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY A;;LANTING TREVOR MICHAEL;;YARKONI SHEIR</t>
+          <t>LANTING TREVOR MICHAEL;;YARKONI SHEIR;;ANDRIYASH EVGENY A;;KING ANDREW DOUGLAS;;AMIN MOHAMMAD H;;BOOTHBY KELLY T R</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
@@ -10412,12 +10412,12 @@
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;G06N3/04;;G06N7/08</t>
+          <t>G06N3/04;;G06N7/08;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;G06N3/0472;;G06N3/0445;;G06N7/08</t>
+          <t>G06N3/0445;;G06N3/0472;;B82Y10/00;;G06N10/00;;G06N7/08</t>
         </is>
       </c>
       <c r="R92" t="inlineStr"/>
@@ -10486,7 +10486,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>YAZDI S M HOSSEIN TABATABAEI;;MILENKOVIC OLGICA;;GABRYS RYAN</t>
+          <t>YAZDI S M HOSSEIN TABATABAEI;;GABRYS RYAN;;MILENKOVIC OLGICA</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -10523,12 +10523,12 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>B82Y10/00;;C12Q1/68;;C12Q1/6806;;G11C13/02;;G06N3/12</t>
+          <t>G11C13/02;;G06N3/12;;C12Q1/6806;;C12Q1/68;;B82Y10/00</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G11C13/025;;B82Y5/00;;G11C13/0019;;C12Q1/68;;G11C13/004;;C12Q1/6806;;C12Q1/6869;;G16B30/10;;G16B50/50;;G06N3/123;;G06N3/12;;G16B50/00</t>
+          <t>G16B50/00;;G16B30/10;;G06N3/12;;G16B50/50;;G06N3/123;;B82Y5/00;;G11C13/0019;;C12Q1/6806;;G11C13/025;;C12Q1/68;;B82Y10/00;;C12Q1/6869;;G11C13/004</t>
         </is>
       </c>
       <c r="R93" t="inlineStr"/>
@@ -10572,12 +10572,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>150-446-297-196-345;;047-505-978-833-155;;048-938-486-237-816;;000-855-771-025-710;;187-797-836-525-53X;;135-940-995-038-782</t>
+          <t>135-940-995-038-782;;000-855-771-025-710;;187-797-836-525-53X;;048-938-486-237-816;;047-505-978-833-155;;150-446-297-196-345</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://lens.org/135-940-995-038-782;;https://lens.org/048-938-486-237-816;;https://lens.org/047-505-978-833-155;;https://lens.org/000-855-771-025-710;;https://lens.org/187-797-836-525-53X;;https://lens.org/150-446-297-196-345</t>
+          <t>https://lens.org/047-505-978-833-155;;https://lens.org/187-797-836-525-53X;;https://lens.org/000-855-771-025-710;;https://lens.org/150-446-297-196-345;;https://lens.org/135-940-995-038-782;;https://lens.org/048-938-486-237-816</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -10597,7 +10597,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>ポール・エフ・プレドキ;;CASSIDY MAJA;;PREDKI PAUL F;;マジャ・キャシディ</t>
+          <t>マジャ・キャシディ;;ポール・エフ・プレドキ;;PREDKI PAUL F;;CASSIDY MAJA</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
@@ -10606,17 +10606,17 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>KR;;CA;;JP;;CN;;EP</t>
+          <t>JP;;EP;;CN;;KR;;CA</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Patent Application;;Search Report</t>
+          <t>Search Report;;Patent Application</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>A4;;A1;;A</t>
+          <t>A1;;A4;;A</t>
         </is>
       </c>
       <c r="M94" t="n">
@@ -10630,12 +10630,12 @@
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>G01N33/48;;G01N27/00;;C07H21/04;;B82Y5/00;;C12Q1/68;;G11C13/00;;B82Y40/00;;G01N27/22;;C12Q1/6869;;G16B30/00;;G01N33/50;;G01N33/487;;C12P19/34;;G06N3/12</t>
+          <t>G01N27/00;;G01N33/487;;G01N33/48;;G06N3/12;;G11C13/00;;B82Y5/00;;G01N27/22;;C12Q1/6869;;C12Q1/68;;C07H21/04;;G16B30/00;;C12P19/34;;B82Y40/00;;G01N33/50</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>G01N33/48721;;C12Q2565/631;;B82Y10/00;;C12Q2563/116;;C12Q1/68;;G11C13/02;;C12Q1/6869;;G16B30/00;;C12Q2521/131;;C12P19/34;;G06N3/123</t>
+          <t>G11C13/02;;C12Q2563/116;;G06N3/123;;C12Q2521/131;;G01N33/48721;;C12Q2565/631;;C12Q1/68;;B82Y10/00;;C12P19/34;;G16B30/00;;C12Q1/6869</t>
         </is>
       </c>
       <c r="R94" t="inlineStr"/>
@@ -10662,12 +10662,12 @@
       </c>
       <c r="X94" t="inlineStr">
         <is>
-          <t>KR 20190111897 A;;CN 110325653 A;;CA 3079046 A1;;EP 3532639 A1;;EP 3532639 A4;;JP 2020502494 A</t>
+          <t>EP 3532639 A1;;CA 3079046 A1;;JP 2020502494 A;;CN 110325653 A;;EP 3532639 A4;;KR 20190111897 A</t>
         </is>
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>KR 20197015597 A;;JP 2019523791 A;;CA 3079046 A;;CN 201780080140 A;;EP 17865168 A</t>
+          <t>KR 20197015597 A;;CN 201780080140 A;;EP 17865168 A;;CA 3079046 A;;JP 2019523791 A</t>
         </is>
       </c>
     </row>
@@ -10704,7 +10704,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>CASSIDY MAJA;;PREDKI PAUL F</t>
+          <t>PREDKI PAUL F;;CASSIDY MAJA</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
@@ -10737,12 +10737,12 @@
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>G01N33/48;;C12Q1/68;;G01N27/22;;G06F19/00;;G01N33/50</t>
+          <t>G01N33/48;;G06F19/00;;G01N27/22;;C12Q1/68;;G01N33/50</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>G01N33/48721;;C12Q2565/631;;B82Y10/00;;C12Q2563/116;;C12Q1/68;;G11C13/02;;C12Q1/6869;;G16B30/00;;C12Q2521/131;;C12P19/34;;G06N3/123</t>
+          <t>G11C13/02;;C12Q2563/116;;G06N3/123;;C12Q2521/131;;G01N33/48721;;C12Q2565/631;;C12Q1/68;;B82Y10/00;;C12P19/34;;G16B30/00;;C12Q1/6869</t>
         </is>
       </c>
       <c r="R95" t="inlineStr"/>
@@ -10811,7 +10811,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>MAHMOUDI MORTEZA;;CORBO CLAUDIA;;FAROKHZAD OMID</t>
+          <t>FAROKHZAD OMID;;CORBO CLAUDIA;;MAHMOUDI MORTEZA</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -10848,12 +10848,12 @@
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>G01N33/68;;C01G49/02;;G06K9/00;;G06K9/62;;G06N20/20</t>
+          <t>G06K9/62;;C01G49/02;;G06N20/20;;G06K9/00;;G01N33/68</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>B82Y5/00;;G01N2570/00;;B82Y30/00;;C01P2004/64;;G01N33/54346;;G06K9/00536;;G01N33/57488;;G16B40/30;;B82Y35/00;;G01N33/587;;G01N33/6848;;G01N33/6845;;G16B20/00;;G06K9/00563;;G01N2800/2821;;C01G49/02;;G01N33/586;;G06N20/20;;G01N33/553;;G01N33/6803;;G06K9/6267;;G01N33/5432;;G16B40/20</t>
+          <t>G01N33/553;;G01N2800/2821;;G06K9/00563;;G06K9/00536;;G16B40/20;;G06K9/6267;;C01G49/02;;G01N33/54346;;G06N20/20;;G01N2570/00;;C01P2004/64;;G01N33/586;;G01N33/5432;;G01N33/57488;;G01N33/6845;;B82Y35/00;;G16B20/00;;G01N33/587;;B82Y30/00;;G01N33/6848;;B82Y5/00;;G16B40/30;;G01N33/6803</t>
         </is>
       </c>
       <c r="R96" t="inlineStr"/>
@@ -10922,7 +10922,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>YOUNG IAN A;;MANIPATRUNI SASIKANTH;;NIKONOV DMITRI E</t>
+          <t>MANIPATRUNI SASIKANTH;;YOUNG IAN A;;NIKONOV DMITRI E</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
@@ -10955,12 +10955,12 @@
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>G06N99/00;;G06N3/08;;G06N3/063</t>
+          <t>G06N3/063;;G06N99/00;;G06N3/08</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H01L29/66984;;H01L43/08;;H01L43/10;;B82Y25/00;;G06N3/0635</t>
+          <t>H01L43/10;;H01L43/08;;H01L29/66984;;G06N3/0635;;B82Y10/00;;B82Y25/00</t>
         </is>
       </c>
       <c r="R97" t="inlineStr"/>
@@ -11009,12 +11009,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://lens.org/050-105-019-902-296;;https://lens.org/008-994-057-244-271</t>
+          <t>https://lens.org/008-994-057-244-271;;https://lens.org/050-105-019-902-296</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>BIO-DIRECTIONAL NEURON-ELECTRONIC DEVICE INTERFACE STRUCTURES;;Bi-directional neuron-electronic device interface structures</t>
+          <t>Bi-directional neuron-electronic device interface structures;;BIO-DIRECTIONAL NEURON-ELECTRONIC DEVICE INTERFACE STRUCTURES</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -11029,7 +11029,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>YAROSLAVSKY IGOR;;SIGNAEVSKY MAXIM;;SIGNAEVSKI MAXIM M;;YAROSLAVSKY IGOR YEHUDA</t>
+          <t>SIGNAEVSKI MAXIM M;;YAROSLAVSKY IGOR YEHUDA;;SIGNAEVSKY MAXIM;;YAROSLAVSKY IGOR</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
@@ -11062,12 +11062,12 @@
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>B82Y5/00;;A61B5/0492;;H01L41/16</t>
+          <t>A61B5/0492;;B82Y5/00;;H01L41/16</t>
         </is>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>A61B5/24;;A61B2562/125;;B82Y30/00;;G06N3/061;;G06N3/0675;;A61B5/7264;;A61N1/0529</t>
+          <t>A61B2562/125;;A61N1/0529;;A61B5/24;;G06N3/061;;G06N3/0675;;B82Y30/00;;A61B5/7264</t>
         </is>
       </c>
       <c r="R98" t="inlineStr"/>
@@ -11111,7 +11111,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>099-584-260-676-79X;;055-322-631-913-242</t>
+          <t>055-322-631-913-242;;099-584-260-676-79X</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -11132,7 +11132,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>SIGNAEVSKY MAXIM;;YAROSLAVSKY IGOR YEHUDA</t>
+          <t>YAROSLAVSKY IGOR YEHUDA;;SIGNAEVSKY MAXIM</t>
         </is>
       </c>
       <c r="H99" t="inlineStr"/>
@@ -11146,12 +11146,12 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Patent Application;;Search Report</t>
+          <t>Search Report;;Patent Application</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>A4;;A1</t>
+          <t>A1;;A4</t>
         </is>
       </c>
       <c r="M99" t="n">
@@ -11165,12 +11165,12 @@
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>A61N1/05;;G06N3/06;;B82Y5/00;;B82Y30/00;;A61B5/04;;A61B5/0492</t>
+          <t>A61B5/0492;;A61B5/04;;B82Y5/00;;B82Y30/00;;G06N3/06;;A61N1/05</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>A61B5/24;;A61B2562/125;;B82Y30/00;;G06N3/061;;G06N3/0675;;A61B5/7264;;A61N1/0529</t>
+          <t>A61B2562/125;;A61N1/0529;;A61B5/24;;G06N3/061;;G06N3/0675;;B82Y30/00;;A61B5/7264</t>
         </is>
       </c>
       <c r="R99" t="inlineStr"/>
@@ -11197,7 +11197,7 @@
       </c>
       <c r="X99" t="inlineStr">
         <is>
-          <t>EP 3576620 A1;;EP 3576620 A4</t>
+          <t>EP 3576620 A4;;EP 3576620 A1</t>
         </is>
       </c>
       <c r="Y99" t="inlineStr">
@@ -11214,7 +11214,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>031-532-035-261-932;;149-547-617-610-224</t>
+          <t>149-547-617-610-224;;031-532-035-261-932</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Bi-directional neuron-electronic device interface structures;;BI-DIRECTIONAL NEURON-ELECTRONIC DEVICE INTERFACE STRUCTURES</t>
+          <t>BI-DIRECTIONAL NEURON-ELECTRONIC DEVICE INTERFACE STRUCTURES;;Bi-directional neuron-electronic device interface structures</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -11239,7 +11239,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>SIGNAEVSKY MAXIM;;YAROSLAVSKY IGOR YEHUDA</t>
+          <t>YAROSLAVSKY IGOR YEHUDA;;SIGNAEVSKY MAXIM</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -11257,12 +11257,12 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>B2;;A1</t>
+          <t>A1;;B2</t>
         </is>
       </c>
       <c r="M100" t="n">
@@ -11276,12 +11276,12 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>A61N1/05;;G06N3/06;;B82Y30/00;;G06N3/067;;A61B5/04;;A61B5/00</t>
+          <t>A61B5/04;;G06N3/067;;B82Y30/00;;A61B5/00;;G06N3/06;;A61N1/05</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>A61B5/24;;A61B2562/125;;B82Y30/00;;G06N3/061;;G06N3/0675;;A61B5/7264;;A61N1/0529</t>
+          <t>A61B2562/125;;A61N1/0529;;A61B5/24;;G06N3/061;;G06N3/0675;;B82Y30/00;;A61B5/7264</t>
         </is>
       </c>
       <c r="R100" t="inlineStr"/>
@@ -11350,7 +11350,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>SIGNAEVSKY MAXIM;;YAROSLAVSKY IGOR YEHUDA</t>
+          <t>YAROSLAVSKY IGOR YEHUDA;;SIGNAEVSKY MAXIM</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -11387,12 +11387,12 @@
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>A61N1/05;;A61B5/04;;A61B5/00;;G06N3/067</t>
+          <t>G06N3/067;;A61B5/00;;A61N1/05;;A61B5/04</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>A61B5/24;;A61B2562/125;;B82Y30/00;;G06N3/061;;G06N3/0675;;A61B5/7264;;A61N1/0529</t>
+          <t>A61B2562/125;;A61N1/0529;;A61B5/24;;G06N3/061;;G06N3/0675;;B82Y30/00;;A61B5/7264</t>
         </is>
       </c>
       <c r="R101" t="inlineStr"/>
@@ -11461,7 +11461,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>SUCHOWSKI HAIM;;MREJEN MICHAEL;;WOLF LIOR;;NAGLER ACHIYA;;MALKIEL ITZIK;;ARIELI URI</t>
+          <t>SUCHOWSKI HAIM;;MALKIEL ITZIK;;MREJEN MICHAEL;;ARIELI URI;;NAGLER ACHIYA;;WOLF LIOR</t>
         </is>
       </c>
       <c r="H102" t="inlineStr"/>
@@ -11494,12 +11494,12 @@
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>G01B11/02;;B82Y35/00</t>
+          <t>B82Y35/00;;G01B11/02</t>
         </is>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>G06N3/0481;;G01N2021/258;;G06N3/04;;B82Y40/00;;G01N21/21;;G01B2210/56;;G06N3/08;;G01N21/25;;G06N3/126</t>
+          <t>G01N2021/258;;G06N3/08;;G01B2210/56;;G06N3/04;;G06N3/0481;;B82Y40/00;;G01N21/25;;G06N3/126;;G01N21/21</t>
         </is>
       </c>
       <c r="R102" t="inlineStr"/>
@@ -11568,7 +11568,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>NEVEN HARTMUT;;FARHI EDWARD HENRY</t>
+          <t>FARHI EDWARD HENRY;;NEVEN HARTMUT</t>
         </is>
       </c>
       <c r="H103" t="inlineStr"/>
@@ -11601,12 +11601,12 @@
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>G06N99/00;;G06N3/063</t>
+          <t>G06N3/063;;G06N99/00</t>
         </is>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H04L2209/34;;H04L9/0852;;G06N10/00;;G06N3/063;;G06N3/08;;G06N20/00</t>
+          <t>G06N3/063;;G06N3/08;;H04L9/0852;;B82Y10/00;;G06N10/00;;G06N20/00;;H04L2209/34</t>
         </is>
       </c>
       <c r="R103" t="inlineStr"/>
@@ -11650,17 +11650,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>104-916-437-556-927;;190-018-764-824-196;;126-194-360-671-56X;;098-699-064-344-687;;122-674-749-552-013;;004-080-118-128-877;;086-142-481-875-549</t>
+          <t>086-142-481-875-549;;190-018-764-824-196;;126-194-360-671-56X;;122-674-749-552-013;;098-699-064-344-687;;004-080-118-128-877;;104-916-437-556-927</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://lens.org/086-142-481-875-549;;https://lens.org/098-699-064-344-687;;https://lens.org/122-674-749-552-013;;https://lens.org/126-194-360-671-56X;;https://lens.org/104-916-437-556-927;;https://lens.org/004-080-118-128-877;;https://lens.org/190-018-764-824-196</t>
+          <t>https://lens.org/122-674-749-552-013;;https://lens.org/098-699-064-344-687;;https://lens.org/104-916-437-556-927;;https://lens.org/190-018-764-824-196;;https://lens.org/004-080-118-128-877;;https://lens.org/126-194-360-671-56X;;https://lens.org/086-142-481-875-549</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Quantum neural network;;QUANTUM NEURAL NETWORK;;量子ニューラルネットワーク</t>
+          <t>Quantum neural network;;量子ニューラルネットワーク;;QUANTUM NEURAL NETWORK</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -11670,12 +11670,12 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>GOOGLE LLC;;グーグル エルエルシー;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
+          <t>グーグル エルエルシー;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;GOOGLE LLC</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>NEVEN HARTMUT;;FARHI EDWARD HENRY;;ハルトムート・ネーヴェン;;エドワード・ヘンリー・ファーリ</t>
+          <t>FARHI EDWARD HENRY;;ハルトムート・ネーヴェン;;NEVEN HARTMUT;;エドワード・ヘンリー・ファーリ</t>
         </is>
       </c>
       <c r="H104" t="inlineStr"/>
@@ -11684,7 +11684,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>CA;;JP;;CN;;EP;;AU</t>
+          <t>AU;;JP;;EP;;CN;;CA</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -11694,7 +11694,7 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>A1;;B2;;A</t>
+          <t>A1;;A;;B2</t>
         </is>
       </c>
       <c r="M104" t="n">
@@ -11708,12 +11708,12 @@
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>G06N99/00;;G06N10/00;;G06N3/063</t>
+          <t>G06N3/063;;G06N10/00;;G06N99/00</t>
         </is>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H04L2209/34;;H04L9/0852;;G06N10/00;;G06N3/063;;G06N3/08;;G06N20/00</t>
+          <t>G06N3/063;;G06N3/08;;H04L9/0852;;B82Y10/00;;G06N10/00;;G06N20/00;;H04L2209/34</t>
         </is>
       </c>
       <c r="R104" t="inlineStr"/>
@@ -11740,12 +11740,12 @@
       </c>
       <c r="X104" t="inlineStr">
         <is>
-          <t>JP 6882533 B2;;JP 2020522805 A;;AU 2018/278348 B2;;CN 110692067 A;;CA 3065859 A1;;AU 2018/278348 A1;;EP 3619655 A1</t>
+          <t>CA 3065859 A1;;EP 3619655 A1;;AU 2018/278348 B2;;CN 110692067 A;;AU 2018/278348 A1;;JP 6882533 B2;;JP 2020522805 A</t>
         </is>
       </c>
       <c r="Y104" t="inlineStr">
         <is>
-          <t>JP 2019566260 A;;CA 3065859 A;;EP 18733461 A;;AU 2018/278348 A;;CN 201880036533 A</t>
+          <t>JP 2019566260 A;;EP 18733461 A;;CA 3065859 A;;AU 2018/278348 A;;CN 201880036533 A</t>
         </is>
       </c>
     </row>
@@ -11782,7 +11782,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>NEVEN HARTMUT;;FARHI EDWARD HENRY</t>
+          <t>FARHI EDWARD HENRY;;NEVEN HARTMUT</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -11819,12 +11819,12 @@
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;G06N3/063;;G06N3/08;;G06N20/00;;H04L9/08</t>
+          <t>H04L9/08;;G06N20/00;;G06N3/08;;B82Y10/00;;G06N10/00;;G06N3/063</t>
         </is>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H04L2209/34;;H04L9/0852;;G06N10/00;;G06N3/063;;G06N3/08;;G06N20/00</t>
+          <t>G06N3/063;;G06N3/08;;H04L9/0852;;B82Y10/00;;G06N10/00;;G06N20/00;;H04L2209/34</t>
         </is>
       </c>
       <c r="R105" t="inlineStr"/>
@@ -11893,7 +11893,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>GUILLOU DAVID;;SINHA RAJARISHI</t>
+          <t>SINHA RAJARISHI;;GUILLOU DAVID</t>
         </is>
       </c>
       <c r="H106" t="inlineStr"/>
@@ -11926,12 +11926,12 @@
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>H01L41/08;;H01L41/18;;H03H9/15;;H03H9/02;;H03H9/42</t>
+          <t>H03H9/42;;H01L41/18;;H01L41/08;;H03H9/15;;H03H9/02</t>
         </is>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>H01L27/20;;H01L41/0986;;G06N3/04;;B81B3/0021;;G06N3/0445;;G06N3/0635</t>
+          <t>H01L41/0986;;H01L27/20;;G06N3/04;;G06N3/0445;;G06N3/0635;;B81B3/0021</t>
         </is>
       </c>
       <c r="R106" t="inlineStr"/>
@@ -12000,7 +12000,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>GUILLOU DAVID FRANCOIS;;SINHA RAJARISHI</t>
+          <t>SINHA RAJARISHI;;GUILLOU DAVID FRANCOIS</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -12042,7 +12042,7 @@
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>H01L27/20;;H01L41/0986;;G06N3/04;;B81B3/0021;;G06N3/0445;;G06N3/0635</t>
+          <t>H01L41/0986;;H01L27/20;;G06N3/04;;G06N3/0445;;G06N3/0635;;B81B3/0021</t>
         </is>
       </c>
       <c r="R107" t="inlineStr"/>
@@ -12111,7 +12111,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>NGUYEN CHRISTIAN;;EVANS RUFFIN;;SIPAHIGIL ALP;;SUKACHEV DENIS;;BHASKAR MIHIR;;LUNKIN MIKHAIL</t>
+          <t>LUNKIN MIKHAIL;;BHASKAR MIHIR;;NGUYEN CHRISTIAN;;SUKACHEV DENIS;;EVANS RUFFIN;;SIPAHIGIL ALP</t>
         </is>
       </c>
       <c r="H108" t="inlineStr"/>
@@ -12144,12 +12144,12 @@
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G11C11/00</t>
+          <t>G11C11/00;;B82Y10/00</t>
         </is>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;B82Y30/00;;H04B10/90;;G11C11/16;;G06N20/00;;H01L29/1602</t>
+          <t>H04B10/90;;G11C11/16;;B82Y10/00;;G06N10/00;;B82Y30/00;;G06N20/00;;H01L29/1602</t>
         </is>
       </c>
       <c r="R108" t="inlineStr"/>
@@ -12218,7 +12218,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>NGUYEN CHRISTIAN THIEU;;BHASKAR MIHIR KESHAV;;SUKACHEV DENIS D;;SIPAHIGIL ALP;;LUKIN MIKHAIL D;;EVANS RUFFIN E</t>
+          <t>LUKIN MIKHAIL D;;NGUYEN CHRISTIAN THIEU;;SUKACHEV DENIS D;;EVANS RUFFIN E;;SIPAHIGIL ALP;;BHASKAR MIHIR KESHAV</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -12260,7 +12260,7 @@
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;B82Y30/00;;H04B10/90;;G11C11/16;;G06N20/00;;H01L29/1602</t>
+          <t>H04B10/90;;G11C11/16;;B82Y10/00;;G06N10/00;;B82Y30/00;;G06N20/00;;H01L29/1602</t>
         </is>
       </c>
       <c r="R109" t="inlineStr"/>
@@ -12329,7 +12329,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>VINE WYATT;;DIENEL THOMAS;;WOLKOW ROBERT;;WALUS KONRAD;;LIVADARU LUCIAN;;HUFF TALEANA;;RETALLICK JACOB;;RASHIDI MOHAMMAD</t>
+          <t>RETALLICK JACOB;;WOLKOW ROBERT;;HUFF TALEANA;;WALUS KONRAD;;DIENEL THOMAS;;VINE WYATT;;RASHIDI MOHAMMAD;;LIVADARU LUCIAN</t>
         </is>
       </c>
       <c r="H110" t="inlineStr"/>
@@ -12362,12 +12362,12 @@
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>G01Q60/24;;G06N3/08;;G01Q60/04;;B82B3/00</t>
+          <t>B82B3/00;;G01Q60/24;;G01Q60/04;;G06N3/08</t>
         </is>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G01Q60/24;;H01L29/66984;;G06N3/04;;G01Q60/10;;H01L29/66977;;H01L29/7613;;G01Q30/10;;G06N20/10;;G01Q80/00;;G06N3/0472;;G06N3/08;;G06N7/005;;G01Q70/14;;G06N3/0445;;G06N3/0635</t>
+          <t>G06N20/10;;H01L29/66977;;H01L29/66984;;G06N3/08;;H01L29/7613;;G06N3/04;;G01Q60/24;;G06N3/0445;;B82Y10/00;;G01Q80/00;;G06N3/0472;;G06N3/0635;;G01Q60/10;;G01Q70/14;;G06N7/005;;G01Q30/10</t>
         </is>
       </c>
       <c r="R110" t="inlineStr"/>
@@ -12436,7 +12436,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>REICH GREGORY W;;KONDASH COREY R;;PANKONIEN ALEXANDER M;;DICKINSON BENJAMIN T;;SLINKER KEITH;;MAGAR KAMAN THAPA;;BAUR JEFFREY W</t>
+          <t>MAGAR KAMAN THAPA;;REICH GREGORY W;;KONDASH COREY R;;SLINKER KEITH;;BAUR JEFFREY W;;PANKONIEN ALEXANDER M;;DICKINSON BENJAMIN T</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -12473,12 +12473,12 @@
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N3/02;;B82Y30/00;;G06F16/9038;;G01P5/26</t>
+          <t>G06N3/02;;B82Y10/00;;G01P5/26;;G06F16/9038;;B82Y30/00</t>
         </is>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N3/02;;B82Y30/00;;G06F16/9038;;G01P5/26</t>
+          <t>G06N3/02;;B82Y10/00;;G01P5/26;;G06F16/9038;;B82Y30/00</t>
         </is>
       </c>
       <c r="R111" t="inlineStr"/>
@@ -12585,7 +12585,7 @@
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N5/003;;G06N10/00</t>
+          <t>B82Y10/00;;G06N10/00;;G06N5/003</t>
         </is>
       </c>
       <c r="R112" t="inlineStr"/>
@@ -12629,7 +12629,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>180-200-336-064-782;;063-388-907-511-538</t>
+          <t>063-388-907-511-538;;180-200-336-064-782</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -12668,7 +12668,7 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
@@ -12692,7 +12692,7 @@
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N5/003;;G06N10/00</t>
+          <t>B82Y10/00;;G06N10/00;;G06N5/003</t>
         </is>
       </c>
       <c r="R113" t="inlineStr"/>
@@ -12719,7 +12719,7 @@
       </c>
       <c r="X113" t="inlineStr">
         <is>
-          <t>CA 3080318 C;;CA 3080318 A1</t>
+          <t>CA 3080318 A1;;CA 3080318 C</t>
         </is>
       </c>
       <c r="Y113" t="inlineStr">
@@ -12799,7 +12799,7 @@
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N5/003;;G06N10/00</t>
+          <t>B82Y10/00;;G06N10/00;;G06N5/003</t>
         </is>
       </c>
       <c r="R114" t="inlineStr"/>
@@ -12868,7 +12868,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>AGGARWAL PRIYANKA;;CHODAVARAPU VAMSY</t>
+          <t>CHODAVARAPU VAMSY;;AGGARWAL PRIYANKA</t>
         </is>
       </c>
       <c r="H115" t="inlineStr"/>
@@ -12901,12 +12901,12 @@
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>B81B7/02;;G06N3/08;;G06N3/04;;G06N7/00</t>
+          <t>G06N3/04;;B81B7/02;;G06N7/00;;G06N3/08</t>
         </is>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>G01C21/183;;G06N3/084;;G06N3/0454;;B81B2201/0242;;B81B7/02;;G06N3/088;;G06N3/0472;;G06N3/08;;B81B2207/012;;G01C25/005;;G06N3/0445;;G06N7/005;;G06N20/10</t>
+          <t>G06N20/10;;G01C21/183;;G06N3/08;;G06N7/005;;G01C25/005;;G06N3/0445;;B81B7/02;;G06N3/0472;;G06N3/084;;G06N3/088;;G06N3/0454;;B81B2207/012;;B81B2201/0242</t>
         </is>
       </c>
       <c r="R115" t="inlineStr"/>
@@ -12950,17 +12950,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>056-410-719-774-001;;107-706-698-330-591;;143-577-806-116-427;;149-148-197-227-369;;040-685-913-457-183;;040-976-568-506-57X;;122-575-242-766-692;;120-626-180-387-172;;048-666-894-031-255</t>
+          <t>120-626-180-387-172;;143-577-806-116-427;;149-148-197-227-369;;122-575-242-766-692;;056-410-719-774-001;;040-685-913-457-183;;048-666-894-031-255;;040-976-568-506-57X;;107-706-698-330-591</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://lens.org/149-148-197-227-369;;https://lens.org/143-577-806-116-427;;https://lens.org/120-626-180-387-172;;https://lens.org/040-976-568-506-57X;;https://lens.org/122-575-242-766-692;;https://lens.org/056-410-719-774-001;;https://lens.org/048-666-894-031-255;;https://lens.org/040-685-913-457-183;;https://lens.org/107-706-698-330-591</t>
+          <t>https://lens.org/149-148-197-227-369;;https://lens.org/040-976-568-506-57X;;https://lens.org/056-410-719-774-001;;https://lens.org/048-666-894-031-255;;https://lens.org/107-706-698-330-591;;https://lens.org/040-685-913-457-183;;https://lens.org/122-575-242-766-692;;https://lens.org/120-626-180-387-172;;https://lens.org/143-577-806-116-427</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>QUANTUM COMPUTATION THROUGH REINFORCEMENT LEARNING;;強化学習を通した量子計算;;강화된 학습을 통한 양자 계산;;Quantum computation through reinforcement learning</t>
+          <t>QUANTUM COMPUTATION THROUGH REINFORCEMENT LEARNING;;강화된 학습을 통한 양자 계산;;強化学習を通した量子計算;;Quantum computation through reinforcement learning</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -12970,12 +12970,12 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>GOOGLE LLC;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;GOOGLE INC;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;NEVEN HARTMUT</t>
+          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM;;GOOGLE LLC;;GOOGLE INC;;NIU YUEZHEN;;NEVEN HARTMUT</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>SMELYANSKIY VADIM;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;BOIXO CASTRILLO SERGIO;;ヴァディム・スメリャンスキー;;ユエゼン・ニウ;;セルジオ・バイショ・カストリージョ;;ハルトムート・ネーフェン;;NEVEN HARTMUT</t>
+          <t>ユエゼン・ニウ;;セルジオ・バイショ・カストリージョ;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM;;ハルトムート・ネーフェン;;BOIXO CASTRILLO SERGIO;;ヴァディム・スメリャンスキー;;NIU YUEZHEN;;NEVEN HARTMUT</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -12988,7 +12988,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>KR;;CA;;WO;;JP;;CN;;EP;;AU;;US</t>
+          <t>WO;;US;;CA;;JP;;EP;;CN;;KR;;AU</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -12998,7 +12998,7 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>A1;;B2;;A</t>
+          <t>A1;;A;;B2</t>
         </is>
       </c>
       <c r="M116" t="n">
@@ -13012,12 +13012,12 @@
       </c>
       <c r="P116" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N3/02;;G06N3/04;;G06N3/00;;G06N10/00;;G06N3/08;;G06N99/00</t>
+          <t>G06N3/00;;G06N3/02;;G06N99/00;;G06N3/08;;G06N3/04;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N3/006;;G06N3/084;;G06N3/0454;;G06N10/00;;G06N3/08</t>
+          <t>G06N3/006;;G06N3/08;;B82Y10/00;;G06N10/00;;G06N3/084;;G06N3/0454</t>
         </is>
       </c>
       <c r="R116" t="inlineStr"/>
@@ -13044,12 +13044,12 @@
       </c>
       <c r="X116" t="inlineStr">
         <is>
-          <t>EP 3746953 A1;;AU 2018/406532 B2;;US 2020/0410343 A1;;AU 2018/406532 A1;;CN 111868756 A;;CA 3088135 A1;;WO 2019/152020 A1;;JP 2021512395 A;;KR 20200097787 A</t>
+          <t>CA 3088135 A1;;KR 20200097787 A;;AU 2018/406532 A1;;WO 2019/152020 A1;;CN 111868756 A;;AU 2018/406532 B2;;JP 2021512395 A;;US 2020/0410343 A1;;EP 3746953 A1</t>
         </is>
       </c>
       <c r="Y116" t="inlineStr">
         <is>
-          <t>US 201816962059 A;;EP 18704796 A;;CA 3088135 A;;KR 20207020582 A;;JP 2020539032 A;;US 2018/0016238 W;;CN 201880086701 A;;AU 2018/406532 A</t>
+          <t>CN 201880086701 A;;EP 18704796 A;;US 2018/0016238 W;;US 201816962059 A;;JP 2020539032 A;;CA 3088135 A;;AU 2018/406532 A;;KR 20207020582 A</t>
         </is>
       </c>
     </row>
@@ -13071,7 +13071,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>THREE-DIMENSIONAL MODEL OF PARTICLE INTERACTIONS APPLYING TWO-DIMENSIONAL FEYNMAN DIAGRAMS RULES THAT APPLY ONLY CIRCLE-ARC LINES FOR ELECTRON OR POSITRON ARROWS EACH CONNECTED TO PHOTON WIGGLY LINES AND THEN ONLY JOIN THEM USING INTERSECTED VERTICES DEFINING THE UNIVERSAL THEORY OF ELECTRONS AND PHOTONS UNDER A HEXAGONAL THREE-DIMENSIONAL ARRAY OF THREE ELEMENTS;;THREE-DIMENSIONAL MODEL OF PARTICLE INTERACTIONS APPLYING TWO-DIMENSIONAL FEYNMAN DIAGRAMS</t>
+          <t>THREE-DIMENSIONAL MODEL OF PARTICLE INTERACTIONS APPLYING TWO-DIMENSIONAL FEYNMAN DIAGRAMS;;THREE-DIMENSIONAL MODEL OF PARTICLE INTERACTIONS APPLYING TWO-DIMENSIONAL FEYNMAN DIAGRAMS RULES THAT APPLY ONLY CIRCLE-ARC LINES FOR ELECTRON OR POSITRON ARROWS EACH CONNECTED TO PHOTON WIGGLY LINES AND THEN ONLY JOIN THEM USING INTERSECTED VERTICES DEFINING THE UNIVERSAL THEORY OF ELECTRONS AND PHOTONS UNDER A HEXAGONAL THREE-DIMENSIONAL ARRAY OF THREE ELEMENTS</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -13100,12 +13100,12 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Patent Application;;Search Report</t>
+          <t>Search Report;;Patent Application</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>A3;;A2</t>
+          <t>A2;;A3</t>
         </is>
       </c>
       <c r="M117" t="n">
@@ -13119,12 +13119,12 @@
       </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>H05H15/00;;H05H7/04;;H99Z99/00;;H05H7/22;;G06N20/00</t>
+          <t>H05H7/04;;H99Z99/00;;H05H7/22;;G06N20/00;;H05H15/00</t>
         </is>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H01L29/66977;;H01L29/7613;;G06N10/00;;B82Y30/00;;C01B32/182;;H01L29/1606</t>
+          <t>C01B32/182;;H01L29/1606;;H01L29/66977;;B82Y10/00;;G06N10/00;;H01L29/7613;;B82Y30/00</t>
         </is>
       </c>
       <c r="R117" t="inlineStr"/>
@@ -13151,7 +13151,7 @@
       </c>
       <c r="X117" t="inlineStr">
         <is>
-          <t>WO 2019/222718 A2;;WO 2019/222718 A3</t>
+          <t>WO 2019/222718 A3;;WO 2019/222718 A2</t>
         </is>
       </c>
       <c r="Y117" t="inlineStr">
@@ -13168,7 +13168,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>027-251-849-984-210;;105-728-765-264-26X</t>
+          <t>105-728-765-264-26X;;027-251-849-984-210</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -13193,7 +13193,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>CHEN WEIDA;;STRAUSS KARIN;;NGUYEN BICHLIEN HOANG;;GRASS ROBERT;;KOHLL ALEXANDER XAVIER CHRISTOF</t>
+          <t>NGUYEN BICHLIEN HOANG;;KOHLL ALEXANDER XAVIER CHRISTOF;;STRAUSS KARIN;;CHEN WEIDA;;GRASS ROBERT</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -13206,7 +13206,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>WO;;US</t>
+          <t>US;;WO</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -13230,12 +13230,12 @@
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>C12N15/10;;C07H21/04;;B01J13/22;;G06N3/00;;H01F1/00;;C12Q1/6806;;B22F1/02</t>
+          <t>G06N3/00;;C12Q1/6806;;B01J13/22;;C07H21/04;;C12N15/10;;H01F1/00;;B22F1/02</t>
         </is>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>B82Y10/00;;B22F1/0062;;B01J13/22;;C07H21/04;;B22F2999/00;;B82Y25/00;;C12N15/1013;;B22F1/0018;;H01F1/0054;;G16B30/00;;B22F1/02;;G06N3/123</t>
+          <t>G06N3/123;;B22F2999/00;;B22F1/0018;;B01J13/22;;C07H21/04;;B82Y10/00;;G16B30/00;;C12N15/1013;;B82Y25/00;;B22F1/0062;;B22F1/02;;H01F1/0054</t>
         </is>
       </c>
       <c r="R118" t="inlineStr"/>
@@ -13262,7 +13262,7 @@
       </c>
       <c r="X118" t="inlineStr">
         <is>
-          <t>US 2019/0388862 A1;;WO 2020/005509 A1</t>
+          <t>WO 2020/005509 A1;;US 2019/0388862 A1</t>
         </is>
       </c>
       <c r="Y118" t="inlineStr">
@@ -13289,7 +13289,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>磁性纳米颗粒上的二氧化硅包封的DNA;;SILICA ENCAPSULATED DNA ON MAGNETIC NANOPARTICLES</t>
+          <t>SILICA ENCAPSULATED DNA ON MAGNETIC NANOPARTICLES;;磁性纳米颗粒上的二氧化硅包封的DNA</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -13299,12 +13299,12 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>MICROSOFT TECHNOLOGY LICENSING LLC;;微软技术许可有限责任公司</t>
+          <t>微软技术许可有限责任公司;;MICROSOFT TECHNOLOGY LICENSING LLC</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>W·陈;;K·施特劳斯;;CHEN WEIDA;;B·H·阮;;STRAUSS KARIN;;NGUYEN BICHLIEN HOANG;;GRASS ROBERT;;A·X·C·科尔;;KOHLL ALEXANDER XAVIER CHRISTOF;;R·格拉斯</t>
+          <t>R·格拉斯;;NGUYEN BICHLIEN HOANG;;GRASS ROBERT;;B·H·阮;;KOHLL ALEXANDER XAVIER CHRISTOF;;STRAUSS KARIN;;CHEN WEIDA;;W·陈;;A·X·C·科尔;;K·施特劳斯</t>
         </is>
       </c>
       <c r="H119" t="inlineStr"/>
@@ -13313,7 +13313,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>CN;;EP</t>
+          <t>EP;;CN</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -13337,12 +13337,12 @@
       </c>
       <c r="P119" t="inlineStr">
         <is>
-          <t>C12N15/10;;G06N3/00;;H01F1/00;;C12Q1/6806;;B22F1/02</t>
+          <t>G06N3/00;;C12Q1/6806;;C12N15/10;;H01F1/00;;B22F1/02</t>
         </is>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>B82Y10/00;;B22F1/0062;;B01J13/22;;C07H21/04;;B22F2999/00;;B82Y25/00;;C12N15/1013;;B22F1/0018;;H01F1/0054;;G16B30/00;;B22F1/02;;G06N3/123</t>
+          <t>G06N3/123;;B22F2999/00;;B22F1/0018;;B01J13/22;;C07H21/04;;B82Y10/00;;G16B30/00;;C12N15/1013;;B82Y25/00;;B22F1/0062;;B22F1/02;;H01F1/0054</t>
         </is>
       </c>
       <c r="R119" t="inlineStr"/>
@@ -13369,12 +13369,12 @@
       </c>
       <c r="X119" t="inlineStr">
         <is>
-          <t>EP 3810773 A1;;CN 112823207 A</t>
+          <t>CN 112823207 A;;EP 3810773 A1</t>
         </is>
       </c>
       <c r="Y119" t="inlineStr">
         <is>
-          <t>EP 19748985 A;;CN 201980041050 A</t>
+          <t>CN 201980041050 A;;EP 19748985 A</t>
         </is>
       </c>
     </row>
@@ -13411,7 +13411,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>MA YUNPU;;TRESP VOLKER</t>
+          <t>TRESP VOLKER;;MA YUNPU</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -13448,12 +13448,12 @@
       </c>
       <c r="P120" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06F9/50;;G06F15/16;;G06F17/18;;G06F9/38;;G06N99/00;;G06N5/02</t>
+          <t>G06N5/02;;G06F15/16;;G06N99/00;;G06F9/50;;G06F17/18;;B82Y10/00;;G06F9/38</t>
         </is>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06F16/9024;;G06F40/30;;G06F9/3877;;G06F15/16;;G06N10/00;;G06F17/18;;G06N5/04;;G06N20/00;;G06N5/022;;G06F9/5027</t>
+          <t>G06F40/30;;G06F16/9024;;G06F9/5027;;G06N20/00;;G06F15/16;;G06F9/3877;;G06F17/18;;B82Y10/00;;G06N10/00;;G06N5/022;;G06N5/04</t>
         </is>
       </c>
       <c r="R120" t="inlineStr"/>
@@ -13497,7 +13497,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>086-922-027-475-411;;014-608-546-632-936</t>
+          <t>014-608-546-632-936;;086-922-027-475-411</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -13522,7 +13522,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>GAMBLE JOHN KING;;GAMBLE IV JOHN KING;;WIEBE NATHAN O;;GRANADE CHRISTOPHER EVAN</t>
+          <t>GRANADE CHRISTOPHER EVAN;;GAMBLE IV JOHN KING;;GAMBLE JOHN KING;;WIEBE NATHAN O</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -13564,7 +13564,7 @@
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;H03K19/195;;G06N7/005;;G06N20/00</t>
+          <t>B82Y10/00;;G06N10/00;;G06N20/00;;G06N7/005;;H03K19/195</t>
         </is>
       </c>
       <c r="R121" t="inlineStr"/>
@@ -13596,7 +13596,7 @@
       </c>
       <c r="Y121" t="inlineStr">
         <is>
-          <t>US 201816154552 A;;US 2019/0052539 W</t>
+          <t>US 2019/0052539 W;;US 201816154552 A</t>
         </is>
       </c>
     </row>
@@ -13613,12 +13613,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://lens.org/061-584-301-962-882;;https://lens.org/035-529-482-932-628</t>
+          <t>https://lens.org/035-529-482-932-628;;https://lens.org/061-584-301-962-882</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>MULTI-MODE QUBIT READOUT AND QUBIT STATE ASSIGNMENT;;Multi-mode qubit readout and qubit state assignment</t>
+          <t>Multi-mode qubit readout and qubit state assignment;;MULTI-MODE QUBIT READOUT AND QUBIT STATE ASSIGNMENT</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -13633,7 +13633,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>CORCOLES-GONZALEZ ANTONIO;;OLIVADESE SALVATORE BERNARDO;;OLIVADESE SALVATORE;;GAMBETTA JAY;;GAMBETTA JAY M;;TEMME PAUL;;BISHOP LEV SAMUEL;;TEMME PAUL KRISTAN;;BISHOP LEV</t>
+          <t>GAMBETTA JAY;;OLIVADESE SALVATORE BERNARDO;;CORCOLES-GONZALEZ ANTONIO;;GAMBETTA JAY M;;OLIVADESE SALVATORE;;BISHOP LEV SAMUEL;;TEMME PAUL;;TEMME PAUL KRISTAN;;BISHOP LEV</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -13670,12 +13670,12 @@
       </c>
       <c r="P122" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06F13/40;;H03H3/007;;G06N10/00;;G06F9/38;;G06N99/00;;G06N20/10</t>
+          <t>G06N20/10;;G06F13/40;;G06N99/00;;H03H3/007;;B82Y10/00;;G06N10/00;;G06F9/38</t>
         </is>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H03H3/007;;G06F9/3877;;G06N10/00;;G06N99/00;;G06F13/4068;;G06N20/10</t>
+          <t>G06N20/10;;G06F9/3877;;G06N99/00;;G06F13/4068;;H03H3/007;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="R122" t="inlineStr"/>
@@ -13729,7 +13729,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>MULTI-MODE QUBIT READOUT AND QUBIT STATE ASSIGNMENT;;Multi-mode qubit readout and qubit state assignment</t>
+          <t>Multi-mode qubit readout and qubit state assignment;;MULTI-MODE QUBIT READOUT AND QUBIT STATE ASSIGNMENT</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -13744,7 +13744,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>CORCOLES-GONZALEZ ANTONIO;;OLIVADESE SALVATORE BERNARDO;;BISHOP LEV SAMUEL;;TEMME PAUL KRISTAN;;GAMBETTA JAY M</t>
+          <t>OLIVADESE SALVATORE BERNARDO;;CORCOLES-GONZALEZ ANTONIO;;GAMBETTA JAY M;;BISHOP LEV SAMUEL;;TEMME PAUL KRISTAN</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -13781,12 +13781,12 @@
       </c>
       <c r="P123" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06F13/40;;H03H3/007;;G06N10/00;;G06F9/38;;G06N99/00</t>
+          <t>G06F13/40;;G06N99/00;;H03H3/007;;B82Y10/00;;G06N10/00;;G06F9/38</t>
         </is>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H03H3/007;;G06F9/3877;;G06N10/00;;G06N99/00;;G06F13/4068;;G06N20/10</t>
+          <t>G06N20/10;;G06F9/3877;;G06N99/00;;G06F13/4068;;H03H3/007;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="R123" t="inlineStr"/>
@@ -13813,7 +13813,7 @@
       </c>
       <c r="X123" t="inlineStr">
         <is>
-          <t>US 2020/0210879 A1;;US 10810507 B2</t>
+          <t>US 10810507 B2;;US 2020/0210879 A1</t>
         </is>
       </c>
       <c r="Y123" t="inlineStr">
@@ -13855,7 +13855,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>KUCZYNSKI JOSEPH;;MISGEN MARVIN M;;PRISCO JOSEPH F;;PRZYBYLSKI KEVIN J;;NEUMAN-HORN DEBRA A</t>
+          <t>KUCZYNSKI JOSEPH;;PRISCO JOSEPH F;;PRZYBYLSKI KEVIN J;;NEUMAN-HORN DEBRA A;;MISGEN MARVIN M</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -13873,12 +13873,12 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>B2;;A1</t>
+          <t>A1;;B2</t>
         </is>
       </c>
       <c r="M124" t="n">
@@ -13892,12 +13892,12 @@
       </c>
       <c r="P124" t="inlineStr">
         <is>
-          <t>G06T7/00;;B82B3/00;;A61B5/00</t>
+          <t>A61B5/00;;B82B3/00;;G06T7/00</t>
         </is>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>A61B2505/07;;B82B3/0014;;A61B5/6898;;G06T7/0012;;A61B5/7267;;A61B5/6802;;A61B5/0077;;A61B5/411</t>
+          <t>A61B5/6898;;A61B5/0077;;A61B2505/07;;A61B5/411;;G06T7/0012;;B82B3/0014;;A61B5/7267;;A61B5/6802</t>
         </is>
       </c>
       <c r="R124" t="inlineStr"/>
@@ -13924,7 +13924,7 @@
       </c>
       <c r="X124" t="inlineStr">
         <is>
-          <t>US 10820852 B2;;US 2020/0187846 A1</t>
+          <t>US 2020/0187846 A1;;US 10820852 B2</t>
         </is>
       </c>
       <c r="Y124" t="inlineStr">
@@ -13966,7 +13966,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>GOULD MATTHEW;;KHOMAMI ABADI MOJTABA;;GAHROOSI AMIR;;MASILAMANI ASHOK</t>
+          <t>KHOMAMI ABADI MOJTABA;;GAHROOSI AMIR;;GOULD MATTHEW;;MASILAMANI ASHOK</t>
         </is>
       </c>
       <c r="H125" t="inlineStr"/>
@@ -14004,7 +14004,7 @@
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>G01N35/00722;;B82Y15/00;;G01N33/0031;;G01N2035/00891;;G01N33/0034</t>
+          <t>G01N35/00722;;G01N2035/00891;;B82Y15/00;;G01N33/0031;;G01N33/0034</t>
         </is>
       </c>
       <c r="R125" t="inlineStr"/>
@@ -14048,7 +14048,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>088-697-896-595-479;;033-905-450-751-578</t>
+          <t>033-905-450-751-578;;088-697-896-595-479</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -14073,7 +14073,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>KHOMAMI ABADI MOJTABA;;GAHROOSI AMIR BAHADOR;;MASILAMANI ASHOK PRABHU;;GOULD MATTHEW V</t>
+          <t>KHOMAMI ABADI MOJTABA;;GOULD MATTHEW V;;MASILAMANI ASHOK PRABHU;;GAHROOSI AMIR BAHADOR</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -14091,7 +14091,7 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
@@ -14115,7 +14115,7 @@
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>G01N35/00722;;B82Y15/00;;G01N33/0031;;G01N2035/00891;;G01N33/0034</t>
+          <t>G01N35/00722;;G01N2035/00891;;B82Y15/00;;G01N33/0031;;G01N33/0034</t>
         </is>
       </c>
       <c r="R126" t="inlineStr"/>
@@ -14142,7 +14142,7 @@
       </c>
       <c r="X126" t="inlineStr">
         <is>
-          <t>US 10386379 B1;;US 2019/0234973 A1</t>
+          <t>US 2019/0234973 A1;;US 10386379 B1</t>
         </is>
       </c>
       <c r="Y126" t="inlineStr">
@@ -14184,7 +14184,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>KHOMAMI ABADI MOJTABA;;GAHROOSI AMIR BAHADOR;;MASILAMANI ASHOK PRABHU;;GOULD MATTHEW V</t>
+          <t>KHOMAMI ABADI MOJTABA;;GOULD MATTHEW V;;MASILAMANI ASHOK PRABHU;;GAHROOSI AMIR BAHADOR</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -14226,7 +14226,7 @@
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>G01N35/00722;;B82Y15/00;;G01N33/0031;;G01N2035/00891;;G01N33/0034</t>
+          <t>G01N35/00722;;G01N2035/00891;;B82Y15/00;;G01N33/0031;;G01N33/0034</t>
         </is>
       </c>
       <c r="R127" t="inlineStr"/>
@@ -14295,7 +14295,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>XIA QIANGFEI;;MCLEAN MARK;;YANG JIANHUA;;WU QING</t>
+          <t>YANG JIANHUA;;XIA QIANGFEI;;MCLEAN MARK;;WU QING</t>
         </is>
       </c>
       <c r="H128" t="inlineStr"/>
@@ -14328,12 +14328,12 @@
       </c>
       <c r="P128" t="inlineStr">
         <is>
-          <t>G06N3/08;;G06N3/06;;G06N3/04;;G06N3/063</t>
+          <t>G06N3/04;;G06N3/063;;G06N3/06;;G06N3/08</t>
         </is>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N3/0481;;G06N3/0454;;G06N3/063;;G06N3/061;;H01L27/24;;G06N3/088;;B82Y15/00;;G06N3/08;;H01L45/146;;G06N3/0635</t>
+          <t>G06N3/0454;;H01L27/24;;H01L45/146;;G06N3/061;;G06N3/08;;G06N3/0481;;G06N3/0635;;B82Y15/00;;B82Y10/00;;G06N3/088;;G06N3/063</t>
         </is>
       </c>
       <c r="R128" t="inlineStr"/>
@@ -14402,7 +14402,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>NABAVI SEYEDFAKHREDDIN;;ZHANG LIHONG</t>
+          <t>ZHANG LIHONG;;NABAVI SEYEDFAKHREDDIN</t>
         </is>
       </c>
       <c r="H129" t="inlineStr"/>
@@ -14440,7 +14440,7 @@
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>B81B2201/032;;H02N2/22;;H01L41/316;;H01L41/1136;;B81B3/0021;;B81B2203/0172;;H01L41/29;;B81B2203/058;;B81B2203/0307;;H02N2/18;;H02N2/188;;H01L41/0477;;H01L41/187;;B81B3/0045;;H01L41/332;;B81B2207/053</t>
+          <t>B81B2203/0307;;H01L41/29;;H02N2/22;;H02N2/188;;H01L41/187;;H01L41/316;;B81B2203/0172;;B81B2207/053;;H02N2/18;;H01L41/332;;B81B3/0045;;B81B2201/032;;B81B3/0021;;H01L41/1136;;H01L41/0477;;B81B2203/058</t>
         </is>
       </c>
       <c r="R129" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>ROQUET NATHANIEL;;PARK HYUNJUN;;LEAKE DEVIN;;BHATIA SWAPNIL</t>
+          <t>PARK HYUNJUN;;LEAKE DEVIN;;ROQUET NATHANIEL;;BHATIA SWAPNIL</t>
         </is>
       </c>
       <c r="H130" t="inlineStr"/>
@@ -14542,12 +14542,12 @@
       </c>
       <c r="P130" t="inlineStr">
         <is>
-          <t>H03M13/15;;H03M13/37;;C12Q1/68;;G16B30/00;;G16B50/20</t>
+          <t>G16B50/20;;H03M13/15;;C12Q1/68;;G16B30/00;;H03M13/37</t>
         </is>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G16B25/00;;G16B25/20;;G16B99/00;;G16B50/30;;G16B30/00;;H03M13/05;;G16B50/20;;G06N3/123</t>
+          <t>G16B50/20;;H03M13/05;;G16B25/00;;G16B25/20;;G06N3/123;;G16B99/00;;B82Y10/00;;G16B30/00;;G16B50/30</t>
         </is>
       </c>
       <c r="R130" t="inlineStr"/>
@@ -14591,17 +14591,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>148-258-953-210-353;;077-447-134-917-741;;067-489-341-104-332;;117-020-155-203-357</t>
+          <t>077-447-134-917-741;;117-020-155-203-357;;148-258-953-210-353;;067-489-341-104-332</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>https://lens.org/117-020-155-203-357;;https://lens.org/067-489-341-104-332;;https://lens.org/148-258-953-210-353;;https://lens.org/077-447-134-917-741</t>
+          <t>https://lens.org/117-020-155-203-357;;https://lens.org/148-258-953-210-353;;https://lens.org/077-447-134-917-741;;https://lens.org/067-489-341-104-332</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Compositions and methods for nucleic acid-based data storage;;핵산-기반 데이터를 저장하기 위한 조성물 및 방법;;COMPOSITIONS AND METHODS FOR NUCLEIC ACID-BASED DATA STORAGE</t>
+          <t>Compositions and methods for nucleic acid-based data storage;;COMPOSITIONS AND METHODS FOR NUCLEIC ACID-BASED DATA STORAGE;;핵산-기반 데이터를 저장하기 위한 조성물 및 방법</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -14616,7 +14616,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>ROQUET NATHANIEL;;PARK HYUNJUN;;LEAKE DEVIN;;BHATIA SWAPNIL P</t>
+          <t>BHATIA SWAPNIL P;;PARK HYUNJUN;;LEAKE DEVIN;;ROQUET NATHANIEL</t>
         </is>
       </c>
       <c r="H131" t="inlineStr"/>
@@ -14625,7 +14625,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>AU;;EP;;KR;;CA</t>
+          <t>EP;;KR;;CA;;AU</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -14649,12 +14649,12 @@
       </c>
       <c r="P131" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H03M13/15;;H03M13/37;;C12Q1/68;;G16B50/30;;G16B30/00;;H03M13/05;;G16B50/20;;G06N3/12</t>
+          <t>G16B50/20;;H03M13/15;;H03M13/05;;G06N3/12;;C12Q1/68;;G16B30/00;;G16B50/30;;B82Y10/00;;H03M13/37</t>
         </is>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G16B25/00;;G16B25/20;;G16B99/00;;G16B50/30;;G16B30/00;;H03M13/05;;G16B50/20;;G06N3/123</t>
+          <t>G16B50/20;;H03M13/05;;G16B25/00;;G16B25/20;;G06N3/123;;G16B99/00;;B82Y10/00;;G16B30/00;;G16B50/30</t>
         </is>
       </c>
       <c r="R131" t="inlineStr"/>
@@ -14681,12 +14681,12 @@
       </c>
       <c r="X131" t="inlineStr">
         <is>
-          <t>AU 2019/270159 A1;;KR 20210029147 A;;CA 3100529 A1;;EP 3794598 A1</t>
+          <t>CA 3100529 A1;;KR 20210029147 A;;EP 3794598 A1;;AU 2019/270159 A1</t>
         </is>
       </c>
       <c r="Y131" t="inlineStr">
         <is>
-          <t>CA 3100529 A;;EP 19728816 A;;KR 20207036043 A;;AU 2019/270159 A</t>
+          <t>KR 20207036043 A;;EP 19728816 A;;CA 3100529 A;;AU 2019/270159 A</t>
         </is>
       </c>
     </row>
@@ -14723,7 +14723,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>ROQUET NATHANIEL;;PARK HYUNJUN;;LEAKE DEVIN;;BHATIA SWAPNIL P</t>
+          <t>BHATIA SWAPNIL P;;PARK HYUNJUN;;LEAKE DEVIN;;ROQUET NATHANIEL</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -14765,7 +14765,7 @@
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G16B25/00;;G16B25/20;;G16B99/00;;G16B50/30;;G16B30/00;;H03M13/05;;G16B50/20;;G06N3/123</t>
+          <t>G16B50/20;;H03M13/05;;G16B25/00;;G16B25/20;;G06N3/123;;G16B99/00;;B82Y10/00;;G16B30/00;;G16B50/30</t>
         </is>
       </c>
       <c r="R132" t="inlineStr"/>
@@ -14834,7 +14834,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>ROQUET NATHANIEL;;PARK HYUNJUN;;LEAKE DEVIN;;BHATIA SWAPNIL P</t>
+          <t>BHATIA SWAPNIL P;;PARK HYUNJUN;;LEAKE DEVIN;;ROQUET NATHANIEL</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -14876,7 +14876,7 @@
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G16B25/00;;G16B25/20;;G16B99/00;;G16B50/30;;G16B30/00;;H03M13/05;;G16B50/20;;G06N3/123</t>
+          <t>G16B50/20;;H03M13/05;;G16B25/00;;G16B25/20;;G06N3/123;;G16B99/00;;B82Y10/00;;G16B30/00;;G16B50/30</t>
         </is>
       </c>
       <c r="R133" t="inlineStr"/>
@@ -14945,7 +14945,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>SPRACHMAN MELISSA;;ROSENBERGER ERIN;;MARKOVIC STACEY;;FRANK IAN;;HUANG HAIYAO;;BYRNES STEVEN;;KOTZ KENNETH;;MAGYAR ANDREW;;FAVALORA GREGG;;CAVANAGH PETER;;VARGO EMMA;;DUBAY RYAN;;MCFARLAND KIRSTY</t>
+          <t>SPRACHMAN MELISSA;;BYRNES STEVEN;;CAVANAGH PETER;;FAVALORA GREGG;;KOTZ KENNETH;;MAGYAR ANDREW;;MARKOVIC STACEY;;VARGO EMMA;;ROSENBERGER ERIN;;HUANG HAIYAO;;DUBAY RYAN;;FRANK IAN;;MCFARLAND KIRSTY</t>
         </is>
       </c>
       <c r="H134" t="inlineStr"/>
@@ -14978,12 +14978,12 @@
       </c>
       <c r="P134" t="inlineStr">
         <is>
-          <t>G06N3/12;;B01J19/00</t>
+          <t>B01J19/00;;G06N3/12</t>
         </is>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>B01J2219/00511;;C12N9/12;;B01J19/0046;;G06N3/123;;B01J2219/00495;;B01J2219/00711;;C12N15/1006;;B01L3/502761;;C12P19/34;;B01J2219/00439;;C12N15/1065;;B81B1/006;;G11C13/02;;B01L3/50851;;B01L3/5027;;B01J2219/00722;;B01J2219/00448;;B01J2219/00436;;B01J2219/00596;;B01L3/527;;B01J2219/0052;;C12N15/1068</t>
+          <t>G11C13/02;;C12N15/1068;;B01J2219/00722;;G06N3/123;;C12N9/12;;B01J2219/00711;;B81B1/006;;B01L3/527;;B01L3/5027;;B01J2219/00439;;B01J2219/00511;;C12N15/1065;;B01J2219/00495;;C12P19/34;;B01J2219/0052;;B01J2219/00596;;B01L3/50851;;C12N15/1006;;B01J2219/00448;;B01J19/0046;;B01L3/502761;;B01J2219/00436</t>
         </is>
       </c>
       <c r="R134" t="inlineStr"/>
@@ -15052,7 +15052,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>KOTZ KENNETH T;;ROSENBERGER ERIN;;MARKOVIC STACEY;;MCFARLAND KIRSTY A;;HUANG HAIYAO;;BYRNES STEVEN J;;MAGYAR ANDREW P;;CAVANAGH PETER;;FRANK IAN WARD;;VARGO EMMA;;DUBAY RYAN A;;FAVALORA GREGG E;;SPRACHMAN MELISSA M</t>
+          <t>SPRACHMAN MELISSA M;;FRANK IAN WARD;;FAVALORA GREGG E;;DUBAY RYAN A;;CAVANAGH PETER;;MCFARLAND KIRSTY A;;KOTZ KENNETH T;;MARKOVIC STACEY;;BYRNES STEVEN J;;MAGYAR ANDREW P;;VARGO EMMA;;HUANG HAIYAO;;ROSENBERGER ERIN</t>
         </is>
       </c>
       <c r="H135" t="inlineStr"/>
@@ -15085,12 +15085,12 @@
       </c>
       <c r="P135" t="inlineStr">
         <is>
-          <t>C12N15/10;;C12N9/12;;B01L3/00;;B81B1/00;;C12P19/34;;G06N3/12</t>
+          <t>G06N3/12;;B81B1/00;;B01L3/00;;C12N9/12;;C12P19/34;;C12N15/10</t>
         </is>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>B01J2219/00511;;C12N9/12;;B01J19/0046;;G06N3/123;;B01J2219/00495;;B01J2219/00711;;C12N15/1006;;B01L3/502761;;C12P19/34;;B01J2219/00439;;C12N15/1065;;B81B1/006;;G11C13/02;;B01L3/50851;;B01L3/5027;;B01J2219/00722;;B01J2219/00448;;B01J2219/00436;;B01J2219/00596;;B01L3/527;;B01J2219/0052;;C12N15/1068</t>
+          <t>G11C13/02;;C12N15/1068;;B01J2219/00722;;G06N3/123;;C12N9/12;;B01J2219/00711;;B81B1/006;;B01L3/527;;B01L3/5027;;B01J2219/00439;;B01J2219/00511;;C12N15/1065;;B01J2219/00495;;C12P19/34;;B01J2219/0052;;B01J2219/00596;;B01L3/50851;;C12N15/1006;;B01J2219/00448;;B01J19/0046;;B01L3/502761;;B01J2219/00436</t>
         </is>
       </c>
       <c r="R135" t="inlineStr"/>
@@ -15159,7 +15159,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>RIGETTI CHAD TYLER;;ZENG WILLIAM J;;JOHNSON BLAKE ROBERT;;TEZAK NIKOLAS ANTON</t>
+          <t>TEZAK NIKOLAS ANTON;;ZENG WILLIAM J;;JOHNSON BLAKE ROBERT;;RIGETTI CHAD TYLER</t>
         </is>
       </c>
       <c r="H136" t="inlineStr"/>
@@ -15197,7 +15197,7 @@
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N3/0454;;G06N10/00;;G06N3/0472;;G06N20/00;;G06N7/005;;G06N5/003</t>
+          <t>G06N20/00;;G06N3/0472;;B82Y10/00;;G06N10/00;;G06N5/003;;G06N3/0454;;G06N7/005</t>
         </is>
       </c>
       <c r="R136" t="inlineStr"/>
@@ -15262,7 +15262,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>RIGETTI CHAD TYLER;;ZENG WILLIAM J;;JOHNSON BLAKE ROBERT;;TEZAK NIKOLAS ANTON</t>
+          <t>TEZAK NIKOLAS ANTON;;ZENG WILLIAM J;;JOHNSON BLAKE ROBERT;;RIGETTI CHAD TYLER</t>
         </is>
       </c>
       <c r="H137" t="inlineStr"/>
@@ -15300,7 +15300,7 @@
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N3/0454;;G06N10/00;;G06N3/0472;;G06N20/00;;G06N7/005;;G06N5/003</t>
+          <t>G06N20/00;;G06N3/0472;;B82Y10/00;;G06N10/00;;G06N5/003;;G06N3/0454;;G06N7/005</t>
         </is>
       </c>
       <c r="R137" t="inlineStr"/>
@@ -15369,7 +15369,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>JIANG ZHUOLIN;;FONG KIN CHUNG;;SIU MAN-HUNG</t>
+          <t>JIANG ZHUOLIN;;SIU MAN-HUNG;;FONG KIN CHUNG</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -15406,12 +15406,12 @@
       </c>
       <c r="P138" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N3/04;;C01B32/19;;B82Y30/00;;G06K9/62</t>
+          <t>G06K9/62;;C01B32/19;;G06N3/04;;B82Y10/00;;B82Y30/00</t>
         </is>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N3/084;;G06K9/00147;;G06N3/0454;;C01B32/19;;B82Y30/00;;G06N3/0418;;G06K9/6267</t>
+          <t>G06N3/0418;;G06K9/6267;;G06K9/00147;;C01B32/19;;B82Y10/00;;G06N3/084;;B82Y30/00;;G06N3/0454</t>
         </is>
       </c>
       <c r="R138" t="inlineStr"/>
@@ -15480,7 +15480,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -15517,12 +15517,12 @@
       </c>
       <c r="P139" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;H01L29/66;;H01L27/18;;B82Y15/00;;H01L29/15;;H01L39/22;;H01L29/12</t>
+          <t>H01L29/12;;H01L29/15;;B82Y15/00;;B82Y10/00;;G06N10/00;;H01L39/22;;H01L29/66;;H01L27/18</t>
         </is>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G11C11/44;;H01L29/122;;G06F15/16;;H03K3/38;;H01L39/221;;H01L27/18;;H03K19/195;;H03M13/1575;;H01L29/157;;H01L29/66984;;G06F11/0724;;G11C19/32;;H01L29/0673;;G02F1/01725;;H01L29/0692;;B82Y15/00;;H01L29/6681;;H01L27/0886;;G06F11/0751;;H01L27/0883;;G02F1/01791;;H01L39/228;;H03M1/66;;G06N99/00;;H01L29/41791;;G06N5/003;;H01L29/66439;;H01L21/02694;;H01L29/423;;H01L29/66977;;G06N10/00;;G06F1/20;;H03M1/34;;H01L33/04;;G06F11/0793</t>
+          <t>H03K3/38;;G06F11/0751;;G06F15/16;;G11C11/44;;H01L29/66984;;H01L27/0886;;G06N10/00;;H01L39/221;;H03M1/34;;H01L29/66977;;G06N5/003;;H03M13/1575;;H01L27/0883;;G02F1/01791;;H01L27/18;;H01L29/6681;;H01L33/04;;H01L29/0692;;G06F11/0793;;H01L29/66439;;G06N99/00;;B82Y10/00;;H01L39/228;;H01L29/41791;;H01L29/157;;H01L21/02694;;H01L29/423;;G11C19/32;;H03M1/66;;G06F11/0724;;H01L29/122;;H01L29/0673;;G02F1/01725;;B82Y15/00;;G06F1/20;;H03K19/195</t>
         </is>
       </c>
       <c r="R139" t="inlineStr"/>
@@ -15566,7 +15566,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>004-912-591-884-968;;039-325-419-329-181</t>
+          <t>039-325-419-329-181;;004-912-591-884-968</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -15576,7 +15576,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Classic-quantum injection interface device;;CLASSIC-QUANTUM INJECTION INTERFACE DEVICE</t>
+          <t>CLASSIC-QUANTUM INJECTION INTERFACE DEVICE;;Classic-quantum injection interface device</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -15591,7 +15591,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -15609,12 +15609,12 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>B2;;A1</t>
+          <t>A1;;B2</t>
         </is>
       </c>
       <c r="M140" t="n">
@@ -15628,12 +15628,12 @@
       </c>
       <c r="P140" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06F11/07;;G06F15/16;;H03K3/38;;H01L29/417;;H01L27/18;;H03K19/195;;H01L39/02;;H01L29/15;;G11C19/32;;H01L29/66;;B82Y15/00;;H03M1/66;;G06N99/00;;H01L21/02;;H01L39/22;;H01L29/12;;G02F1/017;;G06N10/00;;H01L27/088;;G06F1/20;;H03M1/34;;H01L33/04</t>
+          <t>H01L21/02;;H03K3/38;;G06F15/16;;G06F11/07;;G06N10/00;;H01L29/66;;H01L29/12;;H01L27/088;;H01L29/15;;H03M1/34;;G02F1/017;;H01L27/18;;H01L33/04;;G06N99/00;;B82Y10/00;;H01L39/02;;G11C19/32;;H03M1/66;;H01L29/417;;B82Y15/00;;H01L39/22;;G06F1/20;;H03K19/195</t>
         </is>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G11C11/44;;H01L29/122;;G06F15/16;;H03K3/38;;H01L39/221;;H01L27/18;;H03K19/195;;H03M13/1575;;H01L29/157;;H01L29/66984;;G06F11/0724;;G11C19/32;;H01L29/0673;;G02F1/01725;;H01L29/0692;;B82Y15/00;;H01L29/6681;;H01L27/0886;;G06F11/0751;;H01L27/0883;;G02F1/01791;;H01L39/228;;H03M1/66;;G06N99/00;;H01L29/41791;;G06N5/003;;H01L29/66439;;H01L21/02694;;H01L29/423;;H01L29/66977;;G06N10/00;;G06F1/20;;H03M1/34;;H01L33/04;;G06F11/0793</t>
+          <t>H03K3/38;;G06F11/0751;;G06F15/16;;G11C11/44;;H01L29/66984;;H01L27/0886;;G06N10/00;;H01L39/221;;H03M1/34;;H01L29/66977;;G06N5/003;;H03M13/1575;;H01L27/0883;;G02F1/01791;;H01L27/18;;H01L29/6681;;H01L33/04;;H01L29/0692;;G06F11/0793;;H01L29/66439;;G06N99/00;;B82Y10/00;;H01L39/228;;H01L29/41791;;H01L29/157;;H01L21/02694;;H01L29/423;;G11C19/32;;H03M1/66;;G06F11/0724;;H01L29/122;;H01L29/0673;;G02F1/01725;;B82Y15/00;;G06F1/20;;H03K19/195</t>
         </is>
       </c>
       <c r="R140" t="inlineStr"/>
@@ -15702,7 +15702,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -15739,12 +15739,12 @@
       </c>
       <c r="P141" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;B82Y15/00;;H01L29/15;;H01L39/22;;H01L29/12</t>
+          <t>H01L29/12;;H01L29/15;;B82Y15/00;;B82Y10/00;;G06N10/00;;H01L39/22</t>
         </is>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G11C11/44;;H01L29/122;;G06F15/16;;H03K3/38;;H01L39/221;;H01L27/18;;H03K19/195;;H03M13/1575;;H01L29/157;;H01L29/66984;;G06F11/0724;;G11C19/32;;H01L29/0673;;G02F1/01725;;H01L29/0692;;B82Y15/00;;H01L29/6681;;H01L27/0886;;G06F11/0751;;H01L27/0883;;G02F1/01791;;H01L39/228;;H03M1/66;;G06N99/00;;H01L29/41791;;G06N5/003;;H01L29/66439;;H01L21/02694;;H01L29/423;;H01L29/66977;;G06N10/00;;G06F1/20;;H03M1/34;;H01L33/04;;G06F11/0793</t>
+          <t>H03K3/38;;G06F11/0751;;G06F15/16;;G11C11/44;;H01L29/66984;;H01L27/0886;;G06N10/00;;H01L39/221;;H03M1/34;;H01L29/66977;;G06N5/003;;H03M13/1575;;H01L27/0883;;G02F1/01791;;H01L27/18;;H01L29/6681;;H01L33/04;;H01L29/0692;;G06F11/0793;;H01L29/66439;;G06N99/00;;B82Y10/00;;H01L39/228;;H01L29/41791;;H01L29/157;;H01L21/02694;;H01L29/423;;G11C19/32;;H03M1/66;;G06F11/0724;;H01L29/122;;H01L29/0673;;G02F1/01725;;B82Y15/00;;G06F1/20;;H03K19/195</t>
         </is>
       </c>
       <c r="R141" t="inlineStr"/>
@@ -15813,7 +15813,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -15850,12 +15850,12 @@
       </c>
       <c r="P142" t="inlineStr">
         <is>
-          <t>G06N99/00;;G06N10/00;;H01L29/66;;H01L29/12</t>
+          <t>H01L29/12;;G06N10/00;;G06N99/00;;H01L29/66</t>
         </is>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G11C11/44;;H01L29/122;;G06F15/16;;H03K3/38;;H01L39/221;;H01L27/18;;H03K19/195;;H03M13/1575;;H01L29/157;;H01L29/66984;;G06F11/0724;;G11C19/32;;H01L29/0673;;G02F1/01725;;H01L29/0692;;B82Y15/00;;H01L29/6681;;H01L27/0886;;G06F11/0751;;H01L27/0883;;G02F1/01791;;H01L39/228;;H03M1/66;;G06N99/00;;H01L29/41791;;G06N5/003;;H01L29/66439;;H01L21/02694;;H01L29/423;;H01L29/66977;;G06N10/00;;G06F1/20;;H03M1/34;;H01L33/04;;G06F11/0793</t>
+          <t>H03K3/38;;G06F11/0751;;G06F15/16;;G11C11/44;;H01L29/66984;;H01L27/0886;;G06N10/00;;H01L39/221;;H03M1/34;;H01L29/66977;;G06N5/003;;H03M13/1575;;H01L27/0883;;G02F1/01791;;H01L27/18;;H01L29/6681;;H01L33/04;;H01L29/0692;;G06F11/0793;;H01L29/66439;;G06N99/00;;B82Y10/00;;H01L39/228;;H01L29/41791;;H01L29/157;;H01L21/02694;;H01L29/423;;G11C19/32;;H03M1/66;;G06F11/0724;;H01L29/122;;H01L29/0673;;G02F1/01725;;B82Y15/00;;G06F1/20;;H03K19/195</t>
         </is>
       </c>
       <c r="R142" t="inlineStr"/>
@@ -15924,7 +15924,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -15961,12 +15961,12 @@
       </c>
       <c r="P143" t="inlineStr">
         <is>
-          <t>G06N99/00;;G06N10/00;;H01L29/66;;H01L29/12</t>
+          <t>H01L29/12;;G06N10/00;;G06N99/00;;H01L29/66</t>
         </is>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G11C11/44;;H01L29/122;;G06F15/16;;H03K3/38;;H01L39/221;;H01L27/18;;H03K19/195;;H03M13/1575;;H01L29/157;;H01L29/66984;;G06F11/0724;;G11C19/32;;H01L29/0673;;G02F1/01725;;H01L29/0692;;B82Y15/00;;H01L29/6681;;H01L27/0886;;G06F11/0751;;H01L27/0883;;G02F1/01791;;H01L39/228;;H03M1/66;;G06N99/00;;H01L29/41791;;G06N5/003;;H01L29/66439;;H01L21/02694;;H01L29/423;;H01L29/66977;;G06N10/00;;G06F1/20;;H03M1/34;;H01L33/04;;G06F11/0793</t>
+          <t>H03K3/38;;G06F11/0751;;G06F15/16;;G11C11/44;;H01L29/66984;;H01L27/0886;;G06N10/00;;H01L39/221;;H03M1/34;;H01L29/66977;;G06N5/003;;H03M13/1575;;H01L27/0883;;G02F1/01791;;H01L27/18;;H01L29/6681;;H01L33/04;;H01L29/0692;;G06F11/0793;;H01L29/66439;;G06N99/00;;B82Y10/00;;H01L39/228;;H01L29/41791;;H01L29/157;;H01L21/02694;;H01L29/423;;G11C19/32;;H03M1/66;;G06F11/0724;;H01L29/122;;H01L29/0673;;G02F1/01725;;B82Y15/00;;G06F1/20;;H03K19/195</t>
         </is>
       </c>
       <c r="R143" t="inlineStr"/>
@@ -16015,7 +16015,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>https://lens.org/011-963-361-550-915;;https://lens.org/158-343-595-368-036</t>
+          <t>https://lens.org/158-343-595-368-036;;https://lens.org/011-963-361-550-915</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -16035,7 +16035,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -16072,12 +16072,12 @@
       </c>
       <c r="P144" t="inlineStr">
         <is>
-          <t>G06N10/00;;H01L29/775;;H01L29/66;;H01L29/12</t>
+          <t>H01L29/12;;G06N10/00;;H01L29/775;;H01L29/66</t>
         </is>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H01L29/423;;H01L29/122;;H01L29/66977;;H01L29/0673;;H01L29/7613;;G06N10/00;;H01L29/7391;;G06N20/00;;H01L29/775</t>
+          <t>H01L29/423;;H01L29/66977;;H01L29/122;;H01L29/7391;;H01L29/0673;;B82Y10/00;;G06N10/00;;H01L29/7613;;G06N20/00;;H01L29/775</t>
         </is>
       </c>
       <c r="R144" t="inlineStr"/>
@@ -16104,7 +16104,7 @@
       </c>
       <c r="X144" t="inlineStr">
         <is>
-          <t>US 10868119 B2;;US 2020/0227523 A1</t>
+          <t>US 2020/0227523 A1;;US 10868119 B2</t>
         </is>
       </c>
       <c r="Y144" t="inlineStr">
@@ -16121,12 +16121,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>076-785-932-751-18X;;080-114-460-350-94X</t>
+          <t>080-114-460-350-94X;;076-785-932-751-18X</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>https://lens.org/080-114-460-350-94X;;https://lens.org/076-785-932-751-18X</t>
+          <t>https://lens.org/076-785-932-751-18X;;https://lens.org/080-114-460-350-94X</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -16146,7 +16146,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -16183,12 +16183,12 @@
       </c>
       <c r="P145" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06F11/07;;G06F15/16;;H01L29/417;;H01L27/18;;H03K19/195;;H01L39/24;;H01L39/02;;H01L29/15;;G11C19/32;;H01L29/66;;B82Y15/00;;H03M1/66;;G06N99/00;;H01L21/02;;H01L39/22;;H01L29/12;;G02F1/017;;G06N10/00;;H01L27/088;;G06F1/20;;H03M1/34;;H01L33/04</t>
+          <t>H01L21/02;;H01L39/24;;G06F15/16;;G06F11/07;;G06N10/00;;H01L29/66;;H01L29/12;;H01L27/088;;H01L29/15;;H03M1/34;;G02F1/017;;H01L27/18;;H01L33/04;;G06N99/00;;B82Y10/00;;H01L39/02;;G11C19/32;;H03M1/66;;H01L29/417;;B82Y15/00;;H01L39/22;;G06F1/20;;H03K19/195</t>
         </is>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G11C11/44;;H01L29/122;;G06F15/16;;H03K3/38;;H01L39/221;;H01L27/18;;H03K19/195;;H03M13/1575;;H01L29/157;;H01L29/66984;;G06F11/0724;;G11C19/32;;H01L29/0673;;G02F1/01725;;H01L29/0692;;B82Y15/00;;H01L29/6681;;H01L27/0886;;G06F11/0751;;H01L27/0883;;G02F1/01791;;H01L39/228;;H03M1/66;;G06N99/00;;H01L29/41791;;G06N5/003;;H01L29/66439;;H01L21/02694;;H01L29/423;;H01L29/66977;;G06N10/00;;G06F1/20;;H03M1/34;;H01L33/04;;G06F11/0793</t>
+          <t>H03K3/38;;G06F11/0751;;G06F15/16;;G11C11/44;;H01L29/66984;;H01L27/0886;;G06N10/00;;H01L39/221;;H03M1/34;;H01L29/66977;;G06N5/003;;H03M13/1575;;H01L27/0883;;G02F1/01791;;H01L27/18;;H01L29/6681;;H01L33/04;;H01L29/0692;;G06F11/0793;;H01L29/66439;;G06N99/00;;B82Y10/00;;H01L39/228;;H01L29/41791;;H01L29/157;;H01L21/02694;;H01L29/423;;G11C19/32;;H03M1/66;;G06F11/0724;;H01L29/122;;H01L29/0673;;G02F1/01725;;B82Y15/00;;G06F1/20;;H03K19/195</t>
         </is>
       </c>
       <c r="R145" t="inlineStr"/>
@@ -16215,7 +16215,7 @@
       </c>
       <c r="X145" t="inlineStr">
         <is>
-          <t>US 2019/0393398 A1;;US 10865106 B2</t>
+          <t>US 10865106 B2;;US 2019/0393398 A1</t>
         </is>
       </c>
       <c r="Y145" t="inlineStr">
@@ -16232,17 +16232,17 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>176-554-120-843-908;;058-546-302-456-492</t>
+          <t>058-546-302-456-492;;176-554-120-843-908</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>https://lens.org/058-546-302-456-492;;https://lens.org/176-554-120-843-908</t>
+          <t>https://lens.org/176-554-120-843-908;;https://lens.org/058-546-302-456-492</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Semiconductor Process For Quantum Structures With Staircase Active Well Incorporating Shared Gate Control;;Semiconductor process for quantum structures with staircase active well incorporating shared gate control</t>
+          <t>Semiconductor process for quantum structures with staircase active well incorporating shared gate control;;Semiconductor Process For Quantum Structures With Staircase Active Well Incorporating Shared Gate Control</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -16257,7 +16257,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -16294,12 +16294,12 @@
       </c>
       <c r="P146" t="inlineStr">
         <is>
-          <t>G02F1/017;;G06N10/00;;H01L29/775;;H01L29/12</t>
+          <t>H01L29/12;;G02F1/017;;G06N10/00;;H01L29/775</t>
         </is>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H01L29/423;;H01L29/122;;H01L29/0673;;G02F1/01725;;H01L29/66977;;G06N10/00;;H01L29/7613;;H01L29/7391;;G06N5/003;;H01L29/775</t>
+          <t>H01L29/423;;H01L29/66977;;H01L29/122;;H01L29/7613;;H01L29/7391;;H01L29/0673;;G02F1/01725;;B82Y10/00;;G06N10/00;;G06N5/003;;H01L29/775</t>
         </is>
       </c>
       <c r="R146" t="inlineStr"/>
@@ -16326,7 +16326,7 @@
       </c>
       <c r="X146" t="inlineStr">
         <is>
-          <t>US 10861940 B2;;US 2020/0227522 A1</t>
+          <t>US 2020/0227522 A1;;US 10861940 B2</t>
         </is>
       </c>
       <c r="Y146" t="inlineStr">
@@ -16343,7 +16343,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>056-475-461-942-123;;126-784-143-304-325</t>
+          <t>126-784-143-304-325;;056-475-461-942-123</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -16353,7 +16353,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>SEMICONDUCTOR CONTROLLED QUANTUM ANNEALING INTERACTION GATE;;Semiconductor controlled quantum annealing interaction gate</t>
+          <t>Semiconductor controlled quantum annealing interaction gate;;SEMICONDUCTOR CONTROLLED QUANTUM ANNEALING INTERACTION GATE</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -16368,7 +16368,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -16405,12 +16405,12 @@
       </c>
       <c r="P147" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G02F1/017;;G06N10/00;;H01L29/66;;H03K19/195;;H01L33/04;;G06N99/00;;H01L21/02;;H01L29/12</t>
+          <t>H01L21/02;;H01L29/12;;H03K19/195;;H01L33/04;;G06N99/00;;G02F1/017;;B82Y10/00;;G06N10/00;;H01L29/66</t>
         </is>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G11C11/44;;H01L29/122;;G06F15/16;;H03K3/38;;H01L39/221;;H01L27/18;;H03K19/195;;H03M13/1575;;H01L29/157;;H01L29/66984;;G06F11/0724;;G11C19/32;;H01L29/0673;;G02F1/01725;;H01L29/0692;;B82Y15/00;;H01L29/6681;;H01L27/0886;;G06F11/0751;;H01L27/0883;;G02F1/01791;;H01L39/228;;H03M1/66;;G06N99/00;;H01L29/41791;;G06N5/003;;H01L29/66439;;H01L21/02694;;H01L29/423;;H01L29/66977;;G06N10/00;;G06F1/20;;H03M1/34;;H01L33/04;;G06F11/0793</t>
+          <t>H03K3/38;;G06F11/0751;;G06F15/16;;G11C11/44;;H01L29/66984;;H01L27/0886;;G06N10/00;;H01L39/221;;H03M1/34;;H01L29/66977;;G06N5/003;;H03M13/1575;;H01L27/0883;;G02F1/01791;;H01L27/18;;H01L29/6681;;H01L33/04;;H01L29/0692;;G06F11/0793;;H01L29/66439;;G06N99/00;;B82Y10/00;;H01L39/228;;H01L29/41791;;H01L29/157;;H01L21/02694;;H01L29/423;;G11C19/32;;H03M1/66;;G06F11/0724;;H01L29/122;;H01L29/0673;;G02F1/01725;;B82Y15/00;;G06F1/20;;H03K19/195</t>
         </is>
       </c>
       <c r="R147" t="inlineStr"/>
@@ -16459,7 +16459,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>https://lens.org/163-554-660-882-527;;https://lens.org/103-370-753-926-944</t>
+          <t>https://lens.org/103-370-753-926-944;;https://lens.org/163-554-660-882-527</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -16479,7 +16479,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -16516,12 +16516,12 @@
       </c>
       <c r="P148" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06F11/07;;G06F15/16;;H01L29/417;;H01L27/18;;H03K19/195;;H01L39/24;;H01L39/02;;H01L29/15;;G11C19/32;;H01L29/66;;B82Y15/00;;H03M1/66;;G06N99/00;;H01L21/02;;H01L39/22;;H01L29/12;;G02F1/017;;G06N10/00;;H01L27/088;;G06F1/20;;H03M1/34;;H01L33/04</t>
+          <t>H01L21/02;;H01L39/24;;G06F15/16;;G06F11/07;;G06N10/00;;H01L29/66;;H01L29/12;;H01L27/088;;H01L29/15;;H03M1/34;;G02F1/017;;H01L27/18;;H01L33/04;;G06N99/00;;B82Y10/00;;H01L39/02;;G11C19/32;;H03M1/66;;H01L29/417;;B82Y15/00;;H01L39/22;;G06F1/20;;H03K19/195</t>
         </is>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G11C11/44;;H01L29/122;;G06F15/16;;H03K3/38;;H01L39/221;;H01L27/18;;H03K19/195;;H03M13/1575;;H01L29/157;;H01L29/66984;;G06F11/0724;;G11C19/32;;H01L29/0673;;G02F1/01725;;H01L29/0692;;B82Y15/00;;H01L29/6681;;H01L27/0886;;G06F11/0751;;H01L27/0883;;G02F1/01791;;H01L39/228;;H03M1/66;;G06N99/00;;H01L29/41791;;G06N5/003;;H01L29/66439;;H01L21/02694;;H01L29/423;;H01L29/66977;;G06N10/00;;G06F1/20;;H03M1/34;;H01L33/04;;G06F11/0793</t>
+          <t>H03K3/38;;G06F11/0751;;G06F15/16;;G11C11/44;;H01L29/66984;;H01L27/0886;;G06N10/00;;H01L39/221;;H03M1/34;;H01L29/66977;;G06N5/003;;H03M13/1575;;H01L27/0883;;G02F1/01791;;H01L27/18;;H01L29/6681;;H01L33/04;;H01L29/0692;;G06F11/0793;;H01L29/66439;;G06N99/00;;B82Y10/00;;H01L39/228;;H01L29/41791;;H01L29/157;;H01L21/02694;;H01L29/423;;G11C19/32;;H03M1/66;;G06F11/0724;;H01L29/122;;H01L29/0673;;G02F1/01725;;B82Y15/00;;G06F1/20;;H03K19/195</t>
         </is>
       </c>
       <c r="R148" t="inlineStr"/>
@@ -16548,7 +16548,7 @@
       </c>
       <c r="X148" t="inlineStr">
         <is>
-          <t>US 10800654 B2;;US 2019/0393399 A1</t>
+          <t>US 2019/0393399 A1;;US 10800654 B2</t>
         </is>
       </c>
       <c r="Y148" t="inlineStr">
@@ -16590,7 +16590,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -16627,12 +16627,12 @@
       </c>
       <c r="P149" t="inlineStr">
         <is>
-          <t>G06N99/00;;G06N10/00;;H01L29/66;;H01L29/12</t>
+          <t>H01L29/12;;G06N10/00;;G06N99/00;;H01L29/66</t>
         </is>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G11C11/44;;H01L29/122;;G06F15/16;;H03K3/38;;H01L39/221;;H01L27/18;;H03K19/195;;H03M13/1575;;H01L29/157;;H01L29/66984;;G06F11/0724;;G11C19/32;;H01L29/0673;;G02F1/01725;;H01L29/0692;;B82Y15/00;;H01L29/6681;;H01L27/0886;;G06F11/0751;;H01L27/0883;;G02F1/01791;;H01L39/228;;H03M1/66;;G06N99/00;;H01L29/41791;;G06N5/003;;H01L29/66439;;H01L21/02694;;H01L29/423;;H01L29/66977;;G06N10/00;;G06F1/20;;H03M1/34;;H01L33/04;;G06F11/0793</t>
+          <t>H03K3/38;;G06F11/0751;;G06F15/16;;G11C11/44;;H01L29/66984;;H01L27/0886;;G06N10/00;;H01L39/221;;H03M1/34;;H01L29/66977;;G06N5/003;;H03M13/1575;;H01L27/0883;;G02F1/01791;;H01L27/18;;H01L29/6681;;H01L33/04;;H01L29/0692;;G06F11/0793;;H01L29/66439;;G06N99/00;;B82Y10/00;;H01L39/228;;H01L29/41791;;H01L29/157;;H01L21/02694;;H01L29/423;;G11C19/32;;H03M1/66;;G06F11/0724;;H01L29/122;;H01L29/0673;;G02F1/01725;;B82Y15/00;;G06F1/20;;H03K19/195</t>
         </is>
       </c>
       <c r="R149" t="inlineStr"/>
@@ -16686,7 +16686,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>SEMICONDUCTOR CONTROLLED QUANTUM ANCILLARY INTERACTION GATE;;Semiconductor controlled quantum ancillary interaction gate</t>
+          <t>Semiconductor controlled quantum ancillary interaction gate;;SEMICONDUCTOR CONTROLLED QUANTUM ANCILLARY INTERACTION GATE</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -16701,7 +16701,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -16719,12 +16719,12 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>B2;;A1</t>
+          <t>A1;;B2</t>
         </is>
       </c>
       <c r="M150" t="n">
@@ -16738,12 +16738,12 @@
       </c>
       <c r="P150" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G02F1/017;;G06N10/00;;H01L29/66;;H03K19/195;;H01L39/24;;H01L39/02;;H01L39/22;;H01L29/12</t>
+          <t>H01L29/12;;H01L39/02;;H03K19/195;;H01L39/24;;G02F1/017;;B82Y10/00;;G06N10/00;;H01L39/22;;H01L29/66</t>
         </is>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G11C11/44;;H01L29/122;;G06F15/16;;H03K3/38;;H01L39/221;;H01L27/18;;H03K19/195;;H03M13/1575;;H01L29/157;;H01L29/66984;;G06F11/0724;;G11C19/32;;H01L29/0673;;G02F1/01725;;H01L29/0692;;B82Y15/00;;H01L29/6681;;H01L27/0886;;G06F11/0751;;H01L27/0883;;G02F1/01791;;H01L39/228;;H03M1/66;;G06N99/00;;H01L29/41791;;G06N5/003;;H01L29/66439;;H01L21/02694;;H01L29/423;;H01L29/66977;;G06N10/00;;G06F1/20;;H03M1/34;;H01L33/04;;G06F11/0793</t>
+          <t>H03K3/38;;G06F11/0751;;G06F15/16;;G11C11/44;;H01L29/66984;;H01L27/0886;;G06N10/00;;H01L39/221;;H03M1/34;;H01L29/66977;;G06N5/003;;H03M13/1575;;H01L27/0883;;G02F1/01791;;H01L27/18;;H01L29/6681;;H01L33/04;;H01L29/0692;;G06F11/0793;;H01L29/66439;;G06N99/00;;B82Y10/00;;H01L39/228;;H01L29/41791;;H01L29/157;;H01L21/02694;;H01L29/423;;G11C19/32;;H03M1/66;;G06F11/0724;;H01L29/122;;H01L29/0673;;G02F1/01725;;B82Y15/00;;G06F1/20;;H03K19/195</t>
         </is>
       </c>
       <c r="R150" t="inlineStr"/>
@@ -16812,7 +16812,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -16849,12 +16849,12 @@
       </c>
       <c r="P151" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H01L27/088;;G06N10/00;;H01L27/18;;H03M1/66;;B82Y15/00;;H01L39/22</t>
+          <t>H01L27/088;;H03M1/66;;B82Y15/00;;B82Y10/00;;G06N10/00;;H01L39/22;;H01L27/18</t>
         </is>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G11C11/44;;H01L29/122;;G06F15/16;;H03K3/38;;H01L39/221;;H01L27/18;;H03K19/195;;H03M13/1575;;H01L29/157;;H01L29/66984;;G06F11/0724;;G11C19/32;;H01L29/0673;;G02F1/01725;;H01L29/0692;;B82Y15/00;;H01L29/6681;;H01L27/0886;;G06F11/0751;;H01L27/0883;;G02F1/01791;;H01L39/228;;H03M1/66;;G06N99/00;;H01L29/41791;;G06N5/003;;H01L29/66439;;H01L21/02694;;H01L29/423;;H01L29/66977;;G06N10/00;;G06F1/20;;H03M1/34;;H01L33/04;;G06F11/0793</t>
+          <t>H03K3/38;;G06F11/0751;;G06F15/16;;G11C11/44;;H01L29/66984;;H01L27/0886;;G06N10/00;;H01L39/221;;H03M1/34;;H01L29/66977;;G06N5/003;;H03M13/1575;;H01L27/0883;;G02F1/01791;;H01L27/18;;H01L29/6681;;H01L33/04;;H01L29/0692;;G06F11/0793;;H01L29/66439;;G06N99/00;;B82Y10/00;;H01L39/228;;H01L29/41791;;H01L29/157;;H01L21/02694;;H01L29/423;;G11C19/32;;H03M1/66;;G06F11/0724;;H01L29/122;;H01L29/0673;;G02F1/01725;;B82Y15/00;;G06F1/20;;H03K19/195</t>
         </is>
       </c>
       <c r="R151" t="inlineStr"/>
@@ -16923,7 +16923,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -16960,12 +16960,12 @@
       </c>
       <c r="P152" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;H01L29/417;;H01L29/66;;H01L39/22;;H01L29/12</t>
+          <t>H01L29/12;;H01L29/417;;B82Y10/00;;G06N10/00;;H01L39/22;;H01L29/66</t>
         </is>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G11C11/44;;H01L29/122;;G06F15/16;;H03K3/38;;H01L39/221;;H01L27/18;;H03K19/195;;H03M13/1575;;H01L29/157;;H01L29/66984;;G06F11/0724;;G11C19/32;;H01L29/0673;;G02F1/01725;;H01L29/0692;;B82Y15/00;;H01L29/6681;;H01L27/0886;;G06F11/0751;;H01L27/0883;;G02F1/01791;;H01L39/228;;H03M1/66;;G06N99/00;;H01L29/41791;;G06N5/003;;H01L29/66439;;H01L21/02694;;H01L29/423;;H01L29/66977;;G06N10/00;;G06F1/20;;H03M1/34;;H01L33/04;;G06F11/0793</t>
+          <t>H03K3/38;;G06F11/0751;;G06F15/16;;G11C11/44;;H01L29/66984;;H01L27/0886;;G06N10/00;;H01L39/221;;H03M1/34;;H01L29/66977;;G06N5/003;;H03M13/1575;;H01L27/0883;;G02F1/01791;;H01L27/18;;H01L29/6681;;H01L33/04;;H01L29/0692;;G06F11/0793;;H01L29/66439;;G06N99/00;;B82Y10/00;;H01L39/228;;H01L29/41791;;H01L29/157;;H01L21/02694;;H01L29/423;;G11C19/32;;H03M1/66;;G06F11/0724;;H01L29/122;;H01L29/0673;;G02F1/01725;;B82Y15/00;;G06F1/20;;H03K19/195</t>
         </is>
       </c>
       <c r="R152" t="inlineStr"/>
@@ -17034,7 +17034,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -17071,12 +17071,12 @@
       </c>
       <c r="P153" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;H01L29/417;;H01L29/66;;H03M1/34;;B82Y15/00;;H01L39/22;;H01L29/12</t>
+          <t>H01L29/12;;H03M1/34;;H01L29/417;;B82Y15/00;;B82Y10/00;;G06N10/00;;H01L39/22;;H01L29/66</t>
         </is>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G11C11/44;;H01L29/122;;G06F15/16;;H03K3/38;;H01L39/221;;H01L27/18;;H03K19/195;;H03M13/1575;;H01L29/157;;H01L29/66984;;G06F11/0724;;G11C19/32;;H01L29/0673;;G02F1/01725;;H01L29/0692;;B82Y15/00;;H01L29/6681;;H01L27/0886;;G06F11/0751;;H01L27/0883;;G02F1/01791;;H01L39/228;;H03M1/66;;G06N99/00;;H01L29/41791;;G06N5/003;;H01L29/66439;;H01L21/02694;;H01L29/423;;H01L29/66977;;G06N10/00;;G06F1/20;;H03M1/34;;H01L33/04;;G06F11/0793</t>
+          <t>H03K3/38;;G06F11/0751;;G06F15/16;;G11C11/44;;H01L29/66984;;H01L27/0886;;G06N10/00;;H01L39/221;;H03M1/34;;H01L29/66977;;G06N5/003;;H03M13/1575;;H01L27/0883;;G02F1/01791;;H01L27/18;;H01L29/6681;;H01L33/04;;H01L29/0692;;G06F11/0793;;H01L29/66439;;G06N99/00;;B82Y10/00;;H01L39/228;;H01L29/41791;;H01L29/157;;H01L21/02694;;H01L29/423;;G11C19/32;;H03M1/66;;G06F11/0724;;H01L29/122;;H01L29/0673;;G02F1/01725;;B82Y15/00;;G06F1/20;;H03K19/195</t>
         </is>
       </c>
       <c r="R153" t="inlineStr"/>
@@ -17145,7 +17145,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -17182,12 +17182,12 @@
       </c>
       <c r="P154" t="inlineStr">
         <is>
-          <t>G06N10/00;;G06F11/07;;G06F1/20</t>
+          <t>G06F1/20;;G06F11/07;;G06N10/00</t>
         </is>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G11C11/44;;H01L29/122;;G06F15/16;;H03K3/38;;H01L39/221;;H01L27/18;;H03K19/195;;H03M13/1575;;H01L29/157;;H01L29/66984;;G06F11/0724;;G11C19/32;;H01L29/0673;;G02F1/01725;;H01L29/0692;;B82Y15/00;;H01L29/6681;;H01L27/0886;;G06F11/0751;;H01L27/0883;;G02F1/01791;;H01L39/228;;H03M1/66;;G06N99/00;;H01L29/41791;;G06N5/003;;H01L29/66439;;H01L21/02694;;H01L29/423;;H01L29/66977;;G06N10/00;;G06F1/20;;H03M1/34;;H01L33/04;;G06F11/0793</t>
+          <t>H03K3/38;;G06F11/0751;;G06F15/16;;G11C11/44;;H01L29/66984;;H01L27/0886;;G06N10/00;;H01L39/221;;H03M1/34;;H01L29/66977;;G06N5/003;;H03M13/1575;;H01L27/0883;;G02F1/01791;;H01L27/18;;H01L29/6681;;H01L33/04;;H01L29/0692;;G06F11/0793;;H01L29/66439;;G06N99/00;;B82Y10/00;;H01L39/228;;H01L29/41791;;H01L29/157;;H01L21/02694;;H01L29/423;;G11C19/32;;H03M1/66;;G06F11/0724;;H01L29/122;;H01L29/0673;;G02F1/01725;;B82Y15/00;;G06F1/20;;H03K19/195</t>
         </is>
       </c>
       <c r="R154" t="inlineStr"/>
@@ -17256,7 +17256,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -17298,7 +17298,7 @@
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G11C11/44;;H01L29/122;;G06F15/16;;H03K3/38;;H01L39/221;;H01L27/18;;H03K19/195;;H03M13/1575;;H01L29/157;;H01L29/66984;;G06F11/0724;;G11C19/32;;H01L29/0673;;G02F1/01725;;H01L29/0692;;B82Y15/00;;H01L29/6681;;H01L27/0886;;G06F11/0751;;H01L27/0883;;G02F1/01791;;H01L39/228;;H03M1/66;;G06N99/00;;H01L29/41791;;G06N5/003;;H01L29/66439;;H01L21/02694;;H01L29/423;;H01L29/66977;;G06N10/00;;G06F1/20;;H03M1/34;;H01L33/04;;G06F11/0793</t>
+          <t>H03K3/38;;G06F11/0751;;G06F15/16;;G11C11/44;;H01L29/66984;;H01L27/0886;;G06N10/00;;H01L39/221;;H03M1/34;;H01L29/66977;;G06N5/003;;H03M13/1575;;H01L27/0883;;G02F1/01791;;H01L27/18;;H01L29/6681;;H01L33/04;;H01L29/0692;;G06F11/0793;;H01L29/66439;;G06N99/00;;B82Y10/00;;H01L39/228;;H01L29/41791;;H01L29/157;;H01L21/02694;;H01L29/423;;G11C19/32;;H03M1/66;;G06F11/0724;;H01L29/122;;H01L29/0673;;G02F1/01725;;B82Y15/00;;G06F1/20;;H03K19/195</t>
         </is>
       </c>
       <c r="R155" t="inlineStr"/>
@@ -17367,7 +17367,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -17404,12 +17404,12 @@
       </c>
       <c r="P156" t="inlineStr">
         <is>
-          <t>G06N10/00;;H03M13/15</t>
+          <t>H03M13/15;;G06N10/00</t>
         </is>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G11C11/44;;H01L29/122;;G06F15/16;;H03K3/38;;H01L39/221;;H01L27/18;;H03K19/195;;H03M13/1575;;H01L29/157;;H01L29/66984;;G06F11/0724;;G11C19/32;;H01L29/0673;;G02F1/01725;;H01L29/0692;;B82Y15/00;;H01L29/6681;;H01L27/0886;;G06F11/0751;;H01L27/0883;;G02F1/01791;;H01L39/228;;H03M1/66;;G06N99/00;;H01L29/41791;;G06N5/003;;H01L29/66439;;H01L21/02694;;H01L29/423;;H01L29/66977;;G06N10/00;;G06F1/20;;H03M1/34;;H01L33/04;;G06F11/0793</t>
+          <t>H03K3/38;;G06F11/0751;;G06F15/16;;G11C11/44;;H01L29/66984;;H01L27/0886;;G06N10/00;;H01L39/221;;H03M1/34;;H01L29/66977;;G06N5/003;;H03M13/1575;;H01L27/0883;;G02F1/01791;;H01L27/18;;H01L29/6681;;H01L33/04;;H01L29/0692;;G06F11/0793;;H01L29/66439;;G06N99/00;;B82Y10/00;;H01L39/228;;H01L29/41791;;H01L29/157;;H01L21/02694;;H01L29/423;;G11C19/32;;H03M1/66;;G06F11/0724;;H01L29/122;;H01L29/0673;;G02F1/01725;;B82Y15/00;;G06F1/20;;H03K19/195</t>
         </is>
       </c>
       <c r="R156" t="inlineStr"/>
@@ -17478,7 +17478,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -17515,12 +17515,12 @@
       </c>
       <c r="P157" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G11C19/32;;G02F1/017;;G06N10/00;;H01L29/66;;H03K19/195;;H01L29/12</t>
+          <t>H01L29/12;;G11C19/32;;G02F1/017;;B82Y10/00;;G06N10/00;;H01L29/66;;H03K19/195</t>
         </is>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G11C11/44;;H01L29/122;;G06F15/16;;H03K3/38;;H01L39/221;;H01L27/18;;H03K19/195;;H03M13/1575;;H01L29/157;;H01L29/66984;;G06F11/0724;;G11C19/32;;H01L29/0673;;G02F1/01725;;H01L29/0692;;B82Y15/00;;H01L29/6681;;H01L27/0886;;G06F11/0751;;H01L27/0883;;G02F1/01791;;H01L39/228;;H03M1/66;;G06N99/00;;H01L29/41791;;G06N5/003;;H01L29/66439;;H01L21/02694;;H01L29/423;;H01L29/66977;;G06N10/00;;G06F1/20;;H03M1/34;;H01L33/04;;G06F11/0793</t>
+          <t>H03K3/38;;G06F11/0751;;G06F15/16;;G11C11/44;;H01L29/66984;;H01L27/0886;;G06N10/00;;H01L39/221;;H03M1/34;;H01L29/66977;;G06N5/003;;H03M13/1575;;H01L27/0883;;G02F1/01791;;H01L27/18;;H01L29/6681;;H01L33/04;;H01L29/0692;;G06F11/0793;;H01L29/66439;;G06N99/00;;B82Y10/00;;H01L39/228;;H01L29/41791;;H01L29/157;;H01L21/02694;;H01L29/423;;G11C19/32;;H03M1/66;;G06F11/0724;;H01L29/122;;H01L29/0673;;G02F1/01725;;B82Y15/00;;G06F1/20;;H03K19/195</t>
         </is>
       </c>
       <c r="R157" t="inlineStr"/>
@@ -17547,7 +17547,7 @@
       </c>
       <c r="X157" t="inlineStr">
         <is>
-          <t>US 2019/0392917 A1;;US 10850978 B2</t>
+          <t>US 10850978 B2;;US 2019/0392917 A1</t>
         </is>
       </c>
       <c r="Y157" t="inlineStr">
@@ -17569,7 +17569,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>https://lens.org/007-410-414-786-063;;https://lens.org/115-082-311-778-939</t>
+          <t>https://lens.org/115-082-311-778-939;;https://lens.org/007-410-414-786-063</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -17589,7 +17589,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -17626,12 +17626,12 @@
       </c>
       <c r="P158" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G02F1/017;;G06N10/00;;H01L29/66;;H03K19/195;;H01L29/12</t>
+          <t>H01L29/12;;H03K19/195;;G02F1/017;;B82Y10/00;;G06N10/00;;H01L29/66</t>
         </is>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G11C11/44;;H01L29/122;;G06F15/16;;H03K3/38;;H01L39/221;;H01L27/18;;H03K19/195;;H03M13/1575;;H01L29/157;;H01L29/66984;;G06F11/0724;;G11C19/32;;H01L29/0673;;G02F1/01725;;H01L29/0692;;B82Y15/00;;H01L29/6681;;H01L27/0886;;G06F11/0751;;H01L27/0883;;G02F1/01791;;H01L39/228;;H03M1/66;;G06N99/00;;H01L29/41791;;G06N5/003;;H01L29/66439;;H01L21/02694;;H01L29/423;;H01L29/66977;;G06N10/00;;G06F1/20;;H03M1/34;;H01L33/04;;G06F11/0793</t>
+          <t>H03K3/38;;G06F11/0751;;G06F15/16;;G11C11/44;;H01L29/66984;;H01L27/0886;;G06N10/00;;H01L39/221;;H03M1/34;;H01L29/66977;;G06N5/003;;H03M13/1575;;H01L27/0883;;G02F1/01791;;H01L27/18;;H01L29/6681;;H01L33/04;;H01L29/0692;;G06F11/0793;;H01L29/66439;;G06N99/00;;B82Y10/00;;H01L39/228;;H01L29/41791;;H01L29/157;;H01L21/02694;;H01L29/423;;G11C19/32;;H03M1/66;;G06F11/0724;;H01L29/122;;H01L29/0673;;G02F1/01725;;B82Y15/00;;G06F1/20;;H03K19/195</t>
         </is>
       </c>
       <c r="R158" t="inlineStr"/>
@@ -17675,12 +17675,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>182-693-748-192-677;;020-566-032-583-940</t>
+          <t>020-566-032-583-940;;182-693-748-192-677</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>https://lens.org/020-566-032-583-940;;https://lens.org/182-693-748-192-677</t>
+          <t>https://lens.org/182-693-748-192-677;;https://lens.org/020-566-032-583-940</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -17700,7 +17700,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -17718,12 +17718,12 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>B2;;A1</t>
+          <t>A1;;B2</t>
         </is>
       </c>
       <c r="M159" t="n">
@@ -17737,12 +17737,12 @@
       </c>
       <c r="P159" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G11C19/12;;G02F1/017;;G06N10/00;;G06N99/00</t>
+          <t>G11C19/12;;G06N99/00;;G02F1/017;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G11C11/44;;H01L29/122;;G06F15/16;;H03K3/38;;H01L39/221;;H01L27/18;;H03K19/195;;H03M13/1575;;H01L29/157;;H01L29/66984;;G06F11/0724;;G11C19/32;;H01L29/0673;;G02F1/01725;;H01L29/0692;;B82Y15/00;;H01L29/6681;;H01L27/0886;;G06F11/0751;;H01L27/0883;;G02F1/01791;;H01L39/228;;H03M1/66;;G06N99/00;;H01L29/41791;;G06N5/003;;H01L29/66439;;H01L21/02694;;H01L29/423;;H01L29/66977;;G06N10/00;;G06F1/20;;H03M1/34;;H01L33/04;;G06F11/0793</t>
+          <t>H03K3/38;;G06F11/0751;;G06F15/16;;G11C11/44;;H01L29/66984;;H01L27/0886;;G06N10/00;;H01L39/221;;H03M1/34;;H01L29/66977;;G06N5/003;;H03M13/1575;;H01L27/0883;;G02F1/01791;;H01L27/18;;H01L29/6681;;H01L33/04;;H01L29/0692;;G06F11/0793;;H01L29/66439;;G06N99/00;;B82Y10/00;;H01L39/228;;H01L29/41791;;H01L29/157;;H01L21/02694;;H01L29/423;;G11C19/32;;H03M1/66;;G06F11/0724;;H01L29/122;;H01L29/0673;;G02F1/01725;;B82Y15/00;;G06F1/20;;H03K19/195</t>
         </is>
       </c>
       <c r="R159" t="inlineStr"/>
@@ -17786,7 +17786,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>155-365-488-382-607;;079-188-284-728-507</t>
+          <t>079-188-284-728-507;;155-365-488-382-607</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -17811,7 +17811,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -17829,12 +17829,12 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent</t>
+          <t>Granted Patent;;Patent Application</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>B2;;A1</t>
+          <t>A1;;B2</t>
         </is>
       </c>
       <c r="M160" t="n">
@@ -17848,12 +17848,12 @@
       </c>
       <c r="P160" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G11C19/12;;G02F1/017;;G06N10/00;;G06N99/00</t>
+          <t>G11C19/12;;G06N99/00;;G02F1/017;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G11C11/44;;H01L29/122;;G06F15/16;;H03K3/38;;H01L39/221;;H01L27/18;;H03K19/195;;H03M13/1575;;H01L29/157;;H01L29/66984;;G06F11/0724;;G11C19/32;;H01L29/0673;;G02F1/01725;;H01L29/0692;;B82Y15/00;;H01L29/6681;;H01L27/0886;;G06F11/0751;;H01L27/0883;;G02F1/01791;;H01L39/228;;H03M1/66;;G06N99/00;;H01L29/41791;;G06N5/003;;H01L29/66439;;H01L21/02694;;H01L29/423;;H01L29/66977;;G06N10/00;;G06F1/20;;H03M1/34;;H01L33/04;;G06F11/0793</t>
+          <t>H03K3/38;;G06F11/0751;;G06F15/16;;G11C11/44;;H01L29/66984;;H01L27/0886;;G06N10/00;;H01L39/221;;H03M1/34;;H01L29/66977;;G06N5/003;;H03M13/1575;;H01L27/0883;;G02F1/01791;;H01L27/18;;H01L29/6681;;H01L33/04;;H01L29/0692;;G06F11/0793;;H01L29/66439;;G06N99/00;;B82Y10/00;;H01L39/228;;H01L29/41791;;H01L29/157;;H01L21/02694;;H01L29/423;;G11C19/32;;H03M1/66;;G06F11/0724;;H01L29/122;;H01L29/0673;;G02F1/01725;;B82Y15/00;;G06F1/20;;H03K19/195</t>
         </is>
       </c>
       <c r="R160" t="inlineStr"/>
@@ -17880,7 +17880,7 @@
       </c>
       <c r="X160" t="inlineStr">
         <is>
-          <t>US 10562765 B2;;US 2019/0392913 A1</t>
+          <t>US 2019/0392913 A1;;US 10562765 B2</t>
         </is>
       </c>
       <c r="Y160" t="inlineStr">
@@ -17897,12 +17897,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>034-522-777-279-242;;151-489-485-071-773</t>
+          <t>151-489-485-071-773;;034-522-777-279-242</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>https://lens.org/151-489-485-071-773;;https://lens.org/034-522-777-279-242</t>
+          <t>https://lens.org/034-522-777-279-242;;https://lens.org/151-489-485-071-773</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -17922,7 +17922,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
+          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="H161" t="inlineStr"/>
@@ -17955,12 +17955,12 @@
       </c>
       <c r="P161" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;H01L29/12</t>
+          <t>H01L29/12;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G11C11/44;;H01L29/122;;G06F15/16;;H03K3/38;;H01L39/221;;H01L27/18;;H03K19/195;;H03M13/1575;;H01L29/157;;H01L29/66984;;G06F11/0724;;G11C19/32;;H01L29/0673;;G02F1/01725;;H01L29/0692;;B82Y15/00;;H01L29/6681;;H01L27/0886;;G06F11/0751;;H01L27/0883;;G02F1/01791;;H01L39/228;;H03M1/66;;G06N99/00;;H01L29/41791;;G06N5/003;;H01L29/66439;;H01L21/02694;;H01L29/423;;H01L29/66977;;G06N10/00;;G06F1/20;;H03M1/34;;H01L33/04;;G06F11/0793</t>
+          <t>H03K3/38;;G06F11/0751;;G06F15/16;;G11C11/44;;H01L29/66984;;H01L27/0886;;G06N10/00;;H01L39/221;;H03M1/34;;H01L29/66977;;G06N5/003;;H03M13/1575;;H01L27/0883;;G02F1/01791;;H01L27/18;;H01L29/6681;;H01L33/04;;H01L29/0692;;G06F11/0793;;H01L29/66439;;G06N99/00;;B82Y10/00;;H01L39/228;;H01L29/41791;;H01L29/157;;H01L21/02694;;H01L29/423;;G11C19/32;;H03M1/66;;G06F11/0724;;H01L29/122;;H01L29/0673;;G02F1/01725;;B82Y15/00;;G06F1/20;;H03K19/195</t>
         </is>
       </c>
       <c r="R161" t="inlineStr"/>
@@ -17992,7 +17992,7 @@
       </c>
       <c r="Y161" t="inlineStr">
         <is>
-          <t>IB 2019055174 W;;IB 2019055171 W</t>
+          <t>IB 2019055171 W;;IB 2019055174 W</t>
         </is>
       </c>
     </row>
@@ -18029,7 +18029,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>XUE YANBO;;MACREADY WILLIAM G</t>
+          <t>MACREADY WILLIAM G;;XUE YANBO</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -18066,12 +18066,12 @@
       </c>
       <c r="P162" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N20/00;;G06N10/00;;G06N7/00</t>
+          <t>G06N20/00;;B82Y10/00;;G06N10/00;;G06N7/00</t>
         </is>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N20/00;;G06N10/00;;G06N7/005</t>
+          <t>G06N20/00;;G06N7/005;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="R162" t="inlineStr"/>
@@ -18140,7 +18140,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>DA SILVA MARCUS PALMER;;WILSON CHRISTOPHER MOGAN;;SMITH ROBERT STANLEY;;TEZAK NIKOLAS ANTON</t>
+          <t>WILSON CHRISTOPHER MOGAN;;SMITH ROBERT STANLEY;;TEZAK NIKOLAS ANTON;;DA SILVA MARCUS PALMER</t>
         </is>
       </c>
       <c r="H163" t="inlineStr"/>
@@ -18178,7 +18178,7 @@
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;G06N20/10</t>
+          <t>G06N20/10;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="R163" t="inlineStr"/>
@@ -18247,7 +18247,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>HEIDEL STEVEN;;OSBORN CHRISTOPHER BUTLER;;SMITH ROBERT STANLEY;;LYNCH ADAM DAVID;;TEZAK NIKOLAS ANTON;;KARALEKAS PETER JONATHAN;;PETERSON ERIC CHRISTOPHER</t>
+          <t>SMITH ROBERT STANLEY;;HEIDEL STEVEN;;OSBORN CHRISTOPHER BUTLER;;PETERSON ERIC CHRISTOPHER;;LYNCH ADAM DAVID;;KARALEKAS PETER JONATHAN;;TEZAK NIKOLAS ANTON</t>
         </is>
       </c>
       <c r="H164" t="inlineStr"/>
@@ -18285,7 +18285,7 @@
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N5/04;;G06N10/00</t>
+          <t>G06N5/04;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="R164" t="inlineStr"/>
@@ -18350,7 +18350,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>HEIDEL STEVEN;;OSBORN CHRISTOPHER BUTLER;;SMITH ROBERT STANLEY;;LYNCH ADAM DAVID;;TEZAK NIKOLAS ANTON;;KARALEKAS PETER JONATHAN;;PETERSON ERIC CHRISTOPHER</t>
+          <t>SMITH ROBERT STANLEY;;HEIDEL STEVEN;;OSBORN CHRISTOPHER BUTLER;;PETERSON ERIC CHRISTOPHER;;LYNCH ADAM DAVID;;KARALEKAS PETER JONATHAN;;TEZAK NIKOLAS ANTON</t>
         </is>
       </c>
       <c r="H165" t="inlineStr"/>
@@ -18388,7 +18388,7 @@
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N5/04;;G06N10/00</t>
+          <t>G06N5/04;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="R165" t="inlineStr"/>
@@ -18457,7 +18457,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>PICHLER HANNES;;CHOI SOONWON;;WANG SHENGTAO;;ZHOU LEO;;LUKIN MIKHAIL</t>
+          <t>WANG SHENGTAO;;LUKIN MIKHAIL;;ZHOU LEO;;CHOI SOONWON;;PICHLER HANNES</t>
         </is>
       </c>
       <c r="H166" t="inlineStr"/>
@@ -18490,12 +18490,12 @@
       </c>
       <c r="P166" t="inlineStr">
         <is>
-          <t>H01L29/06;;H01L21/00;;G06F15/78;;G06N99/00</t>
+          <t>G06F15/78;;H01L29/06;;G06N99/00;;H01L21/00</t>
         </is>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N5/003;;G06N10/00</t>
+          <t>B82Y10/00;;G06N10/00;;G06N5/003</t>
         </is>
       </c>
       <c r="R166" t="inlineStr"/>
@@ -18564,7 +18564,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>PICHLER HANNES;;CHOI SOONWON;;WANG SHENGTAO;;LUKIN MIKHAIL D;;ZHOU LEO XIANGYU</t>
+          <t>LUKIN MIKHAIL D;;WANG SHENGTAO;;CHOI SOONWON;;ZHOU LEO XIANGYU;;PICHLER HANNES</t>
         </is>
       </c>
       <c r="H167" t="inlineStr"/>
@@ -18597,12 +18597,12 @@
       </c>
       <c r="P167" t="inlineStr">
         <is>
-          <t>H01L29/06;;H01L21/00;;G06F15/78;;G06N99/00</t>
+          <t>G06F15/78;;H01L29/06;;G06N99/00;;H01L21/00</t>
         </is>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N5/003;;G06N10/00</t>
+          <t>B82Y10/00;;G06N10/00;;G06N5/003</t>
         </is>
       </c>
       <c r="R167" t="inlineStr"/>
@@ -18671,7 +18671,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>REAGOR MATTHEW J;;RUST MICHAEL;;RIGETTI CHAD TYLER;;SMITH ROBERT STANLEY;;TEZAK NIKOLAS ANTON;;JONES GLENN;;DESAI ANAND;;PETERSON ERIC CHRISTOPHER</t>
+          <t>SMITH ROBERT STANLEY;;PETERSON ERIC CHRISTOPHER;;RIGETTI CHAD TYLER;;RUST MICHAEL;;REAGOR MATTHEW J;;JONES GLENN;;DESAI ANAND;;TEZAK NIKOLAS ANTON</t>
         </is>
       </c>
       <c r="H168" t="inlineStr"/>
@@ -18709,7 +18709,7 @@
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N5/003;;G06N10/00;;G06N5/022</t>
+          <t>G06N5/022;;B82Y10/00;;G06N10/00;;G06N5/003</t>
         </is>
       </c>
       <c r="R168" t="inlineStr"/>
@@ -18753,12 +18753,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>181-007-346-539-851;;092-853-485-533-675</t>
+          <t>092-853-485-533-675;;181-007-346-539-851</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>https://lens.org/092-853-485-533-675;;https://lens.org/181-007-346-539-851</t>
+          <t>https://lens.org/181-007-346-539-851;;https://lens.org/092-853-485-533-675</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -18778,7 +18778,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>KAPOOR ANMOL SINGH;;SALAHANDISH RAZIEH;;WANG GANG;;BHAT SUMRITA;;KOUL RAMAN;;WANG GANG (A K A JOSEPH);;VASTAREY NIKHIL SURESH</t>
+          <t>WANG GANG;;KAPOOR ANMOL SINGH;;WANG GANG (A K A JOSEPH);;SALAHANDISH RAZIEH;;BHAT SUMRITA;;KOUL RAMAN;;VASTAREY NIKHIL SURESH</t>
         </is>
       </c>
       <c r="H169" t="inlineStr"/>
@@ -18811,12 +18811,12 @@
       </c>
       <c r="P169" t="inlineStr">
         <is>
-          <t>G16H50/20;;G06K9/18;;G01N27/416;;G06K7/10;;H04W4/38;;G16H70/20;;B82Y15/00;;G06K19/07;;G01N27/403;;G16H40/67;;G01N27/30;;H04W4/80;;H04W4/90</t>
+          <t>H04W4/90;;G01N27/416;;G06K19/07;;G16H50/20;;G16H70/20;;H04W4/80;;G06K7/10;;G01N27/403;;B82Y15/00;;G16H40/67;;G06K9/18;;G01N27/30;;H04W4/38</t>
         </is>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>G01N27/3278;;G06K9/2063;;H04W4/02;;G01N33/48785;;B82Y30/00;;G16H40/20;;G16H40/67;;G16H50/20;;H04W4/80;;H04W4/90;;H04W4/021</t>
+          <t>H04W4/90;;G16H40/20;;G16H50/20;;H04W4/021;;G01N33/48785;;H04W4/02;;H04W4/80;;G16H40/67;;G06K9/2063;;B82Y30/00;;G01N27/3278</t>
         </is>
       </c>
       <c r="R169" t="inlineStr"/>
@@ -18848,7 +18848,7 @@
       </c>
       <c r="Y169" t="inlineStr">
         <is>
-          <t>CA 2019051567 W;;CA 3060849 A</t>
+          <t>CA 3060849 A;;CA 2019051567 W</t>
         </is>
       </c>
     </row>
@@ -18922,12 +18922,12 @@
       </c>
       <c r="P170" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G11C13/02;;G06N3/06</t>
+          <t>G11C13/02;;G06N3/06;;B82Y10/00</t>
         </is>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G11C11/54;;H01L51/0048;;G11C13/025;;G11C2213/77;;G11C13/0069;;G06N3/06;;G11C2213/79;;G06N3/063;;G11C2213/16;;G11C13/004;;G11C7/1006;;G11C2213/33;;H01L27/285;;G11C2213/81;;G11C2213/35</t>
+          <t>G11C11/54;;G11C2213/16;;G11C2213/81;;G11C2213/79;;G11C13/0069;;G11C13/025;;G11C2213/33;;B82Y10/00;;G11C2213/77;;G11C7/1006;;G11C2213/35;;H01L27/285;;H01L51/0048;;G06N3/063;;G06N3/06;;G11C13/004</t>
         </is>
       </c>
       <c r="R170" t="inlineStr"/>
@@ -18971,17 +18971,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>095-868-444-209-722;;080-794-601-505-258;;076-221-075-828-336</t>
+          <t>080-794-601-505-258;;076-221-075-828-336;;095-868-444-209-722</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>https://lens.org/076-221-075-828-336;;https://lens.org/095-868-444-209-722;;https://lens.org/080-794-601-505-258</t>
+          <t>https://lens.org/080-794-601-505-258;;https://lens.org/095-868-444-209-722;;https://lens.org/076-221-075-828-336</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>SYNAPSE-INSPIRED MEMORY ELEMENT FOR NEUROMORPHIC COMPUTING;;Memory device</t>
+          <t>Memory device;;SYNAPSE-INSPIRED MEMORY ELEMENT FOR NEUROMORPHIC COMPUTING</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -18996,7 +18996,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>MANFRINI MAURICIO;;GERBEN DOORNBOS;;MARCUS JOHANNES HENRICUS VAN DAL;;VAN DAL MARCUS JOHANNES HENRICUS;;MAURICIO MANFRINI;;DOORNBOS GERBEN</t>
+          <t>MANFRINI MAURICIO;;GERBEN DOORNBOS;;MAURICIO MANFRINI;;VAN DAL MARCUS JOHANNES HENRICUS;;MARCUS JOHANNES HENRICUS VAN DAL;;DOORNBOS GERBEN</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -19009,7 +19009,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>CN;;TW;;US</t>
+          <t>US;;TW;;CN</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -19033,12 +19033,12 @@
       </c>
       <c r="P171" t="inlineStr">
         <is>
-          <t>G11C11/54;;G06N3/04;;H01L27/22;;G06N3/063;;G11C11/56;;G11C11/16;;G11C13/00</t>
+          <t>G11C11/54;;H01L27/22;;G11C13/00;;G11C11/16;;G06N3/04;;G06N3/063;;G11C11/56</t>
         </is>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G11C11/54;;G11C13/0007;;G11C11/5685;;G11C13/0069;;G06N3/049;;H01L27/222;;H01L27/228;;G06N3/04;;G11C11/1659;;G11C13/0002;;G06N3/063;;G11C11/5607;;G11C13/0038;;G11C11/1697;;G11C11/1675;;G11C2213/78;;G11C13/003</t>
+          <t>G11C11/54;;G11C11/5607;;G11C13/0002;;G11C2213/78;;G11C11/5685;;G11C13/0069;;H01L27/228;;G06N3/04;;G11C13/003;;B82Y10/00;;G11C11/1659;;H01L27/222;;G11C13/0038;;G11C13/0007;;G06N3/049;;G06N3/063;;G11C11/1675;;G11C11/1697</t>
         </is>
       </c>
       <c r="R171" t="inlineStr"/>
@@ -19070,7 +19070,7 @@
       </c>
       <c r="Y171" t="inlineStr">
         <is>
-          <t>CN 202010248805 A;;TW 109111117 A;;US 201916371382 A</t>
+          <t>TW 109111117 A;;CN 202010248805 A;;US 201916371382 A</t>
         </is>
       </c>
     </row>
@@ -19107,7 +19107,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>PISTOIA MARCO;;MARTIN FERNANDEZ FRANCISCO JOSE;;GAMBETTA JAY M;;JAVADIABHARI ALI;;LIU PENG;;FARO SERTAGE ISMAEL</t>
+          <t>PISTOIA MARCO;;JAVADIABHARI ALI;;GAMBETTA JAY M;;FARO SERTAGE ISMAEL;;MARTIN FERNANDEZ FRANCISCO JOSE;;LIU PENG</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -19149,7 +19149,7 @@
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N20/00;;G06N10/00</t>
+          <t>G06N20/00;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="R172" t="inlineStr"/>
@@ -19218,7 +19218,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>PISTOIA MARCO;;CHEN RICHARD;;NANNICINI GIACOMO;;GREENBERG DON</t>
+          <t>CHEN RICHARD;;PISTOIA MARCO;;GREENBERG DON;;NANNICINI GIACOMO</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -19255,12 +19255,12 @@
       </c>
       <c r="P173" t="inlineStr">
         <is>
-          <t>G06N10/00;;G06N5/02;;G06N5/00</t>
+          <t>G06N5/02;;G06N10/00;;G06N5/00</t>
         </is>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N5/003;;G06N10/00;;G06N5/02</t>
+          <t>G06N5/02;;B82Y10/00;;G06N10/00;;G06N5/003</t>
         </is>
       </c>
       <c r="R173" t="inlineStr"/>
@@ -19287,7 +19287,7 @@
       </c>
       <c r="X173" t="inlineStr">
         <is>
-          <t>WO 2020/207956 A1;;US 2020/0327439 A1</t>
+          <t>US 2020/0327439 A1;;WO 2020/207956 A1</t>
         </is>
       </c>
       <c r="Y173" t="inlineStr">
@@ -19329,7 +19329,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>PISTOIA MARCO;;CHEN RICHARD;;NANNICINI GIACOMO;;GREENBERG DON</t>
+          <t>CHEN RICHARD;;PISTOIA MARCO;;GREENBERG DON;;NANNICINI GIACOMO</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -19371,7 +19371,7 @@
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N5/003;;G06N10/00;;G06N5/02</t>
+          <t>G06N5/02;;B82Y10/00;;G06N10/00;;G06N5/003</t>
         </is>
       </c>
       <c r="R174" t="inlineStr"/>
@@ -19420,12 +19420,12 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>https://lens.org/032-550-822-978-700;;https://lens.org/092-930-928-172-386</t>
+          <t>https://lens.org/092-930-928-172-386;;https://lens.org/032-550-822-978-700</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>STACKED RESISTIVE MEMORY WITH INDIVIDUAL SWITCH CONTROL;;Stacked resistive memory with individual switch control</t>
+          <t>Stacked resistive memory with individual switch control;;STACKED RESISTIVE MEMORY WITH INDIVIDUAL SWITCH CONTROL</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -19440,7 +19440,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>LEE CHOONGHYUN;;REZNICEK ALEXANDER;;ZHANG JINGYUN;;HASHEMI POUYA;;ANDO TAKASHI</t>
+          <t>HASHEMI POUYA;;ZHANG JINGYUN;;LEE CHOONGHYUN;;REZNICEK ALEXANDER;;ANDO TAKASHI</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -19477,12 +19477,12 @@
       </c>
       <c r="P175" t="inlineStr">
         <is>
-          <t>H01L29/423;;H01L29/66;;G06N3/063;;H01L27/24;;H01L29/786;;H01L45/00;;H01L29/06</t>
+          <t>H01L27/24;;H01L29/423;;H01L29/786;;H01L29/06;;G06N3/063;;H01L45/00;;H01L29/66</t>
         </is>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H01L45/16;;H01L29/66742;;H01L27/2436;;H01L29/78696;;G06N3/088;;H01L45/146;;H01L29/42392;;G06N3/049;;H01L29/0673;;H01L27/2481;;H01L45/122;;G06N3/063;;H01L45/08;;H01L45/1233;;H01L45/04;;G06N3/0635;;H01L29/66439;;H01L29/1079;;H01L29/0653;;H01L45/1253;;H01L29/41725;;H01L29/775</t>
+          <t>H01L45/04;;H01L45/1253;;H01L45/1233;;H01L45/16;;H01L29/0653;;H01L45/122;;G06N3/049;;H01L29/66742;;H01L29/78696;;H01L29/775;;H01L27/2436;;H01L45/146;;H01L29/41725;;H01L27/2481;;H01L29/66439;;B82Y10/00;;G06N3/088;;G06N3/063;;H01L29/42392;;H01L45/08;;H01L29/1079;;G06N3/0635;;H01L29/0673</t>
         </is>
       </c>
       <c r="R175" t="inlineStr"/>
@@ -19509,7 +19509,7 @@
       </c>
       <c r="X175" t="inlineStr">
         <is>
-          <t>US 2020/0403034 A1;;US 11037986 B2</t>
+          <t>US 11037986 B2;;US 2020/0403034 A1</t>
         </is>
       </c>
       <c r="Y175" t="inlineStr">
@@ -19531,7 +19531,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>https://lens.org/107-070-220-865-019;;https://lens.org/139-250-894-234-554</t>
+          <t>https://lens.org/139-250-894-234-554;;https://lens.org/107-070-220-865-019</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -19551,7 +19551,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>PHAN ANNA;;PHAN ANNA T;;GREENBERG DON</t>
+          <t>PHAN ANNA T;;PHAN ANNA;;GREENBERG DON</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -19588,12 +19588,12 @@
       </c>
       <c r="P176" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06F15/80;;G06N10/00;;G06K9/62;;G06N20/00</t>
+          <t>G06K9/62;;G06F15/80;;B82Y10/00;;G06N10/00;;G06N20/00</t>
         </is>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06F15/803;;G06K9/00127;;G06N10/00;;G06K9/6218;;G06K9/6259;;G06K9/6223;;G06K9/6215;;G06N20/00</t>
+          <t>G06F15/803;;G06K9/6259;;G06K9/00127;;G06K9/6223;;B82Y10/00;;G06K9/6215;;G06N10/00;;G06K9/6218;;G06N20/00</t>
         </is>
       </c>
       <c r="R176" t="inlineStr"/>
@@ -19625,7 +19625,7 @@
       </c>
       <c r="Y176" t="inlineStr">
         <is>
-          <t>EP 2020067867 W;;US 201916456421 A</t>
+          <t>US 201916456421 A;;EP 2020067867 W</t>
         </is>
       </c>
     </row>
@@ -19662,7 +19662,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>REZNICEK ALEXANDER;;HEKMATSHOARTABARI BAHMAN;;ANDO TAKASHI</t>
+          <t>REZNICEK ALEXANDER;;ANDO TAKASHI;;HEKMATSHOARTABARI BAHMAN</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -19699,12 +19699,12 @@
       </c>
       <c r="P177" t="inlineStr">
         <is>
-          <t>H01L45/00;;H01L29/423;;G06N3/06;;H01L21/28;;H01L29/78;;G06N3/063;;H01L29/66;;H01L27/24;;H01L29/08;;H01L21/02;;G11C13/00;;H01L29/10;;H01L29/06</t>
+          <t>H01L21/02;;H01L27/24;;H01L29/423;;H01L29/10;;G11C13/00;;H01L29/78;;H01L29/06;;H01L21/28;;H01L29/08;;G06N3/063;;G06N3/06;;H01L45/00;;H01L29/66</t>
         </is>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G11C13/0007;;H01L27/2436;;G11C2213/79;;H01L29/78696;;H01L29/1037;;H01L45/1683;;H01L45/146;;G11C13/003;;G11C2213/32;;H01L29/42392;;H01L29/0847;;H01L29/0673;;H01L27/2481;;G06N3/061;;H01L21/02532;;H01L29/66545;;G11C2213/71;;G06N3/063;;H01L29/785;;H01L45/1233;;H01L45/04;;G06N3/0635;;H01L29/66439;;G11C11/54;;H01L27/249;;H01L45/1253;;G11C2213/74;;H01L21/28079;;G11C13/004;;G06N3/08;;H01L29/66795;;H01L45/1226;;H01L29/775;;G11C2213/52</t>
+          <t>H01L45/04;;H01L29/785;;G11C2213/79;;H01L45/1253;;G11C13/003;;H01L45/1233;;H01L29/0847;;G11C2213/74;;G11C2213/71;;G06N3/061;;H01L45/1226;;H01L29/66795;;H01L21/28079;;H01L29/78696;;H01L29/775;;G11C13/004;;H01L45/1683;;H01L27/2436;;G11C11/54;;H01L45/146;;H01L27/2481;;H01L29/66439;;B82Y10/00;;H01L29/1037;;G11C13/0007;;G06N3/063;;H01L29/42392;;H01L27/249;;G11C2213/32;;H01L21/02532;;G06N3/08;;G06N3/0635;;H01L29/0673;;G11C2213/52;;H01L29/66545</t>
         </is>
       </c>
       <c r="R177" t="inlineStr"/>
@@ -19773,7 +19773,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>POOSER RAPHAEL C;;MAKSYMOVYCH PETRO;;LAWRIE BENJAMIN J</t>
+          <t>LAWRIE BENJAMIN J;;POOSER RAPHAEL C;;MAKSYMOVYCH PETRO</t>
         </is>
       </c>
       <c r="H178" t="inlineStr"/>
@@ -19806,12 +19806,12 @@
       </c>
       <c r="P178" t="inlineStr">
         <is>
-          <t>G01Q60/38;;B82Y35/00;;G01Q60/36</t>
+          <t>B82Y35/00;;G01Q60/38;;G01Q60/36</t>
         </is>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>G01Q60/24;;G01B9/02081;;G01B2290/55;;G01B9/02003;;G01Q60/38;;G01N21/45;;G02F1/3538;;G02F1/29;;H01S3/10076;;G01Q20/02;;G01B9/02079;;B82Y35/00;;G01B9/02</t>
+          <t>G01N21/45;;B82Y35/00;;G01B2290/55;;G01B9/02003;;G01Q20/02;;G02F1/29;;G01Q60/24;;G01B9/02081;;G02F1/3538;;G01B9/02079;;G01B9/02;;G01Q60/38;;H01S3/10076</t>
         </is>
       </c>
       <c r="R178" t="inlineStr"/>
@@ -19880,7 +19880,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>DAVIS ERIK JOSEPH;;MCKIERNAN KERI ANN;;RIGETTI CHAD TYLER;;SMITH ROBERT STANLEY;;ALAM MUHAMMAD SOHAIB</t>
+          <t>SMITH ROBERT STANLEY;;RIGETTI CHAD TYLER;;DAVIS ERIK JOSEPH;;ALAM MUHAMMAD SOHAIB;;MCKIERNAN KERI ANN</t>
         </is>
       </c>
       <c r="H179" t="inlineStr"/>
@@ -19913,12 +19913,12 @@
       </c>
       <c r="P179" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N3/08;;G06N10/00;;G06N3/04</t>
+          <t>G06N3/04;;B82Y10/00;;G06N10/00;;G06N3/08</t>
         </is>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N3/006;;G06N3/0454;;G06N10/00;;G06N3/08;;G06N7/005</t>
+          <t>G06N3/08;;G06N3/006;;B82Y10/00;;G06N10/00;;G06N3/0454;;G06N7/005</t>
         </is>
       </c>
       <c r="R179" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>WOLKOW ROBERT;;RASHIDI MOHAMMAD;;CROSHAW JEREMIAH</t>
+          <t>RASHIDI MOHAMMAD;;WOLKOW ROBERT;;CROSHAW JEREMIAH</t>
         </is>
       </c>
       <c r="H180" t="inlineStr"/>
@@ -20020,12 +20020,12 @@
       </c>
       <c r="P180" t="inlineStr">
         <is>
-          <t>H01L29/02;;G06N3/02;;G01Q30/04;;G06N3/08;;B82B3/00</t>
+          <t>H01L29/02;;G06N3/02;;G06N3/08;;G01Q30/04;;B82B3/00</t>
         </is>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>H01L29/02;;G06N3/02;;G01Q30/04;;G06N3/08;;B82B3/00</t>
+          <t>H01L29/02;;G06N3/02;;G06N3/08;;G01Q30/04;;B82B3/00</t>
         </is>
       </c>
       <c r="R180" t="inlineStr"/>
@@ -20234,12 +20234,12 @@
       </c>
       <c r="P182" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N3/00</t>
+          <t>G06N3/00;;B82Y10/00</t>
         </is>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N3/00</t>
+          <t>G06N3/00;;B82Y10/00</t>
         </is>
       </c>
       <c r="R182" t="inlineStr"/>
@@ -20341,12 +20341,12 @@
       </c>
       <c r="P183" t="inlineStr">
         <is>
-          <t>C12Q1/6813;;C12Q1/6869;;B82Y15/00;;G01N33/487;;G01N27/447</t>
+          <t>C12Q1/6813;;G01N33/487;;G01N27/447;;B82Y15/00;;C12Q1/6869</t>
         </is>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>G01N33/48721;;G06N3/0454;;C12Q1/682;;B82Y15/00;;G06N3/123</t>
+          <t>G06N3/123;;G01N33/48721;;C12Q1/682;;B82Y15/00;;G06N3/0454</t>
         </is>
       </c>
       <c r="R183" t="inlineStr"/>
@@ -20453,7 +20453,7 @@
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N5/003;;G06N10/00</t>
+          <t>B82Y10/00;;G06N10/00;;G06N5/003</t>
         </is>
       </c>
       <c r="R184" t="inlineStr"/>
@@ -20522,7 +20522,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>DALLAIRE-DEMERS PIERRE-LUC;;CAO YUDONG;;GONTHIER JEROME FLORIAN;;JOHNSON PETER D;;KATABARWA AMARA</t>
+          <t>CAO YUDONG;;GONTHIER JEROME FLORIAN;;KATABARWA AMARA;;JOHNSON PETER D;;DALLAIRE-DEMERS PIERRE-LUC</t>
         </is>
       </c>
       <c r="H185" t="inlineStr"/>
@@ -20560,7 +20560,7 @@
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N5/003;;G06N10/00</t>
+          <t>B82Y10/00;;G06N10/00;;G06N5/003</t>
         </is>
       </c>
       <c r="R185" t="inlineStr"/>
@@ -20629,7 +20629,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>SANGWAN VINOD K;;LEE HONG-SUB;;HERSAM MARK C</t>
+          <t>HERSAM MARK C;;LEE HONG-SUB;;SANGWAN VINOD K</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -20666,12 +20666,12 @@
       </c>
       <c r="P186" t="inlineStr">
         <is>
-          <t>G06N3/04;;H01L29/66;;G06N3/08;;H01L29/68;;H01L29/739;;H01L27/12;;H01L29/24</t>
+          <t>H01L29/68;;H01L29/24;;H01L29/739;;G06N3/08;;G06N3/04;;H01L27/12;;H01L29/66</t>
         </is>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G11C13/0007;;G06N3/04;;H01L29/7831;;H01L29/78696;;H01L29/66969;;G11C13/0033;;H01L29/24;;G11C13/003;;G11C13/0069;;G11C13/0002;;H01L27/127;;H01L29/04;;H01L27/1225;;H01L29/7394;;H01L29/778;;G11C11/54;;H01L29/1033;;H01L29/4908;;H01L29/0665;;G11C13/004;;G11C2213/82;;H01L29/7839;;G06N3/08;;H01L29/78681;;H01L29/685;;G11C2213/53</t>
+          <t>H01L29/7394;;H01L29/66969;;G11C13/003;;H01L29/0665;;H01L29/1033;;H01L29/04;;H01L29/24;;H01L27/1225;;G11C13/0069;;G11C2213/53;;H01L29/78696;;H01L27/127;;H01L29/778;;G11C11/54;;H01L29/685;;G11C13/0002;;H01L29/7831;;B82Y10/00;;G11C13/0007;;H01L29/78681;;G11C2213/82;;G06N3/08;;G06N3/04;;H01L29/4908;;H01L29/7839;;G11C13/004;;G11C13/0033</t>
         </is>
       </c>
       <c r="R186" t="inlineStr"/>

--- a/tests/integration/out/ai-and-nanotech-families_not_extended.xlsx
+++ b/tests/integration/out/ai-and-nanotech-families_not_extended.xlsx
@@ -568,12 +568,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>142-026-074-104-094;;051-636-558-895-901</t>
+          <t>051-636-558-895-901;;142-026-074-104-094</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://lens.org/051-636-558-895-901;;https://lens.org/142-026-074-104-094</t>
+          <t>https://lens.org/142-026-074-104-094;;https://lens.org/051-636-558-895-901</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -631,7 +631,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>F41J7/04;;F41J1/10;;H03K3/38;;B82Y10/00;;G06N10/00;;F41J9/02;;G06N20/00;;A63F9/0204;;F41J5/18;;H01L27/18</t>
+          <t>A63F9/0204;;F41J5/18;;F41J1/10;;F41J7/04;;H01L27/18;;G06N20/00;;B82Y10/00;;H03K3/38;;G06N10/00;;F41J9/02</t>
         </is>
       </c>
       <c r="R2" t="inlineStr"/>
@@ -738,7 +738,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>G06N99/00;;G06F9/45504;;B82Y10/00;;G06N10/00;;G06N7/005;;G06N3/126</t>
+          <t>G06N3/126;;G06N99/00;;G06F9/45504;;B82Y10/00;;G06N7/005;;G06N10/00</t>
         </is>
       </c>
       <c r="R3" t="inlineStr"/>
@@ -787,7 +787,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://lens.org/168-357-791-484-886;;https://lens.org/056-380-748-308-005</t>
+          <t>https://lens.org/056-380-748-308-005;;https://lens.org/168-357-791-484-886</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -807,7 +807,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>BABBUSH RYAN;;NEVEN HARTMUT</t>
+          <t>NEVEN HARTMUT;;BABBUSH RYAN</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -826,7 +826,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -845,7 +845,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>G16C10/00;;B82Y10/00;;G06N10/00;;G06N5/003;;G06N20/00</t>
+          <t>G06N5/003;;G06N20/00;;B82Y10/00;;G16C10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="R4" t="inlineStr"/>
@@ -872,7 +872,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>AU 2019/283845 A1;;AU 2019/283845 B2</t>
+          <t>AU 2019/283845 B2;;AU 2019/283845 A1</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -914,7 +914,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>FARHI EDWARD HENRY;;NEVEN HELMUT</t>
+          <t>NEVEN HELMUT;;FARHI EDWARD HENRY</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -952,7 +952,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>G06N3/063;;G06N3/08;;H04L9/0852;;B82Y10/00;;G06N10/00;;G06N20/00;;H04L2209/34</t>
+          <t>G06N3/063;;H04L2209/34;;H04L9/0852;;G06N20/00;;B82Y10/00;;G06N10/00;;G06N3/08</t>
         </is>
       </c>
       <c r="R5" t="inlineStr"/>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>NIU YUEZHEN;;CASTRILLO SERGIO BOIXO;;NEVEN HARTMUT;;SMELYANSKIY VADIM</t>
+          <t>CASTRILLO SERGIO BOIXO;;NEVEN HARTMUT;;SMELYANSKIY VADIM;;NIU YUEZHEN</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -1054,12 +1054,12 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>G06N3/04;;G06N3/00;;G06N99/00;;G06N3/08</t>
+          <t>G06N3/00;;G06N3/04;;G06N99/00;;G06N3/08</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>G06N3/006;;G06N3/08;;B82Y10/00;;G06N10/00;;G06N3/084;;G06N3/0454</t>
+          <t>G06N3/084;;B82Y10/00;;G06N3/0454;;G06N10/00;;G06N3/006;;G06N3/08</t>
         </is>
       </c>
       <c r="R6" t="inlineStr"/>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>INITIATING AND MONITORING THE EVOLUTION OF SINGLE ELECTRONS WITHIN ATOM-DEFINED STRUCTURES;;원자 규정 구조들 내의 단전자들의 진전의 개시 및 감시</t>
+          <t>원자 규정 구조들 내의 단전자들의 진전의 개시 및 감시;;INITIATING AND MONITORING THE EVOLUTION OF SINGLE ELECTRONS WITHIN ATOM-DEFINED STRUCTURES</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>WOLKOW ROBERT A;;RETALLICK JACOB;;WALUS CONRAD;;WOLKOW ROBERT;;HUFF TALEANA;;WALUS KONRAD;;DIENEL THOMAS;;VINE WYATT;;RASHIDI MOHAMMAD;;LIVADARU LUCIAN</t>
+          <t>WOLKOW ROBERT A;;WALUS KONRAD;;RASHIDI MOHAMMAD;;LIVADARU LUCIAN;;HUFF TALEANA;;VINE WYATT;;WOLKOW ROBERT;;DIENEL THOMAS;;RETALLICK JACOB;;WALUS CONRAD</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -1161,12 +1161,12 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>G01Q60/04;;G06N3/063;;G06N3/08;;G01Q80/00;;G01Q60/24;;G01Q60/10;;B82B3/00</t>
+          <t>G06N3/063;;G01Q60/24;;G01Q80/00;;B82B3/00;;G01Q60/10;;G01Q60/04;;G06N3/08</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>G06N20/10;;H01L29/66977;;H01L29/66984;;G06N3/08;;H01L29/7613;;G06N3/04;;G01Q60/24;;G06N3/0445;;B82Y10/00;;G01Q80/00;;G06N3/0472;;G06N3/0635;;G01Q60/10;;G01Q70/14;;G06N7/005;;G01Q30/10</t>
+          <t>G01Q60/24;;G01Q80/00;;G06N3/0445;;H01L29/7613;;H01L29/66977;;G06N20/10;;G01Q70/14;;G06N3/0472;;B82Y10/00;;G06N3/04;;G01Q60/10;;G01Q30/10;;G06N7/005;;G06N3/0635;;G06N3/08;;H01L29/66984</t>
         </is>
       </c>
       <c r="R7" t="inlineStr"/>
@@ -1193,12 +1193,12 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>KR 20200064089 A;;CA 3075691 A1</t>
+          <t>CA 3075691 A1;;KR 20200064089 A</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>KR 20207010647 A;;CA 3075691 A</t>
+          <t>CA 3075691 A;;KR 20207010647 A</t>
         </is>
       </c>
     </row>
@@ -1210,12 +1210,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>078-545-719-089-078;;076-520-744-809-205</t>
+          <t>076-520-744-809-205;;078-545-719-089-078</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://lens.org/078-545-719-089-078;;https://lens.org/076-520-744-809-205</t>
+          <t>https://lens.org/076-520-744-809-205;;https://lens.org/078-545-719-089-078</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>RETALLICK JACOB;;WOLKOW ROBERT;;HUFF TALEANA;;WALUS KONRAD;;DIENEL THOMAS;;VINE WYATT;;RASHIDI MOHAMMAD;;LIVADARU LUCIAN</t>
+          <t>WALUS KONRAD;;RASHIDI MOHAMMAD;;LIVADARU LUCIAN;;HUFF TALEANA;;VINE WYATT;;WOLKOW ROBERT;;DIENEL THOMAS;;RETALLICK JACOB</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1253,12 +1253,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Granted Patent;;Patent Application</t>
+          <t>Patent Application;;Granted Patent</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="M8" t="n">
@@ -1272,12 +1272,12 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>G06N3/08;;G01Q30/10;;G01Q80/00;;G01Q60/24;;G06N3/04;;G01Q60/10;;G01Q70/14</t>
+          <t>G01Q60/24;;G01Q80/00;;G01Q70/14;;G06N3/04;;G01Q60/10;;G01Q30/10;;G06N3/08</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>G06N20/10;;H01L29/66977;;H01L29/66984;;G06N3/08;;H01L29/7613;;G06N3/04;;G01Q60/24;;G06N3/0445;;B82Y10/00;;G01Q80/00;;G06N3/0472;;G06N3/0635;;G01Q60/10;;G01Q70/14;;G06N7/005;;G01Q30/10</t>
+          <t>G01Q60/24;;G01Q80/00;;G06N3/0445;;H01L29/7613;;H01L29/66977;;G06N20/10;;G01Q70/14;;G06N3/0472;;B82Y10/00;;G06N3/04;;G01Q60/10;;G01Q30/10;;G06N7/005;;G06N3/0635;;G06N3/08;;H01L29/66984</t>
         </is>
       </c>
       <c r="R8" t="inlineStr"/>
@@ -1383,12 +1383,12 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>H01L41/29;;H01L41/113;;H01L41/187;;H02N2/00;;H01L41/316;;H02N2/18;;H01L41/332;;H01L41/047</t>
+          <t>H02N2/18;;H01L41/316;;H01L41/332;;H01L41/187;;H01L41/047;;H01L41/29;;H02N2/00;;H01L41/113</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>B81B2203/0307;;H01L41/29;;H02N2/22;;H02N2/188;;H01L41/187;;H01L41/316;;B81B2203/0172;;B81B2207/053;;H02N2/18;;H01L41/332;;B81B3/0045;;B81B2201/032;;B81B3/0021;;H01L41/1136;;H01L41/0477;;B81B2203/058</t>
+          <t>B81B2203/0172;;H02N2/18;;H01L41/316;;B81B3/0021;;H01L41/332;;H01L41/187;;H01L41/29;;B81B2203/058;;H01L41/0477;;H02N2/188;;B81B2201/032;;H01L41/1136;;H02N2/22;;B81B2203/0307;;B81B2207/053;;B81B3/0045</t>
         </is>
       </c>
       <c r="R9" t="inlineStr"/>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>BABBUSH RYAN;;NEVEN HARTMUT</t>
+          <t>NEVEN HARTMUT;;BABBUSH RYAN</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -1487,7 +1487,7 @@
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>G16C10/00;;B82Y10/00;;G06N10/00;;G06N5/003;;G06N20/00</t>
+          <t>G06N5/003;;G06N20/00;;B82Y10/00;;G16C10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="R10" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Zhengyong Zhu;;Huilong Zhu</t>
+          <t>Huilong Zhu;;Zhengyong Zhu</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1593,12 +1593,12 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>H01L21/02;;H01L29/10;;H01L21/3105;;H01L21/225;;H01L21/3065;;H01L21/324;;H01L29/66;;H01L29/04;;H01L29/15;;H01L29/78;;H01L29/205;;H01L29/06;;H01L29/165;;H01L29/267;;H01L29/45;;H01L21/822;;H01L29/775;;H01L29/778;;H01L21/8238;;H01L29/786;;B82Y10/00;;H01L21/308;;H01L29/423;;H01L27/092;;H01L21/8234;;H01L29/417;;H01L29/08</t>
+          <t>H01L21/8238;;H01L29/45;;H01L27/092;;H01L21/225;;H01L21/308;;H01L29/04;;H01L21/3105;;H01L29/205;;H01L29/423;;H01L29/267;;H01L29/778;;H01L21/822;;H01L29/417;;H01L29/786;;B82Y10/00;;H01L29/66;;H01L29/10;;H01L29/775;;H01L21/02;;H01L21/324;;H01L29/08;;H01L29/06;;H01L29/15;;H01L29/78;;H01L21/8234;;H01L29/165;;H01L21/3065</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>H01L21/823418;;H01L21/823842;;H01L29/42376;;H01L29/66666;;H01L29/0649;;H01L21/02636;;H01L21/823475;;H01L21/823807;;H01L21/2258;;H01L21/3065;;H01L29/152;;H01L21/324;;H01L29/66522;;H01L29/1054;;H01L29/66462;;H01L21/8221;;H01L29/04;;H01L29/0847;;H01L29/205;;H01L21/823412;;H01L29/165;;H01L29/267;;H01L21/3083;;H01L21/823871;;H01L29/1095;;H01L29/45;;H01L29/66742;;H01L21/31053;;H01L29/775;;H01L29/7827;;H01L21/823814;;H01L21/823864;;H01L29/41741;;H01L21/823487;;H01L29/66439;;H01L21/82345;;B82Y10/00;;H01L29/1037;;H01L29/42392;;H01L29/78642;;H01L29/66469;;H01L21/2252;;H01L21/02532;;H01L21/823885;;H01L27/092;;H01L29/7788;;H01L29/66431;;H01L29/0676;;H01L29/6656</t>
+          <t>H01L29/45;;H01L21/823807;;H01L21/823864;;H01L21/02636;;H01L27/092;;H01L21/2252;;H01L29/66439;;H01L21/31053;;H01L29/66469;;H01L29/04;;H01L29/205;;H01L29/41741;;H01L21/823412;;H01L29/267;;H01L29/78642;;H01L21/02532;;H01L29/0847;;H01L21/823842;;H01L29/66431;;H01L21/823814;;B82Y10/00;;H01L29/7827;;H01L21/2258;;H01L21/823885;;H01L29/42376;;H01L21/3083;;H01L29/775;;H01L21/823475;;H01L29/66462;;H01L29/6656;;H01L29/66742;;H01L21/82345;;H01L21/324;;H01L29/66666;;H01L29/1037;;H01L29/152;;H01L29/1095;;H01L21/823418;;H01L29/66522;;H01L29/0649;;H01L29/7788;;H01L29/0676;;H01L29/42392;;H01L21/8221;;H01L29/165;;H01L21/3065;;H01L29/1054;;H01L21/823871;;H01L21/823487</t>
         </is>
       </c>
       <c r="R11" t="inlineStr"/>
@@ -1642,17 +1642,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>138-531-128-803-732;;007-137-806-748-344;;092-622-226-264-580;;016-694-600-365-485;;009-495-174-886-046;;148-957-996-862-565;;193-646-676-139-072;;057-198-028-532-936;;065-708-103-684-559;;111-553-910-512-297;;060-124-894-271-740;;038-350-964-627-238;;026-589-220-428-569;;042-086-174-033-990;;092-822-678-884-760;;015-599-688-450-374;;071-221-630-205-102;;054-789-299-020-903;;125-233-104-570-674;;163-664-815-813-540;;151-967-050-235-058;;187-898-763-627-991;;032-379-139-877-924;;017-464-399-500-106;;031-184-353-637-765;;061-058-432-093-39X;;009-060-533-833-438</t>
+          <t>148-957-996-862-565;;187-898-763-627-991;;009-060-533-833-438;;054-789-299-020-903;;138-531-128-803-732;;061-058-432-093-39X;;038-350-964-627-238;;151-967-050-235-058;;042-086-174-033-990;;007-137-806-748-344;;163-664-815-813-540;;009-495-174-886-046;;017-464-399-500-106;;092-622-226-264-580;;031-184-353-637-765;;016-694-600-365-485;;193-646-676-139-072;;015-599-688-450-374;;057-198-028-532-936;;065-708-103-684-559;;092-822-678-884-760;;071-221-630-205-102;;032-379-139-877-924;;125-233-104-570-674;;026-589-220-428-569;;111-553-910-512-297;;060-124-894-271-740</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://lens.org/163-664-815-813-540;;https://lens.org/125-233-104-570-674;;https://lens.org/017-464-399-500-106;;https://lens.org/031-184-353-637-765;;https://lens.org/038-350-964-627-238;;https://lens.org/016-694-600-365-485;;https://lens.org/032-379-139-877-924;;https://lens.org/026-589-220-428-569;;https://lens.org/061-058-432-093-39X;;https://lens.org/009-495-174-886-046;;https://lens.org/092-822-678-884-760;;https://lens.org/007-137-806-748-344;;https://lens.org/092-622-226-264-580;;https://lens.org/042-086-174-033-990;;https://lens.org/054-789-299-020-903;;https://lens.org/193-646-676-139-072;;https://lens.org/065-708-103-684-559;;https://lens.org/009-060-533-833-438;;https://lens.org/111-553-910-512-297;;https://lens.org/151-967-050-235-058;;https://lens.org/060-124-894-271-740;;https://lens.org/071-221-630-205-102;;https://lens.org/015-599-688-450-374;;https://lens.org/148-957-996-862-565;;https://lens.org/138-531-128-803-732;;https://lens.org/187-898-763-627-991;;https://lens.org/057-198-028-532-936</t>
+          <t>https://lens.org/007-137-806-748-344;;https://lens.org/071-221-630-205-102;;https://lens.org/031-184-353-637-765;;https://lens.org/148-957-996-862-565;;https://lens.org/061-058-432-093-39X;;https://lens.org/016-694-600-365-485;;https://lens.org/042-086-174-033-990;;https://lens.org/138-531-128-803-732;;https://lens.org/032-379-139-877-924;;https://lens.org/009-060-533-833-438;;https://lens.org/193-646-676-139-072;;https://lens.org/065-708-103-684-559;;https://lens.org/009-495-174-886-046;;https://lens.org/092-622-226-264-580;;https://lens.org/017-464-399-500-106;;https://lens.org/151-967-050-235-058;;https://lens.org/015-599-688-450-374;;https://lens.org/163-664-815-813-540;;https://lens.org/092-822-678-884-760;;https://lens.org/026-589-220-428-569;;https://lens.org/111-553-910-512-297;;https://lens.org/187-898-763-627-991;;https://lens.org/060-124-894-271-740;;https://lens.org/057-198-028-532-936;;https://lens.org/038-350-964-627-238;;https://lens.org/054-789-299-020-903;;https://lens.org/125-233-104-570-674</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Semiconductor device and manufacturing method thereof and electronic equipment comprising semiconductor device;;Semiconductor device, method of manufacturing the same and electronic device including the device;;Semiconductor device, method of manufacturing the same and electronic device including the same;;集成电路单元及其制造方法及包括该单元的电子设备;;半导体器件及其制造方法及包括该器件的电子设备;;利用应力记忆技术的半导体器件及其制造方法及电子设备;;SEMICONDUCTOR DEVICE, METHOD OF MANUFACTURING THE SAME AND ELECTRONIC DEVICE INCLUDING THE SAME;;Integrated circuit unit, manufacturing method thereof and electronic device comprising unit;;Semiconductor device using stress memory technology, manufacturing method thereof and electronic device;;SEMICONDUCTOR DEVICE, METHOD OF MANUFACTURING THE SAME AND ELECTRONIC DEVICE INCLUDING THE DEVICE;;Semiconductor device, manufacturing method thereof and electronic device comprising device</t>
+          <t>半导体器件及其制造方法及包括该器件的电子设备;;Semiconductor device and manufacturing method thereof and electronic equipment comprising semiconductor device;;集成电路单元及其制造方法及包括该单元的电子设备;;Semiconductor device using stress memory technology, manufacturing method thereof and electronic device;;SEMICONDUCTOR DEVICE, METHOD OF MANUFACTURING THE SAME AND ELECTRONIC DEVICE INCLUDING THE DEVICE;;Integrated circuit unit, manufacturing method thereof and electronic device comprising unit;;Semiconductor device, manufacturing method thereof and electronic device comprising device;;SEMICONDUCTOR DEVICE, METHOD OF MANUFACTURING THE SAME AND ELECTRONIC DEVICE INCLUDING THE SAME;;Semiconductor device, method of manufacturing the same and electronic device including the device;;Semiconductor device, method of manufacturing the same and electronic device including the same;;利用应力记忆技术的半导体器件及其制造方法及电子设备</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1662,12 +1662,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>INST OF MICROELECTRONICS CAS;;中国科学院微电子研究所;;INST MICROELECTRONICS CAS</t>
+          <t>INST OF MICROELECTRONICS CAS;;INST MICROELECTRONICS CAS;;中国科学院微电子研究所</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>HENRY H ADAMSON;;ZHU HUILONG;;朱正勇;;张严波;;亨利·H·阿达姆松;;朱慧珑;;ZHANG YANBO;;王桂磊;;ZHU ZHENGYONG;;WANG GUILEI</t>
+          <t>ZHU ZHENGYONG;;朱慧珑;;WANG GUILEI;;ZHANG YANBO;;亨利·H·阿达姆松;;张严波;;ZHU HUILONG;;HENRY H ADAMSON;;朱正勇;;王桂磊</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>US;;CN</t>
+          <t>CN;;US</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>B;;A1;;A;;B2</t>
+          <t>B2;;B;;A1;;A</t>
         </is>
       </c>
       <c r="M12" t="n">
@@ -1704,12 +1704,12 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>H01L21/02;;H01L29/10;;H01L21/3105;;H01L21/225;;H01L21/3065;;G06F3/0482;;H01L21/28;;H01L21/324;;H04N5/232;;H04N13/332;;H01L29/66;;H01L29/04;;H01L27/088;;H01L29/15;;H01L29/78;;H01L29/205;;H01L29/06;;H01L29/165;;H01L29/267;;H04N13/398;;H04N7/18;;H01L29/45;;H01L21/822;;H01L29/775;;H01L29/778;;H01L21/8238;;H01L29/786;;H01L29/36;;B82Y40/00;;B82Y10/00;;G05B23/02;;G06K9/00;;H04N5/247;;H01L21/308;;H04N13/111;;H01L29/423;;G06T19/00;;H01L21/336;;H01L27/092;;H01L21/8234;;G06F3/0481;;H01L29/417;;H01L29/08;;H04N13/366</t>
+          <t>H01L21/8238;;H01L29/45;;G06F3/0481;;H01L27/092;;H01L21/225;;H01L21/308;;H01L29/04;;H01L21/3105;;H01L21/336;;H01L29/205;;H01L29/423;;H01L29/267;;H04N13/111;;H01L29/36;;G05B23/02;;H01L29/778;;H01L21/822;;H01L29/417;;H04N13/366;;H01L29/786;;G06K9/00;;B82Y10/00;;H01L27/088;;H01L29/66;;H01L29/10;;H04N13/398;;H01L29/775;;H01L21/28;;H01L21/02;;H04N5/232;;H01L21/324;;H01L29/08;;H04N13/332;;H04N7/18;;B82Y40/00;;H01L29/06;;H01L29/15;;G06F3/0482;;H01L29/78;;H01L21/8234;;H01L29/165;;H01L21/3065;;H04N5/247;;G06T19/00</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>H01L21/823418;;H01L21/823842;;H01L29/42376;;H04N5/23238;;H01L29/66666;;H01L29/0649;;H01L21/02636;;H01L21/823475;;H01L21/823807;;H01L21/2258;;H04N7/181;;H01L21/3065;;G06F3/0482;;H01L29/1083;;H01L29/152;;H01L21/324;;H01L29/66522;;G05B2219/32014;;H01L29/1054;;H01L29/66712;;H04N13/332;;H01L29/66462;;H01L21/8221;;H01L29/0653;;H01L29/04;;H01L21/823437;;H01L27/088;;H01L29/0847;;H01L21/823412;;H01L29/205;;H01L29/165;;H01L29/267;;H01L21/3083;;H04N13/398;;H01L21/823871;;G05B23/0216;;G06F3/04817;;H01L29/66742;;H01L21/31053;;H01L29/1095;;H01L29/45;;H01L29/775;;G06K9/00711;;H01L29/7827;;H01L21/823814;;H01L21/823864;;G06K2009/00738;;H01L29/41741;;H01L29/7848;;H01L21/823487;;H01L29/66439;;H01L21/82345;;B82Y10/00;;H01L29/1037;;H04N5/247;;H01L29/42392;;H04N13/111;;H01L29/78642;;H01L29/66469;;H01L21/2252;;G06K2209/19;;H01L21/02532;;G06T19/006;;H01L21/823885;;H01L27/092;;H01L21/8234;;H01L29/7788;;H01L29/66431;;H01L29/7813;;H01L29/0638;;H01L29/0676;;H01L29/6656;;H04N13/366</t>
+          <t>H01L29/1083;;H01L29/45;;H01L29/0653;;H01L21/823807;;H01L21/823864;;H01L21/02636;;H01L27/092;;H01L29/66439;;G06F3/04817;;H01L21/2252;;H01L21/31053;;H01L29/66469;;H01L29/7848;;H01L29/04;;G06T19/006;;H01L29/205;;H01L29/41741;;H01L21/823412;;H01L29/267;;H01L29/78642;;H01L21/02532;;H01L29/0847;;H01L21/823842;;H01L29/66431;;H04N13/111;;H01L29/66712;;H04N13/366;;H01L21/823814;;B82Y10/00;;H01L29/7813;;H01L29/7827;;H01L27/088;;G06K2209/19;;H01L21/2258;;H01L21/823885;;H01L29/42376;;H04N7/181;;H04N13/398;;H01L29/775;;H01L21/3083;;H01L21/823475;;H01L29/66462;;H01L29/6656;;H01L29/66742;;H01L21/82345;;G06K2009/00738;;G06K9/00711;;H01L21/324;;H01L29/66666;;H04N13/332;;H01L29/1037;;G05B23/0216;;H01L29/152;;H01L21/823437;;H01L29/0649;;G06F3/0482;;H01L21/823418;;H01L29/1095;;H01L29/7788;;H01L21/823871;;H01L29/0676;;H01L29/42392;;H01L21/8221;;H01L21/8234;;H01L29/165;;H04N5/247;;H01L21/3065;;H01L29/1054;;H01L29/66522;;H04N5/23238;;H01L21/823487;;G05B2219/32014;;H01L29/0638</t>
         </is>
       </c>
       <c r="R12" t="inlineStr"/>
@@ -1736,12 +1736,12 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>US 2018/0097065 A1;;CN 107887442 B;;CN 107887440 A;;CN 107887441 B;;CN 107887384 B;;CN 107887384 A;;CN 107887441 A;;US 2018/0097106 A1;;CN 107887387 B;;CN 107887443 B;;US 10910278 B2;;CN 107887440 B;;US 10714398 B2;;CN 107887386 B;;CN 107887445 B;;CN 107887442 A;;CN 107887385 B;;CN 107887444 B;;CN 107887387 A;;CN 107887274 B;;CN 107887385 A;;CN 106298778 A;;CN 107887443 A;;CN 107887444 A;;CN 107887445 A;;CN 107887386 A;;CN 107887274 A</t>
+          <t>CN 107887384 B;;US 10714398 B2;;CN 107887441 B;;CN 107887444 B;;CN 107887386 B;;CN 107887444 A;;CN 107887445 A;;CN 107887274 B;;CN 107887440 B;;CN 107887274 A;;CN 107887443 A;;CN 107887442 B;;CN 107887387 A;;CN 107887443 B;;CN 106298778 A;;CN 107887387 B;;US 2018/0097106 A1;;CN 107887441 A;;CN 107887385 B;;CN 107887386 A;;US 10910278 B2;;CN 107887445 B;;CN 107887385 A;;CN 107887442 A;;CN 107887440 A;;US 2018/0097065 A1;;CN 107887384 A</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>CN 201710530950 A;;US 201715718586 A;;CN 201710531812 A;;CN 201710530194 A;;CN 201710530684 A;;CN 201710530297 A;;CN 201710530685 A;;US 201715720240 A;;CN 201710530298 A;;CN 201710530751 A;;CN 201710531811 A;;CN 201610872541 A;;CN 201710530250 A;;CN 201710531762 A</t>
+          <t>CN 201710530684 A;;CN 201710530751 A;;CN 201610872541 A;;CN 201710530685 A;;CN 201710531812 A;;CN 201710531811 A;;CN 201710530297 A;;CN 201710530950 A;;CN 201710530298 A;;CN 201710531762 A;;US 201715718586 A;;CN 201710530194 A;;US 201715720240 A;;CN 201710530250 A</t>
         </is>
       </c>
     </row>
@@ -1815,12 +1815,12 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>H01L29/78;;H01L29/06;;H01L27/092;;H01L29/165;;H01L29/66</t>
+          <t>H01L29/06;;H01L27/092;;H01L29/78;;H01L29/165;;H01L29/66</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>H01L21/823418;;H01L21/823842;;H01L29/42376;;H04N5/23238;;H01L29/66666;;H01L29/0649;;H01L21/02636;;H01L21/823475;;H01L21/823807;;H01L21/2258;;H04N7/181;;H01L21/3065;;G06F3/0482;;H01L29/1083;;H01L29/152;;H01L21/324;;H01L29/66522;;G05B2219/32014;;H01L29/1054;;H01L29/66712;;H04N13/332;;H01L29/66462;;H01L21/8221;;H01L29/0653;;H01L29/04;;H01L21/823437;;H01L27/088;;H01L29/0847;;H01L21/823412;;H01L29/205;;H01L29/165;;H01L29/267;;H01L21/3083;;H04N13/398;;H01L21/823871;;G05B23/0216;;G06F3/04817;;H01L29/66742;;H01L21/31053;;H01L29/1095;;H01L29/45;;H01L29/775;;G06K9/00711;;H01L29/7827;;H01L21/823814;;H01L21/823864;;G06K2009/00738;;H01L29/41741;;H01L29/7848;;H01L21/823487;;H01L29/66439;;H01L21/82345;;B82Y10/00;;H01L29/1037;;H04N5/247;;H01L29/42392;;H04N13/111;;H01L29/78642;;H01L29/66469;;H01L21/2252;;G06K2209/19;;H01L21/02532;;G06T19/006;;H01L21/823885;;H01L27/092;;H01L21/8234;;H01L29/7788;;H01L29/66431;;H01L29/7813;;H01L29/0638;;H01L29/0676;;H01L29/6656;;H04N13/366</t>
+          <t>H01L29/1083;;H01L29/45;;H01L29/0653;;H01L21/823807;;H01L21/823864;;H01L21/02636;;H01L27/092;;H01L29/66439;;G06F3/04817;;H01L21/2252;;H01L21/31053;;H01L29/66469;;H01L29/7848;;H01L29/04;;G06T19/006;;H01L29/205;;H01L29/41741;;H01L21/823412;;H01L29/267;;H01L29/78642;;H01L21/02532;;H01L29/0847;;H01L21/823842;;H01L29/66431;;H04N13/111;;H01L29/66712;;H04N13/366;;H01L21/823814;;B82Y10/00;;H01L29/7813;;H01L29/7827;;H01L27/088;;G06K2209/19;;H01L21/2258;;H01L21/823885;;H01L29/42376;;H04N7/181;;H04N13/398;;H01L29/775;;H01L21/3083;;H01L21/823475;;H01L29/66462;;H01L29/6656;;H01L29/66742;;H01L21/82345;;G06K2009/00738;;G06K9/00711;;H01L21/324;;H01L29/66666;;H04N13/332;;H01L29/1037;;G05B23/0216;;H01L29/152;;H01L21/823437;;H01L29/0649;;G06F3/0482;;H01L21/823418;;H01L29/1095;;H01L29/7788;;H01L21/823871;;H01L29/0676;;H01L29/42392;;H01L21/8221;;H01L21/8234;;H01L29/165;;H04N5/247;;H01L21/3065;;H01L29/1054;;H01L29/66522;;H04N5/23238;;H01L21/823487;;G05B2219/32014;;H01L29/0638</t>
         </is>
       </c>
       <c r="R13" t="inlineStr"/>
@@ -1922,12 +1922,12 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>H01L21/8238;;H01L27/092;;H01L21/8234</t>
+          <t>H01L21/8238;;H01L21/8234;;H01L27/092</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>H01L21/823418;;H01L21/823842;;H01L29/42376;;H04N5/23238;;H01L29/66666;;H01L29/0649;;H01L21/02636;;H01L21/823475;;H01L21/823807;;H01L21/2258;;H04N7/181;;H01L21/3065;;G06F3/0482;;H01L29/1083;;H01L29/152;;H01L21/324;;H01L29/66522;;G05B2219/32014;;H01L29/1054;;H01L29/66712;;H04N13/332;;H01L29/66462;;H01L21/8221;;H01L29/0653;;H01L29/04;;H01L21/823437;;H01L27/088;;H01L29/0847;;H01L21/823412;;H01L29/205;;H01L29/165;;H01L29/267;;H01L21/3083;;H04N13/398;;H01L21/823871;;G05B23/0216;;G06F3/04817;;H01L29/66742;;H01L21/31053;;H01L29/1095;;H01L29/45;;H01L29/775;;G06K9/00711;;H01L29/7827;;H01L21/823814;;H01L21/823864;;G06K2009/00738;;H01L29/41741;;H01L29/7848;;H01L21/823487;;H01L29/66439;;H01L21/82345;;B82Y10/00;;H01L29/1037;;H04N5/247;;H01L29/42392;;H04N13/111;;H01L29/78642;;H01L29/66469;;H01L21/2252;;G06K2209/19;;H01L21/02532;;G06T19/006;;H01L21/823885;;H01L27/092;;H01L21/8234;;H01L29/7788;;H01L29/66431;;H01L29/7813;;H01L29/0638;;H01L29/0676;;H01L29/6656;;H04N13/366</t>
+          <t>H01L29/1083;;H01L29/45;;H01L29/0653;;H01L21/823807;;H01L21/823864;;H01L21/02636;;H01L27/092;;H01L29/66439;;G06F3/04817;;H01L21/2252;;H01L21/31053;;H01L29/66469;;H01L29/7848;;H01L29/04;;G06T19/006;;H01L29/205;;H01L29/41741;;H01L21/823412;;H01L29/267;;H01L29/78642;;H01L21/02532;;H01L29/0847;;H01L21/823842;;H01L29/66431;;H04N13/111;;H01L29/66712;;H04N13/366;;H01L21/823814;;B82Y10/00;;H01L29/7813;;H01L29/7827;;H01L27/088;;G06K2209/19;;H01L21/2258;;H01L21/823885;;H01L29/42376;;H04N7/181;;H04N13/398;;H01L29/775;;H01L21/3083;;H01L21/823475;;H01L29/66462;;H01L29/6656;;H01L29/66742;;H01L21/82345;;G06K2009/00738;;G06K9/00711;;H01L21/324;;H01L29/66666;;H04N13/332;;H01L29/1037;;G05B23/0216;;H01L29/152;;H01L21/823437;;H01L29/0649;;G06F3/0482;;H01L21/823418;;H01L29/1095;;H01L29/7788;;H01L21/823871;;H01L29/0676;;H01L29/42392;;H01L21/8221;;H01L21/8234;;H01L29/165;;H04N5/247;;H01L21/3065;;H01L29/1054;;H01L29/66522;;H04N5/23238;;H01L21/823487;;G05B2219/32014;;H01L29/0638</t>
         </is>
       </c>
       <c r="R14" t="inlineStr"/>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>ZHU HUILONG;;ZHANG YANBO;;ZHU ZHENGYONG;;WANG GUILEI;;RADAMSON HENRY H</t>
+          <t>ZHU ZHENGYONG;;ZHANG YANBO;;WANG GUILEI;;ZHU HUILONG;;RADAMSON HENRY H</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2033,12 +2033,12 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>H01L29/786;;H01L29/06;;H01L29/10;;H01L29/66</t>
+          <t>H01L29/786;;H01L29/66;;H01L29/06;;H01L29/10</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>H01L21/823418;;H01L21/823842;;H01L29/42376;;H04N5/23238;;H01L29/66666;;H01L29/0649;;H01L21/02636;;H01L21/823475;;H01L21/823807;;H01L21/2258;;H04N7/181;;H01L21/3065;;G06F3/0482;;H01L29/1083;;H01L29/152;;H01L21/324;;H01L29/66522;;G05B2219/32014;;H01L29/1054;;H01L29/66712;;H04N13/332;;H01L29/66462;;H01L21/8221;;H01L29/0653;;H01L29/04;;H01L21/823437;;H01L27/088;;H01L29/0847;;H01L21/823412;;H01L29/205;;H01L29/165;;H01L29/267;;H01L21/3083;;H04N13/398;;H01L21/823871;;G05B23/0216;;G06F3/04817;;H01L29/66742;;H01L21/31053;;H01L29/1095;;H01L29/45;;H01L29/775;;G06K9/00711;;H01L29/7827;;H01L21/823814;;H01L21/823864;;G06K2009/00738;;H01L29/41741;;H01L29/7848;;H01L21/823487;;H01L29/66439;;H01L21/82345;;B82Y10/00;;H01L29/1037;;H04N5/247;;H01L29/42392;;H04N13/111;;H01L29/78642;;H01L29/66469;;H01L21/2252;;G06K2209/19;;H01L21/02532;;G06T19/006;;H01L21/823885;;H01L27/092;;H01L21/8234;;H01L29/7788;;H01L29/66431;;H01L29/7813;;H01L29/0638;;H01L29/0676;;H01L29/6656;;H04N13/366</t>
+          <t>H01L29/1083;;H01L29/45;;H01L29/0653;;H01L21/823807;;H01L21/823864;;H01L21/02636;;H01L27/092;;H01L29/66439;;G06F3/04817;;H01L21/2252;;H01L21/31053;;H01L29/66469;;H01L29/7848;;H01L29/04;;G06T19/006;;H01L29/205;;H01L29/41741;;H01L21/823412;;H01L29/267;;H01L29/78642;;H01L21/02532;;H01L29/0847;;H01L21/823842;;H01L29/66431;;H04N13/111;;H01L29/66712;;H04N13/366;;H01L21/823814;;B82Y10/00;;H01L29/7813;;H01L29/7827;;H01L27/088;;G06K2209/19;;H01L21/2258;;H01L21/823885;;H01L29/42376;;H04N7/181;;H04N13/398;;H01L29/775;;H01L21/3083;;H01L21/823475;;H01L29/66462;;H01L29/6656;;H01L29/66742;;H01L21/82345;;G06K2009/00738;;G06K9/00711;;H01L21/324;;H01L29/66666;;H04N13/332;;H01L29/1037;;G05B23/0216;;H01L29/152;;H01L21/823437;;H01L29/0649;;G06F3/0482;;H01L21/823418;;H01L29/1095;;H01L29/7788;;H01L21/823871;;H01L29/0676;;H01L29/42392;;H01L21/8221;;H01L21/8234;;H01L29/165;;H04N5/247;;H01L21/3065;;H01L29/1054;;H01L29/66522;;H04N5/23238;;H01L21/823487;;G05B2219/32014;;H01L29/0638</t>
         </is>
       </c>
       <c r="R15" t="inlineStr"/>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>H01L21/823418;;H01L21/823842;;H01L29/42376;;H04N5/23238;;H01L29/66666;;H01L29/0649;;H01L21/02636;;H01L21/823475;;H01L21/823807;;H01L21/2258;;H04N7/181;;H01L21/3065;;G06F3/0482;;H01L29/1083;;H01L29/152;;H01L21/324;;H01L29/66522;;G05B2219/32014;;H01L29/1054;;H01L29/66712;;H04N13/332;;H01L29/66462;;H01L21/8221;;H01L29/0653;;H01L29/04;;H01L21/823437;;H01L27/088;;H01L29/0847;;H01L21/823412;;H01L29/205;;H01L29/165;;H01L29/267;;H01L21/3083;;H04N13/398;;H01L21/823871;;G05B23/0216;;G06F3/04817;;H01L29/66742;;H01L21/31053;;H01L29/1095;;H01L29/45;;H01L29/775;;G06K9/00711;;H01L29/7827;;H01L21/823814;;H01L21/823864;;G06K2009/00738;;H01L29/41741;;H01L29/7848;;H01L21/823487;;H01L29/66439;;H01L21/82345;;B82Y10/00;;H01L29/1037;;H04N5/247;;H01L29/42392;;H04N13/111;;H01L29/78642;;H01L29/66469;;H01L21/2252;;G06K2209/19;;H01L21/02532;;G06T19/006;;H01L21/823885;;H01L27/092;;H01L21/8234;;H01L29/7788;;H01L29/66431;;H01L29/7813;;H01L29/0638;;H01L29/0676;;H01L29/6656;;H04N13/366</t>
+          <t>H01L29/1083;;H01L29/45;;H01L29/0653;;H01L21/823807;;H01L21/823864;;H01L21/02636;;H01L27/092;;H01L29/66439;;G06F3/04817;;H01L21/2252;;H01L21/31053;;H01L29/66469;;H01L29/7848;;H01L29/04;;G06T19/006;;H01L29/205;;H01L29/41741;;H01L21/823412;;H01L29/267;;H01L29/78642;;H01L21/02532;;H01L29/0847;;H01L21/823842;;H01L29/66431;;H04N13/111;;H01L29/66712;;H04N13/366;;H01L21/823814;;B82Y10/00;;H01L29/7813;;H01L29/7827;;H01L27/088;;G06K2209/19;;H01L21/2258;;H01L21/823885;;H01L29/42376;;H04N7/181;;H04N13/398;;H01L29/775;;H01L21/3083;;H01L21/823475;;H01L29/66462;;H01L29/6656;;H01L29/66742;;H01L21/82345;;G06K2009/00738;;G06K9/00711;;H01L21/324;;H01L29/66666;;H04N13/332;;H01L29/1037;;G05B23/0216;;H01L29/152;;H01L21/823437;;H01L29/0649;;G06F3/0482;;H01L21/823418;;H01L29/1095;;H01L29/7788;;H01L21/823871;;H01L29/0676;;H01L29/42392;;H01L21/8221;;H01L21/8234;;H01L29/165;;H04N5/247;;H01L21/3065;;H01L29/1054;;H01L29/66522;;H04N5/23238;;H01L21/823487;;G05B2219/32014;;H01L29/0638</t>
         </is>
       </c>
       <c r="R16" t="inlineStr"/>
@@ -2189,17 +2189,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>091-589-843-044-390;;199-535-148-484-91X;;066-971-174-243-907</t>
+          <t>066-971-174-243-907;;091-589-843-044-390;;199-535-148-484-91X</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://lens.org/091-589-843-044-390;;https://lens.org/199-535-148-484-91X;;https://lens.org/066-971-174-243-907</t>
+          <t>https://lens.org/066-971-174-243-907;;https://lens.org/199-535-148-484-91X;;https://lens.org/091-589-843-044-390</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>IC UNIT AND METHOND OF MANUFACTURING THE SAME, AND ELECTRONIC DEVICE INCLUDING THE SAME;;IC unit and methond of manufacturing the same, and electronic device including the same;;Integrated circuit unit and electronic device including same</t>
+          <t>IC UNIT AND METHOND OF MANUFACTURING THE SAME, AND ELECTRONIC DEVICE INCLUDING THE SAME;;Integrated circuit unit and electronic device including same;;IC unit and methond of manufacturing the same, and electronic device including the same</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2209,12 +2209,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>INST OF MICROELECTRONICS CAS;;INST MICROELECTRONICS CAS</t>
+          <t>INST MICROELECTRONICS CAS;;INST OF MICROELECTRONICS CAS</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>ZHU ZHENGYONG;;ZHU HUILONG</t>
+          <t>ZHU HUILONG;;ZHU ZHENGYONG</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2227,17 +2227,17 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>US;;CN</t>
+          <t>CN;;US</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Granted Patent;;Patent Application</t>
+          <t>Patent Application;;Granted Patent</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>A1;;A;;B2</t>
+          <t>B2;;A1;;A</t>
         </is>
       </c>
       <c r="M17" t="n">
@@ -2251,12 +2251,12 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>H01L21/02;;H01L29/10;;H01L21/3105;;H01L21/225;;H01L21/3065;;H01L21/324;;H01L29/66;;H01L29/04;;H01L27/088;;H01L29/15;;H01L29/205;;H01L29/78;;H01L29/06;;H01L29/165;;H01L29/267;;H01L29/45;;H01L21/822;;H01L29/775;;H01L29/778;;H01L21/8238;;H01L29/786;;B82Y10/00;;H01L21/308;;H01L29/423;;H01L27/092;;H01L21/8234;;H01L29/417;;H01L29/08</t>
+          <t>H01L21/8238;;H01L29/45;;H01L27/092;;H01L21/225;;H01L21/308;;H01L29/04;;H01L21/3105;;H01L29/205;;H01L29/423;;H01L29/267;;H01L21/822;;H01L29/778;;H01L29/417;;H01L29/786;;B82Y10/00;;H01L27/088;;H01L29/66;;H01L29/10;;H01L29/775;;H01L21/02;;H01L21/324;;H01L29/08;;H01L29/06;;H01L29/15;;H01L29/78;;H01L29/165;;H01L21/8234;;H01L21/3065</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>H01L21/823418;;H01L21/823842;;H01L29/42376;;H04N5/23238;;H01L29/66666;;H01L29/0649;;H01L21/02636;;H01L21/823475;;H01L21/823807;;H01L21/2258;;H04N7/181;;H01L21/3065;;G06F3/0482;;H01L29/1083;;H01L29/152;;H01L21/324;;H01L29/66522;;G05B2219/32014;;H01L29/1054;;H01L29/66712;;H04N13/332;;H01L29/66462;;H01L21/8221;;H01L29/0653;;H01L29/04;;H01L21/823437;;H01L27/088;;H01L29/0847;;H01L21/823412;;H01L29/205;;H01L29/165;;H01L29/267;;H01L21/3083;;H04N13/398;;H01L21/823871;;G05B23/0216;;G06F3/04817;;H01L29/66742;;H01L21/31053;;H01L29/1095;;H01L29/45;;H01L29/775;;G06K9/00711;;H01L29/7827;;H01L21/823814;;H01L21/823864;;G06K2009/00738;;H01L29/41741;;H01L29/7848;;H01L21/823487;;H01L29/66439;;H01L21/82345;;B82Y10/00;;H01L29/1037;;H04N5/247;;H01L29/42392;;H04N13/111;;H01L29/78642;;H01L29/66469;;H01L21/2252;;G06K2209/19;;H01L21/02532;;G06T19/006;;H01L21/823885;;H01L27/092;;H01L21/8234;;H01L29/7788;;H01L29/66431;;H01L29/7813;;H01L29/0638;;H01L29/0676;;H01L29/6656;;H04N13/366</t>
+          <t>H01L29/1083;;H01L29/45;;H01L29/0653;;H01L21/823807;;H01L21/823864;;H01L21/02636;;H01L27/092;;H01L29/66439;;G06F3/04817;;H01L21/2252;;H01L21/31053;;H01L29/66469;;H01L29/7848;;H01L29/04;;G06T19/006;;H01L29/205;;H01L29/41741;;H01L21/823412;;H01L29/267;;H01L29/78642;;H01L21/02532;;H01L29/0847;;H01L21/823842;;H01L29/66431;;H04N13/111;;H01L29/66712;;H04N13/366;;H01L21/823814;;B82Y10/00;;H01L29/7813;;H01L29/7827;;H01L27/088;;G06K2209/19;;H01L21/2258;;H01L21/823885;;H01L29/42376;;H04N7/181;;H04N13/398;;H01L29/775;;H01L21/3083;;H01L21/823475;;H01L29/66462;;H01L29/6656;;H01L29/66742;;H01L21/82345;;G06K2009/00738;;G06K9/00711;;H01L21/324;;H01L29/66666;;H04N13/332;;H01L29/1037;;G05B23/0216;;H01L29/152;;H01L21/823437;;H01L29/0649;;G06F3/0482;;H01L21/823418;;H01L29/1095;;H01L29/7788;;H01L21/823871;;H01L29/0676;;H01L29/42392;;H01L21/8221;;H01L21/8234;;H01L29/165;;H04N5/247;;H01L21/3065;;H01L29/1054;;H01L29/66522;;H04N5/23238;;H01L21/823487;;G05B2219/32014;;H01L29/0638</t>
         </is>
       </c>
       <c r="R17" t="inlineStr"/>
@@ -2283,12 +2283,12 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>CN 111755443 A;;US 2018/0108577 A1;;US 10629498 B2</t>
+          <t>US 2018/0108577 A1;;US 10629498 B2;;CN 111755443 A</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>CN 202010840234 A;;US 201715722423 A</t>
+          <t>US 201715722423 A;;CN 202010840234 A</t>
         </is>
       </c>
     </row>
@@ -2300,7 +2300,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>004-988-494-197-462;;151-584-955-768-731</t>
+          <t>151-584-955-768-731;;004-988-494-197-462</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2325,7 +2325,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>ZHU ZHENGYONG;;ZHU HUILONG</t>
+          <t>ZHU HUILONG;;ZHU ZHENGYONG</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -2343,12 +2343,12 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Granted Patent;;Patent Application</t>
+          <t>Patent Application;;Granted Patent</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="M18" t="n">
@@ -2362,12 +2362,12 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>H01L21/02;;H01L29/10;;H01L21/3105;;H01L21/225;;H01L21/3065;;H01L21/324;;H01L29/66;;H01L29/04;;H01L29/15;;H01L29/205;;H01L29/78;;H01L29/06;;H01L29/165;;H01L29/267;;H01L29/45;;H01L21/822;;H01L29/775;;H01L29/778;;H01L21/8238;;H01L29/786;;B82Y10/00;;H01L21/308;;H01L29/423;;H01L27/092;;H01L21/8234;;H01L29/417;;H01L29/08</t>
+          <t>H01L21/8238;;H01L29/45;;H01L27/092;;H01L21/225;;H01L21/308;;H01L29/04;;H01L21/3105;;H01L29/205;;H01L29/423;;H01L29/267;;H01L21/822;;H01L29/778;;H01L29/417;;H01L29/786;;B82Y10/00;;H01L29/66;;H01L29/10;;H01L29/775;;H01L21/02;;H01L21/324;;H01L29/08;;H01L29/06;;H01L29/15;;H01L29/78;;H01L21/8234;;H01L29/165;;H01L21/3065</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>H01L21/823418;;H01L21/823842;;H01L29/42376;;H04N5/23238;;H01L29/66666;;H01L29/0649;;H01L21/02636;;H01L21/823475;;H01L21/823807;;H01L21/2258;;H04N7/181;;H01L21/3065;;G06F3/0482;;H01L29/1083;;H01L29/152;;H01L21/324;;H01L29/66522;;G05B2219/32014;;H01L29/1054;;H01L29/66712;;H04N13/332;;H01L29/66462;;H01L21/8221;;H01L29/0653;;H01L29/04;;H01L21/823437;;H01L27/088;;H01L29/0847;;H01L21/823412;;H01L29/205;;H01L29/165;;H01L29/267;;H01L21/3083;;H04N13/398;;H01L21/823871;;G05B23/0216;;G06F3/04817;;H01L29/66742;;H01L21/31053;;H01L29/1095;;H01L29/45;;H01L29/775;;G06K9/00711;;H01L29/7827;;H01L21/823814;;H01L21/823864;;G06K2009/00738;;H01L29/41741;;H01L29/7848;;H01L21/823487;;H01L29/66439;;H01L21/82345;;B82Y10/00;;H01L29/1037;;H04N5/247;;H01L29/42392;;H04N13/111;;H01L29/78642;;H01L29/66469;;H01L21/2252;;G06K2209/19;;H01L21/02532;;G06T19/006;;H01L21/823885;;H01L27/092;;H01L21/8234;;H01L29/7788;;H01L29/66431;;H01L29/7813;;H01L29/0638;;H01L29/0676;;H01L29/6656;;H04N13/366</t>
+          <t>H01L29/1083;;H01L29/45;;H01L29/0653;;H01L21/823807;;H01L21/823864;;H01L21/02636;;H01L27/092;;H01L29/66439;;G06F3/04817;;H01L21/2252;;H01L21/31053;;H01L29/66469;;H01L29/7848;;H01L29/04;;G06T19/006;;H01L29/205;;H01L29/41741;;H01L21/823412;;H01L29/267;;H01L29/78642;;H01L21/02532;;H01L29/0847;;H01L21/823842;;H01L29/66431;;H04N13/111;;H01L29/66712;;H04N13/366;;H01L21/823814;;B82Y10/00;;H01L29/7813;;H01L29/7827;;H01L27/088;;G06K2209/19;;H01L21/2258;;H01L21/823885;;H01L29/42376;;H04N7/181;;H04N13/398;;H01L29/775;;H01L21/3083;;H01L21/823475;;H01L29/66462;;H01L29/6656;;H01L29/66742;;H01L21/82345;;G06K2009/00738;;G06K9/00711;;H01L21/324;;H01L29/66666;;H04N13/332;;H01L29/1037;;G05B23/0216;;H01L29/152;;H01L21/823437;;H01L29/0649;;G06F3/0482;;H01L21/823418;;H01L29/1095;;H01L29/7788;;H01L21/823871;;H01L29/0676;;H01L29/42392;;H01L21/8221;;H01L21/8234;;H01L29/165;;H04N5/247;;H01L21/3065;;H01L29/1054;;H01L29/66522;;H04N5/23238;;H01L21/823487;;G05B2219/32014;;H01L29/0638</t>
         </is>
       </c>
       <c r="R18" t="inlineStr"/>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>US 10643905 B2;;US 2019/0287865 A1</t>
+          <t>US 2019/0287865 A1;;US 10643905 B2</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -2469,12 +2469,12 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>H04N5/232;;H04N7/18;;G06T19/00;;G05B23/02</t>
+          <t>G05B23/02;;G06T19/00;;H04N5/232;;H04N7/18</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>H01L21/823418;;H01L21/823842;;H01L29/42376;;H04N5/23238;;H01L29/66666;;H01L29/0649;;H01L21/02636;;H01L21/823475;;H01L21/823807;;H01L21/2258;;H04N7/181;;H01L21/3065;;G06F3/0482;;H01L29/1083;;H01L29/152;;H01L21/324;;H01L29/66522;;G05B2219/32014;;H01L29/1054;;H01L29/66712;;H04N13/332;;H01L29/66462;;H01L21/8221;;H01L29/0653;;H01L29/04;;H01L21/823437;;H01L27/088;;H01L29/0847;;H01L21/823412;;H01L29/205;;H01L29/165;;H01L29/267;;H01L21/3083;;H04N13/398;;H01L21/823871;;G05B23/0216;;G06F3/04817;;H01L29/66742;;H01L21/31053;;H01L29/1095;;H01L29/45;;H01L29/775;;G06K9/00711;;H01L29/7827;;H01L21/823814;;H01L21/823864;;G06K2009/00738;;H01L29/41741;;H01L29/7848;;H01L21/823487;;H01L29/66439;;H01L21/82345;;B82Y10/00;;H01L29/1037;;H04N5/247;;H01L29/42392;;H04N13/111;;H01L29/78642;;H01L29/66469;;H01L21/2252;;G06K2209/19;;H01L21/02532;;G06T19/006;;H01L21/823885;;H01L27/092;;H01L21/8234;;H01L29/7788;;H01L29/66431;;H01L29/7813;;H01L29/0638;;H01L29/0676;;H01L29/6656;;H04N13/366</t>
+          <t>H01L29/1083;;H01L29/45;;H01L29/0653;;H01L21/823807;;H01L21/823864;;H01L21/02636;;H01L27/092;;H01L29/66439;;G06F3/04817;;H01L21/2252;;H01L21/31053;;H01L29/66469;;H01L29/7848;;H01L29/04;;G06T19/006;;H01L29/205;;H01L29/41741;;H01L21/823412;;H01L29/267;;H01L29/78642;;H01L21/02532;;H01L29/0847;;H01L21/823842;;H01L29/66431;;H04N13/111;;H01L29/66712;;H04N13/366;;H01L21/823814;;B82Y10/00;;H01L29/7813;;H01L29/7827;;H01L27/088;;G06K2209/19;;H01L21/2258;;H01L21/823885;;H01L29/42376;;H04N7/181;;H04N13/398;;H01L29/775;;H01L21/3083;;H01L21/823475;;H01L29/66462;;H01L29/6656;;H01L29/66742;;H01L21/82345;;G06K2009/00738;;G06K9/00711;;H01L21/324;;H01L29/66666;;H04N13/332;;H01L29/1037;;G05B23/0216;;H01L29/152;;H01L21/823437;;H01L29/0649;;G06F3/0482;;H01L21/823418;;H01L29/1095;;H01L29/7788;;H01L21/823871;;H01L29/0676;;H01L29/42392;;H01L21/8221;;H01L21/8234;;H01L29/165;;H04N5/247;;H01L21/3065;;H01L29/1054;;H01L29/66522;;H04N5/23238;;H01L21/823487;;G05B2219/32014;;H01L29/0638</t>
         </is>
       </c>
       <c r="R19" t="inlineStr"/>
@@ -2518,7 +2518,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>022-371-039-747-189;;139-953-016-089-681</t>
+          <t>139-953-016-089-681;;022-371-039-747-189</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>湿法刻蚀石英晶体少量晶面获取全晶面刻蚀速率的方法;;Method for obtaining whole crystal face etching rate by wet etching few crystal faces of quartz crystal</t>
+          <t>Method for obtaining whole crystal face etching rate by wet etching few crystal faces of quartz crystal;;湿法刻蚀石英晶体少量晶面获取全晶面刻蚀速率的方法</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2538,12 +2538,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>东南大学;;UNIV SOUTHEAST</t>
+          <t>UNIV SOUTHEAST;;东南大学</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>ZHANG HUI;;XING YAN;;张辉;;李源;;ZHANG JIN;;LI YUAN;;张晋;;幸研</t>
+          <t>张晋;;幸研;;LI YUAN;;张辉;;李源;;ZHANG HUI;;XING YAN;;ZHANG JIN</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -2557,7 +2557,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Granted Patent;;Patent Application</t>
+          <t>Patent Application;;Granted Patent</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -2688,7 +2688,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>A61B5/6843;;A61B5/6813;;A61B2562/12;;B81C1/00261;;B81C1/00349</t>
+          <t>B81C1/00349;;B81C1/00261;;A61B5/6813;;A61B2562/12;;A61B5/6843</t>
         </is>
       </c>
       <c r="R21" t="inlineStr"/>
@@ -2732,17 +2732,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>193-740-224-195-322;;010-188-554-840-088;;141-171-860-159-994;;148-931-852-354-400</t>
+          <t>141-171-860-159-994;;010-188-554-840-088;;193-740-224-195-322;;148-931-852-354-400</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://lens.org/193-740-224-195-322;;https://lens.org/141-171-860-159-994;;https://lens.org/148-931-852-354-400;;https://lens.org/010-188-554-840-088</t>
+          <t>https://lens.org/010-188-554-840-088;;https://lens.org/148-931-852-354-400;;https://lens.org/141-171-860-159-994;;https://lens.org/193-740-224-195-322</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>基于SiON的光读取神经突触器件及其制备方法;;SiOxNy-based synapse optically reading device and preparation method thereof;;Optical-readout synaptic device based on SiOxNy and preparation method thereof</t>
+          <t>SiOxNy-based synapse optically reading device and preparation method thereof;;基于SiON的光读取神经突触器件及其制备方法;;Optical-readout synaptic device based on SiOxNy and preparation method thereof</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2757,7 +2757,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>LI DONGYANG;;李伟;;钟豪;;JIANG YADONG;;李东阳;;顾德恩;;蒋亚东;;GU DEEN;;GU DE'EN;;CHEN YICHENG;;陈奕丞;;LI WEI;;ZHONG HAO</t>
+          <t>顾德恩;;李东阳;;CHEN YICHENG;;GU DEEN;;蒋亚东;;LI DONGYANG;;钟豪;;ZHONG HAO;;GU DE'EN;;JIANG YADONG;;陈奕丞;;LI WEI;;李伟</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>US;;CN</t>
+          <t>CN;;US</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>A1;;A;;B;;B2</t>
+          <t>B2;;A1;;B;;A</t>
         </is>
       </c>
       <c r="M22" t="n">
@@ -2790,12 +2790,12 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>G02B6/12;;G02B6/132;;B82Y20/00;;G02B6/122;;B82Y30/00;;G06N3/063;;H01L45/00</t>
+          <t>G06N3/063;;B82Y30/00;;H01L45/00;;G02B6/122;;G02B6/132;;G02B6/12;;B82Y20/00</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>H01L45/1213;;H01L45/1675;;G02B6/132;;H01L45/1253;;H01L45/1625;;B82Y20/00;;H01L45/08;;G06N3/0635;;G02B2006/12035;;B82Y30/00;;H01L45/1233;;H01L45/16;;G02B6/1226;;H01L45/145</t>
+          <t>H01L45/1625;;H01L45/16;;H01L45/08;;H01L45/145;;H01L45/1675;;G02B6/1226;;B82Y30/00;;H01L45/1253;;H01L45/1233;;G02B2006/12035;;G02B6/132;;B82Y20/00;;G06N3/0635;;H01L45/1213</t>
         </is>
       </c>
       <c r="R22" t="inlineStr"/>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>US 10475996 B2;;CN 108110137 A;;CN 108110137 B;;US 2018/0277756 A1</t>
+          <t>CN 108110137 B;;US 10475996 B2;;US 2018/0277756 A1;;CN 108110137 A</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Neuro-Bionic Device Based on Two-dimensional Ti3C2 Material and Preparation Method Thereof;;Neuro-biomimetic device based on two-dimensional Ti3C2 material and preparation method thereof</t>
+          <t>Neuro-biomimetic device based on two-dimensional Ti3C2 material and preparation method thereof;;Neuro-Bionic Device Based on Two-dimensional Ti3C2 Material and Preparation Method Thereof</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>WANG KAIYANG;;YAN XIAOBING;;REN DELIANG</t>
+          <t>YAN XIAOBING;;REN DELIANG;;WANG KAIYANG</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>US;;CN</t>
+          <t>CN;;US</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2897,12 +2897,12 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>G11C11/54;;G06N3/06;;H01L45/00</t>
+          <t>G06N3/06;;H01L45/00;;G11C11/54</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>C04B2235/79;;C04B35/5611;;G11C11/54;;H01L45/04;;G11C13/0019;;G06N3/061;;H01L45/1253;;G06N3/0635;;B82Y10/00;;H01L45/149;;G11C2213/15;;G06N3/049;;H01L45/16;;G11C2213/35</t>
+          <t>H01L45/16;;C04B2235/79;;C04B35/5611;;G11C2213/15;;G11C2213/35;;G11C13/0019;;H01L45/1253;;B82Y10/00;;H01L45/149;;G11C11/54;;G06N3/0635;;H01L45/04;;G06N3/049;;G06N3/061</t>
         </is>
       </c>
       <c r="R23" t="inlineStr"/>
@@ -2929,7 +2929,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>CN 109524545 A;;US 2020/0160155 A1</t>
+          <t>US 2020/0160155 A1;;CN 109524545 A</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>ZHAO LINYUAN;;LIU YU;;XU JUN;;LIANG RENRONG</t>
+          <t>XU JUN;;LIANG RENRONG;;ZHAO LINYUAN;;LIU YU</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -3004,12 +3004,12 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>H01L29/06;;H01L29/78;;B82Y40/00;;H01L21/336</t>
+          <t>B82Y40/00;;H01L29/78;;H01L29/06;;H01L21/336</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>H01L29/7831;;B82Y40/00;;H01L29/0669;;H01L29/66484</t>
+          <t>B82Y40/00;;H01L29/7831;;H01L29/66484;;H01L29/0669</t>
         </is>
       </c>
       <c r="R24" t="inlineStr"/>
@@ -3078,7 +3078,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>WU SHUO;;CHENG RUNHONG;;WANG YUNBO;;ZHU YU;;GAO JUNXIONG;;ZHOU WENLI;;CHEN CHANGSHENG</t>
+          <t>WU SHUO;;ZHOU WENLI;;CHENG RUNHONG;;WANG YUNBO;;GAO JUNXIONG;;CHEN CHANGSHENG;;ZHU YU</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -3111,12 +3111,12 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>B82Y30/00;;B82Y15/00;;G06N3/06;;G06N3/00</t>
+          <t>G06N3/06;;G06N3/00;;B82Y30/00;;B82Y15/00</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>B82Y30/00;;G06N3/002;;B82Y15/00;;G06N3/06</t>
+          <t>G06N3/002;;G06N3/06;;B82Y30/00;;B82Y15/00</t>
         </is>
       </c>
       <c r="R25" t="inlineStr"/>
@@ -3180,7 +3180,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG;;ICLEAGUE TECH CO LTD</t>
+          <t>ICLEAGUE TECH CO LTD;;YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -3218,12 +3218,12 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>B81B7/00;;H01L27/146;;B81C1/00;;B81B7/02</t>
+          <t>B81B7/02;;H01L27/146;;B81B7/00;;B81C1/00</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>H01L27/1469;;H01L27/14634;;B81B7/0032;;B81C1/00222;;B81B7/02;;B81C1/00261</t>
+          <t>B81B7/0032;;B81C1/00261;;H01L27/1469;;B81B7/02;;B81C1/00222;;H01L27/14634</t>
         </is>
       </c>
       <c r="R26" t="inlineStr"/>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>CHEN YIXIANG;;WANG WEI;;YU DAN;;WANG ZEHONG</t>
+          <t>WANG ZEHONG;;WANG WEI;;YU DAN;;CHEN YIXIANG</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -3325,12 +3325,12 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>D01D5/00;;C23C18/44;;G01L9/12;;G01L1/14;;B82Y15/00;;B82Y40/00;;B82Y30/00</t>
+          <t>B82Y40/00;;C23C18/44;;G01L1/14;;B82Y30/00;;D01D5/00;;G01L9/12;;B82Y15/00</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>D01D5/0069;;C23C18/44;;D01D5/003;;G01L9/12;;G01L1/142;;B82Y15/00;;B82Y40/00;;B82Y30/00</t>
+          <t>B82Y40/00;;C23C18/44;;D01D5/003;;B82Y30/00;;G01L1/142;;G01L9/12;;D01D5/0069;;B82Y15/00</t>
         </is>
       </c>
       <c r="R27" t="inlineStr"/>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>DIEZ STEFAN;;REUTHER CORDULA;;MANSSON ALF;;TAKATSUKI HIDEYO;;KORTEN TILL</t>
+          <t>KORTEN TILL;;MANSSON ALF;;TAKATSUKI HIDEYO;;REUTHER CORDULA;;DIEZ STEFAN</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -3481,12 +3481,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>018-363-716-273-917;;107-704-552-379-860;;099-541-914-036-776</t>
+          <t>107-704-552-379-860;;099-541-914-036-776;;018-363-716-273-917</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://lens.org/099-541-914-036-776;;https://lens.org/018-363-716-273-917;;https://lens.org/107-704-552-379-860</t>
+          <t>https://lens.org/099-541-914-036-776;;https://lens.org/107-704-552-379-860;;https://lens.org/018-363-716-273-917</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -3506,7 +3506,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>FAUVART MAARTEN;;STAKENBORG TIM;;CAI QING;;COVENS KRIS;;CHEN CHANG</t>
+          <t>CHEN CHANG;;STAKENBORG TIM;;FAUVART MAARTEN;;CAI QING;;COVENS KRIS</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>KR;;EP;;US</t>
+          <t>KR;;US;;EP</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -3543,12 +3543,12 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>G11C11/54;;G06N3/12;;G11C13/00;;C12M3/06;;G11C11/00;;B82Y10/00;;C12P19/34</t>
+          <t>G11C13/00;;G11C11/00;;G06N3/12;;B82Y10/00;;C12P19/34;;G11C11/54;;C12M3/06</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>G11C11/54;;G06N3/123;;G11C13/0019;;G11C13/0016;;G11C11/00;;B82Y10/00;;G16B30/00;;C12N15/10</t>
+          <t>G06N3/123;;G11C13/0016;;C12N15/10;;G11C13/0019;;G11C11/00;;B82Y10/00;;G11C11/54;;G16B30/00</t>
         </is>
       </c>
       <c r="R29" t="inlineStr"/>
@@ -3575,12 +3575,12 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>KR 20190082143 A;;US 2019/0205768 A1;;EP 3506135 A1</t>
+          <t>US 2019/0205768 A1;;KR 20190082143 A;;EP 3506135 A1</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>KR 20180172813 A;;US 201816224496 A;;EP 17211093 A</t>
+          <t>US 201816224496 A;;EP 17211093 A;;KR 20180172813 A</t>
         </is>
       </c>
     </row>
@@ -3612,12 +3612,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT;;IMEC VZW;;UNIV LEUVEN KATH</t>
+          <t>KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT;;UNIV LEUVEN KATH;;IMEC VZW</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>CIUBOTARU FLORIN;;ADELMANN HANNS CHRISTOPH;;COSTA JOSE DIOGO</t>
+          <t>COSTA JOSE DIOGO;;CIUBOTARU FLORIN;;ADELMANN HANNS CHRISTOPH</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -3630,7 +3630,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>EP;;US</t>
+          <t>US;;EP</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -3654,12 +3654,12 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>G02F1/01;;G06N3/08;;B82Y10/00;;G06E1/04;;H01L29/66</t>
+          <t>B82Y10/00;;G06E1/04;;H01L29/66;;G06N3/08;;G02F1/01</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>H01L41/00;;B82Y20/00;;G06E1/045;;G06N3/0635;;G06N3/084</t>
+          <t>G06N3/084;;H01L41/00;;B82Y20/00;;G06N3/0635;;G06E1/045</t>
         </is>
       </c>
       <c r="R30" t="inlineStr"/>
@@ -3686,12 +3686,12 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>US 2020/0110433 A1;;EP 3632840 A1</t>
+          <t>EP 3632840 A1;;US 2020/0110433 A1</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>EP 18198863 A;;US 201916593917 A</t>
+          <t>US 201916593917 A;;EP 18198863 A</t>
         </is>
       </c>
     </row>
@@ -3757,12 +3757,12 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G03F7/00;;B82Y40/00</t>
+          <t>B82Y40/00;;G03F7/00;;B82Y10/00</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>G06N5/003;;B82Y10/00;;G03F7/0002;;B82Y40/00</t>
+          <t>B82Y40/00;;B82Y10/00;;G06N5/003;;G03F7/0002</t>
         </is>
       </c>
       <c r="R31" t="inlineStr"/>
@@ -3806,12 +3806,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>042-652-460-098-334;;152-095-732-259-63X;;047-351-574-945-08X</t>
+          <t>152-095-732-259-63X;;047-351-574-945-08X;;042-652-460-098-334</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://lens.org/152-095-732-259-63X;;https://lens.org/042-652-460-098-334;;https://lens.org/047-351-574-945-08X</t>
+          <t>https://lens.org/152-095-732-259-63X;;https://lens.org/047-351-574-945-08X;;https://lens.org/042-652-460-098-334</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -3831,7 +3831,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>LANDIS STEPHAN;;LANDIS STÉPHAN;;CONSTANCIAS CHRISTOPHE</t>
+          <t>LANDIS STÉPHAN;;CONSTANCIAS CHRISTOPHE;;LANDIS STEPHAN</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -3864,12 +3864,12 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>H01L21/02;;G03F7/00;;G03F1/00;;B82Y10/00;;B82Y40/00</t>
+          <t>B82Y40/00;;G03F7/00;;G03F1/00;;H01L21/02;;B82Y10/00</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>G06N5/003;;B82Y10/00;;G03F7/0002;;B82Y40/00</t>
+          <t>B82Y40/00;;B82Y10/00;;G06N5/003;;G03F7/0002</t>
         </is>
       </c>
       <c r="R32" t="inlineStr"/>
@@ -3896,12 +3896,12 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>FR 3041118 B1;;FR 3041118 A1;;WO 2017/046287 A1</t>
+          <t>FR 3041118 A1;;WO 2017/046287 A1;;FR 3041118 B1</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>FR 1558623 A;;EP 2016071907 W</t>
+          <t>EP 2016071907 W;;FR 1558623 A</t>
         </is>
       </c>
     </row>
@@ -3913,12 +3913,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>072-287-191-089-928;;107-040-164-637-857;;195-278-498-675-732;;192-339-171-675-025;;184-931-411-813-726</t>
+          <t>184-931-411-813-726;;195-278-498-675-732;;107-040-164-637-857;;192-339-171-675-025;;072-287-191-089-928</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://lens.org/107-040-164-637-857;;https://lens.org/072-287-191-089-928;;https://lens.org/184-931-411-813-726;;https://lens.org/192-339-171-675-025;;https://lens.org/195-278-498-675-732</t>
+          <t>https://lens.org/195-278-498-675-732;;https://lens.org/072-287-191-089-928;;https://lens.org/184-931-411-813-726;;https://lens.org/192-339-171-675-025;;https://lens.org/107-040-164-637-857</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -3938,7 +3938,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>RAQUEL MARIA SANCHES-KUIPER;;SANCHES-KUIPER RAQUEL MARIA;;MATTHEW JAMES HAYES;;HAYES MATTHEW JAMES</t>
+          <t>HAYES MATTHEW JAMES;;MATTHEW JAMES HAYES;;SANCHES-KUIPER RAQUEL MARIA;;RAQUEL MARIA SANCHES-KUIPER</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -3947,17 +3947,17 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>GB;;WO;;TW</t>
+          <t>TW;;WO;;GB</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Patent of Addition;;Patent Application;;Granted Patent</t>
+          <t>Patent Application;;Granted Patent;;Patent of Addition</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>B;;A1;;A;;D0</t>
+          <t>D0;;B;;A1;;A</t>
         </is>
       </c>
       <c r="M33" t="n">
@@ -3971,12 +3971,12 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>G16B50/20;;G11C11/54;;G06N3/12;;G11C13/00;;G06F9/312;;B01L7/00;;G16H10/40;;C12Q1/68;;B82Y10/00</t>
+          <t>G11C13/00;;C12Q1/68;;G16H10/40;;G16B50/20;;B01L7/00;;G06N3/12;;B82Y10/00;;G06F9/312;;G11C11/54</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>G16B50/20;;G11C11/54;;G06N3/123;;G11C13/0019;;B01L7/52;;C12Q1/68;;B82Y10/00;;G06N3/002;;G06N3/126</t>
+          <t>G06N3/123;;C12Q1/68;;G06N3/126;;G16B50/20;;G11C13/0019;;B01L7/52;;B82Y10/00;;G11C11/54;;G06N3/002</t>
         </is>
       </c>
       <c r="R33" t="inlineStr"/>
@@ -4003,7 +4003,7 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>GB 201812169 D0;;GB 2576304 B;;TW 202008381 A;;WO 2020/021221 A1;;GB 2576304 A</t>
+          <t>GB 201812169 D0;;TW 202008381 A;;GB 2576304 A;;GB 2576304 B;;WO 2020/021221 A1</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
@@ -4020,12 +4020,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>181-987-753-698-602;;151-320-079-612-50X;;086-134-305-093-935</t>
+          <t>086-134-305-093-935;;181-987-753-698-602;;151-320-079-612-50X</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://lens.org/086-134-305-093-935;;https://lens.org/181-987-753-698-602;;https://lens.org/151-320-079-612-50X</t>
+          <t>https://lens.org/181-987-753-698-602;;https://lens.org/151-320-079-612-50X;;https://lens.org/086-134-305-093-935</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -4045,7 +4045,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>SANCHES-KUIPER RAQUEL MARIA;;HAYES MATTHEW JAMES</t>
+          <t>HAYES MATTHEW JAMES;;SANCHES-KUIPER RAQUEL MARIA</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>EP;;SG;;CA</t>
+          <t>SG;;CA;;EP</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>G16B50/20;;G11C11/54;;G06N3/123;;G11C13/0019;;B01L7/52;;C12Q1/68;;B82Y10/00;;G06N3/002;;G06N3/126</t>
+          <t>G06N3/123;;C12Q1/68;;G06N3/126;;G16B50/20;;G11C13/0019;;B01L7/52;;B82Y10/00;;G11C11/54;;G06N3/002</t>
         </is>
       </c>
       <c r="R34" t="inlineStr"/>
@@ -4110,12 +4110,12 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>SG 11202100073U A;;CA 3105954 A1;;EP 3827435 A1</t>
+          <t>EP 3827435 A1;;SG 11202100073U A;;CA 3105954 A1</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>SG 11202100073U A;;CA 3105954 A;;EP 19730444 A</t>
+          <t>SG 11202100073U A;;EP 19730444 A;;CA 3105954 A</t>
         </is>
       </c>
     </row>
@@ -4127,17 +4127,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>170-207-950-505-313;;118-050-348-728-882;;177-579-347-292-60X;;126-537-800-488-374;;138-303-545-095-517;;032-908-699-779-813;;140-881-661-083-974;;092-900-202-784-87X</t>
+          <t>032-908-699-779-813;;177-579-347-292-60X;;118-050-348-728-882;;140-881-661-083-974;;138-303-545-095-517;;126-537-800-488-374;;170-207-950-505-313;;092-900-202-784-87X</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://lens.org/126-537-800-488-374;;https://lens.org/032-908-699-779-813;;https://lens.org/140-881-661-083-974;;https://lens.org/170-207-950-505-313;;https://lens.org/118-050-348-728-882;;https://lens.org/138-303-545-095-517;;https://lens.org/092-900-202-784-87X;;https://lens.org/177-579-347-292-60X</t>
+          <t>https://lens.org/092-900-202-784-87X;;https://lens.org/126-537-800-488-374;;https://lens.org/118-050-348-728-882;;https://lens.org/140-881-661-083-974;;https://lens.org/138-303-545-095-517;;https://lens.org/170-207-950-505-313;;https://lens.org/177-579-347-292-60X;;https://lens.org/032-908-699-779-813</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>用于使用局部谐振器来耦合量子位的架构;;Architecture for coupling quantum bits using localised resonators;;Architektur für ein Koppeln von Quantenbits unter Verwendung von lokalisierten Resonatoren;;量子ビットを結合するアーキテクチャのための超伝導マイクロ波共振器空胴及びそれを構成する方法;;Architecture for coupling quantum bits using localized resonators</t>
+          <t>Architektur für ein Koppeln von Quantenbits unter Verwendung von lokalisierten Resonatoren;;量子ビットを結合するアーキテクチャのための超伝導マイクロ波共振器空胴及びそれを構成する方法;;Architecture for coupling quantum bits using localized resonators;;Architecture for coupling quantum bits using localised resonators;;用于使用局部谐振器来耦合量子位的架构</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -4147,12 +4147,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM;;国际商业机器公司</t>
+          <t>国际商业机器公司;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>DIAL OLIVER;;GAMBETTA JAY;;O·蒂亚尔;;D·T·麦克鲁尔三世;;M·斯蒂芬;;OLIVER DIAL;;ステファン、マティアス;;MATTHIAS STEFFEN;;DOUGLAS TEMPLETON MCCLURE III;;JAY GAMBETTA;;ダイアル、オリバー;;ガンベッタ、ジェイ;;STEFFEN MATTHIAS;;J·加姆贝塔;;MCCLURE III DOUGLAS TEMPLETON;;マクルーア ザ サード、ダグラス、テンプルトン</t>
+          <t>DOUGLAS TEMPLETON MCCLURE III;;M·斯蒂芬;;JAY GAMBETTA;;GAMBETTA JAY;;MCCLURE III DOUGLAS TEMPLETON;;ダイアル、オリバー;;D·T·麦克鲁尔三世;;ステファン、マティアス;;ガンベッタ、ジェイ;;DIAL OLIVER;;マクルーア ザ サード、ダグラス、テンプルトン;;J·加姆贝塔;;STEFFEN MATTHIAS;;MATTHIAS STEFFEN;;O·蒂亚尔;;OLIVER DIAL</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>GB;;JP;;DE;;CN</t>
+          <t>JP;;CN;;GB;;DE</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -4171,7 +4171,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>T5;;D0;;A;;B2;;B</t>
+          <t>B2;;T5;;B;;D0;;A</t>
         </is>
       </c>
       <c r="M35" t="n">
@@ -4185,12 +4185,12 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>H01P7/00;;H01L39/02;;H01L39/24;;G06N99/00;;H01L39/00;;H01L39/14;;B82Y10/00;;G06N10/00;;H01P1/205;;G06N20/00;;H03K19/195</t>
+          <t>H01L39/24;;H01L39/02;;H01P7/00;;H03K19/195;;G06N99/00;;G06N20/00;;H01P1/205;;H01L39/14;;B82Y10/00;;G06N10/00;;H01L39/00</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>H01P7/00;;H01L39/2493;;H01L39/24;;B82Y10/00;;G06N10/00;;H01P1/205;;H01L39/025;;H01L39/14;;G06N20/00;;H05K999/99</t>
+          <t>H01L39/025;;H01L39/24;;H01P7/00;;H01L39/2493;;G06N20/00;;H01P1/205;;H01L39/14;;B82Y10/00;;G06N10/00;;H05K999/99</t>
         </is>
       </c>
       <c r="R35" t="inlineStr"/>
@@ -4217,12 +4217,12 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>CN 107851876 A;;DE 112016001721 T5;;CN 107851876 B;;GB 201800479 D0;;JP 2018530931 A;;GB 2556251 A;;JP 6644091 B2;;GB 2556251 B</t>
+          <t>GB 2556251 A;;GB 2556251 B;;DE 112016001721 T5;;CN 107851876 A;;CN 107851876 B;;GB 201800479 D0;;JP 6644091 B2;;JP 2018530931 A</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>DE 112016001721 T;;GB 201800479 A;;JP 2017561380 A;;CN 201680031319 A</t>
+          <t>JP 2017561380 A;;GB 201800479 A;;DE 112016001721 T;;CN 201680031319 A</t>
         </is>
       </c>
     </row>
@@ -4234,12 +4234,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>059-870-669-564-271;;071-230-352-271-170</t>
+          <t>071-230-352-271-170;;059-870-669-564-271</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://lens.org/059-870-669-564-271;;https://lens.org/071-230-352-271-170</t>
+          <t>https://lens.org/071-230-352-271-170;;https://lens.org/059-870-669-564-271</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -4259,7 +4259,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>KHOMAMI ABADI MOJTABA;;GOULD MATTHEW V;;MASILAMANI ASHOK PRABHU;;GAHROOSI AMIR BAHADOR</t>
+          <t>GOULD MATTHEW V;;GAHROOSI AMIR BAHADOR;;MASILAMANI ASHOK PRABHU;;KHOMAMI ABADI MOJTABA</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>EP;;CA</t>
+          <t>CA;;EP</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -4292,12 +4292,12 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>G01N37/00;;G06N3/02;;G06N3/08</t>
+          <t>G06N3/02;;G01N37/00;;G06N3/08</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>G01N35/00722;;G01N2035/00891;;B82Y15/00;;G01N33/0031;;G01N33/0034</t>
+          <t>G01N33/0031;;G01N33/0034;;G01N2035/00891;;G01N35/00722;;B82Y15/00</t>
         </is>
       </c>
       <c r="R36" t="inlineStr"/>
@@ -4324,12 +4324,12 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>EP 3746800 A1;;CA 3089818 A1</t>
+          <t>CA 3089818 A1;;EP 3746800 A1</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>EP 19743153 A;;CA 3089818 A</t>
+          <t>CA 3089818 A;;EP 19743153 A</t>
         </is>
       </c>
     </row>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>SUCHOWSKI HAIM;;MALKIEL ITZIK;;MREJEN MICHAEL;;ARIELI URI;;NAGLER ACHIYA;;WOLF LIOR</t>
+          <t>SUCHOWSKI HAIM;;WOLF LIOR;;ARIELI URI;;MREJEN MICHAEL;;NAGLER ACHIYA;;MALKIEL ITZIK</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -4403,12 +4403,12 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>G06N3/04;;B82Y40/00;;G01N21/25;;G01N21/21</t>
+          <t>G01N21/21;;B82Y40/00;;G01N21/25;;G06N3/04</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>G01N2021/258;;G06N3/08;;G01B2210/56;;G06N3/04;;G06N3/0481;;B82Y40/00;;G01N21/25;;G06N3/126;;G01N21/21</t>
+          <t>B82Y40/00;;G01N21/25;;G06N3/126;;G01N21/21;;G01N2021/258;;G06N3/0481;;G06N3/04;;G01B2210/56;;G06N3/08</t>
         </is>
       </c>
       <c r="R37" t="inlineStr"/>
@@ -4452,12 +4452,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>185-408-668-875-404;;073-802-025-703-259;;032-075-199-033-544</t>
+          <t>073-802-025-703-259;;185-408-668-875-404;;032-075-199-033-544</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://lens.org/185-408-668-875-404;;https://lens.org/073-802-025-703-259;;https://lens.org/032-075-199-033-544</t>
+          <t>https://lens.org/073-802-025-703-259;;https://lens.org/032-075-199-033-544;;https://lens.org/185-408-668-875-404</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -4490,7 +4490,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>US;;JP;;CN</t>
+          <t>JP;;CN;;US</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -4514,12 +4514,12 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>H01L21/02;;B82Y35/00;;G01B21/30;;H01L21/67;;G01Q10/06;;H01L21/304;;G01Q60/38</t>
+          <t>H01L21/304;;H01L21/02;;H01L21/67;;G01B21/30;;G01Q60/38;;G01Q10/06;;B82Y35/00</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>B82Y35/00;;H01L21/67051;;H01L21/02041;;G01B21/30;;H01L21/67017;;H01L21/67046;;G01Q30/04;;G01Q60/38;;H01L21/67253;;G01Q10/065</t>
+          <t>H01L21/67017;;G01Q10/065;;H01L21/67051;;H01L21/02041;;H01L21/67046;;G01Q30/04;;G01B21/30;;G01Q60/38;;H01L21/67253;;B82Y35/00</t>
         </is>
       </c>
       <c r="R38" t="inlineStr"/>
@@ -4546,7 +4546,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>JP 2020061469 A;;US 2020/0116480 A1;;CN 111029243 A</t>
+          <t>US 2020/0116480 A1;;JP 2020061469 A;;CN 111029243 A</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -4568,12 +4568,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://lens.org/098-611-216-404-476;;https://lens.org/138-820-309-105-328</t>
+          <t>https://lens.org/138-820-309-105-328;;https://lens.org/098-611-216-404-476</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>ELECTRONIC CIRCUIT, NEURAL NETWORK, AND NEURAL NETWORK LEARNING METHOD;;電子回路、ニューラルネットワーク及びニューラルネットワークの学習方法</t>
+          <t>電子回路、ニューラルネットワーク及びニューラルネットワークの学習方法;;ELECTRONIC CIRCUIT, NEURAL NETWORK, AND NEURAL NETWORK LEARNING METHOD</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -4588,7 +4588,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>SHINKAI GOU;;新海 剛</t>
+          <t>新海 剛;;SHINKAI GOU</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -4601,7 +4601,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>US;;JP</t>
+          <t>JP;;US</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -4625,12 +4625,12 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>H01L29/06;;G06N99/00;;G06N3/08;;G06G7/60;;B82Y10/00;;G06N10/00;;G06N3/063;;H01L29/66</t>
+          <t>G06N3/063;;H01L29/06;;G06N99/00;;B82Y10/00;;G06N3/08;;G06N10/00;;H01L29/66;;G06G7/60</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>H01L29/205;;H01L29/66977;;G06N3/08;;H01L29/0665;;B82Y10/00;;G06N10/00</t>
+          <t>G06N10/00;;H01L29/66977;;H01L29/0665;;B82Y10/00;;H01L29/205;;G06N3/08</t>
         </is>
       </c>
       <c r="R39" t="inlineStr"/>
@@ -4674,7 +4674,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>188-090-679-785-086;;081-884-875-823-11X</t>
+          <t>081-884-875-823-11X;;188-090-679-785-086</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4699,7 +4699,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>CHOI JEONG WOO;;CHUNG YONG HO;;최정우;;정용호</t>
+          <t>CHOI JEONG WOO;;정용호;;CHUNG YONG HO;;최정우</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -4732,7 +4732,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>H01L51/00;;B82Y10/00;;H01L27/28</t>
+          <t>H01L27/28;;H01L51/00;;B82Y10/00</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
@@ -4764,7 +4764,7 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>KR 20160105612 A;;KR 101725369 B1</t>
+          <t>KR 101725369 B1;;KR 20160105612 A</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
@@ -4781,12 +4781,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>190-350-980-582-755;;035-794-622-904-360</t>
+          <t>035-794-622-904-360;;190-350-980-582-755</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://lens.org/190-350-980-582-755;;https://lens.org/035-794-622-904-360</t>
+          <t>https://lens.org/035-794-622-904-360;;https://lens.org/190-350-980-582-755</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -4829,7 +4829,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="M41" t="n">
@@ -4843,12 +4843,12 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>G06F16/901;;H04L9/08;;G06N5/00;;H03M13/00;;H03M13/11;;B82Y10/00;;G06N10/00;;G06F17/16;;H03M13/29;;G06F17/10</t>
+          <t>G06F17/16;;H03M13/11;;H03M13/00;;G06F16/901;;G06N5/00;;G06F17/10;;H03M13/29;;B82Y10/00;;G06N10/00;;H04L9/08</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>G06F16/9024;;G06F11/10;;H03M13/616;;H03M13/1191;;H03M13/1108;;H03M13/00;;H03M13/11;;H04L9/0852;;H03M13/615;;B82Y10/00;;G06N10/00;;H04B10/70;;G06N5/003;;G06F17/16;;H03M13/29;;H03M13/3933;;G06F17/10</t>
+          <t>H03M13/616;;G06F17/16;;H03M13/1191;;G06F16/9024;;H04L9/0852;;H03M13/3933;;G06N5/003;;H04B10/70;;H03M13/00;;H03M13/11;;G06F17/10;;H03M13/1108;;B82Y10/00;;H03M13/29;;G06F11/10;;G06N10/00;;H03M13/615</t>
         </is>
       </c>
       <c r="R41" t="inlineStr"/>
@@ -4875,7 +4875,7 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>US 10911067 B2;;US 2019/0199373 A1</t>
+          <t>US 2019/0199373 A1;;US 10911067 B2</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
@@ -4950,12 +4950,12 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>G06F11/10;;H03M13/00;;H03M13/11;;G06N99/00;;H03M13/39;;H03M13/29;;H04B10/70</t>
+          <t>G06N99/00;;H03M13/11;;H03M13/00;;H03M13/39;;H04B10/70;;H03M13/29;;G06F11/10</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>G06F16/9024;;G06F11/10;;H03M13/616;;H03M13/1191;;H03M13/1108;;H03M13/00;;H03M13/11;;H04L9/0852;;H03M13/615;;B82Y10/00;;G06N10/00;;H04B10/70;;G06N5/003;;G06F17/16;;H03M13/29;;H03M13/3933;;G06F17/10</t>
+          <t>H03M13/616;;G06F17/16;;H03M13/1191;;G06F16/9024;;H04L9/0852;;H03M13/3933;;G06N5/003;;H04B10/70;;H03M13/00;;H03M13/11;;G06F17/10;;H03M13/1108;;B82Y10/00;;H03M13/29;;G06F11/10;;G06N10/00;;H03M13/615</t>
         </is>
       </c>
       <c r="R42" t="inlineStr"/>
@@ -4982,12 +4982,12 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>KR 101768066 B1;;WO 2017/217577 A1</t>
+          <t>WO 2017/217577 A1;;KR 101768066 B1</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>KR 2016006809 W;;KR 20160073350 A</t>
+          <t>KR 20160073350 A;;KR 2016006809 W</t>
         </is>
       </c>
     </row>
@@ -4999,12 +4999,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>105-431-024-371-108;;168-901-778-708-781</t>
+          <t>168-901-778-708-781;;105-431-024-371-108</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://lens.org/168-901-778-708-781;;https://lens.org/105-431-024-371-108</t>
+          <t>https://lens.org/105-431-024-371-108;;https://lens.org/168-901-778-708-781</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -5024,7 +5024,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>HA KIEU MY;;윤태현;;TRINH XUAN TUNG;;트린수안텅;;YOON TAE HYUN;;하키우;;김진배;;KIM JIN BAE</t>
+          <t>김진배;;HA KIEU MY;;KIM JIN BAE;;윤태현;;YOON TAE HYUN;;트린수안텅;;TRINH XUAN TUNG;;하키우</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -5057,7 +5057,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>G16C10/00;;B82Y35/00;;G06F19/00</t>
+          <t>G06F19/00;;G16C10/00;;B82Y35/00</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
@@ -5089,7 +5089,7 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>KR 101979983 B1;;KR 20180046122 A</t>
+          <t>KR 20180046122 A;;KR 101979983 B1</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
@@ -5106,17 +5106,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>007-424-307-118-008;;052-356-970-848-744;;138-446-145-078-230;;108-664-458-321-884</t>
+          <t>052-356-970-848-744;;138-446-145-078-230;;108-664-458-321-884;;007-424-307-118-008</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://lens.org/138-446-145-078-230;;https://lens.org/007-424-307-118-008;;https://lens.org/052-356-970-848-744;;https://lens.org/108-664-458-321-884</t>
+          <t>https://lens.org/108-664-458-321-884;;https://lens.org/052-356-970-848-744;;https://lens.org/007-424-307-118-008;;https://lens.org/138-446-145-078-230</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>QUANTUM MECHANICAL MACHINE VISION SYSTEM AND ARITHMETIC OPERATION METHOD BASED ON QUANTUM DOT;;QUANTUM MECHANICAL MACHINE VISION SYSTEM BASED ON QUANTUM DOT AND ARITHMETIC OPERATION METHOD;;Quantum mechanical machine vision system and arithmetic operation method based on quantum dot</t>
+          <t>QUANTUM MECHANICAL MACHINE VISION SYSTEM AND ARITHMETIC OPERATION METHOD BASED ON QUANTUM DOT;;Quantum mechanical machine vision system and arithmetic operation method based on quantum dot;;QUANTUM MECHANICAL MACHINE VISION SYSTEM BASED ON QUANTUM DOT AND ARITHMETIC OPERATION METHOD</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -5131,7 +5131,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>AHN DO YEOL;;안도열</t>
+          <t>안도열;;AHN DO YEOL</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -5149,12 +5149,12 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Granted Patent;;Patent Application</t>
+          <t>Patent Application;;Granted Patent</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>A1;;B2;;A;;B1</t>
+          <t>B2;;A1;;A;;B1</t>
         </is>
       </c>
       <c r="M44" t="n">
@@ -5168,12 +5168,12 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>G06K9/62;;G06N99/00;;B82Y10/00;;G06N10/00;;G06N20/00;;G06K9/66</t>
+          <t>G06N99/00;;G06K9/62;;G06N20/00;;B82Y10/00;;G06N10/00;;G06K9/66</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>G06K9/6202;;G06K9/6262;;B82Y10/00;;G06N10/00;;G06K9/56;;G06N20/00;;G06K9/66</t>
+          <t>G06K9/56;;G06K9/6202;;G06N20/00;;G06K9/6262;;B82Y10/00;;G06N10/00;;G06K9/66</t>
         </is>
       </c>
       <c r="R44" t="inlineStr"/>
@@ -5200,12 +5200,12 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>KR 101945599 B1;;US 2018/0165594 A1;;KR 20180067006 A;;US 10489718 B2</t>
+          <t>KR 20180067006 A;;KR 101945599 B1;;US 10489718 B2;;US 2018/0165594 A1</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>US 201715838597 A;;KR 20160168244 A</t>
+          <t>KR 20160168244 A;;US 201715838597 A</t>
         </is>
       </c>
     </row>
@@ -5217,17 +5217,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>139-280-703-791-17X;;104-421-695-854-199;;130-916-866-115-532;;023-101-928-686-458</t>
+          <t>023-101-928-686-458;;104-421-695-854-199;;130-916-866-115-532;;139-280-703-791-17X</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://lens.org/104-421-695-854-199;;https://lens.org/130-916-866-115-532;;https://lens.org/139-280-703-791-17X;;https://lens.org/023-101-928-686-458</t>
+          <t>https://lens.org/023-101-928-686-458;;https://lens.org/104-421-695-854-199;;https://lens.org/130-916-866-115-532;;https://lens.org/139-280-703-791-17X</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>QUANTUM MECHANICAL MACHINE VISION SYSTEM AND ARITHMETIC OPERATION METHOD BASED ON ORBITAL QUBIT;;QUANTUM MECHANICAL ARTIFICIAL VISION SYSTEM BASED ON ORBITAL QUBIT AND ARITHMETIC OPERATION METHOD;;Quantum mechanical machine vision system and arithmetic operation method based on orbital qubit</t>
+          <t>QUANTUM MECHANICAL MACHINE VISION SYSTEM AND ARITHMETIC OPERATION METHOD BASED ON ORBITAL QUBIT;;Quantum mechanical machine vision system and arithmetic operation method based on orbital qubit;;QUANTUM MECHANICAL ARTIFICIAL VISION SYSTEM BASED ON ORBITAL QUBIT AND ARITHMETIC OPERATION METHOD</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -5242,7 +5242,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>AHN DO YEOL;;안도열</t>
+          <t>안도열;;AHN DO YEOL</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -5260,12 +5260,12 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Granted Patent;;Patent Application</t>
+          <t>Patent Application;;Granted Patent</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>A1;;B2;;A;;B1</t>
+          <t>B2;;A1;;A;;B1</t>
         </is>
       </c>
       <c r="M45" t="n">
@@ -5279,12 +5279,12 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>G06K9/62;;G06N99/00;;G06F17/11;;B82Y10/00;;G06N10/00;;G06N20/00;;G06K9/66</t>
+          <t>G06N99/00;;G06K9/62;;G06N20/00;;B82Y10/00;;G06F17/11;;G06N10/00;;G06K9/66</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>G06K9/6202;;H01L29/66977;;G06K9/62;;G06F17/11;;B82Y10/00;;G06N10/00;;G06N20/00;;G06K9/66</t>
+          <t>G06K9/6202;;H01L29/66977;;G06N20/00;;G06K9/62;;B82Y10/00;;G06F17/11;;G06N10/00;;G06K9/66</t>
         </is>
       </c>
       <c r="R45" t="inlineStr"/>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>US 10482387 B2;;KR 101951524 B1;;KR 20180067007 A;;US 2018/0165595 A1</t>
+          <t>US 2018/0165595 A1;;US 10482387 B2;;KR 101951524 B1;;KR 20180067007 A</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
@@ -5328,17 +5328,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>003-096-429-312-17X;;036-490-481-425-561;;073-636-151-135-298</t>
+          <t>003-096-429-312-17X;;073-636-151-135-298;;036-490-481-425-561</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://lens.org/036-490-481-425-561;;https://lens.org/003-096-429-312-17X;;https://lens.org/073-636-151-135-298</t>
+          <t>https://lens.org/003-096-429-312-17X;;https://lens.org/073-636-151-135-298;;https://lens.org/036-490-481-425-561</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Neuromorphic device including a synapse having carbon nano-tubes;;Neuromorphic Device Including a Synapse Having Carbon Nano-Tubes;;NEUROMORPHIC DEVICE INCLUDING A SYNAPSE HAVING CARBON NANO-TUBES</t>
+          <t>Neuromorphic Device Including a Synapse Having Carbon Nano-Tubes;;Neuromorphic device including a synapse having carbon nano-tubes;;NEUROMORPHIC DEVICE INCLUDING A SYNAPSE HAVING CARBON NANO-TUBES</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>LEE HYUNG DONG;;CHOI YONG SOO;;CHOI YONG-SOO;;LEE HYUNG-DONG;;HEO KEUN</t>
+          <t>LEE HYUNG DONG;;LEE HYUNG-DONG;;HEO KEUN;;CHOI YONG SOO;;CHOI YONG-SOO</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -5376,7 +5376,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>A1;;A;;B2</t>
+          <t>B2;;A1;;A</t>
         </is>
       </c>
       <c r="M46" t="n">
@@ -5390,12 +5390,12 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>H01L51/05;;C01B32/158;;H03K19/177;;B82Y10/00;;H01L27/28;;G06N3/063;;H01L51/00</t>
+          <t>G06N3/063;;H01L51/00;;C01B32/158;;H01L27/28;;H01L51/05;;H03K19/177;;B82Y10/00</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>C01B2202/02;;C01B2202/06;;Y10S977/742;;C01B32/158;;G06N3/049;;H03K19/17736;;H01L51/0583;;G06N3/0635;;B82Y10/00;;B82Y40/00;;H01L27/285;;H01L51/0048;;C01B2202/04;;G06N3/063</t>
+          <t>G06N3/063;;B82Y40/00;;C01B32/158;;C01B2202/04;;H03K19/17736;;C01B2202/02;;H01L51/0583;;H01L27/285;;B82Y10/00;;Y10S977/742;;C01B2202/06;;G06N3/0635;;G06N3/049;;H01L51/0048</t>
         </is>
       </c>
       <c r="R46" t="inlineStr"/>
@@ -5422,7 +5422,7 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>KR 20180095977 A;;US 10559626 B2;;US 2018/0240846 A1</t>
+          <t>US 10559626 B2;;KR 20180095977 A;;US 2018/0240846 A1</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
@@ -5444,7 +5444,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://lens.org/183-251-705-523-85X;;https://lens.org/175-211-607-286-348</t>
+          <t>https://lens.org/175-211-607-286-348;;https://lens.org/183-251-705-523-85X</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>SHIN HYUN DONG;;FAROOQ AHMAD;;JEONG YOUNG MIN;;정영민;;파쿼 아마드;;신현동</t>
+          <t>신현동;;FAROOQ AHMAD;;SHIN HYUN DONG;;정영민;;파쿼 아마드;;JEONG YOUNG MIN</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -5478,7 +5478,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Granted Patent;;Patent Application</t>
+          <t>Patent Application;;Granted Patent</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -5546,7 +5546,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>044-863-244-807-936;;023-219-706-755-351;;182-619-245-762-417</t>
+          <t>044-863-244-807-936;;182-619-245-762-417;;023-219-706-755-351</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Integrate-and-fire neuron circuit using single-gated feedback field-effect transistor;;INTEGRATE-AND-FIRE NEURON CIRCUIT USING SINGLE-GATED FEEDBACK FIELD-EFFECT TRANSISTOR</t>
+          <t>INTEGRATE-AND-FIRE NEURON CIRCUIT USING SINGLE-GATED FEEDBACK FIELD-EFFECT TRANSISTOR;;Integrate-and-fire neuron circuit using single-gated feedback field-effect transistor</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -5571,7 +5571,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>CHO JIN-SUN;;CHO KYOUNG-AH;;PARK YOUNG SOO;;CHO KYOUNG AH;;KIM SANG SIG;;WOO SOL A;;PARK YOUNG-SOO;;LIM DOO HYEOK;;LIM DOO-HYEOK;;WOO SOL-A;;CHO JIN SUN;;KIM SANG-SIK</t>
+          <t>CHO KYOUNG AH;;WOO SOL-A;;WOO SOL A;;LIM DOO-HYEOK;;PARK YOUNG-SOO;;PARK YOUNG SOO;;CHO JIN-SUN;;LIM DOO HYEOK;;CHO JIN SUN;;KIM SANG SIG;;CHO KYOUNG-AH;;KIM SANG-SIK</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -5584,7 +5584,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>KR;;US;;CN</t>
+          <t>KR;;CN;;US</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -5608,12 +5608,12 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>H01L29/423;;H01L29/10;;H01L29/06;;H03K17/687;;H01L29/08;;H01L29/739;;G06N3/063</t>
+          <t>G06N3/063;;H03K17/687;;H01L29/423;;H01L29/06;;H01L29/08;;H01L29/739;;H01L29/10</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>H01L29/0847;;H03K17/6871;;H01L45/1206;;H03K17/165;;G06N3/0481;;H01L29/7391;;G06N3/0635;;H01L29/0657;;B82Y10/00;;H01L29/42392;;H01L29/0676;;G06N3/049;;G06N3/063;;H01L29/1033</t>
+          <t>G06N3/063;;H03K17/6871;;H03K17/165;;H01L29/7391;;H01L29/1033;;H01L29/0676;;H01L29/42392;;H01L29/0657;;G06N3/0481;;B82Y10/00;;H01L45/1206;;G06N3/0635;;G06N3/049;;H01L29/0847</t>
         </is>
       </c>
       <c r="R48" t="inlineStr"/>
@@ -5640,7 +5640,7 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>KR 20210023277 A;;CN 112418414 A;;US 2021/0056398 A1</t>
+          <t>CN 112418414 A;;KR 20210023277 A;;US 2021/0056398 A1</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
@@ -5657,17 +5657,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>000-924-163-689-210;;143-789-421-997-213;;042-088-088-360-484;;191-752-177-258-33X;;166-436-753-396-925;;023-676-481-169-696</t>
+          <t>191-752-177-258-33X;;166-436-753-396-925;;042-088-088-360-484;;143-789-421-997-213;;023-676-481-169-696;;000-924-163-689-210</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://lens.org/166-436-753-396-925;;https://lens.org/000-924-163-689-210;;https://lens.org/023-676-481-169-696;;https://lens.org/191-752-177-258-33X;;https://lens.org/143-789-421-997-213;;https://lens.org/042-088-088-360-484</t>
+          <t>https://lens.org/166-436-753-396-925;;https://lens.org/042-088-088-360-484;;https://lens.org/143-789-421-997-213;;https://lens.org/023-676-481-169-696;;https://lens.org/191-752-177-258-33X;;https://lens.org/000-924-163-689-210</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>ニューロモルフィックネットワーク;;신경형태 망;;NEUROMORPHIC NETWORK</t>
+          <t>ニューロモルフィックネットワーク;;NEUROMORPHIC NETWORK;;신경형태 망</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -5677,12 +5677,12 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>THE UNIV OF CANTERBURY;;ザ ユニバーシティー オブ カンタベリー</t>
+          <t>ザ ユニバーシティー オブ カンタベリー;;THE UNIV OF CANTERBURY</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>FOSTNER SHAWN;;ブラウン シモン アンソニー;;ボーズ サウラブ クマー;;BROWN SIMON ANTHONY;;フォスナー ショーン;;BOSE SAURABH KUMAR</t>
+          <t>BROWN SIMON ANTHONY;;BOSE SAURABH KUMAR;;ブラウン シモン アンソニー;;フォスナー ショーン;;FOSTNER SHAWN;;ボーズ サウラブ クマー</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -5695,17 +5695,17 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>US;;EP;;CN;;KR;;JP</t>
+          <t>EP;;CN;;US;;KR;;JP</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Search Report;;Patent Application</t>
+          <t>Patent Application;;Search Report</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>A1;;A4;;A</t>
+          <t>A4;;A1;;A</t>
         </is>
       </c>
       <c r="M49" t="n">
@@ -5719,7 +5719,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>H01L49/00;;G06N3/063;;G06N3/04;;B82Y10/00;;B82Y40/00;;B82Y30/00;;B82B3/00</t>
+          <t>G06N3/063;;B82Y40/00;;H01L49/00;;B82Y30/00;;B82B3/00;;B82Y10/00;;G06N3/04</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
@@ -5751,12 +5751,12 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>CN 108137312 A;;JP 2018530145 A;;EP 3317224 A4;;KR 20180051487 A;;US 2018/0197077 A1;;EP 3317224 A1</t>
+          <t>EP 3317224 A4;;JP 2018530145 A;;EP 3317224 A1;;KR 20180051487 A;;CN 108137312 A;;US 2018/0197077 A1</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>US 201615740791 A;;CN 201680039398 A;;EP 16818317 A;;KR 20187003064 A;;JP 2017568334 A</t>
+          <t>JP 2017568334 A;;KR 20187003064 A;;EP 16818317 A;;CN 201680039398 A;;US 201615740791 A</t>
         </is>
       </c>
     </row>
@@ -5788,12 +5788,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>BROWN SIMON ANTHONY;;THE UNIV OF CANTERBURY;;BOSE SAURABH KUMAR;;FOSTNER SHAWN</t>
+          <t>FOSTNER SHAWN;;BROWN SIMON ANTHONY;;THE UNIV OF CANTERBURY;;BOSE SAURABH KUMAR</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>BROWN SIMON ANTHONY;;BOSE SAURABH KUMAR;;FOSTNER SHAWN</t>
+          <t>FOSTNER SHAWN;;BROWN SIMON ANTHONY;;BOSE SAURABH KUMAR</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -5826,7 +5826,7 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>B82Y30/00;;B82B3/00;;B82Y10/00</t>
+          <t>B82Y30/00;;B82Y10/00;;B82B3/00</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
@@ -5875,17 +5875,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>035-130-560-396-513;;001-079-502-253-130;;114-160-458-226-391;;166-964-008-678-577;;163-192-380-009-138;;044-300-098-394-889;;000-934-395-077-394;;077-346-225-203-979;;038-126-807-734-99X;;180-073-430-817-518;;062-442-047-736-531;;102-668-769-413-639;;075-782-007-590-446;;108-663-655-304-325</t>
+          <t>001-079-502-253-130;;102-668-769-413-639;;038-126-807-734-99X;;163-192-380-009-138;;077-346-225-203-979;;035-130-560-396-513;;044-300-098-394-889;;062-442-047-736-531;;114-160-458-226-391;;180-073-430-817-518;;075-782-007-590-446;;166-964-008-678-577;;108-663-655-304-325;;000-934-395-077-394</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://lens.org/114-160-458-226-391;;https://lens.org/102-668-769-413-639;;https://lens.org/163-192-380-009-138;;https://lens.org/077-346-225-203-979;;https://lens.org/038-126-807-734-99X;;https://lens.org/001-079-502-253-130;;https://lens.org/035-130-560-396-513;;https://lens.org/062-442-047-736-531;;https://lens.org/075-782-007-590-446;;https://lens.org/044-300-098-394-889;;https://lens.org/000-934-395-077-394;;https://lens.org/166-964-008-678-577;;https://lens.org/180-073-430-817-518;;https://lens.org/108-663-655-304-325</t>
+          <t>https://lens.org/108-663-655-304-325;;https://lens.org/166-964-008-678-577;;https://lens.org/075-782-007-590-446;;https://lens.org/180-073-430-817-518;;https://lens.org/062-442-047-736-531;;https://lens.org/001-079-502-253-130;;https://lens.org/114-160-458-226-391;;https://lens.org/163-192-380-009-138;;https://lens.org/038-126-807-734-99X;;https://lens.org/000-934-395-077-394;;https://lens.org/077-346-225-203-979;;https://lens.org/035-130-560-396-513;;https://lens.org/102-668-769-413-639;;https://lens.org/044-300-098-394-889</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Methods of coding an decoding information;;METHODS OF CODING AND DECODING INFORMATION;;METHODS FOR CODING AND DECODING INFORMATION;;METHODS OF ENCODING AND DECODING INFORMATION;;Methods of coding and decoding information;;Methods of encoding and decoding information</t>
+          <t>Methods of coding and decoding information;;METHODS OF ENCODING AND DECODING INFORMATION;;Methods of coding an decoding information;;METHODS OF CODING AND DECODING INFORMATION;;Methods of encoding and decoding information;;METHODS FOR CODING AND DECODING INFORMATION</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -5895,12 +5895,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY</t>
+          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -5913,17 +5913,17 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>WO;;ZA;;IL;;CA;;US;;JP;;EP;;TW;;RU;;CN;;KR;;AU</t>
+          <t>EP;;TW;;CN;;US;;WO;;KR;;RU;;CA;;AU;;ZA;;JP;;IL</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Patent of Addition;;Patent Application;;Granted Patent</t>
+          <t>Patent Application;;Granted Patent;;Patent of Addition</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>D0;;A;;B2;;B;;A1;;C1</t>
+          <t>B2;;C1;;A1;;B;;D0;;A</t>
         </is>
       </c>
       <c r="M51" t="n">
@@ -5937,12 +5937,12 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>G06N3/12;;H03M7/06;;H03M13/00;;H03M13/47;;H03M7/14;;H04N/;;G06F11/08;;C12Q1/68;;G06K19/06;;B82Y10/00;;H03M7/28;;C12N15/09;;G06F19/22;;H03M7/30;;G06F17/30;;G06F19/10</t>
+          <t>H03M13/47;;C12Q1/68;;G06K19/06;;G06F19/22;;C12N15/09;;G06F17/30;;H04N/;;G06N3/12;;H03M7/14;;H03M13/00;;G06F19/10;;H03M7/28;;H03M7/30;;B82Y10/00;;H03M7/06;;G06F11/08</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>G06F11/10;;G06N3/123;;H03M13/01;;G16B99/00;;H03M13/00;;G06F11/08;;C12Q1/68;;G06F16/2228;;B82Y10/00;;G16B30/00;;H03M13/29</t>
+          <t>G06N3/123;;C12Q1/68;;G16B99/00;;H03M13/01;;H03M13/00;;G06F16/2228;;H03M13/29;;B82Y10/00;;G06F11/10;;G06F11/08;;G16B30/00</t>
         </is>
       </c>
       <c r="R51" t="inlineStr"/>
@@ -5969,12 +5969,12 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>EP 3416076 A1;;AU 2018/204252 B2;;CA 3008070 A1;;RU 2659025 C1;;TW I673604 B;;JP 2019009776 A;;US 2018/0365276 A1;;TW 201905691 A;;CN 109086890 A;;ZA 201803894 B;;IL 259907 D0;;AU 2018/204252 A1;;KR 20180136407 A;;WO 2018/231100 A1</t>
+          <t>RU 2659025 C1;;EP 3416076 A1;;AU 2018/204252 B2;;US 2018/0365276 A1;;TW I673604 B;;CN 109086890 A;;CA 3008070 A1;;AU 2018/204252 A1;;ZA 201803894 B;;TW 201905691 A;;KR 20180136407 A;;JP 2019009776 A;;IL 259907 D0;;WO 2018/231100 A1</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>CN 201810615395 A;;EP 18177823 A;;ZA 201803894 A;;US 201816008958 A;;RU 2018000384 W;;RU 2017120555 A;;IL 25990718 A;;JP 2018113817 A;;CA 3008070 A;;TW 107120605 A;;AU 2018/204252 A;;KR 20180068262 A</t>
+          <t>TW 107120605 A;;AU 2018/204252 A;;CN 201810615395 A;;EP 18177823 A;;JP 2018113817 A;;CA 3008070 A;;KR 20180068262 A;;IL 25990718 A;;US 201816008958 A;;ZA 201803894 A;;RU 2018000384 W;;RU 2017120555 A</t>
         </is>
       </c>
     </row>
@@ -5986,7 +5986,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>002-059-867-037-850;;002-603-512-307-539</t>
+          <t>002-603-512-307-539;;002-059-867-037-850</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -6006,12 +6006,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>LANDIGRAD LLC;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LLC;;스미르노브, 세르게이 니콜라예비치;;란디그레드, 리미티드 라이어빌리티 컴퍼니</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -6044,12 +6044,12 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>G06F16/22;;G06F11/10;;G06N3/12;;H03M13/01;;G16B30/00;;H03M13/29</t>
+          <t>G06N3/12;;G06F16/22;;H03M13/01;;H03M13/29;;G06F11/10;;G16B30/00</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>G06F11/10;;G06N3/123;;H03M13/01;;G16B99/00;;H03M13/00;;G06F11/08;;C12Q1/68;;G06F16/2228;;B82Y10/00;;G16B30/00;;H03M13/29</t>
+          <t>G06N3/123;;C12Q1/68;;G16B99/00;;H03M13/01;;H03M13/00;;G06F16/2228;;H03M13/29;;B82Y10/00;;G06F11/10;;G06F11/08;;G16B30/00</t>
         </is>
       </c>
       <c r="R52" t="inlineStr"/>
@@ -6076,7 +6076,7 @@
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>KR 20200014926 A;;KR 102269463 B1</t>
+          <t>KR 102269463 B1;;KR 20200014926 A</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
@@ -6151,12 +6151,12 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>G01N33/00;;G01N27/414;;B82Y15/00;;G06N20/00;;G01R23/177;;G16C60/00</t>
+          <t>G01N33/00;;G01R23/177;;G16C60/00;;G06N20/00;;G01N27/414;;B82Y15/00</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>G01N27/414;;G01N33/00;;G16C20/70;;G16C20/30;;B82Y30/00;;G06N20/00;;G01R23/177;;G16C60/00</t>
+          <t>G01N33/00;;G01R23/177;;B82Y30/00;;G16C20/70;;G16C60/00;;G06N20/00;;G01N27/414;;G16C20/30</t>
         </is>
       </c>
       <c r="R53" t="inlineStr"/>
@@ -6200,17 +6200,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>145-042-401-678-239;;027-716-622-208-177;;119-509-407-241-779;;181-571-309-454-653;;086-439-121-098-851;;136-452-791-198-630;;076-028-241-945-059;;144-606-189-820-123;;033-494-926-604-108;;160-664-290-293-52X;;004-336-178-048-63X;;127-396-891-419-410;;054-690-301-667-678;;109-116-047-040-788</t>
+          <t>109-116-047-040-788;;119-509-407-241-779;;136-452-791-198-630;;160-664-290-293-52X;;033-494-926-604-108;;076-028-241-945-059;;054-690-301-667-678;;086-439-121-098-851;;027-716-622-208-177;;127-396-891-419-410;;145-042-401-678-239;;181-571-309-454-653;;144-606-189-820-123;;004-336-178-048-63X</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://lens.org/119-509-407-241-779;;https://lens.org/136-452-791-198-630;;https://lens.org/109-116-047-040-788;;https://lens.org/144-606-189-820-123;;https://lens.org/004-336-178-048-63X;;https://lens.org/145-042-401-678-239;;https://lens.org/160-664-290-293-52X;;https://lens.org/027-716-622-208-177;;https://lens.org/033-494-926-604-108;;https://lens.org/076-028-241-945-059;;https://lens.org/181-571-309-454-653;;https://lens.org/127-396-891-419-410;;https://lens.org/054-690-301-667-678;;https://lens.org/086-439-121-098-851</t>
+          <t>https://lens.org/160-664-290-293-52X;;https://lens.org/086-439-121-098-851;;https://lens.org/144-606-189-820-123;;https://lens.org/119-509-407-241-779;;https://lens.org/109-116-047-040-788;;https://lens.org/033-494-926-604-108;;https://lens.org/054-690-301-667-678;;https://lens.org/076-028-241-945-059;;https://lens.org/127-396-891-419-410;;https://lens.org/181-571-309-454-653;;https://lens.org/004-336-178-048-63X;;https://lens.org/145-042-401-678-239;;https://lens.org/027-716-622-208-177;;https://lens.org/136-452-791-198-630</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>양자 비트에서 누설 제거;;量子ビットにおける漏れの除去;;Removing leakage in a quantum bit;;REMOVING LEAKAGE IN A QUANTUM BIT</t>
+          <t>REMOVING LEAKAGE IN A QUANTUM BIT;;量子ビットにおける漏れの除去;;Removing leakage in a quantum bit;;양자 비트에서 누설 제거</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -6220,17 +6220,17 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>グーグル エルエルシー;;ラミ・バレントス;;GOOGLE LLC;;구글 엘엘씨;;GOOGLE INC;;BARENDS RAMI</t>
+          <t>ラミ・バレントス;;BARENDS RAMI;;구글 엘엘씨;;GOOGLE LLC;;GOOGLE INC;;グーグル エルエルシー</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>ラミ・バレントス;;바엔즈 라미;;BARENDS RAMI</t>
+          <t>ラミ・バレントス;;BARENDS RAMI;;바엔즈 라미</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>GOOGLE LLC (2016-02-01);;GOOGLE LLC (2019-07-10);;GOOGLE LLC (2018-07-12)</t>
+          <t>GOOGLE LLC (2019-07-10);;GOOGLE LLC (2018-07-12);;GOOGLE LLC (2016-02-01)</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -6238,17 +6238,17 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>KR;;SG;;US;;AU;;JP;;EP;;CN;;WO;;CA</t>
+          <t>SG;;EP;;CN;;US;;WO;;KR;;CA;;AU;;JP</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Unknown;;Granted Patent;;Patent Application</t>
+          <t>Unknown;;Patent Application;;Granted Patent</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>C;;B1;;A;;B2;;A1</t>
+          <t>B2;;B1;;A1;;C;;A</t>
         </is>
       </c>
       <c r="M54" t="n">
@@ -6262,12 +6262,12 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>G02F3/00;;H03K3/38;;G06N99/00;;B82Y10/00;;G06N10/00;;H01L27/18</t>
+          <t>G06N99/00;;H01L27/18;;B82Y10/00;;H03K3/38;;G02F3/00;;G06N10/00</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>F41J7/04;;F41J1/10;;H03K3/38;;B82Y10/00;;G06N10/00;;F41J9/02;;G06N20/00;;A63F9/0204;;F41J5/18;;H01L27/18</t>
+          <t>A63F9/0204;;F41J5/18;;F41J1/10;;F41J7/04;;H01L27/18;;G06N20/00;;B82Y10/00;;H03K3/38;;G06N10/00;;F41J9/02</t>
         </is>
       </c>
       <c r="R54" t="inlineStr"/>
@@ -6294,12 +6294,12 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>SG 11201803545Q A;;US 10217057 B2;;AU 2015/412742 A1;;CA 3003695 A1;;JP 2018534638 A;;AU 2015/412742 B2;;CN 108701261 A;;CA 3003695 C;;EP 3369047 A1;;JP 6573727 B2;;WO 2017/074379 A1;;KR 102161140 B1;;KR 20180103833 A;;US 2018/0314967 A1</t>
+          <t>JP 6573727 B2;;EP 3369047 A1;;US 10217057 B2;;US 2018/0314967 A1;;SG 11201803545Q A;;CA 3003695 A1;;AU 2015/412742 B2;;KR 20180103833 A;;CA 3003695 C;;JP 2018534638 A;;KR 102161140 B1;;AU 2015/412742 A1;;CN 108701261 A;;WO 2017/074379 A1</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>SG 11201803545Q A;;US 201515771106 A;;US 2015/0057984 W;;KR 20187014604 A;;AU 2015/412742 A;;JP 2018542110 A;;EP 15794414 A;;CN 201580085007 A;;CA 3003695 A</t>
+          <t>KR 20187014604 A;;US 2015/0057984 W;;EP 15794414 A;;SG 11201803545Q A;;CA 3003695 A;;AU 2015/412742 A;;JP 2018542110 A;;CN 201580085007 A;;US 201515771106 A</t>
         </is>
       </c>
     </row>
@@ -6321,7 +6321,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Removing leakage in a quantum bit;;REMOVING LEAKAGE IN A QUANTUM BIT</t>
+          <t>REMOVING LEAKAGE IN A QUANTUM BIT;;Removing leakage in a quantum bit</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -6354,12 +6354,12 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Granted Patent;;Patent Application</t>
+          <t>Patent Application;;Granted Patent</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="M55" t="n">
@@ -6373,12 +6373,12 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>F41J7/04;;F41J1/10;;H03K3/38;;G06N10/00;;F41J9/02;;A63F9/02;;G06N20/00;;F41J5/18;;H01L27/18</t>
+          <t>A63F9/02;;F41J5/18;;F41J7/04;;F41J1/10;;H01L27/18;;G06N20/00;;H03K3/38;;G06N10/00;;F41J9/02</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>F41J7/04;;F41J1/10;;H03K3/38;;B82Y10/00;;G06N10/00;;F41J9/02;;G06N20/00;;A63F9/0204;;F41J5/18;;H01L27/18</t>
+          <t>A63F9/0204;;F41J5/18;;F41J1/10;;F41J7/04;;H01L27/18;;G06N20/00;;B82Y10/00;;H03K3/38;;G06N10/00;;F41J9/02</t>
         </is>
       </c>
       <c r="R55" t="inlineStr"/>
@@ -6484,12 +6484,12 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>F41J7/04;;F41J1/10;;H03K3/38;;G06N10/00;;F41J9/02;;G06N20/00;;F41J5/18;;H01L27/18</t>
+          <t>F41J5/18;;F41J1/10;;F41J7/04;;H01L27/18;;G06N20/00;;H03K3/38;;G06N10/00;;F41J9/02</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>F41J7/04;;F41J1/10;;H03K3/38;;B82Y10/00;;G06N10/00;;F41J9/02;;G06N20/00;;A63F9/0204;;F41J5/18;;H01L27/18</t>
+          <t>A63F9/0204;;F41J5/18;;F41J1/10;;F41J7/04;;H01L27/18;;G06N20/00;;B82Y10/00;;H03K3/38;;G06N10/00;;F41J9/02</t>
         </is>
       </c>
       <c r="R56" t="inlineStr"/>
@@ -6543,7 +6543,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Removing leakage in a quantum bit;;REMOVING LEAKAGE IN A QUANTUM BIT</t>
+          <t>REMOVING LEAKAGE IN A QUANTUM BIT;;Removing leakage in a quantum bit</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -6581,7 +6581,7 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="M57" t="n">
@@ -6595,12 +6595,12 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>F41J7/04;;F41J1/10;;G06N10/00;;F41J9/02;;A63F9/02;;F41J5/18</t>
+          <t>A63F9/02;;F41J7/04;;F41J1/10;;F41J5/18;;G06N10/00;;F41J9/02</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>F41J7/04;;F41J1/10;;H03K3/38;;B82Y10/00;;G06N10/00;;F41J9/02;;G06N20/00;;A63F9/0204;;F41J5/18;;H01L27/18</t>
+          <t>A63F9/0204;;F41J5/18;;F41J1/10;;F41J7/04;;H01L27/18;;G06N20/00;;B82Y10/00;;H03K3/38;;G06N10/00;;F41J9/02</t>
         </is>
       </c>
       <c r="R57" t="inlineStr"/>
@@ -6627,7 +6627,7 @@
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>US 10422607 B2;;US 2019/0186877 A1</t>
+          <t>US 2019/0186877 A1;;US 10422607 B2</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
@@ -6644,17 +6644,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>170-523-664-499-340;;047-713-326-117-82X;;197-942-427-280-157;;012-779-809-146-993</t>
+          <t>012-779-809-146-993;;047-713-326-117-82X;;197-942-427-280-157;;170-523-664-499-340</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://lens.org/012-779-809-146-993;;https://lens.org/170-523-664-499-340;;https://lens.org/197-942-427-280-157;;https://lens.org/047-713-326-117-82X</t>
+          <t>https://lens.org/197-942-427-280-157;;https://lens.org/170-523-664-499-340;;https://lens.org/047-713-326-117-82X;;https://lens.org/012-779-809-146-993</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>ION TRAPPING WITH INTEGRATED ELECTROMAGNETS;;Ion trapping with integrated electromagnets</t>
+          <t>Ion trapping with integrated electromagnets;;ION TRAPPING WITH INTEGRATED ELECTROMAGNETS</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -6682,17 +6682,17 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>EP;;US</t>
+          <t>US;;EP</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Granted Patent;;Patent Application</t>
+          <t>Patent Application;;Granted Patent</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>A1;;B2;;B1</t>
+          <t>B2;;A1;;B1</t>
         </is>
       </c>
       <c r="M58" t="n">
@@ -6706,12 +6706,12 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>G06N99/00;;H01J49/00;;H01J49/46;;H01J49/06;;B82Y10/00;;G21K1/00;;H01L29/94;;G04F5/14</t>
+          <t>G21K1/00;;H01J49/06;;G06N99/00;;H01J49/00;;B82Y10/00;;G04F5/14;;H01J49/46;;H01L29/94</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>H01J49/463;;H01L29/94;;B82Y10/00;;G21K1/00;;G06N10/00;;H01J49/06;;G06N20/00</t>
+          <t>G21K1/00;;H01J49/06;;H01J49/463;;G06N20/00;;B82Y10/00;;H01L29/94;;G06N10/00</t>
         </is>
       </c>
       <c r="R58" t="inlineStr"/>
@@ -6738,12 +6738,12 @@
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>US 2016/0372314 A1;;EP 3106427 A1;;EP 3106427 B1;;US 9548191 B2</t>
+          <t>EP 3106427 B1;;US 9548191 B2;;EP 3106427 A1;;US 2016/0372314 A1</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>US 201514742346 A;;EP 16164338 A</t>
+          <t>EP 16164338 A;;US 201514742346 A</t>
         </is>
       </c>
     </row>
@@ -6755,17 +6755,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>095-562-255-399-764;;163-360-212-151-338</t>
+          <t>163-360-212-151-338;;095-562-255-399-764</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://lens.org/095-562-255-399-764;;https://lens.org/163-360-212-151-338</t>
+          <t>https://lens.org/163-360-212-151-338;;https://lens.org/095-562-255-399-764</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>ION TRAPPING WITH INTEGRATED ELECTROMAGNETS;;Ion trapping with integrated electromagnets</t>
+          <t>Ion trapping with integrated electromagnets;;ION TRAPPING WITH INTEGRATED ELECTROMAGNETS</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -6794,12 +6794,12 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Granted Patent;;Patent Application</t>
+          <t>Patent Application;;Granted Patent</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="M59" t="n">
@@ -6813,12 +6813,12 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>G06N99/00;;H01L29/94;;H01J49/06;;G21K1/00;;B82Y10/00;;H01J49/46</t>
+          <t>G21K1/00;;H01J49/06;;G06N99/00;;H01J49/46;;B82Y10/00;;H01L29/94</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>H01J49/463;;H01L29/94;;B82Y10/00;;G21K1/00;;G06N10/00;;H01J49/06;;G06N20/00</t>
+          <t>G21K1/00;;H01J49/06;;H01J49/463;;G06N20/00;;B82Y10/00;;H01L29/94;;G06N10/00</t>
         </is>
       </c>
       <c r="R59" t="inlineStr"/>
@@ -6862,7 +6862,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>102-410-941-303-557;;024-412-645-047-335</t>
+          <t>024-412-645-047-335;;102-410-941-303-557</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -6887,7 +6887,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>DIAL OLIVER;;STEFFEN MATTHIAS;;GAMBETTA JAY M;;MCCLURE III DOUGLAS T</t>
+          <t>DIAL OLIVER;;MCCLURE III DOUGLAS T;;GAMBETTA JAY M;;STEFFEN MATTHIAS</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -6905,12 +6905,12 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Granted Patent;;Patent Application</t>
+          <t>Patent Application;;Granted Patent</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="M60" t="n">
@@ -6924,12 +6924,12 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>H01L39/02;;H01L39/24;;G06F17/00;;G06N99/00;;B82Y10/00;;H01L39/14</t>
+          <t>H01L39/24;;H01L39/02;;G06N99/00;;G06F17/00;;H01L39/14;;B82Y10/00</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>H01L39/24;;B82Y10/00;;G06N10/00;;H01L39/14;;H05K999/99;;G06N20/00</t>
+          <t>H01L39/24;;G06N20/00;;H01L39/14;;B82Y10/00;;G06N10/00;;H05K999/99</t>
         </is>
       </c>
       <c r="R60" t="inlineStr"/>
@@ -6973,12 +6973,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>185-410-845-133-114;;151-924-329-105-277;;055-623-784-141-019</t>
+          <t>151-924-329-105-277;;055-623-784-141-019;;185-410-845-133-114</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://lens.org/055-623-784-141-019;;https://lens.org/151-924-329-105-277;;https://lens.org/185-410-845-133-114</t>
+          <t>https://lens.org/185-410-845-133-114;;https://lens.org/151-924-329-105-277;;https://lens.org/055-623-784-141-019</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -6993,12 +6993,12 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>IBM (CHINA) INVEST COMPANY LTD;;IBM;;IBM UK</t>
+          <t>IBM UK;;IBM (CHINA) INVEST COMPANY LTD;;IBM</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>DIAL OLIVER;;GAMBETTA JAY;;GAMBETTA JAY M;;MCCLURE III DOUGLAS T;;STEFFEN MATTHIAS;;MCCLURE III DOUGLAS TEMPLETON</t>
+          <t>GAMBETTA JAY;;MCCLURE III DOUGLAS TEMPLETON;;DIAL OLIVER;;MCCLURE III DOUGLAS T;;STEFFEN MATTHIAS;;GAMBETTA JAY M</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="M61" t="n">
@@ -7035,12 +7035,12 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>H01P7/00;;H01L39/02;;G06F17/00;;H01L39/24;;G06N99/00;;H01L39/14;;H01P1/205</t>
+          <t>H01L39/24;;H01L39/02;;H01P7/00;;G06N99/00;;H01P1/205;;G06F17/00;;H01L39/14</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>H01P7/00;;H01L39/2493;;H01L39/24;;B82Y10/00;;G06N10/00;;H01P1/205;;H01L39/025;;H01L39/14;;G06N20/00;;H05K999/99</t>
+          <t>H01L39/025;;H01L39/24;;H01P7/00;;H01L39/2493;;G06N20/00;;H01P1/205;;H01L39/14;;B82Y10/00;;G06N10/00;;H05K999/99</t>
         </is>
       </c>
       <c r="R61" t="inlineStr"/>
@@ -7067,7 +7067,7 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>WO 2017/001951 A1;;US 2017/0062692 A1;;US 10283696 B2</t>
+          <t>WO 2017/001951 A1;;US 10283696 B2;;US 2017/0062692 A1</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
@@ -7084,7 +7084,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>082-686-752-226-904;;008-906-245-482-821</t>
+          <t>008-906-245-482-821;;082-686-752-226-904</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -7109,7 +7109,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>DIAL OLIVER;;STEFFEN MATTHIAS;;GAMBETTA JAY M;;MCCLURE III DOUGLAS T</t>
+          <t>DIAL OLIVER;;MCCLURE III DOUGLAS T;;GAMBETTA JAY M;;STEFFEN MATTHIAS</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -7127,7 +7127,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Granted Patent;;Patent Application</t>
+          <t>Patent Application;;Granted Patent</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -7146,12 +7146,12 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>H01P7/00;;H01L39/02;;H01L39/24;;B82Y10/00;;G06N10/00;;H01L39/14;;H01P1/205;;G06N20/00</t>
+          <t>H01L39/24;;H01L39/02;;H01P7/00;;G06N20/00;;H01P1/205;;H01L39/14;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>H01P7/00;;H01L39/2493;;H01L39/24;;B82Y10/00;;G06N10/00;;H01P1/205;;H01L39/025;;H01L39/14;;G06N20/00;;H05K999/99</t>
+          <t>H01L39/025;;H01L39/24;;H01P7/00;;H01L39/2493;;G06N20/00;;H01P1/205;;H01L39/14;;B82Y10/00;;G06N10/00;;H05K999/99</t>
         </is>
       </c>
       <c r="R62" t="inlineStr"/>
@@ -7178,7 +7178,7 @@
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>US 2020/0028065 A1;;US 10546994 B1</t>
+          <t>US 10546994 B1;;US 2020/0028065 A1</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
@@ -7200,7 +7200,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://lens.org/167-322-761-422-768;;https://lens.org/101-995-532-888-750</t>
+          <t>https://lens.org/101-995-532-888-750;;https://lens.org/167-322-761-422-768</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -7220,7 +7220,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>DIAL OLIVER;;STEFFEN MATTHIAS;;GAMBETTA JAY M;;MCCLURE III DOUGLAS T</t>
+          <t>DIAL OLIVER;;MCCLURE III DOUGLAS T;;GAMBETTA JAY M;;STEFFEN MATTHIAS</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -7243,7 +7243,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="M63" t="n">
@@ -7257,12 +7257,12 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>H01L39/24;;G06N99/00;;B82Y10/00;;G06N10/00;;H01L39/14;;G06N20/00</t>
+          <t>H01L39/24;;G06N99/00;;G06N20/00;;H01L39/14;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>H01L39/24;;B82Y10/00;;G06N10/00;;H01L39/14;;H05K999/99;;G06N20/00</t>
+          <t>H01L39/24;;G06N20/00;;H01L39/14;;B82Y10/00;;G06N10/00;;H05K999/99</t>
         </is>
       </c>
       <c r="R63" t="inlineStr"/>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>US 2018/0287039 A1;;US 10529909 B2</t>
+          <t>US 10529909 B2;;US 2018/0287039 A1</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
@@ -7306,7 +7306,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>064-885-509-498-458;;015-914-741-952-531</t>
+          <t>015-914-741-952-531;;064-885-509-498-458</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -7331,7 +7331,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>DIAL OLIVER;;STEFFEN MATTHIAS;;GAMBETTA JAY M;;MCCLURE III DOUGLAS T</t>
+          <t>DIAL OLIVER;;MCCLURE III DOUGLAS T;;GAMBETTA JAY M;;STEFFEN MATTHIAS</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -7354,7 +7354,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="M64" t="n">
@@ -7368,12 +7368,12 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H01L39/14;;G06N99/00;;H01L39/24</t>
+          <t>H01L39/24;;H01L39/14;;B82Y10/00;;G06N99/00</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>H01L39/24;;B82Y10/00;;G06N10/00;;H01L39/14;;H05K999/99;;G06N20/00</t>
+          <t>H01L39/24;;G06N20/00;;H01L39/14;;B82Y10/00;;G06N10/00;;H05K999/99</t>
         </is>
       </c>
       <c r="R64" t="inlineStr"/>
@@ -7400,7 +7400,7 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>US 10211386 B2;;US 2018/0287040 A1</t>
+          <t>US 2018/0287040 A1;;US 10211386 B2</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
@@ -7442,7 +7442,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW</t>
+          <t>BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -7479,12 +7479,12 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>A61B5/00;;A61B5/11</t>
+          <t>A61B5/11;;A61B5/00</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>A61B2562/0219;;A61B5/7246;;G16H10/60;;B81B7/007;;A61B5/1123;;A61B2560/0475;;A61B5/0022;;A61B5/7282;;A61B5/1118;;A61B2562/028;;B81B7/0087;;G06Q40/08;;G16H40/67;;A61B5/681;;A61B5/7264;;A61B5/0024</t>
+          <t>A61B2562/028;;A61B2560/0475;;B81B7/007;;G06Q40/08;;G16H10/60;;A61B5/1118;;A61B5/681;;A61B5/7264;;G16H40/67;;A61B5/0024;;A61B5/0022;;A61B2562/0219;;B81B7/0087;;A61B5/1123;;A61B5/7246;;A61B5/7282</t>
         </is>
       </c>
       <c r="R65" t="inlineStr"/>
@@ -7533,7 +7533,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://lens.org/178-274-931-648-096;;https://lens.org/189-635-522-775-510</t>
+          <t>https://lens.org/189-635-522-775-510;;https://lens.org/178-274-931-648-096</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -7548,12 +7548,12 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW;;HARTFORD FIRE INSURANCE COMP</t>
+          <t>BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW</t>
+          <t>BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -7571,12 +7571,12 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Granted Patent;;Patent Application</t>
+          <t>Patent Application;;Granted Patent</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="M66" t="n">
@@ -7590,12 +7590,12 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>A61B5/00;;B81B7/00;;A61B5/11</t>
+          <t>A61B5/11;;B81B7/00;;A61B5/00</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>A61B2562/0219;;A61B5/7246;;G16H10/60;;B81B7/007;;A61B5/1123;;A61B2560/0475;;A61B5/0022;;A61B5/7282;;A61B5/1118;;A61B2562/028;;B81B7/0087;;G06Q40/08;;G16H40/67;;A61B5/681;;A61B5/7264;;A61B5/0024</t>
+          <t>A61B2562/028;;A61B2560/0475;;B81B7/007;;G06Q40/08;;G16H10/60;;A61B5/1118;;A61B5/681;;A61B5/7264;;G16H40/67;;A61B5/0024;;A61B5/0022;;A61B2562/0219;;B81B7/0087;;A61B5/1123;;A61B5/7246;;A61B5/7282</t>
         </is>
       </c>
       <c r="R66" t="inlineStr"/>
@@ -7622,7 +7622,7 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>US 2017/0240419 A1;;US 9969612 B2</t>
+          <t>US 9969612 B2;;US 2017/0240419 A1</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
@@ -7639,7 +7639,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>123-869-793-750-750;;188-510-083-688-347</t>
+          <t>188-510-083-688-347;;123-869-793-750-750</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -7649,7 +7649,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>MICROELECTROMECHANICAL ACCELEROMETER BASED SENSOR SYSTEM;;Microelectromechanical accelerometer based sensor system</t>
+          <t>Microelectromechanical accelerometer based sensor system;;MICROELECTROMECHANICAL ACCELEROMETER BASED SENSOR SYSTEM</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -7664,7 +7664,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW</t>
+          <t>BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
@@ -7683,7 +7683,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="M67" t="n">
@@ -7697,12 +7697,12 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>A61B5/00;;B81B7/00;;A61B5/11</t>
+          <t>A61B5/11;;B81B7/00;;A61B5/00</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>A61B2562/0219;;A61B5/7246;;G16H10/60;;B81B7/007;;A61B5/1123;;A61B2560/0475;;A61B5/0022;;A61B5/7282;;A61B5/1118;;A61B2562/028;;B81B7/0087;;G06Q40/08;;G16H40/67;;A61B5/681;;A61B5/7264;;A61B5/0024</t>
+          <t>A61B2562/028;;A61B2560/0475;;B81B7/007;;G06Q40/08;;G16H10/60;;A61B5/1118;;A61B5/681;;A61B5/7264;;G16H40/67;;A61B5/0024;;A61B5/0022;;A61B2562/0219;;B81B7/0087;;A61B5/1123;;A61B5/7246;;A61B5/7282</t>
         </is>
       </c>
       <c r="R67" t="inlineStr"/>
@@ -7746,17 +7746,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>091-928-229-377-519;;189-518-628-052-967</t>
+          <t>189-518-628-052-967;;091-928-229-377-519</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://lens.org/091-928-229-377-519;;https://lens.org/189-518-628-052-967</t>
+          <t>https://lens.org/189-518-628-052-967;;https://lens.org/091-928-229-377-519</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>MICROELECTROMECHANICAL ACCELEROMETER BASED SENSOR SYSTEM;;Microelectromechanical accelerometer based sensor system</t>
+          <t>Microelectromechanical accelerometer based sensor system;;MICROELECTROMECHANICAL ACCELEROMETER BASED SENSOR SYSTEM</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -7771,7 +7771,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW</t>
+          <t>BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -7790,7 +7790,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="M68" t="n">
@@ -7804,12 +7804,12 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>G08C19/22;;G16H10/60;;B81B7/00;;A61B5/00;;A61B5/11</t>
+          <t>G08C19/22;;B81B7/00;;A61B5/00;;A61B5/11;;G16H10/60</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>A61B2562/0219;;A61B5/7246;;G16H10/60;;B81B7/007;;A61B5/1123;;A61B2560/0475;;A61B5/0022;;A61B2562/028;;A61B5/1118;;A61B5/7282;;G06Q40/08;;B81B7/0087;;G16H40/67;;A61B5/681;;A61B5/7264;;A61B5/0024</t>
+          <t>A61B2562/028;;A61B2560/0475;;B81B7/007;;G06Q40/08;;A61B5/1118;;A61B5/681;;A61B5/7264;;G16H40/67;;A61B5/7282;;A61B5/0024;;A61B5/0022;;A61B2562/0219;;B81B7/0087;;A61B5/1123;;A61B5/7246;;G16H10/60</t>
         </is>
       </c>
       <c r="R68" t="inlineStr"/>
@@ -7836,7 +7836,7 @@
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>US 10793423 B2;;US 2019/0292044 A1</t>
+          <t>US 2019/0292044 A1;;US 10793423 B2</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
@@ -7916,7 +7916,7 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>G06N99/00;;G06F9/45504;;B82Y10/00;;G06N10/00;;G06N7/005;;G06N3/126</t>
+          <t>G06N3/126;;G06N99/00;;G06F9/45504;;B82Y10/00;;G06N7/005;;G06N10/00</t>
         </is>
       </c>
       <c r="R69" t="inlineStr"/>
@@ -7960,17 +7960,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>061-619-330-497-243;;165-599-734-061-37X;;094-655-367-009-253;;053-474-667-599-726;;086-576-713-592-977;;127-103-433-799-24X;;043-608-201-196-560;;127-853-431-567-747</t>
+          <t>053-474-667-599-726;;165-599-734-061-37X;;086-576-713-592-977;;094-655-367-009-253;;043-608-201-196-560;;061-619-330-497-243;;127-103-433-799-24X;;127-853-431-567-747</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://lens.org/127-853-431-567-747;;https://lens.org/043-608-201-196-560;;https://lens.org/053-474-667-599-726;;https://lens.org/086-576-713-592-977;;https://lens.org/094-655-367-009-253;;https://lens.org/127-103-433-799-24X;;https://lens.org/165-599-734-061-37X;;https://lens.org/061-619-330-497-243</t>
+          <t>https://lens.org/127-853-431-567-747;;https://lens.org/043-608-201-196-560;;https://lens.org/061-619-330-497-243;;https://lens.org/127-103-433-799-24X;;https://lens.org/053-474-667-599-726;;https://lens.org/165-599-734-061-37X;;https://lens.org/086-576-713-592-977;;https://lens.org/094-655-367-009-253</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Quanton Representation For Emulating Quantum-Like Computation On Classical Processors;;古典的なプロセッサで量子類似計算をエミュレートするためのＱＵＡＮＴＯＮ表現;;고전적 프로세서 상에서 양자-유사 계산을 에뮬레이트하기 위한 퀀톤 표현;;QUANTON REPRESENTATION FOR EMULATING QUANTUM-LIKE COMPUTATION ON CLASSICAL PROCESSORS;;Quanton representation for emulating quantum-like computation on classical processors</t>
+          <t>Quanton representation for emulating quantum-like computation on classical processors;;고전적 프로세서 상에서 양자-유사 계산을 에뮬레이트하기 위한 퀀톤 표현;;Quanton Representation For Emulating Quantum-Like Computation On Classical Processors;;QUANTON REPRESENTATION FOR EMULATING QUANTUM-LIKE COMPUTATION ON CLASSICAL PROCESSORS;;古典的なプロセッサで量子類似計算をエミュレートするためのＱＵＡＮＴＯＮ表現</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -7980,12 +7980,12 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>KYNDI INC;;킨디 인코포레이티드;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．</t>
+          <t>キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;KYNDI INC;;킨디 인코포레이티드</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>마줌다 아룬;;MAJUMDAR ARUN;;アルン、マジュムダール</t>
+          <t>アルン、マジュムダール;;MAJUMDAR ARUN;;마줌다 아룬</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
@@ -7994,17 +7994,17 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>AU;;JP;;EP;;CN;;KR;;CA</t>
+          <t>EP;;CN;;KR;;CA;;AU;;JP</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Search Report;;Granted Patent;;Patent Application</t>
+          <t>Granted Patent;;Patent Application;;Search Report</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>A1;;A4;;A;;B1</t>
+          <t>A4;;A1;;A;;B1</t>
         </is>
       </c>
       <c r="M70" t="n">
@@ -8018,12 +8018,12 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>G06N3/12;;G06N7/00;;G06F9/455;;G06N99/00;;B82Y10/00;;G06F7/60</t>
+          <t>G06F9/455;;G06F7/60;;G06N3/12;;G06N99/00;;B82Y10/00;;G06N7/00</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>G06N99/00;;G06F9/45504;;B82Y10/00;;G06N10/00;;G06N7/005;;G06N3/126</t>
+          <t>G06N3/126;;G06N99/00;;G06F9/45504;;B82Y10/00;;G06N7/005;;G06N10/00</t>
         </is>
       </c>
       <c r="R70" t="inlineStr"/>
@@ -8050,12 +8050,12 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>AU 2016/258029 A1;;JP 2018521382 A;;EP 3292466 A4;;CN 107683460 A;;CA 2983880 A1;;EP 3292466 A1;;KR 102141274 B1;;KR 20180004226 A</t>
+          <t>CN 107683460 A;;KR 102141274 B1;;AU 2016/258029 A1;;KR 20180004226 A;;CA 2983880 A1;;EP 3292466 A1;;JP 2018521382 A;;EP 3292466 A4</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>CA 2983880 A;;JP 2017557330 A;;EP 16790101 A;;AU 2016/258029 A;;KR 20177035068 A;;CN 201680034976 A</t>
+          <t>EP 16790101 A;;AU 2016/258029 A;;JP 2017557330 A;;CA 2983880 A;;CN 201680034976 A;;KR 20177035068 A</t>
         </is>
       </c>
     </row>
@@ -8072,12 +8072,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://lens.org/088-132-024-309-326;;https://lens.org/144-582-622-252-937</t>
+          <t>https://lens.org/144-582-622-252-937;;https://lens.org/088-132-024-309-326</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Quanton representation for emulating quantum-like computation on classical processors;;QUANTON REPRESENTATION FOR EMULATING QUANTUM-LIKE COMPUTATION ON CLASSICAL PROCESSORS</t>
+          <t>QUANTON REPRESENTATION FOR EMULATING QUANTUM-LIKE COMPUTATION ON CLASSICAL PROCESSORS;;Quanton representation for emulating quantum-like computation on classical processors</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -8110,12 +8110,12 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Granted Patent;;Patent Application</t>
+          <t>Patent Application;;Granted Patent</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="M71" t="n">
@@ -8129,12 +8129,12 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>G06N3/12;;G06N7/00;;G06F9/455;;G06N99/00;;G06F17/18;;G06N10/00</t>
+          <t>G06F9/455;;G06N3/12;;G06N99/00;;G06N10/00;;G06N7/00;;G06F17/18</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>G06N99/00;;G06F9/45504;;B82Y10/00;;G06N10/00;;G06N7/005;;G06N3/126</t>
+          <t>G06N3/126;;G06N99/00;;G06F9/45504;;B82Y10/00;;G06N7/005;;G06N10/00</t>
         </is>
       </c>
       <c r="R71" t="inlineStr"/>
@@ -8161,7 +8161,7 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>US 10452989 B2;;US 2016/0328253 A1</t>
+          <t>US 2016/0328253 A1;;US 10452989 B2</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
@@ -8236,12 +8236,12 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>G06N3/12;;G06F9/455;;G06N10/00</t>
+          <t>G06N10/00;;G06N3/12;;G06F9/455</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>G06N99/00;;G06F9/45504;;B82Y10/00;;G06N10/00;;G06N7/005;;G06N3/126</t>
+          <t>G06N3/126;;G06N99/00;;G06F9/45504;;B82Y10/00;;G06N7/005;;G06N10/00</t>
         </is>
       </c>
       <c r="R72" t="inlineStr"/>
@@ -8310,7 +8310,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>ROLFE JASON;;AMIN MOHAMMAD H S;;ANDRIYASH EVGENY</t>
+          <t>ROLFE JASON;;ANDRIYASH EVGENY;;AMIN MOHAMMAD H S</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
@@ -8348,7 +8348,7 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>G06N3/0445;;G06N3/0472;;B82Y10/00;;G06N10/00;;G06N3/088;;G06N20/00</t>
+          <t>G06N3/0445;;G06N20/00;;G06N3/0472;;B82Y10/00;;G06N3/088;;G06N10/00</t>
         </is>
       </c>
       <c r="R73" t="inlineStr"/>
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>169-871-701-653-729;;080-625-574-321-236;;069-459-329-577-52X</t>
+          <t>080-625-574-321-236;;069-459-329-577-52X;;169-871-701-653-729</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -8417,7 +8417,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>ROLFE JASON;;AMIN MOHAMMAD H S;;ANDRIYASH EVGENY</t>
+          <t>ROLFE JASON;;ANDRIYASH EVGENY;;AMIN MOHAMMAD H S</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
@@ -8426,17 +8426,17 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>EP;;CN</t>
+          <t>CN;;EP</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Search Report;;Patent Application</t>
+          <t>Patent Application;;Search Report</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>A1;;A4;;A</t>
+          <t>A4;;A1;;A</t>
         </is>
       </c>
       <c r="M74" t="n">
@@ -8455,7 +8455,7 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>G06N3/0445;;G06N3/0472;;B82Y10/00;;G06N10/00;;G06N3/088;;G06N20/00</t>
+          <t>G06N3/0445;;G06N20/00;;G06N3/0472;;B82Y10/00;;G06N3/088;;G06N10/00</t>
         </is>
       </c>
       <c r="R74" t="inlineStr"/>
@@ -8482,7 +8482,7 @@
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>CN 108369668 A;;EP 3362952 A4;;EP 3362952 A1</t>
+          <t>EP 3362952 A4;;CN 108369668 A;;EP 3362952 A1</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
@@ -8524,7 +8524,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>ROLFE JASON;;AMIN MOHAMMAD H S;;ANDRIYASH EVGENY</t>
+          <t>ROLFE JASON;;ANDRIYASH EVGENY;;AMIN MOHAMMAD H S</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -8566,7 +8566,7 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>G06N3/0445;;G06N3/0472;;B82Y10/00;;G06N10/00;;G06N3/088;;G06N20/00</t>
+          <t>G06N3/0445;;G06N20/00;;G06N3/0472;;B82Y10/00;;G06N3/088;;G06N10/00</t>
         </is>
       </c>
       <c r="R75" t="inlineStr"/>
@@ -8610,17 +8610,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>074-976-860-213-786;;198-318-690-704-612;;133-953-218-172-493;;110-865-928-572-286;;023-877-193-105-410;;165-707-705-470-436;;191-543-293-857-398</t>
+          <t>110-865-928-572-286;;191-543-293-857-398;;023-877-193-105-410;;074-976-860-213-786;;165-707-705-470-436;;198-318-690-704-612;;133-953-218-172-493</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://lens.org/023-877-193-105-410;;https://lens.org/191-543-293-857-398;;https://lens.org/165-707-705-470-436;;https://lens.org/074-976-860-213-786;;https://lens.org/133-953-218-172-493;;https://lens.org/198-318-690-704-612;;https://lens.org/110-865-928-572-286</t>
+          <t>https://lens.org/191-543-293-857-398;;https://lens.org/074-976-860-213-786;;https://lens.org/198-318-690-704-612;;https://lens.org/023-877-193-105-410;;https://lens.org/165-707-705-470-436;;https://lens.org/110-865-928-572-286;;https://lens.org/133-953-218-172-493</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>TRAINING QUANTUM EVOLUTIONS USING SUBLOGICAL CONTROLS;;サブ論理制御を使用する量子進化のトレーニング;;Training quantum evolutions using sublogical controls</t>
+          <t>Training quantum evolutions using sublogical controls;;TRAINING QUANTUM EVOLUTIONS USING SUBLOGICAL CONTROLS;;サブ論理制御を使用する量子進化のトレーニング</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -8635,7 +8635,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>ハルトムート・ネーヴェン;;ライアン・バブシュ;;BABBUSH RYAN;;NEVEN HARTMUT</t>
+          <t>ライアン・バブシュ;;NEVEN HARTMUT;;BABBUSH RYAN;;ハルトムート・ネーヴェン</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
@@ -8644,7 +8644,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>CA;;AU;;EP;;CN;;JP</t>
+          <t>EP;;CN;;CA;;AU;;JP</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -8654,7 +8654,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>A1;;A;;B2</t>
+          <t>B2;;A1;;A</t>
         </is>
       </c>
       <c r="M76" t="n">
@@ -8668,12 +8668,12 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>G06N20/00;;B82Y10/00;;G06N10/00;;G06N99/00</t>
+          <t>G06N20/00;;G06N10/00;;B82Y10/00;;G06N99/00</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>G16C10/00;;B82Y10/00;;G06N10/00;;G06N5/003;;G06N20/00</t>
+          <t>G06N5/003;;G06N20/00;;B82Y10/00;;G16C10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="R76" t="inlineStr"/>
@@ -8700,12 +8700,12 @@
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>AU 2016/408764 B2;;JP 6755337 B2;;CA 3026443 A1;;EP 3465555 A1;;CN 109478258 A;;AU 2016/408764 A1;;JP 2019520645 A</t>
+          <t>AU 2016/408764 A1;;EP 3465555 A1;;CN 109478258 A;;CA 3026443 A1;;JP 6755337 B2;;AU 2016/408764 B2;;JP 2019520645 A</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>CN 201680087746 A;;EP 16825955 A;;CA 3026443 A;;JP 2018562952 A;;AU 2016/408764 A</t>
+          <t>CA 3026443 A;;CN 201680087746 A;;EP 16825955 A;;JP 2018562952 A;;AU 2016/408764 A</t>
         </is>
       </c>
     </row>
@@ -8717,17 +8717,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>175-413-197-129-096;;144-144-283-847-927;;151-132-986-237-59X</t>
+          <t>175-413-197-129-096;;151-132-986-237-59X;;144-144-283-847-927</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://lens.org/175-413-197-129-096;;https://lens.org/144-144-283-847-927;;https://lens.org/151-132-986-237-59X</t>
+          <t>https://lens.org/144-144-283-847-927;;https://lens.org/175-413-197-129-096;;https://lens.org/151-132-986-237-59X</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>TRAINING QUANTUM EVOLUTIONS USING SUBLOGICAL CONTROLS;;Training quantum evolutions using sublogical controls</t>
+          <t>Training quantum evolutions using sublogical controls;;TRAINING QUANTUM EVOLUTIONS USING SUBLOGICAL CONTROLS</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -8742,7 +8742,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>BABBUSH RYAN;;NEVEN HARTMUT</t>
+          <t>NEVEN HARTMUT;;BABBUSH RYAN</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -8760,12 +8760,12 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Granted Patent;;Patent Application</t>
+          <t>Patent Application;;Granted Patent</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="M77" t="n">
@@ -8779,12 +8779,12 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>G06N20/00;;B82Y10/00;;G06N10/00;;G06N99/00</t>
+          <t>G06N20/00;;G06N10/00;;B82Y10/00;;G06N99/00</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>G16C10/00;;B82Y10/00;;G06N10/00;;G06N5/003;;G06N20/00</t>
+          <t>G06N5/003;;G06N20/00;;B82Y10/00;;G16C10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="R77" t="inlineStr"/>
@@ -8811,7 +8811,7 @@
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>US 2017/0351967 A1;;US 10275717 B2;;WO 2017/209791 A1</t>
+          <t>WO 2017/209791 A1;;US 10275717 B2;;US 2017/0351967 A1</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
@@ -8838,7 +8838,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>TRAINING QUANTUM EVOLUTIONS USING SUBLOGICAL CONTROLS;;Training quantum evolutions using sublogical controls</t>
+          <t>Training quantum evolutions using sublogical controls;;TRAINING QUANTUM EVOLUTIONS USING SUBLOGICAL CONTROLS</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -8853,7 +8853,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>BABBUSH RYAN;;NEVEN HARTMUT</t>
+          <t>NEVEN HARTMUT;;BABBUSH RYAN</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -8871,12 +8871,12 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Granted Patent;;Patent Application</t>
+          <t>Patent Application;;Granted Patent</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="M78" t="n">
@@ -8890,12 +8890,12 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>G06N20/00;;B82Y10/00;;G06N10/00</t>
+          <t>G06N20/00;;G06N10/00;;B82Y10/00</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>G16C10/00;;B82Y10/00;;G06N10/00;;G06N5/003;;G06N20/00</t>
+          <t>G06N5/003;;G06N20/00;;B82Y10/00;;G16C10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="R78" t="inlineStr"/>
@@ -8922,7 +8922,7 @@
       </c>
       <c r="X78" t="inlineStr">
         <is>
-          <t>US 11055626 B2;;US 2019/0213495 A1</t>
+          <t>US 2019/0213495 A1;;US 11055626 B2</t>
         </is>
       </c>
       <c r="Y78" t="inlineStr">
@@ -8939,17 +8939,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>193-203-788-489-584;;162-900-997-782-030;;010-852-607-896-927;;090-372-502-956-689</t>
+          <t>090-372-502-956-689;;162-900-997-782-030;;010-852-607-896-927;;193-203-788-489-584</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://lens.org/090-372-502-956-689;;https://lens.org/193-203-788-489-584;;https://lens.org/010-852-607-896-927;;https://lens.org/162-900-997-782-030</t>
+          <t>https://lens.org/162-900-997-782-030;;https://lens.org/090-372-502-956-689;;https://lens.org/010-852-607-896-927;;https://lens.org/193-203-788-489-584</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Method and process of implementing machine learning in complex multivariate wafer processing equipment;;METHOD AND PROCESS OF IMPLEMENTING MACHINE LEARNING IN COMPLEX MULTIVARIATE WAFER PROCESSING EQUIPMENT;;Method and Process of Implementing Machine Learning in Complex Multivariate Wafer Processing Equipment</t>
+          <t>Method and Process of Implementing Machine Learning in Complex Multivariate Wafer Processing Equipment;;METHOD AND PROCESS OF IMPLEMENTING MACHINE LEARNING IN COMPLEX MULTIVARIATE WAFER PROCESSING EQUIPMENT;;Method and process of implementing machine learning in complex multivariate wafer processing equipment</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -8964,7 +8964,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>GUHA JOYDEEP;;DAUGHERTY JOHN;;GOTTSCHO RICHARD ALAN;;VAHEDI VAHID</t>
+          <t>GUHA JOYDEEP;;VAHEDI VAHID;;DAUGHERTY JOHN;;GOTTSCHO RICHARD ALAN</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -8977,17 +8977,17 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>US;;TW;;WO</t>
+          <t>TW;;US;;WO</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Patent of Addition;;Patent Application;;Granted Patent</t>
+          <t>Patent Application;;Granted Patent;;Patent of Addition</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>A1;;A;;B2</t>
+          <t>B2;;A1;;A</t>
         </is>
       </c>
       <c r="M79" t="n">
@@ -9001,12 +9001,12 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>C23C14/34;;G01L21/30;;H05H1/46;;H01J37/32;;H01L21/67;;H01L21/3065;;H01L21/205</t>
+          <t>H05H1/46;;G01L21/30;;H01L21/67;;H01J37/32;;H01L21/3065;;C23C14/34;;H01L21/205</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>H01L21/67253;;H01J37/32082;;H01J37/32972;;H01J37/32935;;H01J37/3299;;H01L21/3065;;H01J37/32926;;H01L21/67242;;H01L21/67248;;B81C2201/0138;;H01L21/67069;;H01J2237/334</t>
+          <t>H01J2237/334;;H01L21/67248;;H01J37/3299;;H01J37/32935;;H01J37/32082;;B81C2201/0138;;H01J37/32926;;H01J37/32972;;H01L21/3065;;H01L21/67069;;H01L21/67242;;H01L21/67253</t>
         </is>
       </c>
       <c r="R79" t="inlineStr"/>
@@ -9033,7 +9033,7 @@
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>TW 201826318 A;;WO 2018/052698 A1;;US 2018/0082826 A1;;US 9972478 B2</t>
+          <t>WO 2018/052698 A1;;US 9972478 B2;;US 2018/0082826 A1;;TW 201826318 A</t>
         </is>
       </c>
       <c r="Y79" t="inlineStr">
@@ -9050,17 +9050,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>063-672-641-489-457;;091-701-308-686-233;;124-585-563-874-282;;105-241-204-517-170;;038-281-359-281-818</t>
+          <t>091-701-308-686-233;;124-585-563-874-282;;063-672-641-489-457;;038-281-359-281-818;;105-241-204-517-170</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://lens.org/038-281-359-281-818;;https://lens.org/105-241-204-517-170;;https://lens.org/124-585-563-874-282;;https://lens.org/091-701-308-686-233;;https://lens.org/063-672-641-489-457</t>
+          <t>https://lens.org/038-281-359-281-818;;https://lens.org/105-241-204-517-170;;https://lens.org/091-701-308-686-233;;https://lens.org/063-672-641-489-457;;https://lens.org/124-585-563-874-282</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>METHOD AND PROCESS OF IMPLEMENTING MACHINE LEARNING IN COMPLEX MULTIVARIATE WAFER PROCESSING EQUIPMENT;;複雑な多変量ウエハ処理機器における機械学習を実行する方法及びプロセス;;복잡한 다변수 웨이퍼 프로세싱 장비에서 머신 러닝을 구현하는 방법 및 프로세스</t>
+          <t>複雑な多変量ウエハ処理機器における機械学習を実行する方法及びプロセス;;METHOD AND PROCESS OF IMPLEMENTING MACHINE LEARNING IN COMPLEX MULTIVARIATE WAFER PROCESSING EQUIPMENT;;복잡한 다변수 웨이퍼 프로세싱 장비에서 머신 러닝을 구현하는 방법 및 프로세스</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -9075,7 +9075,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>GOTTSCHO RICHARD ALAN;;DAUGHERTY JOHN;;ゴットショ・リチャード・アラン;;ダウガティ・ジョン;;GUHA JOYDEEP;;VAHEDI VAHID;;バヘディ・バヘド;;グーハ・ジョイディープ</t>
+          <t>バヘディ・バヘド;;GOTTSCHO RICHARD ALAN;;GUHA JOYDEEP;;グーハ・ジョイディープ;;ゴットショ・リチャード・アラン;;ダウガティ・ジョン;;VAHEDI VAHID;;DAUGHERTY JOHN</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
@@ -9084,17 +9084,17 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>EP;;KR;;JP;;CN</t>
+          <t>JP;;CN;;KR;;EP</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Search Report;;Patent Application</t>
+          <t>Patent Application;;Search Report</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>A1;;A4;;A</t>
+          <t>A4;;A1;;A</t>
         </is>
       </c>
       <c r="M80" t="n">
@@ -9108,12 +9108,12 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>C23C14/34;;H05H1/46;;C23C16/52;;H01L21/31;;H01L21/3065;;H01J37/32;;H01L21/67;;H01L21/205;;H05H1/00</t>
+          <t>C23C16/52;;C23C14/34;;H05H1/46;;H01J37/32;;H01L21/67;;H01L21/3065;;H01L21/31;;H05H1/00;;H01L21/205</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>H01L21/67253;;H01J37/32082;;H01J37/32972;;H01J37/32935;;H01J37/3299;;H01L21/3065;;H01J37/32926;;H01L21/67242;;H01L21/67248;;B81C2201/0138;;H01L21/67069;;H01J2237/334</t>
+          <t>H01J2237/334;;H01L21/67248;;H01J37/3299;;H01J37/32935;;H01J37/32082;;B81C2201/0138;;H01J37/32926;;H01J37/32972;;H01L21/3065;;H01L21/67069;;H01L21/67242;;H01L21/67253</t>
         </is>
       </c>
       <c r="R80" t="inlineStr"/>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>CN 109715848 A;;EP 3512977 A1;;JP 2019537240 A;;KR 20190049796 A;;EP 3512977 A4</t>
+          <t>CN 109715848 A;;JP 2019537240 A;;EP 3512977 A1;;EP 3512977 A4;;KR 20190049796 A</t>
         </is>
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>EP 17851300 A;;KR 20197009604 A;;CN 201780056833 A;;JP 2019513313 A</t>
+          <t>KR 20197009604 A;;CN 201780056833 A;;JP 2019513313 A;;EP 17851300 A</t>
         </is>
       </c>
     </row>
@@ -9157,17 +9157,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>105-441-254-491-980;;114-895-694-698-531</t>
+          <t>114-895-694-698-531;;105-441-254-491-980</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://lens.org/114-895-694-698-531;;https://lens.org/105-441-254-491-980</t>
+          <t>https://lens.org/105-441-254-491-980;;https://lens.org/114-895-694-698-531</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>System Implementing Machine Learning in Complex Multivariate Wafer Processing Equipment;;System implementing machine learning in complex multivariate wafer processing equipment</t>
+          <t>System implementing machine learning in complex multivariate wafer processing equipment;;System Implementing Machine Learning in Complex Multivariate Wafer Processing Equipment</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -9182,7 +9182,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>GUHA JOYDEEP;;DAUGHERTY JOHN;;GOTTSCHO RICHARD ALAN;;VAHEDI VAHID</t>
+          <t>GUHA JOYDEEP;;VAHEDI VAHID;;DAUGHERTY JOHN;;GOTTSCHO RICHARD ALAN</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
@@ -9201,7 +9201,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="M81" t="n">
@@ -9215,12 +9215,12 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>H01J37/32;;H01L21/67;;H01L21/3065</t>
+          <t>H01L21/67;;H01J37/32;;H01L21/3065</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>H01L21/67253;;H01J37/32082;;H01J37/32972;;H01J37/32935;;H01J37/3299;;H01L21/3065;;H01J37/32926;;H01L21/67242;;H01L21/67248;;B81C2201/0138;;H01L21/67069;;H01J2237/334</t>
+          <t>H01J2237/334;;H01L21/67248;;H01J37/3299;;H01J37/32935;;H01J37/32082;;B81C2201/0138;;H01J37/32926;;H01J37/32972;;H01L21/3065;;H01L21/67069;;H01L21/67242;;H01L21/67253</t>
         </is>
       </c>
       <c r="R81" t="inlineStr"/>
@@ -9247,7 +9247,7 @@
       </c>
       <c r="X81" t="inlineStr">
         <is>
-          <t>US 2018/0247798 A1;;US 10615009 B2</t>
+          <t>US 10615009 B2;;US 2018/0247798 A1</t>
         </is>
       </c>
       <c r="Y81" t="inlineStr">
@@ -9264,17 +9264,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>023-991-694-862-996;;041-847-960-047-967;;132-268-047-578-71X</t>
+          <t>023-991-694-862-996;;132-268-047-578-71X;;041-847-960-047-967</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://lens.org/132-268-047-578-71X;;https://lens.org/023-991-694-862-996;;https://lens.org/041-847-960-047-967</t>
+          <t>https://lens.org/023-991-694-862-996;;https://lens.org/041-847-960-047-967;;https://lens.org/132-268-047-578-71X</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Generating quantum logic control sequences for quantum information processing hardware;;Generating Quantum Logic Control Sequences for Quantum Information Processing Hardware;;GENERATING QUANTUM LOGIC CONTROL SEQUENCES FOR QUANTUM INFORMATION PROCESSING HARDWARE</t>
+          <t>GENERATING QUANTUM LOGIC CONTROL SEQUENCES FOR QUANTUM INFORMATION PROCESSING HARDWARE;;Generating quantum logic control sequences for quantum information processing hardware;;Generating Quantum Logic Control Sequences for Quantum Information Processing Hardware</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -9289,7 +9289,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>SETE EYOB A;;ZENG WILLIAM J;;CURTIS MICHAEL J;;ZENG WILLIAM;;CURTIS MICHAEL;;SETE EYOB</t>
+          <t>CURTIS MICHAEL J;;ZENG WILLIAM J;;SETE EYOB A;;CURTIS MICHAEL;;SETE EYOB;;ZENG WILLIAM</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -9312,7 +9312,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="M82" t="n">
@@ -9326,12 +9326,12 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>G06F16/901;;G06N5/02;;G06N99/00;;B82Y10/00;;G06N10/00;;G06F17/30</t>
+          <t>G06F17/30;;G06N99/00;;G06F16/901;;B82Y10/00;;G06N10/00;;G06N5/02</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>G06N5/022;;G06F16/9024;;B82Y10/00;;G06N10/00</t>
+          <t>G06N10/00;;G06F16/9024;;G06N5/022;;B82Y10/00</t>
         </is>
       </c>
       <c r="R82" t="inlineStr"/>
@@ -9363,7 +9363,7 @@
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>US 2017/0061102 W;;US 201615348226 A</t>
+          <t>US 201615348226 A;;US 2017/0061102 W</t>
         </is>
       </c>
     </row>
@@ -9380,7 +9380,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://lens.org/031-156-790-577-782;;https://lens.org/137-779-011-538-122</t>
+          <t>https://lens.org/137-779-011-538-122;;https://lens.org/031-156-790-577-782</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>SETE EYOB A;;ZENG WILLIAM J;;CURTIS MICHAEL J</t>
+          <t>CURTIS MICHAEL J;;SETE EYOB A;;ZENG WILLIAM J</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -9423,7 +9423,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="M83" t="n">
@@ -9437,12 +9437,12 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>G06F16/901;;G06N5/02;;B82Y10/00;;G06N10/00</t>
+          <t>G06F16/901;;G06N10/00;;B82Y10/00;;G06N5/02</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>G06N5/022;;G06F16/9024;;B82Y10/00;;G06N10/00</t>
+          <t>G06N10/00;;G06F16/9024;;G06N5/022;;B82Y10/00</t>
         </is>
       </c>
       <c r="R83" t="inlineStr"/>
@@ -9486,7 +9486,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>039-906-098-361-02X;;029-162-352-336-080</t>
+          <t>029-162-352-336-080;;039-906-098-361-02X</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>METHODS, COMPOSITIONS, AND DEVICES FOR INFORMATION STORAGE;;Methods, compositions, and devices for information storage</t>
+          <t>Methods, compositions, and devices for information storage;;METHODS, COMPOSITIONS, AND DEVICES FOR INFORMATION STORAGE</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -9511,7 +9511,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>PREDKI PAUL F;;CASSIDY MAJA</t>
+          <t>CASSIDY MAJA;;PREDKI PAUL F</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -9529,12 +9529,12 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Granted Patent;;Patent Application</t>
+          <t>Patent Application;;Granted Patent</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="M84" t="n">
@@ -9548,12 +9548,12 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>G11C13/02;;G06N3/12;;C12Q1/68;;B82Y10/00;;G16B30/00;;C12Q1/6869</t>
+          <t>C12Q1/68;;C12Q1/6869;;G06N3/12;;G11C13/02;;B82Y10/00;;G16B30/00</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>G11C13/02;;C12Q2563/116;;G06N3/123;;C12Q2521/131;;G01N33/48721;;C12Q2565/631;;C12Q1/68;;B82Y10/00;;C12P19/34;;G16B30/00;;C12Q1/6869</t>
+          <t>G06N3/123;;C12Q1/68;;C12Q1/6869;;C12Q2521/131;;C12Q2565/631;;G01N33/48721;;G11C13/02;;C12P19/34;;B82Y10/00;;C12Q2563/116;;G16B30/00</t>
         </is>
       </c>
       <c r="R84" t="inlineStr"/>
@@ -9597,17 +9597,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>016-230-475-526-618;;033-319-578-578-485</t>
+          <t>033-319-578-578-485;;016-230-475-526-618</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://lens.org/033-319-578-578-485;;https://lens.org/016-230-475-526-618</t>
+          <t>https://lens.org/016-230-475-526-618;;https://lens.org/033-319-578-578-485</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>METHODS, COMPOSITIONS, AND DEVICES FOR INFORMATION STORAGE;;Methods, compositions, and devices for information storage</t>
+          <t>Methods, compositions, and devices for information storage;;METHODS, COMPOSITIONS, AND DEVICES FOR INFORMATION STORAGE</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -9622,7 +9622,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>PREDKI PAUL F;;CASSIDY MAJA</t>
+          <t>CASSIDY MAJA;;PREDKI PAUL F</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -9645,7 +9645,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="M85" t="n">
@@ -9659,12 +9659,12 @@
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>G11C13/02;;G06N3/12;;C12Q1/68;;G16B30/00;;B82Y10/00;;C12Q1/6869</t>
+          <t>C12Q1/68;;C12Q1/6869;;G06N3/12;;G11C13/02;;B82Y10/00;;G16B30/00</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>G11C13/02;;C12Q2563/116;;G06N3/123;;C12Q2521/131;;G01N33/48721;;C12Q2565/631;;C12Q1/68;;B82Y10/00;;C12P19/34;;G16B30/00;;C12Q1/6869</t>
+          <t>G06N3/123;;C12Q1/68;;C12Q1/6869;;C12Q2521/131;;C12Q2565/631;;G01N33/48721;;G11C13/02;;C12P19/34;;B82Y10/00;;C12Q2563/116;;G16B30/00</t>
         </is>
       </c>
       <c r="R85" t="inlineStr"/>
@@ -9766,12 +9766,12 @@
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>A61N1/372;;A61N5/06;;G16H20/30;;A61N1/378;;A61N1/36;;G06N3/063;;A61N1/05</t>
+          <t>G06N3/063;;A61N1/36;;G16H20/30;;A61N1/372;;A61N5/06;;A61N1/378;;A61N1/05</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>A61N5/0601;;A61N1/0534;;A61N1/0531;;A61N5/0618;;A61N2005/067;;A61N2005/0626;;A61N2005/0611;;A61N1/36082;;A61N1/36064;;A61N1/36096;;A61B5/0031;;A61N1/36139;;A61N2005/0663;;A61N1/37264;;G16H20/30;;A61B5/369;;A61B5/6868;;A61N1/36067;;G06N3/049;;A61N2005/0612;;A61B5/0006;;A61N1/37223;;A61N5/0622;;A61B5/0022;;A61N2005/063;;B82Y10/00;;G06N3/063;;A61N1/3787;;A61N2005/0652;;B82Y5/00;;A61B5/24;;G16H20/40</t>
+          <t>G06N3/063;;A61B5/6868;;A61N1/0534;;A61B5/0031;;A61N1/36096;;A61N1/36082;;A61N5/0618;;A61N1/36067;;B82Y5/00;;A61N2005/063;;A61N5/0622;;A61B5/0022;;B82Y10/00;;A61N2005/0652;;A61B5/369;;A61B5/24;;A61N1/0531;;A61N2005/0663;;A61N5/0601;;A61N1/36139;;G06N3/049;;A61N2005/0611;;A61N2005/0626;;G16H20/40;;G16H20/30;;A61N2005/0612;;A61B5/0006;;A61N1/3787;;A61N1/37223;;A61N2005/067;;A61N1/36064;;A61N1/37264</t>
         </is>
       </c>
       <c r="R86" t="inlineStr"/>
@@ -9873,12 +9873,12 @@
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>A61N1/36;;A61N1/372;;G16H20/30;;A61N5/06</t>
+          <t>A61N1/36;;A61N5/06;;G16H20/30;;A61N1/372</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>A61N5/0601;;A61N1/36071;;A61N1/0531;;A61N5/0618;;A61B5/1473;;A61N2005/067;;A61N2005/0626;;A61N2005/0611;;A61N1/36082;;A61B5/0024;;A61B5/0031;;A61N1/36139;;A61N2005/0663;;G16H10/60;;G16H20/30;;A61B5/076;;A61B5/6868;;A61B5/6815;;A61N1/36067;;G06N3/049;;A61N2005/0612;;A61B5/4076;;G16H40/63;;G06F3/015;;A61N5/0622;;A61B5/0084;;A61N2005/063;;B82Y10/00;;G16H40/67;;B82Y30/00;;A61N1/37252;;G16H30/40;;A61N2005/0652;;A61B5/375;;G16H50/20;;B82Y5/00;;A61B5/37;;G16H20/40</t>
+          <t>A61B5/37;;A61B5/076;;A61B5/6868;;G06F3/015;;A61B5/4076;;A61B5/0031;;A61N1/36082;;A61N5/0618;;G16H40/63;;A61N1/36067;;B82Y5/00;;A61N2005/063;;A61N5/0622;;B82Y10/00;;A61N1/36071;;A61B5/1473;;A61N2005/0652;;A61N1/0531;;G16H10/60;;A61B5/375;;A61N2005/0663;;A61N5/0601;;G16H40/67;;A61B5/0024;;A61N1/36139;;A61N1/37252;;A61B5/6815;;A61N2005/0626;;A61N2005/0611;;A61B5/0084;;G06N3/049;;G16H20/40;;G16H20/30;;G16H30/40;;A61N2005/0612;;G16H50/20;;B82Y30/00;;A61N2005/067</t>
         </is>
       </c>
       <c r="R87" t="inlineStr"/>
@@ -9985,7 +9985,7 @@
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>A61B5/4082;;A61B5/167;;A61B5/72;;A61B5/14503;;A61B5/168;;A61B5/6868;;A61B5/14546;;A61B5/7267;;B82Y15/00;;A61B5/4088;;B82Y30/00;;A61B2562/0285;;A61B5/686</t>
+          <t>A61B5/7267;;A61B5/4082;;A61B5/168;;A61B5/6868;;A61B5/686;;B82Y30/00;;A61B5/4088;;A61B5/14546;;A61B5/167;;B82Y15/00;;A61B5/72;;A61B5/14503;;A61B2562/0285</t>
         </is>
       </c>
       <c r="R88" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>LANTING TREVOR MICHAEL;;BOOTHBY THOMAS J;;YARKONI SHEIR;;ANDRIYASH EVGENY A;;KING ANDREW DOUGLAS;;AMIN MOHAMMAD H</t>
+          <t>KING ANDREW DOUGLAS;;YARKONI SHEIR;;LANTING TREVOR MICHAEL;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY A;;BOOTHBY THOMAS J</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
@@ -10161,7 +10161,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>LANTING TREVOR MICHAEL;;BOOTHBY THOMAS J;;YARKONI SHEIR;;ANDRIYASH EVGENY A;;KING ANDREW DOUGLAS;;AMIN MOHAMMAD H</t>
+          <t>KING ANDREW DOUGLAS;;YARKONI SHEIR;;LANTING TREVOR MICHAEL;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY A;;BOOTHBY THOMAS J</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
@@ -10194,7 +10194,7 @@
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>G06N3/04;;G06N10/00</t>
+          <t>G06N10/00;;G06N3/04</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr">
@@ -10253,7 +10253,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>SYSTEMS AND METHODS FOR QUANTUM COMPUTATION;;Systems and methods for quantum computation</t>
+          <t>Systems and methods for quantum computation;;SYSTEMS AND METHODS FOR QUANTUM COMPUTATION</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -10268,7 +10268,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>LANTING TREVOR MICHAEL;;YARKONI SHEIR;;ANDRIYASH EVGENY A;;KING ANDREW DOUGLAS;;AMIN MOHAMMAD H;;BOOTHBY KELLY T R</t>
+          <t>BOOTHBY KELLY T R;;KING ANDREW DOUGLAS;;YARKONI SHEIR;;LANTING TREVOR MICHAEL;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY A</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -10286,12 +10286,12 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Granted Patent;;Patent Application</t>
+          <t>Patent Application;;Granted Patent</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="M91" t="n">
@@ -10305,7 +10305,7 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>G06N3/04;;G06N7/08;;B82Y10/00;;G06N10/00</t>
+          <t>G06N10/00;;B82Y10/00;;G06N3/04;;G06N7/08</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
@@ -10337,7 +10337,7 @@
       </c>
       <c r="X91" t="inlineStr">
         <is>
-          <t>US 10671937 B2;;US 2019/0266510 A1</t>
+          <t>US 2019/0266510 A1;;US 10671937 B2</t>
         </is>
       </c>
       <c r="Y91" t="inlineStr">
@@ -10379,7 +10379,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>LANTING TREVOR MICHAEL;;YARKONI SHEIR;;ANDRIYASH EVGENY A;;KING ANDREW DOUGLAS;;AMIN MOHAMMAD H;;BOOTHBY KELLY T R</t>
+          <t>BOOTHBY KELLY T R;;KING ANDREW DOUGLAS;;YARKONI SHEIR;;LANTING TREVOR MICHAEL;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY A</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
@@ -10412,7 +10412,7 @@
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>G06N3/04;;G06N7/08;;B82Y10/00;;G06N10/00</t>
+          <t>G06N10/00;;B82Y10/00;;G06N3/04;;G06N7/08</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
@@ -10486,7 +10486,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>YAZDI S M HOSSEIN TABATABAEI;;GABRYS RYAN;;MILENKOVIC OLGICA</t>
+          <t>MILENKOVIC OLGICA;;GABRYS RYAN;;YAZDI S M HOSSEIN TABATABAEI</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -10523,12 +10523,12 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>G11C13/02;;G06N3/12;;C12Q1/6806;;C12Q1/68;;B82Y10/00</t>
+          <t>C12Q1/68;;G06N3/12;;G11C13/02;;B82Y10/00;;C12Q1/6806</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>G16B50/00;;G16B30/10;;G06N3/12;;G16B50/50;;G06N3/123;;B82Y5/00;;G11C13/0019;;C12Q1/6806;;G11C13/025;;C12Q1/68;;B82Y10/00;;C12Q1/6869;;G11C13/004</t>
+          <t>G06N3/123;;C12Q1/68;;C12Q1/6869;;G16B50/50;;G11C13/004;;C12Q1/6806;;G11C13/0019;;G11C13/025;;B82Y5/00;;G06N3/12;;B82Y10/00;;G16B30/10;;G16B50/00</t>
         </is>
       </c>
       <c r="R93" t="inlineStr"/>
@@ -10572,17 +10572,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>135-940-995-038-782;;000-855-771-025-710;;187-797-836-525-53X;;048-938-486-237-816;;047-505-978-833-155;;150-446-297-196-345</t>
+          <t>047-505-978-833-155;;048-938-486-237-816;;000-855-771-025-710;;135-940-995-038-782;;187-797-836-525-53X;;150-446-297-196-345</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://lens.org/047-505-978-833-155;;https://lens.org/187-797-836-525-53X;;https://lens.org/000-855-771-025-710;;https://lens.org/150-446-297-196-345;;https://lens.org/135-940-995-038-782;;https://lens.org/048-938-486-237-816</t>
+          <t>https://lens.org/048-938-486-237-816;;https://lens.org/047-505-978-833-155;;https://lens.org/150-446-297-196-345;;https://lens.org/000-855-771-025-710;;https://lens.org/135-940-995-038-782;;https://lens.org/187-797-836-525-53X</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>METHODS, COMPOSITIONS, AND DEVICES FOR INFORMATION STORAGE;;情報の記憶のための方法、組成物、およびデバイス;;정보 저장을 위한 방법, 조성물, 및 장치</t>
+          <t>정보 저장을 위한 방법, 조성물, 및 장치;;情報の記憶のための方法、組成物、およびデバイス;;METHODS, COMPOSITIONS, AND DEVICES FOR INFORMATION STORAGE</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -10597,7 +10597,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>マジャ・キャシディ;;ポール・エフ・プレドキ;;PREDKI PAUL F;;CASSIDY MAJA</t>
+          <t>CASSIDY MAJA;;PREDKI PAUL F;;マジャ・キャシディ;;ポール・エフ・プレドキ</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
@@ -10606,17 +10606,17 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>JP;;EP;;CN;;KR;;CA</t>
+          <t>EP;;CN;;KR;;CA;;JP</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Search Report;;Patent Application</t>
+          <t>Patent Application;;Search Report</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>A1;;A4;;A</t>
+          <t>A4;;A1;;A</t>
         </is>
       </c>
       <c r="M94" t="n">
@@ -10630,12 +10630,12 @@
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>G01N27/00;;G01N33/487;;G01N33/48;;G06N3/12;;G11C13/00;;B82Y5/00;;G01N27/22;;C12Q1/6869;;C12Q1/68;;C07H21/04;;G16B30/00;;C12P19/34;;B82Y40/00;;G01N33/50</t>
+          <t>G01N33/48;;G11C13/00;;C12Q1/68;;C12Q1/6869;;G16B30/00;;B82Y40/00;;G01N33/50;;G01N27/00;;B82Y5/00;;C07H21/04;;G06N3/12;;C12P19/34;;G01N27/22;;G01N33/487</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>G11C13/02;;C12Q2563/116;;G06N3/123;;C12Q2521/131;;G01N33/48721;;C12Q2565/631;;C12Q1/68;;B82Y10/00;;C12P19/34;;G16B30/00;;C12Q1/6869</t>
+          <t>G06N3/123;;C12Q1/68;;C12Q1/6869;;C12Q2521/131;;C12Q2565/631;;G01N33/48721;;G11C13/02;;C12P19/34;;B82Y10/00;;C12Q2563/116;;G16B30/00</t>
         </is>
       </c>
       <c r="R94" t="inlineStr"/>
@@ -10662,12 +10662,12 @@
       </c>
       <c r="X94" t="inlineStr">
         <is>
-          <t>EP 3532639 A1;;CA 3079046 A1;;JP 2020502494 A;;CN 110325653 A;;EP 3532639 A4;;KR 20190111897 A</t>
+          <t>EP 3532639 A4;;EP 3532639 A1;;CA 3079046 A1;;CN 110325653 A;;KR 20190111897 A;;JP 2020502494 A</t>
         </is>
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>KR 20197015597 A;;CN 201780080140 A;;EP 17865168 A;;CA 3079046 A;;JP 2019523791 A</t>
+          <t>EP 17865168 A;;KR 20197015597 A;;CA 3079046 A;;CN 201780080140 A;;JP 2019523791 A</t>
         </is>
       </c>
     </row>
@@ -10704,7 +10704,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>PREDKI PAUL F;;CASSIDY MAJA</t>
+          <t>CASSIDY MAJA;;PREDKI PAUL F</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
@@ -10737,12 +10737,12 @@
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>G01N33/48;;G06F19/00;;G01N27/22;;C12Q1/68;;G01N33/50</t>
+          <t>C12Q1/68;;G06F19/00;;G01N33/50;;G01N27/22;;G01N33/48</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>G11C13/02;;C12Q2563/116;;G06N3/123;;C12Q2521/131;;G01N33/48721;;C12Q2565/631;;C12Q1/68;;B82Y10/00;;C12P19/34;;G16B30/00;;C12Q1/6869</t>
+          <t>G06N3/123;;C12Q1/68;;C12Q1/6869;;C12Q2521/131;;C12Q2565/631;;G01N33/48721;;G11C13/02;;C12P19/34;;B82Y10/00;;C12Q2563/116;;G16B30/00</t>
         </is>
       </c>
       <c r="R95" t="inlineStr"/>
@@ -10848,12 +10848,12 @@
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>G06K9/62;;C01G49/02;;G06N20/20;;G06K9/00;;G01N33/68</t>
+          <t>C01G49/02;;G06K9/00;;G06K9/62;;G01N33/68;;G06N20/20</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>G01N33/553;;G01N2800/2821;;G06K9/00563;;G06K9/00536;;G16B40/20;;G06K9/6267;;C01G49/02;;G01N33/54346;;G06N20/20;;G01N2570/00;;C01P2004/64;;G01N33/586;;G01N33/5432;;G01N33/57488;;G01N33/6845;;B82Y35/00;;G16B20/00;;G01N33/587;;B82Y30/00;;G01N33/6848;;B82Y5/00;;G16B40/30;;G01N33/6803</t>
+          <t>G01N33/57488;;G01N33/54346;;G01N33/587;;G01N33/6848;;G16B20/00;;G01N2570/00;;B82Y5/00;;B82Y35/00;;G01N33/586;;G16B40/20;;G06N20/20;;G16B40/30;;G06K9/6267;;C01P2004/64;;G01N33/5432;;G01N2800/2821;;G01N33/6803;;G06K9/00563;;B82Y30/00;;G06K9/00536;;G01N33/6845;;G01N33/553;;C01G49/02</t>
         </is>
       </c>
       <c r="R96" t="inlineStr"/>
@@ -10922,7 +10922,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>MANIPATRUNI SASIKANTH;;YOUNG IAN A;;NIKONOV DMITRI E</t>
+          <t>YOUNG IAN A;;MANIPATRUNI SASIKANTH;;NIKONOV DMITRI E</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
@@ -10960,7 +10960,7 @@
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>H01L43/10;;H01L43/08;;H01L29/66984;;G06N3/0635;;B82Y10/00;;B82Y25/00</t>
+          <t>B82Y25/00;;H01L43/10;;B82Y10/00;;G06N3/0635;;H01L43/08;;H01L29/66984</t>
         </is>
       </c>
       <c r="R97" t="inlineStr"/>
@@ -11004,7 +11004,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>050-105-019-902-296;;008-994-057-244-271</t>
+          <t>008-994-057-244-271;;050-105-019-902-296</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -11029,7 +11029,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>SIGNAEVSKI MAXIM M;;YAROSLAVSKY IGOR YEHUDA;;SIGNAEVSKY MAXIM;;YAROSLAVSKY IGOR</t>
+          <t>YAROSLAVSKY IGOR YEHUDA;;YAROSLAVSKY IGOR;;SIGNAEVSKY MAXIM;;SIGNAEVSKI MAXIM M</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
@@ -11038,12 +11038,12 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>WO;;TW</t>
+          <t>TW;;WO</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Patent of Addition;;Patent Application</t>
+          <t>Patent Application;;Patent of Addition</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -11067,7 +11067,7 @@
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>A61B2562/125;;A61N1/0529;;A61B5/24;;G06N3/061;;G06N3/0675;;B82Y30/00;;A61B5/7264</t>
+          <t>A61N1/0529;;B82Y30/00;;A61B5/7264;;A61B2562/125;;G06N3/0675;;A61B5/24;;G06N3/061</t>
         </is>
       </c>
       <c r="R98" t="inlineStr"/>
@@ -11094,12 +11094,12 @@
       </c>
       <c r="X98" t="inlineStr">
         <is>
-          <t>TW 201836178 A;;WO 2018/144454 A1</t>
+          <t>WO 2018/144454 A1;;TW 201836178 A</t>
         </is>
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>US 2018/0015953 W;;TW 107103471 A</t>
+          <t>TW 107103471 A;;US 2018/0015953 W</t>
         </is>
       </c>
     </row>
@@ -11111,12 +11111,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>055-322-631-913-242;;099-584-260-676-79X</t>
+          <t>099-584-260-676-79X;;055-322-631-913-242</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://lens.org/099-584-260-676-79X;;https://lens.org/055-322-631-913-242</t>
+          <t>https://lens.org/055-322-631-913-242;;https://lens.org/099-584-260-676-79X</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -11146,12 +11146,12 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Search Report;;Patent Application</t>
+          <t>Patent Application;;Search Report</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>A1;;A4</t>
+          <t>A4;;A1</t>
         </is>
       </c>
       <c r="M99" t="n">
@@ -11165,12 +11165,12 @@
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>A61B5/0492;;A61B5/04;;B82Y5/00;;B82Y30/00;;G06N3/06;;A61N1/05</t>
+          <t>G06N3/06;;A61B5/0492;;A61B5/04;;B82Y30/00;;B82Y5/00;;A61N1/05</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>A61B2562/125;;A61N1/0529;;A61B5/24;;G06N3/061;;G06N3/0675;;B82Y30/00;;A61B5/7264</t>
+          <t>A61N1/0529;;B82Y30/00;;A61B5/7264;;A61B2562/125;;G06N3/0675;;A61B5/24;;G06N3/061</t>
         </is>
       </c>
       <c r="R99" t="inlineStr"/>
@@ -11197,7 +11197,7 @@
       </c>
       <c r="X99" t="inlineStr">
         <is>
-          <t>EP 3576620 A4;;EP 3576620 A1</t>
+          <t>EP 3576620 A1;;EP 3576620 A4</t>
         </is>
       </c>
       <c r="Y99" t="inlineStr">
@@ -11219,12 +11219,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://lens.org/031-532-035-261-932;;https://lens.org/149-547-617-610-224</t>
+          <t>https://lens.org/149-547-617-610-224;;https://lens.org/031-532-035-261-932</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>BI-DIRECTIONAL NEURON-ELECTRONIC DEVICE INTERFACE STRUCTURES;;Bi-directional neuron-electronic device interface structures</t>
+          <t>Bi-directional neuron-electronic device interface structures;;BI-DIRECTIONAL NEURON-ELECTRONIC DEVICE INTERFACE STRUCTURES</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -11257,12 +11257,12 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Granted Patent;;Patent Application</t>
+          <t>Patent Application;;Granted Patent</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="M100" t="n">
@@ -11276,12 +11276,12 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>A61B5/04;;G06N3/067;;B82Y30/00;;A61B5/00;;G06N3/06;;A61N1/05</t>
+          <t>G06N3/067;;G06N3/06;;A61B5/04;;B82Y30/00;;A61B5/00;;A61N1/05</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>A61B2562/125;;A61N1/0529;;A61B5/24;;G06N3/061;;G06N3/0675;;B82Y30/00;;A61B5/7264</t>
+          <t>A61N1/0529;;B82Y30/00;;A61B5/7264;;A61B2562/125;;G06N3/0675;;A61B5/24;;G06N3/061</t>
         </is>
       </c>
       <c r="R100" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
       </c>
       <c r="X100" t="inlineStr">
         <is>
-          <t>US 10602939 B2;;US 2018/0214042 A1</t>
+          <t>US 2018/0214042 A1;;US 10602939 B2</t>
         </is>
       </c>
       <c r="Y100" t="inlineStr">
@@ -11387,12 +11387,12 @@
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>G06N3/067;;A61B5/00;;A61N1/05;;A61B5/04</t>
+          <t>G06N3/067;;A61N1/05;;A61B5/00;;A61B5/04</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>A61B2562/125;;A61N1/0529;;A61B5/24;;G06N3/061;;G06N3/0675;;B82Y30/00;;A61B5/7264</t>
+          <t>A61N1/0529;;B82Y30/00;;A61B5/7264;;A61B2562/125;;G06N3/0675;;A61B5/24;;G06N3/061</t>
         </is>
       </c>
       <c r="R101" t="inlineStr"/>
@@ -11461,7 +11461,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>SUCHOWSKI HAIM;;MALKIEL ITZIK;;MREJEN MICHAEL;;ARIELI URI;;NAGLER ACHIYA;;WOLF LIOR</t>
+          <t>SUCHOWSKI HAIM;;WOLF LIOR;;ARIELI URI;;MREJEN MICHAEL;;NAGLER ACHIYA;;MALKIEL ITZIK</t>
         </is>
       </c>
       <c r="H102" t="inlineStr"/>
@@ -11494,12 +11494,12 @@
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>B82Y35/00;;G01B11/02</t>
+          <t>G01B11/02;;B82Y35/00</t>
         </is>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>G01N2021/258;;G06N3/08;;G01B2210/56;;G06N3/04;;G06N3/0481;;B82Y40/00;;G01N21/25;;G06N3/126;;G01N21/21</t>
+          <t>B82Y40/00;;G01N21/25;;G06N3/126;;G01N21/21;;G01N2021/258;;G06N3/0481;;G06N3/04;;G01B2210/56;;G06N3/08</t>
         </is>
       </c>
       <c r="R102" t="inlineStr"/>
@@ -11606,7 +11606,7 @@
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>G06N3/063;;G06N3/08;;H04L9/0852;;B82Y10/00;;G06N10/00;;G06N20/00;;H04L2209/34</t>
+          <t>G06N3/063;;H04L2209/34;;H04L9/0852;;G06N20/00;;B82Y10/00;;G06N10/00;;G06N3/08</t>
         </is>
       </c>
       <c r="R103" t="inlineStr"/>
@@ -11650,12 +11650,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>086-142-481-875-549;;190-018-764-824-196;;126-194-360-671-56X;;122-674-749-552-013;;098-699-064-344-687;;004-080-118-128-877;;104-916-437-556-927</t>
+          <t>086-142-481-875-549;;122-674-749-552-013;;004-080-118-128-877;;098-699-064-344-687;;104-916-437-556-927;;126-194-360-671-56X;;190-018-764-824-196</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://lens.org/122-674-749-552-013;;https://lens.org/098-699-064-344-687;;https://lens.org/104-916-437-556-927;;https://lens.org/190-018-764-824-196;;https://lens.org/004-080-118-128-877;;https://lens.org/126-194-360-671-56X;;https://lens.org/086-142-481-875-549</t>
+          <t>https://lens.org/104-916-437-556-927;;https://lens.org/098-699-064-344-687;;https://lens.org/086-142-481-875-549;;https://lens.org/122-674-749-552-013;;https://lens.org/126-194-360-671-56X;;https://lens.org/190-018-764-824-196;;https://lens.org/004-080-118-128-877</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -11670,12 +11670,12 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>グーグル エルエルシー;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;GOOGLE LLC</t>
+          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;グーグル エルエルシー;;GOOGLE LLC</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>FARHI EDWARD HENRY;;ハルトムート・ネーヴェン;;NEVEN HARTMUT;;エドワード・ヘンリー・ファーリ</t>
+          <t>ハルトムート・ネーヴェン;;FARHI EDWARD HENRY;;NEVEN HARTMUT;;エドワード・ヘンリー・ファーリ</t>
         </is>
       </c>
       <c r="H104" t="inlineStr"/>
@@ -11684,7 +11684,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>AU;;JP;;EP;;CN;;CA</t>
+          <t>EP;;CN;;CA;;AU;;JP</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -11694,7 +11694,7 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>A1;;A;;B2</t>
+          <t>B2;;A1;;A</t>
         </is>
       </c>
       <c r="M104" t="n">
@@ -11713,7 +11713,7 @@
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>G06N3/063;;G06N3/08;;H04L9/0852;;B82Y10/00;;G06N10/00;;G06N20/00;;H04L2209/34</t>
+          <t>G06N3/063;;H04L2209/34;;H04L9/0852;;G06N20/00;;B82Y10/00;;G06N10/00;;G06N3/08</t>
         </is>
       </c>
       <c r="R104" t="inlineStr"/>
@@ -11740,12 +11740,12 @@
       </c>
       <c r="X104" t="inlineStr">
         <is>
-          <t>CA 3065859 A1;;EP 3619655 A1;;AU 2018/278348 B2;;CN 110692067 A;;AU 2018/278348 A1;;JP 6882533 B2;;JP 2020522805 A</t>
+          <t>CN 110692067 A;;CA 3065859 A1;;EP 3619655 A1;;JP 6882533 B2;;AU 2018/278348 A1;;JP 2020522805 A;;AU 2018/278348 B2</t>
         </is>
       </c>
       <c r="Y104" t="inlineStr">
         <is>
-          <t>JP 2019566260 A;;EP 18733461 A;;CA 3065859 A;;AU 2018/278348 A;;CN 201880036533 A</t>
+          <t>EP 18733461 A;;CA 3065859 A;;JP 2019566260 A;;AU 2018/278348 A;;CN 201880036533 A</t>
         </is>
       </c>
     </row>
@@ -11819,12 +11819,12 @@
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>H04L9/08;;G06N20/00;;G06N3/08;;B82Y10/00;;G06N10/00;;G06N3/063</t>
+          <t>G06N3/063;;H04L9/08;;G06N20/00;;B82Y10/00;;G06N10/00;;G06N3/08</t>
         </is>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>G06N3/063;;G06N3/08;;H04L9/0852;;B82Y10/00;;G06N10/00;;G06N20/00;;H04L2209/34</t>
+          <t>G06N3/063;;H04L2209/34;;H04L9/0852;;G06N20/00;;B82Y10/00;;G06N10/00;;G06N3/08</t>
         </is>
       </c>
       <c r="R105" t="inlineStr"/>
@@ -11926,12 +11926,12 @@
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>H03H9/42;;H01L41/18;;H01L41/08;;H03H9/15;;H03H9/02</t>
+          <t>H01L41/18;;H03H9/42;;H03H9/02;;H01L41/08;;H03H9/15</t>
         </is>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>H01L41/0986;;H01L27/20;;G06N3/04;;G06N3/0445;;G06N3/0635;;B81B3/0021</t>
+          <t>H01L27/20;;H01L41/0986;;G06N3/0445;;B81B3/0021;;G06N3/04;;G06N3/0635</t>
         </is>
       </c>
       <c r="R106" t="inlineStr"/>
@@ -12042,7 +12042,7 @@
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>H01L41/0986;;H01L27/20;;G06N3/04;;G06N3/0445;;G06N3/0635;;B81B3/0021</t>
+          <t>H01L27/20;;H01L41/0986;;G06N3/0445;;B81B3/0021;;G06N3/04;;G06N3/0635</t>
         </is>
       </c>
       <c r="R107" t="inlineStr"/>
@@ -12111,7 +12111,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>LUNKIN MIKHAIL;;BHASKAR MIHIR;;NGUYEN CHRISTIAN;;SUKACHEV DENIS;;EVANS RUFFIN;;SIPAHIGIL ALP</t>
+          <t>LUNKIN MIKHAIL;;NGUYEN CHRISTIAN;;SUKACHEV DENIS;;BHASKAR MIHIR;;SIPAHIGIL ALP;;EVANS RUFFIN</t>
         </is>
       </c>
       <c r="H108" t="inlineStr"/>
@@ -12149,7 +12149,7 @@
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>H04B10/90;;G11C11/16;;B82Y10/00;;G06N10/00;;B82Y30/00;;G06N20/00;;H01L29/1602</t>
+          <t>G11C11/16;;B82Y30/00;;H04B10/90;;G06N20/00;;B82Y10/00;;G06N10/00;;H01L29/1602</t>
         </is>
       </c>
       <c r="R108" t="inlineStr"/>
@@ -12218,7 +12218,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>LUKIN MIKHAIL D;;NGUYEN CHRISTIAN THIEU;;SUKACHEV DENIS D;;EVANS RUFFIN E;;SIPAHIGIL ALP;;BHASKAR MIHIR KESHAV</t>
+          <t>EVANS RUFFIN E;;BHASKAR MIHIR KESHAV;;NGUYEN CHRISTIAN THIEU;;LUKIN MIKHAIL D;;SIPAHIGIL ALP;;SUKACHEV DENIS D</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -12255,12 +12255,12 @@
       </c>
       <c r="P109" t="inlineStr">
         <is>
-          <t>H04B10/90;;G06N10/00</t>
+          <t>G06N10/00;;H04B10/90</t>
         </is>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>H04B10/90;;G11C11/16;;B82Y10/00;;G06N10/00;;B82Y30/00;;G06N20/00;;H01L29/1602</t>
+          <t>G11C11/16;;B82Y30/00;;H04B10/90;;G06N20/00;;B82Y10/00;;G06N10/00;;H01L29/1602</t>
         </is>
       </c>
       <c r="R109" t="inlineStr"/>
@@ -12329,7 +12329,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>RETALLICK JACOB;;WOLKOW ROBERT;;HUFF TALEANA;;WALUS KONRAD;;DIENEL THOMAS;;VINE WYATT;;RASHIDI MOHAMMAD;;LIVADARU LUCIAN</t>
+          <t>WALUS KONRAD;;RASHIDI MOHAMMAD;;LIVADARU LUCIAN;;HUFF TALEANA;;VINE WYATT;;WOLKOW ROBERT;;DIENEL THOMAS;;RETALLICK JACOB</t>
         </is>
       </c>
       <c r="H110" t="inlineStr"/>
@@ -12362,12 +12362,12 @@
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>B82B3/00;;G01Q60/24;;G01Q60/04;;G06N3/08</t>
+          <t>G01Q60/24;;G01Q60/04;;G06N3/08;;B82B3/00</t>
         </is>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>G06N20/10;;H01L29/66977;;H01L29/66984;;G06N3/08;;H01L29/7613;;G06N3/04;;G01Q60/24;;G06N3/0445;;B82Y10/00;;G01Q80/00;;G06N3/0472;;G06N3/0635;;G01Q60/10;;G01Q70/14;;G06N7/005;;G01Q30/10</t>
+          <t>G01Q60/24;;G01Q80/00;;G06N3/0445;;H01L29/7613;;H01L29/66977;;G06N20/10;;G01Q70/14;;G06N3/0472;;B82Y10/00;;G06N3/04;;G01Q60/10;;G01Q30/10;;G06N7/005;;G06N3/0635;;G06N3/08;;H01L29/66984</t>
         </is>
       </c>
       <c r="R110" t="inlineStr"/>
@@ -12436,7 +12436,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>MAGAR KAMAN THAPA;;REICH GREGORY W;;KONDASH COREY R;;SLINKER KEITH;;BAUR JEFFREY W;;PANKONIEN ALEXANDER M;;DICKINSON BENJAMIN T</t>
+          <t>PANKONIEN ALEXANDER M;;MAGAR KAMAN THAPA;;KONDASH COREY R;;DICKINSON BENJAMIN T;;BAUR JEFFREY W;;SLINKER KEITH;;REICH GREGORY W</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -12473,12 +12473,12 @@
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>G06N3/02;;B82Y10/00;;G01P5/26;;G06F16/9038;;B82Y30/00</t>
+          <t>G06N3/02;;G01P5/26;;B82Y30/00;;G06F16/9038;;B82Y10/00</t>
         </is>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>G06N3/02;;B82Y10/00;;G01P5/26;;G06F16/9038;;B82Y30/00</t>
+          <t>G06N3/02;;G01P5/26;;B82Y30/00;;G06F16/9038;;B82Y10/00</t>
         </is>
       </c>
       <c r="R111" t="inlineStr"/>
@@ -12585,7 +12585,7 @@
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;G06N5/003</t>
+          <t>G06N10/00;;B82Y10/00;;G06N5/003</t>
         </is>
       </c>
       <c r="R112" t="inlineStr"/>
@@ -12629,12 +12629,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>063-388-907-511-538;;180-200-336-064-782</t>
+          <t>180-200-336-064-782;;063-388-907-511-538</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://lens.org/180-200-336-064-782;;https://lens.org/063-388-907-511-538</t>
+          <t>https://lens.org/063-388-907-511-538;;https://lens.org/180-200-336-064-782</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -12668,7 +12668,7 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Granted Patent;;Patent Application</t>
+          <t>Patent Application;;Granted Patent</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
@@ -12687,12 +12687,12 @@
       </c>
       <c r="P113" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00</t>
+          <t>G06N10/00;;B82Y10/00</t>
         </is>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;G06N5/003</t>
+          <t>G06N10/00;;B82Y10/00;;G06N5/003</t>
         </is>
       </c>
       <c r="R113" t="inlineStr"/>
@@ -12719,7 +12719,7 @@
       </c>
       <c r="X113" t="inlineStr">
         <is>
-          <t>CA 3080318 A1;;CA 3080318 C</t>
+          <t>CA 3080318 C;;CA 3080318 A1</t>
         </is>
       </c>
       <c r="Y113" t="inlineStr">
@@ -12794,12 +12794,12 @@
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>G06N10/00;;G06N5/00</t>
+          <t>G06N5/00;;G06N10/00</t>
         </is>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;G06N5/003</t>
+          <t>G06N10/00;;B82Y10/00;;G06N5/003</t>
         </is>
       </c>
       <c r="R114" t="inlineStr"/>
@@ -12868,7 +12868,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>CHODAVARAPU VAMSY;;AGGARWAL PRIYANKA</t>
+          <t>AGGARWAL PRIYANKA;;CHODAVARAPU VAMSY</t>
         </is>
       </c>
       <c r="H115" t="inlineStr"/>
@@ -12901,12 +12901,12 @@
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>G06N3/04;;B81B7/02;;G06N7/00;;G06N3/08</t>
+          <t>B81B7/02;;G06N3/04;;G06N7/00;;G06N3/08</t>
         </is>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>G06N20/10;;G01C21/183;;G06N3/08;;G06N7/005;;G01C25/005;;G06N3/0445;;B81B7/02;;G06N3/0472;;G06N3/084;;G06N3/088;;G06N3/0454;;B81B2207/012;;B81B2201/0242</t>
+          <t>G06N7/005;;G06N3/084;;G06N3/0445;;G06N20/10;;B81B2207/012;;B81B7/02;;B81B2201/0242;;G06N3/0472;;G01C21/183;;G06N3/088;;G01C25/005;;G06N3/0454;;G06N3/08</t>
         </is>
       </c>
       <c r="R115" t="inlineStr"/>
@@ -12950,17 +12950,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>120-626-180-387-172;;143-577-806-116-427;;149-148-197-227-369;;122-575-242-766-692;;056-410-719-774-001;;040-685-913-457-183;;048-666-894-031-255;;040-976-568-506-57X;;107-706-698-330-591</t>
+          <t>048-666-894-031-255;;143-577-806-116-427;;122-575-242-766-692;;056-410-719-774-001;;040-976-568-506-57X;;040-685-913-457-183;;120-626-180-387-172;;149-148-197-227-369;;107-706-698-330-591</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://lens.org/149-148-197-227-369;;https://lens.org/040-976-568-506-57X;;https://lens.org/056-410-719-774-001;;https://lens.org/048-666-894-031-255;;https://lens.org/107-706-698-330-591;;https://lens.org/040-685-913-457-183;;https://lens.org/122-575-242-766-692;;https://lens.org/120-626-180-387-172;;https://lens.org/143-577-806-116-427</t>
+          <t>https://lens.org/107-706-698-330-591;;https://lens.org/122-575-242-766-692;;https://lens.org/149-148-197-227-369;;https://lens.org/120-626-180-387-172;;https://lens.org/040-685-913-457-183;;https://lens.org/056-410-719-774-001;;https://lens.org/040-976-568-506-57X;;https://lens.org/048-666-894-031-255;;https://lens.org/143-577-806-116-427</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>QUANTUM COMPUTATION THROUGH REINFORCEMENT LEARNING;;강화된 학습을 통한 양자 계산;;強化学習を通した量子計算;;Quantum computation through reinforcement learning</t>
+          <t>強化学習を通した量子計算;;Quantum computation through reinforcement learning;;강화된 학습을 통한 양자 계산;;QUANTUM COMPUTATION THROUGH REINFORCEMENT LEARNING</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -12970,12 +12970,12 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM;;GOOGLE LLC;;GOOGLE INC;;NIU YUEZHEN;;NEVEN HARTMUT</t>
+          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;GOOGLE LLC;;NEVEN HARTMUT;;NIU YUEZHEN;;GOOGLE INC;;SMELYANSKIY VADIM;;CASTRILLO SERGIO BOIXO</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>ユエゼン・ニウ;;セルジオ・バイショ・カストリージョ;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM;;ハルトムート・ネーフェン;;BOIXO CASTRILLO SERGIO;;ヴァディム・スメリャンスキー;;NIU YUEZHEN;;NEVEN HARTMUT</t>
+          <t>NEVEN HARTMUT;;BOIXO CASTRILLO SERGIO;;ヴァディム・スメリャンスキー;;NIU YUEZHEN;;セルジオ・バイショ・カストリージョ;;ハルトムート・ネーフェン;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM;;ユエゼン・ニウ</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -12988,7 +12988,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>WO;;US;;CA;;JP;;EP;;CN;;KR;;AU</t>
+          <t>EP;;CN;;US;;WO;;KR;;CA;;AU;;JP</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -12998,7 +12998,7 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>A1;;A;;B2</t>
+          <t>B2;;A1;;A</t>
         </is>
       </c>
       <c r="M116" t="n">
@@ -13012,12 +13012,12 @@
       </c>
       <c r="P116" t="inlineStr">
         <is>
-          <t>G06N3/00;;G06N3/02;;G06N99/00;;G06N3/08;;G06N3/04;;B82Y10/00;;G06N10/00</t>
+          <t>G06N3/02;;G06N3/00;;G06N99/00;;B82Y10/00;;G06N3/04;;G06N10/00;;G06N3/08</t>
         </is>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>G06N3/006;;G06N3/08;;B82Y10/00;;G06N10/00;;G06N3/084;;G06N3/0454</t>
+          <t>G06N3/084;;B82Y10/00;;G06N3/0454;;G06N10/00;;G06N3/006;;G06N3/08</t>
         </is>
       </c>
       <c r="R116" t="inlineStr"/>
@@ -13044,12 +13044,12 @@
       </c>
       <c r="X116" t="inlineStr">
         <is>
-          <t>CA 3088135 A1;;KR 20200097787 A;;AU 2018/406532 A1;;WO 2019/152020 A1;;CN 111868756 A;;AU 2018/406532 B2;;JP 2021512395 A;;US 2020/0410343 A1;;EP 3746953 A1</t>
+          <t>JP 2021512395 A;;CN 111868756 A;;EP 3746953 A1;;KR 20200097787 A;;US 2020/0410343 A1;;WO 2019/152020 A1;;AU 2018/406532 A1;;CA 3088135 A1;;AU 2018/406532 B2</t>
         </is>
       </c>
       <c r="Y116" t="inlineStr">
         <is>
-          <t>CN 201880086701 A;;EP 18704796 A;;US 2018/0016238 W;;US 201816962059 A;;JP 2020539032 A;;CA 3088135 A;;AU 2018/406532 A;;KR 20207020582 A</t>
+          <t>CN 201880086701 A;;US 201816962059 A;;CA 3088135 A;;US 2018/0016238 W;;JP 2020539032 A;;AU 2018/406532 A;;EP 18704796 A;;KR 20207020582 A</t>
         </is>
       </c>
     </row>
@@ -13071,7 +13071,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>THREE-DIMENSIONAL MODEL OF PARTICLE INTERACTIONS APPLYING TWO-DIMENSIONAL FEYNMAN DIAGRAMS;;THREE-DIMENSIONAL MODEL OF PARTICLE INTERACTIONS APPLYING TWO-DIMENSIONAL FEYNMAN DIAGRAMS RULES THAT APPLY ONLY CIRCLE-ARC LINES FOR ELECTRON OR POSITRON ARROWS EACH CONNECTED TO PHOTON WIGGLY LINES AND THEN ONLY JOIN THEM USING INTERSECTED VERTICES DEFINING THE UNIVERSAL THEORY OF ELECTRONS AND PHOTONS UNDER A HEXAGONAL THREE-DIMENSIONAL ARRAY OF THREE ELEMENTS</t>
+          <t>THREE-DIMENSIONAL MODEL OF PARTICLE INTERACTIONS APPLYING TWO-DIMENSIONAL FEYNMAN DIAGRAMS RULES THAT APPLY ONLY CIRCLE-ARC LINES FOR ELECTRON OR POSITRON ARROWS EACH CONNECTED TO PHOTON WIGGLY LINES AND THEN ONLY JOIN THEM USING INTERSECTED VERTICES DEFINING THE UNIVERSAL THEORY OF ELECTRONS AND PHOTONS UNDER A HEXAGONAL THREE-DIMENSIONAL ARRAY OF THREE ELEMENTS;;THREE-DIMENSIONAL MODEL OF PARTICLE INTERACTIONS APPLYING TWO-DIMENSIONAL FEYNMAN DIAGRAMS</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -13100,12 +13100,12 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Search Report;;Patent Application</t>
+          <t>Patent Application;;Search Report</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>A2;;A3</t>
+          <t>A3;;A2</t>
         </is>
       </c>
       <c r="M117" t="n">
@@ -13119,12 +13119,12 @@
       </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>H05H7/04;;H99Z99/00;;H05H7/22;;G06N20/00;;H05H15/00</t>
+          <t>H05H7/22;;H05H7/04;;H99Z99/00;;G06N20/00;;H05H15/00</t>
         </is>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>C01B32/182;;H01L29/1606;;H01L29/66977;;B82Y10/00;;G06N10/00;;H01L29/7613;;B82Y30/00</t>
+          <t>H01L29/1606;;H01L29/7613;;C01B32/182;;H01L29/66977;;B82Y30/00;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="R117" t="inlineStr"/>
@@ -13173,7 +13173,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://lens.org/027-251-849-984-210;;https://lens.org/105-728-765-264-26X</t>
+          <t>https://lens.org/105-728-765-264-26X;;https://lens.org/027-251-849-984-210</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -13193,7 +13193,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>NGUYEN BICHLIEN HOANG;;KOHLL ALEXANDER XAVIER CHRISTOF;;STRAUSS KARIN;;CHEN WEIDA;;GRASS ROBERT</t>
+          <t>GRASS ROBERT;;KOHLL ALEXANDER XAVIER CHRISTOF;;NGUYEN BICHLIEN HOANG;;STRAUSS KARIN;;CHEN WEIDA</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -13230,12 +13230,12 @@
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>G06N3/00;;C12Q1/6806;;B01J13/22;;C07H21/04;;C12N15/10;;H01F1/00;;B22F1/02</t>
+          <t>C12N15/10;;G06N3/00;;B01J13/22;;C07H21/04;;H01F1/00;;B22F1/02;;C12Q1/6806</t>
         </is>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>G06N3/123;;B22F2999/00;;B22F1/0018;;B01J13/22;;C07H21/04;;B82Y10/00;;G16B30/00;;C12N15/1013;;B82Y25/00;;B22F1/0062;;B22F1/02;;H01F1/0054</t>
+          <t>G06N3/123;;H01F1/0054;;B82Y25/00;;C12N15/1013;;B22F1/0062;;B01J13/22;;C07H21/04;;B22F2999/00;;B82Y10/00;;B22F1/02;;B22F1/0018;;G16B30/00</t>
         </is>
       </c>
       <c r="R118" t="inlineStr"/>
@@ -13289,7 +13289,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>SILICA ENCAPSULATED DNA ON MAGNETIC NANOPARTICLES;;磁性纳米颗粒上的二氧化硅包封的DNA</t>
+          <t>磁性纳米颗粒上的二氧化硅包封的DNA;;SILICA ENCAPSULATED DNA ON MAGNETIC NANOPARTICLES</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -13299,12 +13299,12 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>微软技术许可有限责任公司;;MICROSOFT TECHNOLOGY LICENSING LLC</t>
+          <t>MICROSOFT TECHNOLOGY LICENSING LLC;;微软技术许可有限责任公司</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>R·格拉斯;;NGUYEN BICHLIEN HOANG;;GRASS ROBERT;;B·H·阮;;KOHLL ALEXANDER XAVIER CHRISTOF;;STRAUSS KARIN;;CHEN WEIDA;;W·陈;;A·X·C·科尔;;K·施特劳斯</t>
+          <t>K·施特劳斯;;GRASS ROBERT;;KOHLL ALEXANDER XAVIER CHRISTOF;;NGUYEN BICHLIEN HOANG;;A·X·C·科尔;;STRAUSS KARIN;;R·格拉斯;;CHEN WEIDA;;W·陈;;B·H·阮</t>
         </is>
       </c>
       <c r="H119" t="inlineStr"/>
@@ -13313,7 +13313,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>EP;;CN</t>
+          <t>CN;;EP</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -13337,12 +13337,12 @@
       </c>
       <c r="P119" t="inlineStr">
         <is>
-          <t>G06N3/00;;C12Q1/6806;;C12N15/10;;H01F1/00;;B22F1/02</t>
+          <t>C12N15/10;;G06N3/00;;H01F1/00;;B22F1/02;;C12Q1/6806</t>
         </is>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>G06N3/123;;B22F2999/00;;B22F1/0018;;B01J13/22;;C07H21/04;;B82Y10/00;;G16B30/00;;C12N15/1013;;B82Y25/00;;B22F1/0062;;B22F1/02;;H01F1/0054</t>
+          <t>G06N3/123;;H01F1/0054;;B82Y25/00;;C12N15/1013;;B22F1/0062;;B01J13/22;;C07H21/04;;B22F2999/00;;B82Y10/00;;B22F1/02;;B22F1/0018;;G16B30/00</t>
         </is>
       </c>
       <c r="R119" t="inlineStr"/>
@@ -13369,7 +13369,7 @@
       </c>
       <c r="X119" t="inlineStr">
         <is>
-          <t>CN 112823207 A;;EP 3810773 A1</t>
+          <t>EP 3810773 A1;;CN 112823207 A</t>
         </is>
       </c>
       <c r="Y119" t="inlineStr">
@@ -13411,7 +13411,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>TRESP VOLKER;;MA YUNPU</t>
+          <t>MA YUNPU;;TRESP VOLKER</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -13448,12 +13448,12 @@
       </c>
       <c r="P120" t="inlineStr">
         <is>
-          <t>G06N5/02;;G06F15/16;;G06N99/00;;G06F9/50;;G06F17/18;;B82Y10/00;;G06F9/38</t>
+          <t>G06F9/38;;G06N99/00;;G06F17/18;;B82Y10/00;;G06F15/16;;G06F9/50;;G06N5/02</t>
         </is>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>G06F40/30;;G06F16/9024;;G06F9/5027;;G06N20/00;;G06F15/16;;G06F9/3877;;G06F17/18;;B82Y10/00;;G06N10/00;;G06N5/022;;G06N5/04</t>
+          <t>G06F9/3877;;G06F16/9024;;G06N5/04;;G06N10/00;;G06N20/00;;B82Y10/00;;G06F15/16;;G06F9/5027;;G06F40/30;;G06N5/022;;G06F17/18</t>
         </is>
       </c>
       <c r="R120" t="inlineStr"/>
@@ -13497,12 +13497,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>014-608-546-632-936;;086-922-027-475-411</t>
+          <t>086-922-027-475-411;;014-608-546-632-936</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://lens.org/014-608-546-632-936;;https://lens.org/086-922-027-475-411</t>
+          <t>https://lens.org/086-922-027-475-411;;https://lens.org/014-608-546-632-936</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -13522,7 +13522,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>GRANADE CHRISTOPHER EVAN;;GAMBLE IV JOHN KING;;GAMBLE JOHN KING;;WIEBE NATHAN O</t>
+          <t>GAMBLE JOHN KING;;WIEBE NATHAN O;;GRANADE CHRISTOPHER EVAN;;GAMBLE IV JOHN KING</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -13535,7 +13535,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>WO;;US</t>
+          <t>US;;WO</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -13559,12 +13559,12 @@
       </c>
       <c r="P121" t="inlineStr">
         <is>
-          <t>H03K19/195;;B82Y10/00;;G06N10/00;;G06N7/00</t>
+          <t>H03K19/195;;G06N10/00;;B82Y10/00;;G06N7/00</t>
         </is>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;G06N20/00;;G06N7/005;;H03K19/195</t>
+          <t>H03K19/195;;G06N20/00;;B82Y10/00;;G06N7/005;;G06N10/00</t>
         </is>
       </c>
       <c r="R121" t="inlineStr"/>
@@ -13591,12 +13591,12 @@
       </c>
       <c r="X121" t="inlineStr">
         <is>
-          <t>US 10469087 B1;;WO 2020/076493 A1</t>
+          <t>WO 2020/076493 A1;;US 10469087 B1</t>
         </is>
       </c>
       <c r="Y121" t="inlineStr">
         <is>
-          <t>US 2019/0052539 W;;US 201816154552 A</t>
+          <t>US 201816154552 A;;US 2019/0052539 W</t>
         </is>
       </c>
     </row>
@@ -13608,7 +13608,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>035-529-482-932-628;;061-584-301-962-882</t>
+          <t>061-584-301-962-882;;035-529-482-932-628</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -13618,7 +13618,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Multi-mode qubit readout and qubit state assignment;;MULTI-MODE QUBIT READOUT AND QUBIT STATE ASSIGNMENT</t>
+          <t>MULTI-MODE QUBIT READOUT AND QUBIT STATE ASSIGNMENT;;Multi-mode qubit readout and qubit state assignment</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -13628,12 +13628,12 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>IBM;;IBM UK</t>
+          <t>IBM UK;;IBM</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>GAMBETTA JAY;;OLIVADESE SALVATORE BERNARDO;;CORCOLES-GONZALEZ ANTONIO;;GAMBETTA JAY M;;OLIVADESE SALVATORE;;BISHOP LEV SAMUEL;;TEMME PAUL;;TEMME PAUL KRISTAN;;BISHOP LEV</t>
+          <t>GAMBETTA JAY M;;GAMBETTA JAY;;CORCOLES-GONZALEZ ANTONIO;;OLIVADESE SALVATORE BERNARDO;;TEMME PAUL;;BISHOP LEV SAMUEL;;OLIVADESE SALVATORE;;TEMME PAUL KRISTAN;;BISHOP LEV</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -13646,7 +13646,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>WO;;US</t>
+          <t>US;;WO</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -13670,12 +13670,12 @@
       </c>
       <c r="P122" t="inlineStr">
         <is>
-          <t>G06N20/10;;G06F13/40;;G06N99/00;;H03H3/007;;B82Y10/00;;G06N10/00;;G06F9/38</t>
+          <t>G06N20/10;;G06N99/00;;G06F9/38;;B82Y10/00;;H03H3/007;;G06F13/40;;G06N10/00</t>
         </is>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>G06N20/10;;G06F9/3877;;G06N99/00;;G06F13/4068;;H03H3/007;;B82Y10/00;;G06N10/00</t>
+          <t>G06F9/3877;;G06N20/10;;G06F13/4068;;G06N99/00;;B82Y10/00;;H03H3/007;;G06N10/00</t>
         </is>
       </c>
       <c r="R122" t="inlineStr"/>
@@ -13702,7 +13702,7 @@
       </c>
       <c r="X122" t="inlineStr">
         <is>
-          <t>US 10650322 B1;;WO 2020/120183 A1</t>
+          <t>WO 2020/120183 A1;;US 10650322 B1</t>
         </is>
       </c>
       <c r="Y122" t="inlineStr">
@@ -13719,17 +13719,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>130-864-873-155-442;;132-673-414-038-918</t>
+          <t>132-673-414-038-918;;130-864-873-155-442</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>https://lens.org/130-864-873-155-442;;https://lens.org/132-673-414-038-918</t>
+          <t>https://lens.org/132-673-414-038-918;;https://lens.org/130-864-873-155-442</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Multi-mode qubit readout and qubit state assignment;;MULTI-MODE QUBIT READOUT AND QUBIT STATE ASSIGNMENT</t>
+          <t>MULTI-MODE QUBIT READOUT AND QUBIT STATE ASSIGNMENT;;Multi-mode qubit readout and qubit state assignment</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -13744,7 +13744,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>OLIVADESE SALVATORE BERNARDO;;CORCOLES-GONZALEZ ANTONIO;;GAMBETTA JAY M;;BISHOP LEV SAMUEL;;TEMME PAUL KRISTAN</t>
+          <t>CORCOLES-GONZALEZ ANTONIO;;OLIVADESE SALVATORE BERNARDO;;BISHOP LEV SAMUEL;;TEMME PAUL KRISTAN;;GAMBETTA JAY M</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -13767,7 +13767,7 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="M123" t="n">
@@ -13781,12 +13781,12 @@
       </c>
       <c r="P123" t="inlineStr">
         <is>
-          <t>G06F13/40;;G06N99/00;;H03H3/007;;B82Y10/00;;G06N10/00;;G06F9/38</t>
+          <t>G06N99/00;;G06F9/38;;B82Y10/00;;H03H3/007;;G06F13/40;;G06N10/00</t>
         </is>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>G06N20/10;;G06F9/3877;;G06N99/00;;G06F13/4068;;H03H3/007;;B82Y10/00;;G06N10/00</t>
+          <t>G06F9/3877;;G06N20/10;;G06F13/4068;;G06N99/00;;B82Y10/00;;H03H3/007;;G06N10/00</t>
         </is>
       </c>
       <c r="R123" t="inlineStr"/>
@@ -13835,7 +13835,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>https://lens.org/192-647-536-389-238;;https://lens.org/097-696-469-823-539</t>
+          <t>https://lens.org/097-696-469-823-539;;https://lens.org/192-647-536-389-238</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -13855,7 +13855,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>KUCZYNSKI JOSEPH;;PRISCO JOSEPH F;;PRZYBYLSKI KEVIN J;;NEUMAN-HORN DEBRA A;;MISGEN MARVIN M</t>
+          <t>KUCZYNSKI JOSEPH;;MISGEN MARVIN M;;PRISCO JOSEPH F;;NEUMAN-HORN DEBRA A;;PRZYBYLSKI KEVIN J</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -13873,12 +13873,12 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Granted Patent;;Patent Application</t>
+          <t>Patent Application;;Granted Patent</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="M124" t="n">
@@ -13892,12 +13892,12 @@
       </c>
       <c r="P124" t="inlineStr">
         <is>
-          <t>A61B5/00;;B82B3/00;;G06T7/00</t>
+          <t>B82B3/00;;G06T7/00;;A61B5/00</t>
         </is>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>A61B5/6898;;A61B5/0077;;A61B2505/07;;A61B5/411;;G06T7/0012;;B82B3/0014;;A61B5/7267;;A61B5/6802</t>
+          <t>A61B5/7267;;A61B2505/07;;A61B5/6898;;A61B5/0077;;B82B3/0014;;A61B5/411;;A61B5/6802;;G06T7/0012</t>
         </is>
       </c>
       <c r="R124" t="inlineStr"/>
@@ -13966,7 +13966,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>KHOMAMI ABADI MOJTABA;;GAHROOSI AMIR;;GOULD MATTHEW;;MASILAMANI ASHOK</t>
+          <t>MASILAMANI ASHOK;;GAHROOSI AMIR;;KHOMAMI ABADI MOJTABA;;GOULD MATTHEW</t>
         </is>
       </c>
       <c r="H125" t="inlineStr"/>
@@ -13999,12 +13999,12 @@
       </c>
       <c r="P125" t="inlineStr">
         <is>
-          <t>G01N37/00;;G06N3/02;;G06N3/08</t>
+          <t>G06N3/02;;G01N37/00;;G06N3/08</t>
         </is>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>G01N35/00722;;G01N2035/00891;;B82Y15/00;;G01N33/0031;;G01N33/0034</t>
+          <t>G01N33/0031;;G01N33/0034;;G01N2035/00891;;G01N35/00722;;B82Y15/00</t>
         </is>
       </c>
       <c r="R125" t="inlineStr"/>
@@ -14048,7 +14048,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>033-905-450-751-578;;088-697-896-595-479</t>
+          <t>088-697-896-595-479;;033-905-450-751-578</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -14058,7 +14058,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>CHEMICAL SENSING SYSTEM;;Chemical sensing system</t>
+          <t>Chemical sensing system;;CHEMICAL SENSING SYSTEM</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -14073,7 +14073,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>KHOMAMI ABADI MOJTABA;;GOULD MATTHEW V;;MASILAMANI ASHOK PRABHU;;GAHROOSI AMIR BAHADOR</t>
+          <t>GOULD MATTHEW V;;GAHROOSI AMIR BAHADOR;;MASILAMANI ASHOK PRABHU;;KHOMAMI ABADI MOJTABA</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -14091,7 +14091,7 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Granted Patent;;Patent Application</t>
+          <t>Patent Application;;Granted Patent</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
@@ -14115,7 +14115,7 @@
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>G01N35/00722;;G01N2035/00891;;B82Y15/00;;G01N33/0031;;G01N33/0034</t>
+          <t>G01N33/0031;;G01N33/0034;;G01N2035/00891;;G01N35/00722;;B82Y15/00</t>
         </is>
       </c>
       <c r="R126" t="inlineStr"/>
@@ -14184,7 +14184,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>KHOMAMI ABADI MOJTABA;;GOULD MATTHEW V;;MASILAMANI ASHOK PRABHU;;GAHROOSI AMIR BAHADOR</t>
+          <t>GOULD MATTHEW V;;GAHROOSI AMIR BAHADOR;;MASILAMANI ASHOK PRABHU;;KHOMAMI ABADI MOJTABA</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -14226,7 +14226,7 @@
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>G01N35/00722;;G01N2035/00891;;B82Y15/00;;G01N33/0031;;G01N33/0034</t>
+          <t>G01N33/0031;;G01N33/0034;;G01N2035/00891;;G01N35/00722;;B82Y15/00</t>
         </is>
       </c>
       <c r="R127" t="inlineStr"/>
@@ -14295,7 +14295,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>YANG JIANHUA;;XIA QIANGFEI;;MCLEAN MARK;;WU QING</t>
+          <t>MCLEAN MARK;;YANG JIANHUA;;WU QING;;XIA QIANGFEI</t>
         </is>
       </c>
       <c r="H128" t="inlineStr"/>
@@ -14328,12 +14328,12 @@
       </c>
       <c r="P128" t="inlineStr">
         <is>
-          <t>G06N3/04;;G06N3/063;;G06N3/06;;G06N3/08</t>
+          <t>G06N3/063;;G06N3/06;;G06N3/04;;G06N3/08</t>
         </is>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>G06N3/0454;;H01L27/24;;H01L45/146;;G06N3/061;;G06N3/08;;G06N3/0481;;G06N3/0635;;B82Y15/00;;B82Y10/00;;G06N3/088;;G06N3/063</t>
+          <t>G06N3/063;;H01L27/24;;G06N3/0481;;B82Y10/00;;G06N3/08;;G06N3/088;;G06N3/0454;;G06N3/0635;;G06N3/061;;B82Y15/00;;H01L45/146</t>
         </is>
       </c>
       <c r="R128" t="inlineStr"/>
@@ -14435,12 +14435,12 @@
       </c>
       <c r="P129" t="inlineStr">
         <is>
-          <t>B81B3/00;;H02N2/18</t>
+          <t>H02N2/18;;B81B3/00</t>
         </is>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>B81B2203/0307;;H01L41/29;;H02N2/22;;H02N2/188;;H01L41/187;;H01L41/316;;B81B2203/0172;;B81B2207/053;;H02N2/18;;H01L41/332;;B81B3/0045;;B81B2201/032;;B81B3/0021;;H01L41/1136;;H01L41/0477;;B81B2203/058</t>
+          <t>B81B2203/0172;;H02N2/18;;H01L41/316;;B81B3/0021;;H01L41/332;;H01L41/187;;H01L41/29;;B81B2203/058;;H01L41/0477;;H02N2/188;;B81B2201/032;;H01L41/1136;;H02N2/22;;B81B2203/0307;;B81B2207/053;;B81B3/0045</t>
         </is>
       </c>
       <c r="R129" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>PARK HYUNJUN;;LEAKE DEVIN;;ROQUET NATHANIEL;;BHATIA SWAPNIL</t>
+          <t>PARK HYUNJUN;;ROQUET NATHANIEL;;LEAKE DEVIN;;BHATIA SWAPNIL</t>
         </is>
       </c>
       <c r="H130" t="inlineStr"/>
@@ -14542,12 +14542,12 @@
       </c>
       <c r="P130" t="inlineStr">
         <is>
-          <t>G16B50/20;;H03M13/15;;C12Q1/68;;G16B30/00;;H03M13/37</t>
+          <t>C12Q1/68;;G16B50/20;;H03M13/15;;H03M13/37;;G16B30/00</t>
         </is>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>G16B50/20;;H03M13/05;;G16B25/00;;G16B25/20;;G06N3/123;;G16B99/00;;B82Y10/00;;G16B30/00;;G16B50/30</t>
+          <t>G06N3/123;;G16B99/00;;G16B50/20;;G16B25/00;;G16B50/30;;B82Y10/00;;G16B25/20;;H03M13/05;;G16B30/00</t>
         </is>
       </c>
       <c r="R130" t="inlineStr"/>
@@ -14596,12 +14596,12 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>https://lens.org/117-020-155-203-357;;https://lens.org/148-258-953-210-353;;https://lens.org/077-447-134-917-741;;https://lens.org/067-489-341-104-332</t>
+          <t>https://lens.org/077-447-134-917-741;;https://lens.org/148-258-953-210-353;;https://lens.org/067-489-341-104-332;;https://lens.org/117-020-155-203-357</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Compositions and methods for nucleic acid-based data storage;;COMPOSITIONS AND METHODS FOR NUCLEIC ACID-BASED DATA STORAGE;;핵산-기반 데이터를 저장하기 위한 조성물 및 방법</t>
+          <t>Compositions and methods for nucleic acid-based data storage;;핵산-기반 데이터를 저장하기 위한 조성물 및 방법;;COMPOSITIONS AND METHODS FOR NUCLEIC ACID-BASED DATA STORAGE</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -14611,12 +14611,12 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>CATALOG TECHNOLOGIES INC;;CATALOG TECH INC</t>
+          <t>CATALOG TECH INC;;CATALOG TECHNOLOGIES INC</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>BHATIA SWAPNIL P;;PARK HYUNJUN;;LEAKE DEVIN;;ROQUET NATHANIEL</t>
+          <t>PARK HYUNJUN;;BHATIA SWAPNIL P;;ROQUET NATHANIEL;;LEAKE DEVIN</t>
         </is>
       </c>
       <c r="H131" t="inlineStr"/>
@@ -14625,7 +14625,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>EP;;KR;;CA;;AU</t>
+          <t>KR;;CA;;EP;;AU</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -14649,12 +14649,12 @@
       </c>
       <c r="P131" t="inlineStr">
         <is>
-          <t>G16B50/20;;H03M13/15;;H03M13/05;;G06N3/12;;C12Q1/68;;G16B30/00;;G16B50/30;;B82Y10/00;;H03M13/37</t>
+          <t>C12Q1/68;;G16B50/20;;G06N3/12;;G16B50/30;;B82Y10/00;;H03M13/15;;H03M13/05;;H03M13/37;;G16B30/00</t>
         </is>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>G16B50/20;;H03M13/05;;G16B25/00;;G16B25/20;;G06N3/123;;G16B99/00;;B82Y10/00;;G16B30/00;;G16B50/30</t>
+          <t>G06N3/123;;G16B99/00;;G16B50/20;;G16B25/00;;G16B50/30;;B82Y10/00;;G16B25/20;;H03M13/05;;G16B30/00</t>
         </is>
       </c>
       <c r="R131" t="inlineStr"/>
@@ -14681,12 +14681,12 @@
       </c>
       <c r="X131" t="inlineStr">
         <is>
-          <t>CA 3100529 A1;;KR 20210029147 A;;EP 3794598 A1;;AU 2019/270159 A1</t>
+          <t>EP 3794598 A1;;KR 20210029147 A;;AU 2019/270159 A1;;CA 3100529 A1</t>
         </is>
       </c>
       <c r="Y131" t="inlineStr">
         <is>
-          <t>KR 20207036043 A;;EP 19728816 A;;CA 3100529 A;;AU 2019/270159 A</t>
+          <t>CA 3100529 A;;EP 19728816 A;;KR 20207036043 A;;AU 2019/270159 A</t>
         </is>
       </c>
     </row>
@@ -14723,7 +14723,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>BHATIA SWAPNIL P;;PARK HYUNJUN;;LEAKE DEVIN;;ROQUET NATHANIEL</t>
+          <t>PARK HYUNJUN;;BHATIA SWAPNIL P;;ROQUET NATHANIEL;;LEAKE DEVIN</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -14760,12 +14760,12 @@
       </c>
       <c r="P132" t="inlineStr">
         <is>
-          <t>G16B50/30;;G16B30/00;;G06N3/12</t>
+          <t>G16B50/30;;G06N3/12;;G16B30/00</t>
         </is>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>G16B50/20;;H03M13/05;;G16B25/00;;G16B25/20;;G06N3/123;;G16B99/00;;B82Y10/00;;G16B30/00;;G16B50/30</t>
+          <t>G06N3/123;;G16B99/00;;G16B50/20;;G16B25/00;;G16B50/30;;B82Y10/00;;G16B25/20;;H03M13/05;;G16B30/00</t>
         </is>
       </c>
       <c r="R132" t="inlineStr"/>
@@ -14834,7 +14834,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>BHATIA SWAPNIL P;;PARK HYUNJUN;;LEAKE DEVIN;;ROQUET NATHANIEL</t>
+          <t>PARK HYUNJUN;;BHATIA SWAPNIL P;;ROQUET NATHANIEL;;LEAKE DEVIN</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -14871,12 +14871,12 @@
       </c>
       <c r="P133" t="inlineStr">
         <is>
-          <t>G16B50/30;;G16B30/00;;G06N3/12</t>
+          <t>G16B50/30;;G06N3/12;;G16B30/00</t>
         </is>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>G16B50/20;;H03M13/05;;G16B25/00;;G16B25/20;;G06N3/123;;G16B99/00;;B82Y10/00;;G16B30/00;;G16B50/30</t>
+          <t>G06N3/123;;G16B99/00;;G16B50/20;;G16B25/00;;G16B50/30;;B82Y10/00;;G16B25/20;;H03M13/05;;G16B30/00</t>
         </is>
       </c>
       <c r="R133" t="inlineStr"/>
@@ -14945,7 +14945,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>SPRACHMAN MELISSA;;BYRNES STEVEN;;CAVANAGH PETER;;FAVALORA GREGG;;KOTZ KENNETH;;MAGYAR ANDREW;;MARKOVIC STACEY;;VARGO EMMA;;ROSENBERGER ERIN;;HUANG HAIYAO;;DUBAY RYAN;;FRANK IAN;;MCFARLAND KIRSTY</t>
+          <t>CAVANAGH PETER;;ROSENBERGER ERIN;;VARGO EMMA;;SPRACHMAN MELISSA;;FAVALORA GREGG;;KOTZ KENNETH;;MARKOVIC STACEY;;HUANG HAIYAO;;MCFARLAND KIRSTY;;FRANK IAN;;DUBAY RYAN;;BYRNES STEVEN;;MAGYAR ANDREW</t>
         </is>
       </c>
       <c r="H134" t="inlineStr"/>
@@ -14978,12 +14978,12 @@
       </c>
       <c r="P134" t="inlineStr">
         <is>
-          <t>B01J19/00;;G06N3/12</t>
+          <t>G06N3/12;;B01J19/00</t>
         </is>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>G11C13/02;;C12N15/1068;;B01J2219/00722;;G06N3/123;;C12N9/12;;B01J2219/00711;;B81B1/006;;B01L3/527;;B01L3/5027;;B01J2219/00439;;B01J2219/00511;;C12N15/1065;;B01J2219/00495;;C12P19/34;;B01J2219/0052;;B01J2219/00596;;B01L3/50851;;C12N15/1006;;B01J2219/00448;;B01J19/0046;;B01L3/502761;;B01J2219/00436</t>
+          <t>B01J19/0046;;C12N15/1006;;B01J2219/00439;;C12N15/1068;;B01J2219/00511;;C12P19/34;;B01J2219/00495;;G06N3/123;;B01L3/527;;B01J2219/00436;;C12N15/1065;;B01J2219/00711;;B01L3/502761;;B01J2219/0052;;G11C13/02;;C12N9/12;;B01J2219/00722;;B01J2219/00596;;B81B1/006;;B01J2219/00448;;B01L3/5027;;B01L3/50851</t>
         </is>
       </c>
       <c r="R134" t="inlineStr"/>
@@ -15052,7 +15052,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>SPRACHMAN MELISSA M;;FRANK IAN WARD;;FAVALORA GREGG E;;DUBAY RYAN A;;CAVANAGH PETER;;MCFARLAND KIRSTY A;;KOTZ KENNETH T;;MARKOVIC STACEY;;BYRNES STEVEN J;;MAGYAR ANDREW P;;VARGO EMMA;;HUANG HAIYAO;;ROSENBERGER ERIN</t>
+          <t>DUBAY RYAN A;;CAVANAGH PETER;;ROSENBERGER ERIN;;FRANK IAN WARD;;FAVALORA GREGG E;;SPRACHMAN MELISSA M;;KOTZ KENNETH T;;MARKOVIC STACEY;;MCFARLAND KIRSTY A;;HUANG HAIYAO;;BYRNES STEVEN J;;VARGO EMMA;;MAGYAR ANDREW P</t>
         </is>
       </c>
       <c r="H135" t="inlineStr"/>
@@ -15085,12 +15085,12 @@
       </c>
       <c r="P135" t="inlineStr">
         <is>
-          <t>G06N3/12;;B81B1/00;;B01L3/00;;C12N9/12;;C12P19/34;;C12N15/10</t>
+          <t>C12N15/10;;G06N3/12;;C12P19/34;;B01L3/00;;C12N9/12;;B81B1/00</t>
         </is>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>G11C13/02;;C12N15/1068;;B01J2219/00722;;G06N3/123;;C12N9/12;;B01J2219/00711;;B81B1/006;;B01L3/527;;B01L3/5027;;B01J2219/00439;;B01J2219/00511;;C12N15/1065;;B01J2219/00495;;C12P19/34;;B01J2219/0052;;B01J2219/00596;;B01L3/50851;;C12N15/1006;;B01J2219/00448;;B01J19/0046;;B01L3/502761;;B01J2219/00436</t>
+          <t>B01J19/0046;;C12N15/1006;;B01J2219/00439;;C12N15/1068;;B01J2219/00511;;C12P19/34;;B01J2219/00495;;G06N3/123;;B01L3/527;;B01J2219/00436;;C12N15/1065;;B01J2219/00711;;B01L3/502761;;B01J2219/0052;;G11C13/02;;C12N9/12;;B01J2219/00722;;B01J2219/00596;;B81B1/006;;B01J2219/00448;;B01L3/5027;;B01L3/50851</t>
         </is>
       </c>
       <c r="R135" t="inlineStr"/>
@@ -15159,7 +15159,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>TEZAK NIKOLAS ANTON;;ZENG WILLIAM J;;JOHNSON BLAKE ROBERT;;RIGETTI CHAD TYLER</t>
+          <t>JOHNSON BLAKE ROBERT;;TEZAK NIKOLAS ANTON;;RIGETTI CHAD TYLER;;ZENG WILLIAM J</t>
         </is>
       </c>
       <c r="H136" t="inlineStr"/>
@@ -15192,12 +15192,12 @@
       </c>
       <c r="P136" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00</t>
+          <t>G06N10/00;;B82Y10/00</t>
         </is>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>G06N20/00;;G06N3/0472;;B82Y10/00;;G06N10/00;;G06N5/003;;G06N3/0454;;G06N7/005</t>
+          <t>G06N7/005;;G06N5/003;;G06N20/00;;G06N3/0472;;B82Y10/00;;G06N3/0454;;G06N10/00</t>
         </is>
       </c>
       <c r="R136" t="inlineStr"/>
@@ -15262,7 +15262,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>TEZAK NIKOLAS ANTON;;ZENG WILLIAM J;;JOHNSON BLAKE ROBERT;;RIGETTI CHAD TYLER</t>
+          <t>JOHNSON BLAKE ROBERT;;TEZAK NIKOLAS ANTON;;RIGETTI CHAD TYLER;;ZENG WILLIAM J</t>
         </is>
       </c>
       <c r="H137" t="inlineStr"/>
@@ -15295,12 +15295,12 @@
       </c>
       <c r="P137" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00</t>
+          <t>G06N10/00;;B82Y10/00</t>
         </is>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>G06N20/00;;G06N3/0472;;B82Y10/00;;G06N10/00;;G06N5/003;;G06N3/0454;;G06N7/005</t>
+          <t>G06N7/005;;G06N5/003;;G06N20/00;;G06N3/0472;;B82Y10/00;;G06N3/0454;;G06N10/00</t>
         </is>
       </c>
       <c r="R137" t="inlineStr"/>
@@ -15369,7 +15369,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>JIANG ZHUOLIN;;SIU MAN-HUNG;;FONG KIN CHUNG</t>
+          <t>JIANG ZHUOLIN;;FONG KIN CHUNG;;SIU MAN-HUNG</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -15406,12 +15406,12 @@
       </c>
       <c r="P138" t="inlineStr">
         <is>
-          <t>G06K9/62;;C01B32/19;;G06N3/04;;B82Y10/00;;B82Y30/00</t>
+          <t>B82Y30/00;;C01B32/19;;G06K9/62;;B82Y10/00;;G06N3/04</t>
         </is>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>G06N3/0418;;G06K9/6267;;G06K9/00147;;C01B32/19;;B82Y10/00;;G06N3/084;;B82Y30/00;;G06N3/0454</t>
+          <t>G06N3/0418;;G06N3/084;;G06K9/6267;;G06K9/00147;;B82Y30/00;;C01B32/19;;B82Y10/00;;G06N3/0454</t>
         </is>
       </c>
       <c r="R138" t="inlineStr"/>
@@ -15480,7 +15480,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -15517,12 +15517,12 @@
       </c>
       <c r="P139" t="inlineStr">
         <is>
-          <t>H01L29/12;;H01L29/15;;B82Y15/00;;B82Y10/00;;G06N10/00;;H01L39/22;;H01L29/66;;H01L27/18</t>
+          <t>H01L29/12;;H01L29/15;;H01L27/18;;B82Y10/00;;G06N10/00;;H01L29/66;;B82Y15/00;;H01L39/22</t>
         </is>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>H03K3/38;;G06F11/0751;;G06F15/16;;G11C11/44;;H01L29/66984;;H01L27/0886;;G06N10/00;;H01L39/221;;H03M1/34;;H01L29/66977;;G06N5/003;;H03M13/1575;;H01L27/0883;;G02F1/01791;;H01L27/18;;H01L29/6681;;H01L33/04;;H01L29/0692;;G06F11/0793;;H01L29/66439;;G06N99/00;;B82Y10/00;;H01L39/228;;H01L29/41791;;H01L29/157;;H01L21/02694;;H01L29/423;;G11C19/32;;H03M1/66;;G06F11/0724;;H01L29/122;;H01L29/0673;;G02F1/01725;;B82Y15/00;;G06F1/20;;H03K19/195</t>
+          <t>H01L29/6681;;H01L29/66977;;H01L29/66439;;G06N99/00;;H01L27/18;;H01L29/0692;;H01L29/423;;B82Y15/00;;H01L27/0883;;G06F11/0751;;H01L29/122;;H01L27/0886;;G11C11/44;;G06F11/0724;;B82Y10/00;;G06F15/16;;H01L39/228;;G02F1/01791;;G06N10/00;;H01L29/66984;;H03K19/195;;H01L29/0673;;H01L33/04;;H01L21/02694;;H03K3/38;;H03M13/1575;;G02F1/01725;;G06F1/20;;H03M1/66;;G06F11/0793;;G06N5/003;;H01L29/157;;H01L29/41791;;H01L39/221;;H03M1/34;;G11C19/32</t>
         </is>
       </c>
       <c r="R139" t="inlineStr"/>
@@ -15566,7 +15566,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>039-325-419-329-181;;004-912-591-884-968</t>
+          <t>004-912-591-884-968;;039-325-419-329-181</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -15591,7 +15591,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -15609,12 +15609,12 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>Granted Patent;;Patent Application</t>
+          <t>Patent Application;;Granted Patent</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="M140" t="n">
@@ -15628,12 +15628,12 @@
       </c>
       <c r="P140" t="inlineStr">
         <is>
-          <t>H01L21/02;;H03K3/38;;G06F15/16;;G06F11/07;;G06N10/00;;H01L29/66;;H01L29/12;;H01L27/088;;H01L29/15;;H03M1/34;;G02F1/017;;H01L27/18;;H01L33/04;;G06N99/00;;B82Y10/00;;H01L39/02;;G11C19/32;;H03M1/66;;H01L29/417;;B82Y15/00;;H01L39/22;;G06F1/20;;H03K19/195</t>
+          <t>G06N99/00;;H01L27/18;;B82Y15/00;;H01L29/417;;B82Y10/00;;G06F15/16;;H01L27/088;;G06N10/00;;H01L29/66;;H01L39/22;;G02F1/017;;H01L39/02;;H03K19/195;;H01L33/04;;H01L21/02;;H03K3/38;;G06F1/20;;H01L29/12;;H03M1/66;;H01L29/15;;G06F11/07;;H03M1/34;;G11C19/32</t>
         </is>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>H03K3/38;;G06F11/0751;;G06F15/16;;G11C11/44;;H01L29/66984;;H01L27/0886;;G06N10/00;;H01L39/221;;H03M1/34;;H01L29/66977;;G06N5/003;;H03M13/1575;;H01L27/0883;;G02F1/01791;;H01L27/18;;H01L29/6681;;H01L33/04;;H01L29/0692;;G06F11/0793;;H01L29/66439;;G06N99/00;;B82Y10/00;;H01L39/228;;H01L29/41791;;H01L29/157;;H01L21/02694;;H01L29/423;;G11C19/32;;H03M1/66;;G06F11/0724;;H01L29/122;;H01L29/0673;;G02F1/01725;;B82Y15/00;;G06F1/20;;H03K19/195</t>
+          <t>H01L29/6681;;H01L29/66977;;H01L29/66439;;G06N99/00;;H01L27/18;;H01L29/0692;;H01L29/423;;B82Y15/00;;H01L27/0883;;G06F11/0751;;H01L29/122;;H01L27/0886;;G11C11/44;;G06F11/0724;;B82Y10/00;;G06F15/16;;H01L39/228;;G02F1/01791;;G06N10/00;;H01L29/66984;;H03K19/195;;H01L29/0673;;H01L33/04;;H01L21/02694;;H03K3/38;;H03M13/1575;;G02F1/01725;;G06F1/20;;H03M1/66;;G06F11/0793;;G06N5/003;;H01L29/157;;H01L29/41791;;H01L39/221;;H03M1/34;;G11C19/32</t>
         </is>
       </c>
       <c r="R140" t="inlineStr"/>
@@ -15660,7 +15660,7 @@
       </c>
       <c r="X140" t="inlineStr">
         <is>
-          <t>US 2019/0393397 A1;;US 10934163 B2</t>
+          <t>US 10934163 B2;;US 2019/0393397 A1</t>
         </is>
       </c>
       <c r="Y140" t="inlineStr">
@@ -15702,7 +15702,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -15739,12 +15739,12 @@
       </c>
       <c r="P141" t="inlineStr">
         <is>
-          <t>H01L29/12;;H01L29/15;;B82Y15/00;;B82Y10/00;;G06N10/00;;H01L39/22</t>
+          <t>H01L29/12;;H01L29/15;;B82Y10/00;;G06N10/00;;B82Y15/00;;H01L39/22</t>
         </is>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>H03K3/38;;G06F11/0751;;G06F15/16;;G11C11/44;;H01L29/66984;;H01L27/0886;;G06N10/00;;H01L39/221;;H03M1/34;;H01L29/66977;;G06N5/003;;H03M13/1575;;H01L27/0883;;G02F1/01791;;H01L27/18;;H01L29/6681;;H01L33/04;;H01L29/0692;;G06F11/0793;;H01L29/66439;;G06N99/00;;B82Y10/00;;H01L39/228;;H01L29/41791;;H01L29/157;;H01L21/02694;;H01L29/423;;G11C19/32;;H03M1/66;;G06F11/0724;;H01L29/122;;H01L29/0673;;G02F1/01725;;B82Y15/00;;G06F1/20;;H03K19/195</t>
+          <t>H01L29/6681;;H01L29/66977;;H01L29/66439;;G06N99/00;;H01L27/18;;H01L29/0692;;H01L29/423;;B82Y15/00;;H01L27/0883;;G06F11/0751;;H01L29/122;;H01L27/0886;;G11C11/44;;G06F11/0724;;B82Y10/00;;G06F15/16;;H01L39/228;;G02F1/01791;;G06N10/00;;H01L29/66984;;H03K19/195;;H01L29/0673;;H01L33/04;;H01L21/02694;;H03K3/38;;H03M13/1575;;G02F1/01725;;G06F1/20;;H03M1/66;;G06F11/0793;;G06N5/003;;H01L29/157;;H01L29/41791;;H01L39/221;;H03M1/34;;G11C19/32</t>
         </is>
       </c>
       <c r="R141" t="inlineStr"/>
@@ -15813,7 +15813,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -15850,12 +15850,12 @@
       </c>
       <c r="P142" t="inlineStr">
         <is>
-          <t>H01L29/12;;G06N10/00;;G06N99/00;;H01L29/66</t>
+          <t>G06N10/00;;H01L29/12;;H01L29/66;;G06N99/00</t>
         </is>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>H03K3/38;;G06F11/0751;;G06F15/16;;G11C11/44;;H01L29/66984;;H01L27/0886;;G06N10/00;;H01L39/221;;H03M1/34;;H01L29/66977;;G06N5/003;;H03M13/1575;;H01L27/0883;;G02F1/01791;;H01L27/18;;H01L29/6681;;H01L33/04;;H01L29/0692;;G06F11/0793;;H01L29/66439;;G06N99/00;;B82Y10/00;;H01L39/228;;H01L29/41791;;H01L29/157;;H01L21/02694;;H01L29/423;;G11C19/32;;H03M1/66;;G06F11/0724;;H01L29/122;;H01L29/0673;;G02F1/01725;;B82Y15/00;;G06F1/20;;H03K19/195</t>
+          <t>H01L29/6681;;H01L29/66977;;H01L29/66439;;G06N99/00;;H01L27/18;;H01L29/0692;;H01L29/423;;B82Y15/00;;H01L27/0883;;G06F11/0751;;H01L29/122;;H01L27/0886;;G11C11/44;;G06F11/0724;;B82Y10/00;;G06F15/16;;H01L39/228;;G02F1/01791;;G06N10/00;;H01L29/66984;;H03K19/195;;H01L29/0673;;H01L33/04;;H01L21/02694;;H03K3/38;;H03M13/1575;;G02F1/01725;;G06F1/20;;H03M1/66;;G06F11/0793;;G06N5/003;;H01L29/157;;H01L29/41791;;H01L39/221;;H03M1/34;;G11C19/32</t>
         </is>
       </c>
       <c r="R142" t="inlineStr"/>
@@ -15924,7 +15924,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -15961,12 +15961,12 @@
       </c>
       <c r="P143" t="inlineStr">
         <is>
-          <t>H01L29/12;;G06N10/00;;G06N99/00;;H01L29/66</t>
+          <t>G06N10/00;;H01L29/12;;H01L29/66;;G06N99/00</t>
         </is>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>H03K3/38;;G06F11/0751;;G06F15/16;;G11C11/44;;H01L29/66984;;H01L27/0886;;G06N10/00;;H01L39/221;;H03M1/34;;H01L29/66977;;G06N5/003;;H03M13/1575;;H01L27/0883;;G02F1/01791;;H01L27/18;;H01L29/6681;;H01L33/04;;H01L29/0692;;G06F11/0793;;H01L29/66439;;G06N99/00;;B82Y10/00;;H01L39/228;;H01L29/41791;;H01L29/157;;H01L21/02694;;H01L29/423;;G11C19/32;;H03M1/66;;G06F11/0724;;H01L29/122;;H01L29/0673;;G02F1/01725;;B82Y15/00;;G06F1/20;;H03K19/195</t>
+          <t>H01L29/6681;;H01L29/66977;;H01L29/66439;;G06N99/00;;H01L27/18;;H01L29/0692;;H01L29/423;;B82Y15/00;;H01L27/0883;;G06F11/0751;;H01L29/122;;H01L27/0886;;G11C11/44;;G06F11/0724;;B82Y10/00;;G06F15/16;;H01L39/228;;G02F1/01791;;G06N10/00;;H01L29/66984;;H03K19/195;;H01L29/0673;;H01L33/04;;H01L21/02694;;H03K3/38;;H03M13/1575;;G02F1/01725;;G06F1/20;;H03M1/66;;G06F11/0793;;G06N5/003;;H01L29/157;;H01L29/41791;;H01L39/221;;H03M1/34;;G11C19/32</t>
         </is>
       </c>
       <c r="R143" t="inlineStr"/>
@@ -16015,7 +16015,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>https://lens.org/158-343-595-368-036;;https://lens.org/011-963-361-550-915</t>
+          <t>https://lens.org/011-963-361-550-915;;https://lens.org/158-343-595-368-036</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -16035,7 +16035,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -16058,7 +16058,7 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="M144" t="n">
@@ -16072,12 +16072,12 @@
       </c>
       <c r="P144" t="inlineStr">
         <is>
-          <t>H01L29/12;;G06N10/00;;H01L29/775;;H01L29/66</t>
+          <t>G06N10/00;;H01L29/12;;H01L29/66;;H01L29/775</t>
         </is>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>H01L29/423;;H01L29/66977;;H01L29/122;;H01L29/7391;;H01L29/0673;;B82Y10/00;;G06N10/00;;H01L29/7613;;G06N20/00;;H01L29/775</t>
+          <t>H01L29/7613;;H01L29/775;;H01L29/66977;;H01L29/122;;H01L29/0673;;G06N20/00;;B82Y10/00;;G06N10/00;;H01L29/423;;H01L29/7391</t>
         </is>
       </c>
       <c r="R144" t="inlineStr"/>
@@ -16121,12 +16121,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>080-114-460-350-94X;;076-785-932-751-18X</t>
+          <t>076-785-932-751-18X;;080-114-460-350-94X</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>https://lens.org/076-785-932-751-18X;;https://lens.org/080-114-460-350-94X</t>
+          <t>https://lens.org/080-114-460-350-94X;;https://lens.org/076-785-932-751-18X</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -16146,7 +16146,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -16169,7 +16169,7 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="M145" t="n">
@@ -16183,12 +16183,12 @@
       </c>
       <c r="P145" t="inlineStr">
         <is>
-          <t>H01L21/02;;H01L39/24;;G06F15/16;;G06F11/07;;G06N10/00;;H01L29/66;;H01L29/12;;H01L27/088;;H01L29/15;;H03M1/34;;G02F1/017;;H01L27/18;;H01L33/04;;G06N99/00;;B82Y10/00;;H01L39/02;;G11C19/32;;H03M1/66;;H01L29/417;;B82Y15/00;;H01L39/22;;G06F1/20;;H03K19/195</t>
+          <t>G06N99/00;;H01L27/18;;B82Y15/00;;H01L29/417;;B82Y10/00;;G06F15/16;;H01L27/088;;G06N10/00;;H01L29/66;;G02F1/017;;H01L39/22;;H01L39/02;;H03K19/195;;H01L33/04;;H01L21/02;;H01L39/24;;G06F1/20;;H01L29/12;;H03M1/66;;H01L29/15;;G06F11/07;;H03M1/34;;G11C19/32</t>
         </is>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>H03K3/38;;G06F11/0751;;G06F15/16;;G11C11/44;;H01L29/66984;;H01L27/0886;;G06N10/00;;H01L39/221;;H03M1/34;;H01L29/66977;;G06N5/003;;H03M13/1575;;H01L27/0883;;G02F1/01791;;H01L27/18;;H01L29/6681;;H01L33/04;;H01L29/0692;;G06F11/0793;;H01L29/66439;;G06N99/00;;B82Y10/00;;H01L39/228;;H01L29/41791;;H01L29/157;;H01L21/02694;;H01L29/423;;G11C19/32;;H03M1/66;;G06F11/0724;;H01L29/122;;H01L29/0673;;G02F1/01725;;B82Y15/00;;G06F1/20;;H03K19/195</t>
+          <t>H01L29/6681;;H01L29/66977;;H01L29/66439;;G06N99/00;;H01L27/18;;H01L29/0692;;H01L29/423;;B82Y15/00;;H01L27/0883;;G06F11/0751;;H01L29/122;;H01L27/0886;;G11C11/44;;G06F11/0724;;B82Y10/00;;G06F15/16;;H01L39/228;;G02F1/01791;;G06N10/00;;H01L29/66984;;H03K19/195;;H01L29/0673;;H01L33/04;;H01L21/02694;;H03K3/38;;H03M13/1575;;G02F1/01725;;G06F1/20;;H03M1/66;;G06F11/0793;;G06N5/003;;H01L29/157;;H01L29/41791;;H01L39/221;;H03M1/34;;G11C19/32</t>
         </is>
       </c>
       <c r="R145" t="inlineStr"/>
@@ -16232,7 +16232,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>058-546-302-456-492;;176-554-120-843-908</t>
+          <t>176-554-120-843-908;;058-546-302-456-492</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -16242,7 +16242,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Semiconductor process for quantum structures with staircase active well incorporating shared gate control;;Semiconductor Process For Quantum Structures With Staircase Active Well Incorporating Shared Gate Control</t>
+          <t>Semiconductor Process For Quantum Structures With Staircase Active Well Incorporating Shared Gate Control;;Semiconductor process for quantum structures with staircase active well incorporating shared gate control</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -16257,7 +16257,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -16280,7 +16280,7 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="M146" t="n">
@@ -16294,12 +16294,12 @@
       </c>
       <c r="P146" t="inlineStr">
         <is>
-          <t>H01L29/12;;G02F1/017;;G06N10/00;;H01L29/775</t>
+          <t>G06N10/00;;H01L29/12;;H01L29/775;;G02F1/017</t>
         </is>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>H01L29/423;;H01L29/66977;;H01L29/122;;H01L29/7613;;H01L29/7391;;H01L29/0673;;G02F1/01725;;B82Y10/00;;G06N10/00;;G06N5/003;;H01L29/775</t>
+          <t>G02F1/01725;;H01L29/7613;;H01L29/775;;H01L29/66977;;H01L29/122;;G06N5/003;;H01L29/0673;;B82Y10/00;;G06N10/00;;H01L29/423;;H01L29/7391</t>
         </is>
       </c>
       <c r="R146" t="inlineStr"/>
@@ -16326,7 +16326,7 @@
       </c>
       <c r="X146" t="inlineStr">
         <is>
-          <t>US 2020/0227522 A1;;US 10861940 B2</t>
+          <t>US 10861940 B2;;US 2020/0227522 A1</t>
         </is>
       </c>
       <c r="Y146" t="inlineStr">
@@ -16348,7 +16348,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>https://lens.org/056-475-461-942-123;;https://lens.org/126-784-143-304-325</t>
+          <t>https://lens.org/126-784-143-304-325;;https://lens.org/056-475-461-942-123</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -16368,7 +16368,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -16391,7 +16391,7 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="M147" t="n">
@@ -16405,12 +16405,12 @@
       </c>
       <c r="P147" t="inlineStr">
         <is>
-          <t>H01L21/02;;H01L29/12;;H03K19/195;;H01L33/04;;G06N99/00;;G02F1/017;;B82Y10/00;;G06N10/00;;H01L29/66</t>
+          <t>H01L29/12;;H03K19/195;;G06N99/00;;H01L33/04;;H01L21/02;;B82Y10/00;;G06N10/00;;H01L29/66;;G02F1/017</t>
         </is>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>H03K3/38;;G06F11/0751;;G06F15/16;;G11C11/44;;H01L29/66984;;H01L27/0886;;G06N10/00;;H01L39/221;;H03M1/34;;H01L29/66977;;G06N5/003;;H03M13/1575;;H01L27/0883;;G02F1/01791;;H01L27/18;;H01L29/6681;;H01L33/04;;H01L29/0692;;G06F11/0793;;H01L29/66439;;G06N99/00;;B82Y10/00;;H01L39/228;;H01L29/41791;;H01L29/157;;H01L21/02694;;H01L29/423;;G11C19/32;;H03M1/66;;G06F11/0724;;H01L29/122;;H01L29/0673;;G02F1/01725;;B82Y15/00;;G06F1/20;;H03K19/195</t>
+          <t>H01L29/6681;;H01L29/66977;;H01L29/66439;;G06N99/00;;H01L27/18;;H01L29/0692;;H01L29/423;;B82Y15/00;;H01L27/0883;;G06F11/0751;;H01L29/122;;H01L27/0886;;G11C11/44;;G06F11/0724;;B82Y10/00;;G06F15/16;;H01L39/228;;G02F1/01791;;G06N10/00;;H01L29/66984;;H03K19/195;;H01L29/0673;;H01L33/04;;H01L21/02694;;H03K3/38;;H03M13/1575;;G02F1/01725;;G06F1/20;;H03M1/66;;G06F11/0793;;G06N5/003;;H01L29/157;;H01L29/41791;;H01L39/221;;H03M1/34;;G11C19/32</t>
         </is>
       </c>
       <c r="R147" t="inlineStr"/>
@@ -16454,7 +16454,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>163-554-660-882-527;;103-370-753-926-944</t>
+          <t>103-370-753-926-944;;163-554-660-882-527</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -16464,7 +16464,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Semiconductor controlled quantum swap interaction gate;;SEMICONDUCTOR CONTROLLED QUANTUM SWAP INTERACTION GATE</t>
+          <t>SEMICONDUCTOR CONTROLLED QUANTUM SWAP INTERACTION GATE;;Semiconductor controlled quantum swap interaction gate</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -16479,7 +16479,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -16502,7 +16502,7 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="M148" t="n">
@@ -16516,12 +16516,12 @@
       </c>
       <c r="P148" t="inlineStr">
         <is>
-          <t>H01L21/02;;H01L39/24;;G06F15/16;;G06F11/07;;G06N10/00;;H01L29/66;;H01L29/12;;H01L27/088;;H01L29/15;;H03M1/34;;G02F1/017;;H01L27/18;;H01L33/04;;G06N99/00;;B82Y10/00;;H01L39/02;;G11C19/32;;H03M1/66;;H01L29/417;;B82Y15/00;;H01L39/22;;G06F1/20;;H03K19/195</t>
+          <t>G06N99/00;;H01L27/18;;B82Y15/00;;H01L29/417;;B82Y10/00;;G06F15/16;;H01L27/088;;G06N10/00;;H01L29/66;;G02F1/017;;H01L39/22;;H01L39/02;;H03K19/195;;H01L33/04;;H01L21/02;;H01L39/24;;G06F1/20;;H01L29/12;;H03M1/66;;H01L29/15;;G06F11/07;;H03M1/34;;G11C19/32</t>
         </is>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>H03K3/38;;G06F11/0751;;G06F15/16;;G11C11/44;;H01L29/66984;;H01L27/0886;;G06N10/00;;H01L39/221;;H03M1/34;;H01L29/66977;;G06N5/003;;H03M13/1575;;H01L27/0883;;G02F1/01791;;H01L27/18;;H01L29/6681;;H01L33/04;;H01L29/0692;;G06F11/0793;;H01L29/66439;;G06N99/00;;B82Y10/00;;H01L39/228;;H01L29/41791;;H01L29/157;;H01L21/02694;;H01L29/423;;G11C19/32;;H03M1/66;;G06F11/0724;;H01L29/122;;H01L29/0673;;G02F1/01725;;B82Y15/00;;G06F1/20;;H03K19/195</t>
+          <t>H01L29/6681;;H01L29/66977;;H01L29/66439;;G06N99/00;;H01L27/18;;H01L29/0692;;H01L29/423;;B82Y15/00;;H01L27/0883;;G06F11/0751;;H01L29/122;;H01L27/0886;;G11C11/44;;G06F11/0724;;B82Y10/00;;G06F15/16;;H01L39/228;;G02F1/01791;;G06N10/00;;H01L29/66984;;H03K19/195;;H01L29/0673;;H01L33/04;;H01L21/02694;;H03K3/38;;H03M13/1575;;G02F1/01725;;G06F1/20;;H03M1/66;;G06F11/0793;;G06N5/003;;H01L29/157;;H01L29/41791;;H01L39/221;;H03M1/34;;G11C19/32</t>
         </is>
       </c>
       <c r="R148" t="inlineStr"/>
@@ -16548,7 +16548,7 @@
       </c>
       <c r="X148" t="inlineStr">
         <is>
-          <t>US 2019/0393399 A1;;US 10800654 B2</t>
+          <t>US 10800654 B2;;US 2019/0393399 A1</t>
         </is>
       </c>
       <c r="Y148" t="inlineStr">
@@ -16590,7 +16590,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -16627,12 +16627,12 @@
       </c>
       <c r="P149" t="inlineStr">
         <is>
-          <t>H01L29/12;;G06N10/00;;G06N99/00;;H01L29/66</t>
+          <t>G06N10/00;;H01L29/12;;H01L29/66;;G06N99/00</t>
         </is>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>H03K3/38;;G06F11/0751;;G06F15/16;;G11C11/44;;H01L29/66984;;H01L27/0886;;G06N10/00;;H01L39/221;;H03M1/34;;H01L29/66977;;G06N5/003;;H03M13/1575;;H01L27/0883;;G02F1/01791;;H01L27/18;;H01L29/6681;;H01L33/04;;H01L29/0692;;G06F11/0793;;H01L29/66439;;G06N99/00;;B82Y10/00;;H01L39/228;;H01L29/41791;;H01L29/157;;H01L21/02694;;H01L29/423;;G11C19/32;;H03M1/66;;G06F11/0724;;H01L29/122;;H01L29/0673;;G02F1/01725;;B82Y15/00;;G06F1/20;;H03K19/195</t>
+          <t>H01L29/6681;;H01L29/66977;;H01L29/66439;;G06N99/00;;H01L27/18;;H01L29/0692;;H01L29/423;;B82Y15/00;;H01L27/0883;;G06F11/0751;;H01L29/122;;H01L27/0886;;G11C11/44;;G06F11/0724;;B82Y10/00;;G06F15/16;;H01L39/228;;G02F1/01791;;G06N10/00;;H01L29/66984;;H03K19/195;;H01L29/0673;;H01L33/04;;H01L21/02694;;H03K3/38;;H03M13/1575;;G02F1/01725;;G06F1/20;;H03M1/66;;G06F11/0793;;G06N5/003;;H01L29/157;;H01L29/41791;;H01L39/221;;H03M1/34;;G11C19/32</t>
         </is>
       </c>
       <c r="R149" t="inlineStr"/>
@@ -16701,7 +16701,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -16719,12 +16719,12 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>Granted Patent;;Patent Application</t>
+          <t>Patent Application;;Granted Patent</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="M150" t="n">
@@ -16738,12 +16738,12 @@
       </c>
       <c r="P150" t="inlineStr">
         <is>
-          <t>H01L29/12;;H01L39/02;;H03K19/195;;H01L39/24;;G02F1/017;;B82Y10/00;;G06N10/00;;H01L39/22;;H01L29/66</t>
+          <t>H01L39/24;;H01L29/12;;H01L39/02;;H01L39/22;;H03K19/195;;B82Y10/00;;G06N10/00;;H01L29/66;;G02F1/017</t>
         </is>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>H03K3/38;;G06F11/0751;;G06F15/16;;G11C11/44;;H01L29/66984;;H01L27/0886;;G06N10/00;;H01L39/221;;H03M1/34;;H01L29/66977;;G06N5/003;;H03M13/1575;;H01L27/0883;;G02F1/01791;;H01L27/18;;H01L29/6681;;H01L33/04;;H01L29/0692;;G06F11/0793;;H01L29/66439;;G06N99/00;;B82Y10/00;;H01L39/228;;H01L29/41791;;H01L29/157;;H01L21/02694;;H01L29/423;;G11C19/32;;H03M1/66;;G06F11/0724;;H01L29/122;;H01L29/0673;;G02F1/01725;;B82Y15/00;;G06F1/20;;H03K19/195</t>
+          <t>H01L29/6681;;H01L29/66977;;H01L29/66439;;G06N99/00;;H01L27/18;;H01L29/0692;;H01L29/423;;B82Y15/00;;H01L27/0883;;G06F11/0751;;H01L29/122;;H01L27/0886;;G11C11/44;;G06F11/0724;;B82Y10/00;;G06F15/16;;H01L39/228;;G02F1/01791;;G06N10/00;;H01L29/66984;;H03K19/195;;H01L29/0673;;H01L33/04;;H01L21/02694;;H03K3/38;;H03M13/1575;;G02F1/01725;;G06F1/20;;H03M1/66;;G06F11/0793;;G06N5/003;;H01L29/157;;H01L29/41791;;H01L39/221;;H03M1/34;;G11C19/32</t>
         </is>
       </c>
       <c r="R150" t="inlineStr"/>
@@ -16812,7 +16812,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -16849,12 +16849,12 @@
       </c>
       <c r="P151" t="inlineStr">
         <is>
-          <t>H01L27/088;;H03M1/66;;B82Y15/00;;B82Y10/00;;G06N10/00;;H01L39/22;;H01L27/18</t>
+          <t>H03M1/66;;H01L27/18;;B82Y10/00;;H01L27/088;;G06N10/00;;B82Y15/00;;H01L39/22</t>
         </is>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>H03K3/38;;G06F11/0751;;G06F15/16;;G11C11/44;;H01L29/66984;;H01L27/0886;;G06N10/00;;H01L39/221;;H03M1/34;;H01L29/66977;;G06N5/003;;H03M13/1575;;H01L27/0883;;G02F1/01791;;H01L27/18;;H01L29/6681;;H01L33/04;;H01L29/0692;;G06F11/0793;;H01L29/66439;;G06N99/00;;B82Y10/00;;H01L39/228;;H01L29/41791;;H01L29/157;;H01L21/02694;;H01L29/423;;G11C19/32;;H03M1/66;;G06F11/0724;;H01L29/122;;H01L29/0673;;G02F1/01725;;B82Y15/00;;G06F1/20;;H03K19/195</t>
+          <t>H01L29/6681;;H01L29/66977;;H01L29/66439;;G06N99/00;;H01L27/18;;H01L29/0692;;H01L29/423;;B82Y15/00;;H01L27/0883;;G06F11/0751;;H01L29/122;;H01L27/0886;;G11C11/44;;G06F11/0724;;B82Y10/00;;G06F15/16;;H01L39/228;;G02F1/01791;;G06N10/00;;H01L29/66984;;H03K19/195;;H01L29/0673;;H01L33/04;;H01L21/02694;;H03K3/38;;H03M13/1575;;G02F1/01725;;G06F1/20;;H03M1/66;;G06F11/0793;;G06N5/003;;H01L29/157;;H01L29/41791;;H01L39/221;;H03M1/34;;G11C19/32</t>
         </is>
       </c>
       <c r="R151" t="inlineStr"/>
@@ -16923,7 +16923,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -16960,12 +16960,12 @@
       </c>
       <c r="P152" t="inlineStr">
         <is>
-          <t>H01L29/12;;H01L29/417;;B82Y10/00;;G06N10/00;;H01L39/22;;H01L29/66</t>
+          <t>H01L29/12;;H01L29/417;;B82Y10/00;;G06N10/00;;H01L29/66;;H01L39/22</t>
         </is>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>H03K3/38;;G06F11/0751;;G06F15/16;;G11C11/44;;H01L29/66984;;H01L27/0886;;G06N10/00;;H01L39/221;;H03M1/34;;H01L29/66977;;G06N5/003;;H03M13/1575;;H01L27/0883;;G02F1/01791;;H01L27/18;;H01L29/6681;;H01L33/04;;H01L29/0692;;G06F11/0793;;H01L29/66439;;G06N99/00;;B82Y10/00;;H01L39/228;;H01L29/41791;;H01L29/157;;H01L21/02694;;H01L29/423;;G11C19/32;;H03M1/66;;G06F11/0724;;H01L29/122;;H01L29/0673;;G02F1/01725;;B82Y15/00;;G06F1/20;;H03K19/195</t>
+          <t>H01L29/6681;;H01L29/66977;;H01L29/66439;;G06N99/00;;H01L27/18;;H01L29/0692;;H01L29/423;;B82Y15/00;;H01L27/0883;;G06F11/0751;;H01L29/122;;H01L27/0886;;G11C11/44;;G06F11/0724;;B82Y10/00;;G06F15/16;;H01L39/228;;G02F1/01791;;G06N10/00;;H01L29/66984;;H03K19/195;;H01L29/0673;;H01L33/04;;H01L21/02694;;H03K3/38;;H03M13/1575;;G02F1/01725;;G06F1/20;;H03M1/66;;G06F11/0793;;G06N5/003;;H01L29/157;;H01L29/41791;;H01L39/221;;H03M1/34;;G11C19/32</t>
         </is>
       </c>
       <c r="R152" t="inlineStr"/>
@@ -17034,7 +17034,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -17071,12 +17071,12 @@
       </c>
       <c r="P153" t="inlineStr">
         <is>
-          <t>H01L29/12;;H03M1/34;;H01L29/417;;B82Y15/00;;B82Y10/00;;G06N10/00;;H01L39/22;;H01L29/66</t>
+          <t>H01L29/12;;H01L29/417;;H03M1/34;;B82Y10/00;;G06N10/00;;H01L29/66;;B82Y15/00;;H01L39/22</t>
         </is>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>H03K3/38;;G06F11/0751;;G06F15/16;;G11C11/44;;H01L29/66984;;H01L27/0886;;G06N10/00;;H01L39/221;;H03M1/34;;H01L29/66977;;G06N5/003;;H03M13/1575;;H01L27/0883;;G02F1/01791;;H01L27/18;;H01L29/6681;;H01L33/04;;H01L29/0692;;G06F11/0793;;H01L29/66439;;G06N99/00;;B82Y10/00;;H01L39/228;;H01L29/41791;;H01L29/157;;H01L21/02694;;H01L29/423;;G11C19/32;;H03M1/66;;G06F11/0724;;H01L29/122;;H01L29/0673;;G02F1/01725;;B82Y15/00;;G06F1/20;;H03K19/195</t>
+          <t>H01L29/6681;;H01L29/66977;;H01L29/66439;;G06N99/00;;H01L27/18;;H01L29/0692;;H01L29/423;;B82Y15/00;;H01L27/0883;;G06F11/0751;;H01L29/122;;H01L27/0886;;G11C11/44;;G06F11/0724;;B82Y10/00;;G06F15/16;;H01L39/228;;G02F1/01791;;G06N10/00;;H01L29/66984;;H03K19/195;;H01L29/0673;;H01L33/04;;H01L21/02694;;H03K3/38;;H03M13/1575;;G02F1/01725;;G06F1/20;;H03M1/66;;G06F11/0793;;G06N5/003;;H01L29/157;;H01L29/41791;;H01L39/221;;H03M1/34;;G11C19/32</t>
         </is>
       </c>
       <c r="R153" t="inlineStr"/>
@@ -17145,7 +17145,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -17182,12 +17182,12 @@
       </c>
       <c r="P154" t="inlineStr">
         <is>
-          <t>G06F1/20;;G06F11/07;;G06N10/00</t>
+          <t>G06N10/00;;G06F11/07;;G06F1/20</t>
         </is>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>H03K3/38;;G06F11/0751;;G06F15/16;;G11C11/44;;H01L29/66984;;H01L27/0886;;G06N10/00;;H01L39/221;;H03M1/34;;H01L29/66977;;G06N5/003;;H03M13/1575;;H01L27/0883;;G02F1/01791;;H01L27/18;;H01L29/6681;;H01L33/04;;H01L29/0692;;G06F11/0793;;H01L29/66439;;G06N99/00;;B82Y10/00;;H01L39/228;;H01L29/41791;;H01L29/157;;H01L21/02694;;H01L29/423;;G11C19/32;;H03M1/66;;G06F11/0724;;H01L29/122;;H01L29/0673;;G02F1/01725;;B82Y15/00;;G06F1/20;;H03K19/195</t>
+          <t>H01L29/6681;;H01L29/66977;;H01L29/66439;;G06N99/00;;H01L27/18;;H01L29/0692;;H01L29/423;;B82Y15/00;;H01L27/0883;;G06F11/0751;;H01L29/122;;H01L27/0886;;G11C11/44;;G06F11/0724;;B82Y10/00;;G06F15/16;;H01L39/228;;G02F1/01791;;G06N10/00;;H01L29/66984;;H03K19/195;;H01L29/0673;;H01L33/04;;H01L21/02694;;H03K3/38;;H03M13/1575;;G02F1/01725;;G06F1/20;;H03M1/66;;G06F11/0793;;G06N5/003;;H01L29/157;;H01L29/41791;;H01L39/221;;H03M1/34;;G11C19/32</t>
         </is>
       </c>
       <c r="R154" t="inlineStr"/>
@@ -17256,7 +17256,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -17293,12 +17293,12 @@
       </c>
       <c r="P155" t="inlineStr">
         <is>
-          <t>G06F15/16;;G06N10/00</t>
+          <t>G06N10/00;;G06F15/16</t>
         </is>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>H03K3/38;;G06F11/0751;;G06F15/16;;G11C11/44;;H01L29/66984;;H01L27/0886;;G06N10/00;;H01L39/221;;H03M1/34;;H01L29/66977;;G06N5/003;;H03M13/1575;;H01L27/0883;;G02F1/01791;;H01L27/18;;H01L29/6681;;H01L33/04;;H01L29/0692;;G06F11/0793;;H01L29/66439;;G06N99/00;;B82Y10/00;;H01L39/228;;H01L29/41791;;H01L29/157;;H01L21/02694;;H01L29/423;;G11C19/32;;H03M1/66;;G06F11/0724;;H01L29/122;;H01L29/0673;;G02F1/01725;;B82Y15/00;;G06F1/20;;H03K19/195</t>
+          <t>H01L29/6681;;H01L29/66977;;H01L29/66439;;G06N99/00;;H01L27/18;;H01L29/0692;;H01L29/423;;B82Y15/00;;H01L27/0883;;G06F11/0751;;H01L29/122;;H01L27/0886;;G11C11/44;;G06F11/0724;;B82Y10/00;;G06F15/16;;H01L39/228;;G02F1/01791;;G06N10/00;;H01L29/66984;;H03K19/195;;H01L29/0673;;H01L33/04;;H01L21/02694;;H03K3/38;;H03M13/1575;;G02F1/01725;;G06F1/20;;H03M1/66;;G06F11/0793;;G06N5/003;;H01L29/157;;H01L29/41791;;H01L39/221;;H03M1/34;;G11C19/32</t>
         </is>
       </c>
       <c r="R155" t="inlineStr"/>
@@ -17367,7 +17367,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -17404,12 +17404,12 @@
       </c>
       <c r="P156" t="inlineStr">
         <is>
-          <t>H03M13/15;;G06N10/00</t>
+          <t>G06N10/00;;H03M13/15</t>
         </is>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>H03K3/38;;G06F11/0751;;G06F15/16;;G11C11/44;;H01L29/66984;;H01L27/0886;;G06N10/00;;H01L39/221;;H03M1/34;;H01L29/66977;;G06N5/003;;H03M13/1575;;H01L27/0883;;G02F1/01791;;H01L27/18;;H01L29/6681;;H01L33/04;;H01L29/0692;;G06F11/0793;;H01L29/66439;;G06N99/00;;B82Y10/00;;H01L39/228;;H01L29/41791;;H01L29/157;;H01L21/02694;;H01L29/423;;G11C19/32;;H03M1/66;;G06F11/0724;;H01L29/122;;H01L29/0673;;G02F1/01725;;B82Y15/00;;G06F1/20;;H03K19/195</t>
+          <t>H01L29/6681;;H01L29/66977;;H01L29/66439;;G06N99/00;;H01L27/18;;H01L29/0692;;H01L29/423;;B82Y15/00;;H01L27/0883;;G06F11/0751;;H01L29/122;;H01L27/0886;;G11C11/44;;G06F11/0724;;B82Y10/00;;G06F15/16;;H01L39/228;;G02F1/01791;;G06N10/00;;H01L29/66984;;H03K19/195;;H01L29/0673;;H01L33/04;;H01L21/02694;;H03K3/38;;H03M13/1575;;G02F1/01725;;G06F1/20;;H03M1/66;;G06F11/0793;;G06N5/003;;H01L29/157;;H01L29/41791;;H01L39/221;;H03M1/34;;G11C19/32</t>
         </is>
       </c>
       <c r="R156" t="inlineStr"/>
@@ -17453,7 +17453,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>040-562-681-418-942;;108-855-629-246-746</t>
+          <t>108-855-629-246-746;;040-562-681-418-942</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -17463,7 +17463,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>QUANTUM SHIFT REGISTER STRUCTURES;;Quantum shift register structures</t>
+          <t>Quantum shift register structures;;QUANTUM SHIFT REGISTER STRUCTURES</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -17478,7 +17478,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -17501,7 +17501,7 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="M157" t="n">
@@ -17515,12 +17515,12 @@
       </c>
       <c r="P157" t="inlineStr">
         <is>
-          <t>H01L29/12;;G11C19/32;;G02F1/017;;B82Y10/00;;G06N10/00;;H01L29/66;;H03K19/195</t>
+          <t>H01L29/12;;H03K19/195;;B82Y10/00;;G11C19/32;;G06N10/00;;H01L29/66;;G02F1/017</t>
         </is>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>H03K3/38;;G06F11/0751;;G06F15/16;;G11C11/44;;H01L29/66984;;H01L27/0886;;G06N10/00;;H01L39/221;;H03M1/34;;H01L29/66977;;G06N5/003;;H03M13/1575;;H01L27/0883;;G02F1/01791;;H01L27/18;;H01L29/6681;;H01L33/04;;H01L29/0692;;G06F11/0793;;H01L29/66439;;G06N99/00;;B82Y10/00;;H01L39/228;;H01L29/41791;;H01L29/157;;H01L21/02694;;H01L29/423;;G11C19/32;;H03M1/66;;G06F11/0724;;H01L29/122;;H01L29/0673;;G02F1/01725;;B82Y15/00;;G06F1/20;;H03K19/195</t>
+          <t>H01L29/6681;;H01L29/66977;;H01L29/66439;;G06N99/00;;H01L27/18;;H01L29/0692;;H01L29/423;;B82Y15/00;;H01L27/0883;;G06F11/0751;;H01L29/122;;H01L27/0886;;G11C11/44;;G06F11/0724;;B82Y10/00;;G06F15/16;;H01L39/228;;G02F1/01791;;G06N10/00;;H01L29/66984;;H03K19/195;;H01L29/0673;;H01L33/04;;H01L21/02694;;H03K3/38;;H03M13/1575;;G02F1/01725;;G06F1/20;;H03M1/66;;G06F11/0793;;G06N5/003;;H01L29/157;;H01L29/41791;;H01L39/221;;H03M1/34;;G11C19/32</t>
         </is>
       </c>
       <c r="R157" t="inlineStr"/>
@@ -17547,7 +17547,7 @@
       </c>
       <c r="X157" t="inlineStr">
         <is>
-          <t>US 10850978 B2;;US 2019/0392917 A1</t>
+          <t>US 2019/0392917 A1;;US 10850978 B2</t>
         </is>
       </c>
       <c r="Y157" t="inlineStr">
@@ -17564,17 +17564,17 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>007-410-414-786-063;;115-082-311-778-939</t>
+          <t>115-082-311-778-939;;007-410-414-786-063</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>https://lens.org/115-082-311-778-939;;https://lens.org/007-410-414-786-063</t>
+          <t>https://lens.org/007-410-414-786-063;;https://lens.org/115-082-311-778-939</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Quantum Shift Register Structures;;Quantum shift register structures</t>
+          <t>Quantum shift register structures;;Quantum Shift Register Structures</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -17589,7 +17589,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -17626,12 +17626,12 @@
       </c>
       <c r="P158" t="inlineStr">
         <is>
-          <t>H01L29/12;;H03K19/195;;G02F1/017;;B82Y10/00;;G06N10/00;;H01L29/66</t>
+          <t>H01L29/12;;H03K19/195;;B82Y10/00;;G06N10/00;;H01L29/66;;G02F1/017</t>
         </is>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>H03K3/38;;G06F11/0751;;G06F15/16;;G11C11/44;;H01L29/66984;;H01L27/0886;;G06N10/00;;H01L39/221;;H03M1/34;;H01L29/66977;;G06N5/003;;H03M13/1575;;H01L27/0883;;G02F1/01791;;H01L27/18;;H01L29/6681;;H01L33/04;;H01L29/0692;;G06F11/0793;;H01L29/66439;;G06N99/00;;B82Y10/00;;H01L39/228;;H01L29/41791;;H01L29/157;;H01L21/02694;;H01L29/423;;G11C19/32;;H03M1/66;;G06F11/0724;;H01L29/122;;H01L29/0673;;G02F1/01725;;B82Y15/00;;G06F1/20;;H03K19/195</t>
+          <t>H01L29/6681;;H01L29/66977;;H01L29/66439;;G06N99/00;;H01L27/18;;H01L29/0692;;H01L29/423;;B82Y15/00;;H01L27/0883;;G06F11/0751;;H01L29/122;;H01L27/0886;;G11C11/44;;G06F11/0724;;B82Y10/00;;G06F15/16;;H01L39/228;;G02F1/01791;;G06N10/00;;H01L29/66984;;H03K19/195;;H01L29/0673;;H01L33/04;;H01L21/02694;;H03K3/38;;H03M13/1575;;G02F1/01725;;G06F1/20;;H03M1/66;;G06F11/0793;;G06N5/003;;H01L29/157;;H01L29/41791;;H01L39/221;;H03M1/34;;G11C19/32</t>
         </is>
       </c>
       <c r="R158" t="inlineStr"/>
@@ -17680,7 +17680,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>https://lens.org/182-693-748-192-677;;https://lens.org/020-566-032-583-940</t>
+          <t>https://lens.org/020-566-032-583-940;;https://lens.org/182-693-748-192-677</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -17700,7 +17700,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -17718,12 +17718,12 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Granted Patent;;Patent Application</t>
+          <t>Patent Application;;Granted Patent</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="M159" t="n">
@@ -17737,12 +17737,12 @@
       </c>
       <c r="P159" t="inlineStr">
         <is>
-          <t>G11C19/12;;G06N99/00;;G02F1/017;;B82Y10/00;;G06N10/00</t>
+          <t>G06N99/00;;B82Y10/00;;G11C19/12;;G06N10/00;;G02F1/017</t>
         </is>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>H03K3/38;;G06F11/0751;;G06F15/16;;G11C11/44;;H01L29/66984;;H01L27/0886;;G06N10/00;;H01L39/221;;H03M1/34;;H01L29/66977;;G06N5/003;;H03M13/1575;;H01L27/0883;;G02F1/01791;;H01L27/18;;H01L29/6681;;H01L33/04;;H01L29/0692;;G06F11/0793;;H01L29/66439;;G06N99/00;;B82Y10/00;;H01L39/228;;H01L29/41791;;H01L29/157;;H01L21/02694;;H01L29/423;;G11C19/32;;H03M1/66;;G06F11/0724;;H01L29/122;;H01L29/0673;;G02F1/01725;;B82Y15/00;;G06F1/20;;H03K19/195</t>
+          <t>H01L29/6681;;H01L29/66977;;H01L29/66439;;G06N99/00;;H01L27/18;;H01L29/0692;;H01L29/423;;B82Y15/00;;H01L27/0883;;G06F11/0751;;H01L29/122;;H01L27/0886;;G11C11/44;;G06F11/0724;;B82Y10/00;;G06F15/16;;H01L39/228;;G02F1/01791;;G06N10/00;;H01L29/66984;;H03K19/195;;H01L29/0673;;H01L33/04;;H01L21/02694;;H03K3/38;;H03M13/1575;;G02F1/01725;;G06F1/20;;H03M1/66;;G06F11/0793;;G06N5/003;;H01L29/157;;H01L29/41791;;H01L39/221;;H03M1/34;;G11C19/32</t>
         </is>
       </c>
       <c r="R159" t="inlineStr"/>
@@ -17786,17 +17786,17 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>079-188-284-728-507;;155-365-488-382-607</t>
+          <t>155-365-488-382-607;;079-188-284-728-507</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>https://lens.org/155-365-488-382-607;;https://lens.org/079-188-284-728-507</t>
+          <t>https://lens.org/079-188-284-728-507;;https://lens.org/155-365-488-382-607</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Quantum shift register incorporating bifurcation;;QUANTUM SHIFT REGISTER INCORPORATING BIFURCATION</t>
+          <t>QUANTUM SHIFT REGISTER INCORPORATING BIFURCATION;;Quantum shift register incorporating bifurcation</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -17811,7 +17811,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -17829,12 +17829,12 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Granted Patent;;Patent Application</t>
+          <t>Patent Application;;Granted Patent</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="M160" t="n">
@@ -17848,12 +17848,12 @@
       </c>
       <c r="P160" t="inlineStr">
         <is>
-          <t>G11C19/12;;G06N99/00;;G02F1/017;;B82Y10/00;;G06N10/00</t>
+          <t>G06N99/00;;B82Y10/00;;G11C19/12;;G06N10/00;;G02F1/017</t>
         </is>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>H03K3/38;;G06F11/0751;;G06F15/16;;G11C11/44;;H01L29/66984;;H01L27/0886;;G06N10/00;;H01L39/221;;H03M1/34;;H01L29/66977;;G06N5/003;;H03M13/1575;;H01L27/0883;;G02F1/01791;;H01L27/18;;H01L29/6681;;H01L33/04;;H01L29/0692;;G06F11/0793;;H01L29/66439;;G06N99/00;;B82Y10/00;;H01L39/228;;H01L29/41791;;H01L29/157;;H01L21/02694;;H01L29/423;;G11C19/32;;H03M1/66;;G06F11/0724;;H01L29/122;;H01L29/0673;;G02F1/01725;;B82Y15/00;;G06F1/20;;H03K19/195</t>
+          <t>H01L29/6681;;H01L29/66977;;H01L29/66439;;G06N99/00;;H01L27/18;;H01L29/0692;;H01L29/423;;B82Y15/00;;H01L27/0883;;G06F11/0751;;H01L29/122;;H01L27/0886;;G11C11/44;;G06F11/0724;;B82Y10/00;;G06F15/16;;H01L39/228;;G02F1/01791;;G06N10/00;;H01L29/66984;;H03K19/195;;H01L29/0673;;H01L33/04;;H01L21/02694;;H03K3/38;;H03M13/1575;;G02F1/01725;;G06F1/20;;H03M1/66;;G06F11/0793;;G06N5/003;;H01L29/157;;H01L29/41791;;H01L39/221;;H03M1/34;;G11C19/32</t>
         </is>
       </c>
       <c r="R160" t="inlineStr"/>
@@ -17897,7 +17897,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>151-489-485-071-773;;034-522-777-279-242</t>
+          <t>034-522-777-279-242;;151-489-485-071-773</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -17907,7 +17907,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>SEMICONDUCTOR CONTROLLED QUANTUM INTERACTION GATES;;QUANTUM STRUCTURE INCORPORATING ELECTRIC AND MAGNETIC ANGLE CONTROL</t>
+          <t>QUANTUM STRUCTURE INCORPORATING ELECTRIC AND MAGNETIC ANGLE CONTROL;;SEMICONDUCTOR CONTROLLED QUANTUM INTERACTION GATES</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -17922,7 +17922,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
         </is>
       </c>
       <c r="H161" t="inlineStr"/>
@@ -17955,12 +17955,12 @@
       </c>
       <c r="P161" t="inlineStr">
         <is>
-          <t>H01L29/12;;B82Y10/00;;G06N10/00</t>
+          <t>G06N10/00;;H01L29/12;;B82Y10/00</t>
         </is>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>H03K3/38;;G06F11/0751;;G06F15/16;;G11C11/44;;H01L29/66984;;H01L27/0886;;G06N10/00;;H01L39/221;;H03M1/34;;H01L29/66977;;G06N5/003;;H03M13/1575;;H01L27/0883;;G02F1/01791;;H01L27/18;;H01L29/6681;;H01L33/04;;H01L29/0692;;G06F11/0793;;H01L29/66439;;G06N99/00;;B82Y10/00;;H01L39/228;;H01L29/41791;;H01L29/157;;H01L21/02694;;H01L29/423;;G11C19/32;;H03M1/66;;G06F11/0724;;H01L29/122;;H01L29/0673;;G02F1/01725;;B82Y15/00;;G06F1/20;;H03K19/195</t>
+          <t>H01L29/6681;;H01L29/66977;;H01L29/66439;;G06N99/00;;H01L27/18;;H01L29/0692;;H01L29/423;;B82Y15/00;;H01L27/0883;;G06F11/0751;;H01L29/122;;H01L27/0886;;G11C11/44;;G06F11/0724;;B82Y10/00;;G06F15/16;;H01L39/228;;G02F1/01791;;G06N10/00;;H01L29/66984;;H03K19/195;;H01L29/0673;;H01L33/04;;H01L21/02694;;H03K3/38;;H03M13/1575;;G02F1/01725;;G06F1/20;;H03M1/66;;G06F11/0793;;G06N5/003;;H01L29/157;;H01L29/41791;;H01L39/221;;H03M1/34;;G11C19/32</t>
         </is>
       </c>
       <c r="R161" t="inlineStr"/>
@@ -17987,7 +17987,7 @@
       </c>
       <c r="X161" t="inlineStr">
         <is>
-          <t>WO 2019/244076 A1;;WO 2019/244078 A1</t>
+          <t>WO 2019/244078 A1;;WO 2019/244076 A1</t>
         </is>
       </c>
       <c r="Y161" t="inlineStr">
@@ -18029,7 +18029,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>MACREADY WILLIAM G;;XUE YANBO</t>
+          <t>XUE YANBO;;MACREADY WILLIAM G</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -18066,12 +18066,12 @@
       </c>
       <c r="P162" t="inlineStr">
         <is>
-          <t>G06N20/00;;B82Y10/00;;G06N10/00;;G06N7/00</t>
+          <t>G06N20/00;;G06N10/00;;B82Y10/00;;G06N7/00</t>
         </is>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>G06N20/00;;G06N7/005;;B82Y10/00;;G06N10/00</t>
+          <t>G06N7/005;;G06N10/00;;B82Y10/00;;G06N20/00</t>
         </is>
       </c>
       <c r="R162" t="inlineStr"/>
@@ -18140,7 +18140,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>WILSON CHRISTOPHER MOGAN;;SMITH ROBERT STANLEY;;TEZAK NIKOLAS ANTON;;DA SILVA MARCUS PALMER</t>
+          <t>TEZAK NIKOLAS ANTON;;DA SILVA MARCUS PALMER;;SMITH ROBERT STANLEY;;WILSON CHRISTOPHER MOGAN</t>
         </is>
       </c>
       <c r="H163" t="inlineStr"/>
@@ -18173,12 +18173,12 @@
       </c>
       <c r="P163" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00</t>
+          <t>G06N10/00;;B82Y10/00</t>
         </is>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>G06N20/10;;B82Y10/00;;G06N10/00</t>
+          <t>G06N10/00;;G06N20/10;;B82Y10/00</t>
         </is>
       </c>
       <c r="R163" t="inlineStr"/>
@@ -18247,7 +18247,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>SMITH ROBERT STANLEY;;HEIDEL STEVEN;;OSBORN CHRISTOPHER BUTLER;;PETERSON ERIC CHRISTOPHER;;LYNCH ADAM DAVID;;KARALEKAS PETER JONATHAN;;TEZAK NIKOLAS ANTON</t>
+          <t>OSBORN CHRISTOPHER BUTLER;;TEZAK NIKOLAS ANTON;;KARALEKAS PETER JONATHAN;;SMITH ROBERT STANLEY;;LYNCH ADAM DAVID;;PETERSON ERIC CHRISTOPHER;;HEIDEL STEVEN</t>
         </is>
       </c>
       <c r="H164" t="inlineStr"/>
@@ -18280,12 +18280,12 @@
       </c>
       <c r="P164" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00</t>
+          <t>G06N10/00;;B82Y10/00</t>
         </is>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>G06N5/04;;B82Y10/00;;G06N10/00</t>
+          <t>G06N10/00;;B82Y10/00;;G06N5/04</t>
         </is>
       </c>
       <c r="R164" t="inlineStr"/>
@@ -18350,7 +18350,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>SMITH ROBERT STANLEY;;HEIDEL STEVEN;;OSBORN CHRISTOPHER BUTLER;;PETERSON ERIC CHRISTOPHER;;LYNCH ADAM DAVID;;KARALEKAS PETER JONATHAN;;TEZAK NIKOLAS ANTON</t>
+          <t>OSBORN CHRISTOPHER BUTLER;;TEZAK NIKOLAS ANTON;;KARALEKAS PETER JONATHAN;;SMITH ROBERT STANLEY;;LYNCH ADAM DAVID;;PETERSON ERIC CHRISTOPHER;;HEIDEL STEVEN</t>
         </is>
       </c>
       <c r="H165" t="inlineStr"/>
@@ -18383,12 +18383,12 @@
       </c>
       <c r="P165" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00</t>
+          <t>G06N10/00;;B82Y10/00</t>
         </is>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>G06N5/04;;B82Y10/00;;G06N10/00</t>
+          <t>G06N10/00;;B82Y10/00;;G06N5/04</t>
         </is>
       </c>
       <c r="R165" t="inlineStr"/>
@@ -18457,7 +18457,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>WANG SHENGTAO;;LUKIN MIKHAIL;;ZHOU LEO;;CHOI SOONWON;;PICHLER HANNES</t>
+          <t>WANG SHENGTAO;;PICHLER HANNES;;CHOI SOONWON;;ZHOU LEO;;LUKIN MIKHAIL</t>
         </is>
       </c>
       <c r="H166" t="inlineStr"/>
@@ -18490,12 +18490,12 @@
       </c>
       <c r="P166" t="inlineStr">
         <is>
-          <t>G06F15/78;;H01L29/06;;G06N99/00;;H01L21/00</t>
+          <t>H01L29/06;;G06F15/78;;G06N99/00;;H01L21/00</t>
         </is>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;G06N5/003</t>
+          <t>G06N10/00;;B82Y10/00;;G06N5/003</t>
         </is>
       </c>
       <c r="R166" t="inlineStr"/>
@@ -18539,7 +18539,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>004-166-881-687-223;;109-030-363-938-699</t>
+          <t>109-030-363-938-699;;004-166-881-687-223</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -18564,7 +18564,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>LUKIN MIKHAIL D;;WANG SHENGTAO;;CHOI SOONWON;;ZHOU LEO XIANGYU;;PICHLER HANNES</t>
+          <t>WANG SHENGTAO;;PICHLER HANNES;;ZHOU LEO XIANGYU;;CHOI SOONWON;;LUKIN MIKHAIL D</t>
         </is>
       </c>
       <c r="H167" t="inlineStr"/>
@@ -18573,7 +18573,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>EP;;CA</t>
+          <t>CA;;EP</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -18597,12 +18597,12 @@
       </c>
       <c r="P167" t="inlineStr">
         <is>
-          <t>G06F15/78;;H01L29/06;;G06N99/00;;H01L21/00</t>
+          <t>H01L29/06;;G06F15/78;;G06N99/00;;H01L21/00</t>
         </is>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;G06N5/003</t>
+          <t>G06N10/00;;B82Y10/00;;G06N5/003</t>
         </is>
       </c>
       <c r="R167" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
       </c>
       <c r="Y167" t="inlineStr">
         <is>
-          <t>CA 3108560 A;;EP 19854402 A</t>
+          <t>EP 19854402 A;;CA 3108560 A</t>
         </is>
       </c>
     </row>
@@ -18671,7 +18671,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>SMITH ROBERT STANLEY;;PETERSON ERIC CHRISTOPHER;;RIGETTI CHAD TYLER;;RUST MICHAEL;;REAGOR MATTHEW J;;JONES GLENN;;DESAI ANAND;;TEZAK NIKOLAS ANTON</t>
+          <t>PETERSON ERIC CHRISTOPHER;;RIGETTI CHAD TYLER;;TEZAK NIKOLAS ANTON;;SMITH ROBERT STANLEY;;JONES GLENN;;REAGOR MATTHEW J;;RUST MICHAEL;;DESAI ANAND</t>
         </is>
       </c>
       <c r="H168" t="inlineStr"/>
@@ -18704,12 +18704,12 @@
       </c>
       <c r="P168" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00</t>
+          <t>G06N10/00;;B82Y10/00</t>
         </is>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>G06N5/022;;B82Y10/00;;G06N10/00;;G06N5/003</t>
+          <t>G06N5/022;;B82Y10/00;;G06N5/003;;G06N10/00</t>
         </is>
       </c>
       <c r="R168" t="inlineStr"/>
@@ -18753,12 +18753,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>092-853-485-533-675;;181-007-346-539-851</t>
+          <t>181-007-346-539-851;;092-853-485-533-675</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>https://lens.org/181-007-346-539-851;;https://lens.org/092-853-485-533-675</t>
+          <t>https://lens.org/092-853-485-533-675;;https://lens.org/181-007-346-539-851</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -18778,7 +18778,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>WANG GANG;;KAPOOR ANMOL SINGH;;WANG GANG (A K A JOSEPH);;SALAHANDISH RAZIEH;;BHAT SUMRITA;;KOUL RAMAN;;VASTAREY NIKHIL SURESH</t>
+          <t>KAPOOR ANMOL SINGH;;BHAT SUMRITA;;VASTAREY NIKHIL SURESH;;KOUL RAMAN;;SALAHANDISH RAZIEH;;WANG GANG (A K A JOSEPH);;WANG GANG</t>
         </is>
       </c>
       <c r="H169" t="inlineStr"/>
@@ -18787,7 +18787,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>WO;;CA</t>
+          <t>CA;;WO</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -18811,12 +18811,12 @@
       </c>
       <c r="P169" t="inlineStr">
         <is>
-          <t>H04W4/90;;G01N27/416;;G06K19/07;;G16H50/20;;G16H70/20;;H04W4/80;;G06K7/10;;G01N27/403;;B82Y15/00;;G16H40/67;;G06K9/18;;G01N27/30;;H04W4/38</t>
+          <t>G16H70/20;;H04W4/38;;G01N27/403;;G06K9/18;;G16H50/20;;H04W4/80;;G06K19/07;;G16H40/67;;H04W4/90;;G06K7/10;;G01N27/416;;G01N27/30;;B82Y15/00</t>
         </is>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>H04W4/90;;G16H40/20;;G16H50/20;;H04W4/021;;G01N33/48785;;H04W4/02;;H04W4/80;;G16H40/67;;G06K9/2063;;B82Y30/00;;G01N27/3278</t>
+          <t>G16H50/20;;G01N27/3278;;H04W4/02;;H04W4/80;;B82Y30/00;;G16H40/67;;H04W4/90;;G01N33/48785;;H04W4/021;;G16H40/20;;G06K9/2063</t>
         </is>
       </c>
       <c r="R169" t="inlineStr"/>
@@ -18843,7 +18843,7 @@
       </c>
       <c r="X169" t="inlineStr">
         <is>
-          <t>CA 3060849 A1;;WO 2020/087187 A1</t>
+          <t>WO 2020/087187 A1;;CA 3060849 A1</t>
         </is>
       </c>
       <c r="Y169" t="inlineStr">
@@ -18922,12 +18922,12 @@
       </c>
       <c r="P170" t="inlineStr">
         <is>
-          <t>G11C13/02;;G06N3/06;;B82Y10/00</t>
+          <t>G06N3/06;;B82Y10/00;;G11C13/02</t>
         </is>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>G11C11/54;;G11C2213/16;;G11C2213/81;;G11C2213/79;;G11C13/0069;;G11C13/025;;G11C2213/33;;B82Y10/00;;G11C2213/77;;G11C7/1006;;G11C2213/35;;H01L27/285;;H01L51/0048;;G06N3/063;;G06N3/06;;G11C13/004</t>
+          <t>G06N3/063;;G06N3/06;;G11C2213/16;;G11C13/004;;G11C2213/35;;G11C13/025;;G11C2213/33;;G11C2213/77;;G11C2213/81;;G11C7/1006;;G11C2213/79;;H01L27/285;;B82Y10/00;;G11C11/54;;G11C13/0069;;H01L51/0048</t>
         </is>
       </c>
       <c r="R170" t="inlineStr"/>
@@ -18976,7 +18976,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>https://lens.org/080-794-601-505-258;;https://lens.org/095-868-444-209-722;;https://lens.org/076-221-075-828-336</t>
+          <t>https://lens.org/076-221-075-828-336;;https://lens.org/080-794-601-505-258;;https://lens.org/095-868-444-209-722</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -18991,12 +18991,12 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>TAIWAN SEMICONDUCTOR MFG;;TAIWAN SEMICONDUCTOR MFG CO LTD</t>
+          <t>TAIWAN SEMICONDUCTOR MFG CO LTD;;TAIWAN SEMICONDUCTOR MFG</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>MANFRINI MAURICIO;;GERBEN DOORNBOS;;MAURICIO MANFRINI;;VAN DAL MARCUS JOHANNES HENRICUS;;MARCUS JOHANNES HENRICUS VAN DAL;;DOORNBOS GERBEN</t>
+          <t>GERBEN DOORNBOS;;MARCUS JOHANNES HENRICUS VAN DAL;;MAURICIO MANFRINI;;VAN DAL MARCUS JOHANNES HENRICUS;;DOORNBOS GERBEN;;MANFRINI MAURICIO</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -19009,12 +19009,12 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>US;;TW;;CN</t>
+          <t>TW;;CN;;US</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Patent of Addition;;Patent Application</t>
+          <t>Patent Application;;Patent of Addition</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
@@ -19033,12 +19033,12 @@
       </c>
       <c r="P171" t="inlineStr">
         <is>
-          <t>G11C11/54;;H01L27/22;;G11C13/00;;G11C11/16;;G06N3/04;;G06N3/063;;G11C11/56</t>
+          <t>G06N3/063;;G11C13/00;;G11C11/16;;G11C11/56;;H01L27/22;;G06N3/04;;G11C11/54</t>
         </is>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>G11C11/54;;G11C11/5607;;G11C13/0002;;G11C2213/78;;G11C11/5685;;G11C13/0069;;H01L27/228;;G06N3/04;;G11C13/003;;B82Y10/00;;G11C11/1659;;H01L27/222;;G11C13/0038;;G11C13/0007;;G06N3/049;;G06N3/063;;G11C11/1675;;G11C11/1697</t>
+          <t>G06N3/063;;H01L27/222;;G11C11/1675;;G11C11/5685;;G11C13/003;;H01L27/228;;G11C11/1659;;G11C11/5607;;G11C2213/78;;G11C13/0007;;B82Y10/00;;G11C13/0002;;G06N3/04;;G11C11/1697;;G11C11/54;;G06N3/049;;G11C13/0069;;G11C13/0038</t>
         </is>
       </c>
       <c r="R171" t="inlineStr"/>
@@ -19065,12 +19065,12 @@
       </c>
       <c r="X171" t="inlineStr">
         <is>
-          <t>US 2020/0311524 A1;;TW 202109532 A;;CN 111799294 A</t>
+          <t>CN 111799294 A;;US 2020/0311524 A1;;TW 202109532 A</t>
         </is>
       </c>
       <c r="Y171" t="inlineStr">
         <is>
-          <t>TW 109111117 A;;CN 202010248805 A;;US 201916371382 A</t>
+          <t>CN 202010248805 A;;US 201916371382 A;;TW 109111117 A</t>
         </is>
       </c>
     </row>
@@ -19107,7 +19107,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>PISTOIA MARCO;;JAVADIABHARI ALI;;GAMBETTA JAY M;;FARO SERTAGE ISMAEL;;MARTIN FERNANDEZ FRANCISCO JOSE;;LIU PENG</t>
+          <t>JAVADIABHARI ALI;;FARO SERTAGE ISMAEL;;LIU PENG;;PISTOIA MARCO;;MARTIN FERNANDEZ FRANCISCO JOSE;;GAMBETTA JAY M</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -19144,12 +19144,12 @@
       </c>
       <c r="P172" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00</t>
+          <t>G06N10/00;;B82Y10/00</t>
         </is>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>G06N20/00;;B82Y10/00;;G06N10/00</t>
+          <t>G06N20/00;;G06N10/00;;B82Y10/00</t>
         </is>
       </c>
       <c r="R172" t="inlineStr"/>
@@ -19213,12 +19213,12 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>IBM;;IBM UK</t>
+          <t>IBM UK;;IBM</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>CHEN RICHARD;;PISTOIA MARCO;;GREENBERG DON;;NANNICINI GIACOMO</t>
+          <t>PISTOIA MARCO;;NANNICINI GIACOMO;;GREENBERG DON;;CHEN RICHARD</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -19231,7 +19231,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>WO;;US</t>
+          <t>US;;WO</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -19255,12 +19255,12 @@
       </c>
       <c r="P173" t="inlineStr">
         <is>
-          <t>G06N5/02;;G06N10/00;;G06N5/00</t>
+          <t>G06N5/00;;G06N5/02;;G06N10/00</t>
         </is>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>G06N5/02;;B82Y10/00;;G06N10/00;;G06N5/003</t>
+          <t>G06N10/00;;B82Y10/00;;G06N5/003;;G06N5/02</t>
         </is>
       </c>
       <c r="R173" t="inlineStr"/>
@@ -19287,7 +19287,7 @@
       </c>
       <c r="X173" t="inlineStr">
         <is>
-          <t>US 2020/0327439 A1;;WO 2020/207956 A1</t>
+          <t>WO 2020/207956 A1;;US 2020/0327439 A1</t>
         </is>
       </c>
       <c r="Y173" t="inlineStr">
@@ -19329,7 +19329,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>CHEN RICHARD;;PISTOIA MARCO;;GREENBERG DON;;NANNICINI GIACOMO</t>
+          <t>PISTOIA MARCO;;NANNICINI GIACOMO;;GREENBERG DON;;CHEN RICHARD</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -19366,12 +19366,12 @@
       </c>
       <c r="P174" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00</t>
+          <t>G06N10/00;;B82Y10/00</t>
         </is>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>G06N5/02;;B82Y10/00;;G06N10/00;;G06N5/003</t>
+          <t>G06N10/00;;B82Y10/00;;G06N5/003;;G06N5/02</t>
         </is>
       </c>
       <c r="R174" t="inlineStr"/>
@@ -19415,7 +19415,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>092-930-928-172-386;;032-550-822-978-700</t>
+          <t>032-550-822-978-700;;092-930-928-172-386</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -19425,7 +19425,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Stacked resistive memory with individual switch control;;STACKED RESISTIVE MEMORY WITH INDIVIDUAL SWITCH CONTROL</t>
+          <t>STACKED RESISTIVE MEMORY WITH INDIVIDUAL SWITCH CONTROL;;Stacked resistive memory with individual switch control</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -19440,7 +19440,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>HASHEMI POUYA;;ZHANG JINGYUN;;LEE CHOONGHYUN;;REZNICEK ALEXANDER;;ANDO TAKASHI</t>
+          <t>REZNICEK ALEXANDER;;HASHEMI POUYA;;ZHANG JINGYUN;;LEE CHOONGHYUN;;ANDO TAKASHI</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -19463,7 +19463,7 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>A1;;B2</t>
+          <t>B2;;A1</t>
         </is>
       </c>
       <c r="M175" t="n">
@@ -19477,12 +19477,12 @@
       </c>
       <c r="P175" t="inlineStr">
         <is>
-          <t>H01L27/24;;H01L29/423;;H01L29/786;;H01L29/06;;G06N3/063;;H01L45/00;;H01L29/66</t>
+          <t>G06N3/063;;H01L29/06;;H01L29/786;;H01L27/24;;H01L45/00;;H01L29/423;;H01L29/66</t>
         </is>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>H01L45/04;;H01L45/1253;;H01L45/1233;;H01L45/16;;H01L29/0653;;H01L45/122;;G06N3/049;;H01L29/66742;;H01L29/78696;;H01L29/775;;H01L27/2436;;H01L45/146;;H01L29/41725;;H01L27/2481;;H01L29/66439;;B82Y10/00;;G06N3/088;;G06N3/063;;H01L29/42392;;H01L45/08;;H01L29/1079;;G06N3/0635;;H01L29/0673</t>
+          <t>G06N3/063;;H01L29/0653;;H01L29/41725;;H01L45/08;;H01L29/66439;;G06N3/088;;H01L45/16;;H01L45/1253;;B82Y10/00;;G06N3/0635;;H01L29/775;;H01L27/2481;;H01L29/0673;;H01L29/66742;;H01L27/2436;;H01L29/1079;;G06N3/049;;H01L45/146;;H01L29/42392;;H01L45/1233;;H01L29/78696;;H01L45/04;;H01L45/122</t>
         </is>
       </c>
       <c r="R175" t="inlineStr"/>
@@ -19509,7 +19509,7 @@
       </c>
       <c r="X175" t="inlineStr">
         <is>
-          <t>US 11037986 B2;;US 2020/0403034 A1</t>
+          <t>US 2020/0403034 A1;;US 11037986 B2</t>
         </is>
       </c>
       <c r="Y175" t="inlineStr">
@@ -19546,12 +19546,12 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>IBM;;IBM UK</t>
+          <t>IBM UK;;IBM</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>PHAN ANNA T;;PHAN ANNA;;GREENBERG DON</t>
+          <t>PHAN ANNA T;;GREENBERG DON;;PHAN ANNA</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -19564,7 +19564,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>WO;;US</t>
+          <t>US;;WO</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -19588,12 +19588,12 @@
       </c>
       <c r="P176" t="inlineStr">
         <is>
-          <t>G06K9/62;;G06F15/80;;B82Y10/00;;G06N10/00;;G06N20/00</t>
+          <t>G06N20/00;;G06K9/62;;B82Y10/00;;G06N10/00;;G06F15/80</t>
         </is>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>G06F15/803;;G06K9/6259;;G06K9/00127;;G06K9/6223;;B82Y10/00;;G06K9/6215;;G06N10/00;;G06K9/6218;;G06N20/00</t>
+          <t>G06F15/803;;G06K9/6223;;G06K9/6215;;G06K9/6259;;G06N20/00;;G06K9/00127;;B82Y10/00;;G06N10/00;;G06K9/6218</t>
         </is>
       </c>
       <c r="R176" t="inlineStr"/>
@@ -19620,7 +19620,7 @@
       </c>
       <c r="X176" t="inlineStr">
         <is>
-          <t>US 2020/0410380 A1;;WO 2020/260476 A1</t>
+          <t>WO 2020/260476 A1;;US 2020/0410380 A1</t>
         </is>
       </c>
       <c r="Y176" t="inlineStr">
@@ -19662,7 +19662,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>REZNICEK ALEXANDER;;ANDO TAKASHI;;HEKMATSHOARTABARI BAHMAN</t>
+          <t>ANDO TAKASHI;;HEKMATSHOARTABARI BAHMAN;;REZNICEK ALEXANDER</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -19699,12 +19699,12 @@
       </c>
       <c r="P177" t="inlineStr">
         <is>
-          <t>H01L21/02;;H01L27/24;;H01L29/423;;H01L29/10;;G11C13/00;;H01L29/78;;H01L29/06;;H01L21/28;;H01L29/08;;G06N3/063;;G06N3/06;;H01L45/00;;H01L29/66</t>
+          <t>G06N3/063;;G06N3/06;;G11C13/00;;H01L29/423;;H01L29/06;;H01L21/28;;H01L29/78;;H01L27/24;;H01L21/02;;H01L45/00;;H01L29/08;;H01L29/66;;H01L29/10</t>
         </is>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>H01L45/04;;H01L29/785;;G11C2213/79;;H01L45/1253;;G11C13/003;;H01L45/1233;;H01L29/0847;;G11C2213/74;;G11C2213/71;;G06N3/061;;H01L45/1226;;H01L29/66795;;H01L21/28079;;H01L29/78696;;H01L29/775;;G11C13/004;;H01L45/1683;;H01L27/2436;;G11C11/54;;H01L45/146;;H01L27/2481;;H01L29/66439;;B82Y10/00;;H01L29/1037;;G11C13/0007;;G06N3/063;;H01L29/42392;;H01L27/249;;G11C2213/32;;H01L21/02532;;G06N3/08;;G06N3/0635;;H01L29/0673;;G11C2213/52;;H01L29/66545</t>
+          <t>G06N3/063;;G11C2213/32;;H01L29/66439;;H01L45/1683;;G11C11/54;;H01L21/28079;;H01L21/02532;;H01L29/0847;;H01L45/1253;;B82Y10/00;;G06N3/0635;;G11C2213/52;;G06N3/08;;H01L29/66545;;H01L29/775;;G11C13/004;;H01L27/2481;;H01L29/0673;;H01L27/2436;;G11C2213/74;;G06N3/061;;H01L29/1037;;H01L45/146;;H01L29/66795;;G11C13/003;;H01L45/1226;;G11C2213/79;;H01L29/42392;;H01L27/249;;H01L29/785;;G11C13/0007;;H01L45/1233;;H01L29/78696;;H01L45/04;;G11C2213/71</t>
         </is>
       </c>
       <c r="R177" t="inlineStr"/>
@@ -19773,7 +19773,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>LAWRIE BENJAMIN J;;POOSER RAPHAEL C;;MAKSYMOVYCH PETRO</t>
+          <t>MAKSYMOVYCH PETRO;;POOSER RAPHAEL C;;LAWRIE BENJAMIN J</t>
         </is>
       </c>
       <c r="H178" t="inlineStr"/>
@@ -19806,12 +19806,12 @@
       </c>
       <c r="P178" t="inlineStr">
         <is>
-          <t>B82Y35/00;;G01Q60/38;;G01Q60/36</t>
+          <t>G01Q60/36;;G01Q60/38;;B82Y35/00</t>
         </is>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>G01N21/45;;B82Y35/00;;G01B2290/55;;G01B9/02003;;G01Q20/02;;G02F1/29;;G01Q60/24;;G01B9/02081;;G02F1/3538;;G01B9/02079;;G01B9/02;;G01Q60/38;;H01S3/10076</t>
+          <t>B82Y35/00;;G01Q60/24;;G01B2290/55;;G02F1/3538;;G01Q20/02;;H01S3/10076;;G02F1/29;;G01B9/02003;;G01B9/02;;G01Q60/38;;G01B9/02081;;G01N21/45;;G01B9/02079</t>
         </is>
       </c>
       <c r="R178" t="inlineStr"/>
@@ -19880,7 +19880,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>SMITH ROBERT STANLEY;;RIGETTI CHAD TYLER;;DAVIS ERIK JOSEPH;;ALAM MUHAMMAD SOHAIB;;MCKIERNAN KERI ANN</t>
+          <t>RIGETTI CHAD TYLER;;MCKIERNAN KERI ANN;;SMITH ROBERT STANLEY;;ALAM MUHAMMAD SOHAIB;;DAVIS ERIK JOSEPH</t>
         </is>
       </c>
       <c r="H179" t="inlineStr"/>
@@ -19913,12 +19913,12 @@
       </c>
       <c r="P179" t="inlineStr">
         <is>
-          <t>G06N3/04;;B82Y10/00;;G06N10/00;;G06N3/08</t>
+          <t>G06N10/00;;B82Y10/00;;G06N3/04;;G06N3/08</t>
         </is>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>G06N3/08;;G06N3/006;;B82Y10/00;;G06N10/00;;G06N3/0454;;G06N7/005</t>
+          <t>G06N7/005;;B82Y10/00;;G06N3/0454;;G06N10/00;;G06N3/006;;G06N3/08</t>
         </is>
       </c>
       <c r="R179" t="inlineStr"/>
@@ -20020,12 +20020,12 @@
       </c>
       <c r="P180" t="inlineStr">
         <is>
-          <t>H01L29/02;;G06N3/02;;G06N3/08;;G01Q30/04;;B82B3/00</t>
+          <t>G06N3/02;;H01L29/02;;B82B3/00;;G01Q30/04;;G06N3/08</t>
         </is>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>H01L29/02;;G06N3/02;;G06N3/08;;G01Q30/04;;B82B3/00</t>
+          <t>G06N3/02;;H01L29/02;;B82B3/00;;G01Q30/04;;G06N3/08</t>
         </is>
       </c>
       <c r="R180" t="inlineStr"/>
@@ -20094,7 +20094,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>KIM CHIHO;;RAMPRASAD RAMPI;;CHANDRASEKARAN ANAND</t>
+          <t>RAMPRASAD RAMPI;;CHANDRASEKARAN ANAND;;KIM CHIHO</t>
         </is>
       </c>
       <c r="H181" t="inlineStr"/>
@@ -20127,12 +20127,12 @@
       </c>
       <c r="P181" t="inlineStr">
         <is>
-          <t>C12Q1/6869;;B82Y15/00;;C12Q1/6858</t>
+          <t>C12Q1/6858;;C12Q1/6869;;B82Y15/00</t>
         </is>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>C12Q1/6869;;B82Y15/00;;C12Q1/6858</t>
+          <t>C12Q1/6858;;C12Q1/6869;;B82Y15/00</t>
         </is>
       </c>
       <c r="R181" t="inlineStr"/>
@@ -20201,7 +20201,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>DANIEL RAMEZ;;RIZIK LUNA</t>
+          <t>RIZIK LUNA;;DANIEL RAMEZ</t>
         </is>
       </c>
       <c r="H182" t="inlineStr"/>
@@ -20341,12 +20341,12 @@
       </c>
       <c r="P183" t="inlineStr">
         <is>
-          <t>C12Q1/6813;;G01N33/487;;G01N27/447;;B82Y15/00;;C12Q1/6869</t>
+          <t>C12Q1/6869;;C12Q1/6813;;G01N27/447;;B82Y15/00;;G01N33/487</t>
         </is>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>G06N3/123;;G01N33/48721;;C12Q1/682;;B82Y15/00;;G06N3/0454</t>
+          <t>G06N3/123;;C12Q1/682;;G01N33/48721;;G06N3/0454;;B82Y15/00</t>
         </is>
       </c>
       <c r="R183" t="inlineStr"/>
@@ -20448,12 +20448,12 @@
       </c>
       <c r="P184" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00</t>
+          <t>G06N10/00;;B82Y10/00</t>
         </is>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;G06N5/003</t>
+          <t>G06N10/00;;B82Y10/00;;G06N5/003</t>
         </is>
       </c>
       <c r="R184" t="inlineStr"/>
@@ -20522,7 +20522,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>CAO YUDONG;;GONTHIER JEROME FLORIAN;;KATABARWA AMARA;;JOHNSON PETER D;;DALLAIRE-DEMERS PIERRE-LUC</t>
+          <t>CAO YUDONG;;KATABARWA AMARA;;JOHNSON PETER D;;DALLAIRE-DEMERS PIERRE-LUC;;GONTHIER JEROME FLORIAN</t>
         </is>
       </c>
       <c r="H185" t="inlineStr"/>
@@ -20555,12 +20555,12 @@
       </c>
       <c r="P185" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00</t>
+          <t>G06N10/00;;B82Y10/00</t>
         </is>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;G06N5/003</t>
+          <t>G06N10/00;;B82Y10/00;;G06N5/003</t>
         </is>
       </c>
       <c r="R185" t="inlineStr"/>
@@ -20666,12 +20666,12 @@
       </c>
       <c r="P186" t="inlineStr">
         <is>
-          <t>H01L29/68;;H01L29/24;;H01L29/739;;G06N3/08;;G06N3/04;;H01L27/12;;H01L29/66</t>
+          <t>H01L29/24;;H01L27/12;;H01L29/68;;G06N3/04;;H01L29/66;;H01L29/739;;G06N3/08</t>
         </is>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>H01L29/7394;;H01L29/66969;;G11C13/003;;H01L29/0665;;H01L29/1033;;H01L29/04;;H01L29/24;;H01L27/1225;;G11C13/0069;;G11C2213/53;;H01L29/78696;;H01L27/127;;H01L29/778;;G11C11/54;;H01L29/685;;G11C13/0002;;H01L29/7831;;B82Y10/00;;G11C13/0007;;H01L29/78681;;G11C2213/82;;G06N3/08;;G06N3/04;;H01L29/4908;;H01L29/7839;;G11C13/004;;G11C13/0033</t>
+          <t>H01L29/4908;;G11C2213/53;;H01L29/7831;;H01L29/04;;G06N3/04;;H01L29/685;;G11C11/54;;H01L29/7394;;G11C13/0069;;G11C2213/82;;H01L29/778;;H01L29/24;;H01L29/7839;;B82Y10/00;;G06N3/08;;H01L29/1033;;G11C13/004;;H01L29/0665;;H01L29/78681;;H01L27/127;;G11C13/003;;G11C13/0033;;G11C13/0007;;G11C13/0002;;H01L29/66969;;H01L27/1225;;H01L29/78696</t>
         </is>
       </c>
       <c r="R186" t="inlineStr"/>

--- a/tests/integration/out/ai-and-nanotech-families_not_extended.xlsx
+++ b/tests/integration/out/ai-and-nanotech-families_not_extended.xlsx
@@ -568,12 +568,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>051-636-558-895-901;;142-026-074-104-094</t>
+          <t>142-026-074-104-094;;051-636-558-895-901</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://lens.org/142-026-074-104-094;;https://lens.org/051-636-558-895-901</t>
+          <t>https://lens.org/051-636-558-895-901;;https://lens.org/142-026-074-104-094</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>A63F9/0204;;F41J5/18;;F41J1/10;;F41J7/04;;H01L27/18;;G06N20/00;;B82Y10/00;;H03K3/38;;G06N10/00;;F41J9/02</t>
+          <t>A63F9/0204;;B82Y10/00;;F41J5/18;;F41J7/04;;H01L27/18;;F41J1/10;;G06N10/00;;G06N20/00;;F41J9/02;;H03K3/38</t>
         </is>
       </c>
       <c r="R2" t="inlineStr"/>
@@ -738,7 +738,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>G06N3/126;;G06N99/00;;G06F9/45504;;B82Y10/00;;G06N7/005;;G06N10/00</t>
+          <t>G06N99/00;;G06F9/45504;;B82Y10/00;;G06N3/126;;G06N7/005;;G06N10/00</t>
         </is>
       </c>
       <c r="R3" t="inlineStr"/>
@@ -787,7 +787,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://lens.org/056-380-748-308-005;;https://lens.org/168-357-791-484-886</t>
+          <t>https://lens.org/168-357-791-484-886;;https://lens.org/056-380-748-308-005</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -807,7 +807,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>NEVEN HARTMUT;;BABBUSH RYAN</t>
+          <t>BABBUSH RYAN;;NEVEN HARTMUT</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -845,7 +845,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>G06N5/003;;G06N20/00;;B82Y10/00;;G16C10/00;;G06N10/00</t>
+          <t>B82Y10/00;;G16C10/00;;G06N10/00;;G06N20/00;;G06N5/003</t>
         </is>
       </c>
       <c r="R4" t="inlineStr"/>
@@ -872,7 +872,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>AU 2019/283845 B2;;AU 2019/283845 A1</t>
+          <t>AU 2019/283845 A1;;AU 2019/283845 B2</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>G06N3/063;;H04L2209/34;;H04L9/0852;;G06N20/00;;B82Y10/00;;G06N10/00;;G06N3/08</t>
+          <t>B82Y10/00;;G06N3/063;;H04L2209/34;;G06N10/00;;H04L9/0852;;G06N3/08;;G06N20/00</t>
         </is>
       </c>
       <c r="R5" t="inlineStr"/>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CASTRILLO SERGIO BOIXO;;NEVEN HARTMUT;;SMELYANSKIY VADIM;;NIU YUEZHEN</t>
+          <t>CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;SMELYANSKIY VADIM;;NEVEN HARTMUT</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -1054,12 +1054,12 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>G06N3/00;;G06N3/04;;G06N99/00;;G06N3/08</t>
+          <t>G06N3/08;;G06N3/04;;G06N99/00;;G06N3/00</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>G06N3/084;;B82Y10/00;;G06N3/0454;;G06N10/00;;G06N3/006;;G06N3/08</t>
+          <t>G06N3/084;;B82Y10/00;;G06N3/006;;G06N3/08;;G06N3/0454;;G06N10/00</t>
         </is>
       </c>
       <c r="R6" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>WOLKOW ROBERT A;;WALUS KONRAD;;RASHIDI MOHAMMAD;;LIVADARU LUCIAN;;HUFF TALEANA;;VINE WYATT;;WOLKOW ROBERT;;DIENEL THOMAS;;RETALLICK JACOB;;WALUS CONRAD</t>
+          <t>RASHIDI MOHAMMAD;;VINE WYATT;;WOLKOW ROBERT A;;RETALLICK JACOB;;WALUS KONRAD;;DIENEL THOMAS;;WOLKOW ROBERT;;WALUS CONRAD;;HUFF TALEANA;;LIVADARU LUCIAN</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>A1;;A</t>
+          <t>A;;A1</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>G06N3/063;;G01Q60/24;;G01Q80/00;;B82B3/00;;G01Q60/10;;G01Q60/04;;G06N3/08</t>
+          <t>G01Q60/24;;G01Q60/10;;G06N3/063;;G01Q60/04;;G01Q80/00;;B82B3/00;;G06N3/08</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>G01Q60/24;;G01Q80/00;;G06N3/0445;;H01L29/7613;;H01L29/66977;;G06N20/10;;G01Q70/14;;G06N3/0472;;B82Y10/00;;G06N3/04;;G01Q60/10;;G01Q30/10;;G06N7/005;;G06N3/0635;;G06N3/08;;H01L29/66984</t>
+          <t>G01Q60/24;;G06N3/0472;;B82Y10/00;;G01Q60/10;;G01Q30/10;;H01L29/7613;;H01L29/66977;;H01L29/66984;;G06N3/0445;;G06N7/005;;G01Q70/14;;G01Q80/00;;G06N3/0635;;G06N20/10;;G06N3/08;;G06N3/04</t>
         </is>
       </c>
       <c r="R7" t="inlineStr"/>
@@ -1193,12 +1193,12 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>CA 3075691 A1;;KR 20200064089 A</t>
+          <t>KR 20200064089 A;;CA 3075691 A1</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>CA 3075691 A;;KR 20207010647 A</t>
+          <t>KR 20207010647 A;;CA 3075691 A</t>
         </is>
       </c>
     </row>
@@ -1210,12 +1210,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>076-520-744-809-205;;078-545-719-089-078</t>
+          <t>078-545-719-089-078;;076-520-744-809-205</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://lens.org/076-520-744-809-205;;https://lens.org/078-545-719-089-078</t>
+          <t>https://lens.org/078-545-719-089-078;;https://lens.org/076-520-744-809-205</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>WALUS KONRAD;;RASHIDI MOHAMMAD;;LIVADARU LUCIAN;;HUFF TALEANA;;VINE WYATT;;WOLKOW ROBERT;;DIENEL THOMAS;;RETALLICK JACOB</t>
+          <t>RASHIDI MOHAMMAD;;VINE WYATT;;RETALLICK JACOB;;WALUS KONRAD;;DIENEL THOMAS;;WOLKOW ROBERT;;HUFF TALEANA;;LIVADARU LUCIAN</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1272,12 +1272,12 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>G01Q60/24;;G01Q80/00;;G01Q70/14;;G06N3/04;;G01Q60/10;;G01Q30/10;;G06N3/08</t>
+          <t>G01Q60/24;;G01Q30/10;;G01Q60/10;;G01Q70/14;;G01Q80/00;;G06N3/08;;G06N3/04</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>G01Q60/24;;G01Q80/00;;G06N3/0445;;H01L29/7613;;H01L29/66977;;G06N20/10;;G01Q70/14;;G06N3/0472;;B82Y10/00;;G06N3/04;;G01Q60/10;;G01Q30/10;;G06N7/005;;G06N3/0635;;G06N3/08;;H01L29/66984</t>
+          <t>G01Q60/24;;G06N3/0472;;B82Y10/00;;G01Q60/10;;G01Q30/10;;H01L29/7613;;H01L29/66977;;H01L29/66984;;G06N3/0445;;G06N7/005;;G01Q70/14;;G01Q80/00;;G06N3/0635;;G06N20/10;;G06N3/08;;G06N3/04</t>
         </is>
       </c>
       <c r="R8" t="inlineStr"/>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>US 2020/0249256 A1;;US 11047877 B2</t>
+          <t>US 11047877 B2;;US 2020/0249256 A1</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>ZHANG LIHONG;;NABAVI SEYEDFAKHREDDIN</t>
+          <t>NABAVI SEYEDFAKHREDDIN;;ZHANG LIHONG</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1383,12 +1383,12 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>H02N2/18;;H01L41/316;;H01L41/332;;H01L41/187;;H01L41/047;;H01L41/29;;H02N2/00;;H01L41/113</t>
+          <t>H02N2/00;;H01L41/187;;H01L41/29;;H02N2/18;;H01L41/316;;H01L41/047;;H01L41/113;;H01L41/332</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>B81B2203/0172;;H02N2/18;;H01L41/316;;B81B3/0021;;H01L41/332;;H01L41/187;;H01L41/29;;B81B2203/058;;H01L41/0477;;H02N2/188;;B81B2201/032;;H01L41/1136;;H02N2/22;;B81B2203/0307;;B81B2207/053;;B81B3/0045</t>
+          <t>H01L41/0477;;H01L41/1136;;H01L41/187;;H01L41/29;;B81B3/0021;;H02N2/18;;H01L41/316;;B81B3/0045;;B81B2207/053;;B81B2201/032;;B81B2203/058;;H02N2/22;;B81B2203/0307;;H02N2/188;;H01L41/332;;B81B2203/0172</t>
         </is>
       </c>
       <c r="R9" t="inlineStr"/>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>NEVEN HARTMUT;;BABBUSH RYAN</t>
+          <t>BABBUSH RYAN;;NEVEN HARTMUT</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -1487,7 +1487,7 @@
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>G06N5/003;;G06N20/00;;B82Y10/00;;G16C10/00;;G06N10/00</t>
+          <t>B82Y10/00;;G16C10/00;;G06N10/00;;G06N20/00;;G06N5/003</t>
         </is>
       </c>
       <c r="R10" t="inlineStr"/>
@@ -1536,12 +1536,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://lens.org/043-800-375-045-957;;https://lens.org/071-339-844-800-568</t>
+          <t>https://lens.org/071-339-844-800-568;;https://lens.org/043-800-375-045-957</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>IC unit and method of manufacturing the same, and electronic device including the same;;IC unit and methond of manufacturing the same, and electronic device including the same</t>
+          <t>IC unit and methond of manufacturing the same, and electronic device including the same;;IC unit and method of manufacturing the same, and electronic device including the same</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Huilong Zhu;;Zhengyong Zhu</t>
+          <t>Zhengyong Zhu;;Huilong Zhu</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1593,12 +1593,12 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>H01L21/8238;;H01L29/45;;H01L27/092;;H01L21/225;;H01L21/308;;H01L29/04;;H01L21/3105;;H01L29/205;;H01L29/423;;H01L29/267;;H01L29/778;;H01L21/822;;H01L29/417;;H01L29/786;;B82Y10/00;;H01L29/66;;H01L29/10;;H01L29/775;;H01L21/02;;H01L21/324;;H01L29/08;;H01L29/06;;H01L29/15;;H01L29/78;;H01L21/8234;;H01L29/165;;H01L21/3065</t>
+          <t>H01L29/78;;H01L29/08;;H01L29/267;;H01L21/822;;H01L29/417;;H01L21/324;;H01L29/165;;H01L29/423;;H01L21/8234;;H01L21/3105;;H01L29/775;;H01L21/225;;H01L27/092;;H01L29/10;;H01L21/02;;H01L29/06;;H01L29/04;;H01L21/308;;H01L21/3065;;H01L29/66;;H01L29/778;;H01L29/45;;H01L21/8238;;H01L29/205;;B82Y10/00;;H01L29/786;;H01L29/15</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>H01L29/45;;H01L21/823807;;H01L21/823864;;H01L21/02636;;H01L27/092;;H01L21/2252;;H01L29/66439;;H01L21/31053;;H01L29/66469;;H01L29/04;;H01L29/205;;H01L29/41741;;H01L21/823412;;H01L29/267;;H01L29/78642;;H01L21/02532;;H01L29/0847;;H01L21/823842;;H01L29/66431;;H01L21/823814;;B82Y10/00;;H01L29/7827;;H01L21/2258;;H01L21/823885;;H01L29/42376;;H01L21/3083;;H01L29/775;;H01L21/823475;;H01L29/66462;;H01L29/6656;;H01L29/66742;;H01L21/82345;;H01L21/324;;H01L29/66666;;H01L29/1037;;H01L29/152;;H01L29/1095;;H01L21/823418;;H01L29/66522;;H01L29/0649;;H01L29/7788;;H01L29/0676;;H01L29/42392;;H01L21/8221;;H01L29/165;;H01L21/3065;;H01L29/1054;;H01L21/823871;;H01L21/823487</t>
+          <t>H01L21/82345;;H01L29/267;;H01L29/7827;;H01L29/1095;;H01L29/1037;;H01L21/823418;;H01L29/66462;;H01L21/02532;;H01L21/324;;H01L29/66742;;H01L21/823864;;H01L29/165;;H01L29/66431;;H01L29/66469;;H01L29/0847;;H01L21/02636;;H01L29/0649;;H01L29/775;;H01L21/823885;;H01L29/42376;;H01L21/2252;;H01L29/152;;H01L27/092;;H01L21/823871;;H01L21/823412;;H01L29/66439;;H01L29/0676;;H01L21/3083;;H01L21/823475;;H01L29/66666;;H01L29/04;;H01L29/78642;;H01L21/823487;;H01L21/3065;;H01L29/6656;;H01L29/7788;;H01L29/45;;H01L21/2258;;H01L29/205;;H01L29/42392;;H01L29/66522;;B82Y10/00;;H01L29/41741;;H01L21/8221;;H01L21/823807;;H01L21/823814;;H01L21/823842;;H01L21/31053;;H01L29/1054</t>
         </is>
       </c>
       <c r="R11" t="inlineStr"/>
@@ -1630,7 +1630,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>US 16421009;;US 15722423</t>
+          <t>US 15722423;;US 16421009</t>
         </is>
       </c>
     </row>
@@ -1642,17 +1642,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>148-957-996-862-565;;187-898-763-627-991;;009-060-533-833-438;;054-789-299-020-903;;138-531-128-803-732;;061-058-432-093-39X;;038-350-964-627-238;;151-967-050-235-058;;042-086-174-033-990;;007-137-806-748-344;;163-664-815-813-540;;009-495-174-886-046;;017-464-399-500-106;;092-622-226-264-580;;031-184-353-637-765;;016-694-600-365-485;;193-646-676-139-072;;015-599-688-450-374;;057-198-028-532-936;;065-708-103-684-559;;092-822-678-884-760;;071-221-630-205-102;;032-379-139-877-924;;125-233-104-570-674;;026-589-220-428-569;;111-553-910-512-297;;060-124-894-271-740</t>
+          <t>026-589-220-428-569;;009-495-174-886-046;;111-553-910-512-297;;065-708-103-684-559;;061-058-432-093-39X;;032-379-139-877-924;;148-957-996-862-565;;007-137-806-748-344;;009-060-533-833-438;;092-822-678-884-760;;187-898-763-627-991;;092-622-226-264-580;;071-221-630-205-102;;057-198-028-532-936;;054-789-299-020-903;;193-646-676-139-072;;163-664-815-813-540;;060-124-894-271-740;;016-694-600-365-485;;042-086-174-033-990;;038-350-964-627-238;;125-233-104-570-674;;138-531-128-803-732;;151-967-050-235-058;;015-599-688-450-374;;017-464-399-500-106;;031-184-353-637-765</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://lens.org/007-137-806-748-344;;https://lens.org/071-221-630-205-102;;https://lens.org/031-184-353-637-765;;https://lens.org/148-957-996-862-565;;https://lens.org/061-058-432-093-39X;;https://lens.org/016-694-600-365-485;;https://lens.org/042-086-174-033-990;;https://lens.org/138-531-128-803-732;;https://lens.org/032-379-139-877-924;;https://lens.org/009-060-533-833-438;;https://lens.org/193-646-676-139-072;;https://lens.org/065-708-103-684-559;;https://lens.org/009-495-174-886-046;;https://lens.org/092-622-226-264-580;;https://lens.org/017-464-399-500-106;;https://lens.org/151-967-050-235-058;;https://lens.org/015-599-688-450-374;;https://lens.org/163-664-815-813-540;;https://lens.org/092-822-678-884-760;;https://lens.org/026-589-220-428-569;;https://lens.org/111-553-910-512-297;;https://lens.org/187-898-763-627-991;;https://lens.org/060-124-894-271-740;;https://lens.org/057-198-028-532-936;;https://lens.org/038-350-964-627-238;;https://lens.org/054-789-299-020-903;;https://lens.org/125-233-104-570-674</t>
+          <t>https://lens.org/009-060-533-833-438;;https://lens.org/031-184-353-637-765;;https://lens.org/163-664-815-813-540;;https://lens.org/016-694-600-365-485;;https://lens.org/187-898-763-627-991;;https://lens.org/193-646-676-139-072;;https://lens.org/057-198-028-532-936;;https://lens.org/032-379-139-877-924;;https://lens.org/054-789-299-020-903;;https://lens.org/009-495-174-886-046;;https://lens.org/017-464-399-500-106;;https://lens.org/065-708-103-684-559;;https://lens.org/015-599-688-450-374;;https://lens.org/148-957-996-862-565;;https://lens.org/060-124-894-271-740;;https://lens.org/042-086-174-033-990;;https://lens.org/092-622-226-264-580;;https://lens.org/138-531-128-803-732;;https://lens.org/151-967-050-235-058;;https://lens.org/061-058-432-093-39X;;https://lens.org/092-822-678-884-760;;https://lens.org/111-553-910-512-297;;https://lens.org/007-137-806-748-344;;https://lens.org/038-350-964-627-238;;https://lens.org/125-233-104-570-674;;https://lens.org/026-589-220-428-569;;https://lens.org/071-221-630-205-102</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>半导体器件及其制造方法及包括该器件的电子设备;;Semiconductor device and manufacturing method thereof and electronic equipment comprising semiconductor device;;集成电路单元及其制造方法及包括该单元的电子设备;;Semiconductor device using stress memory technology, manufacturing method thereof and electronic device;;SEMICONDUCTOR DEVICE, METHOD OF MANUFACTURING THE SAME AND ELECTRONIC DEVICE INCLUDING THE DEVICE;;Integrated circuit unit, manufacturing method thereof and electronic device comprising unit;;Semiconductor device, manufacturing method thereof and electronic device comprising device;;SEMICONDUCTOR DEVICE, METHOD OF MANUFACTURING THE SAME AND ELECTRONIC DEVICE INCLUDING THE SAME;;Semiconductor device, method of manufacturing the same and electronic device including the device;;Semiconductor device, method of manufacturing the same and electronic device including the same;;利用应力记忆技术的半导体器件及其制造方法及电子设备</t>
+          <t>Integrated circuit unit, manufacturing method thereof and electronic device comprising unit;;SEMICONDUCTOR DEVICE, METHOD OF MANUFACTURING THE SAME AND ELECTRONIC DEVICE INCLUDING THE SAME;;Semiconductor device, manufacturing method thereof and electronic device comprising device;;利用应力记忆技术的半导体器件及其制造方法及电子设备;;集成电路单元及其制造方法及包括该单元的电子设备;;Semiconductor device and manufacturing method thereof and electronic equipment comprising semiconductor device;;Semiconductor device using stress memory technology, manufacturing method thereof and electronic device;;半导体器件及其制造方法及包括该器件的电子设备;;Semiconductor device, method of manufacturing the same and electronic device including the device;;SEMICONDUCTOR DEVICE, METHOD OF MANUFACTURING THE SAME AND ELECTRONIC DEVICE INCLUDING THE DEVICE;;Semiconductor device, method of manufacturing the same and electronic device including the same</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1662,17 +1662,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>INST OF MICROELECTRONICS CAS;;INST MICROELECTRONICS CAS;;中国科学院微电子研究所</t>
+          <t>INST MICROELECTRONICS CAS;;INST OF MICROELECTRONICS CAS;;中国科学院微电子研究所</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>ZHU ZHENGYONG;;朱慧珑;;WANG GUILEI;;ZHANG YANBO;;亨利·H·阿达姆松;;张严波;;ZHU HUILONG;;HENRY H ADAMSON;;朱正勇;;王桂磊</t>
+          <t>ZHANG YANBO;;亨利·H·阿达姆松;;张严波;;HENRY H ADAMSON;;ZHU HUILONG;;朱慧珑;;朱正勇;;王桂磊;;WANG GUILEI;;ZHU ZHENGYONG</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>INSTITUTE OF MICROELECTRONICS CHINESE ACADEMY OF SCIENCES (2017-12-22);;INSTITUTE OF MICROELECTRONICS CHINESE ACADEMY OF SCIENCES (2017-09-19)</t>
+          <t>INSTITUTE OF MICROELECTRONICS CHINESE ACADEMY OF SCIENCES (2017-09-19);;INSTITUTE OF MICROELECTRONICS CHINESE ACADEMY OF SCIENCES (2017-12-22)</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>B2;;B;;A1;;A</t>
+          <t>B;;A;;B2;;A1</t>
         </is>
       </c>
       <c r="M12" t="n">
@@ -1704,12 +1704,12 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>H01L21/8238;;H01L29/45;;G06F3/0481;;H01L27/092;;H01L21/225;;H01L21/308;;H01L29/04;;H01L21/3105;;H01L21/336;;H01L29/205;;H01L29/423;;H01L29/267;;H04N13/111;;H01L29/36;;G05B23/02;;H01L29/778;;H01L21/822;;H01L29/417;;H04N13/366;;H01L29/786;;G06K9/00;;B82Y10/00;;H01L27/088;;H01L29/66;;H01L29/10;;H04N13/398;;H01L29/775;;H01L21/28;;H01L21/02;;H04N5/232;;H01L21/324;;H01L29/08;;H04N13/332;;H04N7/18;;B82Y40/00;;H01L29/06;;H01L29/15;;G06F3/0482;;H01L29/78;;H01L21/8234;;H01L29/165;;H01L21/3065;;H04N5/247;;G06T19/00</t>
+          <t>H01L29/78;;H01L29/08;;H01L29/36;;H01L29/267;;G06K9/00;;H01L21/822;;H01L29/417;;H01L21/324;;H01L29/165;;H01L29/423;;G06F3/0481;;H04N5/232;;H01L21/8234;;H04N13/366;;H01L21/3105;;H01L29/775;;G06F3/0482;;H01L27/092;;H01L21/225;;H01L29/10;;H04N13/398;;H01L21/02;;H01L27/088;;H01L29/06;;H01L21/28;;H01L29/04;;H01L21/308;;H04N5/247;;B82Y40/00;;H01L21/3065;;H01L29/66;;G05B23/02;;H01L29/778;;H01L29/45;;H01L21/8238;;H01L29/205;;H04N13/332;;B82Y10/00;;G06T19/00;;H04N7/18;;H01L29/786;;H01L29/15;;H04N13/111;;H01L21/336</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>H01L29/1083;;H01L29/45;;H01L29/0653;;H01L21/823807;;H01L21/823864;;H01L21/02636;;H01L27/092;;H01L29/66439;;G06F3/04817;;H01L21/2252;;H01L21/31053;;H01L29/66469;;H01L29/7848;;H01L29/04;;G06T19/006;;H01L29/205;;H01L29/41741;;H01L21/823412;;H01L29/267;;H01L29/78642;;H01L21/02532;;H01L29/0847;;H01L21/823842;;H01L29/66431;;H04N13/111;;H01L29/66712;;H04N13/366;;H01L21/823814;;B82Y10/00;;H01L29/7813;;H01L29/7827;;H01L27/088;;G06K2209/19;;H01L21/2258;;H01L21/823885;;H01L29/42376;;H04N7/181;;H04N13/398;;H01L29/775;;H01L21/3083;;H01L21/823475;;H01L29/66462;;H01L29/6656;;H01L29/66742;;H01L21/82345;;G06K2009/00738;;G06K9/00711;;H01L21/324;;H01L29/66666;;H04N13/332;;H01L29/1037;;G05B23/0216;;H01L29/152;;H01L21/823437;;H01L29/0649;;G06F3/0482;;H01L21/823418;;H01L29/1095;;H01L29/7788;;H01L21/823871;;H01L29/0676;;H01L29/42392;;H01L21/8221;;H01L21/8234;;H01L29/165;;H04N5/247;;H01L21/3065;;H01L29/1054;;H01L29/66522;;H04N5/23238;;H01L21/823487;;G05B2219/32014;;H01L29/0638</t>
+          <t>H01L29/7848;;H01L21/82345;;H01L29/0638;;H01L29/267;;H04N13/111;;H01L29/7827;;H01L29/1095;;H01L29/1037;;G05B2219/32014;;H01L21/823418;;H01L29/66742;;H01L21/02532;;H01L21/324;;H01L29/66462;;H01L29/66469;;H01L21/823864;;H01L29/1083;;H01L29/165;;H01L29/66431;;H01L29/7813;;H01L29/0847;;H01L21/8234;;G06K2209/19;;H04N13/366;;H01L21/02636;;H01L29/0649;;H01L29/775;;G06F3/0482;;H01L21/823885;;H01L29/42376;;H01L21/2252;;H01L29/152;;H01L27/092;;H04N13/398;;H01L21/823871;;H01L29/66439;;H01L21/823412;;H01L27/088;;H01L29/0676;;H01L21/3083;;H01L21/823475;;H04N7/181;;G06K9/00711;;H01L29/66666;;G06T19/006;;H01L29/04;;H01L29/78642;;H04N5/247;;G05B23/0216;;H01L21/823487;;H01L21/3065;;H01L29/0653;;H01L29/6656;;H01L29/7788;;H01L29/45;;H01L21/2258;;H04N5/23238;;H01L29/205;;H04N13/332;;H01L29/42392;;H01L29/66522;;H01L29/66712;;B82Y10/00;;G06K2009/00738;;H01L29/41741;;H01L21/8221;;H01L21/823437;;H01L21/823807;;G06F3/04817;;H01L21/823814;;H01L21/823842;;H01L21/31053;;H01L29/1054</t>
         </is>
       </c>
       <c r="R12" t="inlineStr"/>
@@ -1736,12 +1736,12 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>CN 107887384 B;;US 10714398 B2;;CN 107887441 B;;CN 107887444 B;;CN 107887386 B;;CN 107887444 A;;CN 107887445 A;;CN 107887274 B;;CN 107887440 B;;CN 107887274 A;;CN 107887443 A;;CN 107887442 B;;CN 107887387 A;;CN 107887443 B;;CN 106298778 A;;CN 107887387 B;;US 2018/0097106 A1;;CN 107887441 A;;CN 107887385 B;;CN 107887386 A;;US 10910278 B2;;CN 107887445 B;;CN 107887385 A;;CN 107887442 A;;CN 107887440 A;;US 2018/0097065 A1;;CN 107887384 A</t>
+          <t>US 2018/0097065 A1;;CN 107887386 B;;CN 107887274 B;;CN 107887445 A;;CN 106298778 A;;CN 107887443 B;;CN 107887384 A;;CN 107887385 B;;CN 107887443 A;;US 10714398 B2;;CN 107887440 A;;CN 107887444 A;;CN 107887441 B;;CN 107887440 B;;CN 107887441 A;;CN 107887386 A;;US 10910278 B2;;CN 107887442 A;;CN 107887444 B;;CN 107887385 A;;CN 107887387 B;;US 2018/0097106 A1;;CN 107887274 A;;CN 107887445 B;;CN 107887384 B;;CN 107887442 B;;CN 107887387 A</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>CN 201710530684 A;;CN 201710530751 A;;CN 201610872541 A;;CN 201710530685 A;;CN 201710531812 A;;CN 201710531811 A;;CN 201710530297 A;;CN 201710530950 A;;CN 201710530298 A;;CN 201710531762 A;;US 201715718586 A;;CN 201710530194 A;;US 201715720240 A;;CN 201710530250 A</t>
+          <t>CN 201710531762 A;;CN 201710531812 A;;CN 201710530298 A;;CN 201710530194 A;;CN 201710530684 A;;US 201715720240 A;;CN 201710530297 A;;CN 201710531811 A;;CN 201710530950 A;;US 201715718586 A;;CN 201710530751 A;;CN 201710530685 A;;CN 201610872541 A;;CN 201710530250 A</t>
         </is>
       </c>
     </row>
@@ -1815,12 +1815,12 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>H01L29/06;;H01L27/092;;H01L29/78;;H01L29/165;;H01L29/66</t>
+          <t>H01L29/78;;H01L27/092;;H01L29/66;;H01L29/165;;H01L29/06</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>H01L29/1083;;H01L29/45;;H01L29/0653;;H01L21/823807;;H01L21/823864;;H01L21/02636;;H01L27/092;;H01L29/66439;;G06F3/04817;;H01L21/2252;;H01L21/31053;;H01L29/66469;;H01L29/7848;;H01L29/04;;G06T19/006;;H01L29/205;;H01L29/41741;;H01L21/823412;;H01L29/267;;H01L29/78642;;H01L21/02532;;H01L29/0847;;H01L21/823842;;H01L29/66431;;H04N13/111;;H01L29/66712;;H04N13/366;;H01L21/823814;;B82Y10/00;;H01L29/7813;;H01L29/7827;;H01L27/088;;G06K2209/19;;H01L21/2258;;H01L21/823885;;H01L29/42376;;H04N7/181;;H04N13/398;;H01L29/775;;H01L21/3083;;H01L21/823475;;H01L29/66462;;H01L29/6656;;H01L29/66742;;H01L21/82345;;G06K2009/00738;;G06K9/00711;;H01L21/324;;H01L29/66666;;H04N13/332;;H01L29/1037;;G05B23/0216;;H01L29/152;;H01L21/823437;;H01L29/0649;;G06F3/0482;;H01L21/823418;;H01L29/1095;;H01L29/7788;;H01L21/823871;;H01L29/0676;;H01L29/42392;;H01L21/8221;;H01L21/8234;;H01L29/165;;H04N5/247;;H01L21/3065;;H01L29/1054;;H01L29/66522;;H04N5/23238;;H01L21/823487;;G05B2219/32014;;H01L29/0638</t>
+          <t>H01L29/7848;;H01L21/82345;;H01L29/0638;;H01L29/267;;H04N13/111;;H01L29/7827;;H01L29/1095;;H01L29/1037;;G05B2219/32014;;H01L21/823418;;H01L29/66742;;H01L21/02532;;H01L21/324;;H01L29/66462;;H01L29/66469;;H01L21/823864;;H01L29/1083;;H01L29/165;;H01L29/66431;;H01L29/7813;;H01L29/0847;;H01L21/8234;;G06K2209/19;;H04N13/366;;H01L21/02636;;H01L29/0649;;H01L29/775;;G06F3/0482;;H01L21/823885;;H01L29/42376;;H01L21/2252;;H01L29/152;;H01L27/092;;H04N13/398;;H01L21/823871;;H01L29/66439;;H01L21/823412;;H01L27/088;;H01L29/0676;;H01L21/3083;;H01L21/823475;;H04N7/181;;G06K9/00711;;H01L29/66666;;G06T19/006;;H01L29/04;;H01L29/78642;;H04N5/247;;G05B23/0216;;H01L21/823487;;H01L21/3065;;H01L29/0653;;H01L29/6656;;H01L29/7788;;H01L29/45;;H01L21/2258;;H04N5/23238;;H01L29/205;;H04N13/332;;H01L29/42392;;H01L29/66522;;H01L29/66712;;B82Y10/00;;G06K2009/00738;;H01L29/41741;;H01L21/8221;;H01L21/823437;;H01L21/823807;;G06F3/04817;;H01L21/823814;;H01L21/823842;;H01L21/31053;;H01L29/1054</t>
         </is>
       </c>
       <c r="R13" t="inlineStr"/>
@@ -1922,12 +1922,12 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>H01L21/8238;;H01L21/8234;;H01L27/092</t>
+          <t>H01L21/8234;;H01L27/092;;H01L21/8238</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>H01L29/1083;;H01L29/45;;H01L29/0653;;H01L21/823807;;H01L21/823864;;H01L21/02636;;H01L27/092;;H01L29/66439;;G06F3/04817;;H01L21/2252;;H01L21/31053;;H01L29/66469;;H01L29/7848;;H01L29/04;;G06T19/006;;H01L29/205;;H01L29/41741;;H01L21/823412;;H01L29/267;;H01L29/78642;;H01L21/02532;;H01L29/0847;;H01L21/823842;;H01L29/66431;;H04N13/111;;H01L29/66712;;H04N13/366;;H01L21/823814;;B82Y10/00;;H01L29/7813;;H01L29/7827;;H01L27/088;;G06K2209/19;;H01L21/2258;;H01L21/823885;;H01L29/42376;;H04N7/181;;H04N13/398;;H01L29/775;;H01L21/3083;;H01L21/823475;;H01L29/66462;;H01L29/6656;;H01L29/66742;;H01L21/82345;;G06K2009/00738;;G06K9/00711;;H01L21/324;;H01L29/66666;;H04N13/332;;H01L29/1037;;G05B23/0216;;H01L29/152;;H01L21/823437;;H01L29/0649;;G06F3/0482;;H01L21/823418;;H01L29/1095;;H01L29/7788;;H01L21/823871;;H01L29/0676;;H01L29/42392;;H01L21/8221;;H01L21/8234;;H01L29/165;;H04N5/247;;H01L21/3065;;H01L29/1054;;H01L29/66522;;H04N5/23238;;H01L21/823487;;G05B2219/32014;;H01L29/0638</t>
+          <t>H01L29/7848;;H01L21/82345;;H01L29/0638;;H01L29/267;;H04N13/111;;H01L29/7827;;H01L29/1095;;H01L29/1037;;G05B2219/32014;;H01L21/823418;;H01L29/66742;;H01L21/02532;;H01L21/324;;H01L29/66462;;H01L29/66469;;H01L21/823864;;H01L29/1083;;H01L29/165;;H01L29/66431;;H01L29/7813;;H01L29/0847;;H01L21/8234;;G06K2209/19;;H04N13/366;;H01L21/02636;;H01L29/0649;;H01L29/775;;G06F3/0482;;H01L21/823885;;H01L29/42376;;H01L21/2252;;H01L29/152;;H01L27/092;;H04N13/398;;H01L21/823871;;H01L29/66439;;H01L21/823412;;H01L27/088;;H01L29/0676;;H01L21/3083;;H01L21/823475;;H04N7/181;;G06K9/00711;;H01L29/66666;;G06T19/006;;H01L29/04;;H01L29/78642;;H04N5/247;;G05B23/0216;;H01L21/823487;;H01L21/3065;;H01L29/0653;;H01L29/6656;;H01L29/7788;;H01L29/45;;H01L21/2258;;H04N5/23238;;H01L29/205;;H04N13/332;;H01L29/42392;;H01L29/66522;;H01L29/66712;;B82Y10/00;;G06K2009/00738;;H01L29/41741;;H01L21/8221;;H01L21/823437;;H01L21/823807;;G06F3/04817;;H01L21/823814;;H01L21/823842;;H01L21/31053;;H01L29/1054</t>
         </is>
       </c>
       <c r="R14" t="inlineStr"/>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>ZHU ZHENGYONG;;ZHANG YANBO;;WANG GUILEI;;ZHU HUILONG;;RADAMSON HENRY H</t>
+          <t>ZHANG YANBO;;ZHU HUILONG;;RADAMSON HENRY H;;WANG GUILEI;;ZHU ZHENGYONG</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2033,12 +2033,12 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>H01L29/786;;H01L29/66;;H01L29/06;;H01L29/10</t>
+          <t>H01L29/786;;H01L29/06;;H01L29/66;;H01L29/10</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>H01L29/1083;;H01L29/45;;H01L29/0653;;H01L21/823807;;H01L21/823864;;H01L21/02636;;H01L27/092;;H01L29/66439;;G06F3/04817;;H01L21/2252;;H01L21/31053;;H01L29/66469;;H01L29/7848;;H01L29/04;;G06T19/006;;H01L29/205;;H01L29/41741;;H01L21/823412;;H01L29/267;;H01L29/78642;;H01L21/02532;;H01L29/0847;;H01L21/823842;;H01L29/66431;;H04N13/111;;H01L29/66712;;H04N13/366;;H01L21/823814;;B82Y10/00;;H01L29/7813;;H01L29/7827;;H01L27/088;;G06K2209/19;;H01L21/2258;;H01L21/823885;;H01L29/42376;;H04N7/181;;H04N13/398;;H01L29/775;;H01L21/3083;;H01L21/823475;;H01L29/66462;;H01L29/6656;;H01L29/66742;;H01L21/82345;;G06K2009/00738;;G06K9/00711;;H01L21/324;;H01L29/66666;;H04N13/332;;H01L29/1037;;G05B23/0216;;H01L29/152;;H01L21/823437;;H01L29/0649;;G06F3/0482;;H01L21/823418;;H01L29/1095;;H01L29/7788;;H01L21/823871;;H01L29/0676;;H01L29/42392;;H01L21/8221;;H01L21/8234;;H01L29/165;;H04N5/247;;H01L21/3065;;H01L29/1054;;H01L29/66522;;H04N5/23238;;H01L21/823487;;G05B2219/32014;;H01L29/0638</t>
+          <t>H01L29/7848;;H01L21/82345;;H01L29/0638;;H01L29/267;;H04N13/111;;H01L29/7827;;H01L29/1095;;H01L29/1037;;G05B2219/32014;;H01L21/823418;;H01L29/66742;;H01L21/02532;;H01L21/324;;H01L29/66462;;H01L29/66469;;H01L21/823864;;H01L29/1083;;H01L29/165;;H01L29/66431;;H01L29/7813;;H01L29/0847;;H01L21/8234;;G06K2209/19;;H04N13/366;;H01L21/02636;;H01L29/0649;;H01L29/775;;G06F3/0482;;H01L21/823885;;H01L29/42376;;H01L21/2252;;H01L29/152;;H01L27/092;;H04N13/398;;H01L21/823871;;H01L29/66439;;H01L21/823412;;H01L27/088;;H01L29/0676;;H01L21/3083;;H01L21/823475;;H04N7/181;;G06K9/00711;;H01L29/66666;;G06T19/006;;H01L29/04;;H01L29/78642;;H04N5/247;;G05B23/0216;;H01L21/823487;;H01L21/3065;;H01L29/0653;;H01L29/6656;;H01L29/7788;;H01L29/45;;H01L21/2258;;H04N5/23238;;H01L29/205;;H04N13/332;;H01L29/42392;;H01L29/66522;;H01L29/66712;;B82Y10/00;;G06K2009/00738;;H01L29/41741;;H01L21/8221;;H01L21/823437;;H01L21/823807;;G06F3/04817;;H01L21/823814;;H01L21/823842;;H01L21/31053;;H01L29/1054</t>
         </is>
       </c>
       <c r="R15" t="inlineStr"/>
@@ -2140,12 +2140,12 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>H01L27/088;;H01L21/8234</t>
+          <t>H01L21/8234;;H01L27/088</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>H01L29/1083;;H01L29/45;;H01L29/0653;;H01L21/823807;;H01L21/823864;;H01L21/02636;;H01L27/092;;H01L29/66439;;G06F3/04817;;H01L21/2252;;H01L21/31053;;H01L29/66469;;H01L29/7848;;H01L29/04;;G06T19/006;;H01L29/205;;H01L29/41741;;H01L21/823412;;H01L29/267;;H01L29/78642;;H01L21/02532;;H01L29/0847;;H01L21/823842;;H01L29/66431;;H04N13/111;;H01L29/66712;;H04N13/366;;H01L21/823814;;B82Y10/00;;H01L29/7813;;H01L29/7827;;H01L27/088;;G06K2209/19;;H01L21/2258;;H01L21/823885;;H01L29/42376;;H04N7/181;;H04N13/398;;H01L29/775;;H01L21/3083;;H01L21/823475;;H01L29/66462;;H01L29/6656;;H01L29/66742;;H01L21/82345;;G06K2009/00738;;G06K9/00711;;H01L21/324;;H01L29/66666;;H04N13/332;;H01L29/1037;;G05B23/0216;;H01L29/152;;H01L21/823437;;H01L29/0649;;G06F3/0482;;H01L21/823418;;H01L29/1095;;H01L29/7788;;H01L21/823871;;H01L29/0676;;H01L29/42392;;H01L21/8221;;H01L21/8234;;H01L29/165;;H04N5/247;;H01L21/3065;;H01L29/1054;;H01L29/66522;;H04N5/23238;;H01L21/823487;;G05B2219/32014;;H01L29/0638</t>
+          <t>H01L29/7848;;H01L21/82345;;H01L29/0638;;H01L29/267;;H04N13/111;;H01L29/7827;;H01L29/1095;;H01L29/1037;;G05B2219/32014;;H01L21/823418;;H01L29/66742;;H01L21/02532;;H01L21/324;;H01L29/66462;;H01L29/66469;;H01L21/823864;;H01L29/1083;;H01L29/165;;H01L29/66431;;H01L29/7813;;H01L29/0847;;H01L21/8234;;G06K2209/19;;H04N13/366;;H01L21/02636;;H01L29/0649;;H01L29/775;;G06F3/0482;;H01L21/823885;;H01L29/42376;;H01L21/2252;;H01L29/152;;H01L27/092;;H04N13/398;;H01L21/823871;;H01L29/66439;;H01L21/823412;;H01L27/088;;H01L29/0676;;H01L21/3083;;H01L21/823475;;H04N7/181;;G06K9/00711;;H01L29/66666;;G06T19/006;;H01L29/04;;H01L29/78642;;H04N5/247;;G05B23/0216;;H01L21/823487;;H01L21/3065;;H01L29/0653;;H01L29/6656;;H01L29/7788;;H01L29/45;;H01L21/2258;;H04N5/23238;;H01L29/205;;H04N13/332;;H01L29/42392;;H01L29/66522;;H01L29/66712;;B82Y10/00;;G06K2009/00738;;H01L29/41741;;H01L21/8221;;H01L21/823437;;H01L21/823807;;G06F3/04817;;H01L21/823814;;H01L21/823842;;H01L21/31053;;H01L29/1054</t>
         </is>
       </c>
       <c r="R16" t="inlineStr"/>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>066-971-174-243-907;;091-589-843-044-390;;199-535-148-484-91X</t>
+          <t>091-589-843-044-390;;066-971-174-243-907;;199-535-148-484-91X</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>IC UNIT AND METHOND OF MANUFACTURING THE SAME, AND ELECTRONIC DEVICE INCLUDING THE SAME;;Integrated circuit unit and electronic device including same;;IC unit and methond of manufacturing the same, and electronic device including the same</t>
+          <t>IC unit and methond of manufacturing the same, and electronic device including the same;;IC UNIT AND METHOND OF MANUFACTURING THE SAME, AND ELECTRONIC DEVICE INCLUDING THE SAME;;Integrated circuit unit and electronic device including same</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>ZHU HUILONG;;ZHU ZHENGYONG</t>
+          <t>ZHU ZHENGYONG;;ZHU HUILONG</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>B2;;A1;;A</t>
+          <t>A;;B2;;A1</t>
         </is>
       </c>
       <c r="M17" t="n">
@@ -2251,12 +2251,12 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>H01L21/8238;;H01L29/45;;H01L27/092;;H01L21/225;;H01L21/308;;H01L29/04;;H01L21/3105;;H01L29/205;;H01L29/423;;H01L29/267;;H01L21/822;;H01L29/778;;H01L29/417;;H01L29/786;;B82Y10/00;;H01L27/088;;H01L29/66;;H01L29/10;;H01L29/775;;H01L21/02;;H01L21/324;;H01L29/08;;H01L29/06;;H01L29/15;;H01L29/78;;H01L29/165;;H01L21/8234;;H01L21/3065</t>
+          <t>H01L29/78;;H01L29/08;;H01L29/267;;H01L21/822;;H01L29/417;;H01L21/324;;H01L29/165;;H01L29/423;;H01L21/8234;;H01L21/3105;;H01L29/775;;H01L21/225;;H01L27/092;;H01L29/10;;H01L21/02;;H01L27/088;;H01L29/06;;H01L29/04;;H01L21/308;;H01L21/3065;;H01L29/66;;H01L29/778;;H01L29/45;;H01L21/8238;;H01L29/205;;B82Y10/00;;H01L29/786;;H01L29/15</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>H01L29/1083;;H01L29/45;;H01L29/0653;;H01L21/823807;;H01L21/823864;;H01L21/02636;;H01L27/092;;H01L29/66439;;G06F3/04817;;H01L21/2252;;H01L21/31053;;H01L29/66469;;H01L29/7848;;H01L29/04;;G06T19/006;;H01L29/205;;H01L29/41741;;H01L21/823412;;H01L29/267;;H01L29/78642;;H01L21/02532;;H01L29/0847;;H01L21/823842;;H01L29/66431;;H04N13/111;;H01L29/66712;;H04N13/366;;H01L21/823814;;B82Y10/00;;H01L29/7813;;H01L29/7827;;H01L27/088;;G06K2209/19;;H01L21/2258;;H01L21/823885;;H01L29/42376;;H04N7/181;;H04N13/398;;H01L29/775;;H01L21/3083;;H01L21/823475;;H01L29/66462;;H01L29/6656;;H01L29/66742;;H01L21/82345;;G06K2009/00738;;G06K9/00711;;H01L21/324;;H01L29/66666;;H04N13/332;;H01L29/1037;;G05B23/0216;;H01L29/152;;H01L21/823437;;H01L29/0649;;G06F3/0482;;H01L21/823418;;H01L29/1095;;H01L29/7788;;H01L21/823871;;H01L29/0676;;H01L29/42392;;H01L21/8221;;H01L21/8234;;H01L29/165;;H04N5/247;;H01L21/3065;;H01L29/1054;;H01L29/66522;;H04N5/23238;;H01L21/823487;;G05B2219/32014;;H01L29/0638</t>
+          <t>H01L29/7848;;H01L21/82345;;H01L29/0638;;H01L29/267;;H04N13/111;;H01L29/7827;;H01L29/1095;;H01L29/1037;;G05B2219/32014;;H01L21/823418;;H01L29/66742;;H01L21/02532;;H01L21/324;;H01L29/66462;;H01L29/66469;;H01L21/823864;;H01L29/1083;;H01L29/165;;H01L29/66431;;H01L29/7813;;H01L29/0847;;H01L21/8234;;G06K2209/19;;H04N13/366;;H01L21/02636;;H01L29/0649;;H01L29/775;;G06F3/0482;;H01L21/823885;;H01L29/42376;;H01L21/2252;;H01L29/152;;H01L27/092;;H04N13/398;;H01L21/823871;;H01L29/66439;;H01L21/823412;;H01L27/088;;H01L29/0676;;H01L21/3083;;H01L21/823475;;H04N7/181;;G06K9/00711;;H01L29/66666;;G06T19/006;;H01L29/04;;H01L29/78642;;H04N5/247;;G05B23/0216;;H01L21/823487;;H01L21/3065;;H01L29/0653;;H01L29/6656;;H01L29/7788;;H01L29/45;;H01L21/2258;;H04N5/23238;;H01L29/205;;H04N13/332;;H01L29/42392;;H01L29/66522;;H01L29/66712;;B82Y10/00;;G06K2009/00738;;H01L29/41741;;H01L21/8221;;H01L21/823437;;H01L21/823807;;G06F3/04817;;H01L21/823814;;H01L21/823842;;H01L21/31053;;H01L29/1054</t>
         </is>
       </c>
       <c r="R17" t="inlineStr"/>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>US 2018/0108577 A1;;US 10629498 B2;;CN 111755443 A</t>
+          <t>CN 111755443 A;;US 10629498 B2;;US 2018/0108577 A1</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>151-584-955-768-731;;004-988-494-197-462</t>
+          <t>004-988-494-197-462;;151-584-955-768-731</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>IC unit and method of manufacturing the same, and electronic device including the same;;IC UNIT AND METHOND OF MANUFACTURING THE SAME, AND ELECTRONIC DEVICE INCLUDING THE SAME</t>
+          <t>IC UNIT AND METHOND OF MANUFACTURING THE SAME, AND ELECTRONIC DEVICE INCLUDING THE SAME;;IC unit and method of manufacturing the same, and electronic device including the same</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2325,7 +2325,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>ZHU HUILONG;;ZHU ZHENGYONG</t>
+          <t>ZHU ZHENGYONG;;ZHU HUILONG</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -2362,12 +2362,12 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>H01L21/8238;;H01L29/45;;H01L27/092;;H01L21/225;;H01L21/308;;H01L29/04;;H01L21/3105;;H01L29/205;;H01L29/423;;H01L29/267;;H01L21/822;;H01L29/778;;H01L29/417;;H01L29/786;;B82Y10/00;;H01L29/66;;H01L29/10;;H01L29/775;;H01L21/02;;H01L21/324;;H01L29/08;;H01L29/06;;H01L29/15;;H01L29/78;;H01L21/8234;;H01L29/165;;H01L21/3065</t>
+          <t>H01L29/78;;H01L29/08;;H01L29/267;;H01L21/822;;H01L29/417;;H01L21/324;;H01L29/165;;H01L29/423;;H01L21/8234;;H01L21/3105;;H01L29/775;;H01L21/225;;H01L27/092;;H01L29/10;;H01L21/02;;H01L29/06;;H01L29/04;;H01L21/308;;H01L21/3065;;H01L29/66;;H01L29/778;;H01L29/45;;H01L21/8238;;H01L29/205;;B82Y10/00;;H01L29/786;;H01L29/15</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>H01L29/1083;;H01L29/45;;H01L29/0653;;H01L21/823807;;H01L21/823864;;H01L21/02636;;H01L27/092;;H01L29/66439;;G06F3/04817;;H01L21/2252;;H01L21/31053;;H01L29/66469;;H01L29/7848;;H01L29/04;;G06T19/006;;H01L29/205;;H01L29/41741;;H01L21/823412;;H01L29/267;;H01L29/78642;;H01L21/02532;;H01L29/0847;;H01L21/823842;;H01L29/66431;;H04N13/111;;H01L29/66712;;H04N13/366;;H01L21/823814;;B82Y10/00;;H01L29/7813;;H01L29/7827;;H01L27/088;;G06K2209/19;;H01L21/2258;;H01L21/823885;;H01L29/42376;;H04N7/181;;H04N13/398;;H01L29/775;;H01L21/3083;;H01L21/823475;;H01L29/66462;;H01L29/6656;;H01L29/66742;;H01L21/82345;;G06K2009/00738;;G06K9/00711;;H01L21/324;;H01L29/66666;;H04N13/332;;H01L29/1037;;G05B23/0216;;H01L29/152;;H01L21/823437;;H01L29/0649;;G06F3/0482;;H01L21/823418;;H01L29/1095;;H01L29/7788;;H01L21/823871;;H01L29/0676;;H01L29/42392;;H01L21/8221;;H01L21/8234;;H01L29/165;;H04N5/247;;H01L21/3065;;H01L29/1054;;H01L29/66522;;H04N5/23238;;H01L21/823487;;G05B2219/32014;;H01L29/0638</t>
+          <t>H01L29/7848;;H01L21/82345;;H01L29/0638;;H01L29/267;;H04N13/111;;H01L29/7827;;H01L29/1095;;H01L29/1037;;G05B2219/32014;;H01L21/823418;;H01L29/66742;;H01L21/02532;;H01L21/324;;H01L29/66462;;H01L29/66469;;H01L21/823864;;H01L29/1083;;H01L29/165;;H01L29/66431;;H01L29/7813;;H01L29/0847;;H01L21/8234;;G06K2209/19;;H04N13/366;;H01L21/02636;;H01L29/0649;;H01L29/775;;G06F3/0482;;H01L21/823885;;H01L29/42376;;H01L21/2252;;H01L29/152;;H01L27/092;;H04N13/398;;H01L21/823871;;H01L29/66439;;H01L21/823412;;H01L27/088;;H01L29/0676;;H01L21/3083;;H01L21/823475;;H04N7/181;;G06K9/00711;;H01L29/66666;;G06T19/006;;H01L29/04;;H01L29/78642;;H04N5/247;;G05B23/0216;;H01L21/823487;;H01L21/3065;;H01L29/0653;;H01L29/6656;;H01L29/7788;;H01L29/45;;H01L21/2258;;H04N5/23238;;H01L29/205;;H04N13/332;;H01L29/42392;;H01L29/66522;;H01L29/66712;;B82Y10/00;;G06K2009/00738;;H01L29/41741;;H01L21/8221;;H01L21/823437;;H01L21/823807;;G06F3/04817;;H01L21/823814;;H01L21/823842;;H01L21/31053;;H01L29/1054</t>
         </is>
       </c>
       <c r="R18" t="inlineStr"/>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>US 2019/0287865 A1;;US 10643905 B2</t>
+          <t>US 10643905 B2;;US 2019/0287865 A1</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -2469,12 +2469,12 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>G05B23/02;;G06T19/00;;H04N5/232;;H04N7/18</t>
+          <t>G05B23/02;;H04N7/18;;G06T19/00;;H04N5/232</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>H01L29/1083;;H01L29/45;;H01L29/0653;;H01L21/823807;;H01L21/823864;;H01L21/02636;;H01L27/092;;H01L29/66439;;G06F3/04817;;H01L21/2252;;H01L21/31053;;H01L29/66469;;H01L29/7848;;H01L29/04;;G06T19/006;;H01L29/205;;H01L29/41741;;H01L21/823412;;H01L29/267;;H01L29/78642;;H01L21/02532;;H01L29/0847;;H01L21/823842;;H01L29/66431;;H04N13/111;;H01L29/66712;;H04N13/366;;H01L21/823814;;B82Y10/00;;H01L29/7813;;H01L29/7827;;H01L27/088;;G06K2209/19;;H01L21/2258;;H01L21/823885;;H01L29/42376;;H04N7/181;;H04N13/398;;H01L29/775;;H01L21/3083;;H01L21/823475;;H01L29/66462;;H01L29/6656;;H01L29/66742;;H01L21/82345;;G06K2009/00738;;G06K9/00711;;H01L21/324;;H01L29/66666;;H04N13/332;;H01L29/1037;;G05B23/0216;;H01L29/152;;H01L21/823437;;H01L29/0649;;G06F3/0482;;H01L21/823418;;H01L29/1095;;H01L29/7788;;H01L21/823871;;H01L29/0676;;H01L29/42392;;H01L21/8221;;H01L21/8234;;H01L29/165;;H04N5/247;;H01L21/3065;;H01L29/1054;;H01L29/66522;;H04N5/23238;;H01L21/823487;;G05B2219/32014;;H01L29/0638</t>
+          <t>H01L29/7848;;H01L21/82345;;H01L29/0638;;H01L29/267;;H04N13/111;;H01L29/7827;;H01L29/1095;;H01L29/1037;;G05B2219/32014;;H01L21/823418;;H01L29/66742;;H01L21/02532;;H01L21/324;;H01L29/66462;;H01L29/66469;;H01L21/823864;;H01L29/1083;;H01L29/165;;H01L29/66431;;H01L29/7813;;H01L29/0847;;H01L21/8234;;G06K2209/19;;H04N13/366;;H01L21/02636;;H01L29/0649;;H01L29/775;;G06F3/0482;;H01L21/823885;;H01L29/42376;;H01L21/2252;;H01L29/152;;H01L27/092;;H04N13/398;;H01L21/823871;;H01L29/66439;;H01L21/823412;;H01L27/088;;H01L29/0676;;H01L21/3083;;H01L21/823475;;H04N7/181;;G06K9/00711;;H01L29/66666;;G06T19/006;;H01L29/04;;H01L29/78642;;H04N5/247;;G05B23/0216;;H01L21/823487;;H01L21/3065;;H01L29/0653;;H01L29/6656;;H01L29/7788;;H01L29/45;;H01L21/2258;;H04N5/23238;;H01L29/205;;H04N13/332;;H01L29/42392;;H01L29/66522;;H01L29/66712;;B82Y10/00;;G06K2009/00738;;H01L29/41741;;H01L21/8221;;H01L21/823437;;H01L21/823807;;G06F3/04817;;H01L21/823814;;H01L21/823842;;H01L21/31053;;H01L29/1054</t>
         </is>
       </c>
       <c r="R19" t="inlineStr"/>
@@ -2518,7 +2518,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>139-953-016-089-681;;022-371-039-747-189</t>
+          <t>022-371-039-747-189;;139-953-016-089-681</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>张晋;;幸研;;LI YUAN;;张辉;;李源;;ZHANG HUI;;XING YAN;;ZHANG JIN</t>
+          <t>张辉;;李源;;XING YAN;;张晋;;LI YUAN;;ZHANG JIN;;ZHANG HUI;;幸研</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -2576,7 +2576,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>G06F17/50;;B81C1/00</t>
+          <t>B81C1/00;;G06F17/50</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -2608,7 +2608,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>CN 106495089 A;;CN 106495089 B</t>
+          <t>CN 106495089 B;;CN 106495089 A</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -2688,7 +2688,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>B81C1/00349;;B81C1/00261;;A61B5/6813;;A61B2562/12;;A61B5/6843</t>
+          <t>A61B5/6843;;B81C1/00349;;A61B5/6813;;B81C1/00261;;A61B2562/12</t>
         </is>
       </c>
       <c r="R21" t="inlineStr"/>
@@ -2732,17 +2732,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>141-171-860-159-994;;010-188-554-840-088;;193-740-224-195-322;;148-931-852-354-400</t>
+          <t>193-740-224-195-322;;148-931-852-354-400;;141-171-860-159-994;;010-188-554-840-088</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://lens.org/010-188-554-840-088;;https://lens.org/148-931-852-354-400;;https://lens.org/141-171-860-159-994;;https://lens.org/193-740-224-195-322</t>
+          <t>https://lens.org/010-188-554-840-088;;https://lens.org/193-740-224-195-322;;https://lens.org/141-171-860-159-994;;https://lens.org/148-931-852-354-400</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SiOxNy-based synapse optically reading device and preparation method thereof;;基于SiON的光读取神经突触器件及其制备方法;;Optical-readout synaptic device based on SiOxNy and preparation method thereof</t>
+          <t>Optical-readout synaptic device based on SiOxNy and preparation method thereof;;SiOxNy-based synapse optically reading device and preparation method thereof;;基于SiON的光读取神经突触器件及其制备方法</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2757,7 +2757,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>顾德恩;;李东阳;;CHEN YICHENG;;GU DEEN;;蒋亚东;;LI DONGYANG;;钟豪;;ZHONG HAO;;GU DE'EN;;JIANG YADONG;;陈奕丞;;LI WEI;;李伟</t>
+          <t>LI DONGYANG;;JIANG YADONG;;顾德恩;;李东阳;;GU DEEN;;CHEN YICHENG;;ZHONG HAO;;蒋亚东;;GU DE'EN;;钟豪;;LI WEI;;陈奕丞;;李伟</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -2776,7 +2776,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>B2;;A1;;B;;A</t>
+          <t>B;;A;;B2;;A1</t>
         </is>
       </c>
       <c r="M22" t="n">
@@ -2790,12 +2790,12 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>G06N3/063;;B82Y30/00;;H01L45/00;;G02B6/122;;G02B6/132;;G02B6/12;;B82Y20/00</t>
+          <t>G02B6/12;;G02B6/132;;B82Y20/00;;G06N3/063;;G02B6/122;;H01L45/00;;B82Y30/00</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>H01L45/1625;;H01L45/16;;H01L45/08;;H01L45/145;;H01L45/1675;;G02B6/1226;;B82Y30/00;;H01L45/1253;;H01L45/1233;;G02B2006/12035;;G02B6/132;;B82Y20/00;;G06N3/0635;;H01L45/1213</t>
+          <t>G02B6/1226;;H01L45/145;;G02B6/132;;H01L45/1675;;H01L45/08;;H01L45/1233;;B82Y20/00;;H01L45/16;;H01L45/1625;;G06N3/0635;;H01L45/1253;;H01L45/1213;;B82Y30/00;;G02B2006/12035</t>
         </is>
       </c>
       <c r="R22" t="inlineStr"/>
@@ -2822,12 +2822,12 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>CN 108110137 B;;US 10475996 B2;;US 2018/0277756 A1;;CN 108110137 A</t>
+          <t>US 10475996 B2;;US 2018/0277756 A1;;CN 108110137 B;;CN 108110137 A</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>US 201815989188 A;;CN 201711335085 A</t>
+          <t>CN 201711335085 A;;US 201815989188 A</t>
         </is>
       </c>
     </row>
@@ -2839,7 +2839,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>166-421-246-410-161;;125-447-081-634-252</t>
+          <t>125-447-081-634-252;;166-421-246-410-161</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>YAN XIAOBING;;REN DELIANG;;WANG KAIYANG</t>
+          <t>YAN XIAOBING;;WANG KAIYANG;;REN DELIANG</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -2883,7 +2883,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>A1;;A</t>
+          <t>A;;A1</t>
         </is>
       </c>
       <c r="M23" t="n">
@@ -2897,12 +2897,12 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>G06N3/06;;H01L45/00;;G11C11/54</t>
+          <t>H01L45/00;;G11C11/54;;G06N3/06</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>H01L45/16;;C04B2235/79;;C04B35/5611;;G11C2213/15;;G11C2213/35;;G11C13/0019;;H01L45/1253;;B82Y10/00;;H01L45/149;;G11C11/54;;G06N3/0635;;H01L45/04;;G06N3/049;;G06N3/061</t>
+          <t>G11C11/54;;G06N3/061;;B82Y10/00;;C04B35/5611;;G11C13/0019;;H01L45/04;;H01L45/149;;G06N3/0635;;G11C2213/15;;H01L45/1253;;G06N3/049;;C04B2235/79;;G11C2213/35;;H01L45/16</t>
         </is>
       </c>
       <c r="R23" t="inlineStr"/>
@@ -2929,12 +2929,12 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>US 2020/0160155 A1;;CN 109524545 A</t>
+          <t>CN 109524545 A;;US 2020/0160155 A1</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>CN 201811367908 A;;US 201916396703 A</t>
+          <t>US 201916396703 A;;CN 201811367908 A</t>
         </is>
       </c>
     </row>
@@ -2971,7 +2971,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>XU JUN;;LIANG RENRONG;;ZHAO LINYUAN;;LIU YU</t>
+          <t>LIU YU;;LIANG RENRONG;;ZHAO LINYUAN;;XU JUN</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -3004,12 +3004,12 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>B82Y40/00;;H01L29/78;;H01L29/06;;H01L21/336</t>
+          <t>H01L29/78;;B82Y40/00;;H01L29/06;;H01L21/336</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>B82Y40/00;;H01L29/7831;;H01L29/66484;;H01L29/0669</t>
+          <t>B82Y40/00;;H01L29/0669;;H01L29/7831;;H01L29/66484</t>
         </is>
       </c>
       <c r="R24" t="inlineStr"/>
@@ -3078,7 +3078,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>WU SHUO;;ZHOU WENLI;;CHENG RUNHONG;;WANG YUNBO;;GAO JUNXIONG;;CHEN CHANGSHENG;;ZHU YU</t>
+          <t>ZHU YU;;CHEN CHANGSHENG;;GAO JUNXIONG;;WU SHUO;;ZHOU WENLI;;CHENG RUNHONG;;WANG YUNBO</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -3111,12 +3111,12 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>G06N3/06;;G06N3/00;;B82Y30/00;;B82Y15/00</t>
+          <t>G06N3/06;;B82Y30/00;;B82Y15/00;;G06N3/00</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>G06N3/002;;G06N3/06;;B82Y30/00;;B82Y15/00</t>
+          <t>B82Y30/00;;B82Y15/00;;G06N3/002;;G06N3/06</t>
         </is>
       </c>
       <c r="R25" t="inlineStr"/>
@@ -3180,12 +3180,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>ICLEAGUE TECH CO LTD;;YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG</t>
+          <t>YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG;;ICLEAGUE TECH CO LTD</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>JIANG WEINAN;;YU XING</t>
+          <t>YU XING;;JIANG WEINAN</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -3218,12 +3218,12 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>B81B7/02;;H01L27/146;;B81B7/00;;B81C1/00</t>
+          <t>H01L27/146;;B81C1/00;;B81B7/02;;B81B7/00</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>B81B7/0032;;B81C1/00261;;H01L27/1469;;B81B7/02;;B81C1/00222;;H01L27/14634</t>
+          <t>H01L27/14634;;B81B7/02;;B81B7/0032;;B81C1/00222;;B81C1/00261;;H01L27/1469</t>
         </is>
       </c>
       <c r="R26" t="inlineStr"/>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>WANG ZEHONG;;WANG WEI;;YU DAN;;CHEN YIXIANG</t>
+          <t>WANG ZEHONG;;YU DAN;;CHEN YIXIANG;;WANG WEI</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -3325,12 +3325,12 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>B82Y40/00;;C23C18/44;;G01L1/14;;B82Y30/00;;D01D5/00;;G01L9/12;;B82Y15/00</t>
+          <t>B82Y15/00;;G01L9/12;;D01D5/00;;G01L1/14;;B82Y40/00;;C23C18/44;;B82Y30/00</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>B82Y40/00;;C23C18/44;;D01D5/003;;B82Y30/00;;G01L1/142;;G01L9/12;;D01D5/0069;;B82Y15/00</t>
+          <t>B82Y15/00;;D01D5/0069;;G01L9/12;;D01D5/003;;B82Y40/00;;C23C18/44;;B82Y30/00;;G01L1/142</t>
         </is>
       </c>
       <c r="R27" t="inlineStr"/>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>KORTEN TILL;;MANSSON ALF;;TAKATSUKI HIDEYO;;REUTHER CORDULA;;DIEZ STEFAN</t>
+          <t>KORTEN TILL;;DIEZ STEFAN;;REUTHER CORDULA;;TAKATSUKI HIDEYO;;MANSSON ALF</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -3432,12 +3432,12 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>G06N3/00;;B82Y10/00</t>
+          <t>B82Y10/00;;G06N3/00</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>B82Y40/00;;B82Y10/00</t>
+          <t>B82Y10/00;;B82Y40/00</t>
         </is>
       </c>
       <c r="R28" t="inlineStr"/>
@@ -3481,12 +3481,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>107-704-552-379-860;;099-541-914-036-776;;018-363-716-273-917</t>
+          <t>099-541-914-036-776;;107-704-552-379-860;;018-363-716-273-917</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://lens.org/099-541-914-036-776;;https://lens.org/107-704-552-379-860;;https://lens.org/018-363-716-273-917</t>
+          <t>https://lens.org/099-541-914-036-776;;https://lens.org/018-363-716-273-917;;https://lens.org/107-704-552-379-860</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -3506,7 +3506,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>CHEN CHANG;;STAKENBORG TIM;;FAUVART MAARTEN;;CAI QING;;COVENS KRIS</t>
+          <t>STAKENBORG TIM;;CAI QING;;CHEN CHANG;;COVENS KRIS;;FAUVART MAARTEN</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>KR;;US;;EP</t>
+          <t>EP;;US;;KR</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>A1;;A</t>
+          <t>A;;A1</t>
         </is>
       </c>
       <c r="M29" t="n">
@@ -3543,12 +3543,12 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>G11C13/00;;G11C11/00;;G06N3/12;;B82Y10/00;;C12P19/34;;G11C11/54;;C12M3/06</t>
+          <t>G11C11/54;;G11C13/00;;B82Y10/00;;G06N3/12;;G11C11/00;;C12M3/06;;C12P19/34</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>G06N3/123;;G11C13/0016;;C12N15/10;;G11C13/0019;;G11C11/00;;B82Y10/00;;G11C11/54;;G16B30/00</t>
+          <t>G11C11/54;;C12N15/10;;B82Y10/00;;G06N3/123;;G11C13/0019;;G16B30/00;;G11C11/00;;G11C13/0016</t>
         </is>
       </c>
       <c r="R29" t="inlineStr"/>
@@ -3575,12 +3575,12 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>US 2019/0205768 A1;;KR 20190082143 A;;EP 3506135 A1</t>
+          <t>KR 20190082143 A;;EP 3506135 A1;;US 2019/0205768 A1</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>US 201816224496 A;;EP 17211093 A;;KR 20180172813 A</t>
+          <t>EP 17211093 A;;US 201816224496 A;;KR 20180172813 A</t>
         </is>
       </c>
     </row>
@@ -3592,17 +3592,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>062-711-544-788-511;;152-689-049-154-09X</t>
+          <t>152-689-049-154-09X;;062-711-544-788-511</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://lens.org/062-711-544-788-511;;https://lens.org/152-689-049-154-09X</t>
+          <t>https://lens.org/152-689-049-154-09X;;https://lens.org/062-711-544-788-511</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SYSTEM AND METHOD FOR APPLYING A MAGNONIC MATRIX-VECTOR-MULTIPLIER ARRANGEMENT;;ARRANGEMENT FOR USE IN A MAGNONIC MATRIX-VECTOR-MULTIPLIER</t>
+          <t>ARRANGEMENT FOR USE IN A MAGNONIC MATRIX-VECTOR-MULTIPLIER;;SYSTEM AND METHOD FOR APPLYING A MAGNONIC MATRIX-VECTOR-MULTIPLIER ARRANGEMENT</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -3612,17 +3612,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT;;UNIV LEUVEN KATH;;IMEC VZW</t>
+          <t>IMEC VZW;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT;;UNIV LEUVEN KATH</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>COSTA JOSE DIOGO;;CIUBOTARU FLORIN;;ADELMANN HANNS CHRISTOPH</t>
+          <t>CIUBOTARU FLORIN;;ADELMANN HANNS CHRISTOPH;;COSTA JOSE DIOGO</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>KATHOLIEKE UNIVERSITEIT LEUVEN (2019-11-25);;IMEC VZW (2019-11-25)</t>
+          <t>IMEC VZW (2019-11-25);;KATHOLIEKE UNIVERSITEIT LEUVEN (2019-11-25)</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -3630,7 +3630,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>US;;EP</t>
+          <t>EP;;US</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -3654,12 +3654,12 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06E1/04;;H01L29/66;;G06N3/08;;G02F1/01</t>
+          <t>G02F1/01;;B82Y10/00;;G06E1/04;;H01L29/66;;G06N3/08</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>G06N3/084;;H01L41/00;;B82Y20/00;;G06N3/0635;;G06E1/045</t>
+          <t>G06N3/084;;B82Y20/00;;G06E1/045;;G06N3/0635;;H01L41/00</t>
         </is>
       </c>
       <c r="R30" t="inlineStr"/>
@@ -3691,7 +3691,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>US 201916593917 A;;EP 18198863 A</t>
+          <t>EP 18198863 A;;US 201916593917 A</t>
         </is>
       </c>
     </row>
@@ -3757,12 +3757,12 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>B82Y40/00;;G03F7/00;;B82Y10/00</t>
+          <t>B82Y10/00;;B82Y40/00;;G03F7/00</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>B82Y40/00;;B82Y10/00;;G06N5/003;;G03F7/0002</t>
+          <t>B82Y10/00;;B82Y40/00;;G06N5/003;;G03F7/0002</t>
         </is>
       </c>
       <c r="R31" t="inlineStr"/>
@@ -3806,17 +3806,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>152-095-732-259-63X;;047-351-574-945-08X;;042-652-460-098-334</t>
+          <t>042-652-460-098-334;;152-095-732-259-63X;;047-351-574-945-08X</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://lens.org/152-095-732-259-63X;;https://lens.org/047-351-574-945-08X;;https://lens.org/042-652-460-098-334</t>
+          <t>https://lens.org/047-351-574-945-08X;;https://lens.org/042-652-460-098-334;;https://lens.org/152-095-732-259-63X</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>MOULE DE LITHOGRAPHIE POUR IMPRESSION NANOMETRIQUE ET PROCEDES DE FABRICATION ET D'UTILISATION D'UN TEL MOULE;;LITHOGRAPHY MOULD FOR NANOMETRIC IMPRESSION AND METHODS FOR MANUFACTURING AND USING SUCH A MOULD</t>
+          <t>LITHOGRAPHY MOULD FOR NANOMETRIC IMPRESSION AND METHODS FOR MANUFACTURING AND USING SUCH A MOULD;;MOULE DE LITHOGRAPHIE POUR IMPRESSION NANOMETRIQUE ET PROCEDES DE FABRICATION ET D'UTILISATION D'UN TEL MOULE</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -3850,7 +3850,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>A1;;B1</t>
+          <t>B1;;A1</t>
         </is>
       </c>
       <c r="M32" t="n">
@@ -3864,12 +3864,12 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>B82Y40/00;;G03F7/00;;G03F1/00;;H01L21/02;;B82Y10/00</t>
+          <t>G03F7/00;;B82Y10/00;;B82Y40/00;;H01L21/02;;G03F1/00</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>B82Y40/00;;B82Y10/00;;G06N5/003;;G03F7/0002</t>
+          <t>B82Y10/00;;B82Y40/00;;G06N5/003;;G03F7/0002</t>
         </is>
       </c>
       <c r="R32" t="inlineStr"/>
@@ -3896,12 +3896,12 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>FR 3041118 A1;;WO 2017/046287 A1;;FR 3041118 B1</t>
+          <t>FR 3041118 B1;;WO 2017/046287 A1;;FR 3041118 A1</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>EP 2016071907 W;;FR 1558623 A</t>
+          <t>FR 1558623 A;;EP 2016071907 W</t>
         </is>
       </c>
     </row>
@@ -3913,17 +3913,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>184-931-411-813-726;;195-278-498-675-732;;107-040-164-637-857;;192-339-171-675-025;;072-287-191-089-928</t>
+          <t>192-339-171-675-025;;195-278-498-675-732;;107-040-164-637-857;;184-931-411-813-726;;072-287-191-089-928</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://lens.org/195-278-498-675-732;;https://lens.org/072-287-191-089-928;;https://lens.org/184-931-411-813-726;;https://lens.org/192-339-171-675-025;;https://lens.org/107-040-164-637-857</t>
+          <t>https://lens.org/184-931-411-813-726;;https://lens.org/195-278-498-675-732;;https://lens.org/192-339-171-675-025;;https://lens.org/107-040-164-637-857;;https://lens.org/072-287-191-089-928</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Accessing data storage provided using double-stranded nucleic acid molecules;;ACCESSING DATA STORAGE PROVIDED USING DOUBLE-STRANDED NUCLEIC ACID MOLECULES</t>
+          <t>ACCESSING DATA STORAGE PROVIDED USING DOUBLE-STRANDED NUCLEIC ACID MOLECULES;;Accessing data storage provided using double-stranded nucleic acid molecules</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -3938,7 +3938,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>HAYES MATTHEW JAMES;;MATTHEW JAMES HAYES;;SANCHES-KUIPER RAQUEL MARIA;;RAQUEL MARIA SANCHES-KUIPER</t>
+          <t>RAQUEL MARIA SANCHES-KUIPER;;SANCHES-KUIPER RAQUEL MARIA;;HAYES MATTHEW JAMES;;MATTHEW JAMES HAYES</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -3947,17 +3947,17 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>TW;;WO;;GB</t>
+          <t>TW;;GB;;WO</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent;;Patent of Addition</t>
+          <t>Patent of Addition;;Patent Application;;Granted Patent</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>D0;;B;;A1;;A</t>
+          <t>D0;;B;;A;;A1</t>
         </is>
       </c>
       <c r="M33" t="n">
@@ -3971,12 +3971,12 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>G11C13/00;;C12Q1/68;;G16H10/40;;G16B50/20;;B01L7/00;;G06N3/12;;B82Y10/00;;G06F9/312;;G11C11/54</t>
+          <t>G11C11/54;;G11C13/00;;G06F9/312;;B82Y10/00;;G16B50/20;;B01L7/00;;G06N3/12;;G16H10/40;;C12Q1/68</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>G06N3/123;;C12Q1/68;;G06N3/126;;G16B50/20;;G11C13/0019;;B01L7/52;;B82Y10/00;;G11C11/54;;G06N3/002</t>
+          <t>G11C11/54;;B01L7/52;;G06N3/002;;B82Y10/00;;G06N3/123;;G11C13/0019;;G16B50/20;;G06N3/126;;C12Q1/68</t>
         </is>
       </c>
       <c r="R33" t="inlineStr"/>
@@ -4003,12 +4003,12 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>GB 201812169 D0;;TW 202008381 A;;GB 2576304 A;;GB 2576304 B;;WO 2020/021221 A1</t>
+          <t>TW 202008381 A;;GB 2576304 A;;WO 2020/021221 A1;;GB 2576304 B;;GB 201812169 D0</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>GB 201812169 A;;TW 108119665 A;;GB 2019051462 W</t>
+          <t>TW 108119665 A;;GB 201812169 A;;GB 2019051462 W</t>
         </is>
       </c>
     </row>
@@ -4020,12 +4020,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>086-134-305-093-935;;181-987-753-698-602;;151-320-079-612-50X</t>
+          <t>151-320-079-612-50X;;086-134-305-093-935;;181-987-753-698-602</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://lens.org/181-987-753-698-602;;https://lens.org/151-320-079-612-50X;;https://lens.org/086-134-305-093-935</t>
+          <t>https://lens.org/181-987-753-698-602;;https://lens.org/086-134-305-093-935;;https://lens.org/151-320-079-612-50X</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -4045,7 +4045,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>HAYES MATTHEW JAMES;;SANCHES-KUIPER RAQUEL MARIA</t>
+          <t>SANCHES-KUIPER RAQUEL MARIA;;HAYES MATTHEW JAMES</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
@@ -4054,17 +4054,17 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>SG;;CA;;EP</t>
+          <t>EP;;SG;;CA</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Unknown;;Patent Application</t>
+          <t>Patent Application;;Unknown</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>A1;;A</t>
+          <t>A;;A1</t>
         </is>
       </c>
       <c r="M34" t="n">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>G06N3/123;;C12Q1/68;;G06N3/126;;G16B50/20;;G11C13/0019;;B01L7/52;;B82Y10/00;;G11C11/54;;G06N3/002</t>
+          <t>G11C11/54;;B01L7/52;;G06N3/002;;B82Y10/00;;G06N3/123;;G11C13/0019;;G16B50/20;;G06N3/126;;C12Q1/68</t>
         </is>
       </c>
       <c r="R34" t="inlineStr"/>
@@ -4110,12 +4110,12 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>EP 3827435 A1;;SG 11202100073U A;;CA 3105954 A1</t>
+          <t>CA 3105954 A1;;SG 11202100073U A;;EP 3827435 A1</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>SG 11202100073U A;;EP 19730444 A;;CA 3105954 A</t>
+          <t>EP 19730444 A;;SG 11202100073U A;;CA 3105954 A</t>
         </is>
       </c>
     </row>
@@ -4127,17 +4127,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>032-908-699-779-813;;177-579-347-292-60X;;118-050-348-728-882;;140-881-661-083-974;;138-303-545-095-517;;126-537-800-488-374;;170-207-950-505-313;;092-900-202-784-87X</t>
+          <t>177-579-347-292-60X;;170-207-950-505-313;;140-881-661-083-974;;138-303-545-095-517;;126-537-800-488-374;;092-900-202-784-87X;;032-908-699-779-813;;118-050-348-728-882</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://lens.org/092-900-202-784-87X;;https://lens.org/126-537-800-488-374;;https://lens.org/118-050-348-728-882;;https://lens.org/140-881-661-083-974;;https://lens.org/138-303-545-095-517;;https://lens.org/170-207-950-505-313;;https://lens.org/177-579-347-292-60X;;https://lens.org/032-908-699-779-813</t>
+          <t>https://lens.org/177-579-347-292-60X;;https://lens.org/092-900-202-784-87X;;https://lens.org/118-050-348-728-882;;https://lens.org/170-207-950-505-313;;https://lens.org/126-537-800-488-374;;https://lens.org/032-908-699-779-813;;https://lens.org/140-881-661-083-974;;https://lens.org/138-303-545-095-517</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Architektur für ein Koppeln von Quantenbits unter Verwendung von lokalisierten Resonatoren;;量子ビットを結合するアーキテクチャのための超伝導マイクロ波共振器空胴及びそれを構成する方法;;Architecture for coupling quantum bits using localized resonators;;Architecture for coupling quantum bits using localised resonators;;用于使用局部谐振器来耦合量子位的架构</t>
+          <t>Architecture for coupling quantum bits using localized resonators;;Architecture for coupling quantum bits using localised resonators;;量子ビットを結合するアーキテクチャのための超伝導マイクロ波共振器空胴及びそれを構成する方法;;Architektur für ein Koppeln von Quantenbits unter Verwendung von lokalisierten Resonatoren;;用于使用局部谐振器来耦合量子位的架构</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -4147,12 +4147,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>国际商业机器公司;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM</t>
+          <t>インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;国际商业机器公司;;IBM</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>DOUGLAS TEMPLETON MCCLURE III;;M·斯蒂芬;;JAY GAMBETTA;;GAMBETTA JAY;;MCCLURE III DOUGLAS TEMPLETON;;ダイアル、オリバー;;D·T·麦克鲁尔三世;;ステファン、マティアス;;ガンベッタ、ジェイ;;DIAL OLIVER;;マクルーア ザ サード、ダグラス、テンプルトン;;J·加姆贝塔;;STEFFEN MATTHIAS;;MATTHIAS STEFFEN;;O·蒂亚尔;;OLIVER DIAL</t>
+          <t>DIAL OLIVER;;ガンベッタ、ジェイ;;ステファン、マティアス;;O·蒂亚尔;;DOUGLAS TEMPLETON MCCLURE III;;OLIVER DIAL;;JAY GAMBETTA;;ダイアル、オリバー;;STEFFEN MATTHIAS;;D·T·麦克鲁尔三世;;MCCLURE III DOUGLAS TEMPLETON;;MATTHIAS STEFFEN;;M·斯蒂芬;;J·加姆贝塔;;マクルーア ザ サード、ダグラス、テンプルトン;;GAMBETTA JAY</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>JP;;CN;;GB;;DE</t>
+          <t>CN;;JP;;GB;;DE</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -4171,7 +4171,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>B2;;T5;;B;;D0;;A</t>
+          <t>T5;;B2;;D0;;B;;A</t>
         </is>
       </c>
       <c r="M35" t="n">
@@ -4185,12 +4185,12 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>H01L39/24;;H01L39/02;;H01P7/00;;H03K19/195;;G06N99/00;;G06N20/00;;H01P1/205;;H01L39/14;;B82Y10/00;;G06N10/00;;H01L39/00</t>
+          <t>G06N99/00;;H01L39/00;;B82Y10/00;;H01L39/24;;G06N10/00;;H01L39/02;;H01P7/00;;H01L39/14;;G06N20/00;;H03K19/195;;H01P1/205</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>H01L39/025;;H01L39/24;;H01P7/00;;H01L39/2493;;G06N20/00;;H01P1/205;;H01L39/14;;B82Y10/00;;G06N10/00;;H05K999/99</t>
+          <t>B82Y10/00;;H01L39/24;;H01L39/14;;H05K999/99;;H01L39/025;;H01P7/00;;H01L39/2493;;G06N10/00;;G06N20/00;;H01P1/205</t>
         </is>
       </c>
       <c r="R35" t="inlineStr"/>
@@ -4217,12 +4217,12 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>GB 2556251 A;;GB 2556251 B;;DE 112016001721 T5;;CN 107851876 A;;CN 107851876 B;;GB 201800479 D0;;JP 6644091 B2;;JP 2018530931 A</t>
+          <t>DE 112016001721 T5;;JP 2018530931 A;;CN 107851876 A;;GB 2556251 B;;CN 107851876 B;;GB 2556251 A;;JP 6644091 B2;;GB 201800479 D0</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>JP 2017561380 A;;GB 201800479 A;;DE 112016001721 T;;CN 201680031319 A</t>
+          <t>DE 112016001721 T;;JP 2017561380 A;;GB 201800479 A;;CN 201680031319 A</t>
         </is>
       </c>
     </row>
@@ -4234,12 +4234,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>071-230-352-271-170;;059-870-669-564-271</t>
+          <t>059-870-669-564-271;;071-230-352-271-170</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://lens.org/071-230-352-271-170;;https://lens.org/059-870-669-564-271</t>
+          <t>https://lens.org/059-870-669-564-271;;https://lens.org/071-230-352-271-170</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -4259,7 +4259,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>GOULD MATTHEW V;;GAHROOSI AMIR BAHADOR;;MASILAMANI ASHOK PRABHU;;KHOMAMI ABADI MOJTABA</t>
+          <t>GAHROOSI AMIR BAHADOR;;KHOMAMI ABADI MOJTABA;;GOULD MATTHEW V;;MASILAMANI ASHOK PRABHU</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>CA;;EP</t>
+          <t>EP;;CA</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -4292,12 +4292,12 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>G06N3/02;;G01N37/00;;G06N3/08</t>
+          <t>G01N37/00;;G06N3/08;;G06N3/02</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>G01N33/0031;;G01N33/0034;;G01N2035/00891;;G01N35/00722;;B82Y15/00</t>
+          <t>B82Y15/00;;G01N33/0034;;G01N35/00722;;G01N2035/00891;;G01N33/0031</t>
         </is>
       </c>
       <c r="R36" t="inlineStr"/>
@@ -4324,12 +4324,12 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>CA 3089818 A1;;EP 3746800 A1</t>
+          <t>EP 3746800 A1;;CA 3089818 A1</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>CA 3089818 A;;EP 19743153 A</t>
+          <t>EP 19743153 A;;CA 3089818 A</t>
         </is>
       </c>
     </row>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>SUCHOWSKI HAIM;;WOLF LIOR;;ARIELI URI;;MREJEN MICHAEL;;NAGLER ACHIYA;;MALKIEL ITZIK</t>
+          <t>ARIELI URI;;MALKIEL ITZIK;;WOLF LIOR;;SUCHOWSKI HAIM;;MREJEN MICHAEL;;NAGLER ACHIYA</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -4403,12 +4403,12 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>G01N21/21;;B82Y40/00;;G01N21/25;;G06N3/04</t>
+          <t>G01N21/25;;B82Y40/00;;G01N21/21;;G06N3/04</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>B82Y40/00;;G01N21/25;;G06N3/126;;G01N21/21;;G01N2021/258;;G06N3/0481;;G06N3/04;;G01B2210/56;;G06N3/08</t>
+          <t>G01N21/25;;G01B2210/56;;G06N3/126;;G01N2021/258;;B82Y40/00;;G06N3/0481;;G06N3/08;;G01N21/21;;G06N3/04</t>
         </is>
       </c>
       <c r="R37" t="inlineStr"/>
@@ -4452,17 +4452,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>073-802-025-703-259;;185-408-668-875-404;;032-075-199-033-544</t>
+          <t>073-802-025-703-259;;032-075-199-033-544;;185-408-668-875-404</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://lens.org/073-802-025-703-259;;https://lens.org/032-075-199-033-544;;https://lens.org/185-408-668-875-404</t>
+          <t>https://lens.org/032-075-199-033-544;;https://lens.org/185-408-668-875-404;;https://lens.org/073-802-025-703-259</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SUBSTRATE CLEANING METHOD, SUBSTRATE CLEANING APPARATUS, SUBSTRATE PROCESSING APPARATUS, SUBSTRATE PROCESSING SYSTEM, MACHINE LEARNING DEVICE, AND PREDICTION DEVICE;;Substrate cleaning method, substrate cleaning apparatus, substrate processing apparatus, substrate processing system, and machine learning device;;SUBSTRATE CLEANING METHOD, SUBSTRATE CLEANING APPARATUS, SUBSTRATE PROCESSING APPARATUS, SUBSTRATE PROCESSING SYSTEM, AND MACHINE LEARNING DEVICE</t>
+          <t>Substrate cleaning method, substrate cleaning apparatus, substrate processing apparatus, substrate processing system, and machine learning device;;SUBSTRATE CLEANING METHOD, SUBSTRATE CLEANING APPARATUS, SUBSTRATE PROCESSING APPARATUS, SUBSTRATE PROCESSING SYSTEM, MACHINE LEARNING DEVICE, AND PREDICTION DEVICE;;SUBSTRATE CLEANING METHOD, SUBSTRATE CLEANING APPARATUS, SUBSTRATE PROCESSING APPARATUS, SUBSTRATE PROCESSING SYSTEM, AND MACHINE LEARNING DEVICE</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -4490,7 +4490,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>JP;;CN;;US</t>
+          <t>CN;;JP;;US</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -4500,7 +4500,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>A1;;A</t>
+          <t>A;;A1</t>
         </is>
       </c>
       <c r="M38" t="n">
@@ -4514,12 +4514,12 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>H01L21/304;;H01L21/02;;H01L21/67;;G01B21/30;;G01Q60/38;;G01Q10/06;;B82Y35/00</t>
+          <t>B82Y35/00;;G01Q60/38;;H01L21/67;;H01L21/304;;H01L21/02;;G01B21/30;;G01Q10/06</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>H01L21/67017;;G01Q10/065;;H01L21/67051;;H01L21/02041;;H01L21/67046;;G01Q30/04;;G01B21/30;;G01Q60/38;;H01L21/67253;;B82Y35/00</t>
+          <t>G01Q30/04;;H01L21/67046;;B82Y35/00;;G01Q60/38;;H01L21/67017;;G01Q10/065;;H01L21/67051;;H01L21/02041;;H01L21/67253;;G01B21/30</t>
         </is>
       </c>
       <c r="R38" t="inlineStr"/>
@@ -4546,12 +4546,12 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>US 2020/0116480 A1;;JP 2020061469 A;;CN 111029243 A</t>
+          <t>CN 111029243 A;;US 2020/0116480 A1;;JP 2020061469 A</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>CN 201910953017 A;;US 201916596051 A;;JP 2018191930 A</t>
+          <t>JP 2018191930 A;;CN 201910953017 A;;US 201916596051 A</t>
         </is>
       </c>
     </row>
@@ -4573,7 +4573,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>電子回路、ニューラルネットワーク及びニューラルネットワークの学習方法;;ELECTRONIC CIRCUIT, NEURAL NETWORK, AND NEURAL NETWORK LEARNING METHOD</t>
+          <t>ELECTRONIC CIRCUIT, NEURAL NETWORK, AND NEURAL NETWORK LEARNING METHOD;;電子回路、ニューラルネットワーク及びニューラルネットワークの学習方法</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -4588,7 +4588,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>新海 剛;;SHINKAI GOU</t>
+          <t>SHINKAI GOU;;新海 剛</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>A1;;A</t>
+          <t>A;;A1</t>
         </is>
       </c>
       <c r="M39" t="n">
@@ -4625,12 +4625,12 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>G06N3/063;;H01L29/06;;G06N99/00;;B82Y10/00;;G06N3/08;;G06N10/00;;H01L29/66;;G06G7/60</t>
+          <t>G06N99/00;;B82Y10/00;;G06N3/063;;G06G7/60;;G06N10/00;;H01L29/66;;G06N3/08;;H01L29/06</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>G06N10/00;;H01L29/66977;;H01L29/0665;;B82Y10/00;;H01L29/205;;G06N3/08</t>
+          <t>H01L29/205;;H01L29/0665;;B82Y10/00;;H01L29/66977;;G06N10/00;;G06N3/08</t>
         </is>
       </c>
       <c r="R39" t="inlineStr"/>
@@ -4662,7 +4662,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>JP 2019210549 A;;US 202017092439 A</t>
+          <t>US 202017092439 A;;JP 2019210549 A</t>
         </is>
       </c>
     </row>
@@ -4674,12 +4674,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>081-884-875-823-11X;;188-090-679-785-086</t>
+          <t>188-090-679-785-086;;081-884-875-823-11X</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://lens.org/188-090-679-785-086;;https://lens.org/081-884-875-823-11X</t>
+          <t>https://lens.org/081-884-875-823-11X;;https://lens.org/188-090-679-785-086</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -4699,7 +4699,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>CHOI JEONG WOO;;정용호;;CHUNG YONG HO;;최정우</t>
+          <t>CHUNG YONG HO;;최정우;;CHOI JEONG WOO;;정용호</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -4718,7 +4718,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>A;;B1</t>
+          <t>B1;;A</t>
         </is>
       </c>
       <c r="M40" t="n">
@@ -4732,12 +4732,12 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>H01L27/28;;H01L51/00;;B82Y10/00</t>
+          <t>B82Y10/00;;H01L27/28;;H01L51/00</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>H01L51/0093;;G11C13/0019;;B82Y10/00;;H01L27/28</t>
+          <t>B82Y10/00;;G11C13/0019;;H01L27/28;;H01L51/0093</t>
         </is>
       </c>
       <c r="R40" t="inlineStr"/>
@@ -4786,7 +4786,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://lens.org/035-794-622-904-360;;https://lens.org/190-350-980-582-755</t>
+          <t>https://lens.org/190-350-980-582-755;;https://lens.org/035-794-622-904-360</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -4843,12 +4843,12 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>G06F17/16;;H03M13/11;;H03M13/00;;G06F16/901;;G06N5/00;;G06F17/10;;H03M13/29;;B82Y10/00;;G06N10/00;;H04L9/08</t>
+          <t>H03M13/11;;G06F17/10;;B82Y10/00;;H03M13/29;;H04L9/08;;G06N5/00;;G06N10/00;;G06F16/901;;H03M13/00;;G06F17/16</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>H03M13/616;;G06F17/16;;H03M13/1191;;G06F16/9024;;H04L9/0852;;H03M13/3933;;G06N5/003;;H04B10/70;;H03M13/00;;H03M13/11;;G06F17/10;;H03M13/1108;;B82Y10/00;;H03M13/29;;G06F11/10;;G06N10/00;;H03M13/615</t>
+          <t>H03M13/11;;G06F17/10;;G06F11/10;;G06F16/9024;;H03M13/616;;B82Y10/00;;H03M13/29;;H03M13/1108;;H04B10/70;;H03M13/615;;H03M13/3933;;H04L9/0852;;G06N10/00;;G06F17/16;;H03M13/00;;H03M13/1191;;G06N5/003</t>
         </is>
       </c>
       <c r="R41" t="inlineStr"/>
@@ -4902,7 +4902,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>METHOD AND APPARATUS FOR GENERATING QUANTUM ERROR CORRECTING CODE USING GRAPH STATES;;METHOD AND APPARATUS FOR GENERATING QUANTUM ERROR CORRECTION CODE USING GRAPH STATE</t>
+          <t>METHOD AND APPARATUS FOR GENERATING QUANTUM ERROR CORRECTION CODE USING GRAPH STATE;;METHOD AND APPARATUS FOR GENERATING QUANTUM ERROR CORRECTING CODE USING GRAPH STATES</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>A1;;B1</t>
+          <t>B1;;A1</t>
         </is>
       </c>
       <c r="M42" t="n">
@@ -4950,12 +4950,12 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>G06N99/00;;H03M13/11;;H03M13/00;;H03M13/39;;H04B10/70;;H03M13/29;;G06F11/10</t>
+          <t>H03M13/11;;G06F11/10;;G06N99/00;;H03M13/29;;H04B10/70;;H03M13/00;;H03M13/39</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>H03M13/616;;G06F17/16;;H03M13/1191;;G06F16/9024;;H04L9/0852;;H03M13/3933;;G06N5/003;;H04B10/70;;H03M13/00;;H03M13/11;;G06F17/10;;H03M13/1108;;B82Y10/00;;H03M13/29;;G06F11/10;;G06N10/00;;H03M13/615</t>
+          <t>H03M13/11;;G06F17/10;;G06F11/10;;G06F16/9024;;H03M13/616;;B82Y10/00;;H03M13/29;;H03M13/1108;;H04B10/70;;H03M13/615;;H03M13/3933;;H04L9/0852;;G06N10/00;;G06F17/16;;H03M13/00;;H03M13/1191;;G06N5/003</t>
         </is>
       </c>
       <c r="R42" t="inlineStr"/>
@@ -5019,12 +5019,12 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>한양대학교 산학협력단;;IUCF HYU</t>
+          <t>IUCF HYU;;한양대학교 산학협력단</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>김진배;;HA KIEU MY;;KIM JIN BAE;;윤태현;;YOON TAE HYUN;;트린수안텅;;TRINH XUAN TUNG;;하키우</t>
+          <t>김진배;;하키우;;트린수안텅;;KIM JIN BAE;;YOON TAE HYUN;;윤태현;;TRINH XUAN TUNG;;HA KIEU MY</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -5043,7 +5043,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>A;;B1</t>
+          <t>B1;;A</t>
         </is>
       </c>
       <c r="M43" t="n">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>G06F19/00;;G16C10/00;;B82Y35/00</t>
+          <t>B82Y35/00;;G06F19/00;;G16C10/00</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
@@ -5106,17 +5106,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>052-356-970-848-744;;138-446-145-078-230;;108-664-458-321-884;;007-424-307-118-008</t>
+          <t>052-356-970-848-744;;138-446-145-078-230;;007-424-307-118-008;;108-664-458-321-884</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://lens.org/108-664-458-321-884;;https://lens.org/052-356-970-848-744;;https://lens.org/007-424-307-118-008;;https://lens.org/138-446-145-078-230</t>
+          <t>https://lens.org/007-424-307-118-008;;https://lens.org/108-664-458-321-884;;https://lens.org/052-356-970-848-744;;https://lens.org/138-446-145-078-230</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>QUANTUM MECHANICAL MACHINE VISION SYSTEM AND ARITHMETIC OPERATION METHOD BASED ON QUANTUM DOT;;Quantum mechanical machine vision system and arithmetic operation method based on quantum dot;;QUANTUM MECHANICAL MACHINE VISION SYSTEM BASED ON QUANTUM DOT AND ARITHMETIC OPERATION METHOD</t>
+          <t>QUANTUM MECHANICAL MACHINE VISION SYSTEM BASED ON QUANTUM DOT AND ARITHMETIC OPERATION METHOD;;QUANTUM MECHANICAL MACHINE VISION SYSTEM AND ARITHMETIC OPERATION METHOD BASED ON QUANTUM DOT;;Quantum mechanical machine vision system and arithmetic operation method based on quantum dot</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -5131,7 +5131,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>안도열;;AHN DO YEOL</t>
+          <t>AHN DO YEOL;;안도열</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -5144,7 +5144,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>KR;;US</t>
+          <t>US;;KR</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>B2;;A1;;A;;B1</t>
+          <t>A;;B1;;B2;;A1</t>
         </is>
       </c>
       <c r="M44" t="n">
@@ -5168,12 +5168,12 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>G06N99/00;;G06K9/62;;G06N20/00;;B82Y10/00;;G06N10/00;;G06K9/66</t>
+          <t>G06K9/62;;G06N99/00;;B82Y10/00;;G06K9/66;;G06N10/00;;G06N20/00</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>G06K9/56;;G06K9/6202;;G06N20/00;;G06K9/6262;;B82Y10/00;;G06N10/00;;G06K9/66</t>
+          <t>G06K9/6202;;G06K9/56;;B82Y10/00;;G06K9/66;;G06N10/00;;G06N20/00;;G06K9/6262</t>
         </is>
       </c>
       <c r="R44" t="inlineStr"/>
@@ -5200,12 +5200,12 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>KR 20180067006 A;;KR 101945599 B1;;US 10489718 B2;;US 2018/0165594 A1</t>
+          <t>KR 101945599 B1;;KR 20180067006 A;;US 10489718 B2;;US 2018/0165594 A1</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>KR 20160168244 A;;US 201715838597 A</t>
+          <t>US 201715838597 A;;KR 20160168244 A</t>
         </is>
       </c>
     </row>
@@ -5217,17 +5217,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>023-101-928-686-458;;104-421-695-854-199;;130-916-866-115-532;;139-280-703-791-17X</t>
+          <t>139-280-703-791-17X;;104-421-695-854-199;;023-101-928-686-458;;130-916-866-115-532</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://lens.org/023-101-928-686-458;;https://lens.org/104-421-695-854-199;;https://lens.org/130-916-866-115-532;;https://lens.org/139-280-703-791-17X</t>
+          <t>https://lens.org/130-916-866-115-532;;https://lens.org/023-101-928-686-458;;https://lens.org/139-280-703-791-17X;;https://lens.org/104-421-695-854-199</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>QUANTUM MECHANICAL MACHINE VISION SYSTEM AND ARITHMETIC OPERATION METHOD BASED ON ORBITAL QUBIT;;Quantum mechanical machine vision system and arithmetic operation method based on orbital qubit;;QUANTUM MECHANICAL ARTIFICIAL VISION SYSTEM BASED ON ORBITAL QUBIT AND ARITHMETIC OPERATION METHOD</t>
+          <t>QUANTUM MECHANICAL ARTIFICIAL VISION SYSTEM BASED ON ORBITAL QUBIT AND ARITHMETIC OPERATION METHOD;;QUANTUM MECHANICAL MACHINE VISION SYSTEM AND ARITHMETIC OPERATION METHOD BASED ON ORBITAL QUBIT;;Quantum mechanical machine vision system and arithmetic operation method based on orbital qubit</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -5242,7 +5242,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>안도열;;AHN DO YEOL</t>
+          <t>AHN DO YEOL;;안도열</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -5255,7 +5255,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>KR;;US</t>
+          <t>US;;KR</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -5265,7 +5265,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>B2;;A1;;A;;B1</t>
+          <t>A;;B1;;B2;;A1</t>
         </is>
       </c>
       <c r="M45" t="n">
@@ -5279,12 +5279,12 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>G06N99/00;;G06K9/62;;G06N20/00;;B82Y10/00;;G06F17/11;;G06N10/00;;G06K9/66</t>
+          <t>G06K9/62;;G06F17/11;;G06N99/00;;B82Y10/00;;G06K9/66;;G06N10/00;;G06N20/00</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>G06K9/6202;;H01L29/66977;;G06N20/00;;G06K9/62;;B82Y10/00;;G06F17/11;;G06N10/00;;G06K9/66</t>
+          <t>G06F17/11;;G06K9/62;;G06K9/6202;;B82Y10/00;;G06K9/66;;H01L29/66977;;G06N10/00;;G06N20/00</t>
         </is>
       </c>
       <c r="R45" t="inlineStr"/>
@@ -5311,12 +5311,12 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>US 2018/0165595 A1;;US 10482387 B2;;KR 101951524 B1;;KR 20180067007 A</t>
+          <t>US 10482387 B2;;US 2018/0165595 A1;;KR 101951524 B1;;KR 20180067007 A</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>KR 20160168245 A;;US 201715838612 A</t>
+          <t>US 201715838612 A;;KR 20160168245 A</t>
         </is>
       </c>
     </row>
@@ -5328,12 +5328,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>003-096-429-312-17X;;073-636-151-135-298;;036-490-481-425-561</t>
+          <t>003-096-429-312-17X;;036-490-481-425-561;;073-636-151-135-298</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://lens.org/003-096-429-312-17X;;https://lens.org/073-636-151-135-298;;https://lens.org/036-490-481-425-561</t>
+          <t>https://lens.org/003-096-429-312-17X;;https://lens.org/036-490-481-425-561;;https://lens.org/073-636-151-135-298</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>LEE HYUNG DONG;;LEE HYUNG-DONG;;HEO KEUN;;CHOI YONG SOO;;CHOI YONG-SOO</t>
+          <t>LEE HYUNG DONG;;CHOI YONG SOO;;LEE HYUNG-DONG;;CHOI YONG-SOO;;HEO KEUN</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -5366,7 +5366,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>KR;;US</t>
+          <t>US;;KR</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -5376,7 +5376,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>B2;;A1;;A</t>
+          <t>A;;B2;;A1</t>
         </is>
       </c>
       <c r="M46" t="n">
@@ -5390,12 +5390,12 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>G06N3/063;;H01L51/00;;C01B32/158;;H01L27/28;;H01L51/05;;H03K19/177;;B82Y10/00</t>
+          <t>H03K19/177;;H01L51/05;;H01L51/00;;B82Y10/00;;H01L27/28;;G06N3/063;;C01B32/158</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>G06N3/063;;B82Y40/00;;C01B32/158;;C01B2202/04;;H03K19/17736;;C01B2202/02;;H01L51/0583;;H01L27/285;;B82Y10/00;;Y10S977/742;;C01B2202/06;;G06N3/0635;;G06N3/049;;H01L51/0048</t>
+          <t>C01B2202/04;;Y10S977/742;;B82Y10/00;;G06N3/063;;H01L27/285;;H03K19/17736;;C01B2202/06;;B82Y40/00;;C01B2202/02;;G06N3/0635;;H01L51/0048;;H01L51/0583;;G06N3/049;;C01B32/158</t>
         </is>
       </c>
       <c r="R46" t="inlineStr"/>
@@ -5427,7 +5427,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>KR 20170022014 A;;US 201715648342 A</t>
+          <t>US 201715648342 A;;KR 20170022014 A</t>
         </is>
       </c>
     </row>
@@ -5439,12 +5439,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>183-251-705-523-85X;;175-211-607-286-348</t>
+          <t>175-211-607-286-348;;183-251-705-523-85X</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://lens.org/175-211-607-286-348;;https://lens.org/183-251-705-523-85X</t>
+          <t>https://lens.org/183-251-705-523-85X;;https://lens.org/175-211-607-286-348</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -5459,12 +5459,12 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>경희대학교 산학협력단;;UNIV INDUSTRY COOPERATION GROUP KYUNG HEE UNIV</t>
+          <t>UNIV INDUSTRY COOPERATION GROUP KYUNG HEE UNIV;;경희대학교 산학협력단</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>신현동;;FAROOQ AHMAD;;SHIN HYUN DONG;;정영민;;파쿼 아마드;;JEONG YOUNG MIN</t>
+          <t>신현동;;정영민;;파쿼 아마드;;JEONG YOUNG MIN;;FAROOQ AHMAD;;SHIN HYUN DONG</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -5502,7 +5502,7 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>G06N20/00;;B82Y10/00;;G06N10/00</t>
+          <t>B82Y10/00;;G06N20/00;;G06N10/00</t>
         </is>
       </c>
       <c r="R47" t="inlineStr"/>
@@ -5546,17 +5546,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>044-863-244-807-936;;182-619-245-762-417;;023-219-706-755-351</t>
+          <t>182-619-245-762-417;;023-219-706-755-351;;044-863-244-807-936</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://lens.org/044-863-244-807-936;;https://lens.org/182-619-245-762-417;;https://lens.org/023-219-706-755-351</t>
+          <t>https://lens.org/023-219-706-755-351;;https://lens.org/044-863-244-807-936;;https://lens.org/182-619-245-762-417</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>INTEGRATE-AND-FIRE NEURON CIRCUIT USING SINGLE-GATED FEEDBACK FIELD-EFFECT TRANSISTOR;;Integrate-and-fire neuron circuit using single-gated feedback field-effect transistor</t>
+          <t>Integrate-and-fire neuron circuit using single-gated feedback field-effect transistor;;INTEGRATE-AND-FIRE NEURON CIRCUIT USING SINGLE-GATED FEEDBACK FIELD-EFFECT TRANSISTOR</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -5571,7 +5571,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>CHO KYOUNG AH;;WOO SOL-A;;WOO SOL A;;LIM DOO-HYEOK;;PARK YOUNG-SOO;;PARK YOUNG SOO;;CHO JIN-SUN;;LIM DOO HYEOK;;CHO JIN SUN;;KIM SANG SIG;;CHO KYOUNG-AH;;KIM SANG-SIK</t>
+          <t>PARK YOUNG SOO;;WOO SOL-A;;KIM SANG SIG;;WOO SOL A;;LIM DOO HYEOK;;KIM SANG-SIK;;CHO JIN SUN;;CHO JIN-SUN;;PARK YOUNG-SOO;;CHO KYOUNG-AH;;CHO KYOUNG AH;;LIM DOO-HYEOK</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -5584,7 +5584,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>KR;;CN;;US</t>
+          <t>CN;;US;;KR</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -5594,7 +5594,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>A1;;A</t>
+          <t>A;;A1</t>
         </is>
       </c>
       <c r="M48" t="n">
@@ -5608,12 +5608,12 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>G06N3/063;;H03K17/687;;H01L29/423;;H01L29/06;;H01L29/08;;H01L29/739;;H01L29/10</t>
+          <t>H03K17/687;;H01L29/08;;G06N3/063;;H01L29/739;;H01L29/10;;H01L29/423;;H01L29/06</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>G06N3/063;;H03K17/6871;;H03K17/165;;H01L29/7391;;H01L29/1033;;H01L29/0676;;H01L29/42392;;H01L29/0657;;G06N3/0481;;B82Y10/00;;H01L45/1206;;G06N3/0635;;G06N3/049;;H01L29/0847</t>
+          <t>H01L29/0847;;H03K17/6871;;H01L29/42392;;H01L45/1206;;B82Y10/00;;G06N3/063;;H03K17/165;;H01L29/1033;;G06N3/0635;;H01L29/0657;;G06N3/0481;;G06N3/049;;H01L29/7391;;H01L29/0676</t>
         </is>
       </c>
       <c r="R48" t="inlineStr"/>
@@ -5640,12 +5640,12 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>CN 112418414 A;;KR 20210023277 A;;US 2021/0056398 A1</t>
+          <t>US 2021/0056398 A1;;CN 112418414 A;;KR 20210023277 A</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>CN 201911132679 A;;US 201916686406 A;;KR 20190103264 A</t>
+          <t>KR 20190103264 A;;CN 201911132679 A;;US 201916686406 A</t>
         </is>
       </c>
     </row>
@@ -5657,17 +5657,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>191-752-177-258-33X;;166-436-753-396-925;;042-088-088-360-484;;143-789-421-997-213;;023-676-481-169-696;;000-924-163-689-210</t>
+          <t>191-752-177-258-33X;;042-088-088-360-484;;000-924-163-689-210;;166-436-753-396-925;;143-789-421-997-213;;023-676-481-169-696</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://lens.org/166-436-753-396-925;;https://lens.org/042-088-088-360-484;;https://lens.org/143-789-421-997-213;;https://lens.org/023-676-481-169-696;;https://lens.org/191-752-177-258-33X;;https://lens.org/000-924-163-689-210</t>
+          <t>https://lens.org/166-436-753-396-925;;https://lens.org/042-088-088-360-484;;https://lens.org/000-924-163-689-210;;https://lens.org/143-789-421-997-213;;https://lens.org/023-676-481-169-696;;https://lens.org/191-752-177-258-33X</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>ニューロモルフィックネットワーク;;NEUROMORPHIC NETWORK;;신경형태 망</t>
+          <t>신경형태 망;;NEUROMORPHIC NETWORK;;ニューロモルフィックネットワーク</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -5677,12 +5677,12 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>ザ ユニバーシティー オブ カンタベリー;;THE UNIV OF CANTERBURY</t>
+          <t>THE UNIV OF CANTERBURY;;ザ ユニバーシティー オブ カンタベリー</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>BROWN SIMON ANTHONY;;BOSE SAURABH KUMAR;;ブラウン シモン アンソニー;;フォスナー ショーン;;FOSTNER SHAWN;;ボーズ サウラブ クマー</t>
+          <t>ボーズ サウラブ クマー;;BOSE SAURABH KUMAR;;フォスナー ショーン;;ブラウン シモン アンソニー;;FOSTNER SHAWN;;BROWN SIMON ANTHONY</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -5695,17 +5695,17 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>EP;;CN;;US;;KR;;JP</t>
+          <t>CN;;EP;;KR;;JP;;US</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Patent Application;;Search Report</t>
+          <t>Search Report;;Patent Application</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>A4;;A1;;A</t>
+          <t>A;;A4;;A1</t>
         </is>
       </c>
       <c r="M49" t="n">
@@ -5719,12 +5719,12 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>G06N3/063;;B82Y40/00;;H01L49/00;;B82Y30/00;;B82B3/00;;B82Y10/00;;G06N3/04</t>
+          <t>B82Y10/00;;G06N3/063;;B82Y40/00;;H01L49/00;;B82B3/00;;B82Y30/00;;G06N3/04</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>G06N3/0635;;B82Y10/00;;G06N3/0445</t>
+          <t>B82Y10/00;;G06N3/0445;;G06N3/0635</t>
         </is>
       </c>
       <c r="R49" t="inlineStr"/>
@@ -5751,12 +5751,12 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>EP 3317224 A4;;JP 2018530145 A;;EP 3317224 A1;;KR 20180051487 A;;CN 108137312 A;;US 2018/0197077 A1</t>
+          <t>EP 3317224 A1;;JP 2018530145 A;;KR 20180051487 A;;EP 3317224 A4;;CN 108137312 A;;US 2018/0197077 A1</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>JP 2017568334 A;;KR 20187003064 A;;EP 16818317 A;;CN 201680039398 A;;US 201615740791 A</t>
+          <t>CN 201680039398 A;;KR 20187003064 A;;US 201615740791 A;;EP 16818317 A;;JP 2017568334 A</t>
         </is>
       </c>
     </row>
@@ -5788,12 +5788,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>FOSTNER SHAWN;;BROWN SIMON ANTHONY;;THE UNIV OF CANTERBURY;;BOSE SAURABH KUMAR</t>
+          <t>THE UNIV OF CANTERBURY;;BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>FOSTNER SHAWN;;BROWN SIMON ANTHONY;;BOSE SAURABH KUMAR</t>
+          <t>BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -5826,12 +5826,12 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>B82Y30/00;;B82Y10/00;;B82B3/00</t>
+          <t>B82Y10/00;;B82Y30/00;;B82B3/00</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>G06N3/0635;;B82Y10/00;;G06N3/0445</t>
+          <t>B82Y10/00;;G06N3/0445;;G06N3/0635</t>
         </is>
       </c>
       <c r="R50" t="inlineStr"/>
@@ -5875,17 +5875,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>001-079-502-253-130;;102-668-769-413-639;;038-126-807-734-99X;;163-192-380-009-138;;077-346-225-203-979;;035-130-560-396-513;;044-300-098-394-889;;062-442-047-736-531;;114-160-458-226-391;;180-073-430-817-518;;075-782-007-590-446;;166-964-008-678-577;;108-663-655-304-325;;000-934-395-077-394</t>
+          <t>035-130-560-396-513;;062-442-047-736-531;;038-126-807-734-99X;;180-073-430-817-518;;044-300-098-394-889;;075-782-007-590-446;;102-668-769-413-639;;077-346-225-203-979;;000-934-395-077-394;;001-079-502-253-130;;166-964-008-678-577;;163-192-380-009-138;;114-160-458-226-391;;108-663-655-304-325</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://lens.org/108-663-655-304-325;;https://lens.org/166-964-008-678-577;;https://lens.org/075-782-007-590-446;;https://lens.org/180-073-430-817-518;;https://lens.org/062-442-047-736-531;;https://lens.org/001-079-502-253-130;;https://lens.org/114-160-458-226-391;;https://lens.org/163-192-380-009-138;;https://lens.org/038-126-807-734-99X;;https://lens.org/000-934-395-077-394;;https://lens.org/077-346-225-203-979;;https://lens.org/035-130-560-396-513;;https://lens.org/102-668-769-413-639;;https://lens.org/044-300-098-394-889</t>
+          <t>https://lens.org/166-964-008-678-577;;https://lens.org/001-079-502-253-130;;https://lens.org/038-126-807-734-99X;;https://lens.org/035-130-560-396-513;;https://lens.org/102-668-769-413-639;;https://lens.org/108-663-655-304-325;;https://lens.org/075-782-007-590-446;;https://lens.org/180-073-430-817-518;;https://lens.org/062-442-047-736-531;;https://lens.org/163-192-380-009-138;;https://lens.org/077-346-225-203-979;;https://lens.org/044-300-098-394-889;;https://lens.org/114-160-458-226-391;;https://lens.org/000-934-395-077-394</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Methods of coding and decoding information;;METHODS OF ENCODING AND DECODING INFORMATION;;Methods of coding an decoding information;;METHODS OF CODING AND DECODING INFORMATION;;Methods of encoding and decoding information;;METHODS FOR CODING AND DECODING INFORMATION</t>
+          <t>Methods of encoding and decoding information;;Methods of coding and decoding information;;Methods of coding an decoding information;;METHODS FOR CODING AND DECODING INFORMATION;;METHODS OF ENCODING AND DECODING INFORMATION;;METHODS OF CODING AND DECODING INFORMATION</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -5895,17 +5895,17 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD</t>
+          <t>LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;LANDIGRAD LLC;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH</t>
+          <t>SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH (2017-06-14);;LANDIGRAD LIMITED LIABILITY COMPANY (2017-06-14)</t>
+          <t>LANDIGRAD LIMITED LIABILITY COMPANY (2017-06-14);;SMIRNOV SERGEY NIKOLAYEVICH (2017-06-14)</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -5913,17 +5913,17 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>EP;;TW;;CN;;US;;WO;;KR;;RU;;CA;;AU;;ZA;;JP;;IL</t>
+          <t>TW;;CA;;WO;;ZA;;EP;;KR;;CN;;IL;;RU;;AU;;JP;;US</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent;;Patent of Addition</t>
+          <t>Patent of Addition;;Patent Application;;Granted Patent</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>B2;;C1;;A1;;B;;D0;;A</t>
+          <t>B2;;D0;;A1;;C1;;B;;A</t>
         </is>
       </c>
       <c r="M51" t="n">
@@ -5937,12 +5937,12 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>H03M13/47;;C12Q1/68;;G06K19/06;;G06F19/22;;C12N15/09;;G06F17/30;;H04N/;;G06N3/12;;H03M7/14;;H03M13/00;;G06F19/10;;H03M7/28;;H03M7/30;;B82Y10/00;;H03M7/06;;G06F11/08</t>
+          <t>H03M13/47;;C12N15/09;;H04N/;;B82Y10/00;;H03M7/06;;H03M7/30;;G06F19/22;;G06F17/30;;G06N3/12;;G06F19/10;;G06K19/06;;H03M7/14;;C12Q1/68;;H03M7/28;;G06F11/08;;H03M13/00</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>G06N3/123;;C12Q1/68;;G16B99/00;;H03M13/01;;H03M13/00;;G06F16/2228;;H03M13/29;;B82Y10/00;;G06F11/10;;G06F11/08;;G16B30/00</t>
+          <t>G06F11/10;;B82Y10/00;;G06N3/123;;H03M13/01;;H03M13/29;;G16B30/00;;G16B99/00;;G06F16/2228;;C12Q1/68;;G06F11/08;;H03M13/00</t>
         </is>
       </c>
       <c r="R51" t="inlineStr"/>
@@ -5969,12 +5969,12 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>RU 2659025 C1;;EP 3416076 A1;;AU 2018/204252 B2;;US 2018/0365276 A1;;TW I673604 B;;CN 109086890 A;;CA 3008070 A1;;AU 2018/204252 A1;;ZA 201803894 B;;TW 201905691 A;;KR 20180136407 A;;JP 2019009776 A;;IL 259907 D0;;WO 2018/231100 A1</t>
+          <t>JP 2019009776 A;;TW 201905691 A;;TW I673604 B;;CA 3008070 A1;;ZA 201803894 B;;AU 2018/204252 B2;;CN 109086890 A;;WO 2018/231100 A1;;EP 3416076 A1;;KR 20180136407 A;;US 2018/0365276 A1;;AU 2018/204252 A1;;RU 2659025 C1;;IL 259907 D0</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>TW 107120605 A;;AU 2018/204252 A;;CN 201810615395 A;;EP 18177823 A;;JP 2018113817 A;;CA 3008070 A;;KR 20180068262 A;;IL 25990718 A;;US 201816008958 A;;ZA 201803894 A;;RU 2018000384 W;;RU 2017120555 A</t>
+          <t>TW 107120605 A;;RU 2018000384 W;;US 201816008958 A;;AU 2018/204252 A;;JP 2018113817 A;;IL 25990718 A;;CN 201810615395 A;;CA 3008070 A;;ZA 201803894 A;;EP 18177823 A;;KR 20180068262 A;;RU 2017120555 A</t>
         </is>
       </c>
     </row>
@@ -5986,7 +5986,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>002-603-512-307-539;;002-059-867-037-850</t>
+          <t>002-059-867-037-850;;002-603-512-307-539</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -6006,12 +6006,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LLC;;스미르노브, 세르게이 니콜라예비치;;란디그레드, 리미티드 라이어빌리티 컴퍼니</t>
+          <t>LANDIGRAD LLC;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치</t>
+          <t>스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -6030,7 +6030,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>A;;B1</t>
+          <t>B1;;A</t>
         </is>
       </c>
       <c r="M52" t="n">
@@ -6044,12 +6044,12 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>G06N3/12;;G06F16/22;;H03M13/01;;H03M13/29;;G06F11/10;;G16B30/00</t>
+          <t>G06F11/10;;H03M13/01;;H03M13/29;;G06N3/12;;G16B30/00;;G06F16/22</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>G06N3/123;;C12Q1/68;;G16B99/00;;H03M13/01;;H03M13/00;;G06F16/2228;;H03M13/29;;B82Y10/00;;G06F11/10;;G06F11/08;;G16B30/00</t>
+          <t>G06F11/10;;B82Y10/00;;G06N3/123;;H03M13/01;;H03M13/29;;G16B30/00;;G16B99/00;;G06F16/2228;;C12Q1/68;;G06F11/08;;H03M13/00</t>
         </is>
       </c>
       <c r="R52" t="inlineStr"/>
@@ -6076,7 +6076,7 @@
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>KR 102269463 B1;;KR 20200014926 A</t>
+          <t>KR 20200014926 A;;KR 102269463 B1</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>ANG KAH-WEE;;TAN WEE CHONG</t>
+          <t>TAN WEE CHONG;;ANG KAH-WEE</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -6151,12 +6151,12 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>G01N33/00;;G01R23/177;;G16C60/00;;G06N20/00;;G01N27/414;;B82Y15/00</t>
+          <t>B82Y15/00;;G01R23/177;;G16C60/00;;G01N27/414;;G01N33/00;;G06N20/00</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>G01N33/00;;G01R23/177;;B82Y30/00;;G16C20/70;;G16C60/00;;G06N20/00;;G01N27/414;;G16C20/30</t>
+          <t>G16C20/70;;G01R23/177;;G16C20/30;;G16C60/00;;G01N27/414;;G01N33/00;;G06N20/00;;B82Y30/00</t>
         </is>
       </c>
       <c r="R53" t="inlineStr"/>
@@ -6200,17 +6200,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>109-116-047-040-788;;119-509-407-241-779;;136-452-791-198-630;;160-664-290-293-52X;;033-494-926-604-108;;076-028-241-945-059;;054-690-301-667-678;;086-439-121-098-851;;027-716-622-208-177;;127-396-891-419-410;;145-042-401-678-239;;181-571-309-454-653;;144-606-189-820-123;;004-336-178-048-63X</t>
+          <t>027-716-622-208-177;;004-336-178-048-63X;;136-452-791-198-630;;119-509-407-241-779;;145-042-401-678-239;;109-116-047-040-788;;033-494-926-604-108;;144-606-189-820-123;;054-690-301-667-678;;181-571-309-454-653;;160-664-290-293-52X;;127-396-891-419-410;;086-439-121-098-851;;076-028-241-945-059</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://lens.org/160-664-290-293-52X;;https://lens.org/086-439-121-098-851;;https://lens.org/144-606-189-820-123;;https://lens.org/119-509-407-241-779;;https://lens.org/109-116-047-040-788;;https://lens.org/033-494-926-604-108;;https://lens.org/054-690-301-667-678;;https://lens.org/076-028-241-945-059;;https://lens.org/127-396-891-419-410;;https://lens.org/181-571-309-454-653;;https://lens.org/004-336-178-048-63X;;https://lens.org/145-042-401-678-239;;https://lens.org/027-716-622-208-177;;https://lens.org/136-452-791-198-630</t>
+          <t>https://lens.org/119-509-407-241-779;;https://lens.org/160-664-290-293-52X;;https://lens.org/136-452-791-198-630;;https://lens.org/127-396-891-419-410;;https://lens.org/004-336-178-048-63X;;https://lens.org/109-116-047-040-788;;https://lens.org/144-606-189-820-123;;https://lens.org/076-028-241-945-059;;https://lens.org/145-042-401-678-239;;https://lens.org/181-571-309-454-653;;https://lens.org/086-439-121-098-851;;https://lens.org/027-716-622-208-177;;https://lens.org/054-690-301-667-678;;https://lens.org/033-494-926-604-108</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>REMOVING LEAKAGE IN A QUANTUM BIT;;量子ビットにおける漏れの除去;;Removing leakage in a quantum bit;;양자 비트에서 누설 제거</t>
+          <t>Removing leakage in a quantum bit;;양자 비트에서 누설 제거;;REMOVING LEAKAGE IN A QUANTUM BIT;;量子ビットにおける漏れの除去</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -6220,7 +6220,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>ラミ・バレントス;;BARENDS RAMI;;구글 엘엘씨;;GOOGLE LLC;;GOOGLE INC;;グーグル エルエルシー</t>
+          <t>구글 엘엘씨;;GOOGLE LLC;;BARENDS RAMI;;ラミ・バレントス;;グーグル エルエルシー;;GOOGLE INC</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -6230,7 +6230,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>GOOGLE LLC (2019-07-10);;GOOGLE LLC (2018-07-12);;GOOGLE LLC (2016-02-01)</t>
+          <t>GOOGLE LLC (2018-07-12);;GOOGLE LLC (2019-07-10);;GOOGLE LLC (2016-02-01)</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -6238,7 +6238,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>SG;;EP;;CN;;US;;WO;;KR;;CA;;AU;;JP</t>
+          <t>WO;;SG;;CN;;EP;;KR;;CA;;AU;;JP;;US</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -6248,7 +6248,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>B2;;B1;;A1;;C;;A</t>
+          <t>B2;;A;;C;;A1;;B1</t>
         </is>
       </c>
       <c r="M54" t="n">
@@ -6262,12 +6262,12 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>G06N99/00;;H01L27/18;;B82Y10/00;;H03K3/38;;G02F3/00;;G06N10/00</t>
+          <t>G02F3/00;;G06N99/00;;B82Y10/00;;H01L27/18;;G06N10/00;;H03K3/38</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>A63F9/0204;;F41J5/18;;F41J1/10;;F41J7/04;;H01L27/18;;G06N20/00;;B82Y10/00;;H03K3/38;;G06N10/00;;F41J9/02</t>
+          <t>A63F9/0204;;B82Y10/00;;F41J5/18;;F41J7/04;;H01L27/18;;F41J1/10;;G06N10/00;;G06N20/00;;F41J9/02;;H03K3/38</t>
         </is>
       </c>
       <c r="R54" t="inlineStr"/>
@@ -6294,12 +6294,12 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>JP 6573727 B2;;EP 3369047 A1;;US 10217057 B2;;US 2018/0314967 A1;;SG 11201803545Q A;;CA 3003695 A1;;AU 2015/412742 B2;;KR 20180103833 A;;CA 3003695 C;;JP 2018534638 A;;KR 102161140 B1;;AU 2015/412742 A1;;CN 108701261 A;;WO 2017/074379 A1</t>
+          <t>AU 2015/412742 B2;;AU 2015/412742 A1;;JP 6573727 B2;;CN 108701261 A;;CA 3003695 A1;;US 10217057 B2;;KR 20180103833 A;;EP 3369047 A1;;SG 11201803545Q A;;WO 2017/074379 A1;;JP 2018534638 A;;KR 102161140 B1;;CA 3003695 C;;US 2018/0314967 A1</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>KR 20187014604 A;;US 2015/0057984 W;;EP 15794414 A;;SG 11201803545Q A;;CA 3003695 A;;AU 2015/412742 A;;JP 2018542110 A;;CN 201580085007 A;;US 201515771106 A</t>
+          <t>CA 3003695 A;;US 2015/0057984 W;;CN 201580085007 A;;KR 20187014604 A;;JP 2018542110 A;;EP 15794414 A;;SG 11201803545Q A;;AU 2015/412742 A;;US 201515771106 A</t>
         </is>
       </c>
     </row>
@@ -6311,7 +6311,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>077-452-638-337-800;;057-117-762-911-95X</t>
+          <t>057-117-762-911-95X;;077-452-638-337-800</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -6321,7 +6321,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>REMOVING LEAKAGE IN A QUANTUM BIT;;Removing leakage in a quantum bit</t>
+          <t>Removing leakage in a quantum bit;;REMOVING LEAKAGE IN A QUANTUM BIT</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -6373,12 +6373,12 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>A63F9/02;;F41J5/18;;F41J7/04;;F41J1/10;;H01L27/18;;G06N20/00;;H03K3/38;;G06N10/00;;F41J9/02</t>
+          <t>F41J5/18;;A63F9/02;;H01L27/18;;G06N10/00;;F41J1/10;;F41J7/04;;G06N20/00;;F41J9/02;;H03K3/38</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>A63F9/0204;;F41J5/18;;F41J1/10;;F41J7/04;;H01L27/18;;G06N20/00;;B82Y10/00;;H03K3/38;;G06N10/00;;F41J9/02</t>
+          <t>A63F9/0204;;B82Y10/00;;F41J5/18;;F41J7/04;;H01L27/18;;F41J1/10;;G06N10/00;;G06N20/00;;F41J9/02;;H03K3/38</t>
         </is>
       </c>
       <c r="R55" t="inlineStr"/>
@@ -6405,7 +6405,7 @@
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>US 2019/0383586 A1;;US 10867258 B2</t>
+          <t>US 10867258 B2;;US 2019/0383586 A1</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
@@ -6484,12 +6484,12 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>F41J5/18;;F41J1/10;;F41J7/04;;H01L27/18;;G06N20/00;;H03K3/38;;G06N10/00;;F41J9/02</t>
+          <t>F41J5/18;;H01L27/18;;G06N10/00;;F41J1/10;;F41J7/04;;G06N20/00;;F41J9/02;;H03K3/38</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>A63F9/0204;;F41J5/18;;F41J1/10;;F41J7/04;;H01L27/18;;G06N20/00;;B82Y10/00;;H03K3/38;;G06N10/00;;F41J9/02</t>
+          <t>A63F9/0204;;B82Y10/00;;F41J5/18;;F41J7/04;;H01L27/18;;F41J1/10;;G06N10/00;;G06N20/00;;F41J9/02;;H03K3/38</t>
         </is>
       </c>
       <c r="R56" t="inlineStr"/>
@@ -6533,7 +6533,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>008-969-973-657-149;;001-753-592-797-300</t>
+          <t>001-753-592-797-300;;008-969-973-657-149</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -6543,7 +6543,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>REMOVING LEAKAGE IN A QUANTUM BIT;;Removing leakage in a quantum bit</t>
+          <t>Removing leakage in a quantum bit;;REMOVING LEAKAGE IN A QUANTUM BIT</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -6595,12 +6595,12 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>A63F9/02;;F41J7/04;;F41J1/10;;F41J5/18;;G06N10/00;;F41J9/02</t>
+          <t>F41J5/18;;A63F9/02;;G06N10/00;;F41J1/10;;F41J7/04;;F41J9/02</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>A63F9/0204;;F41J5/18;;F41J1/10;;F41J7/04;;H01L27/18;;G06N20/00;;B82Y10/00;;H03K3/38;;G06N10/00;;F41J9/02</t>
+          <t>A63F9/0204;;B82Y10/00;;F41J5/18;;F41J7/04;;H01L27/18;;F41J1/10;;G06N10/00;;G06N20/00;;F41J9/02;;H03K3/38</t>
         </is>
       </c>
       <c r="R57" t="inlineStr"/>
@@ -6627,7 +6627,7 @@
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>US 2019/0186877 A1;;US 10422607 B2</t>
+          <t>US 10422607 B2;;US 2019/0186877 A1</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
@@ -6644,12 +6644,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>012-779-809-146-993;;047-713-326-117-82X;;197-942-427-280-157;;170-523-664-499-340</t>
+          <t>170-523-664-499-340;;047-713-326-117-82X;;012-779-809-146-993;;197-942-427-280-157</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://lens.org/197-942-427-280-157;;https://lens.org/170-523-664-499-340;;https://lens.org/047-713-326-117-82X;;https://lens.org/012-779-809-146-993</t>
+          <t>https://lens.org/012-779-809-146-993;;https://lens.org/170-523-664-499-340;;https://lens.org/197-942-427-280-157;;https://lens.org/047-713-326-117-82X</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -6674,7 +6674,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>HONEYWELL INTERNATIONAL INC (2015-06-17);;HONEYWELL INTERNATIONAL INC. (2018-04-04)</t>
+          <t>HONEYWELL INTERNATIONAL INC. (2018-04-04);;HONEYWELL INTERNATIONAL INC (2015-06-17)</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -6682,7 +6682,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>US;;EP</t>
+          <t>EP;;US</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -6692,7 +6692,7 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>B2;;A1;;B1</t>
+          <t>B1;;B2;;A1</t>
         </is>
       </c>
       <c r="M58" t="n">
@@ -6706,12 +6706,12 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>G21K1/00;;H01J49/06;;G06N99/00;;H01J49/00;;B82Y10/00;;G04F5/14;;H01J49/46;;H01L29/94</t>
+          <t>H01J49/06;;G06N99/00;;G21K1/00;;B82Y10/00;;H01J49/00;;H01J49/46;;H01L29/94;;G04F5/14</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>G21K1/00;;H01J49/06;;H01J49/463;;G06N20/00;;B82Y10/00;;H01L29/94;;G06N10/00</t>
+          <t>H01J49/06;;G21K1/00;;B82Y10/00;;H01L29/94;;H01J49/463;;G06N10/00;;G06N20/00</t>
         </is>
       </c>
       <c r="R58" t="inlineStr"/>
@@ -6738,12 +6738,12 @@
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>EP 3106427 B1;;US 9548191 B2;;EP 3106427 A1;;US 2016/0372314 A1</t>
+          <t>EP 3106427 B1;;US 2016/0372314 A1;;US 9548191 B2;;EP 3106427 A1</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>EP 16164338 A;;US 201514742346 A</t>
+          <t>US 201514742346 A;;EP 16164338 A</t>
         </is>
       </c>
     </row>
@@ -6760,7 +6760,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://lens.org/163-360-212-151-338;;https://lens.org/095-562-255-399-764</t>
+          <t>https://lens.org/095-562-255-399-764;;https://lens.org/163-360-212-151-338</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -6813,12 +6813,12 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>G21K1/00;;H01J49/06;;G06N99/00;;H01J49/46;;B82Y10/00;;H01L29/94</t>
+          <t>H01J49/06;;G21K1/00;;G06N99/00;;B82Y10/00;;H01J49/46;;H01L29/94</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>G21K1/00;;H01J49/06;;H01J49/463;;G06N20/00;;B82Y10/00;;H01L29/94;;G06N10/00</t>
+          <t>H01J49/06;;G21K1/00;;B82Y10/00;;H01L29/94;;H01J49/463;;G06N10/00;;G06N20/00</t>
         </is>
       </c>
       <c r="R59" t="inlineStr"/>
@@ -6845,7 +6845,7 @@
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>US 10186409 B2;;US 2018/0114683 A1</t>
+          <t>US 2018/0114683 A1;;US 10186409 B2</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
@@ -6872,7 +6872,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Architecture for coupling quantum bits using localized resonators;;ARCHITECTURE FOR COUPLING QUANTUM BITS USING LOCALIZED RESONATORS</t>
+          <t>ARCHITECTURE FOR COUPLING QUANTUM BITS USING LOCALIZED RESONATORS;;Architecture for coupling quantum bits using localized resonators</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -6887,7 +6887,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>DIAL OLIVER;;MCCLURE III DOUGLAS T;;GAMBETTA JAY M;;STEFFEN MATTHIAS</t>
+          <t>STEFFEN MATTHIAS;;GAMBETTA JAY M;;DIAL OLIVER;;MCCLURE III DOUGLAS T</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -6924,12 +6924,12 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>H01L39/24;;H01L39/02;;G06N99/00;;G06F17/00;;H01L39/14;;B82Y10/00</t>
+          <t>G06N99/00;;B82Y10/00;;H01L39/02;;H01L39/14;;H01L39/24;;G06F17/00</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>H01L39/24;;G06N20/00;;H01L39/14;;B82Y10/00;;G06N10/00;;H05K999/99</t>
+          <t>B82Y10/00;;H01L39/24;;H01L39/14;;H05K999/99;;G06N10/00;;G06N20/00</t>
         </is>
       </c>
       <c r="R60" t="inlineStr"/>
@@ -6956,7 +6956,7 @@
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>US 9985193 B2;;US 2017/0005255 A1</t>
+          <t>US 2017/0005255 A1;;US 9985193 B2</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
@@ -6978,12 +6978,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://lens.org/185-410-845-133-114;;https://lens.org/151-924-329-105-277;;https://lens.org/055-623-784-141-019</t>
+          <t>https://lens.org/151-924-329-105-277;;https://lens.org/055-623-784-141-019;;https://lens.org/185-410-845-133-114</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Architecture for coupling quantum bits using localized resonators;;ARCHITECTURE FOR COUPLING QUANTUM BITS USING LOCALIZED RESONATORS</t>
+          <t>ARCHITECTURE FOR COUPLING QUANTUM BITS USING LOCALIZED RESONATORS;;Architecture for coupling quantum bits using localized resonators</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -6998,7 +6998,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>GAMBETTA JAY;;MCCLURE III DOUGLAS TEMPLETON;;DIAL OLIVER;;MCCLURE III DOUGLAS T;;STEFFEN MATTHIAS;;GAMBETTA JAY M</t>
+          <t>DIAL OLIVER;;MCCLURE III DOUGLAS T;;STEFFEN MATTHIAS;;MCCLURE III DOUGLAS TEMPLETON;;GAMBETTA JAY M;;GAMBETTA JAY</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -7035,12 +7035,12 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>H01L39/24;;H01L39/02;;H01P7/00;;G06N99/00;;H01P1/205;;G06F17/00;;H01L39/14</t>
+          <t>G06N99/00;;H01L39/02;;H01P7/00;;H01L39/14;;H01L39/24;;G06F17/00;;H01P1/205</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>H01L39/025;;H01L39/24;;H01P7/00;;H01L39/2493;;G06N20/00;;H01P1/205;;H01L39/14;;B82Y10/00;;G06N10/00;;H05K999/99</t>
+          <t>B82Y10/00;;H01L39/24;;H01L39/14;;H05K999/99;;H01L39/025;;H01P7/00;;H01L39/2493;;G06N10/00;;G06N20/00;;H01P1/205</t>
         </is>
       </c>
       <c r="R61" t="inlineStr"/>
@@ -7067,7 +7067,7 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>WO 2017/001951 A1;;US 10283696 B2;;US 2017/0062692 A1</t>
+          <t>US 2017/0062692 A1;;WO 2017/001951 A1;;US 10283696 B2</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
@@ -7089,12 +7089,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://lens.org/082-686-752-226-904;;https://lens.org/008-906-245-482-821</t>
+          <t>https://lens.org/008-906-245-482-821;;https://lens.org/082-686-752-226-904</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Architecture for coupling quantum bits using localized resonators;;ARCHITECTURE FOR COUPLING QUANTUM BITS USING LOCALIZED RESONATORS</t>
+          <t>ARCHITECTURE FOR COUPLING QUANTUM BITS USING LOCALIZED RESONATORS;;Architecture for coupling quantum bits using localized resonators</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -7109,7 +7109,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>DIAL OLIVER;;MCCLURE III DOUGLAS T;;GAMBETTA JAY M;;STEFFEN MATTHIAS</t>
+          <t>STEFFEN MATTHIAS;;GAMBETTA JAY M;;DIAL OLIVER;;MCCLURE III DOUGLAS T</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -7132,7 +7132,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>A1;;B1</t>
+          <t>B1;;A1</t>
         </is>
       </c>
       <c r="M62" t="n">
@@ -7146,12 +7146,12 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>H01L39/24;;H01L39/02;;H01P7/00;;G06N20/00;;H01P1/205;;H01L39/14;;B82Y10/00;;G06N10/00</t>
+          <t>B82Y10/00;;H01L39/14;;H01L39/02;;H01P7/00;;G06N10/00;;H01L39/24;;H01P1/205;;G06N20/00</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>H01L39/025;;H01L39/24;;H01P7/00;;H01L39/2493;;G06N20/00;;H01P1/205;;H01L39/14;;B82Y10/00;;G06N10/00;;H05K999/99</t>
+          <t>B82Y10/00;;H01L39/24;;H01L39/14;;H05K999/99;;H01L39/025;;H01P7/00;;H01L39/2493;;G06N10/00;;G06N20/00;;H01P1/205</t>
         </is>
       </c>
       <c r="R62" t="inlineStr"/>
@@ -7178,7 +7178,7 @@
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>US 10546994 B1;;US 2020/0028065 A1</t>
+          <t>US 2020/0028065 A1;;US 10546994 B1</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
@@ -7205,7 +7205,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Architecture for coupling quantum bits using localized resonators;;ARCHITECTURE FOR COUPLING QUANTUM BITS USING LOCALIZED RESONATORS</t>
+          <t>ARCHITECTURE FOR COUPLING QUANTUM BITS USING LOCALIZED RESONATORS;;Architecture for coupling quantum bits using localized resonators</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -7220,7 +7220,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>DIAL OLIVER;;MCCLURE III DOUGLAS T;;GAMBETTA JAY M;;STEFFEN MATTHIAS</t>
+          <t>STEFFEN MATTHIAS;;GAMBETTA JAY M;;DIAL OLIVER;;MCCLURE III DOUGLAS T</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -7257,12 +7257,12 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>H01L39/24;;G06N99/00;;G06N20/00;;H01L39/14;;B82Y10/00;;G06N10/00</t>
+          <t>G06N99/00;;B82Y10/00;;H01L39/14;;G06N10/00;;H01L39/24;;G06N20/00</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>H01L39/24;;G06N20/00;;H01L39/14;;B82Y10/00;;G06N10/00;;H05K999/99</t>
+          <t>B82Y10/00;;H01L39/24;;H01L39/14;;H05K999/99;;G06N10/00;;G06N20/00</t>
         </is>
       </c>
       <c r="R63" t="inlineStr"/>
@@ -7316,7 +7316,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Architecture for coupling quantum bits using localized resonators;;ARCHITECTURE FOR COUPLING QUANTUM BITS USING LOCALIZED RESONATORS</t>
+          <t>ARCHITECTURE FOR COUPLING QUANTUM BITS USING LOCALIZED RESONATORS;;Architecture for coupling quantum bits using localized resonators</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -7331,7 +7331,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>DIAL OLIVER;;MCCLURE III DOUGLAS T;;GAMBETTA JAY M;;STEFFEN MATTHIAS</t>
+          <t>STEFFEN MATTHIAS;;GAMBETTA JAY M;;DIAL OLIVER;;MCCLURE III DOUGLAS T</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -7368,12 +7368,12 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>H01L39/24;;H01L39/14;;B82Y10/00;;G06N99/00</t>
+          <t>B82Y10/00;;H01L39/24;;G06N99/00;;H01L39/14</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>H01L39/24;;G06N20/00;;H01L39/14;;B82Y10/00;;G06N10/00;;H05K999/99</t>
+          <t>B82Y10/00;;H01L39/24;;H01L39/14;;H05K999/99;;G06N10/00;;G06N20/00</t>
         </is>
       </c>
       <c r="R64" t="inlineStr"/>
@@ -7442,7 +7442,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW</t>
+          <t>BATTAGLINI JOSEPH S;;CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -7479,12 +7479,12 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>A61B5/11;;A61B5/00</t>
+          <t>A61B5/00;;A61B5/11</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>A61B2562/028;;A61B2560/0475;;B81B7/007;;G06Q40/08;;G16H10/60;;A61B5/1118;;A61B5/681;;A61B5/7264;;G16H40/67;;A61B5/0024;;A61B5/0022;;A61B2562/0219;;B81B7/0087;;A61B5/1123;;A61B5/7246;;A61B5/7282</t>
+          <t>A61B2562/0219;;G06Q40/08;;A61B2560/0475;;A61B5/0024;;A61B5/0022;;A61B5/7246;;A61B2562/028;;A61B5/1123;;A61B5/681;;B81B7/007;;B81B7/0087;;A61B5/7264;;G16H10/60;;G16H40/67;;A61B5/7282;;A61B5/1118</t>
         </is>
       </c>
       <c r="R65" t="inlineStr"/>
@@ -7533,12 +7533,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://lens.org/189-635-522-775-510;;https://lens.org/178-274-931-648-096</t>
+          <t>https://lens.org/178-274-931-648-096;;https://lens.org/189-635-522-775-510</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>MICROELECTROMECHANICAL ACCELEROMETER BASED SENSOR SYSTEM;;Microelectromechanical accelerometer based sensor system</t>
+          <t>Microelectromechanical accelerometer based sensor system;;MICROELECTROMECHANICAL ACCELEROMETER BASED SENSOR SYSTEM</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -7548,12 +7548,12 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW</t>
+          <t>BATTAGLINI JOSEPH S;;CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW</t>
+          <t>BATTAGLINI JOSEPH S;;CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -7590,12 +7590,12 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>A61B5/11;;B81B7/00;;A61B5/00</t>
+          <t>A61B5/00;;A61B5/11;;B81B7/00</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>A61B2562/028;;A61B2560/0475;;B81B7/007;;G06Q40/08;;G16H10/60;;A61B5/1118;;A61B5/681;;A61B5/7264;;G16H40/67;;A61B5/0024;;A61B5/0022;;A61B2562/0219;;B81B7/0087;;A61B5/1123;;A61B5/7246;;A61B5/7282</t>
+          <t>A61B2562/0219;;G06Q40/08;;A61B2560/0475;;A61B5/0024;;A61B5/0022;;A61B5/7246;;A61B2562/028;;A61B5/1123;;A61B5/681;;B81B7/007;;B81B7/0087;;A61B5/7264;;G16H10/60;;G16H40/67;;A61B5/7282;;A61B5/1118</t>
         </is>
       </c>
       <c r="R66" t="inlineStr"/>
@@ -7664,7 +7664,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW</t>
+          <t>BATTAGLINI JOSEPH S;;CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
@@ -7697,12 +7697,12 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>A61B5/11;;B81B7/00;;A61B5/00</t>
+          <t>A61B5/00;;A61B5/11;;B81B7/00</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>A61B2562/028;;A61B2560/0475;;B81B7/007;;G06Q40/08;;G16H10/60;;A61B5/1118;;A61B5/681;;A61B5/7264;;G16H40/67;;A61B5/0024;;A61B5/0022;;A61B2562/0219;;B81B7/0087;;A61B5/1123;;A61B5/7246;;A61B5/7282</t>
+          <t>A61B2562/0219;;G06Q40/08;;A61B2560/0475;;A61B5/0024;;A61B5/0022;;A61B5/7246;;A61B2562/028;;A61B5/1123;;A61B5/681;;B81B7/007;;B81B7/0087;;A61B5/7264;;G16H10/60;;G16H40/67;;A61B5/7282;;A61B5/1118</t>
         </is>
       </c>
       <c r="R67" t="inlineStr"/>
@@ -7751,7 +7751,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://lens.org/189-518-628-052-967;;https://lens.org/091-928-229-377-519</t>
+          <t>https://lens.org/091-928-229-377-519;;https://lens.org/189-518-628-052-967</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -7771,7 +7771,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW</t>
+          <t>BATTAGLINI JOSEPH S;;CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -7804,12 +7804,12 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>G08C19/22;;B81B7/00;;A61B5/00;;A61B5/11;;G16H10/60</t>
+          <t>G08C19/22;;A61B5/11;;G16H10/60;;A61B5/00;;B81B7/00</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>A61B2562/028;;A61B2560/0475;;B81B7/007;;G06Q40/08;;A61B5/1118;;A61B5/681;;A61B5/7264;;G16H40/67;;A61B5/7282;;A61B5/0024;;A61B5/0022;;A61B2562/0219;;B81B7/0087;;A61B5/1123;;A61B5/7246;;G16H10/60</t>
+          <t>A61B2562/0219;;G06Q40/08;;A61B2560/0475;;A61B5/0024;;A61B5/0022;;A61B5/7246;;A61B2562/028;;A61B5/1123;;A61B5/681;;G16H10/60;;G16H40/67;;A61B5/7264;;B81B7/007;;B81B7/0087;;A61B5/7282;;A61B5/1118</t>
         </is>
       </c>
       <c r="R68" t="inlineStr"/>
@@ -7916,7 +7916,7 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>G06N3/126;;G06N99/00;;G06F9/45504;;B82Y10/00;;G06N7/005;;G06N10/00</t>
+          <t>G06N99/00;;G06F9/45504;;B82Y10/00;;G06N7/005;;G06N3/126;;G06N10/00</t>
         </is>
       </c>
       <c r="R69" t="inlineStr"/>
@@ -7960,17 +7960,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>053-474-667-599-726;;165-599-734-061-37X;;086-576-713-592-977;;094-655-367-009-253;;043-608-201-196-560;;061-619-330-497-243;;127-103-433-799-24X;;127-853-431-567-747</t>
+          <t>127-103-433-799-24X;;053-474-667-599-726;;094-655-367-009-253;;043-608-201-196-560;;086-576-713-592-977;;127-853-431-567-747;;165-599-734-061-37X;;061-619-330-497-243</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://lens.org/127-853-431-567-747;;https://lens.org/043-608-201-196-560;;https://lens.org/061-619-330-497-243;;https://lens.org/127-103-433-799-24X;;https://lens.org/053-474-667-599-726;;https://lens.org/165-599-734-061-37X;;https://lens.org/086-576-713-592-977;;https://lens.org/094-655-367-009-253</t>
+          <t>https://lens.org/127-103-433-799-24X;;https://lens.org/094-655-367-009-253;;https://lens.org/086-576-713-592-977;;https://lens.org/061-619-330-497-243;;https://lens.org/127-853-431-567-747;;https://lens.org/165-599-734-061-37X;;https://lens.org/053-474-667-599-726;;https://lens.org/043-608-201-196-560</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Quanton representation for emulating quantum-like computation on classical processors;;고전적 프로세서 상에서 양자-유사 계산을 에뮬레이트하기 위한 퀀톤 표현;;Quanton Representation For Emulating Quantum-Like Computation On Classical Processors;;QUANTON REPRESENTATION FOR EMULATING QUANTUM-LIKE COMPUTATION ON CLASSICAL PROCESSORS;;古典的なプロセッサで量子類似計算をエミュレートするためのＱＵＡＮＴＯＮ表現</t>
+          <t>QUANTON REPRESENTATION FOR EMULATING QUANTUM-LIKE COMPUTATION ON CLASSICAL PROCESSORS;;Quanton representation for emulating quantum-like computation on classical processors;;Quanton Representation For Emulating Quantum-Like Computation On Classical Processors;;고전적 프로세서 상에서 양자-유사 계산을 에뮬레이트하기 위한 퀀톤 표현;;古典的なプロセッサで量子類似計算をエミュレートするためのＱＵＡＮＴＯＮ表現</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -7980,12 +7980,12 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;KYNDI INC;;킨디 인코포레이티드</t>
+          <t>KYNDI INC;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;킨디 인코포레이티드</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>アルン、マジュムダール;;MAJUMDAR ARUN;;마줌다 아룬</t>
+          <t>MAJUMDAR ARUN;;마줌다 아룬;;アルン、マジュムダール</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
@@ -7994,17 +7994,17 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>EP;;CN;;KR;;CA;;AU;;JP</t>
+          <t>CN;;EP;;KR;;CA;;AU;;JP</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Granted Patent;;Patent Application;;Search Report</t>
+          <t>Search Report;;Patent Application;;Granted Patent</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>A4;;A1;;A;;B1</t>
+          <t>A;;B1;;A4;;A1</t>
         </is>
       </c>
       <c r="M70" t="n">
@@ -8018,12 +8018,12 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>G06F9/455;;G06F7/60;;G06N3/12;;G06N99/00;;B82Y10/00;;G06N7/00</t>
+          <t>G06N7/00;;G06F9/455;;G06N99/00;;B82Y10/00;;G06N3/12;;G06F7/60</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>G06N3/126;;G06N99/00;;G06F9/45504;;B82Y10/00;;G06N7/005;;G06N10/00</t>
+          <t>G06N99/00;;G06F9/45504;;B82Y10/00;;G06N3/126;;G06N7/005;;G06N10/00</t>
         </is>
       </c>
       <c r="R70" t="inlineStr"/>
@@ -8050,12 +8050,12 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>CN 107683460 A;;KR 102141274 B1;;AU 2016/258029 A1;;KR 20180004226 A;;CA 2983880 A1;;EP 3292466 A1;;JP 2018521382 A;;EP 3292466 A4</t>
+          <t>KR 102141274 B1;;CN 107683460 A;;CA 2983880 A1;;EP 3292466 A4;;EP 3292466 A1;;JP 2018521382 A;;KR 20180004226 A;;AU 2016/258029 A1</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>EP 16790101 A;;AU 2016/258029 A;;JP 2017557330 A;;CA 2983880 A;;CN 201680034976 A;;KR 20177035068 A</t>
+          <t>AU 2016/258029 A;;CN 201680034976 A;;CA 2983880 A;;JP 2017557330 A;;KR 20177035068 A;;EP 16790101 A</t>
         </is>
       </c>
     </row>
@@ -8072,7 +8072,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://lens.org/144-582-622-252-937;;https://lens.org/088-132-024-309-326</t>
+          <t>https://lens.org/088-132-024-309-326;;https://lens.org/144-582-622-252-937</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -8129,12 +8129,12 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>G06F9/455;;G06N3/12;;G06N99/00;;G06N10/00;;G06N7/00;;G06F17/18</t>
+          <t>G06N7/00;;G06F9/455;;G06N99/00;;G06N3/12;;G06N10/00;;G06F17/18</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>G06N3/126;;G06N99/00;;G06F9/45504;;B82Y10/00;;G06N7/005;;G06N10/00</t>
+          <t>G06N99/00;;G06F9/45504;;B82Y10/00;;G06N7/005;;G06N3/126;;G06N10/00</t>
         </is>
       </c>
       <c r="R71" t="inlineStr"/>
@@ -8161,7 +8161,7 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>US 2016/0328253 A1;;US 10452989 B2</t>
+          <t>US 10452989 B2;;US 2016/0328253 A1</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
@@ -8241,7 +8241,7 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>G06N3/126;;G06N99/00;;G06F9/45504;;B82Y10/00;;G06N7/005;;G06N10/00</t>
+          <t>G06N99/00;;G06F9/45504;;B82Y10/00;;G06N7/005;;G06N3/126;;G06N10/00</t>
         </is>
       </c>
       <c r="R72" t="inlineStr"/>
@@ -8310,7 +8310,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>ROLFE JASON;;ANDRIYASH EVGENY;;AMIN MOHAMMAD H S</t>
+          <t>AMIN MOHAMMAD H S;;ANDRIYASH EVGENY;;ROLFE JASON</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
@@ -8348,7 +8348,7 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>G06N3/0445;;G06N20/00;;G06N3/0472;;B82Y10/00;;G06N3/088;;G06N10/00</t>
+          <t>G06N3/088;;G06N3/0472;;B82Y10/00;;G06N3/0445;;G06N10/00;;G06N20/00</t>
         </is>
       </c>
       <c r="R73" t="inlineStr"/>
@@ -8392,12 +8392,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>080-625-574-321-236;;069-459-329-577-52X;;169-871-701-653-729</t>
+          <t>069-459-329-577-52X;;169-871-701-653-729;;080-625-574-321-236</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://lens.org/169-871-701-653-729;;https://lens.org/069-459-329-577-52X;;https://lens.org/080-625-574-321-236</t>
+          <t>https://lens.org/080-625-574-321-236;;https://lens.org/169-871-701-653-729;;https://lens.org/069-459-329-577-52X</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -8417,7 +8417,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>ROLFE JASON;;ANDRIYASH EVGENY;;AMIN MOHAMMAD H S</t>
+          <t>AMIN MOHAMMAD H S;;ANDRIYASH EVGENY;;ROLFE JASON</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
@@ -8431,12 +8431,12 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Patent Application;;Search Report</t>
+          <t>Search Report;;Patent Application</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>A4;;A1;;A</t>
+          <t>A;;A4;;A1</t>
         </is>
       </c>
       <c r="M74" t="n">
@@ -8450,12 +8450,12 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>G06N3/04;;B82Y10/00;;G06N99/00</t>
+          <t>B82Y10/00;;G06N3/04;;G06N99/00</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>G06N3/0445;;G06N20/00;;G06N3/0472;;B82Y10/00;;G06N3/088;;G06N10/00</t>
+          <t>G06N3/088;;G06N3/0472;;B82Y10/00;;G06N3/0445;;G06N10/00;;G06N20/00</t>
         </is>
       </c>
       <c r="R74" t="inlineStr"/>
@@ -8482,12 +8482,12 @@
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>EP 3362952 A4;;CN 108369668 A;;EP 3362952 A1</t>
+          <t>CN 108369668 A;;EP 3362952 A4;;EP 3362952 A1</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>EP 16856358 A;;CN 201680073180 A</t>
+          <t>CN 201680073180 A;;EP 16856358 A</t>
         </is>
       </c>
     </row>
@@ -8524,7 +8524,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>ROLFE JASON;;ANDRIYASH EVGENY;;AMIN MOHAMMAD H S</t>
+          <t>AMIN MOHAMMAD H S;;ANDRIYASH EVGENY;;ROLFE JASON</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -8566,7 +8566,7 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>G06N3/0445;;G06N20/00;;G06N3/0472;;B82Y10/00;;G06N3/088;;G06N10/00</t>
+          <t>G06N3/088;;G06N3/0472;;B82Y10/00;;G06N3/0445;;G06N10/00;;G06N20/00</t>
         </is>
       </c>
       <c r="R75" t="inlineStr"/>
@@ -8610,17 +8610,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>110-865-928-572-286;;191-543-293-857-398;;023-877-193-105-410;;074-976-860-213-786;;165-707-705-470-436;;198-318-690-704-612;;133-953-218-172-493</t>
+          <t>165-707-705-470-436;;133-953-218-172-493;;110-865-928-572-286;;198-318-690-704-612;;074-976-860-213-786;;191-543-293-857-398;;023-877-193-105-410</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://lens.org/191-543-293-857-398;;https://lens.org/074-976-860-213-786;;https://lens.org/198-318-690-704-612;;https://lens.org/023-877-193-105-410;;https://lens.org/165-707-705-470-436;;https://lens.org/110-865-928-572-286;;https://lens.org/133-953-218-172-493</t>
+          <t>https://lens.org/110-865-928-572-286;;https://lens.org/165-707-705-470-436;;https://lens.org/198-318-690-704-612;;https://lens.org/133-953-218-172-493;;https://lens.org/023-877-193-105-410;;https://lens.org/074-976-860-213-786;;https://lens.org/191-543-293-857-398</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Training quantum evolutions using sublogical controls;;TRAINING QUANTUM EVOLUTIONS USING SUBLOGICAL CONTROLS;;サブ論理制御を使用する量子進化のトレーニング</t>
+          <t>TRAINING QUANTUM EVOLUTIONS USING SUBLOGICAL CONTROLS;;Training quantum evolutions using sublogical controls;;サブ論理制御を使用する量子進化のトレーニング</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -8630,12 +8630,12 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>グーグル エルエルシー;;GOOGLE LLC</t>
+          <t>GOOGLE LLC;;グーグル エルエルシー</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>ライアン・バブシュ;;NEVEN HARTMUT;;BABBUSH RYAN;;ハルトムート・ネーヴェン</t>
+          <t>BABBUSH RYAN;;ハルトムート・ネーヴェン;;ライアン・バブシュ;;NEVEN HARTMUT</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
@@ -8644,7 +8644,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>EP;;CN;;CA;;AU;;JP</t>
+          <t>CN;;EP;;CA;;AU;;JP</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -8654,7 +8654,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>B2;;A1;;A</t>
+          <t>A;;B2;;A1</t>
         </is>
       </c>
       <c r="M76" t="n">
@@ -8668,12 +8668,12 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>G06N20/00;;G06N10/00;;B82Y10/00;;G06N99/00</t>
+          <t>B82Y10/00;;G06N20/00;;G06N10/00;;G06N99/00</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>G06N5/003;;G06N20/00;;B82Y10/00;;G16C10/00;;G06N10/00</t>
+          <t>B82Y10/00;;G16C10/00;;G06N10/00;;G06N20/00;;G06N5/003</t>
         </is>
       </c>
       <c r="R76" t="inlineStr"/>
@@ -8700,12 +8700,12 @@
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>AU 2016/408764 A1;;EP 3465555 A1;;CN 109478258 A;;CA 3026443 A1;;JP 6755337 B2;;AU 2016/408764 B2;;JP 2019520645 A</t>
+          <t>EP 3465555 A1;;CN 109478258 A;;JP 6755337 B2;;CA 3026443 A1;;AU 2016/408764 B2;;JP 2019520645 A;;AU 2016/408764 A1</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>CA 3026443 A;;CN 201680087746 A;;EP 16825955 A;;JP 2018562952 A;;AU 2016/408764 A</t>
+          <t>EP 16825955 A;;JP 2018562952 A;;CA 3026443 A;;AU 2016/408764 A;;CN 201680087746 A</t>
         </is>
       </c>
     </row>
@@ -8717,12 +8717,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>175-413-197-129-096;;151-132-986-237-59X;;144-144-283-847-927</t>
+          <t>144-144-283-847-927;;151-132-986-237-59X;;175-413-197-129-096</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://lens.org/144-144-283-847-927;;https://lens.org/175-413-197-129-096;;https://lens.org/151-132-986-237-59X</t>
+          <t>https://lens.org/151-132-986-237-59X;;https://lens.org/144-144-283-847-927;;https://lens.org/175-413-197-129-096</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -8742,7 +8742,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>NEVEN HARTMUT;;BABBUSH RYAN</t>
+          <t>BABBUSH RYAN;;NEVEN HARTMUT</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -8779,12 +8779,12 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>G06N20/00;;G06N10/00;;B82Y10/00;;G06N99/00</t>
+          <t>B82Y10/00;;G06N20/00;;G06N10/00;;G06N99/00</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>G06N5/003;;G06N20/00;;B82Y10/00;;G16C10/00;;G06N10/00</t>
+          <t>B82Y10/00;;G16C10/00;;G06N10/00;;G06N20/00;;G06N5/003</t>
         </is>
       </c>
       <c r="R77" t="inlineStr"/>
@@ -8811,7 +8811,7 @@
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>WO 2017/209791 A1;;US 10275717 B2;;US 2017/0351967 A1</t>
+          <t>US 2017/0351967 A1;;WO 2017/209791 A1;;US 10275717 B2</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
@@ -8828,12 +8828,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>085-813-275-061-331;;105-607-128-907-102</t>
+          <t>105-607-128-907-102;;085-813-275-061-331</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://lens.org/105-607-128-907-102;;https://lens.org/085-813-275-061-331</t>
+          <t>https://lens.org/085-813-275-061-331;;https://lens.org/105-607-128-907-102</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -8853,7 +8853,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>NEVEN HARTMUT;;BABBUSH RYAN</t>
+          <t>BABBUSH RYAN;;NEVEN HARTMUT</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -8890,12 +8890,12 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>G06N20/00;;G06N10/00;;B82Y10/00</t>
+          <t>G06N10/00;;G06N20/00;;B82Y10/00</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>G06N5/003;;G06N20/00;;B82Y10/00;;G16C10/00;;G06N10/00</t>
+          <t>B82Y10/00;;G16C10/00;;G06N10/00;;G06N20/00;;G06N5/003</t>
         </is>
       </c>
       <c r="R78" t="inlineStr"/>
@@ -8922,7 +8922,7 @@
       </c>
       <c r="X78" t="inlineStr">
         <is>
-          <t>US 2019/0213495 A1;;US 11055626 B2</t>
+          <t>US 11055626 B2;;US 2019/0213495 A1</t>
         </is>
       </c>
       <c r="Y78" t="inlineStr">
@@ -8939,17 +8939,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>090-372-502-956-689;;162-900-997-782-030;;010-852-607-896-927;;193-203-788-489-584</t>
+          <t>193-203-788-489-584;;162-900-997-782-030;;010-852-607-896-927;;090-372-502-956-689</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://lens.org/162-900-997-782-030;;https://lens.org/090-372-502-956-689;;https://lens.org/010-852-607-896-927;;https://lens.org/193-203-788-489-584</t>
+          <t>https://lens.org/010-852-607-896-927;;https://lens.org/162-900-997-782-030;;https://lens.org/193-203-788-489-584;;https://lens.org/090-372-502-956-689</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Method and Process of Implementing Machine Learning in Complex Multivariate Wafer Processing Equipment;;METHOD AND PROCESS OF IMPLEMENTING MACHINE LEARNING IN COMPLEX MULTIVARIATE WAFER PROCESSING EQUIPMENT;;Method and process of implementing machine learning in complex multivariate wafer processing equipment</t>
+          <t>METHOD AND PROCESS OF IMPLEMENTING MACHINE LEARNING IN COMPLEX MULTIVARIATE WAFER PROCESSING EQUIPMENT;;Method and process of implementing machine learning in complex multivariate wafer processing equipment;;Method and Process of Implementing Machine Learning in Complex Multivariate Wafer Processing Equipment</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -8964,7 +8964,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>GUHA JOYDEEP;;VAHEDI VAHID;;DAUGHERTY JOHN;;GOTTSCHO RICHARD ALAN</t>
+          <t>DAUGHERTY JOHN;;GUHA JOYDEEP;;VAHEDI VAHID;;GOTTSCHO RICHARD ALAN</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -8982,12 +8982,12 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Patent Application;;Granted Patent;;Patent of Addition</t>
+          <t>Patent of Addition;;Patent Application;;Granted Patent</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>B2;;A1;;A</t>
+          <t>A;;B2;;A1</t>
         </is>
       </c>
       <c r="M79" t="n">
@@ -9001,12 +9001,12 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>H05H1/46;;G01L21/30;;H01L21/67;;H01J37/32;;H01L21/3065;;C23C14/34;;H01L21/205</t>
+          <t>C23C14/34;;H05H1/46;;H01J37/32;;H01L21/205;;H01L21/3065;;H01L21/67;;G01L21/30</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>H01J2237/334;;H01L21/67248;;H01J37/3299;;H01J37/32935;;H01J37/32082;;B81C2201/0138;;H01J37/32926;;H01J37/32972;;H01L21/3065;;H01L21/67069;;H01L21/67242;;H01L21/67253</t>
+          <t>H01J37/32935;;H01J37/32926;;H01J2237/334;;H01J37/32972;;H01L21/67242;;H01L21/67069;;H01J37/3299;;B81C2201/0138;;H01L21/3065;;H01L21/67248;;H01J37/32082;;H01L21/67253</t>
         </is>
       </c>
       <c r="R79" t="inlineStr"/>
@@ -9038,7 +9038,7 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>TW 106131104 A;;US 2017/0048965 W;;US 201615268472 A</t>
+          <t>TW 106131104 A;;US 201615268472 A;;US 2017/0048965 W</t>
         </is>
       </c>
     </row>
@@ -9050,17 +9050,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>091-701-308-686-233;;124-585-563-874-282;;063-672-641-489-457;;038-281-359-281-818;;105-241-204-517-170</t>
+          <t>124-585-563-874-282;;063-672-641-489-457;;038-281-359-281-818;;105-241-204-517-170;;091-701-308-686-233</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://lens.org/038-281-359-281-818;;https://lens.org/105-241-204-517-170;;https://lens.org/091-701-308-686-233;;https://lens.org/063-672-641-489-457;;https://lens.org/124-585-563-874-282</t>
+          <t>https://lens.org/063-672-641-489-457;;https://lens.org/038-281-359-281-818;;https://lens.org/124-585-563-874-282;;https://lens.org/105-241-204-517-170;;https://lens.org/091-701-308-686-233</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>複雑な多変量ウエハ処理機器における機械学習を実行する方法及びプロセス;;METHOD AND PROCESS OF IMPLEMENTING MACHINE LEARNING IN COMPLEX MULTIVARIATE WAFER PROCESSING EQUIPMENT;;복잡한 다변수 웨이퍼 프로세싱 장비에서 머신 러닝을 구현하는 방법 및 프로세스</t>
+          <t>METHOD AND PROCESS OF IMPLEMENTING MACHINE LEARNING IN COMPLEX MULTIVARIATE WAFER PROCESSING EQUIPMENT;;複雑な多変量ウエハ処理機器における機械学習を実行する方法及びプロセス;;복잡한 다변수 웨이퍼 프로세싱 장비에서 머신 러닝을 구현하는 방법 및 프로세스</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -9070,12 +9070,12 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>LAM RES CORP;;ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ</t>
+          <t>ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ;;LAM RES CORP</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>バヘディ・バヘド;;GOTTSCHO RICHARD ALAN;;GUHA JOYDEEP;;グーハ・ジョイディープ;;ゴットショ・リチャード・アラン;;ダウガティ・ジョン;;VAHEDI VAHID;;DAUGHERTY JOHN</t>
+          <t>バヘディ・バヘド;;DAUGHERTY JOHN;;VAHEDI VAHID;;GUHA JOYDEEP;;グーハ・ジョイディープ;;GOTTSCHO RICHARD ALAN;;ゴットショ・リチャード・アラン;;ダウガティ・ジョン</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
@@ -9084,17 +9084,17 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>JP;;CN;;KR;;EP</t>
+          <t>CN;;EP;;JP;;KR</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Patent Application;;Search Report</t>
+          <t>Search Report;;Patent Application</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>A4;;A1;;A</t>
+          <t>A;;A4;;A1</t>
         </is>
       </c>
       <c r="M80" t="n">
@@ -9108,12 +9108,12 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>C23C16/52;;C23C14/34;;H05H1/46;;H01J37/32;;H01L21/67;;H01L21/3065;;H01L21/31;;H05H1/00;;H01L21/205</t>
+          <t>H05H1/00;;H05H1/46;;H01L21/31;;H01J37/32;;H01L21/205;;H01L21/3065;;H01L21/67;;C23C14/34;;C23C16/52</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>H01J2237/334;;H01L21/67248;;H01J37/3299;;H01J37/32935;;H01J37/32082;;B81C2201/0138;;H01J37/32926;;H01J37/32972;;H01L21/3065;;H01L21/67069;;H01L21/67242;;H01L21/67253</t>
+          <t>H01J37/32935;;H01J37/32926;;H01J2237/334;;H01J37/32972;;H01L21/67242;;H01L21/67069;;H01J37/3299;;B81C2201/0138;;H01L21/3065;;H01L21/67248;;H01J37/32082;;H01L21/67253</t>
         </is>
       </c>
       <c r="R80" t="inlineStr"/>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>CN 109715848 A;;JP 2019537240 A;;EP 3512977 A1;;EP 3512977 A4;;KR 20190049796 A</t>
+          <t>KR 20190049796 A;;JP 2019537240 A;;EP 3512977 A1;;EP 3512977 A4;;CN 109715848 A</t>
         </is>
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>KR 20197009604 A;;CN 201780056833 A;;JP 2019513313 A;;EP 17851300 A</t>
+          <t>EP 17851300 A;;JP 2019513313 A;;KR 20197009604 A;;CN 201780056833 A</t>
         </is>
       </c>
     </row>
@@ -9157,7 +9157,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>114-895-694-698-531;;105-441-254-491-980</t>
+          <t>105-441-254-491-980;;114-895-694-698-531</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -9167,7 +9167,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>System implementing machine learning in complex multivariate wafer processing equipment;;System Implementing Machine Learning in Complex Multivariate Wafer Processing Equipment</t>
+          <t>System Implementing Machine Learning in Complex Multivariate Wafer Processing Equipment;;System implementing machine learning in complex multivariate wafer processing equipment</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -9182,7 +9182,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>GUHA JOYDEEP;;VAHEDI VAHID;;DAUGHERTY JOHN;;GOTTSCHO RICHARD ALAN</t>
+          <t>DAUGHERTY JOHN;;GUHA JOYDEEP;;VAHEDI VAHID;;GOTTSCHO RICHARD ALAN</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
@@ -9215,12 +9215,12 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>H01L21/67;;H01J37/32;;H01L21/3065</t>
+          <t>H01L21/3065;;H01J37/32;;H01L21/67</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>H01J2237/334;;H01L21/67248;;H01J37/3299;;H01J37/32935;;H01J37/32082;;B81C2201/0138;;H01J37/32926;;H01J37/32972;;H01L21/3065;;H01L21/67069;;H01L21/67242;;H01L21/67253</t>
+          <t>H01J37/32935;;H01J37/32926;;H01J2237/334;;H01J37/32972;;H01L21/67242;;H01L21/67069;;H01J37/3299;;B81C2201/0138;;H01L21/3065;;H01L21/67248;;H01J37/32082;;H01L21/67253</t>
         </is>
       </c>
       <c r="R81" t="inlineStr"/>
@@ -9247,7 +9247,7 @@
       </c>
       <c r="X81" t="inlineStr">
         <is>
-          <t>US 10615009 B2;;US 2018/0247798 A1</t>
+          <t>US 2018/0247798 A1;;US 10615009 B2</t>
         </is>
       </c>
       <c r="Y81" t="inlineStr">
@@ -9264,17 +9264,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>023-991-694-862-996;;132-268-047-578-71X;;041-847-960-047-967</t>
+          <t>023-991-694-862-996;;041-847-960-047-967;;132-268-047-578-71X</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://lens.org/023-991-694-862-996;;https://lens.org/041-847-960-047-967;;https://lens.org/132-268-047-578-71X</t>
+          <t>https://lens.org/041-847-960-047-967;;https://lens.org/023-991-694-862-996;;https://lens.org/132-268-047-578-71X</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>GENERATING QUANTUM LOGIC CONTROL SEQUENCES FOR QUANTUM INFORMATION PROCESSING HARDWARE;;Generating quantum logic control sequences for quantum information processing hardware;;Generating Quantum Logic Control Sequences for Quantum Information Processing Hardware</t>
+          <t>Generating quantum logic control sequences for quantum information processing hardware;;GENERATING QUANTUM LOGIC CONTROL SEQUENCES FOR QUANTUM INFORMATION PROCESSING HARDWARE;;Generating Quantum Logic Control Sequences for Quantum Information Processing Hardware</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -9289,7 +9289,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>CURTIS MICHAEL J;;ZENG WILLIAM J;;SETE EYOB A;;CURTIS MICHAEL;;SETE EYOB;;ZENG WILLIAM</t>
+          <t>ZENG WILLIAM J;;CURTIS MICHAEL;;SETE EYOB A;;CURTIS MICHAEL J;;SETE EYOB;;ZENG WILLIAM</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -9326,12 +9326,12 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>G06F17/30;;G06N99/00;;G06F16/901;;B82Y10/00;;G06N10/00;;G06N5/02</t>
+          <t>G06N99/00;;G06F17/30;;B82Y10/00;;G06N10/00;;G06F16/901;;G06N5/02</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>G06N10/00;;G06F16/9024;;G06N5/022;;B82Y10/00</t>
+          <t>B82Y10/00;;G06N10/00;;G06F16/9024;;G06N5/022</t>
         </is>
       </c>
       <c r="R82" t="inlineStr"/>
@@ -9358,7 +9358,7 @@
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>US 2018/0232652 A1;;US 10255555 B2;;WO 2018/089792 A1</t>
+          <t>US 10255555 B2;;US 2018/0232652 A1;;WO 2018/089792 A1</t>
         </is>
       </c>
       <c r="Y82" t="inlineStr">
@@ -9375,12 +9375,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>031-156-790-577-782;;137-779-011-538-122</t>
+          <t>137-779-011-538-122;;031-156-790-577-782</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://lens.org/137-779-011-538-122;;https://lens.org/031-156-790-577-782</t>
+          <t>https://lens.org/031-156-790-577-782;;https://lens.org/137-779-011-538-122</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>CURTIS MICHAEL J;;SETE EYOB A;;ZENG WILLIAM J</t>
+          <t>CURTIS MICHAEL J;;ZENG WILLIAM J;;SETE EYOB A</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -9437,12 +9437,12 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>G06F16/901;;G06N10/00;;B82Y10/00;;G06N5/02</t>
+          <t>G06N10/00;;G06F16/901;;G06N5/02;;B82Y10/00</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>G06N10/00;;G06F16/9024;;G06N5/022;;B82Y10/00</t>
+          <t>B82Y10/00;;G06N10/00;;G06F16/9024;;G06N5/022</t>
         </is>
       </c>
       <c r="R83" t="inlineStr"/>
@@ -9469,7 +9469,7 @@
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>US 2019/0370679 A1;;US 10733522 B2</t>
+          <t>US 10733522 B2;;US 2019/0370679 A1</t>
         </is>
       </c>
       <c r="Y83" t="inlineStr">
@@ -9491,7 +9491,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://lens.org/029-162-352-336-080;;https://lens.org/039-906-098-361-02X</t>
+          <t>https://lens.org/039-906-098-361-02X;;https://lens.org/029-162-352-336-080</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -9506,7 +9506,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>IRIDIA INC;;DODO OMNIDATA INC</t>
+          <t>DODO OMNIDATA INC;;IRIDIA INC</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -9548,12 +9548,12 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>C12Q1/68;;C12Q1/6869;;G06N3/12;;G11C13/02;;B82Y10/00;;G16B30/00</t>
+          <t>G11C13/02;;B82Y10/00;;G06N3/12;;G16B30/00;;C12Q1/68;;C12Q1/6869</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>G06N3/123;;C12Q1/68;;C12Q1/6869;;C12Q2521/131;;C12Q2565/631;;G01N33/48721;;G11C13/02;;C12P19/34;;B82Y10/00;;C12Q2563/116;;G16B30/00</t>
+          <t>C12Q2565/631;;G11C13/02;;C12Q2563/116;;C12Q2521/131;;B82Y10/00;;G06N3/123;;C12P19/34;;G01N33/48721;;G16B30/00;;C12Q1/68;;C12Q1/6869</t>
         </is>
       </c>
       <c r="R84" t="inlineStr"/>
@@ -9580,7 +9580,7 @@
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>US 2019/0080760 A1;;US 10438662 B2</t>
+          <t>US 10438662 B2;;US 2019/0080760 A1</t>
         </is>
       </c>
       <c r="Y84" t="inlineStr">
@@ -9597,7 +9597,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>033-319-578-578-485;;016-230-475-526-618</t>
+          <t>016-230-475-526-618;;033-319-578-578-485</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -9659,12 +9659,12 @@
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>C12Q1/68;;C12Q1/6869;;G06N3/12;;G11C13/02;;B82Y10/00;;G16B30/00</t>
+          <t>G11C13/02;;B82Y10/00;;G06N3/12;;G16B30/00;;C12Q1/68;;C12Q1/6869</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>G06N3/123;;C12Q1/68;;C12Q1/6869;;C12Q2521/131;;C12Q2565/631;;G01N33/48721;;G11C13/02;;C12P19/34;;B82Y10/00;;C12Q2563/116;;G16B30/00</t>
+          <t>C12Q2565/631;;G11C13/02;;C12Q2563/116;;C12Q2521/131;;B82Y10/00;;G06N3/123;;C12P19/34;;G01N33/48721;;G16B30/00;;C12Q1/68;;C12Q1/6869</t>
         </is>
       </c>
       <c r="R85" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>US 10714178 B2;;US 2019/0341108 A1</t>
+          <t>US 2019/0341108 A1;;US 10714178 B2</t>
         </is>
       </c>
       <c r="Y85" t="inlineStr">
@@ -9766,12 +9766,12 @@
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>G06N3/063;;A61N1/36;;G16H20/30;;A61N1/372;;A61N5/06;;A61N1/378;;A61N1/05</t>
+          <t>A61N1/36;;A61N1/05;;A61N1/378;;G06N3/063;;A61N5/06;;G16H20/30;;A61N1/372</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>G06N3/063;;A61B5/6868;;A61N1/0534;;A61B5/0031;;A61N1/36096;;A61N1/36082;;A61N5/0618;;A61N1/36067;;B82Y5/00;;A61N2005/063;;A61N5/0622;;A61B5/0022;;B82Y10/00;;A61N2005/0652;;A61B5/369;;A61B5/24;;A61N1/0531;;A61N2005/0663;;A61N5/0601;;A61N1/36139;;G06N3/049;;A61N2005/0611;;A61N2005/0626;;G16H20/40;;G16H20/30;;A61N2005/0612;;A61B5/0006;;A61N1/3787;;A61N1/37223;;A61N2005/067;;A61N1/36064;;A61N1/37264</t>
+          <t>A61N5/0622;;A61N1/37223;;A61N2005/063;;A61N2005/0611;;A61N2005/0663;;A61B5/6868;;A61B5/24;;A61B5/369;;A61N1/37264;;A61N1/36082;;A61B5/0022;;A61N2005/0612;;A61N5/0618;;A61N2005/0652;;A61N1/36067;;G16H20/30;;G16H20/40;;A61N1/3787;;G06N3/049;;A61N1/0531;;B82Y5/00;;A61N2005/0626;;A61N1/36139;;B82Y10/00;;A61N1/0534;;A61N1/36064;;G06N3/063;;A61N1/36096;;A61B5/0006;;A61B5/0031;;A61N5/0601;;A61N2005/067</t>
         </is>
       </c>
       <c r="R86" t="inlineStr"/>
@@ -9873,12 +9873,12 @@
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>A61N1/36;;A61N5/06;;G16H20/30;;A61N1/372</t>
+          <t>A61N1/36;;G16H20/30;;A61N5/06;;A61N1/372</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>A61B5/37;;A61B5/076;;A61B5/6868;;G06F3/015;;A61B5/4076;;A61B5/0031;;A61N1/36082;;A61N5/0618;;G16H40/63;;A61N1/36067;;B82Y5/00;;A61N2005/063;;A61N5/0622;;B82Y10/00;;A61N1/36071;;A61B5/1473;;A61N2005/0652;;A61N1/0531;;G16H10/60;;A61B5/375;;A61N2005/0663;;A61N5/0601;;G16H40/67;;A61B5/0024;;A61N1/36139;;A61N1/37252;;A61B5/6815;;A61N2005/0626;;A61N2005/0611;;A61B5/0084;;G06N3/049;;G16H20/40;;G16H20/30;;G16H30/40;;A61N2005/0612;;G16H50/20;;B82Y30/00;;A61N2005/067</t>
+          <t>A61N5/0622;;A61B5/076;;G16H40/63;;A61B5/0024;;A61N2005/063;;A61N1/37252;;A61N2005/0611;;A61N2005/0663;;A61B5/6868;;A61B5/375;;A61N1/36082;;A61N2005/0612;;G06F3/015;;A61N5/0618;;A61N2005/0652;;A61N1/36067;;A61B5/0084;;B82Y30/00;;G16H20/30;;A61B5/37;;G16H20/40;;A61B5/4076;;A61N1/36071;;G06N3/049;;A61N1/0531;;B82Y5/00;;A61N2005/0626;;A61B5/6815;;A61B5/1473;;G16H30/40;;A61N1/36139;;B82Y10/00;;G16H10/60;;G16H40/67;;A61B5/0031;;G16H50/20;;A61N5/0601;;A61N2005/067</t>
         </is>
       </c>
       <c r="R87" t="inlineStr"/>
@@ -9985,7 +9985,7 @@
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>A61B5/7267;;A61B5/4082;;A61B5/168;;A61B5/6868;;A61B5/686;;B82Y30/00;;A61B5/4088;;A61B5/14546;;A61B5/167;;B82Y15/00;;A61B5/72;;A61B5/14503;;A61B2562/0285</t>
+          <t>A61B5/686;;A61B5/7267;;B82Y15/00;;A61B5/72;;A61B5/168;;A61B5/167;;A61B5/4088;;A61B5/14503;;A61B5/14546;;A61B2562/0285;;A61B5/4082;;A61B5/6868;;B82Y30/00</t>
         </is>
       </c>
       <c r="R88" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>KING ANDREW DOUGLAS;;YARKONI SHEIR;;LANTING TREVOR MICHAEL;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY A;;BOOTHBY THOMAS J</t>
+          <t>YARKONI SHEIR;;LANTING TREVOR MICHAEL;;BOOTHBY THOMAS J;;ANDRIYASH EVGENY A;;AMIN MOHAMMAD H;;KING ANDREW DOUGLAS</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
@@ -10092,7 +10092,7 @@
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>G06N3/0445;;G06N3/0472;;B82Y10/00;;G06N10/00;;G06N7/08</t>
+          <t>G06N3/0472;;B82Y10/00;;G06N7/08;;G06N3/0445;;G06N10/00</t>
         </is>
       </c>
       <c r="R89" t="inlineStr"/>
@@ -10161,7 +10161,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>KING ANDREW DOUGLAS;;YARKONI SHEIR;;LANTING TREVOR MICHAEL;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY A;;BOOTHBY THOMAS J</t>
+          <t>YARKONI SHEIR;;LANTING TREVOR MICHAEL;;BOOTHBY THOMAS J;;ANDRIYASH EVGENY A;;AMIN MOHAMMAD H;;KING ANDREW DOUGLAS</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
@@ -10199,7 +10199,7 @@
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>G06N3/0445;;G06N3/0472;;B82Y10/00;;G06N10/00;;G06N7/08</t>
+          <t>G06N3/0472;;B82Y10/00;;G06N7/08;;G06N3/0445;;G06N10/00</t>
         </is>
       </c>
       <c r="R90" t="inlineStr"/>
@@ -10253,7 +10253,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Systems and methods for quantum computation;;SYSTEMS AND METHODS FOR QUANTUM COMPUTATION</t>
+          <t>SYSTEMS AND METHODS FOR QUANTUM COMPUTATION;;Systems and methods for quantum computation</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -10268,7 +10268,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>BOOTHBY KELLY T R;;KING ANDREW DOUGLAS;;YARKONI SHEIR;;LANTING TREVOR MICHAEL;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY A</t>
+          <t>YARKONI SHEIR;;BOOTHBY KELLY T R;;LANTING TREVOR MICHAEL;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY A;;KING ANDREW DOUGLAS</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -10305,12 +10305,12 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>G06N10/00;;B82Y10/00;;G06N3/04;;G06N7/08</t>
+          <t>G06N10/00;;G06N3/04;;B82Y10/00;;G06N7/08</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>G06N3/0445;;G06N3/0472;;B82Y10/00;;G06N10/00;;G06N7/08</t>
+          <t>G06N3/0472;;B82Y10/00;;G06N7/08;;G06N3/0445;;G06N10/00</t>
         </is>
       </c>
       <c r="R91" t="inlineStr"/>
@@ -10379,7 +10379,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>BOOTHBY KELLY T R;;KING ANDREW DOUGLAS;;YARKONI SHEIR;;LANTING TREVOR MICHAEL;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY A</t>
+          <t>YARKONI SHEIR;;BOOTHBY KELLY T R;;LANTING TREVOR MICHAEL;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY A;;KING ANDREW DOUGLAS</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
@@ -10412,12 +10412,12 @@
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>G06N10/00;;B82Y10/00;;G06N3/04;;G06N7/08</t>
+          <t>G06N10/00;;G06N3/04;;B82Y10/00;;G06N7/08</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>G06N3/0445;;G06N3/0472;;B82Y10/00;;G06N10/00;;G06N7/08</t>
+          <t>G06N3/0472;;B82Y10/00;;G06N7/08;;G06N3/0445;;G06N10/00</t>
         </is>
       </c>
       <c r="R92" t="inlineStr"/>
@@ -10486,7 +10486,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>MILENKOVIC OLGICA;;GABRYS RYAN;;YAZDI S M HOSSEIN TABATABAEI</t>
+          <t>MILENKOVIC OLGICA;;YAZDI S M HOSSEIN TABATABAEI;;GABRYS RYAN</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -10523,12 +10523,12 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>C12Q1/68;;G06N3/12;;G11C13/02;;B82Y10/00;;C12Q1/6806</t>
+          <t>G11C13/02;;B82Y10/00;;C12Q1/6806;;G06N3/12;;C12Q1/68</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>G06N3/123;;C12Q1/68;;C12Q1/6869;;G16B50/50;;G11C13/004;;C12Q1/6806;;G11C13/0019;;G11C13/025;;B82Y5/00;;G06N3/12;;B82Y10/00;;G16B30/10;;G16B50/00</t>
+          <t>G16B50/00;;G16B50/50;;B82Y10/00;;G11C13/0019;;G06N3/123;;C12Q1/6806;;G11C13/025;;G06N3/12;;G11C13/004;;G16B30/10;;C12Q1/68;;B82Y5/00;;C12Q1/6869</t>
         </is>
       </c>
       <c r="R93" t="inlineStr"/>
@@ -10572,17 +10572,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>047-505-978-833-155;;048-938-486-237-816;;000-855-771-025-710;;135-940-995-038-782;;187-797-836-525-53X;;150-446-297-196-345</t>
+          <t>135-940-995-038-782;;150-446-297-196-345;;047-505-978-833-155;;000-855-771-025-710;;187-797-836-525-53X;;048-938-486-237-816</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://lens.org/048-938-486-237-816;;https://lens.org/047-505-978-833-155;;https://lens.org/150-446-297-196-345;;https://lens.org/000-855-771-025-710;;https://lens.org/135-940-995-038-782;;https://lens.org/187-797-836-525-53X</t>
+          <t>https://lens.org/000-855-771-025-710;;https://lens.org/150-446-297-196-345;;https://lens.org/187-797-836-525-53X;;https://lens.org/135-940-995-038-782;;https://lens.org/048-938-486-237-816;;https://lens.org/047-505-978-833-155</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>정보 저장을 위한 방법, 조성물, 및 장치;;情報の記憶のための方法、組成物、およびデバイス;;METHODS, COMPOSITIONS, AND DEVICES FOR INFORMATION STORAGE</t>
+          <t>정보 저장을 위한 방법, 조성물, 및 장치;;METHODS, COMPOSITIONS, AND DEVICES FOR INFORMATION STORAGE;;情報の記憶のための方法、組成物、およびデバイス</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -10597,7 +10597,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>CASSIDY MAJA;;PREDKI PAUL F;;マジャ・キャシディ;;ポール・エフ・プレドキ</t>
+          <t>CASSIDY MAJA;;マジャ・キャシディ;;ポール・エフ・プレドキ;;PREDKI PAUL F</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
@@ -10606,17 +10606,17 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>EP;;CN;;KR;;CA;;JP</t>
+          <t>CA;;CN;;EP;;KR;;JP</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Patent Application;;Search Report</t>
+          <t>Search Report;;Patent Application</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>A4;;A1;;A</t>
+          <t>A;;A4;;A1</t>
         </is>
       </c>
       <c r="M94" t="n">
@@ -10630,12 +10630,12 @@
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>G01N33/48;;G11C13/00;;C12Q1/68;;C12Q1/6869;;G16B30/00;;B82Y40/00;;G01N33/50;;G01N27/00;;B82Y5/00;;C07H21/04;;G06N3/12;;C12P19/34;;G01N27/22;;G01N33/487</t>
+          <t>C07H21/04;;G11C13/00;;G01N27/22;;G01N33/48;;C12P19/34;;G06N3/12;;G01N33/50;;G16B30/00;;G01N27/00;;B82Y40/00;;G01N33/487;;C12Q1/68;;B82Y5/00;;C12Q1/6869</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>G06N3/123;;C12Q1/68;;C12Q1/6869;;C12Q2521/131;;C12Q2565/631;;G01N33/48721;;G11C13/02;;C12P19/34;;B82Y10/00;;C12Q2563/116;;G16B30/00</t>
+          <t>C12Q2565/631;;G11C13/02;;C12Q2563/116;;C12Q2521/131;;B82Y10/00;;G06N3/123;;C12P19/34;;G01N33/48721;;G16B30/00;;C12Q1/68;;C12Q1/6869</t>
         </is>
       </c>
       <c r="R94" t="inlineStr"/>
@@ -10662,12 +10662,12 @@
       </c>
       <c r="X94" t="inlineStr">
         <is>
-          <t>EP 3532639 A4;;EP 3532639 A1;;CA 3079046 A1;;CN 110325653 A;;KR 20190111897 A;;JP 2020502494 A</t>
+          <t>CA 3079046 A1;;KR 20190111897 A;;CN 110325653 A;;EP 3532639 A1;;JP 2020502494 A;;EP 3532639 A4</t>
         </is>
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>EP 17865168 A;;KR 20197015597 A;;CA 3079046 A;;CN 201780080140 A;;JP 2019523791 A</t>
+          <t>CA 3079046 A;;JP 2019523791 A;;KR 20197015597 A;;EP 17865168 A;;CN 201780080140 A</t>
         </is>
       </c>
     </row>
@@ -10737,12 +10737,12 @@
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>C12Q1/68;;G06F19/00;;G01N33/50;;G01N27/22;;G01N33/48</t>
+          <t>G01N27/22;;G01N33/48;;G01N33/50;;G06F19/00;;C12Q1/68</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>G06N3/123;;C12Q1/68;;C12Q1/6869;;C12Q2521/131;;C12Q2565/631;;G01N33/48721;;G11C13/02;;C12P19/34;;B82Y10/00;;C12Q2563/116;;G16B30/00</t>
+          <t>C12Q2565/631;;G11C13/02;;C12Q2563/116;;C12Q2521/131;;B82Y10/00;;G06N3/123;;C12P19/34;;G01N33/48721;;G16B30/00;;C12Q1/68;;C12Q1/6869</t>
         </is>
       </c>
       <c r="R95" t="inlineStr"/>
@@ -10811,7 +10811,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>FAROKHZAD OMID;;CORBO CLAUDIA;;MAHMOUDI MORTEZA</t>
+          <t>CORBO CLAUDIA;;MAHMOUDI MORTEZA;;FAROKHZAD OMID</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -10848,12 +10848,12 @@
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>C01G49/02;;G06K9/00;;G06K9/62;;G01N33/68;;G06N20/20</t>
+          <t>G06K9/62;;G06K9/00;;G06N20/20;;G01N33/68;;C01G49/02</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>G01N33/57488;;G01N33/54346;;G01N33/587;;G01N33/6848;;G16B20/00;;G01N2570/00;;B82Y5/00;;B82Y35/00;;G01N33/586;;G16B40/20;;G06N20/20;;G16B40/30;;G06K9/6267;;C01P2004/64;;G01N33/5432;;G01N2800/2821;;G01N33/6803;;G06K9/00563;;B82Y30/00;;G06K9/00536;;G01N33/6845;;G01N33/553;;C01G49/02</t>
+          <t>G01N33/6848;;G01N33/54346;;G16B40/20;;C01P2004/64;;G16B40/30;;G16B20/00;;G06K9/00563;;G01N33/587;;G01N2570/00;;G06K9/00536;;G01N33/57488;;B82Y30/00;;G06N20/20;;G01N33/6803;;B82Y5/00;;G01N33/5432;;G01N33/586;;B82Y35/00;;G01N33/6845;;G01N2800/2821;;G01N33/553;;G06K9/6267;;C01G49/02</t>
         </is>
       </c>
       <c r="R96" t="inlineStr"/>
@@ -10955,12 +10955,12 @@
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>G06N3/063;;G06N99/00;;G06N3/08</t>
+          <t>G06N3/08;;G06N3/063;;G06N99/00</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>B82Y25/00;;H01L43/10;;B82Y10/00;;G06N3/0635;;H01L43/08;;H01L29/66984</t>
+          <t>H01L43/08;;B82Y10/00;;H01L43/10;;B82Y25/00;;G06N3/0635;;H01L29/66984</t>
         </is>
       </c>
       <c r="R97" t="inlineStr"/>
@@ -11004,17 +11004,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>008-994-057-244-271;;050-105-019-902-296</t>
+          <t>050-105-019-902-296;;008-994-057-244-271</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://lens.org/008-994-057-244-271;;https://lens.org/050-105-019-902-296</t>
+          <t>https://lens.org/050-105-019-902-296;;https://lens.org/008-994-057-244-271</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Bi-directional neuron-electronic device interface structures;;BIO-DIRECTIONAL NEURON-ELECTRONIC DEVICE INTERFACE STRUCTURES</t>
+          <t>BIO-DIRECTIONAL NEURON-ELECTRONIC DEVICE INTERFACE STRUCTURES;;Bi-directional neuron-electronic device interface structures</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -11029,7 +11029,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>YAROSLAVSKY IGOR YEHUDA;;YAROSLAVSKY IGOR;;SIGNAEVSKY MAXIM;;SIGNAEVSKI MAXIM M</t>
+          <t>YAROSLAVSKY IGOR;;YAROSLAVSKY IGOR YEHUDA;;SIGNAEVSKI MAXIM M;;SIGNAEVSKY MAXIM</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
@@ -11043,12 +11043,12 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Patent Application;;Patent of Addition</t>
+          <t>Patent of Addition;;Patent Application</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>A1;;A</t>
+          <t>A;;A1</t>
         </is>
       </c>
       <c r="M98" t="n">
@@ -11067,7 +11067,7 @@
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>A61N1/0529;;B82Y30/00;;A61B5/7264;;A61B2562/125;;G06N3/0675;;A61B5/24;;G06N3/061</t>
+          <t>G06N3/061;;A61B2562/125;;G06N3/0675;;A61B5/24;;A61N1/0529;;A61B5/7264;;B82Y30/00</t>
         </is>
       </c>
       <c r="R98" t="inlineStr"/>
@@ -11094,12 +11094,12 @@
       </c>
       <c r="X98" t="inlineStr">
         <is>
-          <t>WO 2018/144454 A1;;TW 201836178 A</t>
+          <t>TW 201836178 A;;WO 2018/144454 A1</t>
         </is>
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>TW 107103471 A;;US 2018/0015953 W</t>
+          <t>US 2018/0015953 W;;TW 107103471 A</t>
         </is>
       </c>
     </row>
@@ -11116,7 +11116,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://lens.org/055-322-631-913-242;;https://lens.org/099-584-260-676-79X</t>
+          <t>https://lens.org/099-584-260-676-79X;;https://lens.org/055-322-631-913-242</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -11146,7 +11146,7 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Patent Application;;Search Report</t>
+          <t>Search Report;;Patent Application</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -11165,12 +11165,12 @@
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>G06N3/06;;A61B5/0492;;A61B5/04;;B82Y30/00;;B82Y5/00;;A61N1/05</t>
+          <t>A61B5/0492;;A61N1/05;;A61B5/04;;G06N3/06;;B82Y30/00;;B82Y5/00</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>A61N1/0529;;B82Y30/00;;A61B5/7264;;A61B2562/125;;G06N3/0675;;A61B5/24;;G06N3/061</t>
+          <t>G06N3/061;;A61B2562/125;;G06N3/0675;;A61B5/24;;A61N1/0529;;A61B5/7264;;B82Y30/00</t>
         </is>
       </c>
       <c r="R99" t="inlineStr"/>
@@ -11276,12 +11276,12 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>G06N3/067;;G06N3/06;;A61B5/04;;B82Y30/00;;A61B5/00;;A61N1/05</t>
+          <t>G06N3/067;;A61N1/05;;A61B5/04;;G06N3/06;;A61B5/00;;B82Y30/00</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>A61N1/0529;;B82Y30/00;;A61B5/7264;;A61B2562/125;;G06N3/0675;;A61B5/24;;G06N3/061</t>
+          <t>G06N3/061;;A61B2562/125;;G06N3/0675;;A61B5/24;;A61N1/0529;;A61B5/7264;;B82Y30/00</t>
         </is>
       </c>
       <c r="R100" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
       </c>
       <c r="X100" t="inlineStr">
         <is>
-          <t>US 2018/0214042 A1;;US 10602939 B2</t>
+          <t>US 10602939 B2;;US 2018/0214042 A1</t>
         </is>
       </c>
       <c r="Y100" t="inlineStr">
@@ -11387,12 +11387,12 @@
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>G06N3/067;;A61N1/05;;A61B5/00;;A61B5/04</t>
+          <t>A61B5/00;;A61B5/04;;G06N3/067;;A61N1/05</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>A61N1/0529;;B82Y30/00;;A61B5/7264;;A61B2562/125;;G06N3/0675;;A61B5/24;;G06N3/061</t>
+          <t>G06N3/061;;A61B2562/125;;G06N3/0675;;A61B5/24;;A61N1/0529;;A61B5/7264;;B82Y30/00</t>
         </is>
       </c>
       <c r="R101" t="inlineStr"/>
@@ -11461,7 +11461,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>SUCHOWSKI HAIM;;WOLF LIOR;;ARIELI URI;;MREJEN MICHAEL;;NAGLER ACHIYA;;MALKIEL ITZIK</t>
+          <t>ARIELI URI;;MALKIEL ITZIK;;WOLF LIOR;;SUCHOWSKI HAIM;;MREJEN MICHAEL;;NAGLER ACHIYA</t>
         </is>
       </c>
       <c r="H102" t="inlineStr"/>
@@ -11494,12 +11494,12 @@
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>G01B11/02;;B82Y35/00</t>
+          <t>B82Y35/00;;G01B11/02</t>
         </is>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>B82Y40/00;;G01N21/25;;G06N3/126;;G01N21/21;;G01N2021/258;;G06N3/0481;;G06N3/04;;G01B2210/56;;G06N3/08</t>
+          <t>G01N21/25;;G01B2210/56;;G06N3/126;;G01N2021/258;;B82Y40/00;;G06N3/0481;;G06N3/08;;G01N21/21;;G06N3/04</t>
         </is>
       </c>
       <c r="R102" t="inlineStr"/>
@@ -11606,7 +11606,7 @@
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>G06N3/063;;H04L2209/34;;H04L9/0852;;G06N20/00;;B82Y10/00;;G06N10/00;;G06N3/08</t>
+          <t>B82Y10/00;;G06N3/063;;H04L2209/34;;G06N10/00;;H04L9/0852;;G06N3/08;;G06N20/00</t>
         </is>
       </c>
       <c r="R103" t="inlineStr"/>
@@ -11650,12 +11650,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>086-142-481-875-549;;122-674-749-552-013;;004-080-118-128-877;;098-699-064-344-687;;104-916-437-556-927;;126-194-360-671-56X;;190-018-764-824-196</t>
+          <t>190-018-764-824-196;;086-142-481-875-549;;004-080-118-128-877;;098-699-064-344-687;;104-916-437-556-927;;122-674-749-552-013;;126-194-360-671-56X</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://lens.org/104-916-437-556-927;;https://lens.org/098-699-064-344-687;;https://lens.org/086-142-481-875-549;;https://lens.org/122-674-749-552-013;;https://lens.org/126-194-360-671-56X;;https://lens.org/190-018-764-824-196;;https://lens.org/004-080-118-128-877</t>
+          <t>https://lens.org/190-018-764-824-196;;https://lens.org/098-699-064-344-687;;https://lens.org/004-080-118-128-877;;https://lens.org/104-916-437-556-927;;https://lens.org/126-194-360-671-56X;;https://lens.org/122-674-749-552-013;;https://lens.org/086-142-481-875-549</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -11670,12 +11670,12 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;グーグル エルエルシー;;GOOGLE LLC</t>
+          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;GOOGLE LLC;;グーグル エルエルシー</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>ハルトムート・ネーヴェン;;FARHI EDWARD HENRY;;NEVEN HARTMUT;;エドワード・ヘンリー・ファーリ</t>
+          <t>エドワード・ヘンリー・ファーリ;;ハルトムート・ネーヴェン;;FARHI EDWARD HENRY;;NEVEN HARTMUT</t>
         </is>
       </c>
       <c r="H104" t="inlineStr"/>
@@ -11684,7 +11684,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>EP;;CN;;CA;;AU;;JP</t>
+          <t>CN;;EP;;CA;;AU;;JP</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -11694,7 +11694,7 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>B2;;A1;;A</t>
+          <t>A;;B2;;A1</t>
         </is>
       </c>
       <c r="M104" t="n">
@@ -11708,12 +11708,12 @@
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>G06N3/063;;G06N10/00;;G06N99/00</t>
+          <t>G06N10/00;;G06N3/063;;G06N99/00</t>
         </is>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>G06N3/063;;H04L2209/34;;H04L9/0852;;G06N20/00;;B82Y10/00;;G06N10/00;;G06N3/08</t>
+          <t>B82Y10/00;;G06N3/063;;H04L2209/34;;G06N10/00;;H04L9/0852;;G06N3/08;;G06N20/00</t>
         </is>
       </c>
       <c r="R104" t="inlineStr"/>
@@ -11740,12 +11740,12 @@
       </c>
       <c r="X104" t="inlineStr">
         <is>
-          <t>CN 110692067 A;;CA 3065859 A1;;EP 3619655 A1;;JP 6882533 B2;;AU 2018/278348 A1;;JP 2020522805 A;;AU 2018/278348 B2</t>
+          <t>CA 3065859 A1;;EP 3619655 A1;;JP 2020522805 A;;CN 110692067 A;;JP 6882533 B2;;AU 2018/278348 A1;;AU 2018/278348 B2</t>
         </is>
       </c>
       <c r="Y104" t="inlineStr">
         <is>
-          <t>EP 18733461 A;;CA 3065859 A;;JP 2019566260 A;;AU 2018/278348 A;;CN 201880036533 A</t>
+          <t>CA 3065859 A;;AU 2018/278348 A;;JP 2019566260 A;;EP 18733461 A;;CN 201880036533 A</t>
         </is>
       </c>
     </row>
@@ -11819,12 +11819,12 @@
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>G06N3/063;;H04L9/08;;G06N20/00;;B82Y10/00;;G06N10/00;;G06N3/08</t>
+          <t>B82Y10/00;;G06N3/063;;H04L9/08;;G06N10/00;;G06N3/08;;G06N20/00</t>
         </is>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>G06N3/063;;H04L2209/34;;H04L9/0852;;G06N20/00;;B82Y10/00;;G06N10/00;;G06N3/08</t>
+          <t>B82Y10/00;;G06N3/063;;H04L2209/34;;G06N10/00;;H04L9/0852;;G06N3/08;;G06N20/00</t>
         </is>
       </c>
       <c r="R105" t="inlineStr"/>
@@ -11893,7 +11893,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>SINHA RAJARISHI;;GUILLOU DAVID</t>
+          <t>GUILLOU DAVID;;SINHA RAJARISHI</t>
         </is>
       </c>
       <c r="H106" t="inlineStr"/>
@@ -11926,12 +11926,12 @@
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>H01L41/18;;H03H9/42;;H03H9/02;;H01L41/08;;H03H9/15</t>
+          <t>H03H9/02;;H03H9/15;;H03H9/42;;H01L41/18;;H01L41/08</t>
         </is>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>H01L27/20;;H01L41/0986;;G06N3/0445;;B81B3/0021;;G06N3/04;;G06N3/0635</t>
+          <t>H01L27/20;;B81B3/0021;;G06N3/0445;;H01L41/0986;;G06N3/0635;;G06N3/04</t>
         </is>
       </c>
       <c r="R106" t="inlineStr"/>
@@ -12000,7 +12000,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>SINHA RAJARISHI;;GUILLOU DAVID FRANCOIS</t>
+          <t>GUILLOU DAVID FRANCOIS;;SINHA RAJARISHI</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -12037,12 +12037,12 @@
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>H01L27/20;;B81B3/00;;G06N3/04;;H01L41/09</t>
+          <t>B81B3/00;;H01L27/20;;G06N3/04;;H01L41/09</t>
         </is>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>H01L27/20;;H01L41/0986;;G06N3/0445;;B81B3/0021;;G06N3/04;;G06N3/0635</t>
+          <t>H01L27/20;;B81B3/0021;;G06N3/0445;;H01L41/0986;;G06N3/0635;;G06N3/04</t>
         </is>
       </c>
       <c r="R107" t="inlineStr"/>
@@ -12111,7 +12111,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>LUNKIN MIKHAIL;;NGUYEN CHRISTIAN;;SUKACHEV DENIS;;BHASKAR MIHIR;;SIPAHIGIL ALP;;EVANS RUFFIN</t>
+          <t>BHASKAR MIHIR;;LUNKIN MIKHAIL;;SIPAHIGIL ALP;;NGUYEN CHRISTIAN;;SUKACHEV DENIS;;EVANS RUFFIN</t>
         </is>
       </c>
       <c r="H108" t="inlineStr"/>
@@ -12144,12 +12144,12 @@
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>G11C11/00;;B82Y10/00</t>
+          <t>B82Y10/00;;G11C11/00</t>
         </is>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>G11C11/16;;B82Y30/00;;H04B10/90;;G06N20/00;;B82Y10/00;;G06N10/00;;H01L29/1602</t>
+          <t>B82Y10/00;;H04B10/90;;G11C11/16;;H01L29/1602;;G06N10/00;;G06N20/00;;B82Y30/00</t>
         </is>
       </c>
       <c r="R108" t="inlineStr"/>
@@ -12218,7 +12218,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>EVANS RUFFIN E;;BHASKAR MIHIR KESHAV;;NGUYEN CHRISTIAN THIEU;;LUKIN MIKHAIL D;;SIPAHIGIL ALP;;SUKACHEV DENIS D</t>
+          <t>SIPAHIGIL ALP;;NGUYEN CHRISTIAN THIEU;;EVANS RUFFIN E;;SUKACHEV DENIS D;;BHASKAR MIHIR KESHAV;;LUKIN MIKHAIL D</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -12260,7 +12260,7 @@
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>G11C11/16;;B82Y30/00;;H04B10/90;;G06N20/00;;B82Y10/00;;G06N10/00;;H01L29/1602</t>
+          <t>B82Y10/00;;H04B10/90;;G11C11/16;;H01L29/1602;;G06N10/00;;G06N20/00;;B82Y30/00</t>
         </is>
       </c>
       <c r="R109" t="inlineStr"/>
@@ -12329,7 +12329,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>WALUS KONRAD;;RASHIDI MOHAMMAD;;LIVADARU LUCIAN;;HUFF TALEANA;;VINE WYATT;;WOLKOW ROBERT;;DIENEL THOMAS;;RETALLICK JACOB</t>
+          <t>RASHIDI MOHAMMAD;;VINE WYATT;;RETALLICK JACOB;;WALUS KONRAD;;DIENEL THOMAS;;WOLKOW ROBERT;;HUFF TALEANA;;LIVADARU LUCIAN</t>
         </is>
       </c>
       <c r="H110" t="inlineStr"/>
@@ -12362,12 +12362,12 @@
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>G01Q60/24;;G01Q60/04;;G06N3/08;;B82B3/00</t>
+          <t>G06N3/08;;B82B3/00;;G01Q60/24;;G01Q60/04</t>
         </is>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>G01Q60/24;;G01Q80/00;;G06N3/0445;;H01L29/7613;;H01L29/66977;;G06N20/10;;G01Q70/14;;G06N3/0472;;B82Y10/00;;G06N3/04;;G01Q60/10;;G01Q30/10;;G06N7/005;;G06N3/0635;;G06N3/08;;H01L29/66984</t>
+          <t>G01Q60/24;;G06N3/0472;;B82Y10/00;;G01Q60/10;;G01Q30/10;;H01L29/7613;;H01L29/66977;;H01L29/66984;;G06N3/0445;;G06N7/005;;G01Q70/14;;G01Q80/00;;G06N3/0635;;G06N20/10;;G06N3/08;;G06N3/04</t>
         </is>
       </c>
       <c r="R110" t="inlineStr"/>
@@ -12436,7 +12436,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>PANKONIEN ALEXANDER M;;MAGAR KAMAN THAPA;;KONDASH COREY R;;DICKINSON BENJAMIN T;;BAUR JEFFREY W;;SLINKER KEITH;;REICH GREGORY W</t>
+          <t>MAGAR KAMAN THAPA;;KONDASH COREY R;;SLINKER KEITH;;BAUR JEFFREY W;;REICH GREGORY W;;PANKONIEN ALEXANDER M;;DICKINSON BENJAMIN T</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -12473,12 +12473,12 @@
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>G06N3/02;;G01P5/26;;B82Y30/00;;G06F16/9038;;B82Y10/00</t>
+          <t>G01P5/26;;G06F16/9038;;B82Y10/00;;G06N3/02;;B82Y30/00</t>
         </is>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>G06N3/02;;G01P5/26;;B82Y30/00;;G06F16/9038;;B82Y10/00</t>
+          <t>G01P5/26;;G06F16/9038;;B82Y10/00;;G06N3/02;;B82Y30/00</t>
         </is>
       </c>
       <c r="R111" t="inlineStr"/>
@@ -12585,7 +12585,7 @@
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>G06N10/00;;B82Y10/00;;G06N5/003</t>
+          <t>B82Y10/00;;G06N10/00;;G06N5/003</t>
         </is>
       </c>
       <c r="R112" t="inlineStr"/>
@@ -12629,12 +12629,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>180-200-336-064-782;;063-388-907-511-538</t>
+          <t>063-388-907-511-538;;180-200-336-064-782</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://lens.org/063-388-907-511-538;;https://lens.org/180-200-336-064-782</t>
+          <t>https://lens.org/180-200-336-064-782;;https://lens.org/063-388-907-511-538</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -12673,7 +12673,7 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>A1;;C</t>
+          <t>C;;A1</t>
         </is>
       </c>
       <c r="M113" t="n">
@@ -12692,7 +12692,7 @@
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>G06N10/00;;B82Y10/00;;G06N5/003</t>
+          <t>B82Y10/00;;G06N10/00;;G06N5/003</t>
         </is>
       </c>
       <c r="R113" t="inlineStr"/>
@@ -12719,7 +12719,7 @@
       </c>
       <c r="X113" t="inlineStr">
         <is>
-          <t>CA 3080318 C;;CA 3080318 A1</t>
+          <t>CA 3080318 A1;;CA 3080318 C</t>
         </is>
       </c>
       <c r="Y113" t="inlineStr">
@@ -12799,7 +12799,7 @@
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>G06N10/00;;B82Y10/00;;G06N5/003</t>
+          <t>B82Y10/00;;G06N10/00;;G06N5/003</t>
         </is>
       </c>
       <c r="R114" t="inlineStr"/>
@@ -12868,7 +12868,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>AGGARWAL PRIYANKA;;CHODAVARAPU VAMSY</t>
+          <t>CHODAVARAPU VAMSY;;AGGARWAL PRIYANKA</t>
         </is>
       </c>
       <c r="H115" t="inlineStr"/>
@@ -12901,12 +12901,12 @@
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>B81B7/02;;G06N3/04;;G06N7/00;;G06N3/08</t>
+          <t>G06N7/00;;G06N3/08;;G06N3/04;;B81B7/02</t>
         </is>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>G06N7/005;;G06N3/084;;G06N3/0445;;G06N20/10;;B81B2207/012;;B81B7/02;;B81B2201/0242;;G06N3/0472;;G01C21/183;;G06N3/088;;G01C25/005;;G06N3/0454;;G06N3/08</t>
+          <t>G06N3/084;;G06N3/088;;G06N3/0472;;B81B2201/0242;;B81B7/02;;B81B2207/012;;G06N3/0454;;G06N3/0445;;G06N7/005;;G01C21/183;;G01C25/005;;G06N20/10;;G06N3/08</t>
         </is>
       </c>
       <c r="R115" t="inlineStr"/>
@@ -12950,17 +12950,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>048-666-894-031-255;;143-577-806-116-427;;122-575-242-766-692;;056-410-719-774-001;;040-976-568-506-57X;;040-685-913-457-183;;120-626-180-387-172;;149-148-197-227-369;;107-706-698-330-591</t>
+          <t>056-410-719-774-001;;040-685-913-457-183;;107-706-698-330-591;;120-626-180-387-172;;048-666-894-031-255;;040-976-568-506-57X;;143-577-806-116-427;;122-575-242-766-692;;149-148-197-227-369</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://lens.org/107-706-698-330-591;;https://lens.org/122-575-242-766-692;;https://lens.org/149-148-197-227-369;;https://lens.org/120-626-180-387-172;;https://lens.org/040-685-913-457-183;;https://lens.org/056-410-719-774-001;;https://lens.org/040-976-568-506-57X;;https://lens.org/048-666-894-031-255;;https://lens.org/143-577-806-116-427</t>
+          <t>https://lens.org/048-666-894-031-255;;https://lens.org/056-410-719-774-001;;https://lens.org/120-626-180-387-172;;https://lens.org/122-575-242-766-692;;https://lens.org/040-685-913-457-183;;https://lens.org/149-148-197-227-369;;https://lens.org/107-706-698-330-591;;https://lens.org/040-976-568-506-57X;;https://lens.org/143-577-806-116-427</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>強化学習を通した量子計算;;Quantum computation through reinforcement learning;;강화된 학습을 통한 양자 계산;;QUANTUM COMPUTATION THROUGH REINFORCEMENT LEARNING</t>
+          <t>QUANTUM COMPUTATION THROUGH REINFORCEMENT LEARNING;;Quantum computation through reinforcement learning;;強化学習を通した量子計算;;강화된 학습을 통한 양자 계산</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -12970,12 +12970,12 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;GOOGLE LLC;;NEVEN HARTMUT;;NIU YUEZHEN;;GOOGLE INC;;SMELYANSKIY VADIM;;CASTRILLO SERGIO BOIXO</t>
+          <t>GOOGLE LLC;;SMELYANSKIY VADIM;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;NIU YUEZHEN;;CASTRILLO SERGIO BOIXO;;NEVEN HARTMUT;;GOOGLE INC</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>NEVEN HARTMUT;;BOIXO CASTRILLO SERGIO;;ヴァディム・スメリャンスキー;;NIU YUEZHEN;;セルジオ・バイショ・カストリージョ;;ハルトムート・ネーフェン;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM;;ユエゼン・ニウ</t>
+          <t>SMELYANSKIY VADIM;;BOIXO CASTRILLO SERGIO;;NIU YUEZHEN;;CASTRILLO SERGIO BOIXO;;NEVEN HARTMUT;;ヴァディム・スメリャンスキー;;ユエゼン・ニウ;;ハルトムート・ネーフェン;;セルジオ・バイショ・カストリージョ</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -12988,7 +12988,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>EP;;CN;;US;;WO;;KR;;CA;;AU;;JP</t>
+          <t>WO;;CN;;EP;;KR;;CA;;AU;;JP;;US</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -12998,7 +12998,7 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>B2;;A1;;A</t>
+          <t>A;;B2;;A1</t>
         </is>
       </c>
       <c r="M116" t="n">
@@ -13012,12 +13012,12 @@
       </c>
       <c r="P116" t="inlineStr">
         <is>
-          <t>G06N3/02;;G06N3/00;;G06N99/00;;B82Y10/00;;G06N3/04;;G06N10/00;;G06N3/08</t>
+          <t>G06N99/00;;B82Y10/00;;G06N10/00;;G06N3/00;;G06N3/02;;G06N3/08;;G06N3/04</t>
         </is>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>G06N3/084;;B82Y10/00;;G06N3/0454;;G06N10/00;;G06N3/006;;G06N3/08</t>
+          <t>G06N3/084;;B82Y10/00;;G06N3/006;;G06N3/08;;G06N3/0454;;G06N10/00</t>
         </is>
       </c>
       <c r="R116" t="inlineStr"/>
@@ -13044,12 +13044,12 @@
       </c>
       <c r="X116" t="inlineStr">
         <is>
-          <t>JP 2021512395 A;;CN 111868756 A;;EP 3746953 A1;;KR 20200097787 A;;US 2020/0410343 A1;;WO 2019/152020 A1;;AU 2018/406532 A1;;CA 3088135 A1;;AU 2018/406532 B2</t>
+          <t>US 2020/0410343 A1;;AU 2018/406532 A1;;CA 3088135 A1;;WO 2019/152020 A1;;KR 20200097787 A;;CN 111868756 A;;AU 2018/406532 B2;;EP 3746953 A1;;JP 2021512395 A</t>
         </is>
       </c>
       <c r="Y116" t="inlineStr">
         <is>
-          <t>CN 201880086701 A;;US 201816962059 A;;CA 3088135 A;;US 2018/0016238 W;;JP 2020539032 A;;AU 2018/406532 A;;EP 18704796 A;;KR 20207020582 A</t>
+          <t>AU 2018/406532 A;;EP 18704796 A;;JP 2020539032 A;;US 201816962059 A;;KR 20207020582 A;;CA 3088135 A;;US 2018/0016238 W;;CN 201880086701 A</t>
         </is>
       </c>
     </row>
@@ -13061,7 +13061,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>183-638-313-596-810;;118-982-397-892-435</t>
+          <t>118-982-397-892-435;;183-638-313-596-810</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -13100,7 +13100,7 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Patent Application;;Search Report</t>
+          <t>Search Report;;Patent Application</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
@@ -13119,12 +13119,12 @@
       </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>H05H7/22;;H05H7/04;;H99Z99/00;;G06N20/00;;H05H15/00</t>
+          <t>H05H15/00;;H05H7/22;;H99Z99/00;;G06N20/00;;H05H7/04</t>
         </is>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>H01L29/1606;;H01L29/7613;;C01B32/182;;H01L29/66977;;B82Y30/00;;B82Y10/00;;G06N10/00</t>
+          <t>C01B32/182;;B82Y10/00;;H01L29/7613;;H01L29/1606;;H01L29/66977;;G06N10/00;;B82Y30/00</t>
         </is>
       </c>
       <c r="R117" t="inlineStr"/>
@@ -13151,7 +13151,7 @@
       </c>
       <c r="X117" t="inlineStr">
         <is>
-          <t>WO 2019/222718 A3;;WO 2019/222718 A2</t>
+          <t>WO 2019/222718 A2;;WO 2019/222718 A3</t>
         </is>
       </c>
       <c r="Y117" t="inlineStr">
@@ -13173,7 +13173,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://lens.org/105-728-765-264-26X;;https://lens.org/027-251-849-984-210</t>
+          <t>https://lens.org/027-251-849-984-210;;https://lens.org/105-728-765-264-26X</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -13193,7 +13193,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>GRASS ROBERT;;KOHLL ALEXANDER XAVIER CHRISTOF;;NGUYEN BICHLIEN HOANG;;STRAUSS KARIN;;CHEN WEIDA</t>
+          <t>KOHLL ALEXANDER XAVIER CHRISTOF;;GRASS ROBERT;;STRAUSS KARIN;;NGUYEN BICHLIEN HOANG;;CHEN WEIDA</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -13230,12 +13230,12 @@
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>C12N15/10;;G06N3/00;;B01J13/22;;C07H21/04;;H01F1/00;;B22F1/02;;C12Q1/6806</t>
+          <t>C07H21/04;;C12N15/10;;B22F1/02;;B01J13/22;;C12Q1/6806;;H01F1/00;;G06N3/00</t>
         </is>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>G06N3/123;;H01F1/0054;;B82Y25/00;;C12N15/1013;;B22F1/0062;;B01J13/22;;C07H21/04;;B22F2999/00;;B82Y10/00;;B22F1/02;;B22F1/0018;;G16B30/00</t>
+          <t>H01F1/0054;;C07H21/04;;B22F1/0018;;B22F1/02;;B01J13/22;;B22F1/0062;;G06N3/123;;B82Y10/00;;B22F2999/00;;B82Y25/00;;G16B30/00;;C12N15/1013</t>
         </is>
       </c>
       <c r="R118" t="inlineStr"/>
@@ -13299,12 +13299,12 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>MICROSOFT TECHNOLOGY LICENSING LLC;;微软技术许可有限责任公司</t>
+          <t>微软技术许可有限责任公司;;MICROSOFT TECHNOLOGY LICENSING LLC</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>K·施特劳斯;;GRASS ROBERT;;KOHLL ALEXANDER XAVIER CHRISTOF;;NGUYEN BICHLIEN HOANG;;A·X·C·科尔;;STRAUSS KARIN;;R·格拉斯;;CHEN WEIDA;;W·陈;;B·H·阮</t>
+          <t>A·X·C·科尔;;K·施特劳斯;;KOHLL ALEXANDER XAVIER CHRISTOF;;GRASS ROBERT;;W·陈;;STRAUSS KARIN;;B·H·阮;;R·格拉斯;;NGUYEN BICHLIEN HOANG;;CHEN WEIDA</t>
         </is>
       </c>
       <c r="H119" t="inlineStr"/>
@@ -13323,7 +13323,7 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>A1;;A</t>
+          <t>A;;A1</t>
         </is>
       </c>
       <c r="M119" t="n">
@@ -13337,12 +13337,12 @@
       </c>
       <c r="P119" t="inlineStr">
         <is>
-          <t>C12N15/10;;G06N3/00;;H01F1/00;;B22F1/02;;C12Q1/6806</t>
+          <t>C12N15/10;;B22F1/02;;C12Q1/6806;;H01F1/00;;G06N3/00</t>
         </is>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>G06N3/123;;H01F1/0054;;B82Y25/00;;C12N15/1013;;B22F1/0062;;B01J13/22;;C07H21/04;;B22F2999/00;;B82Y10/00;;B22F1/02;;B22F1/0018;;G16B30/00</t>
+          <t>H01F1/0054;;C07H21/04;;B22F1/0018;;B22F1/02;;B01J13/22;;B22F1/0062;;G06N3/123;;B82Y10/00;;B22F2999/00;;B82Y25/00;;G16B30/00;;C12N15/1013</t>
         </is>
       </c>
       <c r="R119" t="inlineStr"/>
@@ -13448,12 +13448,12 @@
       </c>
       <c r="P120" t="inlineStr">
         <is>
-          <t>G06F9/38;;G06N99/00;;G06F17/18;;B82Y10/00;;G06F15/16;;G06F9/50;;G06N5/02</t>
+          <t>G06N99/00;;G06F9/38;;B82Y10/00;;G06F17/18;;G06F9/50;;G06F15/16;;G06N5/02</t>
         </is>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>G06F9/3877;;G06F16/9024;;G06N5/04;;G06N10/00;;G06N20/00;;B82Y10/00;;G06F15/16;;G06F9/5027;;G06F40/30;;G06N5/022;;G06F17/18</t>
+          <t>G06F16/9024;;G06F9/3877;;B82Y10/00;;G06N5/04;;G06F40/30;;G06F9/5027;;G06N10/00;;G06F15/16;;G06F17/18;;G06N5/022;;G06N20/00</t>
         </is>
       </c>
       <c r="R120" t="inlineStr"/>
@@ -13497,12 +13497,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>086-922-027-475-411;;014-608-546-632-936</t>
+          <t>014-608-546-632-936;;086-922-027-475-411</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://lens.org/086-922-027-475-411;;https://lens.org/014-608-546-632-936</t>
+          <t>https://lens.org/014-608-546-632-936;;https://lens.org/086-922-027-475-411</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -13522,7 +13522,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>GAMBLE JOHN KING;;WIEBE NATHAN O;;GRANADE CHRISTOPHER EVAN;;GAMBLE IV JOHN KING</t>
+          <t>WIEBE NATHAN O;;GAMBLE JOHN KING;;GAMBLE IV JOHN KING;;GRANADE CHRISTOPHER EVAN</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -13545,7 +13545,7 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>A1;;B1</t>
+          <t>B1;;A1</t>
         </is>
       </c>
       <c r="M121" t="n">
@@ -13559,12 +13559,12 @@
       </c>
       <c r="P121" t="inlineStr">
         <is>
-          <t>H03K19/195;;G06N10/00;;B82Y10/00;;G06N7/00</t>
+          <t>G06N7/00;;G06N10/00;;H03K19/195;;B82Y10/00</t>
         </is>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>H03K19/195;;G06N20/00;;B82Y10/00;;G06N7/005;;G06N10/00</t>
+          <t>B82Y10/00;;G06N7/005;;G06N10/00;;G06N20/00;;H03K19/195</t>
         </is>
       </c>
       <c r="R121" t="inlineStr"/>
@@ -13608,17 +13608,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>061-584-301-962-882;;035-529-482-932-628</t>
+          <t>035-529-482-932-628;;061-584-301-962-882</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://lens.org/035-529-482-932-628;;https://lens.org/061-584-301-962-882</t>
+          <t>https://lens.org/061-584-301-962-882;;https://lens.org/035-529-482-932-628</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>MULTI-MODE QUBIT READOUT AND QUBIT STATE ASSIGNMENT;;Multi-mode qubit readout and qubit state assignment</t>
+          <t>Multi-mode qubit readout and qubit state assignment;;MULTI-MODE QUBIT READOUT AND QUBIT STATE ASSIGNMENT</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -13633,7 +13633,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>GAMBETTA JAY M;;GAMBETTA JAY;;CORCOLES-GONZALEZ ANTONIO;;OLIVADESE SALVATORE BERNARDO;;TEMME PAUL;;BISHOP LEV SAMUEL;;OLIVADESE SALVATORE;;TEMME PAUL KRISTAN;;BISHOP LEV</t>
+          <t>TEMME PAUL KRISTAN;;BISHOP LEV SAMUEL;;CORCOLES-GONZALEZ ANTONIO;;OLIVADESE SALVATORE BERNARDO;;OLIVADESE SALVATORE;;GAMBETTA JAY M;;BISHOP LEV;;TEMME PAUL;;GAMBETTA JAY</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -13656,7 +13656,7 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>A1;;B1</t>
+          <t>B1;;A1</t>
         </is>
       </c>
       <c r="M122" t="n">
@@ -13670,12 +13670,12 @@
       </c>
       <c r="P122" t="inlineStr">
         <is>
-          <t>G06N20/10;;G06N99/00;;G06F9/38;;B82Y10/00;;H03H3/007;;G06F13/40;;G06N10/00</t>
+          <t>G06N99/00;;G06F9/38;;B82Y10/00;;G06F13/40;;G06N20/10;;G06N10/00;;H03H3/007</t>
         </is>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>G06F9/3877;;G06N20/10;;G06F13/4068;;G06N99/00;;B82Y10/00;;H03H3/007;;G06N10/00</t>
+          <t>G06N99/00;;G06F9/3877;;G06F13/4068;;B82Y10/00;;G06N20/10;;G06N10/00;;H03H3/007</t>
         </is>
       </c>
       <c r="R122" t="inlineStr"/>
@@ -13702,12 +13702,12 @@
       </c>
       <c r="X122" t="inlineStr">
         <is>
-          <t>WO 2020/120183 A1;;US 10650322 B1</t>
+          <t>US 10650322 B1;;WO 2020/120183 A1</t>
         </is>
       </c>
       <c r="Y122" t="inlineStr">
         <is>
-          <t>US 201816219346 A;;EP 2019083224 W</t>
+          <t>EP 2019083224 W;;US 201816219346 A</t>
         </is>
       </c>
     </row>
@@ -13719,7 +13719,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>132-673-414-038-918;;130-864-873-155-442</t>
+          <t>130-864-873-155-442;;132-673-414-038-918</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -13729,7 +13729,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>MULTI-MODE QUBIT READOUT AND QUBIT STATE ASSIGNMENT;;Multi-mode qubit readout and qubit state assignment</t>
+          <t>Multi-mode qubit readout and qubit state assignment;;MULTI-MODE QUBIT READOUT AND QUBIT STATE ASSIGNMENT</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -13744,7 +13744,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>CORCOLES-GONZALEZ ANTONIO;;OLIVADESE SALVATORE BERNARDO;;BISHOP LEV SAMUEL;;TEMME PAUL KRISTAN;;GAMBETTA JAY M</t>
+          <t>TEMME PAUL KRISTAN;;BISHOP LEV SAMUEL;;CORCOLES-GONZALEZ ANTONIO;;OLIVADESE SALVATORE BERNARDO;;GAMBETTA JAY M</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -13781,12 +13781,12 @@
       </c>
       <c r="P123" t="inlineStr">
         <is>
-          <t>G06N99/00;;G06F9/38;;B82Y10/00;;H03H3/007;;G06F13/40;;G06N10/00</t>
+          <t>G06N99/00;;G06F9/38;;B82Y10/00;;G06F13/40;;G06N10/00;;H03H3/007</t>
         </is>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>G06F9/3877;;G06N20/10;;G06F13/4068;;G06N99/00;;B82Y10/00;;H03H3/007;;G06N10/00</t>
+          <t>G06N99/00;;G06F9/3877;;G06F13/4068;;B82Y10/00;;G06N20/10;;G06N10/00;;H03H3/007</t>
         </is>
       </c>
       <c r="R123" t="inlineStr"/>
@@ -13855,7 +13855,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>KUCZYNSKI JOSEPH;;MISGEN MARVIN M;;PRISCO JOSEPH F;;NEUMAN-HORN DEBRA A;;PRZYBYLSKI KEVIN J</t>
+          <t>NEUMAN-HORN DEBRA A;;MISGEN MARVIN M;;PRISCO JOSEPH F;;KUCZYNSKI JOSEPH;;PRZYBYLSKI KEVIN J</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -13892,12 +13892,12 @@
       </c>
       <c r="P124" t="inlineStr">
         <is>
-          <t>B82B3/00;;G06T7/00;;A61B5/00</t>
+          <t>A61B5/00;;B82B3/00;;G06T7/00</t>
         </is>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>A61B5/7267;;A61B2505/07;;A61B5/6898;;A61B5/0077;;B82B3/0014;;A61B5/411;;A61B5/6802;;G06T7/0012</t>
+          <t>G06T7/0012;;A61B5/7267;;A61B5/6802;;B82B3/0014;;A61B5/6898;;A61B2505/07;;A61B5/411;;A61B5/0077</t>
         </is>
       </c>
       <c r="R124" t="inlineStr"/>
@@ -13966,7 +13966,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>MASILAMANI ASHOK;;GAHROOSI AMIR;;KHOMAMI ABADI MOJTABA;;GOULD MATTHEW</t>
+          <t>GOULD MATTHEW;;MASILAMANI ASHOK;;KHOMAMI ABADI MOJTABA;;GAHROOSI AMIR</t>
         </is>
       </c>
       <c r="H125" t="inlineStr"/>
@@ -13999,12 +13999,12 @@
       </c>
       <c r="P125" t="inlineStr">
         <is>
-          <t>G06N3/02;;G01N37/00;;G06N3/08</t>
+          <t>G01N37/00;;G06N3/08;;G06N3/02</t>
         </is>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>G01N33/0031;;G01N33/0034;;G01N2035/00891;;G01N35/00722;;B82Y15/00</t>
+          <t>B82Y15/00;;G01N33/0034;;G01N35/00722;;G01N2035/00891;;G01N33/0031</t>
         </is>
       </c>
       <c r="R125" t="inlineStr"/>
@@ -14053,7 +14053,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>https://lens.org/088-697-896-595-479;;https://lens.org/033-905-450-751-578</t>
+          <t>https://lens.org/033-905-450-751-578;;https://lens.org/088-697-896-595-479</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -14073,7 +14073,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>GOULD MATTHEW V;;GAHROOSI AMIR BAHADOR;;MASILAMANI ASHOK PRABHU;;KHOMAMI ABADI MOJTABA</t>
+          <t>GAHROOSI AMIR BAHADOR;;KHOMAMI ABADI MOJTABA;;GOULD MATTHEW V;;MASILAMANI ASHOK PRABHU</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -14096,7 +14096,7 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>A1;;B1</t>
+          <t>B1;;A1</t>
         </is>
       </c>
       <c r="M126" t="n">
@@ -14115,7 +14115,7 @@
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>G01N33/0031;;G01N33/0034;;G01N2035/00891;;G01N35/00722;;B82Y15/00</t>
+          <t>B82Y15/00;;G01N33/0034;;G01N35/00722;;G01N2035/00891;;G01N33/0031</t>
         </is>
       </c>
       <c r="R126" t="inlineStr"/>
@@ -14184,7 +14184,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>GOULD MATTHEW V;;GAHROOSI AMIR BAHADOR;;MASILAMANI ASHOK PRABHU;;KHOMAMI ABADI MOJTABA</t>
+          <t>GAHROOSI AMIR BAHADOR;;KHOMAMI ABADI MOJTABA;;GOULD MATTHEW V;;MASILAMANI ASHOK PRABHU</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -14226,7 +14226,7 @@
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>G01N33/0031;;G01N33/0034;;G01N2035/00891;;G01N35/00722;;B82Y15/00</t>
+          <t>B82Y15/00;;G01N33/0034;;G01N35/00722;;G01N2035/00891;;G01N33/0031</t>
         </is>
       </c>
       <c r="R127" t="inlineStr"/>
@@ -14295,7 +14295,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>MCLEAN MARK;;YANG JIANHUA;;WU QING;;XIA QIANGFEI</t>
+          <t>MCLEAN MARK;;XIA QIANGFEI;;YANG JIANHUA;;WU QING</t>
         </is>
       </c>
       <c r="H128" t="inlineStr"/>
@@ -14328,12 +14328,12 @@
       </c>
       <c r="P128" t="inlineStr">
         <is>
-          <t>G06N3/063;;G06N3/06;;G06N3/04;;G06N3/08</t>
+          <t>G06N3/08;;G06N3/063;;G06N3/04;;G06N3/06</t>
         </is>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>G06N3/063;;H01L27/24;;G06N3/0481;;B82Y10/00;;G06N3/08;;G06N3/088;;G06N3/0454;;G06N3/0635;;G06N3/061;;B82Y15/00;;H01L45/146</t>
+          <t>H01L45/146;;G06N3/088;;B82Y15/00;;G06N3/061;;B82Y10/00;;G06N3/063;;H01L27/24;;G06N3/0454;;G06N3/0635;;G06N3/0481;;G06N3/08</t>
         </is>
       </c>
       <c r="R128" t="inlineStr"/>
@@ -14402,7 +14402,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>ZHANG LIHONG;;NABAVI SEYEDFAKHREDDIN</t>
+          <t>NABAVI SEYEDFAKHREDDIN;;ZHANG LIHONG</t>
         </is>
       </c>
       <c r="H129" t="inlineStr"/>
@@ -14440,7 +14440,7 @@
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>B81B2203/0172;;H02N2/18;;H01L41/316;;B81B3/0021;;H01L41/332;;H01L41/187;;H01L41/29;;B81B2203/058;;H01L41/0477;;H02N2/188;;B81B2201/032;;H01L41/1136;;H02N2/22;;B81B2203/0307;;B81B2207/053;;B81B3/0045</t>
+          <t>H01L41/0477;;H01L41/1136;;H01L41/187;;H01L41/29;;B81B3/0021;;H02N2/18;;H01L41/316;;B81B3/0045;;B81B2207/053;;B81B2201/032;;B81B2203/058;;H02N2/22;;B81B2203/0307;;H02N2/188;;H01L41/332;;B81B2203/0172</t>
         </is>
       </c>
       <c r="R129" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>PARK HYUNJUN;;ROQUET NATHANIEL;;LEAKE DEVIN;;BHATIA SWAPNIL</t>
+          <t>PARK HYUNJUN;;BHATIA SWAPNIL;;ROQUET NATHANIEL;;LEAKE DEVIN</t>
         </is>
       </c>
       <c r="H130" t="inlineStr"/>
@@ -14542,12 +14542,12 @@
       </c>
       <c r="P130" t="inlineStr">
         <is>
-          <t>C12Q1/68;;G16B50/20;;H03M13/15;;H03M13/37;;G16B30/00</t>
+          <t>H03M13/15;;G16B50/20;;G16B30/00;;C12Q1/68;;H03M13/37</t>
         </is>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>G06N3/123;;G16B99/00;;G16B50/20;;G16B25/00;;G16B50/30;;B82Y10/00;;G16B25/20;;H03M13/05;;G16B30/00</t>
+          <t>B82Y10/00;;G06N3/123;;G16B25/20;;G16B50/20;;G16B30/00;;G16B50/30;;G16B99/00;;G16B25/00;;H03M13/05</t>
         </is>
       </c>
       <c r="R130" t="inlineStr"/>
@@ -14591,17 +14591,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>077-447-134-917-741;;117-020-155-203-357;;148-258-953-210-353;;067-489-341-104-332</t>
+          <t>117-020-155-203-357;;067-489-341-104-332;;077-447-134-917-741;;148-258-953-210-353</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>https://lens.org/077-447-134-917-741;;https://lens.org/148-258-953-210-353;;https://lens.org/067-489-341-104-332;;https://lens.org/117-020-155-203-357</t>
+          <t>https://lens.org/148-258-953-210-353;;https://lens.org/117-020-155-203-357;;https://lens.org/067-489-341-104-332;;https://lens.org/077-447-134-917-741</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Compositions and methods for nucleic acid-based data storage;;핵산-기반 데이터를 저장하기 위한 조성물 및 방법;;COMPOSITIONS AND METHODS FOR NUCLEIC ACID-BASED DATA STORAGE</t>
+          <t>핵산-기반 데이터를 저장하기 위한 조성물 및 방법;;COMPOSITIONS AND METHODS FOR NUCLEIC ACID-BASED DATA STORAGE;;Compositions and methods for nucleic acid-based data storage</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -14625,7 +14625,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>KR;;CA;;EP;;AU</t>
+          <t>AU;;EP;;CA;;KR</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -14635,7 +14635,7 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>A1;;A</t>
+          <t>A;;A1</t>
         </is>
       </c>
       <c r="M131" t="n">
@@ -14649,12 +14649,12 @@
       </c>
       <c r="P131" t="inlineStr">
         <is>
-          <t>C12Q1/68;;G16B50/20;;G06N3/12;;G16B50/30;;B82Y10/00;;H03M13/15;;H03M13/05;;H03M13/37;;G16B30/00</t>
+          <t>H03M13/15;;B82Y10/00;;G16B50/20;;G16B30/00;;G16B50/30;;G06N3/12;;H03M13/05;;C12Q1/68;;H03M13/37</t>
         </is>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>G06N3/123;;G16B99/00;;G16B50/20;;G16B25/00;;G16B50/30;;B82Y10/00;;G16B25/20;;H03M13/05;;G16B30/00</t>
+          <t>B82Y10/00;;G06N3/123;;G16B25/20;;G16B50/20;;G16B30/00;;G16B50/30;;G16B99/00;;G16B25/00;;H03M13/05</t>
         </is>
       </c>
       <c r="R131" t="inlineStr"/>
@@ -14681,12 +14681,12 @@
       </c>
       <c r="X131" t="inlineStr">
         <is>
-          <t>EP 3794598 A1;;KR 20210029147 A;;AU 2019/270159 A1;;CA 3100529 A1</t>
+          <t>AU 2019/270159 A1;;CA 3100529 A1;;EP 3794598 A1;;KR 20210029147 A</t>
         </is>
       </c>
       <c r="Y131" t="inlineStr">
         <is>
-          <t>CA 3100529 A;;EP 19728816 A;;KR 20207036043 A;;AU 2019/270159 A</t>
+          <t>KR 20207036043 A;;AU 2019/270159 A;;CA 3100529 A;;EP 19728816 A</t>
         </is>
       </c>
     </row>
@@ -14760,12 +14760,12 @@
       </c>
       <c r="P132" t="inlineStr">
         <is>
-          <t>G16B50/30;;G06N3/12;;G16B30/00</t>
+          <t>G06N3/12;;G16B30/00;;G16B50/30</t>
         </is>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>G06N3/123;;G16B99/00;;G16B50/20;;G16B25/00;;G16B50/30;;B82Y10/00;;G16B25/20;;H03M13/05;;G16B30/00</t>
+          <t>B82Y10/00;;G06N3/123;;G16B25/20;;G16B50/20;;G16B30/00;;G16B50/30;;G16B99/00;;G16B25/00;;H03M13/05</t>
         </is>
       </c>
       <c r="R132" t="inlineStr"/>
@@ -14871,12 +14871,12 @@
       </c>
       <c r="P133" t="inlineStr">
         <is>
-          <t>G16B50/30;;G06N3/12;;G16B30/00</t>
+          <t>G06N3/12;;G16B30/00;;G16B50/30</t>
         </is>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>G06N3/123;;G16B99/00;;G16B50/20;;G16B25/00;;G16B50/30;;B82Y10/00;;G16B25/20;;H03M13/05;;G16B30/00</t>
+          <t>B82Y10/00;;G06N3/123;;G16B25/20;;G16B50/20;;G16B30/00;;G16B50/30;;G16B99/00;;G16B25/00;;H03M13/05</t>
         </is>
       </c>
       <c r="R133" t="inlineStr"/>
@@ -14945,7 +14945,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>CAVANAGH PETER;;ROSENBERGER ERIN;;VARGO EMMA;;SPRACHMAN MELISSA;;FAVALORA GREGG;;KOTZ KENNETH;;MARKOVIC STACEY;;HUANG HAIYAO;;MCFARLAND KIRSTY;;FRANK IAN;;DUBAY RYAN;;BYRNES STEVEN;;MAGYAR ANDREW</t>
+          <t>BYRNES STEVEN;;ROSENBERGER ERIN;;KOTZ KENNETH;;MARKOVIC STACEY;;MCFARLAND KIRSTY;;DUBAY RYAN;;CAVANAGH PETER;;SPRACHMAN MELISSA;;HUANG HAIYAO;;FAVALORA GREGG;;VARGO EMMA;;FRANK IAN;;MAGYAR ANDREW</t>
         </is>
       </c>
       <c r="H134" t="inlineStr"/>
@@ -14983,7 +14983,7 @@
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>B01J19/0046;;C12N15/1006;;B01J2219/00439;;C12N15/1068;;B01J2219/00511;;C12P19/34;;B01J2219/00495;;G06N3/123;;B01L3/527;;B01J2219/00436;;C12N15/1065;;B01J2219/00711;;B01L3/502761;;B01J2219/0052;;G11C13/02;;C12N9/12;;B01J2219/00722;;B01J2219/00596;;B81B1/006;;B01J2219/00448;;B01L3/5027;;B01L3/50851</t>
+          <t>B01L3/50851;;C12N15/1006;;B01J19/0046;;B01J2219/00495;;B01J2219/0052;;C12P19/34;;B01L3/527;;B01J2219/00448;;C12N15/1065;;B01J2219/00596;;B01J2219/00436;;B01J2219/00511;;B01J2219/00439;;C12N15/1068;;C12N9/12;;G11C13/02;;B01J2219/00711;;G06N3/123;;B01J2219/00722;;B01L3/502761;;B01L3/5027;;B81B1/006</t>
         </is>
       </c>
       <c r="R134" t="inlineStr"/>
@@ -15052,7 +15052,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>DUBAY RYAN A;;CAVANAGH PETER;;ROSENBERGER ERIN;;FRANK IAN WARD;;FAVALORA GREGG E;;SPRACHMAN MELISSA M;;KOTZ KENNETH T;;MARKOVIC STACEY;;MCFARLAND KIRSTY A;;HUANG HAIYAO;;BYRNES STEVEN J;;VARGO EMMA;;MAGYAR ANDREW P</t>
+          <t>DUBAY RYAN A;;BYRNES STEVEN J;;KOTZ KENNETH T;;ROSENBERGER ERIN;;SPRACHMAN MELISSA M;;MARKOVIC STACEY;;MAGYAR ANDREW P;;MCFARLAND KIRSTY A;;FRANK IAN WARD;;CAVANAGH PETER;;FAVALORA GREGG E;;HUANG HAIYAO;;VARGO EMMA</t>
         </is>
       </c>
       <c r="H135" t="inlineStr"/>
@@ -15085,12 +15085,12 @@
       </c>
       <c r="P135" t="inlineStr">
         <is>
-          <t>C12N15/10;;G06N3/12;;C12P19/34;;B01L3/00;;C12N9/12;;B81B1/00</t>
+          <t>C12N15/10;;B81B1/00;;G06N3/12;;B01L3/00;;C12P19/34;;C12N9/12</t>
         </is>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>B01J19/0046;;C12N15/1006;;B01J2219/00439;;C12N15/1068;;B01J2219/00511;;C12P19/34;;B01J2219/00495;;G06N3/123;;B01L3/527;;B01J2219/00436;;C12N15/1065;;B01J2219/00711;;B01L3/502761;;B01J2219/0052;;G11C13/02;;C12N9/12;;B01J2219/00722;;B01J2219/00596;;B81B1/006;;B01J2219/00448;;B01L3/5027;;B01L3/50851</t>
+          <t>B01L3/50851;;C12N15/1006;;B01J19/0046;;B01J2219/00495;;B01J2219/0052;;C12P19/34;;B01L3/527;;B01J2219/00448;;C12N15/1065;;B01J2219/00596;;B01J2219/00436;;B01J2219/00511;;B01J2219/00439;;C12N15/1068;;C12N9/12;;G11C13/02;;B01J2219/00711;;G06N3/123;;B01J2219/00722;;B01L3/502761;;B01L3/5027;;B81B1/006</t>
         </is>
       </c>
       <c r="R135" t="inlineStr"/>
@@ -15197,7 +15197,7 @@
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>G06N7/005;;G06N5/003;;G06N20/00;;G06N3/0472;;B82Y10/00;;G06N3/0454;;G06N10/00</t>
+          <t>G06N3/0472;;B82Y10/00;;G06N3/0454;;G06N7/005;;G06N10/00;;G06N20/00;;G06N5/003</t>
         </is>
       </c>
       <c r="R136" t="inlineStr"/>
@@ -15300,7 +15300,7 @@
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>G06N7/005;;G06N5/003;;G06N20/00;;G06N3/0472;;B82Y10/00;;G06N3/0454;;G06N10/00</t>
+          <t>G06N3/0472;;B82Y10/00;;G06N3/0454;;G06N7/005;;G06N10/00;;G06N20/00;;G06N5/003</t>
         </is>
       </c>
       <c r="R137" t="inlineStr"/>
@@ -15369,7 +15369,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>JIANG ZHUOLIN;;FONG KIN CHUNG;;SIU MAN-HUNG</t>
+          <t>SIU MAN-HUNG;;JIANG ZHUOLIN;;FONG KIN CHUNG</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -15406,12 +15406,12 @@
       </c>
       <c r="P138" t="inlineStr">
         <is>
-          <t>B82Y30/00;;C01B32/19;;G06K9/62;;B82Y10/00;;G06N3/04</t>
+          <t>G06K9/62;;B82Y10/00;;C01B32/19;;B82Y30/00;;G06N3/04</t>
         </is>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>G06N3/0418;;G06N3/084;;G06K9/6267;;G06K9/00147;;B82Y30/00;;C01B32/19;;B82Y10/00;;G06N3/0454</t>
+          <t>G06N3/084;;G06K9/00147;;B82Y10/00;;G06N3/0418;;G06K9/6267;;G06N3/0454;;C01B32/19;;B82Y30/00</t>
         </is>
       </c>
       <c r="R138" t="inlineStr"/>
@@ -15480,7 +15480,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
+          <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -15517,12 +15517,12 @@
       </c>
       <c r="P139" t="inlineStr">
         <is>
-          <t>H01L29/12;;H01L29/15;;H01L27/18;;B82Y10/00;;G06N10/00;;H01L29/66;;B82Y15/00;;H01L39/22</t>
+          <t>B82Y15/00;;B82Y10/00;;H01L27/18;;H01L39/22;;H01L29/15;;H01L29/66;;G06N10/00;;H01L29/12</t>
         </is>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>H01L29/6681;;H01L29/66977;;H01L29/66439;;G06N99/00;;H01L27/18;;H01L29/0692;;H01L29/423;;B82Y15/00;;H01L27/0883;;G06F11/0751;;H01L29/122;;H01L27/0886;;G11C11/44;;G06F11/0724;;B82Y10/00;;G06F15/16;;H01L39/228;;G02F1/01791;;G06N10/00;;H01L29/66984;;H03K19/195;;H01L29/0673;;H01L33/04;;H01L21/02694;;H03K3/38;;H03M13/1575;;G02F1/01725;;G06F1/20;;H03M1/66;;G06F11/0793;;G06N5/003;;H01L29/157;;H01L29/41791;;H01L39/221;;H03M1/34;;G11C19/32</t>
+          <t>G11C11/44;;G02F1/01725;;H01L27/0883;;H01L39/221;;H03M1/34;;H01L29/0692;;G06F11/0724;;H01L29/423;;G06F1/20;;G02F1/01791;;G06N99/00;;H01L21/02694;;H03M13/1575;;H01L39/228;;G06F11/0793;;H03M1/66;;H03K19/195;;H01L29/66439;;H03K3/38;;H01L33/04;;H01L29/122;;H01L29/66977;;H01L29/157;;H01L29/6681;;G06N10/00;;H01L29/66984;;G06F11/0751;;B82Y15/00;;B82Y10/00;;H01L29/0673;;H01L29/41791;;H01L27/18;;G11C19/32;;H01L27/0886;;G06F15/16;;G06N5/003</t>
         </is>
       </c>
       <c r="R139" t="inlineStr"/>
@@ -15591,7 +15591,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
+          <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -15628,12 +15628,12 @@
       </c>
       <c r="P140" t="inlineStr">
         <is>
-          <t>G06N99/00;;H01L27/18;;B82Y15/00;;H01L29/417;;B82Y10/00;;G06F15/16;;H01L27/088;;G06N10/00;;H01L29/66;;H01L39/22;;G02F1/017;;H01L39/02;;H03K19/195;;H01L33/04;;H01L21/02;;H03K3/38;;G06F1/20;;H01L29/12;;H03M1/66;;H01L29/15;;G06F11/07;;H03M1/34;;G11C19/32</t>
+          <t>H03M1/34;;H01L29/417;;G02F1/017;;G06F1/20;;G06N99/00;;H01L39/22;;H03M1/66;;H01L39/02;;H01L21/02;;H01L27/088;;H03K3/38;;H03K19/195;;H01L33/04;;G06F11/07;;H01L29/66;;G06N10/00;;H01L29/12;;B82Y15/00;;B82Y10/00;;H01L27/18;;G11C19/32;;H01L29/15;;G06F15/16</t>
         </is>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>H01L29/6681;;H01L29/66977;;H01L29/66439;;G06N99/00;;H01L27/18;;H01L29/0692;;H01L29/423;;B82Y15/00;;H01L27/0883;;G06F11/0751;;H01L29/122;;H01L27/0886;;G11C11/44;;G06F11/0724;;B82Y10/00;;G06F15/16;;H01L39/228;;G02F1/01791;;G06N10/00;;H01L29/66984;;H03K19/195;;H01L29/0673;;H01L33/04;;H01L21/02694;;H03K3/38;;H03M13/1575;;G02F1/01725;;G06F1/20;;H03M1/66;;G06F11/0793;;G06N5/003;;H01L29/157;;H01L29/41791;;H01L39/221;;H03M1/34;;G11C19/32</t>
+          <t>G11C11/44;;G02F1/01725;;H01L27/0883;;H01L39/221;;H03M1/34;;H01L29/0692;;G06F11/0724;;H01L29/423;;G06F1/20;;G02F1/01791;;G06N99/00;;H01L21/02694;;H03M13/1575;;H01L39/228;;G06F11/0793;;H03M1/66;;H03K19/195;;H01L29/66439;;H03K3/38;;H01L33/04;;H01L29/122;;H01L29/66977;;H01L29/157;;H01L29/6681;;G06N10/00;;H01L29/66984;;G06F11/0751;;B82Y15/00;;B82Y10/00;;H01L29/0673;;H01L29/41791;;H01L27/18;;G11C19/32;;H01L27/0886;;G06F15/16;;G06N5/003</t>
         </is>
       </c>
       <c r="R140" t="inlineStr"/>
@@ -15660,7 +15660,7 @@
       </c>
       <c r="X140" t="inlineStr">
         <is>
-          <t>US 10934163 B2;;US 2019/0393397 A1</t>
+          <t>US 2019/0393397 A1;;US 10934163 B2</t>
         </is>
       </c>
       <c r="Y140" t="inlineStr">
@@ -15702,7 +15702,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
+          <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -15739,12 +15739,12 @@
       </c>
       <c r="P141" t="inlineStr">
         <is>
-          <t>H01L29/12;;H01L29/15;;B82Y10/00;;G06N10/00;;B82Y15/00;;H01L39/22</t>
+          <t>B82Y15/00;;B82Y10/00;;H01L39/22;;H01L29/15;;G06N10/00;;H01L29/12</t>
         </is>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>H01L29/6681;;H01L29/66977;;H01L29/66439;;G06N99/00;;H01L27/18;;H01L29/0692;;H01L29/423;;B82Y15/00;;H01L27/0883;;G06F11/0751;;H01L29/122;;H01L27/0886;;G11C11/44;;G06F11/0724;;B82Y10/00;;G06F15/16;;H01L39/228;;G02F1/01791;;G06N10/00;;H01L29/66984;;H03K19/195;;H01L29/0673;;H01L33/04;;H01L21/02694;;H03K3/38;;H03M13/1575;;G02F1/01725;;G06F1/20;;H03M1/66;;G06F11/0793;;G06N5/003;;H01L29/157;;H01L29/41791;;H01L39/221;;H03M1/34;;G11C19/32</t>
+          <t>G11C11/44;;G02F1/01725;;H01L27/0883;;H01L39/221;;H03M1/34;;H01L29/0692;;G06F11/0724;;H01L29/423;;G06F1/20;;G02F1/01791;;G06N99/00;;H01L21/02694;;H03M13/1575;;H01L39/228;;G06F11/0793;;H03M1/66;;H03K19/195;;H01L29/66439;;H03K3/38;;H01L33/04;;H01L29/122;;H01L29/66977;;H01L29/157;;H01L29/6681;;G06N10/00;;H01L29/66984;;G06F11/0751;;B82Y15/00;;B82Y10/00;;H01L29/0673;;H01L29/41791;;H01L27/18;;G11C19/32;;H01L27/0886;;G06F15/16;;G06N5/003</t>
         </is>
       </c>
       <c r="R141" t="inlineStr"/>
@@ -15813,7 +15813,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
+          <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -15850,12 +15850,12 @@
       </c>
       <c r="P142" t="inlineStr">
         <is>
-          <t>G06N10/00;;H01L29/12;;H01L29/66;;G06N99/00</t>
+          <t>G06N10/00;;H01L29/12;;G06N99/00;;H01L29/66</t>
         </is>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>H01L29/6681;;H01L29/66977;;H01L29/66439;;G06N99/00;;H01L27/18;;H01L29/0692;;H01L29/423;;B82Y15/00;;H01L27/0883;;G06F11/0751;;H01L29/122;;H01L27/0886;;G11C11/44;;G06F11/0724;;B82Y10/00;;G06F15/16;;H01L39/228;;G02F1/01791;;G06N10/00;;H01L29/66984;;H03K19/195;;H01L29/0673;;H01L33/04;;H01L21/02694;;H03K3/38;;H03M13/1575;;G02F1/01725;;G06F1/20;;H03M1/66;;G06F11/0793;;G06N5/003;;H01L29/157;;H01L29/41791;;H01L39/221;;H03M1/34;;G11C19/32</t>
+          <t>G11C11/44;;G02F1/01725;;H01L27/0883;;H01L39/221;;H03M1/34;;H01L29/0692;;G06F11/0724;;H01L29/423;;G06F1/20;;G02F1/01791;;G06N99/00;;H01L21/02694;;H03M13/1575;;H01L39/228;;G06F11/0793;;H03M1/66;;H03K19/195;;H01L29/66439;;H03K3/38;;H01L33/04;;H01L29/122;;H01L29/66977;;H01L29/157;;H01L29/6681;;G06N10/00;;H01L29/66984;;G06F11/0751;;B82Y15/00;;B82Y10/00;;H01L29/0673;;H01L29/41791;;H01L27/18;;G11C19/32;;H01L27/0886;;G06F15/16;;G06N5/003</t>
         </is>
       </c>
       <c r="R142" t="inlineStr"/>
@@ -15924,7 +15924,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
+          <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -15961,12 +15961,12 @@
       </c>
       <c r="P143" t="inlineStr">
         <is>
-          <t>G06N10/00;;H01L29/12;;H01L29/66;;G06N99/00</t>
+          <t>G06N10/00;;H01L29/12;;G06N99/00;;H01L29/66</t>
         </is>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>H01L29/6681;;H01L29/66977;;H01L29/66439;;G06N99/00;;H01L27/18;;H01L29/0692;;H01L29/423;;B82Y15/00;;H01L27/0883;;G06F11/0751;;H01L29/122;;H01L27/0886;;G11C11/44;;G06F11/0724;;B82Y10/00;;G06F15/16;;H01L39/228;;G02F1/01791;;G06N10/00;;H01L29/66984;;H03K19/195;;H01L29/0673;;H01L33/04;;H01L21/02694;;H03K3/38;;H03M13/1575;;G02F1/01725;;G06F1/20;;H03M1/66;;G06F11/0793;;G06N5/003;;H01L29/157;;H01L29/41791;;H01L39/221;;H03M1/34;;G11C19/32</t>
+          <t>G11C11/44;;G02F1/01725;;H01L27/0883;;H01L39/221;;H03M1/34;;H01L29/0692;;G06F11/0724;;H01L29/423;;G06F1/20;;G02F1/01791;;G06N99/00;;H01L21/02694;;H03M13/1575;;H01L39/228;;G06F11/0793;;H03M1/66;;H03K19/195;;H01L29/66439;;H03K3/38;;H01L33/04;;H01L29/122;;H01L29/66977;;H01L29/157;;H01L29/6681;;G06N10/00;;H01L29/66984;;G06F11/0751;;B82Y15/00;;B82Y10/00;;H01L29/0673;;H01L29/41791;;H01L27/18;;G11C19/32;;H01L27/0886;;G06F15/16;;G06N5/003</t>
         </is>
       </c>
       <c r="R143" t="inlineStr"/>
@@ -16035,7 +16035,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
+          <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -16072,12 +16072,12 @@
       </c>
       <c r="P144" t="inlineStr">
         <is>
-          <t>G06N10/00;;H01L29/12;;H01L29/66;;H01L29/775</t>
+          <t>G06N10/00;;H01L29/775;;H01L29/12;;H01L29/66</t>
         </is>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>H01L29/7613;;H01L29/775;;H01L29/66977;;H01L29/122;;H01L29/0673;;G06N20/00;;B82Y10/00;;G06N10/00;;H01L29/423;;H01L29/7391</t>
+          <t>H01L29/122;;B82Y10/00;;H01L29/7613;;H01L29/0673;;H01L29/66977;;H01L29/775;;G06N10/00;;G06N20/00;;H01L29/423;;H01L29/7391</t>
         </is>
       </c>
       <c r="R144" t="inlineStr"/>
@@ -16121,7 +16121,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>076-785-932-751-18X;;080-114-460-350-94X</t>
+          <t>080-114-460-350-94X;;076-785-932-751-18X</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -16146,7 +16146,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
+          <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -16183,12 +16183,12 @@
       </c>
       <c r="P145" t="inlineStr">
         <is>
-          <t>G06N99/00;;H01L27/18;;B82Y15/00;;H01L29/417;;B82Y10/00;;G06F15/16;;H01L27/088;;G06N10/00;;H01L29/66;;G02F1/017;;H01L39/22;;H01L39/02;;H03K19/195;;H01L33/04;;H01L21/02;;H01L39/24;;G06F1/20;;H01L29/12;;H03M1/66;;H01L29/15;;G06F11/07;;H03M1/34;;G11C19/32</t>
+          <t>H03M1/34;;H01L29/417;;G02F1/017;;G06F1/20;;G06N99/00;;H01L39/22;;H03M1/66;;H01L39/02;;H01L21/02;;H01L27/088;;H03K19/195;;H01L33/04;;G06F11/07;;H01L29/66;;G06N10/00;;H01L39/24;;H01L29/12;;B82Y15/00;;B82Y10/00;;H01L27/18;;G11C19/32;;H01L29/15;;G06F15/16</t>
         </is>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>H01L29/6681;;H01L29/66977;;H01L29/66439;;G06N99/00;;H01L27/18;;H01L29/0692;;H01L29/423;;B82Y15/00;;H01L27/0883;;G06F11/0751;;H01L29/122;;H01L27/0886;;G11C11/44;;G06F11/0724;;B82Y10/00;;G06F15/16;;H01L39/228;;G02F1/01791;;G06N10/00;;H01L29/66984;;H03K19/195;;H01L29/0673;;H01L33/04;;H01L21/02694;;H03K3/38;;H03M13/1575;;G02F1/01725;;G06F1/20;;H03M1/66;;G06F11/0793;;G06N5/003;;H01L29/157;;H01L29/41791;;H01L39/221;;H03M1/34;;G11C19/32</t>
+          <t>G11C11/44;;G02F1/01725;;H01L27/0883;;H01L39/221;;H03M1/34;;H01L29/0692;;G06F11/0724;;H01L29/423;;G06F1/20;;G02F1/01791;;G06N99/00;;H01L21/02694;;H03M13/1575;;H01L39/228;;G06F11/0793;;H03M1/66;;H03K19/195;;H01L29/66439;;H03K3/38;;H01L33/04;;H01L29/122;;H01L29/66977;;H01L29/157;;H01L29/6681;;G06N10/00;;H01L29/66984;;G06F11/0751;;B82Y15/00;;B82Y10/00;;H01L29/0673;;H01L29/41791;;H01L27/18;;G11C19/32;;H01L27/0886;;G06F15/16;;G06N5/003</t>
         </is>
       </c>
       <c r="R145" t="inlineStr"/>
@@ -16215,7 +16215,7 @@
       </c>
       <c r="X145" t="inlineStr">
         <is>
-          <t>US 10865106 B2;;US 2019/0393398 A1</t>
+          <t>US 2019/0393398 A1;;US 10865106 B2</t>
         </is>
       </c>
       <c r="Y145" t="inlineStr">
@@ -16237,12 +16237,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>https://lens.org/176-554-120-843-908;;https://lens.org/058-546-302-456-492</t>
+          <t>https://lens.org/058-546-302-456-492;;https://lens.org/176-554-120-843-908</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Semiconductor Process For Quantum Structures With Staircase Active Well Incorporating Shared Gate Control;;Semiconductor process for quantum structures with staircase active well incorporating shared gate control</t>
+          <t>Semiconductor process for quantum structures with staircase active well incorporating shared gate control;;Semiconductor Process For Quantum Structures With Staircase Active Well Incorporating Shared Gate Control</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -16257,7 +16257,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
+          <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -16294,12 +16294,12 @@
       </c>
       <c r="P146" t="inlineStr">
         <is>
-          <t>G06N10/00;;H01L29/12;;H01L29/775;;G02F1/017</t>
+          <t>G02F1/017;;H01L29/775;;H01L29/12;;G06N10/00</t>
         </is>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>G02F1/01725;;H01L29/7613;;H01L29/775;;H01L29/66977;;H01L29/122;;G06N5/003;;H01L29/0673;;B82Y10/00;;G06N10/00;;H01L29/423;;H01L29/7391</t>
+          <t>H01L29/122;;B82Y10/00;;G02F1/01725;;H01L29/7613;;H01L29/0673;;H01L29/66977;;H01L29/775;;G06N10/00;;H01L29/423;;H01L29/7391;;G06N5/003</t>
         </is>
       </c>
       <c r="R146" t="inlineStr"/>
@@ -16326,7 +16326,7 @@
       </c>
       <c r="X146" t="inlineStr">
         <is>
-          <t>US 10861940 B2;;US 2020/0227522 A1</t>
+          <t>US 2020/0227522 A1;;US 10861940 B2</t>
         </is>
       </c>
       <c r="Y146" t="inlineStr">
@@ -16348,12 +16348,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>https://lens.org/126-784-143-304-325;;https://lens.org/056-475-461-942-123</t>
+          <t>https://lens.org/056-475-461-942-123;;https://lens.org/126-784-143-304-325</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Semiconductor controlled quantum annealing interaction gate;;SEMICONDUCTOR CONTROLLED QUANTUM ANNEALING INTERACTION GATE</t>
+          <t>SEMICONDUCTOR CONTROLLED QUANTUM ANNEALING INTERACTION GATE;;Semiconductor controlled quantum annealing interaction gate</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -16368,7 +16368,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
+          <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -16405,12 +16405,12 @@
       </c>
       <c r="P147" t="inlineStr">
         <is>
-          <t>H01L29/12;;H03K19/195;;G06N99/00;;H01L33/04;;H01L21/02;;B82Y10/00;;G06N10/00;;H01L29/66;;G02F1/017</t>
+          <t>H01L33/04;;G06N99/00;;B82Y10/00;;G02F1/017;;H03K19/195;;H01L29/66;;G06N10/00;;H01L21/02;;H01L29/12</t>
         </is>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>H01L29/6681;;H01L29/66977;;H01L29/66439;;G06N99/00;;H01L27/18;;H01L29/0692;;H01L29/423;;B82Y15/00;;H01L27/0883;;G06F11/0751;;H01L29/122;;H01L27/0886;;G11C11/44;;G06F11/0724;;B82Y10/00;;G06F15/16;;H01L39/228;;G02F1/01791;;G06N10/00;;H01L29/66984;;H03K19/195;;H01L29/0673;;H01L33/04;;H01L21/02694;;H03K3/38;;H03M13/1575;;G02F1/01725;;G06F1/20;;H03M1/66;;G06F11/0793;;G06N5/003;;H01L29/157;;H01L29/41791;;H01L39/221;;H03M1/34;;G11C19/32</t>
+          <t>G11C11/44;;G02F1/01725;;H01L27/0883;;H01L39/221;;H03M1/34;;H01L29/0692;;G06F11/0724;;H01L29/423;;G06F1/20;;G02F1/01791;;G06N99/00;;H01L21/02694;;H03M13/1575;;H01L39/228;;G06F11/0793;;H03M1/66;;H03K19/195;;H01L29/66439;;H03K3/38;;H01L33/04;;H01L29/122;;H01L29/66977;;H01L29/157;;H01L29/6681;;G06N10/00;;H01L29/66984;;G06F11/0751;;B82Y15/00;;B82Y10/00;;H01L29/0673;;H01L29/41791;;H01L27/18;;G11C19/32;;H01L27/0886;;G06F15/16;;G06N5/003</t>
         </is>
       </c>
       <c r="R147" t="inlineStr"/>
@@ -16459,12 +16459,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>https://lens.org/103-370-753-926-944;;https://lens.org/163-554-660-882-527</t>
+          <t>https://lens.org/163-554-660-882-527;;https://lens.org/103-370-753-926-944</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>SEMICONDUCTOR CONTROLLED QUANTUM SWAP INTERACTION GATE;;Semiconductor controlled quantum swap interaction gate</t>
+          <t>Semiconductor controlled quantum swap interaction gate;;SEMICONDUCTOR CONTROLLED QUANTUM SWAP INTERACTION GATE</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -16479,7 +16479,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
+          <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -16516,12 +16516,12 @@
       </c>
       <c r="P148" t="inlineStr">
         <is>
-          <t>G06N99/00;;H01L27/18;;B82Y15/00;;H01L29/417;;B82Y10/00;;G06F15/16;;H01L27/088;;G06N10/00;;H01L29/66;;G02F1/017;;H01L39/22;;H01L39/02;;H03K19/195;;H01L33/04;;H01L21/02;;H01L39/24;;G06F1/20;;H01L29/12;;H03M1/66;;H01L29/15;;G06F11/07;;H03M1/34;;G11C19/32</t>
+          <t>H03M1/34;;H01L29/417;;G02F1/017;;G06F1/20;;G06N99/00;;H01L39/22;;H03M1/66;;H01L39/02;;H01L21/02;;H01L27/088;;H03K19/195;;H01L33/04;;G06F11/07;;H01L29/66;;G06N10/00;;H01L39/24;;H01L29/12;;B82Y15/00;;B82Y10/00;;H01L27/18;;G11C19/32;;H01L29/15;;G06F15/16</t>
         </is>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>H01L29/6681;;H01L29/66977;;H01L29/66439;;G06N99/00;;H01L27/18;;H01L29/0692;;H01L29/423;;B82Y15/00;;H01L27/0883;;G06F11/0751;;H01L29/122;;H01L27/0886;;G11C11/44;;G06F11/0724;;B82Y10/00;;G06F15/16;;H01L39/228;;G02F1/01791;;G06N10/00;;H01L29/66984;;H03K19/195;;H01L29/0673;;H01L33/04;;H01L21/02694;;H03K3/38;;H03M13/1575;;G02F1/01725;;G06F1/20;;H03M1/66;;G06F11/0793;;G06N5/003;;H01L29/157;;H01L29/41791;;H01L39/221;;H03M1/34;;G11C19/32</t>
+          <t>G11C11/44;;G02F1/01725;;H01L27/0883;;H01L39/221;;H03M1/34;;H01L29/0692;;G06F11/0724;;H01L29/423;;G06F1/20;;G02F1/01791;;G06N99/00;;H01L21/02694;;H03M13/1575;;H01L39/228;;G06F11/0793;;H03M1/66;;H03K19/195;;H01L29/66439;;H03K3/38;;H01L33/04;;H01L29/122;;H01L29/66977;;H01L29/157;;H01L29/6681;;G06N10/00;;H01L29/66984;;G06F11/0751;;B82Y15/00;;B82Y10/00;;H01L29/0673;;H01L29/41791;;H01L27/18;;G11C19/32;;H01L27/0886;;G06F15/16;;G06N5/003</t>
         </is>
       </c>
       <c r="R148" t="inlineStr"/>
@@ -16548,7 +16548,7 @@
       </c>
       <c r="X148" t="inlineStr">
         <is>
-          <t>US 10800654 B2;;US 2019/0393399 A1</t>
+          <t>US 2019/0393399 A1;;US 10800654 B2</t>
         </is>
       </c>
       <c r="Y148" t="inlineStr">
@@ -16590,7 +16590,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
+          <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -16627,12 +16627,12 @@
       </c>
       <c r="P149" t="inlineStr">
         <is>
-          <t>G06N10/00;;H01L29/12;;H01L29/66;;G06N99/00</t>
+          <t>G06N10/00;;H01L29/12;;G06N99/00;;H01L29/66</t>
         </is>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>H01L29/6681;;H01L29/66977;;H01L29/66439;;G06N99/00;;H01L27/18;;H01L29/0692;;H01L29/423;;B82Y15/00;;H01L27/0883;;G06F11/0751;;H01L29/122;;H01L27/0886;;G11C11/44;;G06F11/0724;;B82Y10/00;;G06F15/16;;H01L39/228;;G02F1/01791;;G06N10/00;;H01L29/66984;;H03K19/195;;H01L29/0673;;H01L33/04;;H01L21/02694;;H03K3/38;;H03M13/1575;;G02F1/01725;;G06F1/20;;H03M1/66;;G06F11/0793;;G06N5/003;;H01L29/157;;H01L29/41791;;H01L39/221;;H03M1/34;;G11C19/32</t>
+          <t>G11C11/44;;G02F1/01725;;H01L27/0883;;H01L39/221;;H03M1/34;;H01L29/0692;;G06F11/0724;;H01L29/423;;G06F1/20;;G02F1/01791;;G06N99/00;;H01L21/02694;;H03M13/1575;;H01L39/228;;G06F11/0793;;H03M1/66;;H03K19/195;;H01L29/66439;;H03K3/38;;H01L33/04;;H01L29/122;;H01L29/66977;;H01L29/157;;H01L29/6681;;G06N10/00;;H01L29/66984;;G06F11/0751;;B82Y15/00;;B82Y10/00;;H01L29/0673;;H01L29/41791;;H01L27/18;;G11C19/32;;H01L27/0886;;G06F15/16;;G06N5/003</t>
         </is>
       </c>
       <c r="R149" t="inlineStr"/>
@@ -16681,12 +16681,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>https://lens.org/025-836-508-170-818;;https://lens.org/088-249-189-439-03X</t>
+          <t>https://lens.org/088-249-189-439-03X;;https://lens.org/025-836-508-170-818</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Semiconductor controlled quantum ancillary interaction gate;;SEMICONDUCTOR CONTROLLED QUANTUM ANCILLARY INTERACTION GATE</t>
+          <t>SEMICONDUCTOR CONTROLLED QUANTUM ANCILLARY INTERACTION GATE;;Semiconductor controlled quantum ancillary interaction gate</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -16701,7 +16701,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
+          <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -16738,12 +16738,12 @@
       </c>
       <c r="P150" t="inlineStr">
         <is>
-          <t>H01L39/24;;H01L29/12;;H01L39/02;;H01L39/22;;H03K19/195;;B82Y10/00;;G06N10/00;;H01L29/66;;G02F1/017</t>
+          <t>B82Y10/00;;H01L39/22;;G06N10/00;;H01L39/02;;H01L29/66;;G02F1/017;;H01L39/24;;H03K19/195;;H01L29/12</t>
         </is>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>H01L29/6681;;H01L29/66977;;H01L29/66439;;G06N99/00;;H01L27/18;;H01L29/0692;;H01L29/423;;B82Y15/00;;H01L27/0883;;G06F11/0751;;H01L29/122;;H01L27/0886;;G11C11/44;;G06F11/0724;;B82Y10/00;;G06F15/16;;H01L39/228;;G02F1/01791;;G06N10/00;;H01L29/66984;;H03K19/195;;H01L29/0673;;H01L33/04;;H01L21/02694;;H03K3/38;;H03M13/1575;;G02F1/01725;;G06F1/20;;H03M1/66;;G06F11/0793;;G06N5/003;;H01L29/157;;H01L29/41791;;H01L39/221;;H03M1/34;;G11C19/32</t>
+          <t>G11C11/44;;G02F1/01725;;H01L27/0883;;H01L39/221;;H03M1/34;;H01L29/0692;;G06F11/0724;;H01L29/423;;G06F1/20;;G02F1/01791;;G06N99/00;;H01L21/02694;;H03M13/1575;;H01L39/228;;G06F11/0793;;H03M1/66;;H03K19/195;;H01L29/66439;;H03K3/38;;H01L33/04;;H01L29/122;;H01L29/66977;;H01L29/157;;H01L29/6681;;G06N10/00;;H01L29/66984;;G06F11/0751;;B82Y15/00;;B82Y10/00;;H01L29/0673;;H01L29/41791;;H01L27/18;;G11C19/32;;H01L27/0886;;G06F15/16;;G06N5/003</t>
         </is>
       </c>
       <c r="R150" t="inlineStr"/>
@@ -16812,7 +16812,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
+          <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -16849,12 +16849,12 @@
       </c>
       <c r="P151" t="inlineStr">
         <is>
-          <t>H03M1/66;;H01L27/18;;B82Y10/00;;H01L27/088;;G06N10/00;;B82Y15/00;;H01L39/22</t>
+          <t>B82Y15/00;;B82Y10/00;;H01L27/18;;H01L39/22;;H03M1/66;;G06N10/00;;H01L27/088</t>
         </is>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>H01L29/6681;;H01L29/66977;;H01L29/66439;;G06N99/00;;H01L27/18;;H01L29/0692;;H01L29/423;;B82Y15/00;;H01L27/0883;;G06F11/0751;;H01L29/122;;H01L27/0886;;G11C11/44;;G06F11/0724;;B82Y10/00;;G06F15/16;;H01L39/228;;G02F1/01791;;G06N10/00;;H01L29/66984;;H03K19/195;;H01L29/0673;;H01L33/04;;H01L21/02694;;H03K3/38;;H03M13/1575;;G02F1/01725;;G06F1/20;;H03M1/66;;G06F11/0793;;G06N5/003;;H01L29/157;;H01L29/41791;;H01L39/221;;H03M1/34;;G11C19/32</t>
+          <t>G11C11/44;;G02F1/01725;;H01L27/0883;;H01L39/221;;H03M1/34;;H01L29/0692;;G06F11/0724;;H01L29/423;;G06F1/20;;G02F1/01791;;G06N99/00;;H01L21/02694;;H03M13/1575;;H01L39/228;;G06F11/0793;;H03M1/66;;H03K19/195;;H01L29/66439;;H03K3/38;;H01L33/04;;H01L29/122;;H01L29/66977;;H01L29/157;;H01L29/6681;;G06N10/00;;H01L29/66984;;G06F11/0751;;B82Y15/00;;B82Y10/00;;H01L29/0673;;H01L29/41791;;H01L27/18;;G11C19/32;;H01L27/0886;;G06F15/16;;G06N5/003</t>
         </is>
       </c>
       <c r="R151" t="inlineStr"/>
@@ -16923,7 +16923,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
+          <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -16960,12 +16960,12 @@
       </c>
       <c r="P152" t="inlineStr">
         <is>
-          <t>H01L29/12;;H01L29/417;;B82Y10/00;;G06N10/00;;H01L29/66;;H01L39/22</t>
+          <t>B82Y10/00;;H01L39/22;;H01L29/417;;H01L29/66;;G06N10/00;;H01L29/12</t>
         </is>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>H01L29/6681;;H01L29/66977;;H01L29/66439;;G06N99/00;;H01L27/18;;H01L29/0692;;H01L29/423;;B82Y15/00;;H01L27/0883;;G06F11/0751;;H01L29/122;;H01L27/0886;;G11C11/44;;G06F11/0724;;B82Y10/00;;G06F15/16;;H01L39/228;;G02F1/01791;;G06N10/00;;H01L29/66984;;H03K19/195;;H01L29/0673;;H01L33/04;;H01L21/02694;;H03K3/38;;H03M13/1575;;G02F1/01725;;G06F1/20;;H03M1/66;;G06F11/0793;;G06N5/003;;H01L29/157;;H01L29/41791;;H01L39/221;;H03M1/34;;G11C19/32</t>
+          <t>G11C11/44;;G02F1/01725;;H01L27/0883;;H01L39/221;;H03M1/34;;H01L29/0692;;G06F11/0724;;H01L29/423;;G06F1/20;;G02F1/01791;;G06N99/00;;H01L21/02694;;H03M13/1575;;H01L39/228;;G06F11/0793;;H03M1/66;;H03K19/195;;H01L29/66439;;H03K3/38;;H01L33/04;;H01L29/122;;H01L29/66977;;H01L29/157;;H01L29/6681;;G06N10/00;;H01L29/66984;;G06F11/0751;;B82Y15/00;;B82Y10/00;;H01L29/0673;;H01L29/41791;;H01L27/18;;G11C19/32;;H01L27/0886;;G06F15/16;;G06N5/003</t>
         </is>
       </c>
       <c r="R152" t="inlineStr"/>
@@ -17034,7 +17034,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
+          <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -17071,12 +17071,12 @@
       </c>
       <c r="P153" t="inlineStr">
         <is>
-          <t>H01L29/12;;H01L29/417;;H03M1/34;;B82Y10/00;;G06N10/00;;H01L29/66;;B82Y15/00;;H01L39/22</t>
+          <t>B82Y15/00;;B82Y10/00;;H01L39/22;;H03M1/34;;H01L29/417;;H01L29/66;;G06N10/00;;H01L29/12</t>
         </is>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>H01L29/6681;;H01L29/66977;;H01L29/66439;;G06N99/00;;H01L27/18;;H01L29/0692;;H01L29/423;;B82Y15/00;;H01L27/0883;;G06F11/0751;;H01L29/122;;H01L27/0886;;G11C11/44;;G06F11/0724;;B82Y10/00;;G06F15/16;;H01L39/228;;G02F1/01791;;G06N10/00;;H01L29/66984;;H03K19/195;;H01L29/0673;;H01L33/04;;H01L21/02694;;H03K3/38;;H03M13/1575;;G02F1/01725;;G06F1/20;;H03M1/66;;G06F11/0793;;G06N5/003;;H01L29/157;;H01L29/41791;;H01L39/221;;H03M1/34;;G11C19/32</t>
+          <t>G11C11/44;;G02F1/01725;;H01L27/0883;;H01L39/221;;H03M1/34;;H01L29/0692;;G06F11/0724;;H01L29/423;;G06F1/20;;G02F1/01791;;G06N99/00;;H01L21/02694;;H03M13/1575;;H01L39/228;;G06F11/0793;;H03M1/66;;H03K19/195;;H01L29/66439;;H03K3/38;;H01L33/04;;H01L29/122;;H01L29/66977;;H01L29/157;;H01L29/6681;;G06N10/00;;H01L29/66984;;G06F11/0751;;B82Y15/00;;B82Y10/00;;H01L29/0673;;H01L29/41791;;H01L27/18;;G11C19/32;;H01L27/0886;;G06F15/16;;G06N5/003</t>
         </is>
       </c>
       <c r="R153" t="inlineStr"/>
@@ -17145,7 +17145,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
+          <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -17182,12 +17182,12 @@
       </c>
       <c r="P154" t="inlineStr">
         <is>
-          <t>G06N10/00;;G06F11/07;;G06F1/20</t>
+          <t>G06N10/00;;G06F1/20;;G06F11/07</t>
         </is>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>H01L29/6681;;H01L29/66977;;H01L29/66439;;G06N99/00;;H01L27/18;;H01L29/0692;;H01L29/423;;B82Y15/00;;H01L27/0883;;G06F11/0751;;H01L29/122;;H01L27/0886;;G11C11/44;;G06F11/0724;;B82Y10/00;;G06F15/16;;H01L39/228;;G02F1/01791;;G06N10/00;;H01L29/66984;;H03K19/195;;H01L29/0673;;H01L33/04;;H01L21/02694;;H03K3/38;;H03M13/1575;;G02F1/01725;;G06F1/20;;H03M1/66;;G06F11/0793;;G06N5/003;;H01L29/157;;H01L29/41791;;H01L39/221;;H03M1/34;;G11C19/32</t>
+          <t>G11C11/44;;G02F1/01725;;H01L27/0883;;H01L39/221;;H03M1/34;;H01L29/0692;;G06F11/0724;;H01L29/423;;G06F1/20;;G02F1/01791;;G06N99/00;;H01L21/02694;;H03M13/1575;;H01L39/228;;G06F11/0793;;H03M1/66;;H03K19/195;;H01L29/66439;;H03K3/38;;H01L33/04;;H01L29/122;;H01L29/66977;;H01L29/157;;H01L29/6681;;G06N10/00;;H01L29/66984;;G06F11/0751;;B82Y15/00;;B82Y10/00;;H01L29/0673;;H01L29/41791;;H01L27/18;;G11C19/32;;H01L27/0886;;G06F15/16;;G06N5/003</t>
         </is>
       </c>
       <c r="R154" t="inlineStr"/>
@@ -17256,7 +17256,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
+          <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -17298,7 +17298,7 @@
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>H01L29/6681;;H01L29/66977;;H01L29/66439;;G06N99/00;;H01L27/18;;H01L29/0692;;H01L29/423;;B82Y15/00;;H01L27/0883;;G06F11/0751;;H01L29/122;;H01L27/0886;;G11C11/44;;G06F11/0724;;B82Y10/00;;G06F15/16;;H01L39/228;;G02F1/01791;;G06N10/00;;H01L29/66984;;H03K19/195;;H01L29/0673;;H01L33/04;;H01L21/02694;;H03K3/38;;H03M13/1575;;G02F1/01725;;G06F1/20;;H03M1/66;;G06F11/0793;;G06N5/003;;H01L29/157;;H01L29/41791;;H01L39/221;;H03M1/34;;G11C19/32</t>
+          <t>G11C11/44;;G02F1/01725;;H01L27/0883;;H01L39/221;;H03M1/34;;H01L29/0692;;G06F11/0724;;H01L29/423;;G06F1/20;;G02F1/01791;;G06N99/00;;H01L21/02694;;H03M13/1575;;H01L39/228;;G06F11/0793;;H03M1/66;;H03K19/195;;H01L29/66439;;H03K3/38;;H01L33/04;;H01L29/122;;H01L29/66977;;H01L29/157;;H01L29/6681;;G06N10/00;;H01L29/66984;;G06F11/0751;;B82Y15/00;;B82Y10/00;;H01L29/0673;;H01L29/41791;;H01L27/18;;G11C19/32;;H01L27/0886;;G06F15/16;;G06N5/003</t>
         </is>
       </c>
       <c r="R155" t="inlineStr"/>
@@ -17367,7 +17367,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
+          <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -17409,7 +17409,7 @@
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>H01L29/6681;;H01L29/66977;;H01L29/66439;;G06N99/00;;H01L27/18;;H01L29/0692;;H01L29/423;;B82Y15/00;;H01L27/0883;;G06F11/0751;;H01L29/122;;H01L27/0886;;G11C11/44;;G06F11/0724;;B82Y10/00;;G06F15/16;;H01L39/228;;G02F1/01791;;G06N10/00;;H01L29/66984;;H03K19/195;;H01L29/0673;;H01L33/04;;H01L21/02694;;H03K3/38;;H03M13/1575;;G02F1/01725;;G06F1/20;;H03M1/66;;G06F11/0793;;G06N5/003;;H01L29/157;;H01L29/41791;;H01L39/221;;H03M1/34;;G11C19/32</t>
+          <t>G11C11/44;;G02F1/01725;;H01L27/0883;;H01L39/221;;H03M1/34;;H01L29/0692;;G06F11/0724;;H01L29/423;;G06F1/20;;G02F1/01791;;G06N99/00;;H01L21/02694;;H03M13/1575;;H01L39/228;;G06F11/0793;;H03M1/66;;H03K19/195;;H01L29/66439;;H03K3/38;;H01L33/04;;H01L29/122;;H01L29/66977;;H01L29/157;;H01L29/6681;;G06N10/00;;H01L29/66984;;G06F11/0751;;B82Y15/00;;B82Y10/00;;H01L29/0673;;H01L29/41791;;H01L27/18;;G11C19/32;;H01L27/0886;;G06F15/16;;G06N5/003</t>
         </is>
       </c>
       <c r="R156" t="inlineStr"/>
@@ -17478,7 +17478,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
+          <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -17515,12 +17515,12 @@
       </c>
       <c r="P157" t="inlineStr">
         <is>
-          <t>H01L29/12;;H03K19/195;;B82Y10/00;;G11C19/32;;G06N10/00;;H01L29/66;;G02F1/017</t>
+          <t>B82Y10/00;;G11C19/32;;G06N10/00;;H01L29/66;;G02F1/017;;H03K19/195;;H01L29/12</t>
         </is>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>H01L29/6681;;H01L29/66977;;H01L29/66439;;G06N99/00;;H01L27/18;;H01L29/0692;;H01L29/423;;B82Y15/00;;H01L27/0883;;G06F11/0751;;H01L29/122;;H01L27/0886;;G11C11/44;;G06F11/0724;;B82Y10/00;;G06F15/16;;H01L39/228;;G02F1/01791;;G06N10/00;;H01L29/66984;;H03K19/195;;H01L29/0673;;H01L33/04;;H01L21/02694;;H03K3/38;;H03M13/1575;;G02F1/01725;;G06F1/20;;H03M1/66;;G06F11/0793;;G06N5/003;;H01L29/157;;H01L29/41791;;H01L39/221;;H03M1/34;;G11C19/32</t>
+          <t>G11C11/44;;G02F1/01725;;H01L27/0883;;H01L39/221;;H03M1/34;;H01L29/0692;;G06F11/0724;;H01L29/423;;G06F1/20;;G02F1/01791;;G06N99/00;;H01L21/02694;;H03M13/1575;;H01L39/228;;G06F11/0793;;H03M1/66;;H03K19/195;;H01L29/66439;;H03K3/38;;H01L33/04;;H01L29/122;;H01L29/66977;;H01L29/157;;H01L29/6681;;G06N10/00;;H01L29/66984;;G06F11/0751;;B82Y15/00;;B82Y10/00;;H01L29/0673;;H01L29/41791;;H01L27/18;;G11C19/32;;H01L27/0886;;G06F15/16;;G06N5/003</t>
         </is>
       </c>
       <c r="R157" t="inlineStr"/>
@@ -17547,7 +17547,7 @@
       </c>
       <c r="X157" t="inlineStr">
         <is>
-          <t>US 2019/0392917 A1;;US 10850978 B2</t>
+          <t>US 10850978 B2;;US 2019/0392917 A1</t>
         </is>
       </c>
       <c r="Y157" t="inlineStr">
@@ -17564,7 +17564,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>115-082-311-778-939;;007-410-414-786-063</t>
+          <t>007-410-414-786-063;;115-082-311-778-939</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -17589,7 +17589,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
+          <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -17612,7 +17612,7 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>A1;;B1</t>
+          <t>B1;;A1</t>
         </is>
       </c>
       <c r="M158" t="n">
@@ -17626,12 +17626,12 @@
       </c>
       <c r="P158" t="inlineStr">
         <is>
-          <t>H01L29/12;;H03K19/195;;B82Y10/00;;G06N10/00;;H01L29/66;;G02F1/017</t>
+          <t>B82Y10/00;;G06N10/00;;H01L29/66;;G02F1/017;;H03K19/195;;H01L29/12</t>
         </is>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>H01L29/6681;;H01L29/66977;;H01L29/66439;;G06N99/00;;H01L27/18;;H01L29/0692;;H01L29/423;;B82Y15/00;;H01L27/0883;;G06F11/0751;;H01L29/122;;H01L27/0886;;G11C11/44;;G06F11/0724;;B82Y10/00;;G06F15/16;;H01L39/228;;G02F1/01791;;G06N10/00;;H01L29/66984;;H03K19/195;;H01L29/0673;;H01L33/04;;H01L21/02694;;H03K3/38;;H03M13/1575;;G02F1/01725;;G06F1/20;;H03M1/66;;G06F11/0793;;G06N5/003;;H01L29/157;;H01L29/41791;;H01L39/221;;H03M1/34;;G11C19/32</t>
+          <t>G11C11/44;;G02F1/01725;;H01L27/0883;;H01L39/221;;H03M1/34;;H01L29/0692;;G06F11/0724;;H01L29/423;;G06F1/20;;G02F1/01791;;G06N99/00;;H01L21/02694;;H03M13/1575;;H01L39/228;;G06F11/0793;;H03M1/66;;H03K19/195;;H01L29/66439;;H03K3/38;;H01L33/04;;H01L29/122;;H01L29/66977;;H01L29/157;;H01L29/6681;;G06N10/00;;H01L29/66984;;G06F11/0751;;B82Y15/00;;B82Y10/00;;H01L29/0673;;H01L29/41791;;H01L27/18;;G11C19/32;;H01L27/0886;;G06F15/16;;G06N5/003</t>
         </is>
       </c>
       <c r="R158" t="inlineStr"/>
@@ -17675,7 +17675,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>020-566-032-583-940;;182-693-748-192-677</t>
+          <t>182-693-748-192-677;;020-566-032-583-940</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -17685,7 +17685,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Quantum shift register based ancillary quantum interaction gates;;QUANTUM SHIFT REGISTER BASED ANCILLARY QUANTUM INTERACTION GATES</t>
+          <t>QUANTUM SHIFT REGISTER BASED ANCILLARY QUANTUM INTERACTION GATES;;Quantum shift register based ancillary quantum interaction gates</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -17700,7 +17700,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
+          <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -17742,7 +17742,7 @@
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>H01L29/6681;;H01L29/66977;;H01L29/66439;;G06N99/00;;H01L27/18;;H01L29/0692;;H01L29/423;;B82Y15/00;;H01L27/0883;;G06F11/0751;;H01L29/122;;H01L27/0886;;G11C11/44;;G06F11/0724;;B82Y10/00;;G06F15/16;;H01L39/228;;G02F1/01791;;G06N10/00;;H01L29/66984;;H03K19/195;;H01L29/0673;;H01L33/04;;H01L21/02694;;H03K3/38;;H03M13/1575;;G02F1/01725;;G06F1/20;;H03M1/66;;G06F11/0793;;G06N5/003;;H01L29/157;;H01L29/41791;;H01L39/221;;H03M1/34;;G11C19/32</t>
+          <t>G11C11/44;;G02F1/01725;;H01L27/0883;;H01L39/221;;H03M1/34;;H01L29/0692;;G06F11/0724;;H01L29/423;;G06F1/20;;G02F1/01791;;G06N99/00;;H01L21/02694;;H03M13/1575;;H01L39/228;;G06F11/0793;;H03M1/66;;H03K19/195;;H01L29/66439;;H03K3/38;;H01L33/04;;H01L29/122;;H01L29/66977;;H01L29/157;;H01L29/6681;;G06N10/00;;H01L29/66984;;G06F11/0751;;B82Y15/00;;B82Y10/00;;H01L29/0673;;H01L29/41791;;H01L27/18;;G11C19/32;;H01L27/0886;;G06F15/16;;G06N5/003</t>
         </is>
       </c>
       <c r="R159" t="inlineStr"/>
@@ -17769,7 +17769,7 @@
       </c>
       <c r="X159" t="inlineStr">
         <is>
-          <t>US 2019/0392912 A1;;US 10562764 B2</t>
+          <t>US 10562764 B2;;US 2019/0392912 A1</t>
         </is>
       </c>
       <c r="Y159" t="inlineStr">
@@ -17786,12 +17786,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>155-365-488-382-607;;079-188-284-728-507</t>
+          <t>079-188-284-728-507;;155-365-488-382-607</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>https://lens.org/079-188-284-728-507;;https://lens.org/155-365-488-382-607</t>
+          <t>https://lens.org/155-365-488-382-607;;https://lens.org/079-188-284-728-507</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -17811,7 +17811,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
+          <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -17853,7 +17853,7 @@
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>H01L29/6681;;H01L29/66977;;H01L29/66439;;G06N99/00;;H01L27/18;;H01L29/0692;;H01L29/423;;B82Y15/00;;H01L27/0883;;G06F11/0751;;H01L29/122;;H01L27/0886;;G11C11/44;;G06F11/0724;;B82Y10/00;;G06F15/16;;H01L39/228;;G02F1/01791;;G06N10/00;;H01L29/66984;;H03K19/195;;H01L29/0673;;H01L33/04;;H01L21/02694;;H03K3/38;;H03M13/1575;;G02F1/01725;;G06F1/20;;H03M1/66;;G06F11/0793;;G06N5/003;;H01L29/157;;H01L29/41791;;H01L39/221;;H03M1/34;;G11C19/32</t>
+          <t>G11C11/44;;G02F1/01725;;H01L27/0883;;H01L39/221;;H03M1/34;;H01L29/0692;;G06F11/0724;;H01L29/423;;G06F1/20;;G02F1/01791;;G06N99/00;;H01L21/02694;;H03M13/1575;;H01L39/228;;G06F11/0793;;H03M1/66;;H03K19/195;;H01L29/66439;;H03K3/38;;H01L33/04;;H01L29/122;;H01L29/66977;;H01L29/157;;H01L29/6681;;G06N10/00;;H01L29/66984;;G06F11/0751;;B82Y15/00;;B82Y10/00;;H01L29/0673;;H01L29/41791;;H01L27/18;;G11C19/32;;H01L27/0886;;G06F15/16;;G06N5/003</t>
         </is>
       </c>
       <c r="R160" t="inlineStr"/>
@@ -17897,17 +17897,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>034-522-777-279-242;;151-489-485-071-773</t>
+          <t>151-489-485-071-773;;034-522-777-279-242</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>https://lens.org/034-522-777-279-242;;https://lens.org/151-489-485-071-773</t>
+          <t>https://lens.org/151-489-485-071-773;;https://lens.org/034-522-777-279-242</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>QUANTUM STRUCTURE INCORPORATING ELECTRIC AND MAGNETIC ANGLE CONTROL;;SEMICONDUCTOR CONTROLLED QUANTUM INTERACTION GATES</t>
+          <t>SEMICONDUCTOR CONTROLLED QUANTUM INTERACTION GATES;;QUANTUM STRUCTURE INCORPORATING ELECTRIC AND MAGNETIC ANGLE CONTROL</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -17922,7 +17922,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
+          <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
         </is>
       </c>
       <c r="H161" t="inlineStr"/>
@@ -17960,7 +17960,7 @@
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>H01L29/6681;;H01L29/66977;;H01L29/66439;;G06N99/00;;H01L27/18;;H01L29/0692;;H01L29/423;;B82Y15/00;;H01L27/0883;;G06F11/0751;;H01L29/122;;H01L27/0886;;G11C11/44;;G06F11/0724;;B82Y10/00;;G06F15/16;;H01L39/228;;G02F1/01791;;G06N10/00;;H01L29/66984;;H03K19/195;;H01L29/0673;;H01L33/04;;H01L21/02694;;H03K3/38;;H03M13/1575;;G02F1/01725;;G06F1/20;;H03M1/66;;G06F11/0793;;G06N5/003;;H01L29/157;;H01L29/41791;;H01L39/221;;H03M1/34;;G11C19/32</t>
+          <t>G11C11/44;;G02F1/01725;;H01L27/0883;;H01L39/221;;H03M1/34;;H01L29/0692;;G06F11/0724;;H01L29/423;;G06F1/20;;G02F1/01791;;G06N99/00;;H01L21/02694;;H03M13/1575;;H01L39/228;;G06F11/0793;;H03M1/66;;H03K19/195;;H01L29/66439;;H03K3/38;;H01L33/04;;H01L29/122;;H01L29/66977;;H01L29/157;;H01L29/6681;;G06N10/00;;H01L29/66984;;G06F11/0751;;B82Y15/00;;B82Y10/00;;H01L29/0673;;H01L29/41791;;H01L27/18;;G11C19/32;;H01L27/0886;;G06F15/16;;G06N5/003</t>
         </is>
       </c>
       <c r="R161" t="inlineStr"/>
@@ -18066,12 +18066,12 @@
       </c>
       <c r="P162" t="inlineStr">
         <is>
-          <t>G06N20/00;;G06N10/00;;B82Y10/00;;G06N7/00</t>
+          <t>G06N7/00;;G06N10/00;;G06N20/00;;B82Y10/00</t>
         </is>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>G06N7/005;;G06N10/00;;B82Y10/00;;G06N20/00</t>
+          <t>B82Y10/00;;G06N20/00;;G06N7/005;;G06N10/00</t>
         </is>
       </c>
       <c r="R162" t="inlineStr"/>
@@ -18140,7 +18140,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>TEZAK NIKOLAS ANTON;;DA SILVA MARCUS PALMER;;SMITH ROBERT STANLEY;;WILSON CHRISTOPHER MOGAN</t>
+          <t>TEZAK NIKOLAS ANTON;;DA SILVA MARCUS PALMER;;WILSON CHRISTOPHER MOGAN;;SMITH ROBERT STANLEY</t>
         </is>
       </c>
       <c r="H163" t="inlineStr"/>
@@ -18178,7 +18178,7 @@
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>G06N10/00;;G06N20/10;;B82Y10/00</t>
+          <t>B82Y10/00;;G06N10/00;;G06N20/10</t>
         </is>
       </c>
       <c r="R163" t="inlineStr"/>
@@ -18247,7 +18247,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>OSBORN CHRISTOPHER BUTLER;;TEZAK NIKOLAS ANTON;;KARALEKAS PETER JONATHAN;;SMITH ROBERT STANLEY;;LYNCH ADAM DAVID;;PETERSON ERIC CHRISTOPHER;;HEIDEL STEVEN</t>
+          <t>TEZAK NIKOLAS ANTON;;PETERSON ERIC CHRISTOPHER;;KARALEKAS PETER JONATHAN;;LYNCH ADAM DAVID;;SMITH ROBERT STANLEY;;HEIDEL STEVEN;;OSBORN CHRISTOPHER BUTLER</t>
         </is>
       </c>
       <c r="H164" t="inlineStr"/>
@@ -18285,7 +18285,7 @@
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>G06N10/00;;B82Y10/00;;G06N5/04</t>
+          <t>B82Y10/00;;G06N5/04;;G06N10/00</t>
         </is>
       </c>
       <c r="R164" t="inlineStr"/>
@@ -18350,7 +18350,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>OSBORN CHRISTOPHER BUTLER;;TEZAK NIKOLAS ANTON;;KARALEKAS PETER JONATHAN;;SMITH ROBERT STANLEY;;LYNCH ADAM DAVID;;PETERSON ERIC CHRISTOPHER;;HEIDEL STEVEN</t>
+          <t>TEZAK NIKOLAS ANTON;;PETERSON ERIC CHRISTOPHER;;KARALEKAS PETER JONATHAN;;LYNCH ADAM DAVID;;SMITH ROBERT STANLEY;;HEIDEL STEVEN;;OSBORN CHRISTOPHER BUTLER</t>
         </is>
       </c>
       <c r="H165" t="inlineStr"/>
@@ -18388,7 +18388,7 @@
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>G06N10/00;;B82Y10/00;;G06N5/04</t>
+          <t>B82Y10/00;;G06N5/04;;G06N10/00</t>
         </is>
       </c>
       <c r="R165" t="inlineStr"/>
@@ -18457,7 +18457,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>WANG SHENGTAO;;PICHLER HANNES;;CHOI SOONWON;;ZHOU LEO;;LUKIN MIKHAIL</t>
+          <t>LUKIN MIKHAIL;;WANG SHENGTAO;;ZHOU LEO;;PICHLER HANNES;;CHOI SOONWON</t>
         </is>
       </c>
       <c r="H166" t="inlineStr"/>
@@ -18490,12 +18490,12 @@
       </c>
       <c r="P166" t="inlineStr">
         <is>
-          <t>H01L29/06;;G06F15/78;;G06N99/00;;H01L21/00</t>
+          <t>H01L21/00;;G06F15/78;;G06N99/00;;H01L29/06</t>
         </is>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>G06N10/00;;B82Y10/00;;G06N5/003</t>
+          <t>B82Y10/00;;G06N10/00;;G06N5/003</t>
         </is>
       </c>
       <c r="R166" t="inlineStr"/>
@@ -18539,7 +18539,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>109-030-363-938-699;;004-166-881-687-223</t>
+          <t>004-166-881-687-223;;109-030-363-938-699</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -18564,7 +18564,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>WANG SHENGTAO;;PICHLER HANNES;;ZHOU LEO XIANGYU;;CHOI SOONWON;;LUKIN MIKHAIL D</t>
+          <t>WANG SHENGTAO;;PICHLER HANNES;;CHOI SOONWON;;ZHOU LEO XIANGYU;;LUKIN MIKHAIL D</t>
         </is>
       </c>
       <c r="H167" t="inlineStr"/>
@@ -18573,7 +18573,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>CA;;EP</t>
+          <t>EP;;CA</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -18597,12 +18597,12 @@
       </c>
       <c r="P167" t="inlineStr">
         <is>
-          <t>H01L29/06;;G06F15/78;;G06N99/00;;H01L21/00</t>
+          <t>H01L21/00;;G06F15/78;;G06N99/00;;H01L29/06</t>
         </is>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>G06N10/00;;B82Y10/00;;G06N5/003</t>
+          <t>B82Y10/00;;G06N10/00;;G06N5/003</t>
         </is>
       </c>
       <c r="R167" t="inlineStr"/>
@@ -18629,7 +18629,7 @@
       </c>
       <c r="X167" t="inlineStr">
         <is>
-          <t>EP 3844631 A1;;CA 3108560 A1</t>
+          <t>CA 3108560 A1;;EP 3844631 A1</t>
         </is>
       </c>
       <c r="Y167" t="inlineStr">
@@ -18671,7 +18671,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>PETERSON ERIC CHRISTOPHER;;RIGETTI CHAD TYLER;;TEZAK NIKOLAS ANTON;;SMITH ROBERT STANLEY;;JONES GLENN;;REAGOR MATTHEW J;;RUST MICHAEL;;DESAI ANAND</t>
+          <t>PETERSON ERIC CHRISTOPHER;;RIGETTI CHAD TYLER;;TEZAK NIKOLAS ANTON;;JONES GLENN;;SMITH ROBERT STANLEY;;REAGOR MATTHEW J;;DESAI ANAND;;RUST MICHAEL</t>
         </is>
       </c>
       <c r="H168" t="inlineStr"/>
@@ -18709,7 +18709,7 @@
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>G06N5/022;;B82Y10/00;;G06N5/003;;G06N10/00</t>
+          <t>B82Y10/00;;G06N10/00;;G06N5/022;;G06N5/003</t>
         </is>
       </c>
       <c r="R168" t="inlineStr"/>
@@ -18753,12 +18753,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>181-007-346-539-851;;092-853-485-533-675</t>
+          <t>092-853-485-533-675;;181-007-346-539-851</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>https://lens.org/092-853-485-533-675;;https://lens.org/181-007-346-539-851</t>
+          <t>https://lens.org/181-007-346-539-851;;https://lens.org/092-853-485-533-675</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -18778,7 +18778,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>KAPOOR ANMOL SINGH;;BHAT SUMRITA;;VASTAREY NIKHIL SURESH;;KOUL RAMAN;;SALAHANDISH RAZIEH;;WANG GANG (A K A JOSEPH);;WANG GANG</t>
+          <t>KAPOOR ANMOL SINGH;;KOUL RAMAN;;WANG GANG (A K A JOSEPH);;BHAT SUMRITA;;SALAHANDISH RAZIEH;;VASTAREY NIKHIL SURESH;;WANG GANG</t>
         </is>
       </c>
       <c r="H169" t="inlineStr"/>
@@ -18787,7 +18787,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>CA;;WO</t>
+          <t>WO;;CA</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -18811,12 +18811,12 @@
       </c>
       <c r="P169" t="inlineStr">
         <is>
-          <t>G16H70/20;;H04W4/38;;G01N27/403;;G06K9/18;;G16H50/20;;H04W4/80;;G06K19/07;;G16H40/67;;H04W4/90;;G06K7/10;;G01N27/416;;G01N27/30;;B82Y15/00</t>
+          <t>G01N27/403;;B82Y15/00;;H04W4/90;;G16H70/20;;H04W4/38;;G06K19/07;;G06K9/18;;G16H40/67;;G01N27/416;;G16H50/20;;G01N27/30;;G06K7/10;;H04W4/80</t>
         </is>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>G16H50/20;;G01N27/3278;;H04W4/02;;H04W4/80;;B82Y30/00;;G16H40/67;;H04W4/90;;G01N33/48785;;H04W4/021;;G16H40/20;;G06K9/2063</t>
+          <t>G01N27/3278;;G06K9/2063;;G16H40/20;;H04W4/90;;H04W4/02;;G16H40/67;;G01N33/48785;;G16H50/20;;B82Y30/00;;H04W4/021;;H04W4/80</t>
         </is>
       </c>
       <c r="R169" t="inlineStr"/>
@@ -18922,12 +18922,12 @@
       </c>
       <c r="P170" t="inlineStr">
         <is>
-          <t>G06N3/06;;B82Y10/00;;G11C13/02</t>
+          <t>B82Y10/00;;G11C13/02;;G06N3/06</t>
         </is>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>G06N3/063;;G06N3/06;;G11C2213/16;;G11C13/004;;G11C2213/35;;G11C13/025;;G11C2213/33;;G11C2213/77;;G11C2213/81;;G11C7/1006;;G11C2213/79;;H01L27/285;;B82Y10/00;;G11C11/54;;G11C13/0069;;H01L51/0048</t>
+          <t>G06N3/06;;G11C11/54;;B82Y10/00;;G11C7/1006;;G06N3/063;;G11C13/025;;G11C2213/33;;H01L27/285;;G11C2213/79;;H01L51/0048;;G11C2213/77;;G11C13/0069;;G11C13/004;;G11C2213/16;;G11C2213/35;;G11C2213/81</t>
         </is>
       </c>
       <c r="R170" t="inlineStr"/>
@@ -18971,12 +18971,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>080-794-601-505-258;;076-221-075-828-336;;095-868-444-209-722</t>
+          <t>080-794-601-505-258;;095-868-444-209-722;;076-221-075-828-336</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>https://lens.org/076-221-075-828-336;;https://lens.org/080-794-601-505-258;;https://lens.org/095-868-444-209-722</t>
+          <t>https://lens.org/095-868-444-209-722;;https://lens.org/076-221-075-828-336;;https://lens.org/080-794-601-505-258</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -18996,7 +18996,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>GERBEN DOORNBOS;;MARCUS JOHANNES HENRICUS VAN DAL;;MAURICIO MANFRINI;;VAN DAL MARCUS JOHANNES HENRICUS;;DOORNBOS GERBEN;;MANFRINI MAURICIO</t>
+          <t>DOORNBOS GERBEN;;MAURICIO MANFRINI;;GERBEN DOORNBOS;;MANFRINI MAURICIO;;VAN DAL MARCUS JOHANNES HENRICUS;;MARCUS JOHANNES HENRICUS VAN DAL</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -19009,17 +19009,17 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>TW;;CN;;US</t>
+          <t>CN;;TW;;US</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Patent Application;;Patent of Addition</t>
+          <t>Patent of Addition;;Patent Application</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>A1;;A</t>
+          <t>A;;A1</t>
         </is>
       </c>
       <c r="M171" t="n">
@@ -19033,12 +19033,12 @@
       </c>
       <c r="P171" t="inlineStr">
         <is>
-          <t>G06N3/063;;G11C13/00;;G11C11/16;;G11C11/56;;H01L27/22;;G06N3/04;;G11C11/54</t>
+          <t>H01L27/22;;G11C11/54;;G11C13/00;;G06N3/063;;G11C11/16;;G11C11/56;;G06N3/04</t>
         </is>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>G06N3/063;;H01L27/222;;G11C11/1675;;G11C11/5685;;G11C13/003;;H01L27/228;;G11C11/1659;;G11C11/5607;;G11C2213/78;;G11C13/0007;;B82Y10/00;;G11C13/0002;;G06N3/04;;G11C11/1697;;G11C11/54;;G06N3/049;;G11C13/0069;;G11C13/0038</t>
+          <t>H01L27/228;;G11C11/1659;;G11C11/1675;;G11C11/1697;;G11C11/54;;G11C11/5607;;G11C13/003;;B82Y10/00;;G06N3/063;;G11C13/0038;;G11C13/0002;;G11C13/0007;;G11C13/0069;;G11C2213/78;;G06N3/049;;H01L27/222;;G06N3/04;;G11C11/5685</t>
         </is>
       </c>
       <c r="R171" t="inlineStr"/>
@@ -19065,12 +19065,12 @@
       </c>
       <c r="X171" t="inlineStr">
         <is>
-          <t>CN 111799294 A;;US 2020/0311524 A1;;TW 202109532 A</t>
+          <t>CN 111799294 A;;TW 202109532 A;;US 2020/0311524 A1</t>
         </is>
       </c>
       <c r="Y171" t="inlineStr">
         <is>
-          <t>CN 202010248805 A;;US 201916371382 A;;TW 109111117 A</t>
+          <t>US 201916371382 A;;TW 109111117 A;;CN 202010248805 A</t>
         </is>
       </c>
     </row>
@@ -19107,7 +19107,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>JAVADIABHARI ALI;;FARO SERTAGE ISMAEL;;LIU PENG;;PISTOIA MARCO;;MARTIN FERNANDEZ FRANCISCO JOSE;;GAMBETTA JAY M</t>
+          <t>PISTOIA MARCO;;LIU PENG;;JAVADIABHARI ALI;;MARTIN FERNANDEZ FRANCISCO JOSE;;FARO SERTAGE ISMAEL;;GAMBETTA JAY M</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -19149,7 +19149,7 @@
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>G06N20/00;;G06N10/00;;B82Y10/00</t>
+          <t>B82Y10/00;;G06N20/00;;G06N10/00</t>
         </is>
       </c>
       <c r="R172" t="inlineStr"/>
@@ -19255,12 +19255,12 @@
       </c>
       <c r="P173" t="inlineStr">
         <is>
-          <t>G06N5/00;;G06N5/02;;G06N10/00</t>
+          <t>G06N5/00;;G06N10/00;;G06N5/02</t>
         </is>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>G06N10/00;;B82Y10/00;;G06N5/003;;G06N5/02</t>
+          <t>B82Y10/00;;G06N5/02;;G06N10/00;;G06N5/003</t>
         </is>
       </c>
       <c r="R173" t="inlineStr"/>
@@ -19292,7 +19292,7 @@
       </c>
       <c r="Y173" t="inlineStr">
         <is>
-          <t>US 201916427080 A;;EP 2020059733 W</t>
+          <t>EP 2020059733 W;;US 201916427080 A</t>
         </is>
       </c>
     </row>
@@ -19371,7 +19371,7 @@
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>G06N10/00;;B82Y10/00;;G06N5/003;;G06N5/02</t>
+          <t>B82Y10/00;;G06N5/02;;G06N10/00;;G06N5/003</t>
         </is>
       </c>
       <c r="R174" t="inlineStr"/>
@@ -19425,7 +19425,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>STACKED RESISTIVE MEMORY WITH INDIVIDUAL SWITCH CONTROL;;Stacked resistive memory with individual switch control</t>
+          <t>Stacked resistive memory with individual switch control;;STACKED RESISTIVE MEMORY WITH INDIVIDUAL SWITCH CONTROL</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -19440,7 +19440,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>REZNICEK ALEXANDER;;HASHEMI POUYA;;ZHANG JINGYUN;;LEE CHOONGHYUN;;ANDO TAKASHI</t>
+          <t>ANDO TAKASHI;;HASHEMI POUYA;;ZHANG JINGYUN;;REZNICEK ALEXANDER;;LEE CHOONGHYUN</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -19477,12 +19477,12 @@
       </c>
       <c r="P175" t="inlineStr">
         <is>
-          <t>G06N3/063;;H01L29/06;;H01L29/786;;H01L27/24;;H01L45/00;;H01L29/423;;H01L29/66</t>
+          <t>G06N3/063;;H01L27/24;;H01L29/786;;H01L29/66;;H01L45/00;;H01L29/423;;H01L29/06</t>
         </is>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>G06N3/063;;H01L29/0653;;H01L29/41725;;H01L45/08;;H01L29/66439;;G06N3/088;;H01L45/16;;H01L45/1253;;B82Y10/00;;G06N3/0635;;H01L29/775;;H01L27/2481;;H01L29/0673;;H01L29/66742;;H01L27/2436;;H01L29/1079;;G06N3/049;;H01L45/146;;H01L29/42392;;H01L45/1233;;H01L29/78696;;H01L45/04;;H01L45/122</t>
+          <t>H01L45/146;;H01L29/1079;;H01L45/1233;;H01L45/122;;H01L29/66742;;H01L27/2481;;H01L45/08;;H01L29/78696;;H01L29/775;;H01L29/66439;;H01L45/04;;G06N3/0635;;H01L27/2436;;H01L29/0653;;H01L45/1253;;G06N3/049;;H01L45/16;;G06N3/088;;H01L29/41725;;H01L29/42392;;B82Y10/00;;G06N3/063;;H01L29/0673</t>
         </is>
       </c>
       <c r="R175" t="inlineStr"/>
@@ -19531,7 +19531,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>https://lens.org/139-250-894-234-554;;https://lens.org/107-070-220-865-019</t>
+          <t>https://lens.org/107-070-220-865-019;;https://lens.org/139-250-894-234-554</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -19551,7 +19551,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>PHAN ANNA T;;GREENBERG DON;;PHAN ANNA</t>
+          <t>PHAN ANNA;;GREENBERG DON;;PHAN ANNA T</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -19588,12 +19588,12 @@
       </c>
       <c r="P176" t="inlineStr">
         <is>
-          <t>G06N20/00;;G06K9/62;;B82Y10/00;;G06N10/00;;G06F15/80</t>
+          <t>G06K9/62;;B82Y10/00;;G06F15/80;;G06N10/00;;G06N20/00</t>
         </is>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>G06F15/803;;G06K9/6223;;G06K9/6215;;G06K9/6259;;G06N20/00;;G06K9/00127;;B82Y10/00;;G06N10/00;;G06K9/6218</t>
+          <t>G06K9/6259;;G06K9/6218;;G06K9/6215;;B82Y10/00;;G06K9/6223;;G06K9/00127;;G06N10/00;;G06N20/00;;G06F15/803</t>
         </is>
       </c>
       <c r="R176" t="inlineStr"/>
@@ -19662,7 +19662,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>ANDO TAKASHI;;HEKMATSHOARTABARI BAHMAN;;REZNICEK ALEXANDER</t>
+          <t>ANDO TAKASHI;;REZNICEK ALEXANDER;;HEKMATSHOARTABARI BAHMAN</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -19699,12 +19699,12 @@
       </c>
       <c r="P177" t="inlineStr">
         <is>
-          <t>G06N3/063;;G06N3/06;;G11C13/00;;H01L29/423;;H01L29/06;;H01L21/28;;H01L29/78;;H01L27/24;;H01L21/02;;H01L45/00;;H01L29/08;;H01L29/66;;H01L29/10</t>
+          <t>H01L29/78;;H01L29/08;;G11C13/00;;H01L29/10;;G06N3/063;;H01L29/06;;H01L27/24;;H01L29/66;;G06N3/06;;H01L45/00;;H01L21/02;;H01L29/423;;H01L21/28</t>
         </is>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>G06N3/063;;G11C2213/32;;H01L29/66439;;H01L45/1683;;G11C11/54;;H01L21/28079;;H01L21/02532;;H01L29/0847;;H01L45/1253;;B82Y10/00;;G06N3/0635;;G11C2213/52;;G06N3/08;;H01L29/66545;;H01L29/775;;G11C13/004;;H01L27/2481;;H01L29/0673;;H01L27/2436;;G11C2213/74;;G06N3/061;;H01L29/1037;;H01L45/146;;H01L29/66795;;G11C13/003;;H01L45/1226;;G11C2213/79;;H01L29/42392;;H01L27/249;;H01L29/785;;G11C13/0007;;H01L45/1233;;H01L29/78696;;H01L45/04;;G11C2213/71</t>
+          <t>H01L21/28079;;H01L45/146;;H01L45/1233;;H01L29/1037;;H01L21/02532;;H01L27/249;;H01L27/2481;;H01L29/0847;;H01L29/78696;;H01L29/775;;G11C2213/32;;G11C13/004;;H01L29/785;;H01L29/66439;;H01L29/66545;;H01L45/04;;G11C2213/79;;G06N3/0635;;G11C2213/74;;H01L27/2436;;H01L45/1253;;G06N3/08;;G11C13/0007;;G11C11/54;;H01L45/1683;;H01L29/42392;;G06N3/061;;G11C13/003;;B82Y10/00;;G11C2213/52;;G06N3/063;;G11C2213/71;;H01L29/0673;;H01L45/1226;;H01L29/66795</t>
         </is>
       </c>
       <c r="R177" t="inlineStr"/>
@@ -19806,12 +19806,12 @@
       </c>
       <c r="P178" t="inlineStr">
         <is>
-          <t>G01Q60/36;;G01Q60/38;;B82Y35/00</t>
+          <t>G01Q60/36;;B82Y35/00;;G01Q60/38</t>
         </is>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>B82Y35/00;;G01Q60/24;;G01B2290/55;;G02F1/3538;;G01Q20/02;;H01S3/10076;;G02F1/29;;G01B9/02003;;G01B9/02;;G01Q60/38;;G01B9/02081;;G01N21/45;;G01B9/02079</t>
+          <t>G01Q60/24;;B82Y35/00;;G01B9/02081;;G01B9/02;;G01Q60/38;;G01N21/45;;G02F1/29;;G01B2290/55;;G01Q20/02;;G02F1/3538;;H01S3/10076;;G01B9/02079;;G01B9/02003</t>
         </is>
       </c>
       <c r="R178" t="inlineStr"/>
@@ -19880,7 +19880,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>RIGETTI CHAD TYLER;;MCKIERNAN KERI ANN;;SMITH ROBERT STANLEY;;ALAM MUHAMMAD SOHAIB;;DAVIS ERIK JOSEPH</t>
+          <t>ALAM MUHAMMAD SOHAIB;;RIGETTI CHAD TYLER;;SMITH ROBERT STANLEY;;MCKIERNAN KERI ANN;;DAVIS ERIK JOSEPH</t>
         </is>
       </c>
       <c r="H179" t="inlineStr"/>
@@ -19913,12 +19913,12 @@
       </c>
       <c r="P179" t="inlineStr">
         <is>
-          <t>G06N10/00;;B82Y10/00;;G06N3/04;;G06N3/08</t>
+          <t>G06N3/08;;G06N10/00;;G06N3/04;;B82Y10/00</t>
         </is>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>G06N7/005;;B82Y10/00;;G06N3/0454;;G06N10/00;;G06N3/006;;G06N3/08</t>
+          <t>B82Y10/00;;G06N3/006;;G06N3/0454;;G06N7/005;;G06N10/00;;G06N3/08</t>
         </is>
       </c>
       <c r="R179" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>RASHIDI MOHAMMAD;;WOLKOW ROBERT;;CROSHAW JEREMIAH</t>
+          <t>RASHIDI MOHAMMAD;;CROSHAW JEREMIAH;;WOLKOW ROBERT</t>
         </is>
       </c>
       <c r="H180" t="inlineStr"/>
@@ -20020,12 +20020,12 @@
       </c>
       <c r="P180" t="inlineStr">
         <is>
-          <t>G06N3/02;;H01L29/02;;B82B3/00;;G01Q30/04;;G06N3/08</t>
+          <t>G01Q30/04;;H01L29/02;;G06N3/08;;G06N3/02;;B82B3/00</t>
         </is>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>G06N3/02;;H01L29/02;;B82B3/00;;G01Q30/04;;G06N3/08</t>
+          <t>G01Q30/04;;H01L29/02;;G06N3/08;;G06N3/02;;B82B3/00</t>
         </is>
       </c>
       <c r="R180" t="inlineStr"/>
@@ -20094,7 +20094,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>RAMPRASAD RAMPI;;CHANDRASEKARAN ANAND;;KIM CHIHO</t>
+          <t>KIM CHIHO;;CHANDRASEKARAN ANAND;;RAMPRASAD RAMPI</t>
         </is>
       </c>
       <c r="H181" t="inlineStr"/>
@@ -20127,12 +20127,12 @@
       </c>
       <c r="P181" t="inlineStr">
         <is>
-          <t>C12Q1/6858;;C12Q1/6869;;B82Y15/00</t>
+          <t>B82Y15/00;;C12Q1/6869;;C12Q1/6858</t>
         </is>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>C12Q1/6858;;C12Q1/6869;;B82Y15/00</t>
+          <t>B82Y15/00;;C12Q1/6869;;C12Q1/6858</t>
         </is>
       </c>
       <c r="R181" t="inlineStr"/>
@@ -20234,12 +20234,12 @@
       </c>
       <c r="P182" t="inlineStr">
         <is>
-          <t>G06N3/00;;B82Y10/00</t>
+          <t>B82Y10/00;;G06N3/00</t>
         </is>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>G06N3/00;;B82Y10/00</t>
+          <t>B82Y10/00;;G06N3/00</t>
         </is>
       </c>
       <c r="R182" t="inlineStr"/>
@@ -20341,12 +20341,12 @@
       </c>
       <c r="P183" t="inlineStr">
         <is>
-          <t>C12Q1/6869;;C12Q1/6813;;G01N27/447;;B82Y15/00;;G01N33/487</t>
+          <t>B82Y15/00;;C12Q1/6813;;G01N27/447;;G01N33/487;;C12Q1/6869</t>
         </is>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>G06N3/123;;C12Q1/682;;G01N33/48721;;G06N3/0454;;B82Y15/00</t>
+          <t>B82Y15/00;;C12Q1/682;;G06N3/123;;G01N33/48721;;G06N3/0454</t>
         </is>
       </c>
       <c r="R183" t="inlineStr"/>
@@ -20415,7 +20415,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>ANSCHUETZ ERIC R;;CAO YUDONG</t>
+          <t>CAO YUDONG;;ANSCHUETZ ERIC R</t>
         </is>
       </c>
       <c r="H184" t="inlineStr"/>
@@ -20453,7 +20453,7 @@
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>G06N10/00;;B82Y10/00;;G06N5/003</t>
+          <t>B82Y10/00;;G06N10/00;;G06N5/003</t>
         </is>
       </c>
       <c r="R184" t="inlineStr"/>
@@ -20522,7 +20522,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>CAO YUDONG;;KATABARWA AMARA;;JOHNSON PETER D;;DALLAIRE-DEMERS PIERRE-LUC;;GONTHIER JEROME FLORIAN</t>
+          <t>DALLAIRE-DEMERS PIERRE-LUC;;KATABARWA AMARA;;GONTHIER JEROME FLORIAN;;JOHNSON PETER D;;CAO YUDONG</t>
         </is>
       </c>
       <c r="H185" t="inlineStr"/>
@@ -20560,7 +20560,7 @@
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>G06N10/00;;B82Y10/00;;G06N5/003</t>
+          <t>B82Y10/00;;G06N10/00;;G06N5/003</t>
         </is>
       </c>
       <c r="R185" t="inlineStr"/>
@@ -20629,7 +20629,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>HERSAM MARK C;;LEE HONG-SUB;;SANGWAN VINOD K</t>
+          <t>LEE HONG-SUB;;HERSAM MARK C;;SANGWAN VINOD K</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -20666,12 +20666,12 @@
       </c>
       <c r="P186" t="inlineStr">
         <is>
-          <t>H01L29/24;;H01L27/12;;H01L29/68;;G06N3/04;;H01L29/66;;H01L29/739;;G06N3/08</t>
+          <t>H01L29/68;;H01L29/24;;H01L29/739;;H01L27/12;;H01L29/66;;G06N3/08;;G06N3/04</t>
         </is>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>H01L29/4908;;G11C2213/53;;H01L29/7831;;H01L29/04;;G06N3/04;;H01L29/685;;G11C11/54;;H01L29/7394;;G11C13/0069;;G11C2213/82;;H01L29/778;;H01L29/24;;H01L29/7839;;B82Y10/00;;G06N3/08;;H01L29/1033;;G11C13/004;;H01L29/0665;;H01L29/78681;;H01L27/127;;G11C13/003;;G11C13/0033;;G11C13/0007;;G11C13/0002;;H01L29/66969;;H01L27/1225;;H01L29/78696</t>
+          <t>G11C2213/82;;H01L29/24;;H01L29/4908;;G11C13/0033;;H01L29/78696;;H01L29/66969;;H01L27/1225;;G11C2213/53;;H01L27/127;;G11C13/0002;;H01L29/7839;;H01L29/7394;;G11C13/004;;G06N3/04;;H01L29/78681;;H01L29/04;;H01L29/0665;;H01L29/7831;;G11C13/0069;;G06N3/08;;H01L29/778;;G11C13/0007;;H01L29/685;;G11C11/54;;G11C13/003;;B82Y10/00;;H01L29/1033</t>
         </is>
       </c>
       <c r="R186" t="inlineStr"/>

--- a/tests/integration/out/ai-and-nanotech-families_not_extended.xlsx
+++ b/tests/integration/out/ai-and-nanotech-families_not_extended.xlsx
@@ -573,7 +573,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>142-026-074-104-094;;051-636-558-895-901</t>
+          <t>051-636-558-895-901;;142-026-074-104-094</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -636,7 +636,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>G06N20/00;;H01L27/18;;F41J7/04;;B82Y10/00;;F41J5/18;;F41J9/02;;A63F9/0204;;G06N10/00;;H03K3/38;;F41J1/10</t>
+          <t>H01L27/18;;A63F9/0204;;F41J7/04;;F41J5/18;;G06N20/00;;B82Y10/00;;G06N10/00;;H03K3/38;;F41J9/02;;F41J1/10</t>
         </is>
       </c>
       <c r="R2" t="inlineStr"/>
@@ -748,7 +748,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>G06N3/126;;B82Y10/00;;G06N99/00;;G06N10/00;;G06N7/005;;G06F9/45504</t>
+          <t>B82Y10/00;;G06N7/005;;G06N10/00;;G06N3/126;;G06N99/00;;G06F9/45504</t>
         </is>
       </c>
       <c r="R3" t="inlineStr"/>
@@ -797,7 +797,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>168-357-791-484-886;;056-380-748-308-005</t>
+          <t>056-380-748-308-005;;168-357-791-484-886</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -860,7 +860,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>G06N20/00;;G06N5/003;;B82Y10/00;;G06N10/00;;G16C10/00</t>
+          <t>G06N5/003;;G16C10/00;;G06N20/00;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="R4" t="inlineStr"/>
@@ -892,7 +892,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>AU 2019/283845 B2;;AU 2019/283845 A1</t>
+          <t>AU 2019/283845 A1;;AU 2019/283845 B2</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -967,12 +967,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>G06N99/00;;G06N3/063</t>
+          <t>G06N3/063;;G06N99/00</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>G06N20/00;;G06N3/08;;B82Y10/00;;H04L9/0852;;G06N10/00;;H04L2209/34;;G06N3/063</t>
+          <t>G06N3/063;;G06N20/00;;B82Y10/00;;G06N10/00;;H04L2209/34;;G06N3/08;;H04L9/0852</t>
         </is>
       </c>
       <c r="R5" t="inlineStr"/>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>NEVEN HARTMUT;;NIU YUEZHEN;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM</t>
+          <t>SMELYANSKIY VADIM;;NIU YUEZHEN;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -1079,12 +1079,12 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>G06N99/00;;G06N3/08;;G06N3/04;;G06N3/00</t>
+          <t>G06N3/08;;G06N3/04;;G06N3/00;;G06N99/00</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>G06N3/08;;B82Y10/00;;G06N3/0454;;G06N3/006;;G06N10/00;;G06N3/084</t>
+          <t>G06N3/084;;G06N3/0454;;B82Y10/00;;G06N10/00;;G06N3/08;;G06N3/006</t>
         </is>
       </c>
       <c r="R6" t="inlineStr"/>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>원자 규정 구조들 내의 단전자들의 진전의 개시 및 감시;;INITIATING AND MONITORING THE EVOLUTION OF SINGLE ELECTRONS WITHIN ATOM-DEFINED STRUCTURES</t>
+          <t>INITIATING AND MONITORING THE EVOLUTION OF SINGLE ELECTRONS WITHIN ATOM-DEFINED STRUCTURES;;원자 규정 구조들 내의 단전자들의 진전의 개시 및 감시</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>WOLKOW ROBERT A;;DIENEL THOMAS;;WOLKOW ROBERT;;WALUS CONRAD;;LIVADARU LUCIAN;;VINE WYATT;;WALUS KONRAD;;HUFF TALEANA;;RASHIDI MOHAMMAD;;RETALLICK JACOB</t>
+          <t>WALUS CONRAD;;WOLKOW ROBERT;;HUFF TALEANA;;WOLKOW ROBERT A;;WALUS KONRAD;;DIENEL THOMAS;;RETALLICK JACOB;;LIVADARU LUCIAN;;RASHIDI MOHAMMAD;;VINE WYATT</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>KR;;CA</t>
+          <t>CA;;KR</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1191,12 +1191,12 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>B82B3/00;;G06N3/08;;G01Q60/10;;G01Q80/00;;G01Q60/04;;G01Q60/24;;G06N3/063</t>
+          <t>G01Q60/04;;G06N3/063;;G01Q60/10;;G06N3/08;;G01Q80/00;;G01Q60/24;;B82B3/00</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>G01Q70/14;;G06N3/08;;B82Y10/00;;H01L29/7613;;G06N3/0445;;G01Q60/10;;H01L29/66977;;G01Q80/00;;G01Q30/10;;G06N3/04;;G06N7/005;;G01Q60/24;;H01L29/66984;;G06N3/0472;;G06N3/0635;;G06N20/10</t>
+          <t>G06N3/0635;;G06N3/04;;G01Q60/10;;H01L29/66984;;G06N20/10;;G01Q70/14;;G06N3/0445;;B82Y10/00;;G06N7/005;;G06N3/08;;G06N3/0472;;G01Q80/00;;G01Q60/24;;H01L29/66977;;H01L29/7613;;G01Q30/10</t>
         </is>
       </c>
       <c r="R7" t="inlineStr"/>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>CA 3075691 A;;KR 20207010647 A</t>
+          <t>KR 20207010647 A;;CA 3075691 A</t>
         </is>
       </c>
     </row>
@@ -1270,7 +1270,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>DIENEL THOMAS;;LIVADARU LUCIAN;;VINE WYATT;;WALUS KONRAD;;HUFF TALEANA;;RASHIDI MOHAMMAD;;RETALLICK JACOB;;WOLKOW ROBERT</t>
+          <t>WOLKOW ROBERT;;HUFF TALEANA;;WALUS KONRAD;;DIENEL THOMAS;;RETALLICK JACOB;;LIVADARU LUCIAN;;RASHIDI MOHAMMAD;;VINE WYATT</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>G01Q70/14;;G06N3/08;;G01Q60/10;;G06N3/04;;G01Q80/00;;G01Q60/24;;G01Q30/10</t>
+          <t>G06N3/04;;G01Q60/10;;G06N3/08;;G01Q80/00;;G01Q60/24;;G01Q70/14;;G01Q30/10</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>G01Q70/14;;G06N3/08;;B82Y10/00;;H01L29/7613;;G06N3/0445;;G01Q60/10;;H01L29/66977;;G01Q80/00;;G01Q30/10;;G06N3/04;;G06N7/005;;G01Q60/24;;H01L29/66984;;G06N3/0472;;G06N3/0635;;G06N20/10</t>
+          <t>G06N3/0635;;G06N3/04;;G01Q60/10;;H01L29/66984;;G06N20/10;;G01Q70/14;;G06N3/0445;;B82Y10/00;;G06N7/005;;G06N3/08;;G06N3/0472;;G01Q80/00;;G01Q60/24;;H01L29/66977;;H01L29/7613;;G01Q30/10</t>
         </is>
       </c>
       <c r="R8" t="inlineStr"/>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>NABAVI SEYEDFAKHREDDIN;;ZHANG LIHONG</t>
+          <t>ZHANG LIHONG;;NABAVI SEYEDFAKHREDDIN</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1423,12 +1423,12 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>H02N2/00;;H01L41/047;;H02N2/18;;H01L41/113;;H01L41/332;;H01L41/187;;H01L41/316;;H01L41/29</t>
+          <t>H01L41/047;;H02N2/00;;H01L41/332;;H02N2/18;;H01L41/113;;H01L41/187;;H01L41/29;;H01L41/316</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>H01L41/0477;;B81B2203/0307;;B81B2203/058;;H01L41/1136;;H02N2/188;;H02N2/18;;H01L41/332;;H01L41/187;;H01L41/316;;B81B3/0021;;B81B2203/0172;;H01L41/29;;B81B2207/053;;B81B3/0045;;H02N2/22;;B81B2201/032</t>
+          <t>H01L41/0477;;B81B2203/0307;;B81B2207/053;;H02N2/188;;H01L41/332;;B81B2203/058;;H01L41/1136;;B81B2203/0172;;H02N2/18;;B81B2201/032;;H01L41/187;;H02N2/22;;H01L41/29;;H01L41/316;;B81B3/0045;;B81B3/0021</t>
         </is>
       </c>
       <c r="R9" t="inlineStr"/>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>BABBUSH RYAN;;NEVEN HARTMUT</t>
+          <t>NEVEN HARTMUT;;BABBUSH RYAN</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -1532,7 +1532,7 @@
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>G06N20/00;;G06N5/003;;B82Y10/00;;G06N10/00;;G16C10/00</t>
+          <t>G06N5/003;;G16C10/00;;G06N20/00;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="R10" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Huilong Zhu;;Zhengyong Zhu</t>
+          <t>Zhengyong Zhu;;Huilong Zhu</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1643,12 +1643,12 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>H01L29/778;;H01L29/78;;H01L29/04;;H01L29/10;;H01L27/092;;H01L29/423;;H01L21/3105;;H01L29/45;;H01L29/15;;H01L21/8234;;H01L21/324;;H01L29/08;;H01L29/06;;H01L29/417;;H01L29/786;;H01L29/267;;H01L21/3065;;H01L29/775;;H01L21/308;;H01L21/822;;H01L29/165;;B82Y10/00;;H01L21/8238;;H01L21/02;;H01L29/66;;H01L29/205;;H01L21/225</t>
+          <t>H01L29/15;;H01L29/205;;H01L29/786;;H01L21/8238;;H01L21/8234;;H01L29/66;;H01L29/778;;H01L29/10;;H01L21/324;;H01L27/092;;H01L29/267;;H01L29/04;;H01L29/45;;H01L29/417;;B82Y10/00;;H01L29/78;;H01L29/423;;H01L21/225;;H01L21/822;;H01L29/165;;H01L21/3065;;H01L21/02;;H01L21/3105;;H01L29/775;;H01L29/08;;H01L21/308;;H01L29/06</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>H01L21/02532;;H01L29/0649;;H01L21/2252;;H01L21/823842;;H01L21/823475;;H01L29/04;;H01L21/823418;;H01L21/8221;;H01L27/092;;H01L29/152;;H01L29/66431;;H01L29/66742;;H01L21/3083;;H01L21/823871;;H01L21/82345;;H01L29/1054;;H01L21/823807;;H01L29/45;;H01L29/42392;;H01L29/66462;;H01L29/66666;;H01L21/324;;H01L29/66522;;H01L21/823412;;H01L29/1095;;H01L29/0676;;H01L29/1037;;H01L21/02636;;H01L21/823814;;H01L29/6656;;H01L21/823487;;H01L29/267;;H01L29/41741;;H01L29/7827;;H01L21/3065;;H01L29/775;;H01L21/2258;;H01L29/165;;H01L29/42376;;H01L29/66439;;H01L29/7788;;H01L29/78642;;B82Y10/00;;H01L21/31053;;H01L21/823864;;H01L29/66469;;H01L29/205;;H01L29/0847;;H01L21/823885</t>
+          <t>H01L21/2258;;H01L29/66462;;H01L21/823864;;H01L21/823814;;H01L21/31053;;H01L29/205;;H01L29/0676;;H01L29/0847;;H01L21/823807;;H01L29/7788;;H01L29/1054;;H01L21/823487;;H01L21/823885;;H01L29/1037;;H01L29/775;;H01L29/66522;;H01L21/823475;;H01L29/7827;;H01L21/82345;;H01L21/02636;;H01L29/6656;;H01L29/1095;;H01L29/66666;;H01L21/2252;;H01L21/324;;H01L29/66742;;H01L27/092;;H01L29/42376;;H01L29/66469;;H01L29/267;;H01L29/04;;H01L29/78642;;H01L29/42392;;H01L29/45;;H01L29/66431;;B82Y10/00;;H01L21/823842;;H01L21/3083;;H01L21/823871;;H01L29/41741;;H01L21/8221;;H01L21/823418;;H01L29/165;;H01L21/823412;;H01L29/66439;;H01L29/152;;H01L21/02532;;H01L21/3065;;H01L29/0649</t>
         </is>
       </c>
       <c r="R11" t="inlineStr"/>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>US 10468312 B2;;US 10600696 B2</t>
+          <t>US 10600696 B2;;US 10468312 B2</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>125-233-104-570-674;;193-646-676-139-072;;057-198-028-532-936;;092-822-678-884-760;;017-464-399-500-106;;148-957-996-862-565;;009-495-174-886-046;;138-531-128-803-732;;071-221-630-205-102;;032-379-139-877-924;;187-898-763-627-991;;026-589-220-428-569;;060-124-894-271-740;;054-789-299-020-903;;016-694-600-365-485;;061-058-432-093-39X;;015-599-688-450-374;;111-553-910-512-297;;042-086-174-033-990;;065-708-103-684-559;;038-350-964-627-238;;163-664-815-813-540;;031-184-353-637-765;;151-967-050-235-058;;009-060-533-833-438;;007-137-806-748-344;;092-622-226-264-580</t>
+          <t>193-646-676-139-072;;148-957-996-862-565;;015-599-688-450-374;;071-221-630-205-102;;007-137-806-748-344;;092-622-226-264-580;;061-058-432-093-39X;;138-531-128-803-732;;111-553-910-512-297;;042-086-174-033-990;;032-379-139-877-924;;026-589-220-428-569;;009-060-533-833-438;;092-822-678-884-760;;187-898-763-627-991;;163-664-815-813-540;;060-124-894-271-740;;016-694-600-365-485;;151-967-050-235-058;;054-789-299-020-903;;017-464-399-500-106;;065-708-103-684-559;;125-233-104-570-674;;009-495-174-886-046;;038-350-964-627-238;;031-184-353-637-765;;057-198-028-532-936</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1707,7 +1707,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SEMICONDUCTOR DEVICE, METHOD OF MANUFACTURING THE SAME AND ELECTRONIC DEVICE INCLUDING THE DEVICE;;半导体器件及其制造方法及包括该器件的电子设备;;集成电路单元及其制造方法及包括该单元的电子设备;;Semiconductor device and manufacturing method thereof and electronic equipment comprising semiconductor device;;Semiconductor device using stress memory technology, manufacturing method thereof and electronic device;;Semiconductor device, method of manufacturing the same and electronic device including the device;;Integrated circuit unit, manufacturing method thereof and electronic device comprising unit;;利用应力记忆技术的半导体器件及其制造方法及电子设备;;SEMICONDUCTOR DEVICE, METHOD OF MANUFACTURING THE SAME AND ELECTRONIC DEVICE INCLUDING THE SAME;;Semiconductor device, method of manufacturing the same and electronic device including the same;;Semiconductor device, manufacturing method thereof and electronic device comprising device</t>
+          <t>Semiconductor device and manufacturing method thereof and electronic equipment comprising semiconductor device;;半导体器件及其制造方法及包括该器件的电子设备;;Semiconductor device, method of manufacturing the same and electronic device including the same;;集成电路单元及其制造方法及包括该单元的电子设备;;SEMICONDUCTOR DEVICE, METHOD OF MANUFACTURING THE SAME AND ELECTRONIC DEVICE INCLUDING THE SAME;;Semiconductor device, manufacturing method thereof and electronic device comprising device;;利用应力记忆技术的半导体器件及其制造方法及电子设备;;SEMICONDUCTOR DEVICE, METHOD OF MANUFACTURING THE SAME AND ELECTRONIC DEVICE INCLUDING THE DEVICE;;Semiconductor device, method of manufacturing the same and electronic device including the device;;Integrated circuit unit, manufacturing method thereof and electronic device comprising unit;;Semiconductor device using stress memory technology, manufacturing method thereof and electronic device</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1717,12 +1717,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>中国科学院微电子研究所;;INST OF MICROELECTRONICS CAS;;INST MICROELECTRONICS CAS</t>
+          <t>中国科学院微电子研究所;;INST MICROELECTRONICS CAS;;INST OF MICROELECTRONICS CAS</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>亨利·H·阿达姆松;;王桂磊;;朱慧珑;;朱正勇;;ZHANG YANBO;;ZHU HUILONG;;张严波;;HENRY H ADAMSON;;ZHU ZHENGYONG;;WANG GUILEI</t>
+          <t>朱正勇;;朱慧珑;;亨利·H·阿达姆松;;HENRY H ADAMSON;;WANG GUILEI;;ZHU HUILONG;;张严波;;ZHU ZHENGYONG;;ZHANG YANBO;;王桂磊</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>US;;CN</t>
+          <t>CN;;US</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>B;;A;;A1;;B2</t>
+          <t>B;;B2;;A;;A1</t>
         </is>
       </c>
       <c r="M12" t="n">
@@ -1759,12 +1759,12 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>H01L29/778;;H01L29/78;;H01L21/336;;H01L29/36;;G06T19/00;;H01L29/04;;H01L29/10;;B82Y40/00;;H01L29/423;;H01L21/28;;H01L27/092;;H01L21/3105;;H04N5/232;;H01L29/45;;H01L29/15;;H04N13/398;;H01L21/8234;;H01L29/08;;H01L21/324;;G06K9/00;;H01L29/06;;G06F3/0481;;H04N5/247;;H01L29/417;;H01L29/786;;H04N13/332;;H01L29/267;;H01L21/3065;;H01L21/308;;H01L29/775;;G06F3/0482;;H01L21/822;;H01L29/165;;H01L27/088;;B82Y10/00;;H01L21/8238;;H04N13/366;;G05B23/02;;H04N13/111;;H01L21/02;;H01L29/205;;H01L29/66;;H04N7/18;;H01L21/225</t>
+          <t>G05B23/02;;G06T19/00;;H01L29/15;;H01L29/205;;H01L29/786;;H04N5/232;;H01L21/8238;;H04N5/247;;H01L21/8234;;H04N13/332;;H01L29/66;;H01L21/28;;H01L29/775;;H01L29/778;;H01L29/10;;B82Y40/00;;H01L21/324;;G06F3/0481;;H01L27/092;;G06F3/0482;;G06K9/00;;H01L29/267;;H01L29/04;;H04N13/111;;H04N7/18;;H01L29/45;;H01L29/417;;H01L21/336;;B82Y10/00;;H04N13/398;;H04N13/366;;H01L29/78;;H01L27/088;;H01L21/225;;H01L29/423;;H01L21/822;;H01L29/165;;H01L21/02;;H01L21/3105;;H01L29/36;;H01L21/3065;;H01L29/08;;H01L21/308;;H01L29/06</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>H01L21/02532;;H01L29/0649;;H01L21/2252;;H01L29/1083;;H01L21/823842;;H01L21/823475;;H01L29/04;;H01L21/823418;;H01L21/8221;;H01L27/092;;H01L29/152;;H01L29/66431;;H01L29/66742;;G06T19/006;;H01L21/3083;;H01L21/823871;;H01L21/823437;;H01L21/82345;;H01L29/66712;;G05B23/0216;;H01L29/1054;;H01L21/823807;;H01L29/45;;H01L29/42392;;H01L29/66666;;G06K2209/19;;H01L29/66462;;G06F3/04817;;H04N7/181;;H04N13/398;;H01L21/8234;;G06K2009/00738;;H01L21/324;;H01L29/0638;;H01L29/66522;;H01L21/823412;;H01L29/1095;;H01L29/0676;;H01L29/1037;;H04N5/247;;H01L21/02636;;G06K9/00711;;H01L21/823814;;G05B2219/32014;;H04N13/332;;H01L29/6656;;H01L21/823487;;H01L29/267;;H01L29/41741;;H01L29/7827;;H01L21/3065;;H01L29/775;;G06F3/0482;;H01L21/2258;;H01L29/165;;H01L27/088;;H01L29/42376;;H01L29/66439;;H01L29/7788;;H01L29/78642;;B82Y10/00;;H01L29/7813;;H01L29/7848;;H04N13/111;;H01L21/31053;;H04N13/366;;H01L21/823864;;H01L29/66469;;H01L29/205;;H01L29/0847;;H01L29/0653;;H04N5/23238;;H01L21/823885</t>
+          <t>H01L21/2258;;H01L29/66462;;H01L21/823864;;H01L21/823814;;H01L21/31053;;H01L29/205;;H01L29/0676;;G06K2009/00738;;H04N13/332;;H01L29/0847;;H01L21/823807;;H04N5/247;;H01L21/8234;;G06K9/00711;;H01L29/7788;;H01L29/1054;;H01L21/823487;;G05B23/0216;;H01L21/823885;;H01L29/1037;;H01L29/66522;;H01L29/7827;;H01L21/823475;;H01L21/82345;;H01L21/02636;;H01L29/6656;;H04N5/23238;;H01L29/66666;;H01L29/1095;;H01L21/2252;;H01L21/324;;H01L29/66742;;G06F3/0482;;H01L27/092;;H01L29/66469;;H01L29/42376;;H01L29/267;;H01L29/78642;;H01L29/04;;H01L29/42392;;H01L29/0638;;H01L29/45;;G05B2219/32014;;H01L29/66431;;H04N13/111;;G06F3/04817;;B82Y10/00;;H04N13/398;;H01L21/823842;;H04N13/366;;G06T19/006;;H01L29/7813;;H01L29/0653;;H01L21/3083;;H01L21/823871;;H01L27/088;;H01L29/66712;;H01L29/41741;;H01L21/823437;;H01L21/8221;;H01L21/823418;;H01L21/3065;;H01L29/165;;H01L21/823412;;H01L29/66439;;H01L29/152;;H01L21/02532;;G06K2209/19;;H01L29/1083;;H04N7/181;;H01L29/775;;H01L29/7848;;H01L29/0649</t>
         </is>
       </c>
       <c r="R12" t="inlineStr"/>
@@ -1796,12 +1796,12 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>CN 107887384 A;;CN 107887441 A;;CN 107887385 B;;CN 107887386 A;;CN 107887385 A;;CN 107887386 B;;CN 107887387 A;;CN 107887387 B;;CN 106298778 A;;US 2018/0097106 A1;;US 10714398 B2;;CN 107887440 A;;CN 107887444 B;;CN 107887440 B;;CN 107887445 A;;CN 107887274 A;;CN 107887443 A;;CN 107887274 B;;CN 107887442 A;;CN 107887442 B;;US 2018/0097065 A1;;CN 107887441 B;;CN 107887384 B;;US 10910278 B2;;CN 107887445 B;;CN 107887444 A;;CN 107887443 B</t>
+          <t>CN 107887444 B;;CN 107887441 B;;CN 107887443 B;;CN 107887440 A;;CN 107887442 B;;US 10910278 B2;;CN 107887441 A;;CN 107887274 B;;CN 107887274 A;;CN 106298778 A;;US 10714398 B2;;CN 107887440 B;;CN 107887387 B;;CN 107887387 A;;CN 107887384 B;;CN 107887384 A;;CN 107887444 A;;CN 107887385 B;;CN 107887445 A;;US 2018/0097106 A1;;CN 107887445 B;;CN 107887443 A;;US 2018/0097065 A1;;CN 107887386 A;;CN 107887386 B;;CN 107887385 A;;CN 107887442 A</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>CN 201710530950 A;;CN 201710531812 A;;US 201715720240 A;;CN 201710530297 A;;CN 201710531811 A;;CN 201710530751 A;;CN 201710530685 A;;CN 201710531762 A;;CN 201710530194 A;;US 201715718586 A;;CN 201610872541 A;;CN 201710530298 A;;CN 201710530684 A;;CN 201710530250 A</t>
+          <t>CN 201710530684 A;;CN 201710530297 A;;CN 201710531812 A;;CN 201710530298 A;;US 201715720240 A;;CN 201710530250 A;;CN 201610872541 A;;CN 201710530751 A;;CN 201710530950 A;;CN 201710530685 A;;CN 201710531762 A;;US 201715718586 A;;CN 201710530194 A;;CN 201710531811 A</t>
         </is>
       </c>
     </row>
@@ -1875,12 +1875,12 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>H01L29/78;;H01L29/66;;H01L27/092;;H01L29/06;;H01L29/165</t>
+          <t>H01L29/165;;H01L29/78;;H01L29/66;;H01L27/092;;H01L29/06</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>H01L21/02532;;H01L29/0649;;H01L21/2252;;H01L29/1083;;H01L21/823842;;H01L21/823475;;H01L29/04;;H01L21/823418;;H01L21/8221;;H01L27/092;;H01L29/152;;H01L29/66431;;H01L29/66742;;G06T19/006;;H01L21/3083;;H01L21/823871;;H01L21/823437;;H01L21/82345;;H01L29/66712;;G05B23/0216;;H01L29/1054;;H01L21/823807;;H01L29/45;;H01L29/42392;;H01L29/66666;;G06K2209/19;;H01L29/66462;;G06F3/04817;;H04N7/181;;H04N13/398;;H01L21/8234;;G06K2009/00738;;H01L21/324;;H01L29/0638;;H01L29/66522;;H01L21/823412;;H01L29/1095;;H01L29/0676;;H01L29/1037;;H04N5/247;;H01L21/02636;;G06K9/00711;;H01L21/823814;;G05B2219/32014;;H04N13/332;;H01L29/6656;;H01L21/823487;;H01L29/267;;H01L29/41741;;H01L29/7827;;H01L21/3065;;H01L29/775;;G06F3/0482;;H01L21/2258;;H01L29/165;;H01L27/088;;H01L29/42376;;H01L29/66439;;H01L29/7788;;H01L29/78642;;B82Y10/00;;H01L29/7813;;H01L29/7848;;H04N13/111;;H01L21/31053;;H04N13/366;;H01L21/823864;;H01L29/66469;;H01L29/205;;H01L29/0847;;H01L29/0653;;H04N5/23238;;H01L21/823885</t>
+          <t>H01L21/2258;;H01L29/66462;;H01L21/823864;;H01L21/823814;;H01L21/31053;;H01L29/205;;H01L29/0676;;G06K2009/00738;;H04N13/332;;H01L29/0847;;H01L21/823807;;H04N5/247;;H01L21/8234;;G06K9/00711;;H01L29/7788;;H01L29/1054;;H01L21/823487;;G05B23/0216;;H01L21/823885;;H01L29/1037;;H01L29/66522;;H01L29/7827;;H01L21/823475;;H01L21/82345;;H01L21/02636;;H01L29/6656;;H04N5/23238;;H01L29/66666;;H01L29/1095;;H01L21/2252;;H01L21/324;;H01L29/66742;;G06F3/0482;;H01L27/092;;H01L29/66469;;H01L29/42376;;H01L29/267;;H01L29/78642;;H01L29/04;;H01L29/42392;;H01L29/0638;;H01L29/45;;G05B2219/32014;;H01L29/66431;;H04N13/111;;G06F3/04817;;B82Y10/00;;H04N13/398;;H01L21/823842;;H04N13/366;;G06T19/006;;H01L29/7813;;H01L29/0653;;H01L21/3083;;H01L21/823871;;H01L27/088;;H01L29/66712;;H01L29/41741;;H01L21/823437;;H01L21/8221;;H01L21/823418;;H01L21/3065;;H01L29/165;;H01L21/823412;;H01L29/66439;;H01L29/152;;H01L21/02532;;G06K2209/19;;H01L29/1083;;H04N7/181;;H01L29/775;;H01L29/7848;;H01L29/0649</t>
         </is>
       </c>
       <c r="R13" t="inlineStr"/>
@@ -1987,12 +1987,12 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>H01L21/8238;;H01L21/8234;;H01L27/092</t>
+          <t>H01L21/8234;;H01L21/8238;;H01L27/092</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>H01L21/02532;;H01L29/0649;;H01L21/2252;;H01L29/1083;;H01L21/823842;;H01L21/823475;;H01L29/04;;H01L21/823418;;H01L21/8221;;H01L27/092;;H01L29/152;;H01L29/66431;;H01L29/66742;;G06T19/006;;H01L21/3083;;H01L21/823871;;H01L21/823437;;H01L21/82345;;H01L29/66712;;G05B23/0216;;H01L29/1054;;H01L21/823807;;H01L29/45;;H01L29/42392;;H01L29/66666;;G06K2209/19;;H01L29/66462;;G06F3/04817;;H04N7/181;;H04N13/398;;H01L21/8234;;G06K2009/00738;;H01L21/324;;H01L29/0638;;H01L29/66522;;H01L21/823412;;H01L29/1095;;H01L29/0676;;H01L29/1037;;H04N5/247;;H01L21/02636;;G06K9/00711;;H01L21/823814;;G05B2219/32014;;H04N13/332;;H01L29/6656;;H01L21/823487;;H01L29/267;;H01L29/41741;;H01L29/7827;;H01L21/3065;;H01L29/775;;G06F3/0482;;H01L21/2258;;H01L29/165;;H01L27/088;;H01L29/42376;;H01L29/66439;;H01L29/7788;;H01L29/78642;;B82Y10/00;;H01L29/7813;;H01L29/7848;;H04N13/111;;H01L21/31053;;H04N13/366;;H01L21/823864;;H01L29/66469;;H01L29/205;;H01L29/0847;;H01L29/0653;;H04N5/23238;;H01L21/823885</t>
+          <t>H01L21/2258;;H01L29/66462;;H01L21/823864;;H01L21/823814;;H01L21/31053;;H01L29/205;;H01L29/0676;;G06K2009/00738;;H04N13/332;;H01L29/0847;;H01L21/823807;;H04N5/247;;H01L21/8234;;G06K9/00711;;H01L29/7788;;H01L29/1054;;H01L21/823487;;G05B23/0216;;H01L21/823885;;H01L29/1037;;H01L29/66522;;H01L29/7827;;H01L21/823475;;H01L21/82345;;H01L21/02636;;H01L29/6656;;H04N5/23238;;H01L29/66666;;H01L29/1095;;H01L21/2252;;H01L21/324;;H01L29/66742;;G06F3/0482;;H01L27/092;;H01L29/66469;;H01L29/42376;;H01L29/267;;H01L29/78642;;H01L29/04;;H01L29/42392;;H01L29/0638;;H01L29/45;;G05B2219/32014;;H01L29/66431;;H04N13/111;;G06F3/04817;;B82Y10/00;;H04N13/398;;H01L21/823842;;H04N13/366;;G06T19/006;;H01L29/7813;;H01L29/0653;;H01L21/3083;;H01L21/823871;;H01L27/088;;H01L29/66712;;H01L29/41741;;H01L21/823437;;H01L21/8221;;H01L21/823418;;H01L21/3065;;H01L29/165;;H01L21/823412;;H01L29/66439;;H01L29/152;;H01L21/02532;;G06K2209/19;;H01L29/1083;;H04N7/181;;H01L29/775;;H01L29/7848;;H01L29/0649</t>
         </is>
       </c>
       <c r="R14" t="inlineStr"/>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>ZHANG YANBO;;ZHU HUILONG;;RADAMSON HENRY H;;ZHU ZHENGYONG;;WANG GUILEI</t>
+          <t>RADAMSON HENRY H;;WANG GUILEI;;ZHU HUILONG;;ZHU ZHENGYONG;;ZHANG YANBO</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2103,12 +2103,12 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>H01L29/06;;H01L29/786;;H01L29/10;;H01L29/66</t>
+          <t>H01L29/10;;H01L29/786;;H01L29/06;;H01L29/66</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>H01L21/02532;;H01L29/0649;;H01L21/2252;;H01L29/1083;;H01L21/823842;;H01L21/823475;;H01L29/04;;H01L21/823418;;H01L21/8221;;H01L27/092;;H01L29/152;;H01L29/66431;;H01L29/66742;;G06T19/006;;H01L21/3083;;H01L21/823871;;H01L21/823437;;H01L21/82345;;H01L29/66712;;G05B23/0216;;H01L29/1054;;H01L21/823807;;H01L29/45;;H01L29/42392;;H01L29/66666;;G06K2209/19;;H01L29/66462;;G06F3/04817;;H04N7/181;;H04N13/398;;H01L21/8234;;G06K2009/00738;;H01L21/324;;H01L29/0638;;H01L29/66522;;H01L21/823412;;H01L29/1095;;H01L29/0676;;H01L29/1037;;H04N5/247;;H01L21/02636;;G06K9/00711;;H01L21/823814;;G05B2219/32014;;H04N13/332;;H01L29/6656;;H01L21/823487;;H01L29/267;;H01L29/41741;;H01L29/7827;;H01L21/3065;;H01L29/775;;G06F3/0482;;H01L21/2258;;H01L29/165;;H01L27/088;;H01L29/42376;;H01L29/66439;;H01L29/7788;;H01L29/78642;;B82Y10/00;;H01L29/7813;;H01L29/7848;;H04N13/111;;H01L21/31053;;H04N13/366;;H01L21/823864;;H01L29/66469;;H01L29/205;;H01L29/0847;;H01L29/0653;;H04N5/23238;;H01L21/823885</t>
+          <t>H01L21/2258;;H01L29/66462;;H01L21/823864;;H01L21/823814;;H01L21/31053;;H01L29/205;;H01L29/0676;;G06K2009/00738;;H04N13/332;;H01L29/0847;;H01L21/823807;;H04N5/247;;H01L21/8234;;G06K9/00711;;H01L29/7788;;H01L29/1054;;H01L21/823487;;G05B23/0216;;H01L21/823885;;H01L29/1037;;H01L29/66522;;H01L29/7827;;H01L21/823475;;H01L21/82345;;H01L21/02636;;H01L29/6656;;H04N5/23238;;H01L29/66666;;H01L29/1095;;H01L21/2252;;H01L21/324;;H01L29/66742;;G06F3/0482;;H01L27/092;;H01L29/66469;;H01L29/42376;;H01L29/267;;H01L29/78642;;H01L29/04;;H01L29/42392;;H01L29/0638;;H01L29/45;;G05B2219/32014;;H01L29/66431;;H04N13/111;;G06F3/04817;;B82Y10/00;;H04N13/398;;H01L21/823842;;H04N13/366;;G06T19/006;;H01L29/7813;;H01L29/0653;;H01L21/3083;;H01L21/823871;;H01L27/088;;H01L29/66712;;H01L29/41741;;H01L21/823437;;H01L21/8221;;H01L21/823418;;H01L21/3065;;H01L29/165;;H01L21/823412;;H01L29/66439;;H01L29/152;;H01L21/02532;;G06K2209/19;;H01L29/1083;;H04N7/181;;H01L29/775;;H01L29/7848;;H01L29/0649</t>
         </is>
       </c>
       <c r="R15" t="inlineStr"/>
@@ -2215,12 +2215,12 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>H01L27/088;;H01L21/8234</t>
+          <t>H01L21/8234;;H01L27/088</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>H01L21/02532;;H01L29/0649;;H01L21/2252;;H01L29/1083;;H01L21/823842;;H01L21/823475;;H01L29/04;;H01L21/823418;;H01L21/8221;;H01L27/092;;H01L29/152;;H01L29/66431;;H01L29/66742;;G06T19/006;;H01L21/3083;;H01L21/823871;;H01L21/823437;;H01L21/82345;;H01L29/66712;;G05B23/0216;;H01L29/1054;;H01L21/823807;;H01L29/45;;H01L29/42392;;H01L29/66666;;G06K2209/19;;H01L29/66462;;G06F3/04817;;H04N7/181;;H04N13/398;;H01L21/8234;;G06K2009/00738;;H01L21/324;;H01L29/0638;;H01L29/66522;;H01L21/823412;;H01L29/1095;;H01L29/0676;;H01L29/1037;;H04N5/247;;H01L21/02636;;G06K9/00711;;H01L21/823814;;G05B2219/32014;;H04N13/332;;H01L29/6656;;H01L21/823487;;H01L29/267;;H01L29/41741;;H01L29/7827;;H01L21/3065;;H01L29/775;;G06F3/0482;;H01L21/2258;;H01L29/165;;H01L27/088;;H01L29/42376;;H01L29/66439;;H01L29/7788;;H01L29/78642;;B82Y10/00;;H01L29/7813;;H01L29/7848;;H04N13/111;;H01L21/31053;;H04N13/366;;H01L21/823864;;H01L29/66469;;H01L29/205;;H01L29/0847;;H01L29/0653;;H04N5/23238;;H01L21/823885</t>
+          <t>H01L21/2258;;H01L29/66462;;H01L21/823864;;H01L21/823814;;H01L21/31053;;H01L29/205;;H01L29/0676;;G06K2009/00738;;H04N13/332;;H01L29/0847;;H01L21/823807;;H04N5/247;;H01L21/8234;;G06K9/00711;;H01L29/7788;;H01L29/1054;;H01L21/823487;;G05B23/0216;;H01L21/823885;;H01L29/1037;;H01L29/66522;;H01L29/7827;;H01L21/823475;;H01L21/82345;;H01L21/02636;;H01L29/6656;;H04N5/23238;;H01L29/66666;;H01L29/1095;;H01L21/2252;;H01L21/324;;H01L29/66742;;G06F3/0482;;H01L27/092;;H01L29/66469;;H01L29/42376;;H01L29/267;;H01L29/78642;;H01L29/04;;H01L29/42392;;H01L29/0638;;H01L29/45;;G05B2219/32014;;H01L29/66431;;H04N13/111;;G06F3/04817;;B82Y10/00;;H04N13/398;;H01L21/823842;;H04N13/366;;G06T19/006;;H01L29/7813;;H01L29/0653;;H01L21/3083;;H01L21/823871;;H01L27/088;;H01L29/66712;;H01L29/41741;;H01L21/823437;;H01L21/8221;;H01L21/823418;;H01L21/3065;;H01L29/165;;H01L21/823412;;H01L29/66439;;H01L29/152;;H01L21/02532;;G06K2209/19;;H01L29/1083;;H04N7/181;;H01L29/775;;H01L29/7848;;H01L29/0649</t>
         </is>
       </c>
       <c r="R16" t="inlineStr"/>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>199-535-148-484-91X;;091-589-843-044-390;;066-971-174-243-907</t>
+          <t>091-589-843-044-390;;199-535-148-484-91X;;066-971-174-243-907</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2279,7 +2279,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>IC unit and methond of manufacturing the same, and electronic device including the same;;IC UNIT AND METHOND OF MANUFACTURING THE SAME, AND ELECTRONIC DEVICE INCLUDING THE SAME;;Integrated circuit unit and electronic device including same</t>
+          <t>IC unit and methond of manufacturing the same, and electronic device including the same;;Integrated circuit unit and electronic device including same;;IC UNIT AND METHOND OF MANUFACTURING THE SAME, AND ELECTRONIC DEVICE INCLUDING THE SAME</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>ZHU ZHENGYONG;;ZHU HUILONG</t>
+          <t>ZHU HUILONG;;ZHU ZHENGYONG</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>US;;CN</t>
+          <t>CN;;US</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2331,12 +2331,12 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>H01L29/778;;H01L29/78;;H01L29/04;;H01L29/10;;H01L21/3105;;H01L29/423;;H01L27/092;;H01L29/45;;H01L29/15;;H01L21/324;;H01L29/08;;H01L21/8234;;H01L29/06;;H01L29/417;;H01L29/786;;H01L29/267;;H01L21/3065;;H01L21/308;;H01L29/775;;H01L21/822;;H01L29/165;;H01L27/088;;B82Y10/00;;H01L21/8238;;H01L21/02;;H01L29/205;;H01L29/66;;H01L21/225</t>
+          <t>H01L29/15;;H01L29/205;;H01L29/786;;H01L21/8238;;H01L21/8234;;H01L29/66;;H01L29/775;;H01L29/778;;H01L29/10;;H01L21/324;;H01L27/092;;H01L29/267;;H01L29/04;;H01L29/45;;H01L29/417;;B82Y10/00;;H01L29/78;;H01L29/423;;H01L21/225;;H01L27/088;;H01L21/822;;H01L29/165;;H01L21/02;;H01L21/3105;;H01L21/3065;;H01L29/08;;H01L21/308;;H01L29/06</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>H01L21/02532;;H01L29/0649;;H01L21/2252;;H01L29/1083;;H01L21/823842;;H01L21/823475;;H01L29/04;;H01L21/823418;;H01L21/8221;;H01L27/092;;H01L29/152;;H01L29/66431;;H01L29/66742;;G06T19/006;;H01L21/3083;;H01L21/823871;;H01L21/823437;;H01L21/82345;;H01L29/66712;;G05B23/0216;;H01L29/1054;;H01L21/823807;;H01L29/45;;H01L29/42392;;H01L29/66666;;G06K2209/19;;H01L29/66462;;G06F3/04817;;H04N7/181;;H04N13/398;;H01L21/8234;;G06K2009/00738;;H01L21/324;;H01L29/0638;;H01L29/66522;;H01L21/823412;;H01L29/1095;;H01L29/0676;;H01L29/1037;;H04N5/247;;H01L21/02636;;G06K9/00711;;H01L21/823814;;G05B2219/32014;;H04N13/332;;H01L29/6656;;H01L21/823487;;H01L29/267;;H01L29/41741;;H01L29/7827;;H01L21/3065;;H01L29/775;;G06F3/0482;;H01L21/2258;;H01L29/165;;H01L27/088;;H01L29/42376;;H01L29/66439;;H01L29/7788;;H01L29/78642;;B82Y10/00;;H01L29/7813;;H01L29/7848;;H04N13/111;;H01L21/31053;;H04N13/366;;H01L21/823864;;H01L29/66469;;H01L29/205;;H01L29/0847;;H01L29/0653;;H04N5/23238;;H01L21/823885</t>
+          <t>H01L21/2258;;H01L29/66462;;H01L21/823864;;H01L21/823814;;H01L21/31053;;H01L29/205;;H01L29/0676;;G06K2009/00738;;H04N13/332;;H01L29/0847;;H01L21/823807;;H04N5/247;;H01L21/8234;;G06K9/00711;;H01L29/7788;;H01L29/1054;;H01L21/823487;;G05B23/0216;;H01L21/823885;;H01L29/1037;;H01L29/66522;;H01L29/7827;;H01L21/823475;;H01L21/82345;;H01L21/02636;;H01L29/6656;;H04N5/23238;;H01L29/66666;;H01L29/1095;;H01L21/2252;;H01L21/324;;H01L29/66742;;G06F3/0482;;H01L27/092;;H01L29/66469;;H01L29/42376;;H01L29/267;;H01L29/78642;;H01L29/04;;H01L29/42392;;H01L29/0638;;H01L29/45;;G05B2219/32014;;H01L29/66431;;H04N13/111;;G06F3/04817;;B82Y10/00;;H04N13/398;;H01L21/823842;;H04N13/366;;G06T19/006;;H01L29/7813;;H01L29/0653;;H01L21/3083;;H01L21/823871;;H01L27/088;;H01L29/66712;;H01L29/41741;;H01L21/823437;;H01L21/8221;;H01L21/823418;;H01L21/3065;;H01L29/165;;H01L21/823412;;H01L29/66439;;H01L29/152;;H01L21/02532;;G06K2209/19;;H01L29/1083;;H04N7/181;;H01L29/775;;H01L29/7848;;H01L29/0649</t>
         </is>
       </c>
       <c r="R17" t="inlineStr"/>
@@ -2368,12 +2368,12 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>CN 111755443 A;;US 10629498 B2;;US 2018/0108577 A1</t>
+          <t>US 10629498 B2;;US 2018/0108577 A1;;CN 111755443 A</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>CN 202010840234 A;;US 201715722423 A</t>
+          <t>US 201715722423 A;;CN 202010840234 A</t>
         </is>
       </c>
     </row>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>IC unit and method of manufacturing the same, and electronic device including the same;;IC UNIT AND METHOND OF MANUFACTURING THE SAME, AND ELECTRONIC DEVICE INCLUDING THE SAME</t>
+          <t>IC UNIT AND METHOND OF MANUFACTURING THE SAME, AND ELECTRONIC DEVICE INCLUDING THE SAME;;IC unit and method of manufacturing the same, and electronic device including the same</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2410,7 +2410,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>ZHU ZHENGYONG;;ZHU HUILONG</t>
+          <t>ZHU HUILONG;;ZHU ZHENGYONG</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -2447,12 +2447,12 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>H01L29/778;;H01L29/78;;H01L29/04;;H01L29/10;;H01L21/3105;;H01L27/092;;H01L29/423;;H01L29/45;;H01L29/15;;H01L21/324;;H01L21/8234;;H01L29/08;;H01L29/06;;H01L29/417;;H01L29/786;;H01L29/267;;H01L21/3065;;H01L21/308;;H01L29/775;;H01L21/822;;H01L29/165;;B82Y10/00;;H01L21/8238;;H01L21/02;;H01L29/205;;H01L29/66;;H01L21/225</t>
+          <t>H01L29/15;;H01L29/205;;H01L29/786;;H01L21/8238;;H01L21/8234;;H01L29/66;;H01L29/775;;H01L29/778;;H01L29/10;;H01L21/324;;H01L27/092;;H01L29/267;;H01L29/04;;H01L29/45;;H01L29/417;;B82Y10/00;;H01L29/78;;H01L29/423;;H01L21/225;;H01L21/822;;H01L29/165;;H01L21/02;;H01L21/3105;;H01L21/3065;;H01L29/08;;H01L21/308;;H01L29/06</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>H01L21/02532;;H01L29/0649;;H01L21/2252;;H01L29/1083;;H01L21/823842;;H01L21/823475;;H01L29/04;;H01L21/823418;;H01L21/8221;;H01L27/092;;H01L29/152;;H01L29/66431;;H01L29/66742;;G06T19/006;;H01L21/3083;;H01L21/823871;;H01L21/823437;;H01L21/82345;;H01L29/66712;;G05B23/0216;;H01L29/1054;;H01L21/823807;;H01L29/45;;H01L29/42392;;H01L29/66666;;G06K2209/19;;H01L29/66462;;G06F3/04817;;H04N7/181;;H04N13/398;;H01L21/8234;;G06K2009/00738;;H01L21/324;;H01L29/0638;;H01L29/66522;;H01L21/823412;;H01L29/1095;;H01L29/0676;;H01L29/1037;;H04N5/247;;H01L21/02636;;G06K9/00711;;H01L21/823814;;G05B2219/32014;;H04N13/332;;H01L29/6656;;H01L21/823487;;H01L29/267;;H01L29/41741;;H01L29/7827;;H01L21/3065;;H01L29/775;;G06F3/0482;;H01L21/2258;;H01L29/165;;H01L27/088;;H01L29/42376;;H01L29/66439;;H01L29/7788;;H01L29/78642;;B82Y10/00;;H01L29/7813;;H01L29/7848;;H04N13/111;;H01L21/31053;;H04N13/366;;H01L21/823864;;H01L29/66469;;H01L29/205;;H01L29/0847;;H01L29/0653;;H04N5/23238;;H01L21/823885</t>
+          <t>H01L21/2258;;H01L29/66462;;H01L21/823864;;H01L21/823814;;H01L21/31053;;H01L29/205;;H01L29/0676;;G06K2009/00738;;H04N13/332;;H01L29/0847;;H01L21/823807;;H04N5/247;;H01L21/8234;;G06K9/00711;;H01L29/7788;;H01L29/1054;;H01L21/823487;;G05B23/0216;;H01L21/823885;;H01L29/1037;;H01L29/66522;;H01L29/7827;;H01L21/823475;;H01L21/82345;;H01L21/02636;;H01L29/6656;;H04N5/23238;;H01L29/66666;;H01L29/1095;;H01L21/2252;;H01L21/324;;H01L29/66742;;G06F3/0482;;H01L27/092;;H01L29/66469;;H01L29/42376;;H01L29/267;;H01L29/78642;;H01L29/04;;H01L29/42392;;H01L29/0638;;H01L29/45;;G05B2219/32014;;H01L29/66431;;H04N13/111;;G06F3/04817;;B82Y10/00;;H04N13/398;;H01L21/823842;;H04N13/366;;G06T19/006;;H01L29/7813;;H01L29/0653;;H01L21/3083;;H01L21/823871;;H01L27/088;;H01L29/66712;;H01L29/41741;;H01L21/823437;;H01L21/8221;;H01L21/823418;;H01L21/3065;;H01L29/165;;H01L21/823412;;H01L29/66439;;H01L29/152;;H01L21/02532;;G06K2209/19;;H01L29/1083;;H04N7/181;;H01L29/775;;H01L29/7848;;H01L29/0649</t>
         </is>
       </c>
       <c r="R18" t="inlineStr"/>
@@ -2484,7 +2484,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>US 10643905 B2;;US 2019/0287865 A1</t>
+          <t>US 2019/0287865 A1;;US 10643905 B2</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2559,12 +2559,12 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>H04N7/18;;G06T19/00;;H04N5/232;;G05B23/02</t>
+          <t>H04N7/18;;G05B23/02;;H04N5/232;;G06T19/00</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>H01L21/02532;;H01L29/0649;;H01L21/2252;;H01L29/1083;;H01L21/823842;;H01L21/823475;;H01L29/04;;H01L21/823418;;H01L21/8221;;H01L27/092;;H01L29/152;;H01L29/66431;;H01L29/66742;;G06T19/006;;H01L21/3083;;H01L21/823871;;H01L21/823437;;H01L21/82345;;H01L29/66712;;G05B23/0216;;H01L29/1054;;H01L21/823807;;H01L29/45;;H01L29/42392;;H01L29/66666;;G06K2209/19;;H01L29/66462;;G06F3/04817;;H04N7/181;;H04N13/398;;H01L21/8234;;G06K2009/00738;;H01L21/324;;H01L29/0638;;H01L29/66522;;H01L21/823412;;H01L29/1095;;H01L29/0676;;H01L29/1037;;H04N5/247;;H01L21/02636;;G06K9/00711;;H01L21/823814;;G05B2219/32014;;H04N13/332;;H01L29/6656;;H01L21/823487;;H01L29/267;;H01L29/41741;;H01L29/7827;;H01L21/3065;;H01L29/775;;G06F3/0482;;H01L21/2258;;H01L29/165;;H01L27/088;;H01L29/42376;;H01L29/66439;;H01L29/7788;;H01L29/78642;;B82Y10/00;;H01L29/7813;;H01L29/7848;;H04N13/111;;H01L21/31053;;H04N13/366;;H01L21/823864;;H01L29/66469;;H01L29/205;;H01L29/0847;;H01L29/0653;;H04N5/23238;;H01L21/823885</t>
+          <t>H01L21/2258;;H01L29/66462;;H01L21/823864;;H01L21/823814;;H01L21/31053;;H01L29/205;;H01L29/0676;;G06K2009/00738;;H04N13/332;;H01L29/0847;;H01L21/823807;;H04N5/247;;H01L21/8234;;G06K9/00711;;H01L29/7788;;H01L29/1054;;H01L21/823487;;G05B23/0216;;H01L21/823885;;H01L29/1037;;H01L29/66522;;H01L29/7827;;H01L21/823475;;H01L21/82345;;H01L21/02636;;H01L29/6656;;H04N5/23238;;H01L29/66666;;H01L29/1095;;H01L21/2252;;H01L21/324;;H01L29/66742;;G06F3/0482;;H01L27/092;;H01L29/66469;;H01L29/42376;;H01L29/267;;H01L29/78642;;H01L29/04;;H01L29/42392;;H01L29/0638;;H01L29/45;;G05B2219/32014;;H01L29/66431;;H04N13/111;;G06F3/04817;;B82Y10/00;;H04N13/398;;H01L21/823842;;H04N13/366;;G06T19/006;;H01L29/7813;;H01L29/0653;;H01L21/3083;;H01L21/823871;;H01L27/088;;H01L29/66712;;H01L29/41741;;H01L21/823437;;H01L21/8221;;H01L21/823418;;H01L21/3065;;H01L29/165;;H01L21/823412;;H01L29/66439;;H01L29/152;;H01L21/02532;;G06K2209/19;;H01L29/1083;;H04N7/181;;H01L29/775;;H01L29/7848;;H01L29/0649</t>
         </is>
       </c>
       <c r="R19" t="inlineStr"/>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>022-371-039-747-189;;139-953-016-089-681</t>
+          <t>139-953-016-089-681;;022-371-039-747-189</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2623,7 +2623,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Method for obtaining whole crystal face etching rate by wet etching few crystal faces of quartz crystal;;湿法刻蚀石英晶体少量晶面获取全晶面刻蚀速率的方法</t>
+          <t>湿法刻蚀石英晶体少量晶面获取全晶面刻蚀速率的方法;;Method for obtaining whole crystal face etching rate by wet etching few crystal faces of quartz crystal</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2638,7 +2638,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>ZHANG HUI;;幸研;;张辉;;李源;;张晋;;LI YUAN;;ZHANG JIN;;XING YAN</t>
+          <t>李源;;张辉;;张晋;;XING YAN;;LI YUAN;;ZHANG HUI;;幸研;;ZHANG JIN</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>B81C1/00;;G06F17/50</t>
+          <t>G06F17/50;;B81C1/00</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>ZHANG XIANGCHENG;;WU JIAN</t>
+          <t>WU JIAN;;ZHANG XIANGCHENG</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -2788,7 +2788,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>A61B5/6843;;B81C1/00349;;B81C1/00261;;A61B2562/12;;A61B5/6813</t>
+          <t>B81C1/00261;;A61B5/6813;;A61B2562/12;;B81C1/00349;;A61B5/6843</t>
         </is>
       </c>
       <c r="R21" t="inlineStr"/>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>010-188-554-840-088;;148-931-852-354-400;;193-740-224-195-322;;141-171-860-159-994</t>
+          <t>148-931-852-354-400;;010-188-554-840-088;;141-171-860-159-994;;193-740-224-195-322</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>基于SiON的光读取神经突触器件及其制备方法;;Optical-readout synaptic device based on SiOxNy and preparation method thereof;;SiOxNy-based synapse optically reading device and preparation method thereof</t>
+          <t>Optical-readout synaptic device based on SiOxNy and preparation method thereof;;SiOxNy-based synapse optically reading device and preparation method thereof;;基于SiON的光读取神经突触器件及其制备方法</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>UNIV ELECTRONIC SCI &amp; TECH CHINA;;电子科技大学</t>
+          <t>电子科技大学;;UNIV ELECTRONIC SCI &amp; TECH CHINA</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>钟豪;;顾德恩;;蒋亚东;;LI DONGYANG;;CHEN YICHENG;;李东阳;;李伟;;LI WEI;;GU DE'EN;;ZHONG HAO;;陈奕丞;;GU DEEN;;JIANG YADONG</t>
+          <t>LI DONGYANG;;GU DEEN;;钟豪;;顾德恩;;ZHONG HAO;;CHEN YICHENG;;LI WEI;;JIANG YADONG;;李伟;;GU DE'EN;;陈奕丞;;蒋亚东;;李东阳</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>US;;CN</t>
+          <t>CN;;US</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2881,7 +2881,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>B2;;A;;B;;A1</t>
+          <t>B;;B2;;A;;A1</t>
         </is>
       </c>
       <c r="M22" t="n">
@@ -2895,12 +2895,12 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>H01L45/00;;G02B6/12;;G02B6/132;;G02B6/122;;B82Y20/00;;B82Y30/00;;G06N3/063</t>
+          <t>H01L45/00;;G06N3/063;;G02B6/12;;G02B6/132;;G02B6/122;;B82Y20/00;;B82Y30/00</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>G06N3/0635;;G02B6/132;;H01L45/1233;;H01L45/08;;H01L45/1625;;H01L45/1213;;B82Y20/00;;G02B6/1226;;H01L45/1253;;H01L45/1675;;B82Y30/00;;H01L45/145;;G02B2006/12035;;H01L45/16</t>
+          <t>G06N3/0635;;H01L45/16;;H01L45/1675;;G02B6/132;;G02B6/1226;;H01L45/08;;H01L45/1233;;H01L45/145;;H01L45/1625;;H01L45/1253;;H01L45/1213;;G02B2006/12035;;B82Y20/00;;B82Y30/00</t>
         </is>
       </c>
       <c r="R22" t="inlineStr"/>
@@ -2932,7 +2932,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>CN 108110137 B;;CN 108110137 A;;US 2018/0277756 A1;;US 10475996 B2</t>
+          <t>CN 108110137 A;;CN 108110137 B;;US 2018/0277756 A1;;US 10475996 B2</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -2959,7 +2959,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Neuro-biomimetic device based on two-dimensional Ti3C2 material and preparation method thereof;;Neuro-Bionic Device Based on Two-dimensional Ti3C2 Material and Preparation Method Thereof</t>
+          <t>Neuro-Bionic Device Based on Two-dimensional Ti3C2 Material and Preparation Method Thereof;;Neuro-biomimetic device based on two-dimensional Ti3C2 material and preparation method thereof</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>REN DELIANG;;WANG KAIYANG;;YAN XIAOBING</t>
+          <t>YAN XIAOBING;;WANG KAIYANG;;REN DELIANG</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -2983,7 +2983,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>US;;CN</t>
+          <t>CN;;US</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -3007,12 +3007,12 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>H01L45/00;;G11C11/54;;G06N3/06</t>
+          <t>H01L45/00;;G06N3/06;;G11C11/54</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G11C2213/15;;C04B35/5611;;G06N3/049;;G11C13/0019;;H01L45/04;;G06N3/061;;G11C11/54;;C04B2235/79;;G11C2213/35;;H01L45/1253;;G06N3/0635;;H01L45/149;;H01L45/16</t>
+          <t>G06N3/0635;;H01L45/16;;G06N3/049;;C04B2235/79;;G11C13/0019;;H01L45/149;;B82Y10/00;;G11C11/54;;G11C2213/15;;H01L45/1253;;H01L45/04;;G06N3/061;;C04B35/5611;;G11C2213/35</t>
         </is>
       </c>
       <c r="R23" t="inlineStr"/>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>US 201916396703 A;;CN 201811367908 A</t>
+          <t>CN 201811367908 A;;US 201916396703 A</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>ZHAO LINYUAN;;LIANG RENRONG;;LIU YU;;XU JUN</t>
+          <t>XU JUN;;LIU YU;;LIANG RENRONG;;ZHAO LINYUAN</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -3119,12 +3119,12 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>H01L29/06;;H01L21/336;;B82Y40/00;;H01L29/78</t>
+          <t>H01L21/336;;H01L29/78;;H01L29/06;;B82Y40/00</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>H01L29/0669;;H01L29/66484;;B82Y40/00;;H01L29/7831</t>
+          <t>H01L29/7831;;H01L29/0669;;H01L29/66484;;B82Y40/00</t>
         </is>
       </c>
       <c r="R24" t="inlineStr"/>
@@ -3198,7 +3198,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>CHEN CHANGSHENG;;WU SHUO;;CHENG RUNHONG;;ZHOU WENLI;;WANG YUNBO;;GAO JUNXIONG;;ZHU YU</t>
+          <t>ZHOU WENLI;;ZHU YU;;GAO JUNXIONG;;WU SHUO;;CHENG RUNHONG;;CHEN CHANGSHENG;;WANG YUNBO</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -3231,12 +3231,12 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>B82Y30/00;;B82Y15/00;;G06N3/06;;G06N3/00</t>
+          <t>G06N3/06;;B82Y15/00;;G06N3/00;;B82Y30/00</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>B82Y30/00;;B82Y15/00;;G06N3/002;;G06N3/06</t>
+          <t>G06N3/06;;G06N3/002;;B82Y15/00;;B82Y30/00</t>
         </is>
       </c>
       <c r="R25" t="inlineStr"/>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>ICLEAGUE TECH CO LTD;;YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG</t>
+          <t>YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG;;ICLEAGUE TECH CO LTD</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -3343,12 +3343,12 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>H01L27/146;;B81C1/00;;B81B7/00;;B81B7/02</t>
+          <t>B81B7/02;;B81C1/00;;B81B7/00;;H01L27/146</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>B81C1/00222;;H01L27/14634;;B81B7/0032;;H01L27/1469;;B81C1/00261;;B81B7/02</t>
+          <t>B81C1/00261;;B81C1/00222;;H01L27/14634;;B81B7/02;;H01L27/1469;;B81B7/0032</t>
         </is>
       </c>
       <c r="R26" t="inlineStr"/>
@@ -3422,7 +3422,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>YU DAN;;CHEN YIXIANG;;WANG WEI;;WANG ZEHONG</t>
+          <t>WANG WEI;;WANG ZEHONG;;CHEN YIXIANG;;YU DAN</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -3455,12 +3455,12 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>G01L1/14;;D01D5/00;;B82Y15/00;;B82Y40/00;;G01L9/12;;B82Y30/00;;C23C18/44</t>
+          <t>C23C18/44;;B82Y40/00;;B82Y15/00;;D01D5/00;;G01L9/12;;B82Y30/00;;G01L1/14</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>G01L1/142;;D01D5/003;;B82Y15/00;;B82Y40/00;;D01D5/0069;;G01L9/12;;B82Y30/00;;C23C18/44</t>
+          <t>C23C18/44;;D01D5/0069;;G01L1/142;;B82Y40/00;;B82Y15/00;;D01D5/003;;G01L9/12;;B82Y30/00</t>
         </is>
       </c>
       <c r="R27" t="inlineStr"/>
@@ -3534,7 +3534,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>MANSSON ALF;;DIEZ STEFAN;;REUTHER CORDULA;;KORTEN TILL;;TAKATSUKI HIDEYO</t>
+          <t>MANSSON ALF;;KORTEN TILL;;REUTHER CORDULA;;DIEZ STEFAN;;TAKATSUKI HIDEYO</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -3567,7 +3567,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N3/00</t>
+          <t>G06N3/00;;B82Y10/00</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -3621,7 +3621,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>099-541-914-036-776;;107-704-552-379-860;;018-363-716-273-917</t>
+          <t>018-363-716-273-917;;099-541-914-036-776;;107-704-552-379-860</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3646,7 +3646,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>STAKENBORG TIM;;CHEN CHANG;;FAUVART MAARTEN;;CAI QING;;COVENS KRIS</t>
+          <t>CAI QING;;CHEN CHANG;;STAKENBORG TIM;;FAUVART MAARTEN;;COVENS KRIS</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -3683,12 +3683,12 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G11C11/00;;C12M3/06;;G06N3/12;;G11C11/54;;C12P19/34;;G11C13/00</t>
+          <t>G11C13/00;;B82Y10/00;;G11C11/54;;G06N3/12;;C12P19/34;;G11C11/00;;C12M3/06</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>G11C13/0016;;C12N15/10;;B82Y10/00;;G16B30/00;;G11C11/00;;G11C13/0019;;G11C11/54;;G06N3/123</t>
+          <t>G16B30/00;;G11C13/0019;;C12N15/10;;B82Y10/00;;G11C11/54;;G11C13/0016;;G06N3/123;;G11C11/00</t>
         </is>
       </c>
       <c r="R29" t="inlineStr"/>
@@ -3720,12 +3720,12 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>US 2019/0205768 A1;;KR 20190082143 A;;EP 3506135 A1</t>
+          <t>KR 20190082143 A;;US 2019/0205768 A1;;EP 3506135 A1</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>KR 20180172813 A;;EP 17211093 A;;US 201816224496 A</t>
+          <t>KR 20180172813 A;;US 201816224496 A;;EP 17211093 A</t>
         </is>
       </c>
     </row>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>152-689-049-154-09X;;062-711-544-788-511</t>
+          <t>062-711-544-788-511;;152-689-049-154-09X</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3757,17 +3757,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>IMEC VZW;;UNIV LEUVEN KATH;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
+          <t>UNIV LEUVEN KATH;;IMEC VZW;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>COSTA JOSE DIOGO;;CIUBOTARU FLORIN;;ADELMANN HANNS CHRISTOPH</t>
+          <t>CIUBOTARU FLORIN;;COSTA JOSE DIOGO;;ADELMANN HANNS CHRISTOPH</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>KATHOLIEKE UNIVERSITEIT LEUVEN (2019-11-25);;IMEC VZW (2019-11-25)</t>
+          <t>IMEC VZW (2019-11-25);;KATHOLIEKE UNIVERSITEIT LEUVEN (2019-11-25)</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -3799,12 +3799,12 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>G06N3/08;;B82Y10/00;;G06E1/04;;H01L29/66;;G02F1/01</t>
+          <t>G02F1/01;;B82Y10/00;;G06N3/08;;H01L29/66;;G06E1/04</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>H01L41/00;;B82Y20/00;;G06E1/045;;G06N3/0635;;G06N3/084</t>
+          <t>G06N3/0635;;B82Y20/00;;H01L41/00;;G06N3/084;;G06E1/045</t>
         </is>
       </c>
       <c r="R30" t="inlineStr"/>
@@ -3836,12 +3836,12 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>EP 3632840 A1;;US 2020/0110433 A1</t>
+          <t>US 2020/0110433 A1;;EP 3632840 A1</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>US 201916593917 A;;EP 18198863 A</t>
+          <t>EP 18198863 A;;US 201916593917 A</t>
         </is>
       </c>
     </row>
@@ -3874,7 +3874,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>CONSTANCIAS CHRISTOPHE;;LANDIS STÉPHAN</t>
+          <t>LANDIS STÉPHAN;;CONSTANCIAS CHRISTOPHE</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -3907,12 +3907,12 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G03F7/00;;B82Y40/00</t>
+          <t>G03F7/00;;B82Y10/00;;B82Y40/00</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G03F7/0002;;G06N5/003;;B82Y40/00</t>
+          <t>G06N5/003;;B82Y10/00;;G03F7/0002;;B82Y40/00</t>
         </is>
       </c>
       <c r="R31" t="inlineStr"/>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>042-652-460-098-334;;047-351-574-945-08X;;152-095-732-259-63X</t>
+          <t>042-652-460-098-334;;152-095-732-259-63X;;047-351-574-945-08X</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LITHOGRAPHY MOULD FOR NANOMETRIC IMPRESSION AND METHODS FOR MANUFACTURING AND USING SUCH A MOULD;;MOULE DE LITHOGRAPHIE POUR IMPRESSION NANOMETRIQUE ET PROCEDES DE FABRICATION ET D'UTILISATION D'UN TEL MOULE</t>
+          <t>MOULE DE LITHOGRAPHIE POUR IMPRESSION NANOMETRIQUE ET PROCEDES DE FABRICATION ET D'UTILISATION D'UN TEL MOULE;;LITHOGRAPHY MOULD FOR NANOMETRIC IMPRESSION AND METHODS FOR MANUFACTURING AND USING SUCH A MOULD</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>LANDIS STEPHAN;;CONSTANCIAS CHRISTOPHE;;LANDIS STÉPHAN</t>
+          <t>LANDIS STÉPHAN;;CONSTANCIAS CHRISTOPHE;;LANDIS STEPHAN</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -4005,7 +4005,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>A1;;B1</t>
+          <t>B1;;A1</t>
         </is>
       </c>
       <c r="M32" t="n">
@@ -4019,12 +4019,12 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>G03F7/00;;B82Y10/00;;H01L21/02;;G03F1/00;;B82Y40/00</t>
+          <t>G03F1/00;;H01L21/02;;B82Y10/00;;G03F7/00;;B82Y40/00</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G03F7/0002;;G06N5/003;;B82Y40/00</t>
+          <t>G06N5/003;;B82Y10/00;;G03F7/0002;;B82Y40/00</t>
         </is>
       </c>
       <c r="R32" t="inlineStr"/>
@@ -4056,12 +4056,12 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>FR 3041118 B1;;WO 2017/046287 A1;;FR 3041118 A1</t>
+          <t>FR 3041118 A1;;FR 3041118 B1;;WO 2017/046287 A1</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>EP 2016071907 W;;FR 1558623 A</t>
+          <t>FR 1558623 A;;EP 2016071907 W</t>
         </is>
       </c>
     </row>
@@ -4073,7 +4073,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>195-278-498-675-732;;107-040-164-637-857;;072-287-191-089-928;;184-931-411-813-726;;192-339-171-675-025</t>
+          <t>192-339-171-675-025;;107-040-164-637-857;;072-287-191-089-928;;195-278-498-675-732;;184-931-411-813-726</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4098,7 +4098,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>SANCHES-KUIPER RAQUEL MARIA;;HAYES MATTHEW JAMES;;RAQUEL MARIA SANCHES-KUIPER;;MATTHEW JAMES HAYES</t>
+          <t>RAQUEL MARIA SANCHES-KUIPER;;HAYES MATTHEW JAMES;;MATTHEW JAMES HAYES;;SANCHES-KUIPER RAQUEL MARIA</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -4117,7 +4117,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>B;;A;;D0;;A1</t>
+          <t>D0;;B;;A;;A1</t>
         </is>
       </c>
       <c r="M33" t="n">
@@ -4131,12 +4131,12 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>G16B50/20;;G06F9/312;;B82Y10/00;;C12Q1/68;;G06N3/12;;G11C11/54;;G11C13/00;;G16H10/40;;B01L7/00</t>
+          <t>G16B50/20;;C12Q1/68;;G16H10/40;;B82Y10/00;;G11C13/00;;G11C11/54;;G06N3/12;;G06F9/312;;B01L7/00</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>G06N3/126;;G16B50/20;;B82Y10/00;;G06N3/002;;C12Q1/68;;G11C13/0019;;B01L7/52;;G11C11/54;;G06N3/123</t>
+          <t>G16B50/20;;C12Q1/68;;G11C13/0019;;B82Y10/00;;G11C11/54;;G06N3/002;;G06N3/126;;G06N3/123;;B01L7/52</t>
         </is>
       </c>
       <c r="R33" t="inlineStr"/>
@@ -4168,12 +4168,12 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>WO 2020/021221 A1;;TW 202008381 A;;GB 2576304 A;;GB 201812169 D0;;GB 2576304 B</t>
+          <t>WO 2020/021221 A1;;TW 202008381 A;;GB 2576304 A;;GB 2576304 B;;GB 201812169 D0</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>GB 201812169 A;;GB 2019051462 W;;TW 108119665 A</t>
+          <t>GB 2019051462 W;;GB 201812169 A;;TW 108119665 A</t>
         </is>
       </c>
     </row>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>181-987-753-698-602;;151-320-079-612-50X;;086-134-305-093-935</t>
+          <t>086-134-305-093-935;;181-987-753-698-602;;151-320-079-612-50X</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4210,7 +4210,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>SANCHES-KUIPER RAQUEL MARIA;;HAYES MATTHEW JAMES</t>
+          <t>HAYES MATTHEW JAMES;;SANCHES-KUIPER RAQUEL MARIA</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
@@ -4224,7 +4224,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Patent Application;;Unknown</t>
+          <t>Unknown;;Patent Application</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -4248,7 +4248,7 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>G06N3/126;;G16B50/20;;B82Y10/00;;G06N3/002;;C12Q1/68;;G11C13/0019;;B01L7/52;;G11C11/54;;G06N3/123</t>
+          <t>G16B50/20;;C12Q1/68;;G11C13/0019;;B82Y10/00;;G11C11/54;;G06N3/002;;G06N3/126;;G06N3/123;;B01L7/52</t>
         </is>
       </c>
       <c r="R34" t="inlineStr"/>
@@ -4280,12 +4280,12 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>CA 3105954 A1;;EP 3827435 A1;;SG 11202100073U A</t>
+          <t>SG 11202100073U A;;CA 3105954 A1;;EP 3827435 A1</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>CA 3105954 A;;EP 19730444 A;;SG 11202100073U A</t>
+          <t>SG 11202100073U A;;CA 3105954 A;;EP 19730444 A</t>
         </is>
       </c>
     </row>
@@ -4297,7 +4297,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>092-900-202-784-87X;;138-303-545-095-517;;118-050-348-728-882;;170-207-950-505-313;;126-537-800-488-374;;177-579-347-292-60X;;032-908-699-779-813;;140-881-661-083-974</t>
+          <t>177-579-347-292-60X;;140-881-661-083-974;;092-900-202-784-87X;;032-908-699-779-813;;138-303-545-095-517;;118-050-348-728-882;;126-537-800-488-374;;170-207-950-505-313</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4307,7 +4307,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Architecture for coupling quantum bits using localised resonators;;Architektur für ein Koppeln von Quantenbits unter Verwendung von lokalisierten Resonatoren;;量子ビットを結合するアーキテクチャのための超伝導マイクロ波共振器空胴及びそれを構成する方法;;用于使用局部谐振器来耦合量子位的架构;;Architecture for coupling quantum bits using localized resonators</t>
+          <t>用于使用局部谐振器来耦合量子位的架构;;Architecture for coupling quantum bits using localized resonators;;Architecture for coupling quantum bits using localised resonators;;Architektur für ein Koppeln von Quantenbits unter Verwendung von lokalisierten Resonatoren;;量子ビットを結合するアーキテクチャのための超伝導マイクロ波共振器空胴及びそれを構成する方法</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -4322,7 +4322,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>MCCLURE III DOUGLAS TEMPLETON;;ガンベッタ、ジェイ;;J·加姆贝塔;;ダイアル、オリバー;;MATTHIAS STEFFEN;;O·蒂亚尔;;M·斯蒂芬;;DOUGLAS TEMPLETON MCCLURE III;;JAY GAMBETTA;;GAMBETTA JAY;;OLIVER DIAL;;D·T·麦克鲁尔三世;;ステファン、マティアス;;マクルーア ザ サード、ダグラス、テンプルトン;;STEFFEN MATTHIAS;;DIAL OLIVER</t>
+          <t>GAMBETTA JAY;;O·蒂亚尔;;OLIVER DIAL;;DIAL OLIVER;;J·加姆贝塔;;MATTHIAS STEFFEN;;M·斯蒂芬;;マクルーア ザ サード、ダグラス、テンプルトン;;STEFFEN MATTHIAS;;ステファン、マティアス;;ダイアル、オリバー;;MCCLURE III DOUGLAS TEMPLETON;;DOUGLAS TEMPLETON MCCLURE III;;JAY GAMBETTA;;ガンベッタ、ジェイ;;D·T·麦克鲁尔三世</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -4331,7 +4331,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>JP;;GB;;DE;;CN</t>
+          <t>CN;;GB;;DE;;JP</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -4355,12 +4355,12 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>G06N20/00;;B82Y10/00;;G06N99/00;;H01P7/00;;H01L39/14;;H01P1/205;;H01L39/24;;G06N10/00;;H01L39/02;;H03K19/195;;H01L39/00</t>
+          <t>H03K19/195;;H01P1/205;;H01L39/02;;H01L39/24;;G06N20/00;;B82Y10/00;;G06N10/00;;H01L39/00;;H01P7/00;;H01L39/14;;G06N99/00</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>G06N20/00;;H01L39/2493;;B82Y10/00;;H01P7/00;;H01P1/205;;H01L39/14;;H05K999/99;;H01L39/24;;G06N10/00;;H01L39/025</t>
+          <t>H01P1/205;;H01L39/24;;G06N20/00;;B82Y10/00;;G06N10/00;;H05K999/99;;H01P7/00;;H01L39/025;;H01L39/14;;H01L39/2493</t>
         </is>
       </c>
       <c r="R35" t="inlineStr"/>
@@ -4392,7 +4392,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>DE 112016001721 T5;;JP 2018530931 A;;GB 201800479 D0;;JP 6644091 B2;;CN 107851876 A;;GB 2556251 B;;CN 107851876 B;;GB 2556251 A</t>
+          <t>DE 112016001721 T5;;JP 2018530931 A;;GB 201800479 D0;;CN 107851876 B;;GB 2556251 A;;JP 6644091 B2;;CN 107851876 A;;GB 2556251 B</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
@@ -4409,7 +4409,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>059-870-669-564-271;;071-230-352-271-170</t>
+          <t>071-230-352-271-170;;059-870-669-564-271</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4434,7 +4434,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>KHOMAMI ABADI MOJTABA;;GAHROOSI AMIR BAHADOR;;MASILAMANI ASHOK PRABHU;;GOULD MATTHEW V</t>
+          <t>GAHROOSI AMIR BAHADOR;;GOULD MATTHEW V;;MASILAMANI ASHOK PRABHU;;KHOMAMI ABADI MOJTABA</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -4467,12 +4467,12 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>G06N3/02;;G01N37/00;;G06N3/08</t>
+          <t>G06N3/08;;G06N3/02;;G01N37/00</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>G01N2035/00891;;G01N35/00722;;B82Y15/00;;G01N33/0034;;G01N33/0031</t>
+          <t>G01N2035/00891;;G01N33/0031;;B82Y15/00;;G01N35/00722;;G01N33/0034</t>
         </is>
       </c>
       <c r="R36" t="inlineStr"/>
@@ -4504,12 +4504,12 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>EP 3746800 A1;;CA 3089818 A1</t>
+          <t>CA 3089818 A1;;EP 3746800 A1</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>CA 3089818 A;;EP 19743153 A</t>
+          <t>EP 19743153 A;;CA 3089818 A</t>
         </is>
       </c>
     </row>
@@ -4546,7 +4546,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>MREJEN MICHAEL;;NAGLER ACHIYA;;MALKIEL ITZIK;;WOLF LIOR;;SUCHOWSKI HAIM;;ARIELI URI</t>
+          <t>NAGLER ACHIYA;;MREJEN MICHAEL;;SUCHOWSKI HAIM;;MALKIEL ITZIK;;WOLF LIOR;;ARIELI URI</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -4583,12 +4583,12 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>G01N21/21;;G01N21/25;;B82Y40/00;;G06N3/04</t>
+          <t>G01N21/21;;G01N21/25;;G06N3/04;;B82Y40/00</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>G06N3/0481;;G06N3/126;;G06N3/08;;G01N2021/258;;G01N21/21;;G06N3/04;;G01B2210/56;;G01N21/25;;B82Y40/00</t>
+          <t>G06N3/04;;G01N21/25;;G01N21/21;;G06N3/0481;;B82Y40/00;;G06N3/08;;G06N3/126;;G01N2021/258;;G01B2210/56</t>
         </is>
       </c>
       <c r="R37" t="inlineStr"/>
@@ -4637,7 +4637,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>185-408-668-875-404;;073-802-025-703-259;;032-075-199-033-544</t>
+          <t>032-075-199-033-544;;073-802-025-703-259;;185-408-668-875-404</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SUBSTRATE CLEANING METHOD, SUBSTRATE CLEANING APPARATUS, SUBSTRATE PROCESSING APPARATUS, SUBSTRATE PROCESSING SYSTEM, AND MACHINE LEARNING DEVICE;;SUBSTRATE CLEANING METHOD, SUBSTRATE CLEANING APPARATUS, SUBSTRATE PROCESSING APPARATUS, SUBSTRATE PROCESSING SYSTEM, MACHINE LEARNING DEVICE, AND PREDICTION DEVICE;;Substrate cleaning method, substrate cleaning apparatus, substrate processing apparatus, substrate processing system, and machine learning device</t>
+          <t>Substrate cleaning method, substrate cleaning apparatus, substrate processing apparatus, substrate processing system, and machine learning device;;SUBSTRATE CLEANING METHOD, SUBSTRATE CLEANING APPARATUS, SUBSTRATE PROCESSING APPARATUS, SUBSTRATE PROCESSING SYSTEM, MACHINE LEARNING DEVICE, AND PREDICTION DEVICE;;SUBSTRATE CLEANING METHOD, SUBSTRATE CLEANING APPARATUS, SUBSTRATE PROCESSING APPARATUS, SUBSTRATE PROCESSING SYSTEM, AND MACHINE LEARNING DEVICE</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -4675,7 +4675,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>JP;;US;;CN</t>
+          <t>CN;;US;;JP</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -4699,12 +4699,12 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>H01L21/304;;G01Q60/38;;B82Y35/00;;G01B21/30;;H01L21/67;;H01L21/02;;G01Q10/06</t>
+          <t>H01L21/02;;B82Y35/00;;H01L21/67;;G01Q10/06;;G01B21/30;;G01Q60/38;;H01L21/304</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>G01Q60/38;;G01Q10/065;;H01L21/67253;;H01L21/67051;;B82Y35/00;;G01B21/30;;H01L21/02041;;H01L21/67017;;H01L21/67046;;G01Q30/04</t>
+          <t>H01L21/67051;;B82Y35/00;;G01Q30/04;;H01L21/67017;;H01L21/67046;;G01B21/30;;H01L21/02041;;G01Q10/065;;G01Q60/38;;H01L21/67253</t>
         </is>
       </c>
       <c r="R38" t="inlineStr"/>
@@ -4736,12 +4736,12 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>CN 111029243 A;;JP 2020061469 A;;US 2020/0116480 A1</t>
+          <t>CN 111029243 A;;US 2020/0116480 A1;;JP 2020061469 A</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>JP 2018191930 A;;CN 201910953017 A;;US 201916596051 A</t>
+          <t>US 201916596051 A;;JP 2018191930 A;;CN 201910953017 A</t>
         </is>
       </c>
     </row>
@@ -4763,7 +4763,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>電子回路、ニューラルネットワーク及びニューラルネットワークの学習方法;;ELECTRONIC CIRCUIT, NEURAL NETWORK, AND NEURAL NETWORK LEARNING METHOD</t>
+          <t>ELECTRONIC CIRCUIT, NEURAL NETWORK, AND NEURAL NETWORK LEARNING METHOD;;電子回路、ニューラルネットワーク及びニューラルネットワークの学習方法</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -4778,7 +4778,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>新海 剛;;SHINKAI GOU</t>
+          <t>SHINKAI GOU;;新海 剛</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>JP;;US</t>
+          <t>US;;JP</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -4815,12 +4815,12 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>G06N3/08;;B82Y10/00;;G06G7/60;;G06N99/00;;G06N10/00;;H01L29/66;;H01L29/06;;G06N3/063</t>
+          <t>G06N3/063;;G06G7/60;;H01L29/06;;B82Y10/00;;G06N10/00;;G06N3/08;;H01L29/66;;G06N99/00</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>H01L29/0665;;G06N3/08;;B82Y10/00;;H01L29/66977;;G06N10/00;;H01L29/205</t>
+          <t>H01L29/205;;B82Y10/00;;G06N10/00;;G06N3/08;;H01L29/0665;;H01L29/66977</t>
         </is>
       </c>
       <c r="R39" t="inlineStr"/>
@@ -4852,12 +4852,12 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>US 2021/0158159 A1;;JP 2021082130 A</t>
+          <t>JP 2021082130 A;;US 2021/0158159 A1</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>JP 2019210549 A;;US 202017092439 A</t>
+          <t>US 202017092439 A;;JP 2019210549 A</t>
         </is>
       </c>
     </row>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>188-090-679-785-086;;081-884-875-823-11X</t>
+          <t>081-884-875-823-11X;;188-090-679-785-086</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4894,7 +4894,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>정용호;;CHUNG YONG HO;;CHOI JEONG WOO;;최정우</t>
+          <t>CHUNG YONG HO;;최정우;;정용호;;CHOI JEONG WOO</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -4913,7 +4913,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>A;;B1</t>
+          <t>B1;;A</t>
         </is>
       </c>
       <c r="M40" t="n">
@@ -4927,12 +4927,12 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H01L27/28;;H01L51/00</t>
+          <t>H01L51/00;;B82Y10/00;;H01L27/28</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H01L51/0093;;H01L27/28;;G11C13/0019</t>
+          <t>G11C13/0019;;B82Y10/00;;H01L27/28;;H01L51/0093</t>
         </is>
       </c>
       <c r="R40" t="inlineStr"/>
@@ -5006,7 +5006,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>HEO JUN;;SOHN IL KWON</t>
+          <t>SOHN IL KWON;;HEO JUN</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -5043,12 +5043,12 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>H03M13/00;;G06F17/16;;H04L9/08;;B82Y10/00;;H03M13/29;;H03M13/11;;G06N10/00;;G06N5/00;;G06F17/10;;G06F16/901</t>
+          <t>G06F16/901;;G06F17/16;;H04L9/08;;H03M13/11;;B82Y10/00;;G06N10/00;;H03M13/29;;G06F17/10;;G06N5/00;;H03M13/00</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>H03M13/00;;G06F17/16;;H03M13/1108;;H03M13/1191;;G06N5/003;;B82Y10/00;;H04L9/0852;;H03M13/616;;H03M13/11;;G06F11/10;;G06N10/00;;G06F17/10;;H03M13/29;;H03M13/615;;G06F16/9024;;H04B10/70;;H03M13/3933</t>
+          <t>H03M13/615;;H03M13/1191;;G06N5/003;;G06F17/16;;G06F16/9024;;H03M13/11;;H03M13/1108;;B82Y10/00;;G06N10/00;;H03M13/29;;G06F17/10;;H04B10/70;;H03M13/00;;H03M13/3933;;H03M13/616;;G06F11/10;;H04L9/0852</t>
         </is>
       </c>
       <c r="R41" t="inlineStr"/>
@@ -5080,7 +5080,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>US 2019/0199373 A1;;US 10911067 B2</t>
+          <t>US 10911067 B2;;US 2019/0199373 A1</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
@@ -5107,7 +5107,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>METHOD AND APPARATUS FOR GENERATING QUANTUM ERROR CORRECTION CODE USING GRAPH STATE;;METHOD AND APPARATUS FOR GENERATING QUANTUM ERROR CORRECTING CODE USING GRAPH STATES</t>
+          <t>METHOD AND APPARATUS FOR GENERATING QUANTUM ERROR CORRECTING CODE USING GRAPH STATES;;METHOD AND APPARATUS FOR GENERATING QUANTUM ERROR CORRECTION CODE USING GRAPH STATE</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -5122,7 +5122,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>HEO JUN;;SOHN IL KWON</t>
+          <t>SOHN IL KWON;;HEO JUN</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -5141,7 +5141,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>A1;;B1</t>
+          <t>B1;;A1</t>
         </is>
       </c>
       <c r="M42" t="n">
@@ -5155,12 +5155,12 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>H03M13/00;;G06N99/00;;H03M13/29;;H03M13/11;;G06F11/10;;H03M13/39;;H04B10/70</t>
+          <t>H03M13/11;;H03M13/39;;H03M13/29;;H04B10/70;;H03M13/00;;G06F11/10;;G06N99/00</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>H03M13/00;;G06F17/16;;H03M13/1108;;H03M13/1191;;G06N5/003;;B82Y10/00;;H04L9/0852;;H03M13/616;;H03M13/11;;G06F11/10;;G06N10/00;;G06F17/10;;H03M13/29;;H03M13/615;;G06F16/9024;;H04B10/70;;H03M13/3933</t>
+          <t>H03M13/615;;H03M13/1191;;G06N5/003;;G06F17/16;;G06F16/9024;;H03M13/11;;H03M13/1108;;B82Y10/00;;G06N10/00;;H03M13/29;;G06F17/10;;H04B10/70;;H03M13/00;;H03M13/3933;;H03M13/616;;G06F11/10;;H04L9/0852</t>
         </is>
       </c>
       <c r="R42" t="inlineStr"/>
@@ -5192,12 +5192,12 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>KR 101768066 B1;;WO 2017/217577 A1</t>
+          <t>WO 2017/217577 A1;;KR 101768066 B1</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>KR 2016006809 W;;KR 20160073350 A</t>
+          <t>KR 20160073350 A;;KR 2016006809 W</t>
         </is>
       </c>
     </row>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>105-431-024-371-108;;168-901-778-708-781</t>
+          <t>168-901-778-708-781;;105-431-024-371-108</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5229,12 +5229,12 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>IUCF HYU;;한양대학교 산학협력단</t>
+          <t>한양대학교 산학협력단;;IUCF HYU</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>YOON TAE HYUN;;하키우;;윤태현;;HA KIEU MY;;TRINH XUAN TUNG;;김진배;;KIM JIN BAE;;트린수안텅</t>
+          <t>김진배;;윤태현;;HA KIEU MY;;트린수안텅;;하키우;;TRINH XUAN TUNG;;KIM JIN BAE;;YOON TAE HYUN</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -5253,7 +5253,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>A;;B1</t>
+          <t>B1;;A</t>
         </is>
       </c>
       <c r="M43" t="n">
@@ -5267,7 +5267,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>G06F19/00;;G16C10/00;;B82Y35/00</t>
+          <t>B82Y35/00;;G06F19/00;;G16C10/00</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>138-446-145-078-230;;052-356-970-848-744;;108-664-458-321-884;;007-424-307-118-008</t>
+          <t>007-424-307-118-008;;138-446-145-078-230;;108-664-458-321-884;;052-356-970-848-744</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>QUANTUM MECHANICAL MACHINE VISION SYSTEM AND ARITHMETIC OPERATION METHOD BASED ON QUANTUM DOT;;QUANTUM MECHANICAL MACHINE VISION SYSTEM BASED ON QUANTUM DOT AND ARITHMETIC OPERATION METHOD;;Quantum mechanical machine vision system and arithmetic operation method based on quantum dot</t>
+          <t>QUANTUM MECHANICAL MACHINE VISION SYSTEM AND ARITHMETIC OPERATION METHOD BASED ON QUANTUM DOT;;Quantum mechanical machine vision system and arithmetic operation method based on quantum dot;;QUANTUM MECHANICAL MACHINE VISION SYSTEM BASED ON QUANTUM DOT AND ARITHMETIC OPERATION METHOD</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -5341,7 +5341,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>서울시립대학교 산학협력단;;UNIV SEOUL IND COOP FOUND</t>
+          <t>UNIV SEOUL IND COOP FOUND;;서울시립대학교 산학협력단</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -5369,7 +5369,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>B2;;A;;A1;;B1</t>
+          <t>B1;;B2;;A;;A1</t>
         </is>
       </c>
       <c r="M44" t="n">
@@ -5383,12 +5383,12 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>G06N20/00;;G06K9/62;;B82Y10/00;;G06N99/00;;G06N10/00;;G06K9/66</t>
+          <t>G06K9/62;;G06N20/00;;B82Y10/00;;G06N10/00;;G06K9/66;;G06N99/00</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>G06N20/00;;B82Y10/00;;G06K9/6202;;G06K9/6262;;G06N10/00;;G06K9/66;;G06K9/56</t>
+          <t>G06K9/56;;G06K9/6202;;G06N20/00;;B82Y10/00;;G06N10/00;;G06K9/66;;G06K9/6262</t>
         </is>
       </c>
       <c r="R44" t="inlineStr"/>
@@ -5420,7 +5420,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>KR 101945599 B1;;US 10489718 B2;;KR 20180067006 A;;US 2018/0165594 A1</t>
+          <t>US 10489718 B2;;KR 20180067006 A;;US 2018/0165594 A1;;KR 101945599 B1</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
@@ -5437,7 +5437,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>023-101-928-686-458;;130-916-866-115-532;;104-421-695-854-199;;139-280-703-791-17X</t>
+          <t>130-916-866-115-532;;023-101-928-686-458;;104-421-695-854-199;;139-280-703-791-17X</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5447,7 +5447,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>QUANTUM MECHANICAL ARTIFICIAL VISION SYSTEM BASED ON ORBITAL QUBIT AND ARITHMETIC OPERATION METHOD;;Quantum mechanical machine vision system and arithmetic operation method based on orbital qubit;;QUANTUM MECHANICAL MACHINE VISION SYSTEM AND ARITHMETIC OPERATION METHOD BASED ON ORBITAL QUBIT</t>
+          <t>Quantum mechanical machine vision system and arithmetic operation method based on orbital qubit;;QUANTUM MECHANICAL MACHINE VISION SYSTEM AND ARITHMETIC OPERATION METHOD BASED ON ORBITAL QUBIT;;QUANTUM MECHANICAL ARTIFICIAL VISION SYSTEM BASED ON ORBITAL QUBIT AND ARITHMETIC OPERATION METHOD</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -5457,7 +5457,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>서울시립대학교 산학협력단;;UNIV SEOUL IND COOP FOUND</t>
+          <t>UNIV SEOUL IND COOP FOUND;;서울시립대학교 산학협력단</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -5485,7 +5485,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>B2;;A;;A1;;B1</t>
+          <t>B1;;B2;;A;;A1</t>
         </is>
       </c>
       <c r="M45" t="n">
@@ -5499,12 +5499,12 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>G06N20/00;;G06K9/62;;B82Y10/00;;G06N99/00;;G06F17/11;;G06N10/00;;G06K9/66</t>
+          <t>G06K9/62;;G06N20/00;;B82Y10/00;;G06F17/11;;G06N10/00;;G06K9/66;;G06N99/00</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>G06N20/00;;G06K9/62;;B82Y10/00;;G06F17/11;;G06K9/6202;;H01L29/66977;;G06N10/00;;G06K9/66</t>
+          <t>G06K9/6202;;G06K9/62;;G06N20/00;;B82Y10/00;;G06N10/00;;G06F17/11;;G06K9/66;;H01L29/66977</t>
         </is>
       </c>
       <c r="R45" t="inlineStr"/>
@@ -5536,7 +5536,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>KR 101951524 B1;;US 2018/0165595 A1;;US 10482387 B2;;KR 20180067007 A</t>
+          <t>KR 20180067007 A;;US 2018/0165595 A1;;US 10482387 B2;;KR 101951524 B1</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
@@ -5553,7 +5553,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>073-636-151-135-298;;003-096-429-312-17X;;036-490-481-425-561</t>
+          <t>003-096-429-312-17X;;036-490-481-425-561;;073-636-151-135-298</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -5563,7 +5563,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Neuromorphic Device Including a Synapse Having Carbon Nano-Tubes;;Neuromorphic device including a synapse having carbon nano-tubes;;NEUROMORPHIC DEVICE INCLUDING A SYNAPSE HAVING CARBON NANO-TUBES</t>
+          <t>Neuromorphic Device Including a Synapse Having Carbon Nano-Tubes;;NEUROMORPHIC DEVICE INCLUDING A SYNAPSE HAVING CARBON NANO-TUBES;;Neuromorphic device including a synapse having carbon nano-tubes</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -5578,7 +5578,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>LEE HYUNG DONG;;HEO KEUN;;CHOI YONG-SOO;;LEE HYUNG-DONG;;CHOI YONG SOO</t>
+          <t>HEO KEUN;;LEE HYUNG-DONG;;CHOI YONG-SOO;;LEE HYUNG DONG;;CHOI YONG SOO</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -5615,12 +5615,12 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>H03K19/177;;B82Y10/00;;H01L27/28;;C01B32/158;;H01L51/05;;H01L51/00;;G06N3/063</t>
+          <t>G06N3/063;;H01L51/05;;C01B32/158;;B82Y10/00;;H01L27/28;;H03K19/177;;H01L51/00</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>H01L51/0583;;B82Y10/00;;C01B2202/02;;G06N3/049;;C01B2202/06;;C01B32/158;;H01L51/0048;;C01B2202/04;;H01L27/285;;Y10S977/742;;B82Y40/00;;H03K19/17736;;G06N3/0635;;G06N3/063</t>
+          <t>G06N3/0635;;G06N3/063;;C01B32/158;;H01L51/0583;;C01B2202/04;;G06N3/049;;B82Y10/00;;B82Y40/00;;C01B2202/06;;Y10S977/742;;C01B2202/02;;H03K19/17736;;H01L51/0048;;H01L27/285</t>
         </is>
       </c>
       <c r="R46" t="inlineStr"/>
@@ -5657,7 +5657,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>KR 20170022014 A;;US 201715648342 A</t>
+          <t>US 201715648342 A;;KR 20170022014 A</t>
         </is>
       </c>
     </row>
@@ -5669,7 +5669,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>183-251-705-523-85X;;175-211-607-286-348</t>
+          <t>175-211-607-286-348;;183-251-705-523-85X</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -5694,7 +5694,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>정영민;;신현동;;파쿼 아마드;;SHIN HYUN DONG;;JEONG YOUNG MIN;;FAROOQ AHMAD</t>
+          <t>SHIN HYUN DONG;;신현동;;JEONG YOUNG MIN;;FAROOQ AHMAD;;정영민;;파쿼 아마드</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -5713,7 +5713,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>A;;B1</t>
+          <t>B1;;A</t>
         </is>
       </c>
       <c r="M47" t="n">
@@ -5732,7 +5732,7 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N20/00;;G06N10/00</t>
+          <t>G06N20/00;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="R47" t="inlineStr"/>
@@ -5781,7 +5781,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>023-219-706-755-351;;044-863-244-807-936;;182-619-245-762-417</t>
+          <t>182-619-245-762-417;;044-863-244-807-936;;023-219-706-755-351</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -5806,7 +5806,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>CHO JIN SUN;;CHO JIN-SUN;;KIM SANG SIG;;LIM DOO HYEOK;;LIM DOO-HYEOK;;CHO KYOUNG-AH;;PARK YOUNG-SOO;;WOO SOL-A;;CHO KYOUNG AH;;WOO SOL A;;PARK YOUNG SOO;;KIM SANG-SIK</t>
+          <t>KIM SANG-SIK;;CHO JIN SUN;;LIM DOO-HYEOK;;WOO SOL-A;;PARK YOUNG-SOO;;CHO KYOUNG-AH;;CHO JIN-SUN;;WOO SOL A;;LIM DOO HYEOK;;KIM SANG SIG;;PARK YOUNG SOO;;CHO KYOUNG AH</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -5819,7 +5819,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>US;;KR;;CN</t>
+          <t>CN;;US;;KR</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -5843,12 +5843,12 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>H01L29/739;;H01L29/08;;H01L29/10;;H01L29/423;;H01L29/06;;H03K17/687;;G06N3/063</t>
+          <t>G06N3/063;;H01L29/10;;H03K17/687;;H01L29/739;;H01L29/08;;H01L29/06;;H01L29/423</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>H01L29/1033;;G06N3/0481;;H01L29/0676;;H03K17/6871;;B82Y10/00;;H01L29/42392;;G06N3/049;;H03K17/165;;H01L29/7391;;H01L45/1206;;H01L29/0657;;H01L29/0847;;G06N3/0635;;G06N3/063</t>
+          <t>G06N3/0635;;G06N3/063;;H01L29/0657;;G06N3/049;;H01L29/0676;;G06N3/0481;;H01L29/7391;;B82Y10/00;;H03K17/165;;H01L29/0847;;H03K17/6871;;H01L45/1206;;H01L29/1033;;H01L29/42392</t>
         </is>
       </c>
       <c r="R48" t="inlineStr"/>
@@ -5885,7 +5885,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>US 201916686406 A;;CN 201911132679 A;;KR 20190103264 A</t>
+          <t>KR 20190103264 A;;US 201916686406 A;;CN 201911132679 A</t>
         </is>
       </c>
     </row>
@@ -5897,7 +5897,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>166-436-753-396-925;;042-088-088-360-484;;143-789-421-997-213;;000-924-163-689-210;;023-676-481-169-696;;191-752-177-258-33X</t>
+          <t>143-789-421-997-213;;191-752-177-258-33X;;023-676-481-169-696;;166-436-753-396-925;;042-088-088-360-484;;000-924-163-689-210</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>ニューロモルフィックネットワーク;;신경형태 망;;NEUROMORPHIC NETWORK</t>
+          <t>신경형태 망;;ニューロモルフィックネットワーク;;NEUROMORPHIC NETWORK</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -5922,7 +5922,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>FOSTNER SHAWN;;BROWN SIMON ANTHONY;;ボーズ サウラブ クマー;;BOSE SAURABH KUMAR;;フォスナー ショーン;;ブラウン シモン アンソニー</t>
+          <t>BROWN SIMON ANTHONY;;ブラウン シモン アンソニー;;ボーズ サウラブ クマー;;BOSE SAURABH KUMAR;;フォスナー ショーン;;FOSTNER SHAWN</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -5935,7 +5935,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>US;;CN;;JP;;KR;;EP</t>
+          <t>CN;;KR;;EP;;JP;;US</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -5945,7 +5945,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>A;;A4;;A1</t>
+          <t>A4;;A;;A1</t>
         </is>
       </c>
       <c r="M49" t="n">
@@ -5959,12 +5959,12 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>B82B3/00;;B82Y10/00;;H01L49/00;;G06N3/04;;B82Y40/00;;B82Y30/00;;G06N3/063</t>
+          <t>G06N3/04;;G06N3/063;;B82Y10/00;;B82Y40/00;;H01L49/00;;B82B3/00;;B82Y30/00</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N3/0635;;G06N3/0445</t>
+          <t>G06N3/0635;;G06N3/0445;;B82Y10/00</t>
         </is>
       </c>
       <c r="R49" t="inlineStr"/>
@@ -5996,12 +5996,12 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>KR 20180051487 A;;CN 108137312 A;;EP 3317224 A1;;EP 3317224 A4;;US 2018/0197077 A1;;JP 2018530145 A</t>
+          <t>JP 2018530145 A;;EP 3317224 A1;;KR 20180051487 A;;EP 3317224 A4;;CN 108137312 A;;US 2018/0197077 A1</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>JP 2017568334 A;;CN 201680039398 A;;US 201615740791 A;;KR 20187003064 A;;EP 16818317 A</t>
+          <t>EP 16818317 A;;US 201615740791 A;;JP 2017568334 A;;KR 20187003064 A;;CN 201680039398 A</t>
         </is>
       </c>
     </row>
@@ -6033,12 +6033,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>THE UNIV OF CANTERBURY;;FOSTNER SHAWN;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY</t>
+          <t>BROWN SIMON ANTHONY;;FOSTNER SHAWN;;BOSE SAURABH KUMAR;;THE UNIV OF CANTERBURY</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>FOSTNER SHAWN;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY</t>
+          <t>BROWN SIMON ANTHONY;;FOSTNER SHAWN;;BOSE SAURABH KUMAR</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -6071,12 +6071,12 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>B82Y10/00;;B82Y30/00;;B82B3/00</t>
+          <t>B82B3/00;;B82Y10/00;;B82Y30/00</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N3/0635;;G06N3/0445</t>
+          <t>G06N3/0635;;G06N3/0445;;B82Y10/00</t>
         </is>
       </c>
       <c r="R50" t="inlineStr"/>
@@ -6125,7 +6125,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>038-126-807-734-99X;;102-668-769-413-639;;166-964-008-678-577;;000-934-395-077-394;;062-442-047-736-531;;114-160-458-226-391;;163-192-380-009-138;;075-782-007-590-446;;077-346-225-203-979;;001-079-502-253-130;;180-073-430-817-518;;035-130-560-396-513;;108-663-655-304-325;;044-300-098-394-889</t>
+          <t>062-442-047-736-531;;102-668-769-413-639;;035-130-560-396-513;;038-126-807-734-99X;;114-160-458-226-391;;180-073-430-817-518;;000-934-395-077-394;;166-964-008-678-577;;108-663-655-304-325;;163-192-380-009-138;;001-079-502-253-130;;044-300-098-394-889;;077-346-225-203-979;;075-782-007-590-446</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -6135,7 +6135,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>METHODS FOR CODING AND DECODING INFORMATION;;Methods of coding and decoding information;;Methods of coding an decoding information;;METHODS OF ENCODING AND DECODING INFORMATION;;Methods of encoding and decoding information;;METHODS OF CODING AND DECODING INFORMATION</t>
+          <t>Methods of coding an decoding information;;METHODS FOR CODING AND DECODING INFORMATION;;Methods of coding and decoding information;;Methods of encoding and decoding information;;METHODS OF CODING AND DECODING INFORMATION;;METHODS OF ENCODING AND DECODING INFORMATION</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -6145,12 +6145,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LIMITED LIABILITY COMPANY</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -6163,7 +6163,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>US;;WO;;CA;;RU;;CN;;JP;;ZA;;KR;;AU;;IL;;TW;;EP</t>
+          <t>CN;;ZA;;WO;;RU;;KR;;IL;;CA;;TW;;EP;;JP;;US;;AU</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -6173,7 +6173,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>B2;;C1;;A;;A1;;B;;D0</t>
+          <t>C1;;B2;;A;;A1;;B;;D0</t>
         </is>
       </c>
       <c r="M51" t="n">
@@ -6187,12 +6187,12 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>H03M13/00;;G06F19/10;;H03M7/14;;G06F17/30;;B82Y10/00;;H04N/;;H03M7/06;;C12Q1/68;;G06F19/22;;H03M7/28;;G06N3/12;;C12N15/09;;H03M13/47;;G06K19/06;;H03M7/30;;G06F11/08</t>
+          <t>G06F19/10;;C12Q1/68;;H03M13/47;;H03M7/28;;C12N15/09;;G06F19/22;;H04N/;;B82Y10/00;;H03M7/30;;H03M7/06;;H03M7/14;;G06N3/12;;H03M13/00;;G06K19/06;;G06F11/08;;G06F17/30</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>H03M13/00;;B82Y10/00;;G06F16/2228;;G16B30/00;;C12Q1/68;;H03M13/01;;H03M13/29;;G06F11/10;;G16B99/00;;G06N3/123;;G06F11/08</t>
+          <t>C12Q1/68;;G16B30/00;;B82Y10/00;;H03M13/29;;G06F11/08;;H03M13/00;;G16B99/00;;H03M13/01;;G06N3/123;;G06F16/2228;;G06F11/10</t>
         </is>
       </c>
       <c r="R51" t="inlineStr"/>
@@ -6224,12 +6224,12 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>TW I673604 B;;AU 2018/204252 A1;;KR 20180136407 A;;TW 201905691 A;;JP 2019009776 A;;EP 3416076 A1;;CN 109086890 A;;IL 259907 D0;;WO 2018/231100 A1;;AU 2018/204252 B2;;CA 3008070 A1;;US 2018/0365276 A1;;RU 2659025 C1;;ZA 201803894 B</t>
+          <t>CA 3008070 A1;;EP 3416076 A1;;JP 2019009776 A;;US 2018/0365276 A1;;AU 2018/204252 A1;;WO 2018/231100 A1;;IL 259907 D0;;TW 201905691 A;;KR 20180136407 A;;TW I673604 B;;ZA 201803894 B;;AU 2018/204252 B2;;RU 2659025 C1;;CN 109086890 A</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>US 201816008958 A;;CA 3008070 A;;KR 20180068262 A;;EP 18177823 A;;ZA 201803894 A;;RU 2018000384 W;;JP 2018113817 A;;RU 2017120555 A;;IL 25990718 A;;TW 107120605 A;;AU 2018/204252 A;;CN 201810615395 A</t>
+          <t>RU 2018000384 W;;TW 107120605 A;;CA 3008070 A;;RU 2017120555 A;;US 201816008958 A;;IL 25990718 A;;ZA 201803894 A;;JP 2018113817 A;;KR 20180068262 A;;EP 18177823 A;;AU 2018/204252 A;;CN 201810615395 A</t>
         </is>
       </c>
     </row>
@@ -6257,7 +6257,7 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>LANDIGRAD LLC;;SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치;;란디그레드, 리미티드 라이어빌리티 컴퍼니</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LLC;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;스미르노브, 세르게이 니콜라예비치</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -6281,7 +6281,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>A;;B1</t>
+          <t>B1;;A</t>
         </is>
       </c>
       <c r="M52" t="n">
@@ -6295,12 +6295,12 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>G16B30/00;;G06F16/22;;H03M13/29;;H03M13/01;;G06F11/10;;G06N3/12</t>
+          <t>G06F16/22;;G16B30/00;;H03M13/29;;G06N3/12;;H03M13/01;;G06F11/10</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>H03M13/00;;B82Y10/00;;G06F16/2228;;G16B30/00;;C12Q1/68;;H03M13/01;;H03M13/29;;G06F11/10;;G16B99/00;;G06N3/123;;G06F11/08</t>
+          <t>C12Q1/68;;G16B30/00;;B82Y10/00;;H03M13/29;;G06F11/08;;H03M13/00;;G16B99/00;;H03M13/01;;G06N3/123;;G06F16/2228;;G06F11/10</t>
         </is>
       </c>
       <c r="R52" t="inlineStr"/>
@@ -6332,7 +6332,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>KR 20200014926 A;;KR 102269463 B1</t>
+          <t>KR 102269463 B1;;KR 20200014926 A</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
@@ -6407,12 +6407,12 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>G06N20/00;;B82Y15/00;;G16C60/00;;G01R23/177;;G01N27/414;;G01N33/00</t>
+          <t>G16C60/00;;G06N20/00;;G01R23/177;;G01N27/414;;G01N33/00;;B82Y15/00</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>G01N27/414;;G06N20/00;;G16C20/70;;G16C60/00;;G01R23/177;;G16C20/30;;B82Y30/00;;G01N33/00</t>
+          <t>G16C60/00;;G06N20/00;;G01R23/177;;G01N27/414;;G01N33/00;;G16C20/30;;G16C20/70;;B82Y30/00</t>
         </is>
       </c>
       <c r="R53" t="inlineStr"/>
@@ -6461,7 +6461,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>181-571-309-454-653;;136-452-791-198-630;;054-690-301-667-678;;119-509-407-241-779;;033-494-926-604-108;;144-606-189-820-123;;145-042-401-678-239;;160-664-290-293-52X;;027-716-622-208-177;;109-116-047-040-788;;086-439-121-098-851;;127-396-891-419-410;;004-336-178-048-63X;;076-028-241-945-059</t>
+          <t>086-439-121-098-851;;076-028-241-945-059;;181-571-309-454-653;;054-690-301-667-678;;109-116-047-040-788;;136-452-791-198-630;;033-494-926-604-108;;119-509-407-241-779;;144-606-189-820-123;;145-042-401-678-239;;160-664-290-293-52X;;127-396-891-419-410;;027-716-622-208-177;;004-336-178-048-63X</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -6471,7 +6471,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>量子ビットにおける漏れの除去;;Removing leakage in a quantum bit;;REMOVING LEAKAGE IN A QUANTUM BIT;;양자 비트에서 누설 제거</t>
+          <t>REMOVING LEAKAGE IN A QUANTUM BIT;;양자 비트에서 누설 제거;;量子ビットにおける漏れの除去;;Removing leakage in a quantum bit</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -6481,7 +6481,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>ラミ・バレントス;;GOOGLE INC;;구글 엘엘씨;;GOOGLE LLC;;BARENDS RAMI;;グーグル エルエルシー</t>
+          <t>GOOGLE INC;;구글 엘엘씨;;ラミ・バレントス;;グーグル エルエルシー;;BARENDS RAMI;;GOOGLE LLC</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -6491,7 +6491,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>GOOGLE LLC (2018-07-12);;GOOGLE LLC (2019-07-10);;GOOGLE LLC (2016-02-01)</t>
+          <t>GOOGLE LLC (2018-07-12);;GOOGLE LLC (2016-02-01);;GOOGLE LLC (2019-07-10)</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -6499,7 +6499,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>US;;WO;;CN;;JP;;KR;;AU;;SG;;CA;;EP</t>
+          <t>CN;;WO;;KR;;CA;;EP;;JP;;US;;SG;;AU</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>B2;;C;;A;;A1;;B1</t>
+          <t>B2;;A;;B1;;A1;;C</t>
         </is>
       </c>
       <c r="M54" t="n">
@@ -6523,12 +6523,12 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N99/00;;G06N10/00;;H03K3/38;;G02F3/00;;H01L27/18</t>
+          <t>H01L27/18;;B82Y10/00;;G06N10/00;;H03K3/38;;G02F3/00;;G06N99/00</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>G06N20/00;;H01L27/18;;F41J7/04;;B82Y10/00;;F41J5/18;;F41J9/02;;A63F9/0204;;G06N10/00;;H03K3/38;;F41J1/10</t>
+          <t>H01L27/18;;A63F9/0204;;F41J7/04;;F41J5/18;;G06N20/00;;B82Y10/00;;G06N10/00;;H03K3/38;;F41J9/02;;F41J1/10</t>
         </is>
       </c>
       <c r="R54" t="inlineStr"/>
@@ -6560,12 +6560,12 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>US 10217057 B2;;CA 3003695 C;;AU 2015/412742 B2;;KR 20180103833 A;;KR 102161140 B1;;JP 2018534638 A;;AU 2015/412742 A1;;CN 108701261 A;;JP 6573727 B2;;US 2018/0314967 A1;;EP 3369047 A1;;WO 2017/074379 A1;;SG 11201803545Q A;;CA 3003695 A1</t>
+          <t>AU 2015/412742 A1;;US 2018/0314967 A1;;AU 2015/412742 B2;;US 10217057 B2;;EP 3369047 A1;;KR 102161140 B1;;JP 6573727 B2;;SG 11201803545Q A;;CN 108701261 A;;JP 2018534638 A;;WO 2017/074379 A1;;CA 3003695 A1;;KR 20180103833 A;;CA 3003695 C</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>US 201515771106 A;;AU 2015/412742 A;;JP 2018542110 A;;US 2015/0057984 W;;CA 3003695 A;;CN 201580085007 A;;KR 20187014604 A;;SG 11201803545Q A;;EP 15794414 A</t>
+          <t>US 2015/0057984 W;;CN 201580085007 A;;JP 2018542110 A;;US 201515771106 A;;KR 20187014604 A;;SG 11201803545Q A;;CA 3003695 A;;AU 2015/412742 A;;EP 15794414 A</t>
         </is>
       </c>
     </row>
@@ -6577,7 +6577,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>057-117-762-911-95X;;077-452-638-337-800</t>
+          <t>077-452-638-337-800;;057-117-762-911-95X</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -6639,12 +6639,12 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>G06N20/00;;H01L27/18;;F41J7/04;;F41J5/18;;F41J9/02;;G06N10/00;;A63F9/02;;H03K3/38;;F41J1/10</t>
+          <t>H01L27/18;;F41J7/04;;A63F9/02;;G06N20/00;;F41J5/18;;G06N10/00;;H03K3/38;;F41J9/02;;F41J1/10</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>G06N20/00;;H01L27/18;;F41J7/04;;B82Y10/00;;F41J5/18;;F41J9/02;;A63F9/0204;;G06N10/00;;H03K3/38;;F41J1/10</t>
+          <t>H01L27/18;;A63F9/0204;;F41J7/04;;F41J5/18;;G06N20/00;;B82Y10/00;;G06N10/00;;H03K3/38;;F41J9/02;;F41J1/10</t>
         </is>
       </c>
       <c r="R55" t="inlineStr"/>
@@ -6676,7 +6676,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>US 2019/0383586 A1;;US 10867258 B2</t>
+          <t>US 10867258 B2;;US 2019/0383586 A1</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
@@ -6755,12 +6755,12 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>G06N20/00;;H01L27/18;;F41J7/04;;F41J5/18;;F41J9/02;;G06N10/00;;H03K3/38;;F41J1/10</t>
+          <t>H01L27/18;;F41J7/04;;G06N20/00;;F41J5/18;;G06N10/00;;H03K3/38;;F41J9/02;;F41J1/10</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>G06N20/00;;H01L27/18;;F41J7/04;;B82Y10/00;;F41J5/18;;F41J9/02;;A63F9/0204;;G06N10/00;;H03K3/38;;F41J1/10</t>
+          <t>H01L27/18;;A63F9/0204;;F41J7/04;;F41J5/18;;G06N20/00;;B82Y10/00;;G06N10/00;;H03K3/38;;F41J9/02;;F41J1/10</t>
         </is>
       </c>
       <c r="R56" t="inlineStr"/>
@@ -6809,7 +6809,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>008-969-973-657-149;;001-753-592-797-300</t>
+          <t>001-753-592-797-300;;008-969-973-657-149</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -6819,7 +6819,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Removing leakage in a quantum bit;;REMOVING LEAKAGE IN A QUANTUM BIT</t>
+          <t>REMOVING LEAKAGE IN A QUANTUM BIT;;Removing leakage in a quantum bit</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -6839,7 +6839,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>GOOGLE INC (2016-02-01);;GOOGLE LLC (2017-09-29)</t>
+          <t>GOOGLE LLC (2017-09-29);;GOOGLE INC (2016-02-01)</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -6871,12 +6871,12 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>F41J7/04;;F41J5/18;;F41J9/02;;G06N10/00;;A63F9/02;;F41J1/10</t>
+          <t>F41J7/04;;A63F9/02;;F41J5/18;;G06N10/00;;F41J9/02;;F41J1/10</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>G06N20/00;;H01L27/18;;F41J7/04;;B82Y10/00;;F41J5/18;;F41J9/02;;A63F9/0204;;G06N10/00;;H03K3/38;;F41J1/10</t>
+          <t>H01L27/18;;A63F9/0204;;F41J7/04;;F41J5/18;;G06N20/00;;B82Y10/00;;G06N10/00;;H03K3/38;;F41J9/02;;F41J1/10</t>
         </is>
       </c>
       <c r="R57" t="inlineStr"/>
@@ -6925,7 +6925,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>197-942-427-280-157;;012-779-809-146-993;;170-523-664-499-340;;047-713-326-117-82X</t>
+          <t>197-942-427-280-157;;170-523-664-499-340;;047-713-326-117-82X;;012-779-809-146-993</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -6935,7 +6935,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Ion trapping with integrated electromagnets;;ION TRAPPING WITH INTEGRATED ELECTROMAGNETS</t>
+          <t>ION TRAPPING WITH INTEGRATED ELECTROMAGNETS;;Ion trapping with integrated electromagnets</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -6973,7 +6973,7 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>B2;;A1;;B1</t>
+          <t>B1;;B2;;A1</t>
         </is>
       </c>
       <c r="M58" t="n">
@@ -6987,12 +6987,12 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>G04F5/14;;H01J49/06;;H01L29/94;;B82Y10/00;;G06N99/00;;H01J49/00;;H01J49/46;;G21K1/00</t>
+          <t>G04F5/14;;H01J49/00;;H01J49/46;;B82Y10/00;;H01J49/06;;H01L29/94;;G21K1/00;;G06N99/00</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>G06N20/00;;H01J49/463;;H01J49/06;;H01L29/94;;B82Y10/00;;G06N10/00;;G21K1/00</t>
+          <t>G06N20/00;;B82Y10/00;;G06N10/00;;H01J49/06;;H01J49/463;;H01L29/94;;G21K1/00</t>
         </is>
       </c>
       <c r="R58" t="inlineStr"/>
@@ -7024,12 +7024,12 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>EP 3106427 A1;;EP 3106427 B1;;US 9548191 B2;;US 2016/0372314 A1</t>
+          <t>EP 3106427 B1;;US 9548191 B2;;EP 3106427 A1;;US 2016/0372314 A1</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>EP 16164338 A;;US 201514742346 A</t>
+          <t>US 201514742346 A;;EP 16164338 A</t>
         </is>
       </c>
     </row>
@@ -7041,7 +7041,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>163-360-212-151-338;;095-562-255-399-764</t>
+          <t>095-562-255-399-764;;163-360-212-151-338</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -7051,7 +7051,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Ion trapping with integrated electromagnets;;ION TRAPPING WITH INTEGRATED ELECTROMAGNETS</t>
+          <t>ION TRAPPING WITH INTEGRATED ELECTROMAGNETS;;Ion trapping with integrated electromagnets</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -7099,12 +7099,12 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>H01J49/06;;H01L29/94;;B82Y10/00;;G06N99/00;;H01J49/46;;G21K1/00</t>
+          <t>H01J49/46;;B82Y10/00;;H01J49/06;;H01L29/94;;G21K1/00;;G06N99/00</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>G06N20/00;;H01J49/463;;H01J49/06;;H01L29/94;;B82Y10/00;;G06N10/00;;G21K1/00</t>
+          <t>G06N20/00;;B82Y10/00;;G06N10/00;;H01J49/06;;H01J49/463;;H01L29/94;;G21K1/00</t>
         </is>
       </c>
       <c r="R59" t="inlineStr"/>
@@ -7136,7 +7136,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>US 10186409 B2;;US 2018/0114683 A1</t>
+          <t>US 2018/0114683 A1;;US 10186409 B2</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
@@ -7163,7 +7163,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Architecture for coupling quantum bits using localized resonators;;ARCHITECTURE FOR COUPLING QUANTUM BITS USING LOCALIZED RESONATORS</t>
+          <t>ARCHITECTURE FOR COUPLING QUANTUM BITS USING LOCALIZED RESONATORS;;Architecture for coupling quantum bits using localized resonators</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -7178,7 +7178,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>GAMBETTA JAY M;;STEFFEN MATTHIAS;;MCCLURE III DOUGLAS T;;DIAL OLIVER</t>
+          <t>STEFFEN MATTHIAS;;GAMBETTA JAY M;;DIAL OLIVER;;MCCLURE III DOUGLAS T</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -7215,12 +7215,12 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N99/00;;G06F17/00;;H01L39/14;;H01L39/24;;H01L39/02</t>
+          <t>H01L39/24;;H01L39/02;;B82Y10/00;;H01L39/14;;G06F17/00;;G06N99/00</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>G06N20/00;;B82Y10/00;;H01L39/14;;H01L39/24;;G06N10/00;;H05K999/99</t>
+          <t>H01L39/24;;G06N20/00;;B82Y10/00;;G06N10/00;;H05K999/99;;H01L39/14</t>
         </is>
       </c>
       <c r="R60" t="inlineStr"/>
@@ -7269,7 +7269,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>055-623-784-141-019;;185-410-845-133-114;;151-924-329-105-277</t>
+          <t>185-410-845-133-114;;151-924-329-105-277;;055-623-784-141-019</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -7279,7 +7279,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Architecture for coupling quantum bits using localized resonators;;ARCHITECTURE FOR COUPLING QUANTUM BITS USING LOCALIZED RESONATORS</t>
+          <t>ARCHITECTURE FOR COUPLING QUANTUM BITS USING LOCALIZED RESONATORS;;Architecture for coupling quantum bits using localized resonators</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -7289,12 +7289,12 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>IBM UK;;IBM (CHINA) INVEST COMPANY LTD;;IBM</t>
+          <t>IBM (CHINA) INVEST COMPANY LTD;;IBM UK;;IBM</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>MCCLURE III DOUGLAS TEMPLETON;;GAMBETTA JAY M;;GAMBETTA JAY;;STEFFEN MATTHIAS;;MCCLURE III DOUGLAS T;;DIAL OLIVER</t>
+          <t>GAMBETTA JAY;;DIAL OLIVER;;STEFFEN MATTHIAS;;MCCLURE III DOUGLAS TEMPLETON;;MCCLURE III DOUGLAS T;;GAMBETTA JAY M</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -7331,12 +7331,12 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>G06N99/00;;H01P7/00;;G06F17/00;;H01L39/14;;H01P1/205;;H01L39/24;;H01L39/02</t>
+          <t>H01P1/205;;H01L39/02;;H01L39/24;;H01P7/00;;H01L39/14;;G06F17/00;;G06N99/00</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>G06N20/00;;H01L39/2493;;B82Y10/00;;H01P7/00;;H01P1/205;;H01L39/14;;H05K999/99;;H01L39/24;;G06N10/00;;H01L39/025</t>
+          <t>H01P1/205;;H01L39/24;;G06N20/00;;B82Y10/00;;G06N10/00;;H05K999/99;;H01P7/00;;H01L39/025;;H01L39/14;;H01L39/2493</t>
         </is>
       </c>
       <c r="R61" t="inlineStr"/>
@@ -7368,7 +7368,7 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>US 10283696 B2;;US 2017/0062692 A1;;WO 2017/001951 A1</t>
+          <t>WO 2017/001951 A1;;US 10283696 B2;;US 2017/0062692 A1</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
@@ -7385,7 +7385,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>008-906-245-482-821;;082-686-752-226-904</t>
+          <t>082-686-752-226-904;;008-906-245-482-821</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Architecture for coupling quantum bits using localized resonators;;ARCHITECTURE FOR COUPLING QUANTUM BITS USING LOCALIZED RESONATORS</t>
+          <t>ARCHITECTURE FOR COUPLING QUANTUM BITS USING LOCALIZED RESONATORS;;Architecture for coupling quantum bits using localized resonators</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -7410,7 +7410,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>GAMBETTA JAY M;;STEFFEN MATTHIAS;;MCCLURE III DOUGLAS T;;DIAL OLIVER</t>
+          <t>STEFFEN MATTHIAS;;GAMBETTA JAY M;;DIAL OLIVER;;MCCLURE III DOUGLAS T</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -7433,7 +7433,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>A1;;B1</t>
+          <t>B1;;A1</t>
         </is>
       </c>
       <c r="M62" t="n">
@@ -7447,12 +7447,12 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>G06N20/00;;B82Y10/00;;H01P7/00;;H01L39/14;;H01P1/205;;H01L39/24;;G06N10/00;;H01L39/02</t>
+          <t>H01P1/205;;H01L39/24;;H01L39/02;;G06N20/00;;B82Y10/00;;G06N10/00;;H01P7/00;;H01L39/14</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>G06N20/00;;H01L39/2493;;B82Y10/00;;H01P7/00;;H01P1/205;;H01L39/14;;H05K999/99;;H01L39/24;;G06N10/00;;H01L39/025</t>
+          <t>H01P1/205;;H01L39/24;;G06N20/00;;B82Y10/00;;G06N10/00;;H05K999/99;;H01P7/00;;H01L39/025;;H01L39/14;;H01L39/2493</t>
         </is>
       </c>
       <c r="R62" t="inlineStr"/>
@@ -7484,7 +7484,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>US 2020/0028065 A1;;US 10546994 B1</t>
+          <t>US 10546994 B1;;US 2020/0028065 A1</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
@@ -7511,7 +7511,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Architecture for coupling quantum bits using localized resonators;;ARCHITECTURE FOR COUPLING QUANTUM BITS USING LOCALIZED RESONATORS</t>
+          <t>ARCHITECTURE FOR COUPLING QUANTUM BITS USING LOCALIZED RESONATORS;;Architecture for coupling quantum bits using localized resonators</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -7526,7 +7526,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>GAMBETTA JAY M;;STEFFEN MATTHIAS;;MCCLURE III DOUGLAS T;;DIAL OLIVER</t>
+          <t>STEFFEN MATTHIAS;;GAMBETTA JAY M;;DIAL OLIVER;;MCCLURE III DOUGLAS T</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -7563,12 +7563,12 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>G06N20/00;;B82Y10/00;;G06N99/00;;H01L39/14;;H01L39/24;;G06N10/00</t>
+          <t>H01L39/24;;G06N20/00;;B82Y10/00;;G06N10/00;;H01L39/14;;G06N99/00</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>G06N20/00;;B82Y10/00;;H01L39/14;;H01L39/24;;G06N10/00;;H05K999/99</t>
+          <t>H01L39/24;;G06N20/00;;B82Y10/00;;G06N10/00;;H05K999/99;;H01L39/14</t>
         </is>
       </c>
       <c r="R63" t="inlineStr"/>
@@ -7617,7 +7617,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>064-885-509-498-458;;015-914-741-952-531</t>
+          <t>015-914-741-952-531;;064-885-509-498-458</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -7627,7 +7627,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Architecture for coupling quantum bits using localized resonators;;ARCHITECTURE FOR COUPLING QUANTUM BITS USING LOCALIZED RESONATORS</t>
+          <t>ARCHITECTURE FOR COUPLING QUANTUM BITS USING LOCALIZED RESONATORS;;Architecture for coupling quantum bits using localized resonators</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -7642,7 +7642,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>GAMBETTA JAY M;;STEFFEN MATTHIAS;;MCCLURE III DOUGLAS T;;DIAL OLIVER</t>
+          <t>STEFFEN MATTHIAS;;GAMBETTA JAY M;;DIAL OLIVER;;MCCLURE III DOUGLAS T</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -7679,12 +7679,12 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H01L39/24;;G06N99/00;;H01L39/14</t>
+          <t>G06N99/00;;H01L39/14;;B82Y10/00;;H01L39/24</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>G06N20/00;;B82Y10/00;;H01L39/14;;H01L39/24;;G06N10/00;;H05K999/99</t>
+          <t>H01L39/24;;G06N20/00;;B82Y10/00;;G06N10/00;;H05K999/99;;H01L39/14</t>
         </is>
       </c>
       <c r="R64" t="inlineStr"/>
@@ -7716,7 +7716,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>US 10211386 B2;;US 2018/0287040 A1</t>
+          <t>US 2018/0287040 A1;;US 10211386 B2</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
@@ -7758,7 +7758,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH</t>
+          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -7800,7 +7800,7 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>A61B5/0022;;A61B2562/0219;;B81B7/007;;G16H40/67;;A61B5/0024;;B81B7/0087;;G06Q40/08;;G16H10/60;;A61B2562/028;;A61B5/7246;;A61B5/1123;;A61B5/7264;;A61B5/1118;;A61B5/7282;;A61B2560/0475;;A61B5/681</t>
+          <t>G06Q40/08;;G16H40/67;;A61B5/7282;;A61B5/0022;;A61B5/1123;;A61B5/7246;;A61B5/7264;;G16H10/60;;A61B5/1118;;A61B5/681;;A61B5/0024;;A61B2562/028;;B81B7/007;;B81B7/0087;;A61B2562/0219;;A61B2560/0475</t>
         </is>
       </c>
       <c r="R65" t="inlineStr"/>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>178-274-931-648-096;;189-635-522-775-510</t>
+          <t>189-635-522-775-510;;178-274-931-648-096</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -7869,12 +7869,12 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH</t>
+          <t>MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH</t>
+          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -7916,7 +7916,7 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>A61B5/0022;;A61B2562/0219;;B81B7/007;;G16H40/67;;A61B5/0024;;B81B7/0087;;G06Q40/08;;G16H10/60;;A61B2562/028;;A61B5/7246;;A61B5/1123;;A61B5/7264;;A61B5/1118;;A61B5/7282;;A61B2560/0475;;A61B5/681</t>
+          <t>G06Q40/08;;G16H40/67;;A61B5/7282;;A61B5/0022;;A61B5/1123;;A61B5/7246;;A61B5/7264;;G16H10/60;;A61B5/1118;;A61B5/681;;A61B5/0024;;A61B2562/028;;B81B7/007;;B81B7/0087;;A61B2562/0219;;A61B2560/0475</t>
         </is>
       </c>
       <c r="R66" t="inlineStr"/>
@@ -7948,7 +7948,7 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>US 2017/0240419 A1;;US 9969612 B2</t>
+          <t>US 9969612 B2;;US 2017/0240419 A1</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
@@ -7990,7 +7990,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH</t>
+          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
@@ -8028,7 +8028,7 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>A61B5/0022;;A61B2562/0219;;B81B7/007;;G16H40/67;;A61B5/0024;;B81B7/0087;;G06Q40/08;;G16H10/60;;A61B2562/028;;A61B5/7246;;A61B5/1123;;A61B5/7264;;A61B5/1118;;A61B5/7282;;A61B2560/0475;;A61B5/681</t>
+          <t>G06Q40/08;;G16H40/67;;A61B5/7282;;A61B5/0022;;A61B5/1123;;A61B5/7246;;A61B5/7264;;G16H10/60;;A61B5/1118;;A61B5/681;;A61B5/0024;;A61B2562/028;;B81B7/007;;B81B7/0087;;A61B2562/0219;;A61B2560/0475</t>
         </is>
       </c>
       <c r="R67" t="inlineStr"/>
@@ -8060,7 +8060,7 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>US 10358342 B2;;US 2018/0222747 A1</t>
+          <t>US 2018/0222747 A1;;US 10358342 B2</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
@@ -8077,7 +8077,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>091-928-229-377-519;;189-518-628-052-967</t>
+          <t>189-518-628-052-967;;091-928-229-377-519</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -8102,7 +8102,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH</t>
+          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -8135,12 +8135,12 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>G16H10/60;;B81B7/00;;G08C19/22;;A61B5/00;;A61B5/11</t>
+          <t>G16H10/60;;A61B5/11;;B81B7/00;;A61B5/00;;G08C19/22</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>A61B5/0022;;A61B2562/0219;;G16H40/67;;B81B7/007;;A61B5/0024;;B81B7/0087;;G06Q40/08;;G16H10/60;;A61B2562/028;;A61B5/7246;;A61B5/1123;;A61B5/7264;;A61B5/1118;;A61B5/7282;;A61B2560/0475;;A61B5/681</t>
+          <t>G06Q40/08;;G16H40/67;;A61B5/7282;;A61B5/0022;;A61B5/1123;;A61B5/7246;;A61B5/7264;;G16H10/60;;A61B5/1118;;A61B5/681;;A61B5/0024;;A61B2562/028;;B81B7/007;;B81B7/0087;;A61B2562/0219;;A61B2560/0475</t>
         </is>
       </c>
       <c r="R68" t="inlineStr"/>
@@ -8172,7 +8172,7 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>US 10793423 B2;;US 2019/0292044 A1</t>
+          <t>US 2019/0292044 A1;;US 10793423 B2</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
@@ -8252,7 +8252,7 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>G06N3/126;;B82Y10/00;;G06N99/00;;G06N10/00;;G06N7/005;;G06F9/45504</t>
+          <t>G06N7/005;;B82Y10/00;;G06N10/00;;G06N3/126;;G06N99/00;;G06F9/45504</t>
         </is>
       </c>
       <c r="R69" t="inlineStr"/>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>043-608-201-196-560;;094-655-367-009-253;;127-853-431-567-747;;086-576-713-592-977;;053-474-667-599-726;;061-619-330-497-243;;165-599-734-061-37X;;127-103-433-799-24X</t>
+          <t>086-576-713-592-977;;127-103-433-799-24X;;053-474-667-599-726;;127-853-431-567-747;;165-599-734-061-37X;;043-608-201-196-560;;094-655-367-009-253;;061-619-330-497-243</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -8311,7 +8311,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>QUANTON REPRESENTATION FOR EMULATING QUANTUM-LIKE COMPUTATION ON CLASSICAL PROCESSORS;;고전적 프로세서 상에서 양자-유사 계산을 에뮬레이트하기 위한 퀀톤 표현;;Quanton representation for emulating quantum-like computation on classical processors;;古典的なプロセッサで量子類似計算をエミュレートするためのＱＵＡＮＴＯＮ表現;;Quanton Representation For Emulating Quantum-Like Computation On Classical Processors</t>
+          <t>古典的なプロセッサで量子類似計算をエミュレートするためのＱＵＡＮＴＯＮ表現;;QUANTON REPRESENTATION FOR EMULATING QUANTUM-LIKE COMPUTATION ON CLASSICAL PROCESSORS;;Quanton Representation For Emulating Quantum-Like Computation On Classical Processors;;Quanton representation for emulating quantum-like computation on classical processors;;고전적 프로세서 상에서 양자-유사 계산을 에뮬레이트하기 위한 퀀톤 표현</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -8321,12 +8321,12 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>킨디 인코포레이티드;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;KYNDI INC</t>
+          <t>キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;KYNDI INC;;킨디 인코포레이티드</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>마줌다 아룬;;アルン、マジュムダール;;MAJUMDAR ARUN</t>
+          <t>アルン、マジュムダール;;MAJUMDAR ARUN;;마줌다 아룬</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
@@ -8335,7 +8335,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>CN;;JP;;KR;;AU;;CA;;EP</t>
+          <t>CN;;KR;;CA;;EP;;JP;;AU</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -8345,7 +8345,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>A;;A4;;A1;;B1</t>
+          <t>A4;;B1;;A;;A1</t>
         </is>
       </c>
       <c r="M70" t="n">
@@ -8359,12 +8359,12 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>G06F9/455;;B82Y10/00;;G06N99/00;;G06N7/00;;G06N3/12;;G06F7/60</t>
+          <t>G06N7/00;;B82Y10/00;;G06F7/60;;G06N3/12;;G06F9/455;;G06N99/00</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>G06N3/126;;B82Y10/00;;G06N99/00;;G06N10/00;;G06N7/005;;G06F9/45504</t>
+          <t>B82Y10/00;;G06N7/005;;G06N10/00;;G06N3/126;;G06N99/00;;G06F9/45504</t>
         </is>
       </c>
       <c r="R70" t="inlineStr"/>
@@ -8396,12 +8396,12 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>KR 102141274 B1;;CN 107683460 A;;KR 20180004226 A;;AU 2016/258029 A1;;CA 2983880 A1;;EP 3292466 A4;;JP 2018521382 A;;EP 3292466 A1</t>
+          <t>EP 3292466 A4;;AU 2016/258029 A1;;KR 20180004226 A;;CN 107683460 A;;CA 2983880 A1;;JP 2018521382 A;;KR 102141274 B1;;EP 3292466 A1</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>KR 20177035068 A;;AU 2016/258029 A;;CA 2983880 A;;EP 16790101 A;;JP 2017557330 A;;CN 201680034976 A</t>
+          <t>CA 2983880 A;;KR 20177035068 A;;CN 201680034976 A;;AU 2016/258029 A;;EP 16790101 A;;JP 2017557330 A</t>
         </is>
       </c>
     </row>
@@ -8475,12 +8475,12 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>G06F9/455;;G06N99/00;;G06F17/18;;G06N7/00;;G06N3/12;;G06N10/00</t>
+          <t>G06F17/18;;G06N7/00;;G06N10/00;;G06N3/12;;G06F9/455;;G06N99/00</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>G06N3/126;;B82Y10/00;;G06N99/00;;G06N10/00;;G06N7/005;;G06F9/45504</t>
+          <t>G06N7/005;;B82Y10/00;;G06N10/00;;G06N3/126;;G06N99/00;;G06F9/45504</t>
         </is>
       </c>
       <c r="R71" t="inlineStr"/>
@@ -8512,7 +8512,7 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>US 10452989 B2;;US 2016/0328253 A1</t>
+          <t>US 2016/0328253 A1;;US 10452989 B2</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
@@ -8587,12 +8587,12 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>G06F9/455;;G06N10/00;;G06N3/12</t>
+          <t>G06N3/12;;G06F9/455;;G06N10/00</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>G06N3/126;;B82Y10/00;;G06N99/00;;G06N10/00;;G06N7/005;;G06F9/45504</t>
+          <t>G06N7/005;;B82Y10/00;;G06N10/00;;G06N3/126;;G06N99/00;;G06F9/45504</t>
         </is>
       </c>
       <c r="R72" t="inlineStr"/>
@@ -8666,7 +8666,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>ROLFE JASON;;AMIN MOHAMMAD H S;;ANDRIYASH EVGENY</t>
+          <t>ANDRIYASH EVGENY;;AMIN MOHAMMAD H S;;ROLFE JASON</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
@@ -8704,7 +8704,7 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>G06N20/00;;B82Y10/00;;G06N3/0445;;G06N10/00;;G06N3/0472;;G06N3/088</t>
+          <t>G06N3/088;;G06N3/0445;;G06N20/00;;B82Y10/00;;G06N10/00;;G06N3/0472</t>
         </is>
       </c>
       <c r="R73" t="inlineStr"/>
@@ -8753,7 +8753,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>080-625-574-321-236;;069-459-329-577-52X;;169-871-701-653-729</t>
+          <t>069-459-329-577-52X;;080-625-574-321-236;;169-871-701-653-729</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -8778,7 +8778,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>ROLFE JASON;;AMIN MOHAMMAD H S;;ANDRIYASH EVGENY</t>
+          <t>ANDRIYASH EVGENY;;AMIN MOHAMMAD H S;;ROLFE JASON</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
@@ -8797,7 +8797,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>A;;A4;;A1</t>
+          <t>A4;;A;;A1</t>
         </is>
       </c>
       <c r="M74" t="n">
@@ -8811,12 +8811,12 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N99/00;;G06N3/04</t>
+          <t>B82Y10/00;;G06N3/04;;G06N99/00</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>G06N20/00;;B82Y10/00;;G06N3/0445;;G06N10/00;;G06N3/0472;;G06N3/088</t>
+          <t>G06N3/088;;G06N3/0445;;G06N20/00;;B82Y10/00;;G06N10/00;;G06N3/0472</t>
         </is>
       </c>
       <c r="R74" t="inlineStr"/>
@@ -8848,12 +8848,12 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>CN 108369668 A;;EP 3362952 A4;;EP 3362952 A1</t>
+          <t>EP 3362952 A1;;CN 108369668 A;;EP 3362952 A4</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>CN 201680073180 A;;EP 16856358 A</t>
+          <t>EP 16856358 A;;CN 201680073180 A</t>
         </is>
       </c>
     </row>
@@ -8890,7 +8890,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>ROLFE JASON;;AMIN MOHAMMAD H S;;ANDRIYASH EVGENY</t>
+          <t>ANDRIYASH EVGENY;;AMIN MOHAMMAD H S;;ROLFE JASON</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -8932,7 +8932,7 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>G06N20/00;;B82Y10/00;;G06N3/0445;;G06N10/00;;G06N3/0472;;G06N3/088</t>
+          <t>G06N3/088;;G06N3/0445;;G06N20/00;;B82Y10/00;;G06N10/00;;G06N3/0472</t>
         </is>
       </c>
       <c r="R75" t="inlineStr"/>
@@ -8981,7 +8981,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>198-318-690-704-612;;133-953-218-172-493;;023-877-193-105-410;;191-543-293-857-398;;165-707-705-470-436;;074-976-860-213-786;;110-865-928-572-286</t>
+          <t>074-976-860-213-786;;198-318-690-704-612;;133-953-218-172-493;;191-543-293-857-398;;110-865-928-572-286;;023-877-193-105-410;;165-707-705-470-436</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -8991,7 +8991,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>TRAINING QUANTUM EVOLUTIONS USING SUBLOGICAL CONTROLS;;サブ論理制御を使用する量子進化のトレーニング;;Training quantum evolutions using sublogical controls</t>
+          <t>サブ論理制御を使用する量子進化のトレーニング;;TRAINING QUANTUM EVOLUTIONS USING SUBLOGICAL CONTROLS;;Training quantum evolutions using sublogical controls</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -9001,12 +9001,12 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>グーグル エルエルシー;;GOOGLE LLC</t>
+          <t>GOOGLE LLC;;グーグル エルエルシー</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>BABBUSH RYAN;;NEVEN HARTMUT;;ハルトムート・ネーヴェン;;ライアン・バブシュ</t>
+          <t>ハルトムート・ネーヴェン;;ライアン・バブシュ;;NEVEN HARTMUT;;BABBUSH RYAN</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
@@ -9015,7 +9015,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>CN;;JP;;AU;;CA;;EP</t>
+          <t>CN;;CA;;EP;;JP;;AU</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -9039,12 +9039,12 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N99/00;;G06N10/00;;G06N20/00</t>
+          <t>G06N99/00;;G06N20/00;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>G06N20/00;;G06N5/003;;B82Y10/00;;G06N10/00;;G16C10/00</t>
+          <t>G06N5/003;;G16C10/00;;G06N20/00;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="R76" t="inlineStr"/>
@@ -9076,12 +9076,12 @@
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>JP 6755337 B2;;AU 2016/408764 B2;;EP 3465555 A1;;CA 3026443 A1;;JP 2019520645 A;;AU 2016/408764 A1;;CN 109478258 A</t>
+          <t>AU 2016/408764 B2;;EP 3465555 A1;;AU 2016/408764 A1;;JP 2019520645 A;;CA 3026443 A1;;CN 109478258 A;;JP 6755337 B2</t>
         </is>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>EP 16825955 A;;CA 3026443 A;;JP 2018562952 A;;CN 201680087746 A;;AU 2016/408764 A</t>
+          <t>JP 2018562952 A;;CN 201680087746 A;;AU 2016/408764 A;;EP 16825955 A;;CA 3026443 A</t>
         </is>
       </c>
     </row>
@@ -9093,7 +9093,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>144-144-283-847-927;;151-132-986-237-59X;;175-413-197-129-096</t>
+          <t>175-413-197-129-096;;144-144-283-847-927;;151-132-986-237-59X</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -9113,12 +9113,12 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>GOOGLE INC;;GOOGLE LLC</t>
+          <t>GOOGLE LLC;;GOOGLE INC</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>BABBUSH RYAN;;NEVEN HARTMUT</t>
+          <t>NEVEN HARTMUT;;BABBUSH RYAN</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -9155,12 +9155,12 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N20/00;;G06N10/00;;G06N99/00</t>
+          <t>G06N99/00;;G06N20/00;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>G06N20/00;;G06N5/003;;B82Y10/00;;G06N10/00;;G16C10/00</t>
+          <t>G06N5/003;;G16C10/00;;G06N20/00;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="R77" t="inlineStr"/>
@@ -9197,7 +9197,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>US 201615171778 A;;US 2016/0067471 W</t>
+          <t>US 2016/0067471 W;;US 201615171778 A</t>
         </is>
       </c>
     </row>
@@ -9209,7 +9209,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>105-607-128-907-102;;085-813-275-061-331</t>
+          <t>085-813-275-061-331;;105-607-128-907-102</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -9234,7 +9234,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>BABBUSH RYAN;;NEVEN HARTMUT</t>
+          <t>NEVEN HARTMUT;;BABBUSH RYAN</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -9271,12 +9271,12 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N20/00;;G06N10/00</t>
+          <t>G06N20/00;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>G06N20/00;;G06N5/003;;B82Y10/00;;G06N10/00;;G16C10/00</t>
+          <t>G06N5/003;;G16C10/00;;G06N20/00;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="R78" t="inlineStr"/>
@@ -9325,7 +9325,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>162-900-997-782-030;;090-372-502-956-689;;193-203-788-489-584;;010-852-607-896-927</t>
+          <t>090-372-502-956-689;;162-900-997-782-030;;193-203-788-489-584;;010-852-607-896-927</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -9350,7 +9350,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>GUHA JOYDEEP;;GOTTSCHO RICHARD ALAN;;VAHEDI VAHID;;DAUGHERTY JOHN</t>
+          <t>DAUGHERTY JOHN;;GOTTSCHO RICHARD ALAN;;GUHA JOYDEEP;;VAHEDI VAHID</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -9387,12 +9387,12 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>G01L21/30;;H01L21/67;;H01J37/32;;H05H1/46;;H01L21/3065;;C23C14/34;;H01L21/205</t>
+          <t>H01L21/3065;;H01L21/67;;C23C14/34;;H05H1/46;;G01L21/30;;H01J37/32;;H01L21/205</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>H01J37/32926;;H01J37/32972;;H01L21/67253;;H01L21/67248;;H01J37/3299;;H01J37/32082;;H01L21/67069;;H01L21/67242;;H01L21/3065;;B81C2201/0138;;H01J2237/334;;H01J37/32935</t>
+          <t>H01J37/32935;;H01J37/3299;;H01L21/67242;;H01L21/67069;;H01L21/67248;;H01L21/67253;;B81C2201/0138;;H01J37/32082;;H01J37/32972;;H01L21/3065;;H01J37/32926;;H01J2237/334</t>
         </is>
       </c>
       <c r="R79" t="inlineStr"/>
@@ -9424,12 +9424,12 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>TW 201826318 A;;US 9972478 B2;;WO 2018/052698 A1;;US 2018/0082826 A1</t>
+          <t>US 9972478 B2;;WO 2018/052698 A1;;TW 201826318 A;;US 2018/0082826 A1</t>
         </is>
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>US 2017/0048965 W;;TW 106131104 A;;US 201615268472 A</t>
+          <t>US 2017/0048965 W;;US 201615268472 A;;TW 106131104 A</t>
         </is>
       </c>
     </row>
@@ -9441,7 +9441,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>063-672-641-489-457;;105-241-204-517-170;;038-281-359-281-818;;091-701-308-686-233;;124-585-563-874-282</t>
+          <t>063-672-641-489-457;;124-585-563-874-282;;091-701-308-686-233;;105-241-204-517-170;;038-281-359-281-818</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -9451,7 +9451,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>복잡한 다변수 웨이퍼 프로세싱 장비에서 머신 러닝을 구현하는 방법 및 프로세스;;複雑な多変量ウエハ処理機器における機械学習を実行する方法及びプロセス;;METHOD AND PROCESS OF IMPLEMENTING MACHINE LEARNING IN COMPLEX MULTIVARIATE WAFER PROCESSING EQUIPMENT</t>
+          <t>複雑な多変量ウエハ処理機器における機械学習を実行する方法及びプロセス;;복잡한 다변수 웨이퍼 프로세싱 장비에서 머신 러닝을 구현하는 방법 및 프로세스;;METHOD AND PROCESS OF IMPLEMENTING MACHINE LEARNING IN COMPLEX MULTIVARIATE WAFER PROCESSING EQUIPMENT</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -9461,12 +9461,12 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ;;LAM RES CORP</t>
+          <t>LAM RES CORP;;ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>GUHA JOYDEEP;;バヘディ・バヘド;;グーハ・ジョイディープ;;DAUGHERTY JOHN;;ゴットショ・リチャード・アラン;;VAHEDI VAHID;;ダウガティ・ジョン;;GOTTSCHO RICHARD ALAN</t>
+          <t>バヘディ・バヘド;;ダウガティ・ジョン;;DAUGHERTY JOHN;;ゴットショ・リチャード・アラン;;VAHEDI VAHID;;グーハ・ジョイディープ;;GUHA JOYDEEP;;GOTTSCHO RICHARD ALAN</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
@@ -9475,7 +9475,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>JP;;KR;;CN;;EP</t>
+          <t>CN;;KR;;EP;;JP</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -9485,7 +9485,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>A;;A4;;A1</t>
+          <t>A4;;A;;A1</t>
         </is>
       </c>
       <c r="M80" t="n">
@@ -9499,12 +9499,12 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>C23C16/52;;H01L21/67;;H01J37/32;;H05H1/46;;H01L21/31;;H01L21/3065;;C23C14/34;;H05H1/00;;H01L21/205</t>
+          <t>H01J37/32;;C23C16/52;;H01L21/67;;C23C14/34;;H05H1/00;;H05H1/46;;H01L21/3065;;H01L21/31;;H01L21/205</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>H01J37/32926;;H01J37/32972;;H01L21/67253;;H01L21/67248;;H01J37/3299;;H01J37/32082;;H01L21/67069;;H01L21/67242;;H01L21/3065;;B81C2201/0138;;H01J2237/334;;H01J37/32935</t>
+          <t>H01J37/32935;;H01J37/3299;;H01L21/67242;;H01L21/67069;;H01L21/67248;;H01L21/67253;;B81C2201/0138;;H01J37/32082;;H01J37/32972;;H01L21/3065;;H01J37/32926;;H01J2237/334</t>
         </is>
       </c>
       <c r="R80" t="inlineStr"/>
@@ -9536,12 +9536,12 @@
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>EP 3512977 A4;;KR 20190049796 A;;EP 3512977 A1;;JP 2019537240 A;;CN 109715848 A</t>
+          <t>CN 109715848 A;;EP 3512977 A4;;EP 3512977 A1;;KR 20190049796 A;;JP 2019537240 A</t>
         </is>
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>CN 201780056833 A;;JP 2019513313 A;;EP 17851300 A;;KR 20197009604 A</t>
+          <t>EP 17851300 A;;JP 2019513313 A;;KR 20197009604 A;;CN 201780056833 A</t>
         </is>
       </c>
     </row>
@@ -9553,7 +9553,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>105-441-254-491-980;;114-895-694-698-531</t>
+          <t>114-895-694-698-531;;105-441-254-491-980</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -9578,7 +9578,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>GUHA JOYDEEP;;GOTTSCHO RICHARD ALAN;;VAHEDI VAHID;;DAUGHERTY JOHN</t>
+          <t>DAUGHERTY JOHN;;GOTTSCHO RICHARD ALAN;;GUHA JOYDEEP;;VAHEDI VAHID</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
@@ -9611,12 +9611,12 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>H01L21/3065;;H01J37/32;;H01L21/67</t>
+          <t>H01J37/32;;H01L21/3065;;H01L21/67</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>H01J37/32926;;H01J37/32972;;H01L21/67253;;H01L21/67248;;H01J37/3299;;H01J37/32082;;H01L21/67069;;H01L21/67242;;H01L21/3065;;B81C2201/0138;;H01J2237/334;;H01J37/32935</t>
+          <t>H01J37/32935;;H01J37/3299;;H01L21/67242;;H01L21/67069;;H01L21/67248;;H01L21/67253;;B81C2201/0138;;H01J37/32082;;H01J37/32972;;H01L21/3065;;H01J37/32926;;H01J2237/334</t>
         </is>
       </c>
       <c r="R81" t="inlineStr"/>
@@ -9648,7 +9648,7 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>US 10615009 B2;;US 2018/0247798 A1</t>
+          <t>US 2018/0247798 A1;;US 10615009 B2</t>
         </is>
       </c>
       <c r="Z81" t="inlineStr">
@@ -9675,7 +9675,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Generating quantum logic control sequences for quantum information processing hardware;;Generating Quantum Logic Control Sequences for Quantum Information Processing Hardware;;GENERATING QUANTUM LOGIC CONTROL SEQUENCES FOR QUANTUM INFORMATION PROCESSING HARDWARE</t>
+          <t>Generating Quantum Logic Control Sequences for Quantum Information Processing Hardware;;Generating quantum logic control sequences for quantum information processing hardware;;GENERATING QUANTUM LOGIC CONTROL SEQUENCES FOR QUANTUM INFORMATION PROCESSING HARDWARE</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -9690,7 +9690,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>CURTIS MICHAEL;;ZENG WILLIAM;;SETE EYOB;;ZENG WILLIAM J;;CURTIS MICHAEL J;;SETE EYOB A</t>
+          <t>ZENG WILLIAM J;;SETE EYOB;;CURTIS MICHAEL J;;CURTIS MICHAEL;;ZENG WILLIAM;;SETE EYOB A</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -9727,12 +9727,12 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>G06N5/02;;G06F17/30;;B82Y10/00;;G06N99/00;;G06N10/00;;G06F16/901</t>
+          <t>G06F16/901;;B82Y10/00;;G06N10/00;;G06N5/02;;G06N99/00;;G06F17/30</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06F16/9024;;G06N10/00;;G06N5/022</t>
+          <t>G06F16/9024;;G06N5/022;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="R82" t="inlineStr"/>
@@ -9764,12 +9764,12 @@
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>US 10255555 B2;;WO 2018/089792 A1;;US 2018/0232652 A1</t>
+          <t>WO 2018/089792 A1;;US 2018/0232652 A1;;US 10255555 B2</t>
         </is>
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>US 2017/0061102 W;;US 201615348226 A</t>
+          <t>US 201615348226 A;;US 2017/0061102 W</t>
         </is>
       </c>
     </row>
@@ -9781,7 +9781,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>031-156-790-577-782;;137-779-011-538-122</t>
+          <t>137-779-011-538-122;;031-156-790-577-782</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -9791,7 +9791,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Generating quantum logic control sequences for quantum information processing hardware;;Generating Quantum Logic Control Sequences for Quantum Information Processing Hardware</t>
+          <t>Generating Quantum Logic Control Sequences for Quantum Information Processing Hardware;;Generating quantum logic control sequences for quantum information processing hardware</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -9843,12 +9843,12 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N5/02;;G06N10/00;;G06F16/901</t>
+          <t>G06F16/901;;G06N5/02;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06F16/9024;;G06N10/00;;G06N5/022</t>
+          <t>G06F16/9024;;G06N5/022;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="R83" t="inlineStr"/>
@@ -9880,7 +9880,7 @@
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>US 10733522 B2;;US 2019/0370679 A1</t>
+          <t>US 2019/0370679 A1;;US 10733522 B2</t>
         </is>
       </c>
       <c r="Z83" t="inlineStr">
@@ -9907,7 +9907,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Methods, compositions, and devices for information storage;;METHODS, COMPOSITIONS, AND DEVICES FOR INFORMATION STORAGE</t>
+          <t>METHODS, COMPOSITIONS, AND DEVICES FOR INFORMATION STORAGE;;Methods, compositions, and devices for information storage</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -9917,12 +9917,12 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>DODO OMNIDATA INC;;IRIDIA INC</t>
+          <t>IRIDIA INC;;DODO OMNIDATA INC</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>CASSIDY MAJA;;PREDKI PAUL F</t>
+          <t>PREDKI PAUL F;;CASSIDY MAJA</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -9959,12 +9959,12 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>G11C13/02;;B82Y10/00;;C12Q1/6869;;G16B30/00;;C12Q1/68;;G06N3/12</t>
+          <t>C12Q1/68;;G16B30/00;;B82Y10/00;;G06N3/12;;G11C13/02;;C12Q1/6869</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>G01N33/48721;;C12Q2563/116;;G11C13/02;;B82Y10/00;;C12Q1/6869;;C12Q2521/131;;C12Q1/68;;G16B30/00;;C12Q2565/631;;C12P19/34;;G06N3/123</t>
+          <t>C12Q2565/631;;C12Q1/68;;G16B30/00;;C12Q2563/116;;B82Y10/00;;G01N33/48721;;C12P19/34;;C12Q2521/131;;G11C13/02;;G06N3/123;;C12Q1/6869</t>
         </is>
       </c>
       <c r="R84" t="inlineStr"/>
@@ -9996,7 +9996,7 @@
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>US 2019/0080760 A1;;US 10438662 B2</t>
+          <t>US 10438662 B2;;US 2019/0080760 A1</t>
         </is>
       </c>
       <c r="Z84" t="inlineStr">
@@ -10023,7 +10023,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Methods, compositions, and devices for information storage;;METHODS, COMPOSITIONS, AND DEVICES FOR INFORMATION STORAGE</t>
+          <t>METHODS, COMPOSITIONS, AND DEVICES FOR INFORMATION STORAGE;;Methods, compositions, and devices for information storage</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -10038,7 +10038,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>CASSIDY MAJA;;PREDKI PAUL F</t>
+          <t>PREDKI PAUL F;;CASSIDY MAJA</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -10075,12 +10075,12 @@
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>G11C13/02;;B82Y10/00;;C12Q1/6869;;G16B30/00;;C12Q1/68;;G06N3/12</t>
+          <t>C12Q1/68;;G16B30/00;;B82Y10/00;;G06N3/12;;G11C13/02;;C12Q1/6869</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>G01N33/48721;;C12Q2563/116;;G11C13/02;;B82Y10/00;;C12Q1/6869;;C12Q2521/131;;C12Q1/68;;G16B30/00;;C12Q2565/631;;C12P19/34;;G06N3/123</t>
+          <t>C12Q2565/631;;C12Q1/68;;G16B30/00;;C12Q2563/116;;B82Y10/00;;G01N33/48721;;C12P19/34;;C12Q2521/131;;G11C13/02;;G06N3/123;;C12Q1/6869</t>
         </is>
       </c>
       <c r="R85" t="inlineStr"/>
@@ -10187,12 +10187,12 @@
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>A61N1/372;;A61N1/378;;A61N5/06;;A61N1/36;;G06N3/063;;G16H20/30;;A61N1/05</t>
+          <t>G06N3/063;;A61N1/378;;A61N5/06;;A61N1/36;;A61N1/05;;G16H20/30;;A61N1/372</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>A61B5/0006;;A61N2005/0612;;A61N5/0601;;A61N2005/067;;A61N1/36096;;A61B5/24;;A61B5/0031;;A61N2005/0626;;A61N1/36067;;A61N1/3787;;A61N2005/063;;A61N1/36064;;G06N3/049;;A61N1/37264;;G16H20/40;;A61N1/37223;;A61N1/0534;;A61B5/369;;A61N5/0618;;A61N5/0622;;A61N2005/0652;;A61N1/36139;;B82Y5/00;;A61N2005/0611;;A61N1/0531;;A61B5/0022;;A61N1/36082;;A61N2005/0663;;B82Y10/00;;A61B5/6868;;G16H20/30;;G06N3/063</t>
+          <t>A61N5/0618;;A61N2005/0611;;A61N1/36064;;A61N1/3787;;G16H20/30;;A61B5/0022;;A61N1/36096;;A61B5/0006;;G06N3/049;;A61N2005/063;;A61N1/0534;;A61B5/0031;;A61N2005/0612;;A61N1/37264;;A61B5/24;;A61N5/0622;;A61N1/36067;;A61N1/36139;;B82Y10/00;;A61N2005/0663;;A61B5/6868;;A61N2005/0652;;G06N3/063;;A61N1/36082;;A61N2005/0626;;A61N1/37223;;G16H20/40;;A61N1/0531;;A61N5/0601;;A61N2005/067;;A61B5/369;;B82Y5/00</t>
         </is>
       </c>
       <c r="R86" t="inlineStr"/>
@@ -10299,12 +10299,12 @@
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>A61N1/372;;G16H20/30;;A61N5/06;;A61N1/36</t>
+          <t>A61N5/06;;G16H20/30;;A61N1/36;;A61N1/372</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>G16H50/20;;A61N2005/0612;;A61N5/0601;;A61N2005/067;;A61N1/36071;;G16H40/63;;A61B5/076;;A61B5/0031;;A61N2005/0626;;A61N1/36067;;A61B5/37;;A61N2005/063;;G16H30/40;;G16H40/67;;A61N1/37252;;A61B5/0024;;A61B5/1473;;G06N3/049;;G16H10/60;;G16H20/40;;A61N5/0618;;A61N5/0622;;A61N2005/0652;;A61N1/36139;;B82Y5/00;;A61N2005/0611;;A61N1/0531;;A61N1/36082;;A61N2005/0663;;A61B5/6815;;B82Y10/00;;A61B5/4076;;A61B5/6868;;G06F3/015;;B82Y30/00;;A61B5/375;;G16H20/30;;A61B5/0084</t>
+          <t>A61N5/0618;;A61N2005/0611;;G06F3/015;;A61B5/6815;;G16H20/30;;B82Y30/00;;A61N1/37252;;G16H40/67;;G06N3/049;;A61N2005/063;;A61B5/0031;;A61N2005/0612;;A61N5/0622;;G16H50/20;;A61N1/36067;;A61N1/36139;;B82Y10/00;;A61B5/076;;A61B5/4076;;A61N2005/0663;;A61B5/6868;;A61N1/36071;;A61N2005/0652;;G16H40/63;;A61B5/1473;;A61N1/36082;;G16H10/60;;A61N2005/0626;;A61B5/0024;;A61B5/37;;A61B5/375;;G16H20/40;;A61N1/0531;;A61N5/0601;;A61N2005/067;;G16H30/40;;A61B5/0084;;B82Y5/00</t>
         </is>
       </c>
       <c r="R87" t="inlineStr"/>
@@ -10416,7 +10416,7 @@
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>A61B5/686;;A61B5/4088;;A61B2562/0285;;A61B5/14503;;A61B5/14546;;A61B5/6868;;B82Y15/00;;B82Y30/00;;A61B5/72;;A61B5/7267;;A61B5/167;;A61B5/4082;;A61B5/168</t>
+          <t>A61B5/14503;;A61B5/14546;;A61B2562/0285;;A61B5/4082;;A61B5/168;;A61B5/686;;A61B5/72;;A61B5/7267;;A61B5/4088;;A61B5/167;;B82Y15/00;;A61B5/6868;;B82Y30/00</t>
         </is>
       </c>
       <c r="R88" t="inlineStr"/>
@@ -10485,12 +10485,12 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>D-WAVE SYSTEMS INC;;YARKONI SHEIR</t>
+          <t>YARKONI SHEIR;;D-WAVE SYSTEMS INC</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>YARKONI SHEIR;;LANTING TREVOR MICHAEL;;BOOTHBY THOMAS J;;KING ANDREW DOUGLAS;;ANDRIYASH EVGENY A;;AMIN MOHAMMAD H</t>
+          <t>BOOTHBY THOMAS J;;YARKONI SHEIR;;KING ANDREW DOUGLAS;;ANDRIYASH EVGENY A;;LANTING TREVOR MICHAEL;;AMIN MOHAMMAD H</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
@@ -10528,7 +10528,7 @@
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>G06N7/08;;B82Y10/00;;G06N3/0445;;G06N10/00;;G06N3/0472</t>
+          <t>G06N7/08;;G06N3/0445;;B82Y10/00;;G06N10/00;;G06N3/0472</t>
         </is>
       </c>
       <c r="R89" t="inlineStr"/>
@@ -10602,7 +10602,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>YARKONI SHEIR;;LANTING TREVOR MICHAEL;;BOOTHBY THOMAS J;;KING ANDREW DOUGLAS;;ANDRIYASH EVGENY A;;AMIN MOHAMMAD H</t>
+          <t>BOOTHBY THOMAS J;;YARKONI SHEIR;;KING ANDREW DOUGLAS;;ANDRIYASH EVGENY A;;LANTING TREVOR MICHAEL;;AMIN MOHAMMAD H</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
@@ -10635,12 +10635,12 @@
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>G06N10/00;;G06N3/04</t>
+          <t>G06N3/04;;G06N10/00</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>G06N7/08;;B82Y10/00;;G06N3/0445;;G06N10/00;;G06N3/0472</t>
+          <t>G06N7/08;;G06N3/0445;;B82Y10/00;;G06N10/00;;G06N3/0472</t>
         </is>
       </c>
       <c r="R90" t="inlineStr"/>
@@ -10689,7 +10689,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>094-936-019-284-567;;180-555-399-659-364</t>
+          <t>180-555-399-659-364;;094-936-019-284-567</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -10714,7 +10714,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>YARKONI SHEIR;;LANTING TREVOR MICHAEL;;BOOTHBY KELLY T R;;KING ANDREW DOUGLAS;;ANDRIYASH EVGENY A;;AMIN MOHAMMAD H</t>
+          <t>YARKONI SHEIR;;KING ANDREW DOUGLAS;;ANDRIYASH EVGENY A;;BOOTHBY KELLY T R;;LANTING TREVOR MICHAEL;;AMIN MOHAMMAD H</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -10751,12 +10751,12 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N7/08;;G06N10/00;;G06N3/04</t>
+          <t>G06N3/04;;G06N7/08;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>G06N7/08;;B82Y10/00;;G06N3/0445;;G06N10/00;;G06N3/0472</t>
+          <t>G06N7/08;;G06N3/0445;;B82Y10/00;;G06N10/00;;G06N3/0472</t>
         </is>
       </c>
       <c r="R91" t="inlineStr"/>
@@ -10788,7 +10788,7 @@
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>US 2019/0266510 A1;;US 10671937 B2</t>
+          <t>US 10671937 B2;;US 2019/0266510 A1</t>
         </is>
       </c>
       <c r="Z91" t="inlineStr">
@@ -10830,7 +10830,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>YARKONI SHEIR;;LANTING TREVOR MICHAEL;;BOOTHBY KELLY T R;;KING ANDREW DOUGLAS;;ANDRIYASH EVGENY A;;AMIN MOHAMMAD H</t>
+          <t>YARKONI SHEIR;;KING ANDREW DOUGLAS;;ANDRIYASH EVGENY A;;BOOTHBY KELLY T R;;LANTING TREVOR MICHAEL;;AMIN MOHAMMAD H</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
@@ -10863,12 +10863,12 @@
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N7/08;;G06N10/00;;G06N3/04</t>
+          <t>G06N3/04;;G06N7/08;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>G06N7/08;;B82Y10/00;;G06N3/0445;;G06N10/00;;G06N3/0472</t>
+          <t>G06N7/08;;G06N3/0445;;B82Y10/00;;G06N10/00;;G06N3/0472</t>
         </is>
       </c>
       <c r="R92" t="inlineStr"/>
@@ -10979,12 +10979,12 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>G11C13/02;;B82Y10/00;;C12Q1/68;;G06N3/12;;C12Q1/6806</t>
+          <t>C12Q1/68;;B82Y10/00;;G06N3/12;;C12Q1/6806;;G11C13/02</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>B82Y10/00;;C12Q1/6869;;C12Q1/68;;G11C13/025;;G11C13/004;;G11C13/0019;;G16B50/50;;B82Y5/00;;G06N3/12;;C12Q1/6806;;G16B30/10;;G16B50/00;;G06N3/123</t>
+          <t>G16B30/10;;G11C13/004;;C12Q1/68;;G11C13/0019;;G16B50/00;;B82Y10/00;;G11C13/025;;G16B50/50;;C12Q1/6806;;G06N3/12;;G06N3/123;;C12Q1/6869;;B82Y5/00</t>
         </is>
       </c>
       <c r="R93" t="inlineStr"/>
@@ -11033,7 +11033,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>047-505-978-833-155;;150-446-297-196-345;;048-938-486-237-816;;000-855-771-025-710;;187-797-836-525-53X;;135-940-995-038-782</t>
+          <t>187-797-836-525-53X;;048-938-486-237-816;;047-505-978-833-155;;150-446-297-196-345;;000-855-771-025-710;;135-940-995-038-782</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -11043,7 +11043,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>정보 저장을 위한 방법, 조성물, 및 장치;;METHODS, COMPOSITIONS, AND DEVICES FOR INFORMATION STORAGE;;情報の記憶のための方法、組成物、およびデバイス</t>
+          <t>情報の記憶のための方法、組成物、およびデバイス;;METHODS, COMPOSITIONS, AND DEVICES FOR INFORMATION STORAGE;;정보 저장을 위한 방법, 조성물, 및 장치</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -11053,12 +11053,12 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;IRIDIA INC</t>
+          <t>IRIDIA INC;;イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>ポール・エフ・プレドキ;;マジャ・キャシディ;;CASSIDY MAJA;;PREDKI PAUL F</t>
+          <t>ポール・エフ・プレドキ;;PREDKI PAUL F;;CASSIDY MAJA;;マジャ・キャシディ</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
@@ -11067,7 +11067,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>CN;;JP;;KR;;CA;;EP</t>
+          <t>CN;;KR;;CA;;EP;;JP</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -11077,7 +11077,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>A;;A4;;A1</t>
+          <t>A4;;A;;A1</t>
         </is>
       </c>
       <c r="M94" t="n">
@@ -11091,12 +11091,12 @@
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>G01N33/487;;C12Q1/6869;;G16B30/00;;C12Q1/68;;G01N33/50;;G01N27/00;;G01N27/22;;G06N3/12;;C12P19/34;;B82Y5/00;;B82Y40/00;;G11C13/00;;G01N33/48;;C07H21/04</t>
+          <t>C12Q1/6869;;C12Q1/68;;G16B30/00;;G01N27/00;;G11C13/00;;C07H21/04;;B82Y40/00;;G01N33/487;;C12P19/34;;G06N3/12;;G01N33/50;;G01N27/22;;G01N33/48;;B82Y5/00</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>G01N33/48721;;C12Q2563/116;;G11C13/02;;B82Y10/00;;C12Q1/6869;;C12Q2521/131;;C12Q1/68;;G16B30/00;;C12Q2565/631;;C12P19/34;;G06N3/123</t>
+          <t>C12Q2565/631;;C12Q1/68;;G16B30/00;;C12Q2563/116;;B82Y10/00;;G01N33/48721;;C12P19/34;;C12Q2521/131;;G11C13/02;;G06N3/123;;C12Q1/6869</t>
         </is>
       </c>
       <c r="R94" t="inlineStr"/>
@@ -11128,12 +11128,12 @@
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>EP 3532639 A1;;CN 110325653 A;;CA 3079046 A1;;EP 3532639 A4;;KR 20190111897 A;;JP 2020502494 A</t>
+          <t>EP 3532639 A4;;CA 3079046 A1;;KR 20190111897 A;;JP 2020502494 A;;CN 110325653 A;;EP 3532639 A1</t>
         </is>
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>JP 2019523791 A;;EP 17865168 A;;KR 20197015597 A;;CA 3079046 A;;CN 201780080140 A</t>
+          <t>CA 3079046 A;;KR 20197015597 A;;JP 2019523791 A;;CN 201780080140 A;;EP 17865168 A</t>
         </is>
       </c>
     </row>
@@ -11170,7 +11170,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>CASSIDY MAJA;;PREDKI PAUL F</t>
+          <t>PREDKI PAUL F;;CASSIDY MAJA</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
@@ -11203,12 +11203,12 @@
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>C12Q1/68;;G01N33/50;;G06F19/00;;G01N27/22;;G01N33/48</t>
+          <t>C12Q1/68;;G01N33/50;;G01N27/22;;G06F19/00;;G01N33/48</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>G01N33/48721;;C12Q2563/116;;G11C13/02;;B82Y10/00;;C12Q1/6869;;C12Q2521/131;;C12Q1/68;;G16B30/00;;C12Q2565/631;;C12P19/34;;G06N3/123</t>
+          <t>C12Q2565/631;;C12Q1/68;;G16B30/00;;C12Q2563/116;;B82Y10/00;;G01N33/48721;;C12P19/34;;C12Q2521/131;;G11C13/02;;G06N3/123;;C12Q1/6869</t>
         </is>
       </c>
       <c r="R95" t="inlineStr"/>
@@ -11319,12 +11319,12 @@
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>G01N33/68;;G06K9/62;;G06N20/20;;C01G49/02;;G06K9/00</t>
+          <t>G06N20/20;;C01G49/02;;G06K9/62;;G01N33/68;;G06K9/00</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>G01N33/54346;;G01N33/586;;C01P2004/64;;G01N2570/00;;G01N33/5432;;G16B20/00;;G16B40/20;;G06N20/20;;G01N33/587;;G06K9/6267;;G06K9/00563;;B82Y35/00;;B82Y5/00;;G01N33/6803;;G16B40/30;;G01N33/57488;;G01N33/6848;;C01G49/02;;G01N33/6845;;B82Y30/00;;G01N2800/2821;;G06K9/00536;;G01N33/553</t>
+          <t>G01N2800/2821;;B82Y35/00;;G01N2570/00;;G01N33/553;;B82Y30/00;;G01N33/54346;;G16B40/30;;C01G49/02;;G01N33/5432;;G01N33/587;;G01N33/6845;;G16B20/00;;G06K9/00536;;G16B40/20;;G06N20/20;;G01N33/6803;;G01N33/586;;G06K9/00563;;G01N33/57488;;G01N33/6848;;G06K9/6267;;C01P2004/64;;B82Y5/00</t>
         </is>
       </c>
       <c r="R96" t="inlineStr"/>
@@ -11398,7 +11398,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>YOUNG IAN A;;MANIPATRUNI SASIKANTH;;NIKONOV DMITRI E</t>
+          <t>NIKONOV DMITRI E;;YOUNG IAN A;;MANIPATRUNI SASIKANTH</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
@@ -11431,12 +11431,12 @@
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>G06N99/00;;G06N3/063;;G06N3/08</t>
+          <t>G06N3/08;;G06N3/063;;G06N99/00</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>B82Y10/00;;B82Y25/00;;H01L29/66984;;H01L43/08;;G06N3/0635;;H01L43/10</t>
+          <t>G06N3/0635;;H01L29/66984;;H01L43/08;;B82Y10/00;;B82Y25/00;;H01L43/10</t>
         </is>
       </c>
       <c r="R97" t="inlineStr"/>
@@ -11485,7 +11485,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>008-994-057-244-271;;050-105-019-902-296</t>
+          <t>050-105-019-902-296;;008-994-057-244-271</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -11495,7 +11495,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>BIO-DIRECTIONAL NEURON-ELECTRONIC DEVICE INTERFACE STRUCTURES;;Bi-directional neuron-electronic device interface structures</t>
+          <t>Bi-directional neuron-electronic device interface structures;;BIO-DIRECTIONAL NEURON-ELECTRONIC DEVICE INTERFACE STRUCTURES</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -11510,7 +11510,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>YAROSLAVSKY IGOR YEHUDA;;YAROSLAVSKY IGOR;;SIGNAEVSKI MAXIM M;;SIGNAEVSKY MAXIM</t>
+          <t>SIGNAEVSKY MAXIM;;YAROSLAVSKY IGOR;;SIGNAEVSKI MAXIM M;;YAROSLAVSKY IGOR YEHUDA</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
@@ -11543,12 +11543,12 @@
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>A61B5/0492;;B82Y5/00;;H01L41/16</t>
+          <t>A61B5/0492;;H01L41/16;;B82Y5/00</t>
         </is>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>G06N3/0675;;A61N1/0529;;A61B5/7264;;A61B5/24;;G06N3/061;;B82Y30/00;;A61B2562/125</t>
+          <t>A61B2562/125;;A61B5/24;;A61B5/7264;;G06N3/0675;;G06N3/061;;B82Y30/00;;A61N1/0529</t>
         </is>
       </c>
       <c r="R98" t="inlineStr"/>
@@ -11580,7 +11580,7 @@
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>TW 201836178 A;;WO 2018/144454 A1</t>
+          <t>WO 2018/144454 A1;;TW 201836178 A</t>
         </is>
       </c>
       <c r="Z98" t="inlineStr">
@@ -11597,7 +11597,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>055-322-631-913-242;;099-584-260-676-79X</t>
+          <t>099-584-260-676-79X;;055-322-631-913-242</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -11651,12 +11651,12 @@
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>A61B5/0492;;B82Y5/00;;B82Y30/00;;A61B5/04;;G06N3/06;;A61N1/05</t>
+          <t>G06N3/06;;A61B5/04;;A61N1/05;;A61B5/0492;;B82Y30/00;;B82Y5/00</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>G06N3/0675;;A61N1/0529;;A61B5/7264;;A61B5/24;;G06N3/061;;B82Y30/00;;A61B2562/125</t>
+          <t>A61B2562/125;;A61B5/24;;A61B5/7264;;G06N3/0675;;G06N3/061;;B82Y30/00;;A61N1/0529</t>
         </is>
       </c>
       <c r="R99" t="inlineStr"/>
@@ -11688,7 +11688,7 @@
       </c>
       <c r="Y99" t="inlineStr">
         <is>
-          <t>EP 3576620 A1;;EP 3576620 A4</t>
+          <t>EP 3576620 A4;;EP 3576620 A1</t>
         </is>
       </c>
       <c r="Z99" t="inlineStr">
@@ -11715,7 +11715,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>BI-DIRECTIONAL NEURON-ELECTRONIC DEVICE INTERFACE STRUCTURES;;Bi-directional neuron-electronic device interface structures</t>
+          <t>Bi-directional neuron-electronic device interface structures;;BI-DIRECTIONAL NEURON-ELECTRONIC DEVICE INTERFACE STRUCTURES</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -11767,12 +11767,12 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>G06N3/067;;A61B5/00;;B82Y30/00;;A61B5/04;;G06N3/06;;A61N1/05</t>
+          <t>G06N3/06;;B82Y30/00;;A61B5/04;;A61N1/05;;G06N3/067;;A61B5/00</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>G06N3/0675;;A61N1/0529;;A61B5/7264;;A61B5/24;;G06N3/061;;B82Y30/00;;A61B2562/125</t>
+          <t>A61B2562/125;;A61B5/24;;A61B5/7264;;G06N3/0675;;G06N3/061;;B82Y30/00;;A61N1/0529</t>
         </is>
       </c>
       <c r="R100" t="inlineStr"/>
@@ -11804,7 +11804,7 @@
       </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>US 10602939 B2;;US 2018/0214042 A1</t>
+          <t>US 2018/0214042 A1;;US 10602939 B2</t>
         </is>
       </c>
       <c r="Z100" t="inlineStr">
@@ -11883,12 +11883,12 @@
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>G06N3/067;;A61B5/04;;A61N1/05;;A61B5/00</t>
+          <t>A61N1/05;;G06N3/067;;A61B5/04;;A61B5/00</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>G06N3/0675;;A61N1/0529;;A61B5/7264;;A61B5/24;;G06N3/061;;B82Y30/00;;A61B2562/125</t>
+          <t>A61B2562/125;;A61B5/24;;A61B5/7264;;G06N3/0675;;G06N3/061;;B82Y30/00;;A61N1/0529</t>
         </is>
       </c>
       <c r="R101" t="inlineStr"/>
@@ -11962,7 +11962,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>MREJEN MICHAEL;;NAGLER ACHIYA;;MALKIEL ITZIK;;WOLF LIOR;;SUCHOWSKI HAIM;;ARIELI URI</t>
+          <t>NAGLER ACHIYA;;MREJEN MICHAEL;;SUCHOWSKI HAIM;;MALKIEL ITZIK;;WOLF LIOR;;ARIELI URI</t>
         </is>
       </c>
       <c r="H102" t="inlineStr"/>
@@ -11995,12 +11995,12 @@
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>G01B11/02;;B82Y35/00</t>
+          <t>B82Y35/00;;G01B11/02</t>
         </is>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>G06N3/0481;;G06N3/126;;G06N3/08;;G01N2021/258;;G01N21/21;;G06N3/04;;G01B2210/56;;G01N21/25;;B82Y40/00</t>
+          <t>G06N3/04;;G01N21/25;;G01N21/21;;G06N3/0481;;B82Y40/00;;G06N3/08;;G06N3/126;;G01N2021/258;;G01B2210/56</t>
         </is>
       </c>
       <c r="R102" t="inlineStr"/>
@@ -12074,7 +12074,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>NEVEN HARTMUT;;FARHI EDWARD HENRY</t>
+          <t>FARHI EDWARD HENRY;;NEVEN HARTMUT</t>
         </is>
       </c>
       <c r="H103" t="inlineStr"/>
@@ -12107,12 +12107,12 @@
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>G06N99/00;;G06N3/063</t>
+          <t>G06N3/063;;G06N99/00</t>
         </is>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>G06N20/00;;G06N3/08;;B82Y10/00;;H04L9/0852;;G06N10/00;;H04L2209/34;;G06N3/063</t>
+          <t>G06N3/063;;G06N20/00;;B82Y10/00;;G06N10/00;;H04L2209/34;;G06N3/08;;H04L9/0852</t>
         </is>
       </c>
       <c r="R103" t="inlineStr"/>
@@ -12161,7 +12161,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>098-699-064-344-687;;104-916-437-556-927;;004-080-118-128-877;;126-194-360-671-56X;;122-674-749-552-013;;086-142-481-875-549;;190-018-764-824-196</t>
+          <t>086-142-481-875-549;;126-194-360-671-56X;;190-018-764-824-196;;004-080-118-128-877;;098-699-064-344-687;;104-916-437-556-927;;122-674-749-552-013</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -12171,7 +12171,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>QUANTUM NEURAL NETWORK;;量子ニューラルネットワーク;;Quantum neural network</t>
+          <t>Quantum neural network;;QUANTUM NEURAL NETWORK;;量子ニューラルネットワーク</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -12181,12 +12181,12 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;グーグル エルエルシー;;GOOGLE LLC</t>
+          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;GOOGLE LLC;;グーグル エルエルシー</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>NEVEN HARTMUT;;ハルトムート・ネーヴェン;;FARHI EDWARD HENRY;;エドワード・ヘンリー・ファーリ</t>
+          <t>エドワード・ヘンリー・ファーリ;;ハルトムート・ネーヴェン;;FARHI EDWARD HENRY;;NEVEN HARTMUT</t>
         </is>
       </c>
       <c r="H104" t="inlineStr"/>
@@ -12195,7 +12195,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>CN;;JP;;AU;;CA;;EP</t>
+          <t>CN;;CA;;EP;;JP;;AU</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -12219,12 +12219,12 @@
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>G06N99/00;;G06N10/00;;G06N3/063</t>
+          <t>G06N3/063;;G06N99/00;;G06N10/00</t>
         </is>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>G06N20/00;;G06N3/08;;B82Y10/00;;H04L9/0852;;G06N10/00;;H04L2209/34;;G06N3/063</t>
+          <t>G06N3/063;;G06N20/00;;B82Y10/00;;G06N10/00;;H04L2209/34;;G06N3/08;;H04L9/0852</t>
         </is>
       </c>
       <c r="R104" t="inlineStr"/>
@@ -12256,12 +12256,12 @@
       </c>
       <c r="Y104" t="inlineStr">
         <is>
-          <t>JP 2020522805 A;;EP 3619655 A1;;AU 2018/278348 B2;;AU 2018/278348 A1;;CA 3065859 A1;;JP 6882533 B2;;CN 110692067 A</t>
+          <t>CA 3065859 A1;;CN 110692067 A;;EP 3619655 A1;;AU 2018/278348 A1;;JP 6882533 B2;;AU 2018/278348 B2;;JP 2020522805 A</t>
         </is>
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>CA 3065859 A;;CN 201880036533 A;;JP 2019566260 A;;AU 2018/278348 A;;EP 18733461 A</t>
+          <t>JP 2019566260 A;;CN 201880036533 A;;CA 3065859 A;;AU 2018/278348 A;;EP 18733461 A</t>
         </is>
       </c>
     </row>
@@ -12298,7 +12298,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>NEVEN HARTMUT;;FARHI EDWARD HENRY</t>
+          <t>FARHI EDWARD HENRY;;NEVEN HARTMUT</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -12335,12 +12335,12 @@
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>G06N20/00;;G06N3/08;;B82Y10/00;;H04L9/08;;G06N10/00;;G06N3/063</t>
+          <t>G06N3/063;;H04L9/08;;G06N20/00;;B82Y10/00;;G06N10/00;;G06N3/08</t>
         </is>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>G06N20/00;;G06N3/08;;B82Y10/00;;H04L9/0852;;G06N10/00;;H04L2209/34;;G06N3/063</t>
+          <t>G06N3/063;;G06N20/00;;B82Y10/00;;G06N10/00;;H04L2209/34;;G06N3/08;;H04L9/0852</t>
         </is>
       </c>
       <c r="R105" t="inlineStr"/>
@@ -12447,12 +12447,12 @@
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>H01L41/18;;H03H9/02;;H03H9/15;;H01L41/08;;H03H9/42</t>
+          <t>H03H9/15;;H01L41/18;;H03H9/42;;H01L41/08;;H03H9/02</t>
         </is>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>H01L41/0986;;H01L27/20;;G06N3/0445;;G06N3/04;;B81B3/0021;;G06N3/0635</t>
+          <t>G06N3/0635;;G06N3/04;;G06N3/0445;;H01L41/0986;;H01L27/20;;B81B3/0021</t>
         </is>
       </c>
       <c r="R106" t="inlineStr"/>
@@ -12526,7 +12526,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>GUILLOU DAVID FRANCOIS;;SINHA RAJARISHI</t>
+          <t>SINHA RAJARISHI;;GUILLOU DAVID FRANCOIS</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -12563,12 +12563,12 @@
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>H01L41/09;;H01L27/20;;G06N3/04;;B81B3/00</t>
+          <t>H01L27/20;;G06N3/04;;H01L41/09;;B81B3/00</t>
         </is>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>H01L41/0986;;H01L27/20;;G06N3/0445;;G06N3/04;;B81B3/0021;;G06N3/0635</t>
+          <t>G06N3/0635;;G06N3/04;;G06N3/0445;;H01L41/0986;;H01L27/20;;B81B3/0021</t>
         </is>
       </c>
       <c r="R107" t="inlineStr"/>
@@ -12642,7 +12642,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>BHASKAR MIHIR;;EVANS RUFFIN;;SIPAHIGIL ALP;;LUNKIN MIKHAIL;;NGUYEN CHRISTIAN;;SUKACHEV DENIS</t>
+          <t>EVANS RUFFIN;;NGUYEN CHRISTIAN;;LUNKIN MIKHAIL;;BHASKAR MIHIR;;SUKACHEV DENIS;;SIPAHIGIL ALP</t>
         </is>
       </c>
       <c r="H108" t="inlineStr"/>
@@ -12675,12 +12675,12 @@
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G11C11/00</t>
+          <t>G11C11/00;;B82Y10/00</t>
         </is>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>G11C11/16;;G06N20/00;;B82Y10/00;;G06N10/00;;H04B10/90;;B82Y30/00;;H01L29/1602</t>
+          <t>H01L29/1602;;G06N20/00;;B82Y10/00;;G11C11/16;;G06N10/00;;H04B10/90;;B82Y30/00</t>
         </is>
       </c>
       <c r="R108" t="inlineStr"/>
@@ -12754,7 +12754,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>SUKACHEV DENIS D;;LUKIN MIKHAIL D;;SIPAHIGIL ALP;;EVANS RUFFIN E;;BHASKAR MIHIR KESHAV;;NGUYEN CHRISTIAN THIEU</t>
+          <t>BHASKAR MIHIR KESHAV;;EVANS RUFFIN E;;SIPAHIGIL ALP;;LUKIN MIKHAIL D;;NGUYEN CHRISTIAN THIEU;;SUKACHEV DENIS D</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -12796,7 +12796,7 @@
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>G11C11/16;;G06N20/00;;B82Y10/00;;G06N10/00;;H04B10/90;;B82Y30/00;;H01L29/1602</t>
+          <t>H01L29/1602;;G06N20/00;;B82Y10/00;;G11C11/16;;G06N10/00;;H04B10/90;;B82Y30/00</t>
         </is>
       </c>
       <c r="R109" t="inlineStr"/>
@@ -12870,7 +12870,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>DIENEL THOMAS;;LIVADARU LUCIAN;;VINE WYATT;;WALUS KONRAD;;HUFF TALEANA;;RASHIDI MOHAMMAD;;RETALLICK JACOB;;WOLKOW ROBERT</t>
+          <t>WOLKOW ROBERT;;HUFF TALEANA;;WALUS KONRAD;;DIENEL THOMAS;;RETALLICK JACOB;;LIVADARU LUCIAN;;RASHIDI MOHAMMAD;;VINE WYATT</t>
         </is>
       </c>
       <c r="H110" t="inlineStr"/>
@@ -12903,12 +12903,12 @@
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>G06N3/08;;G01Q60/04;;B82B3/00;;G01Q60/24</t>
+          <t>G01Q60/04;;B82B3/00;;G06N3/08;;G01Q60/24</t>
         </is>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>G01Q70/14;;G06N3/08;;B82Y10/00;;H01L29/7613;;G06N3/0445;;G01Q60/10;;H01L29/66977;;G01Q80/00;;G01Q30/10;;G06N3/04;;G06N7/005;;G01Q60/24;;H01L29/66984;;G06N3/0472;;G06N3/0635;;G06N20/10</t>
+          <t>G06N3/0635;;G06N3/04;;G01Q60/10;;H01L29/66984;;G06N20/10;;G01Q70/14;;G06N3/0445;;B82Y10/00;;G06N7/005;;G06N3/08;;G06N3/0472;;G01Q80/00;;G01Q60/24;;H01L29/66977;;H01L29/7613;;G01Q30/10</t>
         </is>
       </c>
       <c r="R110" t="inlineStr"/>
@@ -12982,7 +12982,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>MAGAR KAMAN THAPA;;PANKONIEN ALEXANDER M;;BAUR JEFFREY W;;DICKINSON BENJAMIN T;;KONDASH COREY R;;REICH GREGORY W;;SLINKER KEITH</t>
+          <t>REICH GREGORY W;;MAGAR KAMAN THAPA;;PANKONIEN ALEXANDER M;;BAUR JEFFREY W;;SLINKER KEITH;;DICKINSON BENJAMIN T;;KONDASH COREY R</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -13019,12 +13019,12 @@
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06F16/9038;;G01P5/26;;B82Y30/00;;G06N3/02</t>
+          <t>B82Y10/00;;G06N3/02;;G01P5/26;;G06F16/9038;;B82Y30/00</t>
         </is>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06F16/9038;;G01P5/26;;B82Y30/00;;G06N3/02</t>
+          <t>G06N3/02;;B82Y10/00;;G01P5/26;;G06F16/9038;;B82Y30/00</t>
         </is>
       </c>
       <c r="R111" t="inlineStr"/>
@@ -13131,12 +13131,12 @@
       </c>
       <c r="P112" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N99/00</t>
+          <t>G06N99/00;;B82Y10/00</t>
         </is>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;G06N5/003</t>
+          <t>G06N5/003;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="R112" t="inlineStr"/>
@@ -13229,7 +13229,7 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>A1;;C</t>
+          <t>C;;A1</t>
         </is>
       </c>
       <c r="M113" t="n">
@@ -13248,7 +13248,7 @@
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;G06N5/003</t>
+          <t>G06N5/003;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="R113" t="inlineStr"/>
@@ -13280,7 +13280,7 @@
       </c>
       <c r="Y113" t="inlineStr">
         <is>
-          <t>CA 3080318 C;;CA 3080318 A1</t>
+          <t>CA 3080318 A1;;CA 3080318 C</t>
         </is>
       </c>
       <c r="Z113" t="inlineStr">
@@ -13360,7 +13360,7 @@
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;G06N5/003</t>
+          <t>G06N5/003;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="R114" t="inlineStr"/>
@@ -13467,12 +13467,12 @@
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>G06N3/04;;G06N7/00;;B81B7/02;;G06N3/08</t>
+          <t>G06N3/08;;B81B7/02;;G06N7/00;;G06N3/04</t>
         </is>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>G01C25/005;;G06N3/08;;G06N3/0454;;G06N3/0445;;G01C21/183;;B81B2201/0242;;B81B2207/012;;G06N20/10;;G06N7/005;;G06N3/0472;;G06N3/084;;B81B7/02;;G06N3/088</t>
+          <t>B81B2207/012;;G06N3/088;;B81B2201/0242;;G06N20/10;;G06N3/0445;;G06N3/0454;;G06N3/084;;G06N7/005;;G06N3/08;;B81B7/02;;G01C21/183;;G06N3/0472;;G01C25/005</t>
         </is>
       </c>
       <c r="R115" t="inlineStr"/>
@@ -13521,7 +13521,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>122-575-242-766-692;;107-706-698-330-591;;040-685-913-457-183;;040-976-568-506-57X;;048-666-894-031-255;;056-410-719-774-001;;143-577-806-116-427;;149-148-197-227-369;;120-626-180-387-172</t>
+          <t>048-666-894-031-255;;149-148-197-227-369;;120-626-180-387-172;;107-706-698-330-591;;040-976-568-506-57X;;056-410-719-774-001;;040-685-913-457-183;;143-577-806-116-427;;122-575-242-766-692</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -13531,7 +13531,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>強化学習を通した量子計算;;Quantum computation through reinforcement learning;;강화된 학습을 통한 양자 계산;;QUANTUM COMPUTATION THROUGH REINFORCEMENT LEARNING</t>
+          <t>QUANTUM COMPUTATION THROUGH REINFORCEMENT LEARNING;;Quantum computation through reinforcement learning;;強化学習を通した量子計算;;강화된 학습을 통한 양자 계산</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -13541,12 +13541,12 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>NEVEN HARTMUT;;NIU YUEZHEN;;SMELYANSKIY VADIM;;GOOGLE INC;;GOOGLE LLC;;CASTRILLO SERGIO BOIXO;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
+          <t>GOOGLE INC;;NIU YUEZHEN;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;GOOGLE LLC;;CASTRILLO SERGIO BOIXO</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>NEVEN HARTMUT;;NIU YUEZHEN;;SMELYANSKIY VADIM;;セルジオ・バイショ・カストリージョ;;ヴァディム・スメリャンスキー;;CASTRILLO SERGIO BOIXO;;BOIXO CASTRILLO SERGIO;;ハルトムート・ネーフェン;;ユエゼン・ニウ</t>
+          <t>BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NIU YUEZHEN;;ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;NEVEN HARTMUT;;ユエゼン・ニウ;;ハルトムート・ネーフェン;;CASTRILLO SERGIO BOIXO</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -13559,7 +13559,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>US;;WO;;CN;;JP;;KR;;AU;;CA;;EP</t>
+          <t>CN;;WO;;KR;;CA;;EP;;JP;;US;;AU</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -13583,12 +13583,12 @@
       </c>
       <c r="P116" t="inlineStr">
         <is>
-          <t>G06N3/08;;B82Y10/00;;G06N3/00;;G06N99/00;;G06N3/04;;G06N10/00;;G06N3/02</t>
+          <t>G06N3/04;;G06N3/00;;B82Y10/00;;G06N10/00;;G06N3/08;;G06N3/02;;G06N99/00</t>
         </is>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>G06N3/08;;B82Y10/00;;G06N3/0454;;G06N3/006;;G06N10/00;;G06N3/084</t>
+          <t>G06N3/084;;G06N3/0454;;B82Y10/00;;G06N10/00;;G06N3/08;;G06N3/006</t>
         </is>
       </c>
       <c r="R116" t="inlineStr"/>
@@ -13620,12 +13620,12 @@
       </c>
       <c r="Y116" t="inlineStr">
         <is>
-          <t>AU 2018/406532 A1;;CN 111868756 A;;CA 3088135 A1;;EP 3746953 A1;;KR 20200097787 A;;JP 2021512395 A;;WO 2019/152020 A1;;US 2020/0410343 A1;;AU 2018/406532 B2</t>
+          <t>AU 2018/406532 A1;;KR 20200097787 A;;CA 3088135 A1;;US 2020/0410343 A1;;JP 2021512395 A;;AU 2018/406532 B2;;CN 111868756 A;;WO 2019/152020 A1;;EP 3746953 A1</t>
         </is>
       </c>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>CA 3088135 A;;JP 2020539032 A;;AU 2018/406532 A;;US 201816962059 A;;KR 20207020582 A;;US 2018/0016238 W;;EP 18704796 A;;CN 201880086701 A</t>
+          <t>EP 18704796 A;;JP 2020539032 A;;CA 3088135 A;;KR 20207020582 A;;US 201816962059 A;;US 2018/0016238 W;;AU 2018/406532 A;;CN 201880086701 A</t>
         </is>
       </c>
     </row>
@@ -13637,7 +13637,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>118-982-397-892-435;;183-638-313-596-810</t>
+          <t>183-638-313-596-810;;118-982-397-892-435</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -13647,7 +13647,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>THREE-DIMENSIONAL MODEL OF PARTICLE INTERACTIONS APPLYING TWO-DIMENSIONAL FEYNMAN DIAGRAMS;;THREE-DIMENSIONAL MODEL OF PARTICLE INTERACTIONS APPLYING TWO-DIMENSIONAL FEYNMAN DIAGRAMS RULES THAT APPLY ONLY CIRCLE-ARC LINES FOR ELECTRON OR POSITRON ARROWS EACH CONNECTED TO PHOTON WIGGLY LINES AND THEN ONLY JOIN THEM USING INTERSECTED VERTICES DEFINING THE UNIVERSAL THEORY OF ELECTRONS AND PHOTONS UNDER A HEXAGONAL THREE-DIMENSIONAL ARRAY OF THREE ELEMENTS</t>
+          <t>THREE-DIMENSIONAL MODEL OF PARTICLE INTERACTIONS APPLYING TWO-DIMENSIONAL FEYNMAN DIAGRAMS RULES THAT APPLY ONLY CIRCLE-ARC LINES FOR ELECTRON OR POSITRON ARROWS EACH CONNECTED TO PHOTON WIGGLY LINES AND THEN ONLY JOIN THEM USING INTERSECTED VERTICES DEFINING THE UNIVERSAL THEORY OF ELECTRONS AND PHOTONS UNDER A HEXAGONAL THREE-DIMENSIONAL ARRAY OF THREE ELEMENTS;;THREE-DIMENSIONAL MODEL OF PARTICLE INTERACTIONS APPLYING TWO-DIMENSIONAL FEYNMAN DIAGRAMS</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -13681,7 +13681,7 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>A2;;A3</t>
+          <t>A3;;A2</t>
         </is>
       </c>
       <c r="M117" t="n">
@@ -13695,12 +13695,12 @@
       </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>G06N20/00;;H05H15/00;;H05H7/04;;H99Z99/00;;H05H7/22</t>
+          <t>H05H15/00;;H05H7/22;;H99Z99/00;;G06N20/00;;H05H7/04</t>
         </is>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>H01L29/1606;;B82Y10/00;;H01L29/7613;;H01L29/66977;;G06N10/00;;C01B32/182;;B82Y30/00</t>
+          <t>C01B32/182;;B82Y10/00;;G06N10/00;;H01L29/1606;;H01L29/66977;;H01L29/7613;;B82Y30/00</t>
         </is>
       </c>
       <c r="R117" t="inlineStr"/>
@@ -13732,7 +13732,7 @@
       </c>
       <c r="Y117" t="inlineStr">
         <is>
-          <t>WO 2019/222718 A2;;WO 2019/222718 A3</t>
+          <t>WO 2019/222718 A3;;WO 2019/222718 A2</t>
         </is>
       </c>
       <c r="Z117" t="inlineStr">
@@ -13774,12 +13774,12 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>NGUYEN BICHLIEN HOANG;;CHEN WEIDA;;STRAUSS KARIN;;KOHLL ALEXANDER XAVIER CHRISTOF;;GRASS ROBERT</t>
+          <t>CHEN WEIDA;;NGUYEN BICHLIEN HOANG;;KOHLL ALEXANDER XAVIER CHRISTOF;;STRAUSS KARIN;;GRASS ROBERT</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>MICROSOFT TECHNOLOGY LICENSING LLC (2014-10-14);;MICROSOFT CORPORATION (2018-10-05);;ETH ZURICH (2018-10-25)</t>
+          <t>MICROSOFT CORPORATION (2018-10-05);;ETH ZURICH (2018-10-25);;MICROSOFT TECHNOLOGY LICENSING LLC (2014-10-14)</t>
         </is>
       </c>
       <c r="I118" t="n">
@@ -13811,12 +13811,12 @@
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>C12N15/10;;B01J13/22;;G06N3/00;;B22F1/02;;H01F1/00;;C12Q1/6806;;C07H21/04</t>
+          <t>B22F1/02;;H01F1/00;;C12N15/10;;G06N3/00;;C07H21/04;;C12Q1/6806;;B01J13/22</t>
         </is>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>B22F2999/00;;B01J13/22;;B22F1/02;;C12N15/1013;;B82Y10/00;;G16B30/00;;H01F1/0054;;B22F1/0062;;B82Y25/00;;B22F1/0018;;G06N3/123;;C07H21/04</t>
+          <t>B22F1/02;;G16B30/00;;H01F1/0054;;B22F1/0018;;B82Y10/00;;B22F1/0062;;C07H21/04;;C12N15/1013;;G06N3/123;;B82Y25/00;;B01J13/22;;B22F2999/00</t>
         </is>
       </c>
       <c r="R118" t="inlineStr"/>
@@ -13848,7 +13848,7 @@
       </c>
       <c r="Y118" t="inlineStr">
         <is>
-          <t>US 2019/0388862 A1;;WO 2020/005509 A1</t>
+          <t>WO 2020/005509 A1;;US 2019/0388862 A1</t>
         </is>
       </c>
       <c r="Z118" t="inlineStr">
@@ -13875,7 +13875,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>SILICA ENCAPSULATED DNA ON MAGNETIC NANOPARTICLES;;磁性纳米颗粒上的二氧化硅包封的DNA</t>
+          <t>磁性纳米颗粒上的二氧化硅包封的DNA;;SILICA ENCAPSULATED DNA ON MAGNETIC NANOPARTICLES</t>
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
@@ -13886,7 +13886,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>KOHLL ALEXANDER XAVIER CHRISTOF;;NGUYEN BICHLIEN HOANG;;R·格拉斯;;A·X·C·科尔;;B·H·阮;;CHEN WEIDA;;W·陈;;STRAUSS KARIN;;K·施特劳斯;;GRASS ROBERT</t>
+          <t>K·施特劳斯;;R·格拉斯;;CHEN WEIDA;;A·X·C·科尔;;NGUYEN BICHLIEN HOANG;;KOHLL ALEXANDER XAVIER CHRISTOF;;STRAUSS KARIN;;B·H·阮;;W·陈;;GRASS ROBERT</t>
         </is>
       </c>
       <c r="H119" t="inlineStr"/>
@@ -13919,12 +13919,12 @@
       </c>
       <c r="P119" t="inlineStr">
         <is>
-          <t>C12N15/10;;G06N3/00;;B22F1/02;;H01F1/00;;C12Q1/6806</t>
+          <t>B22F1/02;;C12N15/10;;G06N3/00;;C12Q1/6806;;H01F1/00</t>
         </is>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>B22F2999/00;;B01J13/22;;B22F1/02;;C12N15/1013;;B82Y10/00;;G16B30/00;;H01F1/0054;;B22F1/0062;;B82Y25/00;;B22F1/0018;;G06N3/123;;C07H21/04</t>
+          <t>B22F1/02;;G16B30/00;;H01F1/0054;;B22F1/0018;;B82Y10/00;;B22F1/0062;;C07H21/04;;C12N15/1013;;G06N3/123;;B82Y25/00;;B01J13/22;;B22F2999/00</t>
         </is>
       </c>
       <c r="R119" t="inlineStr"/>
@@ -13956,12 +13956,12 @@
       </c>
       <c r="Y119" t="inlineStr">
         <is>
-          <t>CN 112823207 A;;EP 3810773 A1</t>
+          <t>EP 3810773 A1;;CN 112823207 A</t>
         </is>
       </c>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>CN 201980041050 A;;EP 19748985 A</t>
+          <t>EP 19748985 A;;CN 201980041050 A</t>
         </is>
       </c>
     </row>
@@ -14035,12 +14035,12 @@
       </c>
       <c r="P120" t="inlineStr">
         <is>
-          <t>G06N5/02;;B82Y10/00;;G06N99/00;;G06F9/50;;G06F9/38;;G06F17/18;;G06F15/16</t>
+          <t>G06F17/18;;B82Y10/00;;G06N5/02;;G06F15/16;;G06F9/38;;G06F9/50;;G06N99/00</t>
         </is>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>G06N20/00;;B82Y10/00;;G06F40/30;;G06F9/5027;;G06N5/022;;G06F9/3877;;G06F17/18;;G06F15/16;;G06N10/00;;G06N5/04;;G06F16/9024</t>
+          <t>G06F9/5027;;G06F16/9024;;G06F17/18;;G06N20/00;;B82Y10/00;;G06F40/30;;G06N5/04;;G06N10/00;;G06F9/3877;;G06F15/16;;G06N5/022</t>
         </is>
       </c>
       <c r="R120" t="inlineStr"/>
@@ -14089,7 +14089,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>014-608-546-632-936;;086-922-027-475-411</t>
+          <t>086-922-027-475-411;;014-608-546-632-936</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -14099,7 +14099,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Bayesian tuning for quantum logic gates;;BAYESIAN TUNING FOR QUANTUM LOGIC GATES</t>
+          <t>BAYESIAN TUNING FOR QUANTUM LOGIC GATES;;Bayesian tuning for quantum logic gates</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -14114,7 +14114,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>GAMBLE JOHN KING;;WIEBE NATHAN O;;GRANADE CHRISTOPHER EVAN;;GAMBLE IV JOHN KING</t>
+          <t>WIEBE NATHAN O;;GRANADE CHRISTOPHER EVAN;;GAMBLE JOHN KING;;GAMBLE IV JOHN KING</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -14137,7 +14137,7 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>A1;;B1</t>
+          <t>B1;;A1</t>
         </is>
       </c>
       <c r="M121" t="n">
@@ -14151,12 +14151,12 @@
       </c>
       <c r="P121" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H03K19/195;;G06N7/00;;G06N10/00</t>
+          <t>H03K19/195;;G06N7/00;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>G06N20/00;;B82Y10/00;;G06N10/00;;G06N7/005;;H03K19/195</t>
+          <t>H03K19/195;;G06N20/00;;G06N7/005;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="R121" t="inlineStr"/>
@@ -14230,7 +14230,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>TEMME PAUL KRISTAN;;OLIVADESE SALVATORE;;OLIVADESE SALVATORE BERNARDO;;BISHOP LEV;;TEMME PAUL;;GAMBETTA JAY;;GAMBETTA JAY M;;CORCOLES-GONZALEZ ANTONIO;;BISHOP LEV SAMUEL</t>
+          <t>CORCOLES-GONZALEZ ANTONIO;;GAMBETTA JAY;;BISHOP LEV;;TEMME PAUL;;BISHOP LEV SAMUEL;;TEMME PAUL KRISTAN;;OLIVADESE SALVATORE;;OLIVADESE SALVATORE BERNARDO;;GAMBETTA JAY M</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -14253,7 +14253,7 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>A1;;B1</t>
+          <t>B1;;A1</t>
         </is>
       </c>
       <c r="M122" t="n">
@@ -14267,12 +14267,12 @@
       </c>
       <c r="P122" t="inlineStr">
         <is>
-          <t>H03H3/007;;B82Y10/00;;G06F13/40;;G06N99/00;;G06F9/38;;G06N10/00;;G06N20/10</t>
+          <t>G06N20/10;;B82Y10/00;;G06N10/00;;G06F13/40;;H03H3/007;;G06F9/38;;G06N99/00</t>
         </is>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>H03H3/007;;B82Y10/00;;G06N99/00;;G06F9/3877;;G06N10/00;;G06F13/4068;;G06N20/10</t>
+          <t>G06N20/10;;G06F13/4068;;B82Y10/00;;G06N10/00;;H03H3/007;;G06F9/3877;;G06N99/00</t>
         </is>
       </c>
       <c r="R122" t="inlineStr"/>
@@ -14304,12 +14304,12 @@
       </c>
       <c r="Y122" t="inlineStr">
         <is>
-          <t>US 10650322 B1;;WO 2020/120183 A1</t>
+          <t>WO 2020/120183 A1;;US 10650322 B1</t>
         </is>
       </c>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>EP 2019083224 W;;US 201816219346 A</t>
+          <t>US 201816219346 A;;EP 2019083224 W</t>
         </is>
       </c>
     </row>
@@ -14321,7 +14321,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>130-864-873-155-442;;132-673-414-038-918</t>
+          <t>132-673-414-038-918;;130-864-873-155-442</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -14346,7 +14346,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>TEMME PAUL KRISTAN;;OLIVADESE SALVATORE BERNARDO;;GAMBETTA JAY M;;CORCOLES-GONZALEZ ANTONIO;;BISHOP LEV SAMUEL</t>
+          <t>CORCOLES-GONZALEZ ANTONIO;;BISHOP LEV SAMUEL;;TEMME PAUL KRISTAN;;OLIVADESE SALVATORE BERNARDO;;GAMBETTA JAY M</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -14383,12 +14383,12 @@
       </c>
       <c r="P123" t="inlineStr">
         <is>
-          <t>H03H3/007;;B82Y10/00;;G06F13/40;;G06N99/00;;G06F9/38;;G06N10/00</t>
+          <t>B82Y10/00;;G06N10/00;;G06F13/40;;H03H3/007;;G06F9/38;;G06N99/00</t>
         </is>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>H03H3/007;;B82Y10/00;;G06N99/00;;G06F9/3877;;G06N10/00;;G06F13/4068;;G06N20/10</t>
+          <t>G06N20/10;;G06F13/4068;;B82Y10/00;;G06N10/00;;H03H3/007;;G06F9/3877;;G06N99/00</t>
         </is>
       </c>
       <c r="R123" t="inlineStr"/>
@@ -14437,7 +14437,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>192-647-536-389-238;;097-696-469-823-539</t>
+          <t>097-696-469-823-539;;192-647-536-389-238</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -14447,7 +14447,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Allergic early detection wearable device;;ALLERGIC EARLY DETECTION WEARABLE DEVICE</t>
+          <t>ALLERGIC EARLY DETECTION WEARABLE DEVICE;;Allergic early detection wearable device</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -14462,7 +14462,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>NEUMAN-HORN DEBRA A;;MISGEN MARVIN M;;PRZYBYLSKI KEVIN J;;KUCZYNSKI JOSEPH;;PRISCO JOSEPH F</t>
+          <t>PRZYBYLSKI KEVIN J;;PRISCO JOSEPH F;;NEUMAN-HORN DEBRA A;;MISGEN MARVIN M;;KUCZYNSKI JOSEPH</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -14499,12 +14499,12 @@
       </c>
       <c r="P124" t="inlineStr">
         <is>
-          <t>G06T7/00;;B82B3/00;;A61B5/00</t>
+          <t>B82B3/00;;G06T7/00;;A61B5/00</t>
         </is>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>A61B5/0077;;A61B5/411;;A61B2505/07;;A61B5/6802;;B82B3/0014;;G06T7/0012;;A61B5/6898;;A61B5/7267</t>
+          <t>A61B5/411;;A61B5/0077;;B82B3/0014;;A61B2505/07;;G06T7/0012;;A61B5/7267;;A61B5/6802;;A61B5/6898</t>
         </is>
       </c>
       <c r="R124" t="inlineStr"/>
@@ -14578,7 +14578,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>KHOMAMI ABADI MOJTABA;;GAHROOSI AMIR;;MASILAMANI ASHOK;;GOULD MATTHEW</t>
+          <t>MASILAMANI ASHOK;;GAHROOSI AMIR;;GOULD MATTHEW;;KHOMAMI ABADI MOJTABA</t>
         </is>
       </c>
       <c r="H125" t="inlineStr"/>
@@ -14611,12 +14611,12 @@
       </c>
       <c r="P125" t="inlineStr">
         <is>
-          <t>G06N3/02;;G01N37/00;;G06N3/08</t>
+          <t>G06N3/08;;G06N3/02;;G01N37/00</t>
         </is>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>G01N2035/00891;;G01N35/00722;;B82Y15/00;;G01N33/0034;;G01N33/0031</t>
+          <t>G01N2035/00891;;G01N33/0031;;B82Y15/00;;G01N35/00722;;G01N33/0034</t>
         </is>
       </c>
       <c r="R125" t="inlineStr"/>
@@ -14690,7 +14690,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>KHOMAMI ABADI MOJTABA;;GAHROOSI AMIR BAHADOR;;MASILAMANI ASHOK PRABHU;;GOULD MATTHEW V</t>
+          <t>GAHROOSI AMIR BAHADOR;;GOULD MATTHEW V;;MASILAMANI ASHOK PRABHU;;KHOMAMI ABADI MOJTABA</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -14713,7 +14713,7 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>A1;;B1</t>
+          <t>B1;;A1</t>
         </is>
       </c>
       <c r="M126" t="n">
@@ -14732,7 +14732,7 @@
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>G01N2035/00891;;G01N35/00722;;B82Y15/00;;G01N33/0034;;G01N33/0031</t>
+          <t>G01N2035/00891;;G01N33/0031;;B82Y15/00;;G01N35/00722;;G01N33/0034</t>
         </is>
       </c>
       <c r="R126" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>KHOMAMI ABADI MOJTABA;;GAHROOSI AMIR BAHADOR;;MASILAMANI ASHOK PRABHU;;GOULD MATTHEW V</t>
+          <t>GAHROOSI AMIR BAHADOR;;GOULD MATTHEW V;;MASILAMANI ASHOK PRABHU;;KHOMAMI ABADI MOJTABA</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -14848,7 +14848,7 @@
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>G01N2035/00891;;G01N35/00722;;B82Y15/00;;G01N33/0034;;G01N33/0031</t>
+          <t>G01N2035/00891;;G01N33/0031;;B82Y15/00;;G01N35/00722;;G01N33/0034</t>
         </is>
       </c>
       <c r="R127" t="inlineStr"/>
@@ -14922,7 +14922,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>MCLEAN MARK;;WU QING;;XIA QIANGFEI;;YANG JIANHUA</t>
+          <t>WU QING;;XIA QIANGFEI;;MCLEAN MARK;;YANG JIANHUA</t>
         </is>
       </c>
       <c r="H128" t="inlineStr"/>
@@ -14955,12 +14955,12 @@
       </c>
       <c r="P128" t="inlineStr">
         <is>
-          <t>G06N3/04;;G06N3/06;;G06N3/063;;G06N3/08</t>
+          <t>G06N3/08;;G06N3/063;;G06N3/04;;G06N3/06</t>
         </is>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>H01L45/146;;G06N3/0481;;G06N3/08;;B82Y10/00;;G06N3/0454;;H01L27/24;;B82Y15/00;;G06N3/061;;G06N3/0635;;G06N3/063;;G06N3/088</t>
+          <t>G06N3/0635;;G06N3/063;;G06N3/088;;H01L27/24;;H01L45/146;;G06N3/0454;;G06N3/0481;;B82Y10/00;;G06N3/08;;B82Y15/00;;G06N3/061</t>
         </is>
       </c>
       <c r="R128" t="inlineStr"/>
@@ -15034,7 +15034,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>NABAVI SEYEDFAKHREDDIN;;ZHANG LIHONG</t>
+          <t>ZHANG LIHONG;;NABAVI SEYEDFAKHREDDIN</t>
         </is>
       </c>
       <c r="H129" t="inlineStr"/>
@@ -15067,12 +15067,12 @@
       </c>
       <c r="P129" t="inlineStr">
         <is>
-          <t>H02N2/18;;B81B3/00</t>
+          <t>B81B3/00;;H02N2/18</t>
         </is>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>H01L41/0477;;B81B2203/0307;;B81B2203/058;;H01L41/1136;;H02N2/188;;H02N2/18;;H01L41/332;;H01L41/187;;H01L41/316;;B81B3/0021;;B81B2203/0172;;H01L41/29;;B81B2207/053;;B81B3/0045;;H02N2/22;;B81B2201/032</t>
+          <t>H01L41/0477;;B81B2203/0307;;B81B2207/053;;H02N2/188;;H01L41/332;;B81B2203/058;;H01L41/1136;;B81B2203/0172;;H02N2/18;;B81B2201/032;;H01L41/187;;H02N2/22;;H01L41/29;;H01L41/316;;B81B3/0045;;B81B3/0021</t>
         </is>
       </c>
       <c r="R129" t="inlineStr"/>
@@ -15146,7 +15146,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>PARK HYUNJUN;;LEAKE DEVIN;;ROQUET NATHANIEL;;BHATIA SWAPNIL</t>
+          <t>ROQUET NATHANIEL;;PARK HYUNJUN;;BHATIA SWAPNIL;;LEAKE DEVIN</t>
         </is>
       </c>
       <c r="H130" t="inlineStr"/>
@@ -15179,12 +15179,12 @@
       </c>
       <c r="P130" t="inlineStr">
         <is>
-          <t>H03M13/37;;G16B50/20;;G16B30/00;;C12Q1/68;;H03M13/15</t>
+          <t>G16B50/20;;C12Q1/68;;G16B30/00;;H03M13/15;;H03M13/37</t>
         </is>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>G16B50/20;;H03M13/05;;G16B99/00;;B82Y10/00;;G16B30/00;;G16B25/20;;G16B25/00;;G06N3/123;;G16B50/30</t>
+          <t>G16B50/20;;G16B30/00;;B82Y10/00;;G16B99/00;;H03M13/05;;G06N3/123;;G16B25/20;;G16B50/30;;G16B25/00</t>
         </is>
       </c>
       <c r="R130" t="inlineStr"/>
@@ -15233,7 +15233,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>148-258-953-210-353;;067-489-341-104-332;;117-020-155-203-357;;077-447-134-917-741</t>
+          <t>067-489-341-104-332;;117-020-155-203-357;;148-258-953-210-353;;077-447-134-917-741</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -15243,7 +15243,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Compositions and methods for nucleic acid-based data storage;;핵산-기반 데이터를 저장하기 위한 조성물 및 방법;;COMPOSITIONS AND METHODS FOR NUCLEIC ACID-BASED DATA STORAGE</t>
+          <t>핵산-기반 데이터를 저장하기 위한 조성물 및 방법;;COMPOSITIONS AND METHODS FOR NUCLEIC ACID-BASED DATA STORAGE;;Compositions and methods for nucleic acid-based data storage</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -15253,12 +15253,12 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>CATALOG TECH INC;;CATALOG TECHNOLOGIES INC</t>
+          <t>CATALOG TECHNOLOGIES INC;;CATALOG TECH INC</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>BHATIA SWAPNIL P;;PARK HYUNJUN;;LEAKE DEVIN;;ROQUET NATHANIEL</t>
+          <t>ROQUET NATHANIEL;;PARK HYUNJUN;;BHATIA SWAPNIL P;;LEAKE DEVIN</t>
         </is>
       </c>
       <c r="H131" t="inlineStr"/>
@@ -15267,7 +15267,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>KR;;AU;;CA;;EP</t>
+          <t>AU;;CA;;KR;;EP</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -15291,12 +15291,12 @@
       </c>
       <c r="P131" t="inlineStr">
         <is>
-          <t>H03M13/37;;G16B50/20;;H03M13/05;;B82Y10/00;;G16B30/00;;C12Q1/68;;G06N3/12;;H03M13/15;;G16B50/30</t>
+          <t>G16B50/20;;C12Q1/68;;G16B30/00;;G16B50/30;;B82Y10/00;;G06N3/12;;H03M13/05;;H03M13/15;;H03M13/37</t>
         </is>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>G16B50/20;;H03M13/05;;G16B99/00;;B82Y10/00;;G16B30/00;;G16B25/20;;G16B25/00;;G06N3/123;;G16B50/30</t>
+          <t>G16B50/20;;G16B30/00;;B82Y10/00;;G16B99/00;;H03M13/05;;G06N3/123;;G16B25/20;;G16B50/30;;G16B25/00</t>
         </is>
       </c>
       <c r="R131" t="inlineStr"/>
@@ -15328,12 +15328,12 @@
       </c>
       <c r="Y131" t="inlineStr">
         <is>
-          <t>EP 3794598 A1;;CA 3100529 A1;;KR 20210029147 A;;AU 2019/270159 A1</t>
+          <t>CA 3100529 A1;;EP 3794598 A1;;AU 2019/270159 A1;;KR 20210029147 A</t>
         </is>
       </c>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>CA 3100529 A;;KR 20207036043 A;;EP 19728816 A;;AU 2019/270159 A</t>
+          <t>AU 2019/270159 A;;KR 20207036043 A;;EP 19728816 A;;CA 3100529 A</t>
         </is>
       </c>
     </row>
@@ -15370,7 +15370,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>BHATIA SWAPNIL P;;PARK HYUNJUN;;LEAKE DEVIN;;ROQUET NATHANIEL</t>
+          <t>ROQUET NATHANIEL;;PARK HYUNJUN;;BHATIA SWAPNIL P;;LEAKE DEVIN</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -15407,12 +15407,12 @@
       </c>
       <c r="P132" t="inlineStr">
         <is>
-          <t>G16B30/00;;G06N3/12;;G16B50/30</t>
+          <t>G06N3/12;;G16B30/00;;G16B50/30</t>
         </is>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>G16B50/20;;H03M13/05;;G16B99/00;;B82Y10/00;;G16B30/00;;G16B25/20;;G16B25/00;;G06N3/123;;G16B50/30</t>
+          <t>G16B50/20;;G16B30/00;;B82Y10/00;;G16B99/00;;H03M13/05;;G06N3/123;;G16B25/20;;G16B50/30;;G16B25/00</t>
         </is>
       </c>
       <c r="R132" t="inlineStr"/>
@@ -15486,7 +15486,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>BHATIA SWAPNIL P;;PARK HYUNJUN;;LEAKE DEVIN;;ROQUET NATHANIEL</t>
+          <t>ROQUET NATHANIEL;;PARK HYUNJUN;;BHATIA SWAPNIL P;;LEAKE DEVIN</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -15523,12 +15523,12 @@
       </c>
       <c r="P133" t="inlineStr">
         <is>
-          <t>G16B30/00;;G06N3/12;;G16B50/30</t>
+          <t>G06N3/12;;G16B30/00;;G16B50/30</t>
         </is>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>G16B50/20;;H03M13/05;;G16B99/00;;B82Y10/00;;G16B30/00;;G16B25/20;;G16B25/00;;G06N3/123;;G16B50/30</t>
+          <t>G16B50/20;;G16B30/00;;B82Y10/00;;G16B99/00;;H03M13/05;;G06N3/123;;G16B25/20;;G16B50/30;;G16B25/00</t>
         </is>
       </c>
       <c r="R133" t="inlineStr"/>
@@ -15602,7 +15602,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>FRANK IAN;;FAVALORA GREGG;;CAVANAGH PETER;;MAGYAR ANDREW;;VARGO EMMA;;HUANG HAIYAO;;MARKOVIC STACEY;;MCFARLAND KIRSTY;;KOTZ KENNETH;;BYRNES STEVEN;;SPRACHMAN MELISSA;;DUBAY RYAN;;ROSENBERGER ERIN</t>
+          <t>ROSENBERGER ERIN;;MCFARLAND KIRSTY;;MAGYAR ANDREW;;HUANG HAIYAO;;FAVALORA GREGG;;CAVANAGH PETER;;DUBAY RYAN;;KOTZ KENNETH;;FRANK IAN;;BYRNES STEVEN;;SPRACHMAN MELISSA;;MARKOVIC STACEY;;VARGO EMMA</t>
         </is>
       </c>
       <c r="H134" t="inlineStr"/>
@@ -15635,12 +15635,12 @@
       </c>
       <c r="P134" t="inlineStr">
         <is>
-          <t>B01J19/00;;G06N3/12</t>
+          <t>G06N3/12;;B01J19/00</t>
         </is>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>B01J2219/00495;;B01J2219/00511;;B01J2219/00448;;C12N15/1006;;B01L3/5027;;B01L3/527;;C12P19/34;;B01J2219/00596;;B01J2219/00439;;G06N3/123;;B01L3/502761;;G11C13/02;;B01J2219/0052;;C12N15/1065;;C12N9/12;;B01J2219/00722;;B01L3/50851;;C12N15/1068;;B01J2219/00436;;B81B1/006;;B01J19/0046;;B01J2219/00711</t>
+          <t>C12N15/1006;;B01J2219/00511;;B01J19/0046;;B01J2219/00495;;B01J2219/0052;;C12N15/1068;;B01J2219/00596;;B01J2219/00711;;C12P19/34;;B01J2219/00436;;B01L3/527;;B01L3/5027;;B01J2219/00448;;B01J2219/00722;;G11C13/02;;G06N3/123;;B01J2219/00439;;C12N9/12;;C12N15/1065;;B01L3/502761;;B81B1/006;;B01L3/50851</t>
         </is>
       </c>
       <c r="R134" t="inlineStr"/>
@@ -15714,7 +15714,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>SPRACHMAN MELISSA M;;CAVANAGH PETER;;KOTZ KENNETH T;;BYRNES STEVEN J;;VARGO EMMA;;HUANG HAIYAO;;MARKOVIC STACEY;;FRANK IAN WARD;;FAVALORA GREGG E;;DUBAY RYAN A;;ROSENBERGER ERIN;;MCFARLAND KIRSTY A;;MAGYAR ANDREW P</t>
+          <t>ROSENBERGER ERIN;;KOTZ KENNETH T;;MAGYAR ANDREW P;;MCFARLAND KIRSTY A;;SPRACHMAN MELISSA M;;HUANG HAIYAO;;BYRNES STEVEN J;;FRANK IAN WARD;;FAVALORA GREGG E;;DUBAY RYAN A;;CAVANAGH PETER;;MARKOVIC STACEY;;VARGO EMMA</t>
         </is>
       </c>
       <c r="H135" t="inlineStr"/>
@@ -15747,12 +15747,12 @@
       </c>
       <c r="P135" t="inlineStr">
         <is>
-          <t>C12N15/10;;B81B1/00;;G06N3/12;;B01L3/00;;C12P19/34;;C12N9/12</t>
+          <t>C12N9/12;;B01L3/00;;C12N15/10;;G06N3/12;;C12P19/34;;B81B1/00</t>
         </is>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>B01J2219/00495;;B01J2219/00511;;B01J2219/00448;;C12N15/1006;;B01L3/5027;;B01L3/527;;C12P19/34;;B01J2219/00596;;B01J2219/00439;;G06N3/123;;B01L3/502761;;G11C13/02;;B01J2219/0052;;C12N15/1065;;C12N9/12;;B01J2219/00722;;B01L3/50851;;C12N15/1068;;B01J2219/00436;;B81B1/006;;B01J19/0046;;B01J2219/00711</t>
+          <t>C12N15/1006;;B01J2219/00511;;B01J19/0046;;B01J2219/00495;;B01J2219/0052;;C12N15/1068;;B01J2219/00596;;B01J2219/00711;;C12P19/34;;B01J2219/00436;;B01L3/527;;B01L3/5027;;B01J2219/00448;;B01J2219/00722;;G11C13/02;;G06N3/123;;B01J2219/00439;;C12N9/12;;C12N15/1065;;B01L3/502761;;B81B1/006;;B01L3/50851</t>
         </is>
       </c>
       <c r="R135" t="inlineStr"/>
@@ -15826,7 +15826,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>RIGETTI CHAD TYLER;;TEZAK NIKOLAS ANTON;;ZENG WILLIAM J;;JOHNSON BLAKE ROBERT</t>
+          <t>ZENG WILLIAM J;;TEZAK NIKOLAS ANTON;;JOHNSON BLAKE ROBERT;;RIGETTI CHAD TYLER</t>
         </is>
       </c>
       <c r="H136" t="inlineStr"/>
@@ -15864,7 +15864,7 @@
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>G06N20/00;;G06N5/003;;B82Y10/00;;G06N3/0454;;G06N10/00;;G06N7/005;;G06N3/0472</t>
+          <t>G06N5/003;;G06N20/00;;G06N3/0454;;B82Y10/00;;G06N7/005;;G06N10/00;;G06N3/0472</t>
         </is>
       </c>
       <c r="R136" t="inlineStr"/>
@@ -15934,7 +15934,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>RIGETTI CHAD TYLER;;TEZAK NIKOLAS ANTON;;ZENG WILLIAM J;;JOHNSON BLAKE ROBERT</t>
+          <t>ZENG WILLIAM J;;TEZAK NIKOLAS ANTON;;JOHNSON BLAKE ROBERT;;RIGETTI CHAD TYLER</t>
         </is>
       </c>
       <c r="H137" t="inlineStr"/>
@@ -15972,7 +15972,7 @@
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>G06N20/00;;G06N5/003;;B82Y10/00;;G06N3/0454;;G06N10/00;;G06N7/005;;G06N3/0472</t>
+          <t>G06N5/003;;G06N20/00;;G06N3/0454;;B82Y10/00;;G06N7/005;;G06N10/00;;G06N3/0472</t>
         </is>
       </c>
       <c r="R137" t="inlineStr"/>
@@ -16046,7 +16046,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>SIU MAN-HUNG;;JIANG ZHUOLIN;;FONG KIN CHUNG</t>
+          <t>FONG KIN CHUNG;;SIU MAN-HUNG;;JIANG ZHUOLIN</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -16083,12 +16083,12 @@
       </c>
       <c r="P138" t="inlineStr">
         <is>
-          <t>C01B32/19;;G06K9/62;;B82Y10/00;;G06N3/04;;B82Y30/00</t>
+          <t>C01B32/19;;G06N3/04;;G06K9/62;;B82Y10/00;;B82Y30/00</t>
         </is>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>G06K9/6267;;C01B32/19;;B82Y10/00;;G06N3/0454;;G06N3/0418;;G06K9/00147;;B82Y30/00;;G06N3/084</t>
+          <t>C01B32/19;;G06N3/0454;;G06N3/084;;B82Y10/00;;G06K9/00147;;G06N3/0418;;G06K9/6267;;B82Y30/00</t>
         </is>
       </c>
       <c r="R138" t="inlineStr"/>
@@ -16162,7 +16162,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
+          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -16199,12 +16199,12 @@
       </c>
       <c r="P139" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H01L29/15;;H01L29/12;;B82Y15/00;;G06N10/00;;H01L29/66;;H01L39/22;;H01L27/18</t>
+          <t>H01L27/18;;H01L29/15;;B82Y10/00;;G06N10/00;;H01L39/22;;H01L29/66;;B82Y15/00;;H01L29/12</t>
         </is>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>G11C11/44;;H03M1/66;;H03M13/1575;;H01L29/6681;;B82Y15/00;;G06N10/00;;H03M1/34;;H01L29/423;;G06F11/0724;;G02F1/01791;;G06N5/003;;H01L39/221;;G06N99/00;;H01L39/228;;H01L33/04;;G06F15/16;;H03K3/38;;H01L21/02694;;H01L29/0692;;H01L29/157;;H01L29/0673;;H01L29/66977;;H01L29/122;;H01L27/0886;;H01L27/0883;;H01L29/41791;;G06F11/0793;;H01L29/66439;;B82Y10/00;;G02F1/01725;;G06F11/0751;;G06F1/20;;G11C19/32;;H01L29/66984;;H01L27/18;;H03K19/195</t>
+          <t>G11C11/44;;H03K19/195;;H03M13/1575;;G06N5/003;;H01L29/0692;;G06F1/20;;H01L39/228;;H01L29/122;;H01L27/18;;H01L29/66984;;H01L27/0883;;H01L39/221;;H01L29/0673;;H03M1/34;;G06F11/0751;;H03K3/38;;H01L29/66977;;G02F1/01725;;B82Y10/00;;G06N10/00;;G02F1/01791;;H03M1/66;;H01L29/157;;G06N99/00;;H01L29/423;;H01L29/6681;;H01L27/0886;;G06F11/0793;;H01L21/02694;;H01L33/04;;H01L29/41791;;H01L29/66439;;G06F11/0724;;G11C19/32;;G06F15/16;;B82Y15/00</t>
         </is>
       </c>
       <c r="R139" t="inlineStr"/>
@@ -16278,7 +16278,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
+          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -16315,12 +16315,12 @@
       </c>
       <c r="P140" t="inlineStr">
         <is>
-          <t>H03M1/66;;B82Y15/00;;G06N10/00;;H03M1/34;;H01L29/15;;G06N99/00;;H01L33/04;;H01L29/12;;G06F15/16;;H03K3/38;;H01L39/22;;H01L29/417;;H01L27/088;;B82Y10/00;;G06F11/07;;G06F1/20;;G11C19/32;;H01L21/02;;G02F1/017;;H01L29/66;;H01L39/02;;H01L27/18;;H03K19/195</t>
+          <t>H03K19/195;;H01L39/02;;H01L29/15;;G06F1/20;;H01L39/22;;H01L29/66;;H01L27/18;;G06F11/07;;H03M1/34;;H03K3/38;;H01L29/12;;H01L29/417;;B82Y10/00;;G06N10/00;;H03M1/66;;G06N99/00;;H01L27/088;;H01L21/02;;H01L33/04;;G11C19/32;;G06F15/16;;B82Y15/00;;G02F1/017</t>
         </is>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>G11C11/44;;H03M1/66;;H03M13/1575;;H01L29/6681;;B82Y15/00;;G06N10/00;;H03M1/34;;H01L29/423;;G06F11/0724;;G02F1/01791;;G06N5/003;;H01L39/221;;G06N99/00;;H01L39/228;;H01L33/04;;G06F15/16;;H03K3/38;;H01L21/02694;;H01L29/0692;;H01L29/157;;H01L29/0673;;H01L29/66977;;H01L29/122;;H01L27/0886;;H01L27/0883;;H01L29/41791;;G06F11/0793;;H01L29/66439;;B82Y10/00;;G02F1/01725;;G06F11/0751;;G06F1/20;;G11C19/32;;H01L29/66984;;H01L27/18;;H03K19/195</t>
+          <t>G11C11/44;;H03K19/195;;H03M13/1575;;G06N5/003;;H01L29/0692;;G06F1/20;;H01L39/228;;H01L29/122;;H01L27/18;;H01L29/66984;;H01L27/0883;;H01L39/221;;H01L29/0673;;H03M1/34;;G06F11/0751;;H03K3/38;;H01L29/66977;;G02F1/01725;;B82Y10/00;;G06N10/00;;G02F1/01791;;H03M1/66;;H01L29/157;;G06N99/00;;H01L29/423;;H01L29/6681;;H01L27/0886;;G06F11/0793;;H01L21/02694;;H01L33/04;;H01L29/41791;;H01L29/66439;;G06F11/0724;;G11C19/32;;G06F15/16;;B82Y15/00</t>
         </is>
       </c>
       <c r="R140" t="inlineStr"/>
@@ -16352,7 +16352,7 @@
       </c>
       <c r="Y140" t="inlineStr">
         <is>
-          <t>US 2019/0393397 A1;;US 10934163 B2</t>
+          <t>US 10934163 B2;;US 2019/0393397 A1</t>
         </is>
       </c>
       <c r="Z140" t="inlineStr">
@@ -16394,7 +16394,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
+          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -16431,12 +16431,12 @@
       </c>
       <c r="P141" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H01L29/15;;H01L29/12;;B82Y15/00;;G06N10/00;;H01L39/22</t>
+          <t>H01L29/15;;B82Y10/00;;G06N10/00;;H01L39/22;;B82Y15/00;;H01L29/12</t>
         </is>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>G11C11/44;;H03M1/66;;H03M13/1575;;H01L29/6681;;B82Y15/00;;G06N10/00;;H03M1/34;;H01L29/423;;G06F11/0724;;G02F1/01791;;G06N5/003;;H01L39/221;;G06N99/00;;H01L39/228;;H01L33/04;;G06F15/16;;H03K3/38;;H01L21/02694;;H01L29/0692;;H01L29/157;;H01L29/0673;;H01L29/66977;;H01L29/122;;H01L27/0886;;H01L27/0883;;H01L29/41791;;G06F11/0793;;H01L29/66439;;B82Y10/00;;G02F1/01725;;G06F11/0751;;G06F1/20;;G11C19/32;;H01L29/66984;;H01L27/18;;H03K19/195</t>
+          <t>G11C11/44;;H03K19/195;;H03M13/1575;;G06N5/003;;H01L29/0692;;G06F1/20;;H01L39/228;;H01L29/122;;H01L27/18;;H01L29/66984;;H01L27/0883;;H01L39/221;;H01L29/0673;;H03M1/34;;G06F11/0751;;H03K3/38;;H01L29/66977;;G02F1/01725;;B82Y10/00;;G06N10/00;;G02F1/01791;;H03M1/66;;H01L29/157;;G06N99/00;;H01L29/423;;H01L29/6681;;H01L27/0886;;G06F11/0793;;H01L21/02694;;H01L33/04;;H01L29/41791;;H01L29/66439;;G06F11/0724;;G11C19/32;;G06F15/16;;B82Y15/00</t>
         </is>
       </c>
       <c r="R141" t="inlineStr"/>
@@ -16510,7 +16510,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
+          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -16547,12 +16547,12 @@
       </c>
       <c r="P142" t="inlineStr">
         <is>
-          <t>H01L29/12;;G06N99/00;;G06N10/00;;H01L29/66</t>
+          <t>G06N99/00;;G06N10/00;;H01L29/66;;H01L29/12</t>
         </is>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>G11C11/44;;H03M1/66;;H03M13/1575;;H01L29/6681;;B82Y15/00;;G06N10/00;;H03M1/34;;H01L29/423;;G06F11/0724;;G02F1/01791;;G06N5/003;;H01L39/221;;G06N99/00;;H01L39/228;;H01L33/04;;G06F15/16;;H03K3/38;;H01L21/02694;;H01L29/0692;;H01L29/157;;H01L29/0673;;H01L29/66977;;H01L29/122;;H01L27/0886;;H01L27/0883;;H01L29/41791;;G06F11/0793;;H01L29/66439;;B82Y10/00;;G02F1/01725;;G06F11/0751;;G06F1/20;;G11C19/32;;H01L29/66984;;H01L27/18;;H03K19/195</t>
+          <t>G11C11/44;;H03K19/195;;H03M13/1575;;G06N5/003;;H01L29/0692;;G06F1/20;;H01L39/228;;H01L29/122;;H01L27/18;;H01L29/66984;;H01L27/0883;;H01L39/221;;H01L29/0673;;H03M1/34;;G06F11/0751;;H03K3/38;;H01L29/66977;;G02F1/01725;;B82Y10/00;;G06N10/00;;G02F1/01791;;H03M1/66;;H01L29/157;;G06N99/00;;H01L29/423;;H01L29/6681;;H01L27/0886;;G06F11/0793;;H01L21/02694;;H01L33/04;;H01L29/41791;;H01L29/66439;;G06F11/0724;;G11C19/32;;G06F15/16;;B82Y15/00</t>
         </is>
       </c>
       <c r="R142" t="inlineStr"/>
@@ -16626,7 +16626,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
+          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -16663,12 +16663,12 @@
       </c>
       <c r="P143" t="inlineStr">
         <is>
-          <t>H01L29/12;;G06N99/00;;G06N10/00;;H01L29/66</t>
+          <t>G06N99/00;;G06N10/00;;H01L29/66;;H01L29/12</t>
         </is>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>G11C11/44;;H03M1/66;;H03M13/1575;;H01L29/6681;;B82Y15/00;;G06N10/00;;H03M1/34;;H01L29/423;;G06F11/0724;;G02F1/01791;;G06N5/003;;H01L39/221;;G06N99/00;;H01L39/228;;H01L33/04;;G06F15/16;;H03K3/38;;H01L21/02694;;H01L29/0692;;H01L29/157;;H01L29/0673;;H01L29/66977;;H01L29/122;;H01L27/0886;;H01L27/0883;;H01L29/41791;;G06F11/0793;;H01L29/66439;;B82Y10/00;;G02F1/01725;;G06F11/0751;;G06F1/20;;G11C19/32;;H01L29/66984;;H01L27/18;;H03K19/195</t>
+          <t>G11C11/44;;H03K19/195;;H03M13/1575;;G06N5/003;;H01L29/0692;;G06F1/20;;H01L39/228;;H01L29/122;;H01L27/18;;H01L29/66984;;H01L27/0883;;H01L39/221;;H01L29/0673;;H03M1/34;;G06F11/0751;;H03K3/38;;H01L29/66977;;G02F1/01725;;B82Y10/00;;G06N10/00;;G02F1/01791;;H03M1/66;;H01L29/157;;G06N99/00;;H01L29/423;;H01L29/6681;;H01L27/0886;;G06F11/0793;;H01L21/02694;;H01L33/04;;H01L29/41791;;H01L29/66439;;G06F11/0724;;G11C19/32;;G06F15/16;;B82Y15/00</t>
         </is>
       </c>
       <c r="R143" t="inlineStr"/>
@@ -16742,7 +16742,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
+          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -16779,12 +16779,12 @@
       </c>
       <c r="P144" t="inlineStr">
         <is>
-          <t>H01L29/12;;G06N10/00;;H01L29/66;;H01L29/775</t>
+          <t>H01L29/775;;H01L29/66;;H01L29/12;;G06N10/00</t>
         </is>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>G06N20/00;;B82Y10/00;;H01L29/7613;;H01L29/775;;H01L29/0673;;H01L29/66977;;G06N10/00;;H01L29/122;;H01L29/7391;;H01L29/423</t>
+          <t>H01L29/0673;;G06N20/00;;H01L29/7391;;B82Y10/00;;G06N10/00;;H01L29/122;;H01L29/775;;H01L29/66977;;H01L29/7613;;H01L29/423</t>
         </is>
       </c>
       <c r="R144" t="inlineStr"/>
@@ -16816,7 +16816,7 @@
       </c>
       <c r="Y144" t="inlineStr">
         <is>
-          <t>US 2020/0227523 A1;;US 10868119 B2</t>
+          <t>US 10868119 B2;;US 2020/0227523 A1</t>
         </is>
       </c>
       <c r="Z144" t="inlineStr">
@@ -16843,7 +16843,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>SEMICONDUCTOR CONTROLLED QUANTUM INTERACTION GATES;;Semiconductor controlled quantum interaction gates</t>
+          <t>Semiconductor controlled quantum interaction gates;;SEMICONDUCTOR CONTROLLED QUANTUM INTERACTION GATES</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -16858,7 +16858,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
+          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -16895,12 +16895,12 @@
       </c>
       <c r="P145" t="inlineStr">
         <is>
-          <t>H03M1/66;;B82Y15/00;;G06N10/00;;H03M1/34;;H01L29/15;;G06N99/00;;H01L33/04;;H01L29/12;;H01L39/24;;G06F15/16;;H01L39/22;;H01L29/417;;H01L27/088;;B82Y10/00;;G06F11/07;;G06F1/20;;G11C19/32;;H01L21/02;;G02F1/017;;H01L39/02;;H01L29/66;;H01L27/18;;H03K19/195</t>
+          <t>H03K19/195;;H01L39/02;;H01L29/15;;G06F1/20;;H01L39/22;;H01L29/66;;H01L27/18;;G06F11/07;;H01L39/24;;H03M1/34;;H01L29/12;;H01L29/417;;B82Y10/00;;G06N10/00;;H03M1/66;;G06N99/00;;H01L27/088;;H01L21/02;;H01L33/04;;G11C19/32;;G06F15/16;;B82Y15/00;;G02F1/017</t>
         </is>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>G11C11/44;;H03M1/66;;H03M13/1575;;H01L29/6681;;B82Y15/00;;G06N10/00;;H03M1/34;;H01L29/423;;G06F11/0724;;G02F1/01791;;G06N5/003;;H01L39/221;;G06N99/00;;H01L39/228;;H01L33/04;;G06F15/16;;H03K3/38;;H01L21/02694;;H01L29/0692;;H01L29/157;;H01L29/0673;;H01L29/66977;;H01L29/122;;H01L27/0886;;H01L27/0883;;H01L29/41791;;G06F11/0793;;H01L29/66439;;B82Y10/00;;G02F1/01725;;G06F11/0751;;G06F1/20;;G11C19/32;;H01L29/66984;;H01L27/18;;H03K19/195</t>
+          <t>G11C11/44;;H03K19/195;;H03M13/1575;;G06N5/003;;H01L29/0692;;G06F1/20;;H01L39/228;;H01L29/122;;H01L27/18;;H01L29/66984;;H01L27/0883;;H01L39/221;;H01L29/0673;;H03M1/34;;G06F11/0751;;H03K3/38;;H01L29/66977;;G02F1/01725;;B82Y10/00;;G06N10/00;;G02F1/01791;;H03M1/66;;H01L29/157;;G06N99/00;;H01L29/423;;H01L29/6681;;H01L27/0886;;G06F11/0793;;H01L21/02694;;H01L33/04;;H01L29/41791;;H01L29/66439;;G06F11/0724;;G11C19/32;;G06F15/16;;B82Y15/00</t>
         </is>
       </c>
       <c r="R145" t="inlineStr"/>
@@ -16932,7 +16932,7 @@
       </c>
       <c r="Y145" t="inlineStr">
         <is>
-          <t>US 10865106 B2;;US 2019/0393398 A1</t>
+          <t>US 2019/0393398 A1;;US 10865106 B2</t>
         </is>
       </c>
       <c r="Z145" t="inlineStr">
@@ -16959,7 +16959,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Semiconductor process for quantum structures with staircase active well incorporating shared gate control;;Semiconductor Process For Quantum Structures With Staircase Active Well Incorporating Shared Gate Control</t>
+          <t>Semiconductor Process For Quantum Structures With Staircase Active Well Incorporating Shared Gate Control;;Semiconductor process for quantum structures with staircase active well incorporating shared gate control</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -16974,7 +16974,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
+          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -17011,12 +17011,12 @@
       </c>
       <c r="P146" t="inlineStr">
         <is>
-          <t>H01L29/12;;G02F1/017;;G06N10/00;;H01L29/775</t>
+          <t>H01L29/775;;G02F1/017;;H01L29/12;;G06N10/00</t>
         </is>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>G06N5/003;;B82Y10/00;;G02F1/01725;;H01L29/7613;;H01L29/775;;H01L29/0673;;H01L29/66977;;G06N10/00;;H01L29/122;;H01L29/7391;;H01L29/423</t>
+          <t>G06N5/003;;H01L29/0673;;G02F1/01725;;H01L29/7391;;B82Y10/00;;G06N10/00;;H01L29/122;;H01L29/775;;H01L29/66977;;H01L29/7613;;H01L29/423</t>
         </is>
       </c>
       <c r="R146" t="inlineStr"/>
@@ -17048,7 +17048,7 @@
       </c>
       <c r="Y146" t="inlineStr">
         <is>
-          <t>US 10861940 B2;;US 2020/0227522 A1</t>
+          <t>US 2020/0227522 A1;;US 10861940 B2</t>
         </is>
       </c>
       <c r="Z146" t="inlineStr">
@@ -17065,7 +17065,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>126-784-143-304-325;;056-475-461-942-123</t>
+          <t>056-475-461-942-123;;126-784-143-304-325</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -17090,7 +17090,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
+          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -17127,12 +17127,12 @@
       </c>
       <c r="P147" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N99/00;;H01L33/04;;H01L29/12;;H01L21/02;;G06N10/00;;G02F1/017;;H01L29/66;;H03K19/195</t>
+          <t>H03K19/195;;H01L21/02;;H01L33/04;;B82Y10/00;;G06N10/00;;H01L29/12;;H01L29/66;;G02F1/017;;G06N99/00</t>
         </is>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>G11C11/44;;H03M1/66;;H03M13/1575;;H01L29/6681;;B82Y15/00;;G06N10/00;;H03M1/34;;H01L29/423;;G06F11/0724;;G02F1/01791;;G06N5/003;;H01L39/221;;G06N99/00;;H01L39/228;;H01L33/04;;G06F15/16;;H03K3/38;;H01L21/02694;;H01L29/0692;;H01L29/157;;H01L29/0673;;H01L29/66977;;H01L29/122;;H01L27/0886;;H01L27/0883;;H01L29/41791;;G06F11/0793;;H01L29/66439;;B82Y10/00;;G02F1/01725;;G06F11/0751;;G06F1/20;;G11C19/32;;H01L29/66984;;H01L27/18;;H03K19/195</t>
+          <t>G11C11/44;;H03K19/195;;H03M13/1575;;G06N5/003;;H01L29/0692;;G06F1/20;;H01L39/228;;H01L29/122;;H01L27/18;;H01L29/66984;;H01L27/0883;;H01L39/221;;H01L29/0673;;H03M1/34;;G06F11/0751;;H03K3/38;;H01L29/66977;;G02F1/01725;;B82Y10/00;;G06N10/00;;G02F1/01791;;H03M1/66;;H01L29/157;;G06N99/00;;H01L29/423;;H01L29/6681;;H01L27/0886;;G06F11/0793;;H01L21/02694;;H01L33/04;;H01L29/41791;;H01L29/66439;;G06F11/0724;;G11C19/32;;G06F15/16;;B82Y15/00</t>
         </is>
       </c>
       <c r="R147" t="inlineStr"/>
@@ -17164,7 +17164,7 @@
       </c>
       <c r="Y147" t="inlineStr">
         <is>
-          <t>US 10793431 B2;;US 2019/0393033 A1</t>
+          <t>US 2019/0393033 A1;;US 10793431 B2</t>
         </is>
       </c>
       <c r="Z147" t="inlineStr">
@@ -17181,7 +17181,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>103-370-753-926-944;;163-554-660-882-527</t>
+          <t>163-554-660-882-527;;103-370-753-926-944</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -17191,7 +17191,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Semiconductor controlled quantum swap interaction gate;;SEMICONDUCTOR CONTROLLED QUANTUM SWAP INTERACTION GATE</t>
+          <t>SEMICONDUCTOR CONTROLLED QUANTUM SWAP INTERACTION GATE;;Semiconductor controlled quantum swap interaction gate</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -17206,7 +17206,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
+          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -17243,12 +17243,12 @@
       </c>
       <c r="P148" t="inlineStr">
         <is>
-          <t>H03M1/66;;B82Y15/00;;G06N10/00;;H03M1/34;;H01L29/15;;G06N99/00;;H01L33/04;;H01L29/12;;H01L39/24;;G06F15/16;;H01L39/22;;H01L29/417;;H01L27/088;;B82Y10/00;;G06F11/07;;G06F1/20;;G11C19/32;;H01L21/02;;G02F1/017;;H01L39/02;;H01L29/66;;H01L27/18;;H03K19/195</t>
+          <t>H03K19/195;;H01L39/02;;H01L29/15;;G06F1/20;;H01L39/22;;H01L29/66;;H01L27/18;;G06F11/07;;H01L39/24;;H03M1/34;;H01L29/12;;H01L29/417;;B82Y10/00;;G06N10/00;;H03M1/66;;G06N99/00;;H01L27/088;;H01L21/02;;H01L33/04;;G11C19/32;;G06F15/16;;B82Y15/00;;G02F1/017</t>
         </is>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>G11C11/44;;H03M1/66;;H03M13/1575;;H01L29/6681;;B82Y15/00;;G06N10/00;;H03M1/34;;H01L29/423;;G06F11/0724;;G02F1/01791;;G06N5/003;;H01L39/221;;G06N99/00;;H01L39/228;;H01L33/04;;G06F15/16;;H03K3/38;;H01L21/02694;;H01L29/0692;;H01L29/157;;H01L29/0673;;H01L29/66977;;H01L29/122;;H01L27/0886;;H01L27/0883;;H01L29/41791;;G06F11/0793;;H01L29/66439;;B82Y10/00;;G02F1/01725;;G06F11/0751;;G06F1/20;;G11C19/32;;H01L29/66984;;H01L27/18;;H03K19/195</t>
+          <t>G11C11/44;;H03K19/195;;H03M13/1575;;G06N5/003;;H01L29/0692;;G06F1/20;;H01L39/228;;H01L29/122;;H01L27/18;;H01L29/66984;;H01L27/0883;;H01L39/221;;H01L29/0673;;H03M1/34;;G06F11/0751;;H03K3/38;;H01L29/66977;;G02F1/01725;;B82Y10/00;;G06N10/00;;G02F1/01791;;H03M1/66;;H01L29/157;;G06N99/00;;H01L29/423;;H01L29/6681;;H01L27/0886;;G06F11/0793;;H01L21/02694;;H01L33/04;;H01L29/41791;;H01L29/66439;;G06F11/0724;;G11C19/32;;G06F15/16;;B82Y15/00</t>
         </is>
       </c>
       <c r="R148" t="inlineStr"/>
@@ -17280,7 +17280,7 @@
       </c>
       <c r="Y148" t="inlineStr">
         <is>
-          <t>US 2019/0393399 A1;;US 10800654 B2</t>
+          <t>US 10800654 B2;;US 2019/0393399 A1</t>
         </is>
       </c>
       <c r="Z148" t="inlineStr">
@@ -17322,7 +17322,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
+          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -17359,12 +17359,12 @@
       </c>
       <c r="P149" t="inlineStr">
         <is>
-          <t>H01L29/12;;G06N99/00;;G06N10/00;;H01L29/66</t>
+          <t>G06N99/00;;G06N10/00;;H01L29/66;;H01L29/12</t>
         </is>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>G11C11/44;;H03M1/66;;H03M13/1575;;H01L29/6681;;B82Y15/00;;G06N10/00;;H03M1/34;;H01L29/423;;G06F11/0724;;G02F1/01791;;G06N5/003;;H01L39/221;;G06N99/00;;H01L39/228;;H01L33/04;;G06F15/16;;H03K3/38;;H01L21/02694;;H01L29/0692;;H01L29/157;;H01L29/0673;;H01L29/66977;;H01L29/122;;H01L27/0886;;H01L27/0883;;H01L29/41791;;G06F11/0793;;H01L29/66439;;B82Y10/00;;G02F1/01725;;G06F11/0751;;G06F1/20;;G11C19/32;;H01L29/66984;;H01L27/18;;H03K19/195</t>
+          <t>G11C11/44;;H03K19/195;;H03M13/1575;;G06N5/003;;H01L29/0692;;G06F1/20;;H01L39/228;;H01L29/122;;H01L27/18;;H01L29/66984;;H01L27/0883;;H01L39/221;;H01L29/0673;;H03M1/34;;G06F11/0751;;H03K3/38;;H01L29/66977;;G02F1/01725;;B82Y10/00;;G06N10/00;;G02F1/01791;;H03M1/66;;H01L29/157;;G06N99/00;;H01L29/423;;H01L29/6681;;H01L27/0886;;G06F11/0793;;H01L21/02694;;H01L33/04;;H01L29/41791;;H01L29/66439;;G06F11/0724;;G11C19/32;;G06F15/16;;B82Y15/00</t>
         </is>
       </c>
       <c r="R149" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>088-249-189-439-03X;;025-836-508-170-818</t>
+          <t>025-836-508-170-818;;088-249-189-439-03X</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -17438,7 +17438,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
+          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -17475,12 +17475,12 @@
       </c>
       <c r="P150" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H01L29/12;;H01L39/24;;G02F1/017;;G06N10/00;;H01L29/66;;H01L39/22;;H01L39/02;;H03K19/195</t>
+          <t>H03K19/195;;H01L39/02;;H01L39/24;;B82Y10/00;;G06N10/00;;H01L39/22;;H01L29/66;;G02F1/017;;H01L29/12</t>
         </is>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>G11C11/44;;H03M1/66;;H03M13/1575;;H01L29/6681;;B82Y15/00;;G06N10/00;;H03M1/34;;H01L29/423;;G06F11/0724;;G02F1/01791;;G06N5/003;;H01L39/221;;G06N99/00;;H01L39/228;;H01L33/04;;G06F15/16;;H03K3/38;;H01L21/02694;;H01L29/0692;;H01L29/157;;H01L29/0673;;H01L29/66977;;H01L29/122;;H01L27/0886;;H01L27/0883;;H01L29/41791;;G06F11/0793;;H01L29/66439;;B82Y10/00;;G02F1/01725;;G06F11/0751;;G06F1/20;;G11C19/32;;H01L29/66984;;H01L27/18;;H03K19/195</t>
+          <t>G11C11/44;;H03K19/195;;H03M13/1575;;G06N5/003;;H01L29/0692;;G06F1/20;;H01L39/228;;H01L29/122;;H01L27/18;;H01L29/66984;;H01L27/0883;;H01L39/221;;H01L29/0673;;H03M1/34;;G06F11/0751;;H03K3/38;;H01L29/66977;;G02F1/01725;;B82Y10/00;;G06N10/00;;G02F1/01791;;H03M1/66;;H01L29/157;;G06N99/00;;H01L29/423;;H01L29/6681;;H01L27/0886;;G06F11/0793;;H01L21/02694;;H01L33/04;;H01L29/41791;;H01L29/66439;;G06F11/0724;;G11C19/32;;G06F15/16;;B82Y15/00</t>
         </is>
       </c>
       <c r="R150" t="inlineStr"/>
@@ -17554,7 +17554,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
+          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -17591,12 +17591,12 @@
       </c>
       <c r="P151" t="inlineStr">
         <is>
-          <t>H01L27/088;;H03M1/66;;B82Y10/00;;B82Y15/00;;G06N10/00;;H01L39/22;;H01L27/18</t>
+          <t>H01L27/18;;B82Y10/00;;G06N10/00;;H01L39/22;;H03M1/66;;B82Y15/00;;H01L27/088</t>
         </is>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>G11C11/44;;H03M1/66;;H03M13/1575;;H01L29/6681;;B82Y15/00;;G06N10/00;;H03M1/34;;H01L29/423;;G06F11/0724;;G02F1/01791;;G06N5/003;;H01L39/221;;G06N99/00;;H01L39/228;;H01L33/04;;G06F15/16;;H03K3/38;;H01L21/02694;;H01L29/0692;;H01L29/157;;H01L29/0673;;H01L29/66977;;H01L29/122;;H01L27/0886;;H01L27/0883;;H01L29/41791;;G06F11/0793;;H01L29/66439;;B82Y10/00;;G02F1/01725;;G06F11/0751;;G06F1/20;;G11C19/32;;H01L29/66984;;H01L27/18;;H03K19/195</t>
+          <t>G11C11/44;;H03K19/195;;H03M13/1575;;G06N5/003;;H01L29/0692;;G06F1/20;;H01L39/228;;H01L29/122;;H01L27/18;;H01L29/66984;;H01L27/0883;;H01L39/221;;H01L29/0673;;H03M1/34;;G06F11/0751;;H03K3/38;;H01L29/66977;;G02F1/01725;;B82Y10/00;;G06N10/00;;G02F1/01791;;H03M1/66;;H01L29/157;;G06N99/00;;H01L29/423;;H01L29/6681;;H01L27/0886;;G06F11/0793;;H01L21/02694;;H01L33/04;;H01L29/41791;;H01L29/66439;;G06F11/0724;;G11C19/32;;G06F15/16;;B82Y15/00</t>
         </is>
       </c>
       <c r="R151" t="inlineStr"/>
@@ -17670,7 +17670,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
+          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -17707,12 +17707,12 @@
       </c>
       <c r="P152" t="inlineStr">
         <is>
-          <t>H01L29/417;;B82Y10/00;;H01L29/12;;G06N10/00;;H01L29/66;;H01L39/22</t>
+          <t>H01L29/417;;B82Y10/00;;G06N10/00;;H01L39/22;;H01L29/66;;H01L29/12</t>
         </is>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>G11C11/44;;H03M1/66;;H03M13/1575;;H01L29/6681;;B82Y15/00;;G06N10/00;;H03M1/34;;H01L29/423;;G06F11/0724;;G02F1/01791;;G06N5/003;;H01L39/221;;G06N99/00;;H01L39/228;;H01L33/04;;G06F15/16;;H03K3/38;;H01L21/02694;;H01L29/0692;;H01L29/157;;H01L29/0673;;H01L29/66977;;H01L29/122;;H01L27/0886;;H01L27/0883;;H01L29/41791;;G06F11/0793;;H01L29/66439;;B82Y10/00;;G02F1/01725;;G06F11/0751;;G06F1/20;;G11C19/32;;H01L29/66984;;H01L27/18;;H03K19/195</t>
+          <t>G11C11/44;;H03K19/195;;H03M13/1575;;G06N5/003;;H01L29/0692;;G06F1/20;;H01L39/228;;H01L29/122;;H01L27/18;;H01L29/66984;;H01L27/0883;;H01L39/221;;H01L29/0673;;H03M1/34;;G06F11/0751;;H03K3/38;;H01L29/66977;;G02F1/01725;;B82Y10/00;;G06N10/00;;G02F1/01791;;H03M1/66;;H01L29/157;;G06N99/00;;H01L29/423;;H01L29/6681;;H01L27/0886;;G06F11/0793;;H01L21/02694;;H01L33/04;;H01L29/41791;;H01L29/66439;;G06F11/0724;;G11C19/32;;G06F15/16;;B82Y15/00</t>
         </is>
       </c>
       <c r="R152" t="inlineStr"/>
@@ -17786,7 +17786,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
+          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -17823,12 +17823,12 @@
       </c>
       <c r="P153" t="inlineStr">
         <is>
-          <t>H01L29/417;;B82Y10/00;;H01L29/12;;B82Y15/00;;G06N10/00;;H03M1/34;;H01L29/66;;H01L39/22</t>
+          <t>H01L29/417;;H03M1/34;;B82Y10/00;;G06N10/00;;H01L39/22;;H01L29/66;;B82Y15/00;;H01L29/12</t>
         </is>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>G11C11/44;;H03M1/66;;H03M13/1575;;H01L29/6681;;B82Y15/00;;G06N10/00;;H03M1/34;;H01L29/423;;G06F11/0724;;G02F1/01791;;G06N5/003;;H01L39/221;;G06N99/00;;H01L39/228;;H01L33/04;;G06F15/16;;H03K3/38;;H01L21/02694;;H01L29/0692;;H01L29/157;;H01L29/0673;;H01L29/66977;;H01L29/122;;H01L27/0886;;H01L27/0883;;H01L29/41791;;G06F11/0793;;H01L29/66439;;B82Y10/00;;G02F1/01725;;G06F11/0751;;G06F1/20;;G11C19/32;;H01L29/66984;;H01L27/18;;H03K19/195</t>
+          <t>G11C11/44;;H03K19/195;;H03M13/1575;;G06N5/003;;H01L29/0692;;G06F1/20;;H01L39/228;;H01L29/122;;H01L27/18;;H01L29/66984;;H01L27/0883;;H01L39/221;;H01L29/0673;;H03M1/34;;G06F11/0751;;H03K3/38;;H01L29/66977;;G02F1/01725;;B82Y10/00;;G06N10/00;;G02F1/01791;;H03M1/66;;H01L29/157;;G06N99/00;;H01L29/423;;H01L29/6681;;H01L27/0886;;G06F11/0793;;H01L21/02694;;H01L33/04;;H01L29/41791;;H01L29/66439;;G06F11/0724;;G11C19/32;;G06F15/16;;B82Y15/00</t>
         </is>
       </c>
       <c r="R153" t="inlineStr"/>
@@ -17902,7 +17902,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
+          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -17939,12 +17939,12 @@
       </c>
       <c r="P154" t="inlineStr">
         <is>
-          <t>G06F11/07;;G06N10/00;;G06F1/20</t>
+          <t>G06F1/20;;G06F11/07;;G06N10/00</t>
         </is>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>G11C11/44;;H03M1/66;;H03M13/1575;;H01L29/6681;;B82Y15/00;;G06N10/00;;H03M1/34;;H01L29/423;;G06F11/0724;;G02F1/01791;;G06N5/003;;H01L39/221;;G06N99/00;;H01L39/228;;H01L33/04;;G06F15/16;;H03K3/38;;H01L21/02694;;H01L29/0692;;H01L29/157;;H01L29/0673;;H01L29/66977;;H01L29/122;;H01L27/0886;;H01L27/0883;;H01L29/41791;;G06F11/0793;;H01L29/66439;;B82Y10/00;;G02F1/01725;;G06F11/0751;;G06F1/20;;G11C19/32;;H01L29/66984;;H01L27/18;;H03K19/195</t>
+          <t>G11C11/44;;H03K19/195;;H03M13/1575;;G06N5/003;;H01L29/0692;;G06F1/20;;H01L39/228;;H01L29/122;;H01L27/18;;H01L29/66984;;H01L27/0883;;H01L39/221;;H01L29/0673;;H03M1/34;;G06F11/0751;;H03K3/38;;H01L29/66977;;G02F1/01725;;B82Y10/00;;G06N10/00;;G02F1/01791;;H03M1/66;;H01L29/157;;G06N99/00;;H01L29/423;;H01L29/6681;;H01L27/0886;;G06F11/0793;;H01L21/02694;;H01L33/04;;H01L29/41791;;H01L29/66439;;G06F11/0724;;G11C19/32;;G06F15/16;;B82Y15/00</t>
         </is>
       </c>
       <c r="R154" t="inlineStr"/>
@@ -18018,7 +18018,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
+          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -18060,7 +18060,7 @@
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>G11C11/44;;H03M1/66;;H03M13/1575;;H01L29/6681;;B82Y15/00;;G06N10/00;;H03M1/34;;H01L29/423;;G06F11/0724;;G02F1/01791;;G06N5/003;;H01L39/221;;G06N99/00;;H01L39/228;;H01L33/04;;G06F15/16;;H03K3/38;;H01L21/02694;;H01L29/0692;;H01L29/157;;H01L29/0673;;H01L29/66977;;H01L29/122;;H01L27/0886;;H01L27/0883;;H01L29/41791;;G06F11/0793;;H01L29/66439;;B82Y10/00;;G02F1/01725;;G06F11/0751;;G06F1/20;;G11C19/32;;H01L29/66984;;H01L27/18;;H03K19/195</t>
+          <t>G11C11/44;;H03K19/195;;H03M13/1575;;G06N5/003;;H01L29/0692;;G06F1/20;;H01L39/228;;H01L29/122;;H01L27/18;;H01L29/66984;;H01L27/0883;;H01L39/221;;H01L29/0673;;H03M1/34;;G06F11/0751;;H03K3/38;;H01L29/66977;;G02F1/01725;;B82Y10/00;;G06N10/00;;G02F1/01791;;H03M1/66;;H01L29/157;;G06N99/00;;H01L29/423;;H01L29/6681;;H01L27/0886;;G06F11/0793;;H01L21/02694;;H01L33/04;;H01L29/41791;;H01L29/66439;;G06F11/0724;;G11C19/32;;G06F15/16;;B82Y15/00</t>
         </is>
       </c>
       <c r="R155" t="inlineStr"/>
@@ -18134,7 +18134,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
+          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -18176,7 +18176,7 @@
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>G11C11/44;;H03M1/66;;H03M13/1575;;H01L29/6681;;B82Y15/00;;G06N10/00;;H03M1/34;;H01L29/423;;G06F11/0724;;G02F1/01791;;G06N5/003;;H01L39/221;;G06N99/00;;H01L39/228;;H01L33/04;;G06F15/16;;H03K3/38;;H01L21/02694;;H01L29/0692;;H01L29/157;;H01L29/0673;;H01L29/66977;;H01L29/122;;H01L27/0886;;H01L27/0883;;H01L29/41791;;G06F11/0793;;H01L29/66439;;B82Y10/00;;G02F1/01725;;G06F11/0751;;G06F1/20;;G11C19/32;;H01L29/66984;;H01L27/18;;H03K19/195</t>
+          <t>G11C11/44;;H03K19/195;;H03M13/1575;;G06N5/003;;H01L29/0692;;G06F1/20;;H01L39/228;;H01L29/122;;H01L27/18;;H01L29/66984;;H01L27/0883;;H01L39/221;;H01L29/0673;;H03M1/34;;G06F11/0751;;H03K3/38;;H01L29/66977;;G02F1/01725;;B82Y10/00;;G06N10/00;;G02F1/01791;;H03M1/66;;H01L29/157;;G06N99/00;;H01L29/423;;H01L29/6681;;H01L27/0886;;G06F11/0793;;H01L21/02694;;H01L33/04;;H01L29/41791;;H01L29/66439;;G06F11/0724;;G11C19/32;;G06F15/16;;B82Y15/00</t>
         </is>
       </c>
       <c r="R156" t="inlineStr"/>
@@ -18250,7 +18250,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
+          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -18287,12 +18287,12 @@
       </c>
       <c r="P157" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G11C19/32;;H01L29/12;;G06N10/00;;G02F1/017;;H01L29/66;;H03K19/195</t>
+          <t>H03K19/195;;B82Y10/00;;G06N10/00;;G11C19/32;;H01L29/66;;G02F1/017;;H01L29/12</t>
         </is>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>G11C11/44;;H03M1/66;;H03M13/1575;;H01L29/6681;;B82Y15/00;;G06N10/00;;H03M1/34;;H01L29/423;;G06F11/0724;;G02F1/01791;;G06N5/003;;H01L39/221;;G06N99/00;;H01L39/228;;H01L33/04;;G06F15/16;;H03K3/38;;H01L21/02694;;H01L29/0692;;H01L29/157;;H01L29/0673;;H01L29/66977;;H01L29/122;;H01L27/0886;;H01L27/0883;;H01L29/41791;;G06F11/0793;;H01L29/66439;;B82Y10/00;;G02F1/01725;;G06F11/0751;;G06F1/20;;G11C19/32;;H01L29/66984;;H01L27/18;;H03K19/195</t>
+          <t>G11C11/44;;H03K19/195;;H03M13/1575;;G06N5/003;;H01L29/0692;;G06F1/20;;H01L39/228;;H01L29/122;;H01L27/18;;H01L29/66984;;H01L27/0883;;H01L39/221;;H01L29/0673;;H03M1/34;;G06F11/0751;;H03K3/38;;H01L29/66977;;G02F1/01725;;B82Y10/00;;G06N10/00;;G02F1/01791;;H03M1/66;;H01L29/157;;G06N99/00;;H01L29/423;;H01L29/6681;;H01L27/0886;;G06F11/0793;;H01L21/02694;;H01L33/04;;H01L29/41791;;H01L29/66439;;G06F11/0724;;G11C19/32;;G06F15/16;;B82Y15/00</t>
         </is>
       </c>
       <c r="R157" t="inlineStr"/>
@@ -18324,7 +18324,7 @@
       </c>
       <c r="Y157" t="inlineStr">
         <is>
-          <t>US 10850978 B2;;US 2019/0392917 A1</t>
+          <t>US 2019/0392917 A1;;US 10850978 B2</t>
         </is>
       </c>
       <c r="Z157" t="inlineStr">
@@ -18341,7 +18341,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>115-082-311-778-939;;007-410-414-786-063</t>
+          <t>007-410-414-786-063;;115-082-311-778-939</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -18351,7 +18351,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Quantum Shift Register Structures;;Quantum shift register structures</t>
+          <t>Quantum shift register structures;;Quantum Shift Register Structures</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -18366,7 +18366,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
+          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -18389,7 +18389,7 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>A1;;B1</t>
+          <t>B1;;A1</t>
         </is>
       </c>
       <c r="M158" t="n">
@@ -18403,12 +18403,12 @@
       </c>
       <c r="P158" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H01L29/12;;G02F1/017;;G06N10/00;;H01L29/66;;H03K19/195</t>
+          <t>H03K19/195;;B82Y10/00;;G06N10/00;;H01L29/66;;G02F1/017;;H01L29/12</t>
         </is>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>G11C11/44;;H03M1/66;;H03M13/1575;;H01L29/6681;;B82Y15/00;;G06N10/00;;H03M1/34;;H01L29/423;;G06F11/0724;;G02F1/01791;;G06N5/003;;H01L39/221;;G06N99/00;;H01L39/228;;H01L33/04;;G06F15/16;;H03K3/38;;H01L21/02694;;H01L29/0692;;H01L29/157;;H01L29/0673;;H01L29/66977;;H01L29/122;;H01L27/0886;;H01L27/0883;;H01L29/41791;;G06F11/0793;;H01L29/66439;;B82Y10/00;;G02F1/01725;;G06F11/0751;;G06F1/20;;G11C19/32;;H01L29/66984;;H01L27/18;;H03K19/195</t>
+          <t>G11C11/44;;H03K19/195;;H03M13/1575;;G06N5/003;;H01L29/0692;;G06F1/20;;H01L39/228;;H01L29/122;;H01L27/18;;H01L29/66984;;H01L27/0883;;H01L39/221;;H01L29/0673;;H03M1/34;;G06F11/0751;;H03K3/38;;H01L29/66977;;G02F1/01725;;B82Y10/00;;G06N10/00;;G02F1/01791;;H03M1/66;;H01L29/157;;G06N99/00;;H01L29/423;;H01L29/6681;;H01L27/0886;;G06F11/0793;;H01L21/02694;;H01L33/04;;H01L29/41791;;H01L29/66439;;G06F11/0724;;G11C19/32;;G06F15/16;;B82Y15/00</t>
         </is>
       </c>
       <c r="R158" t="inlineStr"/>
@@ -18457,7 +18457,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>182-693-748-192-677;;020-566-032-583-940</t>
+          <t>020-566-032-583-940;;182-693-748-192-677</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -18467,7 +18467,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Quantum shift register based ancillary quantum interaction gates;;QUANTUM SHIFT REGISTER BASED ANCILLARY QUANTUM INTERACTION GATES</t>
+          <t>QUANTUM SHIFT REGISTER BASED ANCILLARY QUANTUM INTERACTION GATES;;Quantum shift register based ancillary quantum interaction gates</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -18482,7 +18482,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
+          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -18519,12 +18519,12 @@
       </c>
       <c r="P159" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N99/00;;G02F1/017;;G06N10/00;;G11C19/12</t>
+          <t>G11C19/12;;B82Y10/00;;G06N10/00;;G02F1/017;;G06N99/00</t>
         </is>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>G11C11/44;;H03M1/66;;H03M13/1575;;H01L29/6681;;B82Y15/00;;G06N10/00;;H03M1/34;;H01L29/423;;G06F11/0724;;G02F1/01791;;G06N5/003;;H01L39/221;;G06N99/00;;H01L39/228;;H01L33/04;;G06F15/16;;H03K3/38;;H01L21/02694;;H01L29/0692;;H01L29/157;;H01L29/0673;;H01L29/66977;;H01L29/122;;H01L27/0886;;H01L27/0883;;H01L29/41791;;G06F11/0793;;H01L29/66439;;B82Y10/00;;G02F1/01725;;G06F11/0751;;G06F1/20;;G11C19/32;;H01L29/66984;;H01L27/18;;H03K19/195</t>
+          <t>G11C11/44;;H03K19/195;;H03M13/1575;;G06N5/003;;H01L29/0692;;G06F1/20;;H01L39/228;;H01L29/122;;H01L27/18;;H01L29/66984;;H01L27/0883;;H01L39/221;;H01L29/0673;;H03M1/34;;G06F11/0751;;H03K3/38;;H01L29/66977;;G02F1/01725;;B82Y10/00;;G06N10/00;;G02F1/01791;;H03M1/66;;H01L29/157;;G06N99/00;;H01L29/423;;H01L29/6681;;H01L27/0886;;G06F11/0793;;H01L21/02694;;H01L33/04;;H01L29/41791;;H01L29/66439;;G06F11/0724;;G11C19/32;;G06F15/16;;B82Y15/00</t>
         </is>
       </c>
       <c r="R159" t="inlineStr"/>
@@ -18556,7 +18556,7 @@
       </c>
       <c r="Y159" t="inlineStr">
         <is>
-          <t>US 2019/0392912 A1;;US 10562764 B2</t>
+          <t>US 10562764 B2;;US 2019/0392912 A1</t>
         </is>
       </c>
       <c r="Z159" t="inlineStr">
@@ -18573,7 +18573,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>155-365-488-382-607;;079-188-284-728-507</t>
+          <t>079-188-284-728-507;;155-365-488-382-607</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -18583,7 +18583,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>QUANTUM SHIFT REGISTER INCORPORATING BIFURCATION;;Quantum shift register incorporating bifurcation</t>
+          <t>Quantum shift register incorporating bifurcation;;QUANTUM SHIFT REGISTER INCORPORATING BIFURCATION</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -18598,7 +18598,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
+          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -18635,12 +18635,12 @@
       </c>
       <c r="P160" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N99/00;;G02F1/017;;G06N10/00;;G11C19/12</t>
+          <t>G11C19/12;;B82Y10/00;;G06N10/00;;G02F1/017;;G06N99/00</t>
         </is>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>G11C11/44;;H03M1/66;;H03M13/1575;;H01L29/6681;;B82Y15/00;;G06N10/00;;H03M1/34;;H01L29/423;;G06F11/0724;;G02F1/01791;;G06N5/003;;H01L39/221;;G06N99/00;;H01L39/228;;H01L33/04;;G06F15/16;;H03K3/38;;H01L21/02694;;H01L29/0692;;H01L29/157;;H01L29/0673;;H01L29/66977;;H01L29/122;;H01L27/0886;;H01L27/0883;;H01L29/41791;;G06F11/0793;;H01L29/66439;;B82Y10/00;;G02F1/01725;;G06F11/0751;;G06F1/20;;G11C19/32;;H01L29/66984;;H01L27/18;;H03K19/195</t>
+          <t>G11C11/44;;H03K19/195;;H03M13/1575;;G06N5/003;;H01L29/0692;;G06F1/20;;H01L39/228;;H01L29/122;;H01L27/18;;H01L29/66984;;H01L27/0883;;H01L39/221;;H01L29/0673;;H03M1/34;;G06F11/0751;;H03K3/38;;H01L29/66977;;G02F1/01725;;B82Y10/00;;G06N10/00;;G02F1/01791;;H03M1/66;;H01L29/157;;G06N99/00;;H01L29/423;;H01L29/6681;;H01L27/0886;;G06F11/0793;;H01L21/02694;;H01L33/04;;H01L29/41791;;H01L29/66439;;G06F11/0724;;G11C19/32;;G06F15/16;;B82Y15/00</t>
         </is>
       </c>
       <c r="R160" t="inlineStr"/>
@@ -18672,7 +18672,7 @@
       </c>
       <c r="Y160" t="inlineStr">
         <is>
-          <t>US 10562765 B2;;US 2019/0392913 A1</t>
+          <t>US 2019/0392913 A1;;US 10562765 B2</t>
         </is>
       </c>
       <c r="Z160" t="inlineStr">
@@ -18689,7 +18689,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>151-489-485-071-773;;034-522-777-279-242</t>
+          <t>034-522-777-279-242;;151-489-485-071-773</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -18699,7 +18699,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>QUANTUM STRUCTURE INCORPORATING ELECTRIC AND MAGNETIC ANGLE CONTROL;;SEMICONDUCTOR CONTROLLED QUANTUM INTERACTION GATES</t>
+          <t>SEMICONDUCTOR CONTROLLED QUANTUM INTERACTION GATES;;QUANTUM STRUCTURE INCORPORATING ELECTRIC AND MAGNETIC ANGLE CONTROL</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -18714,7 +18714,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
+          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="H161" t="inlineStr"/>
@@ -18747,12 +18747,12 @@
       </c>
       <c r="P161" t="inlineStr">
         <is>
-          <t>B82Y10/00;;H01L29/12;;G06N10/00</t>
+          <t>B82Y10/00;;G06N10/00;;H01L29/12</t>
         </is>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>G11C11/44;;H03M1/66;;H03M13/1575;;H01L29/6681;;B82Y15/00;;G06N10/00;;H03M1/34;;H01L29/423;;G06F11/0724;;G02F1/01791;;G06N5/003;;H01L39/221;;G06N99/00;;H01L39/228;;H01L33/04;;G06F15/16;;H03K3/38;;H01L21/02694;;H01L29/0692;;H01L29/157;;H01L29/0673;;H01L29/66977;;H01L29/122;;H01L27/0886;;H01L27/0883;;H01L29/41791;;G06F11/0793;;H01L29/66439;;B82Y10/00;;G02F1/01725;;G06F11/0751;;G06F1/20;;G11C19/32;;H01L29/66984;;H01L27/18;;H03K19/195</t>
+          <t>G11C11/44;;H03K19/195;;H03M13/1575;;G06N5/003;;H01L29/0692;;G06F1/20;;H01L39/228;;H01L29/122;;H01L27/18;;H01L29/66984;;H01L27/0883;;H01L39/221;;H01L29/0673;;H03M1/34;;G06F11/0751;;H03K3/38;;H01L29/66977;;G02F1/01725;;B82Y10/00;;G06N10/00;;G02F1/01791;;H03M1/66;;H01L29/157;;G06N99/00;;H01L29/423;;H01L29/6681;;H01L27/0886;;G06F11/0793;;H01L21/02694;;H01L33/04;;H01L29/41791;;H01L29/66439;;G06F11/0724;;G11C19/32;;G06F15/16;;B82Y15/00</t>
         </is>
       </c>
       <c r="R161" t="inlineStr"/>
@@ -18784,7 +18784,7 @@
       </c>
       <c r="Y161" t="inlineStr">
         <is>
-          <t>WO 2019/244078 A1;;WO 2019/244076 A1</t>
+          <t>WO 2019/244076 A1;;WO 2019/244078 A1</t>
         </is>
       </c>
       <c r="Z161" t="inlineStr">
@@ -18826,7 +18826,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>XUE YANBO;;MACREADY WILLIAM G</t>
+          <t>MACREADY WILLIAM G;;XUE YANBO</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -18863,12 +18863,12 @@
       </c>
       <c r="P162" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N20/00;;G06N7/00;;G06N10/00</t>
+          <t>G06N20/00;;G06N7/00;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N20/00;;G06N10/00;;G06N7/005</t>
+          <t>G06N7/005;;B82Y10/00;;G06N10/00;;G06N20/00</t>
         </is>
       </c>
       <c r="R162" t="inlineStr"/>
@@ -18942,7 +18942,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>TEZAK NIKOLAS ANTON;;DA SILVA MARCUS PALMER;;WILSON CHRISTOPHER MOGAN;;SMITH ROBERT STANLEY</t>
+          <t>SMITH ROBERT STANLEY;;WILSON CHRISTOPHER MOGAN;;TEZAK NIKOLAS ANTON;;DA SILVA MARCUS PALMER</t>
         </is>
       </c>
       <c r="H163" t="inlineStr"/>
@@ -18980,7 +18980,7 @@
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;G06N20/10</t>
+          <t>G06N20/10;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="R163" t="inlineStr"/>
@@ -19054,7 +19054,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>TEZAK NIKOLAS ANTON;;PETERSON ERIC CHRISTOPHER;;HEIDEL STEVEN;;OSBORN CHRISTOPHER BUTLER;;KARALEKAS PETER JONATHAN;;SMITH ROBERT STANLEY;;LYNCH ADAM DAVID</t>
+          <t>TEZAK NIKOLAS ANTON;;LYNCH ADAM DAVID;;SMITH ROBERT STANLEY;;PETERSON ERIC CHRISTOPHER;;KARALEKAS PETER JONATHAN;;OSBORN CHRISTOPHER BUTLER;;HEIDEL STEVEN</t>
         </is>
       </c>
       <c r="H164" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>TEZAK NIKOLAS ANTON;;PETERSON ERIC CHRISTOPHER;;HEIDEL STEVEN;;OSBORN CHRISTOPHER BUTLER;;KARALEKAS PETER JONATHAN;;SMITH ROBERT STANLEY;;LYNCH ADAM DAVID</t>
+          <t>TEZAK NIKOLAS ANTON;;LYNCH ADAM DAVID;;SMITH ROBERT STANLEY;;PETERSON ERIC CHRISTOPHER;;KARALEKAS PETER JONATHAN;;OSBORN CHRISTOPHER BUTLER;;HEIDEL STEVEN</t>
         </is>
       </c>
       <c r="H165" t="inlineStr"/>
@@ -19274,7 +19274,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>WANG SHENGTAO;;LUKIN MIKHAIL;;CHOI SOONWON;;PICHLER HANNES;;ZHOU LEO</t>
+          <t>ZHOU LEO;;WANG SHENGTAO;;PICHLER HANNES;;LUKIN MIKHAIL;;CHOI SOONWON</t>
         </is>
       </c>
       <c r="H166" t="inlineStr"/>
@@ -19307,12 +19307,12 @@
       </c>
       <c r="P166" t="inlineStr">
         <is>
-          <t>H01L29/06;;H01L21/00;;G06N99/00;;G06F15/78</t>
+          <t>H01L21/00;;G06F15/78;;G06N99/00;;H01L29/06</t>
         </is>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;G06N5/003</t>
+          <t>G06N5/003;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="R166" t="inlineStr"/>
@@ -19386,7 +19386,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>WANG SHENGTAO;;LUKIN MIKHAIL D;;ZHOU LEO XIANGYU;;CHOI SOONWON;;PICHLER HANNES</t>
+          <t>ZHOU LEO XIANGYU;;WANG SHENGTAO;;LUKIN MIKHAIL D;;PICHLER HANNES;;CHOI SOONWON</t>
         </is>
       </c>
       <c r="H167" t="inlineStr"/>
@@ -19419,12 +19419,12 @@
       </c>
       <c r="P167" t="inlineStr">
         <is>
-          <t>H01L29/06;;H01L21/00;;G06N99/00;;G06F15/78</t>
+          <t>H01L21/00;;G06F15/78;;G06N99/00;;H01L29/06</t>
         </is>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;G06N5/003</t>
+          <t>G06N5/003;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="R167" t="inlineStr"/>
@@ -19498,7 +19498,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>TEZAK NIKOLAS ANTON;;PETERSON ERIC CHRISTOPHER;;RIGETTI CHAD TYLER;;REAGOR MATTHEW J;;RUST MICHAEL;;DESAI ANAND;;SMITH ROBERT STANLEY;;JONES GLENN</t>
+          <t>JONES GLENN;;DESAI ANAND;;TEZAK NIKOLAS ANTON;;SMITH ROBERT STANLEY;;PETERSON ERIC CHRISTOPHER;;REAGOR MATTHEW J;;RUST MICHAEL;;RIGETTI CHAD TYLER</t>
         </is>
       </c>
       <c r="H168" t="inlineStr"/>
@@ -19536,7 +19536,7 @@
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N5/022;;G06N10/00;;G06N5/003</t>
+          <t>G06N5/022;;G06N5/003;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="R168" t="inlineStr"/>
@@ -19585,7 +19585,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>092-853-485-533-675;;181-007-346-539-851</t>
+          <t>181-007-346-539-851;;092-853-485-533-675</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -19610,7 +19610,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>WANG GANG;;VASTAREY NIKHIL SURESH;;KOUL RAMAN;;BHAT SUMRITA;;WANG GANG (A K A JOSEPH);;SALAHANDISH RAZIEH;;KAPOOR ANMOL SINGH</t>
+          <t>BHAT SUMRITA;;KAPOOR ANMOL SINGH;;VASTAREY NIKHIL SURESH;;WANG GANG;;SALAHANDISH RAZIEH;;KOUL RAMAN;;WANG GANG (A K A JOSEPH)</t>
         </is>
       </c>
       <c r="H169" t="inlineStr"/>
@@ -19643,12 +19643,12 @@
       </c>
       <c r="P169" t="inlineStr">
         <is>
-          <t>G16H50/20;;G16H40/67;;G16H70/20;;H04W4/80;;G01N27/416;;H04W4/90;;G01N27/30;;G01N27/403;;H04W4/38;;B82Y15/00;;G06K9/18;;G06K7/10;;G06K19/07</t>
+          <t>H04W4/80;;G16H50/20;;G16H40/67;;G01N27/403;;G01N27/416;;G06K19/07;;G16H70/20;;G06K7/10;;G06K9/18;;H04W4/90;;G01N27/30;;H04W4/38;;B82Y15/00</t>
         </is>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>G16H50/20;;G16H40/67;;G01N27/3278;;H04W4/80;;H04W4/90;;G01N33/48785;;H04W4/021;;G16H40/20;;B82Y30/00;;H04W4/02;;G06K9/2063</t>
+          <t>H04W4/80;;G16H40/67;;G16H50/20;;G01N27/3278;;G16H40/20;;H04W4/021;;G01N33/48785;;H04W4/90;;G06K9/2063;;H04W4/02;;B82Y30/00</t>
         </is>
       </c>
       <c r="R169" t="inlineStr"/>
@@ -19680,12 +19680,12 @@
       </c>
       <c r="Y169" t="inlineStr">
         <is>
-          <t>CA 3060849 A1;;WO 2020/087187 A1</t>
+          <t>WO 2020/087187 A1;;CA 3060849 A1</t>
         </is>
       </c>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>CA 2019051567 W;;CA 3060849 A</t>
+          <t>CA 3060849 A;;CA 2019051567 W</t>
         </is>
       </c>
     </row>
@@ -19759,12 +19759,12 @@
       </c>
       <c r="P170" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G11C13/02;;G06N3/06</t>
+          <t>G11C13/02;;B82Y10/00;;G06N3/06</t>
         </is>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>G11C2213/33;;G11C7/1006;;G11C2213/79;;B82Y10/00;;G11C13/025;;G11C13/0069;;H01L51/0048;;H01L27/285;;G11C2213/16;;G11C11/54;;G11C2213/81;;G11C2213/35;;G11C2213/77;;G11C13/004;;G06N3/06;;G06N3/063</t>
+          <t>G06N3/063;;G11C2213/33;;G11C13/004;;G06N3/06;;G11C2213/16;;G11C7/1006;;G11C2213/79;;G11C13/025;;B82Y10/00;;G11C11/54;;G11C2213/77;;H01L51/0048;;G11C2213/81;;G11C13/0069;;H01L27/285;;G11C2213/35</t>
         </is>
       </c>
       <c r="R170" t="inlineStr"/>
@@ -19813,7 +19813,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>076-221-075-828-336;;080-794-601-505-258;;095-868-444-209-722</t>
+          <t>080-794-601-505-258;;076-221-075-828-336;;095-868-444-209-722</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -19833,12 +19833,12 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>TAIWAN SEMICONDUCTOR MFG CO LTD;;TAIWAN SEMICONDUCTOR MFG</t>
+          <t>TAIWAN SEMICONDUCTOR MFG;;TAIWAN SEMICONDUCTOR MFG CO LTD</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>DOORNBOS GERBEN;;GERBEN DOORNBOS;;MARCUS JOHANNES HENRICUS VAN DAL;;MAURICIO MANFRINI;;MANFRINI MAURICIO;;VAN DAL MARCUS JOHANNES HENRICUS</t>
+          <t>VAN DAL MARCUS JOHANNES HENRICUS;;DOORNBOS GERBEN;;MARCUS JOHANNES HENRICUS VAN DAL;;MAURICIO MANFRINI;;MANFRINI MAURICIO;;GERBEN DOORNBOS</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -19851,7 +19851,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>US;;TW;;CN</t>
+          <t>CN;;TW;;US</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -19875,12 +19875,12 @@
       </c>
       <c r="P171" t="inlineStr">
         <is>
-          <t>G11C11/16;;H01L27/22;;G11C11/56;;G06N3/04;;G11C11/54;;G11C13/00;;G06N3/063</t>
+          <t>G06N3/04;;G06N3/063;;G11C11/16;;G11C11/54;;G11C13/00;;H01L27/22;;G11C11/56</t>
         </is>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>G11C11/1675;;G11C13/0007;;H01L27/228;;G11C11/5607;;G11C13/0002;;B82Y10/00;;G11C11/5685;;G11C13/003;;G06N3/049;;G11C13/0038;;G11C13/0069;;G06N3/04;;G11C2213/78;;G11C11/54;;G11C11/1697;;H01L27/222;;G11C11/1659;;G06N3/063</t>
+          <t>G06N3/063;;G11C11/1659;;G06N3/04;;G11C11/1697;;G11C13/0002;;G11C11/5685;;G06N3/049;;G11C11/1675;;B82Y10/00;;G11C11/54;;G11C2213/78;;G11C13/0038;;G11C11/5607;;H01L27/222;;H01L27/228;;G11C13/0069;;G11C13/003;;G11C13/0007</t>
         </is>
       </c>
       <c r="R171" t="inlineStr"/>
@@ -19912,12 +19912,12 @@
       </c>
       <c r="Y171" t="inlineStr">
         <is>
-          <t>US 2020/0311524 A1;;TW 202109532 A;;CN 111799294 A</t>
+          <t>CN 111799294 A;;US 2020/0311524 A1;;TW 202109532 A</t>
         </is>
       </c>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>CN 202010248805 A;;US 201916371382 A;;TW 109111117 A</t>
+          <t>US 201916371382 A;;TW 109111117 A;;CN 202010248805 A</t>
         </is>
       </c>
     </row>
@@ -19954,7 +19954,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>FARO SERTAGE ISMAEL;;JAVADIABHARI ALI;;MARTIN FERNANDEZ FRANCISCO JOSE;;PISTOIA MARCO;;GAMBETTA JAY M;;LIU PENG</t>
+          <t>LIU PENG;;PISTOIA MARCO;;FARO SERTAGE ISMAEL;;MARTIN FERNANDEZ FRANCISCO JOSE;;JAVADIABHARI ALI;;GAMBETTA JAY M</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -19996,7 +19996,7 @@
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N20/00;;G06N10/00</t>
+          <t>G06N20/00;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="R172" t="inlineStr"/>
@@ -20045,7 +20045,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>134-786-461-439-048;;199-761-522-900-975</t>
+          <t>199-761-522-900-975;;134-786-461-439-048</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -20070,7 +20070,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>NANNICINI GIACOMO;;GREENBERG DON;;CHEN RICHARD;;PISTOIA MARCO</t>
+          <t>NANNICINI GIACOMO;;CHEN RICHARD;;GREENBERG DON;;PISTOIA MARCO</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -20107,12 +20107,12 @@
       </c>
       <c r="P173" t="inlineStr">
         <is>
-          <t>G06N5/00;;G06N10/00;;G06N5/02</t>
+          <t>G06N5/00;;G06N5/02;;G06N10/00</t>
         </is>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N5/02;;G06N10/00;;G06N5/003</t>
+          <t>G06N5/02;;G06N5/003;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="R173" t="inlineStr"/>
@@ -20186,7 +20186,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>NANNICINI GIACOMO;;GREENBERG DON;;CHEN RICHARD;;PISTOIA MARCO</t>
+          <t>NANNICINI GIACOMO;;CHEN RICHARD;;GREENBERG DON;;PISTOIA MARCO</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -20228,7 +20228,7 @@
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N5/02;;G06N10/00;;G06N5/003</t>
+          <t>G06N5/02;;G06N5/003;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="R174" t="inlineStr"/>
@@ -20287,7 +20287,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>STACKED RESISTIVE MEMORY WITH INDIVIDUAL SWITCH CONTROL;;Stacked resistive memory with individual switch control</t>
+          <t>Stacked resistive memory with individual switch control;;STACKED RESISTIVE MEMORY WITH INDIVIDUAL SWITCH CONTROL</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -20302,7 +20302,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>HASHEMI POUYA;;ANDO TAKASHI;;LEE CHOONGHYUN;;ZHANG JINGYUN;;REZNICEK ALEXANDER</t>
+          <t>REZNICEK ALEXANDER;;HASHEMI POUYA;;LEE CHOONGHYUN;;ZHANG JINGYUN;;ANDO TAKASHI</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -20339,12 +20339,12 @@
       </c>
       <c r="P175" t="inlineStr">
         <is>
-          <t>H01L45/00;;H01L29/786;;H01L27/24;;H01L29/66;;H01L29/423;;H01L29/06;;G06N3/063</t>
+          <t>H01L45/00;;G06N3/063;;H01L27/24;;H01L29/786;;H01L29/66;;H01L29/06;;H01L29/423</t>
         </is>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>G06N3/0635;;H01L27/2481;;H01L27/2436;;H01L45/1233;;H01L29/66742;;H01L29/42392;;H01L29/1079;;G06N3/049;;H01L45/04;;H01L45/1253;;H01L45/16;;H01L45/08;;H01L29/0673;;H01L29/775;;G06N3/088;;H01L45/146;;H01L29/66439;;H01L29/78696;;B82Y10/00;;H01L29/41725;;H01L45/122;;H01L29/0653;;G06N3/063</t>
+          <t>G06N3/0635;;H01L45/1233;;H01L45/04;;H01L29/78696;;H01L29/0673;;G06N3/049;;H01L45/1253;;H01L29/66742;;H01L29/42392;;H01L27/2436;;G06N3/088;;H01L45/146;;H01L29/41725;;B82Y10/00;;H01L27/2481;;H01L29/1079;;H01L29/0653;;H01L45/16;;G06N3/063;;H01L45/122;;H01L29/66439;;H01L29/775;;H01L45/08</t>
         </is>
       </c>
       <c r="R175" t="inlineStr"/>
@@ -20455,12 +20455,12 @@
       </c>
       <c r="P176" t="inlineStr">
         <is>
-          <t>G06N20/00;;G06K9/62;;B82Y10/00;;G06F15/80;;G06N10/00</t>
+          <t>G06K9/62;;G06N20/00;;G06F15/80;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>G06K9/6223;;G06K9/6259;;G06N20/00;;B82Y10/00;;G06K9/6215;;G06K9/00127;;G06K9/6218;;G06F15/803;;G06N10/00</t>
+          <t>G06K9/6223;;G06K9/6215;;G06N20/00;;G06K9/6259;;G06K9/00127;;B82Y10/00;;G06N10/00;;G06K9/6218;;G06F15/803</t>
         </is>
       </c>
       <c r="R176" t="inlineStr"/>
@@ -20492,12 +20492,12 @@
       </c>
       <c r="Y176" t="inlineStr">
         <is>
-          <t>WO 2020/260476 A1;;US 2020/0410380 A1</t>
+          <t>US 2020/0410380 A1;;WO 2020/260476 A1</t>
         </is>
       </c>
       <c r="Z176" t="inlineStr">
         <is>
-          <t>EP 2020067867 W;;US 201916456421 A</t>
+          <t>US 201916456421 A;;EP 2020067867 W</t>
         </is>
       </c>
     </row>
@@ -20534,7 +20534,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>REZNICEK ALEXANDER;;HEKMATSHOARTABARI BAHMAN;;ANDO TAKASHI</t>
+          <t>REZNICEK ALEXANDER;;ANDO TAKASHI;;HEKMATSHOARTABARI BAHMAN</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -20571,12 +20571,12 @@
       </c>
       <c r="P177" t="inlineStr">
         <is>
-          <t>H01L45/00;;H01L29/78;;H01L29/06;;H01L21/28;;H01L27/24;;H01L21/02;;H01L29/08;;H01L29/10;;H01L29/66;;H01L29/423;;G11C13/00;;G06N3/06;;G06N3/063</t>
+          <t>H01L45/00;;G06N3/063;;H01L29/10;;G06N3/06;;H01L27/24;;H01L21/02;;G11C13/00;;H01L29/78;;H01L29/66;;H01L21/28;;H01L29/08;;H01L29/06;;H01L29/423</t>
         </is>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>H01L21/02532;;H01L29/66795;;G06N3/08;;H01L27/2481;;H01L27/2436;;H01L45/1233;;G11C2213/74;;G06N3/061;;G11C2213/52;;H01L29/785;;G11C2213/79;;H01L29/42392;;H01L45/1683;;H01L45/04;;G11C2213/71;;H01L21/28079;;H01L45/1253;;H01L29/1037;;H01L29/66545;;G11C2213/32;;H01L29/0673;;G11C11/54;;H01L29/775;;G11C13/004;;H01L45/146;;G11C13/0007;;H01L29/66439;;H01L29/78696;;G11C13/003;;B82Y10/00;;H01L27/249;;H01L45/1226;;H01L29/0847;;G06N3/0635;;G06N3/063</t>
+          <t>G06N3/0635;;G11C2213/79;;H01L29/0847;;G11C11/54;;H01L45/1233;;H01L45/1226;;H01L45/04;;H01L45/1683;;H01L29/1037;;H01L29/785;;G11C13/0007;;H01L29/78696;;G11C2213/71;;H01L29/0673;;H01L45/1253;;G06N3/061;;G11C13/003;;H01L29/42392;;G11C2213/52;;H01L27/2436;;H01L27/249;;G11C13/004;;H01L45/146;;B82Y10/00;;H01L27/2481;;H01L21/28079;;G11C2213/74;;G06N3/063;;H01L29/66795;;G06N3/08;;H01L29/66439;;H01L29/66545;;G11C2213/32;;H01L21/02532;;H01L29/775</t>
         </is>
       </c>
       <c r="R177" t="inlineStr"/>
@@ -20688,7 +20688,7 @@
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>G01B9/02081;;G01Q60/38;;B82Y35/00;;G01Q60/24;;G02F1/3538;;H01S3/10076;;G01B2290/55;;G01B9/02;;G02F1/29;;G01B9/02003;;G01Q20/02;;G01N21/45;;G01B9/02079</t>
+          <t>G02F1/3538;;G01B9/02;;G01B9/02081;;G01B9/02079;;B82Y35/00;;G01B2290/55;;G01Q20/02;;G02F1/29;;H01S3/10076;;G01N21/45;;G01B9/02003;;G01Q60/24;;G01Q60/38</t>
         </is>
       </c>
       <c r="R178" t="inlineStr"/>
@@ -20762,7 +20762,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>MCKIERNAN KERI ANN;;DAVIS ERIK JOSEPH;;RIGETTI CHAD TYLER;;SMITH ROBERT STANLEY;;ALAM MUHAMMAD SOHAIB</t>
+          <t>ALAM MUHAMMAD SOHAIB;;SMITH ROBERT STANLEY;;DAVIS ERIK JOSEPH;;MCKIERNAN KERI ANN;;RIGETTI CHAD TYLER</t>
         </is>
       </c>
       <c r="H179" t="inlineStr"/>
@@ -20795,12 +20795,12 @@
       </c>
       <c r="P179" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;G06N3/04;;G06N3/08</t>
+          <t>G06N3/08;;G06N3/04;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>G06N3/08;;B82Y10/00;;G06N3/0454;;G06N10/00;;G06N7/005;;G06N3/006</t>
+          <t>G06N3/0454;;G06N7/005;;B82Y10/00;;G06N10/00;;G06N3/08;;G06N3/006</t>
         </is>
       </c>
       <c r="R179" t="inlineStr"/>
@@ -20907,12 +20907,12 @@
       </c>
       <c r="P180" t="inlineStr">
         <is>
-          <t>B82B3/00;;G06N3/08;;H01L29/02;;G01Q30/04;;G06N3/02</t>
+          <t>H01L29/02;;G06N3/02;;G01Q30/04;;G06N3/08;;B82B3/00</t>
         </is>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>B82B3/00;;G06N3/08;;H01L29/02;;G01Q30/04;;G06N3/02</t>
+          <t>H01L29/02;;G06N3/02;;G01Q30/04;;G06N3/08;;B82B3/00</t>
         </is>
       </c>
       <c r="R180" t="inlineStr"/>
@@ -21136,7 +21136,7 @@
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N3/00</t>
+          <t>G06N3/00;;B82Y10/00</t>
         </is>
       </c>
       <c r="R182" t="inlineStr"/>
@@ -21243,12 +21243,12 @@
       </c>
       <c r="P183" t="inlineStr">
         <is>
-          <t>G01N27/447;;C12Q1/6869;;B82Y15/00;;C12Q1/6813;;G01N33/487</t>
+          <t>G01N27/447;;G01N33/487;;C12Q1/6813;;B82Y15/00;;C12Q1/6869</t>
         </is>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>G01N33/48721;;G06N3/0454;;B82Y15/00;;C12Q1/682;;G06N3/123</t>
+          <t>C12Q1/682;;G06N3/0454;;G01N33/48721;;G06N3/123;;B82Y15/00</t>
         </is>
       </c>
       <c r="R183" t="inlineStr"/>
@@ -21360,7 +21360,7 @@
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;G06N5/003</t>
+          <t>G06N5/003;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="R184" t="inlineStr"/>
@@ -21434,7 +21434,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>JOHNSON PETER D;;CAO YUDONG;;GONTHIER JEROME FLORIAN;;KATABARWA AMARA;;DALLAIRE-DEMERS PIERRE-LUC</t>
+          <t>CAO YUDONG;;DALLAIRE-DEMERS PIERRE-LUC;;KATABARWA AMARA;;GONTHIER JEROME FLORIAN;;JOHNSON PETER D</t>
         </is>
       </c>
       <c r="H185" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>B82Y10/00;;G06N10/00;;G06N5/003</t>
+          <t>G06N5/003;;B82Y10/00;;G06N10/00</t>
         </is>
       </c>
       <c r="R185" t="inlineStr"/>
@@ -21546,7 +21546,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>LEE HONG-SUB;;HERSAM MARK C;;SANGWAN VINOD K</t>
+          <t>SANGWAN VINOD K;;HERSAM MARK C;;LEE HONG-SUB</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -21583,12 +21583,12 @@
       </c>
       <c r="P186" t="inlineStr">
         <is>
-          <t>H01L29/739;;G06N3/08;;G06N3/04;;H01L27/12;;H01L29/24;;H01L29/66;;H01L29/68</t>
+          <t>G06N3/04;;G06N3/08;;H01L29/739;;H01L29/68;;H01L29/24;;H01L27/12;;H01L29/66</t>
         </is>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>H01L29/0665;;H01L29/7831;;H01L29/66969;;H01L29/778;;H01L29/7839;;G06N3/08;;H01L29/685;;H01L29/04;;H01L29/78681;;H01L29/7394;;H01L27/1225;;G11C2213/53;;H01L29/4908;;H01L29/1033;;G11C13/0002;;G11C13/0033;;H01L29/24;;H01L27/127;;G11C11/54;;G11C13/004;;G11C2213/82;;G11C13/0007;;H01L29/78696;;G11C13/003;;B82Y10/00;;G11C13/0069;;G06N3/04</t>
+          <t>G11C13/0002;;H01L29/66969;;H01L29/685;;G11C11/54;;H01L29/7831;;H01L29/0665;;G11C13/0033;;G11C2213/82;;H01L29/778;;G11C13/0007;;H01L29/78696;;H01L27/1225;;G11C2213/53;;H01L29/7839;;H01L29/04;;G11C13/003;;H01L29/1033;;H01L29/7394;;G11C13/004;;B82Y10/00;;H01L29/78681;;H01L29/24;;H01L27/127;;G06N3/04;;H01L29/4908;;G06N3/08;;G11C13/0069</t>
         </is>
       </c>
       <c r="R186" t="inlineStr"/>
